--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="13_ncr:1_{2C4052C1-E49C-4FC8-9008-7CCA3C84511D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1947839E-6F3D-4700-B2B3-8D9363B5729F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE0509B0-BF41-4163-94B4-8A461D3DE38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="40" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="58">
   <si>
     <t>Resource Name</t>
   </si>
@@ -126,13 +126,121 @@
   </si>
   <si>
     <t>VidhyaPriya V</t>
+  </si>
+  <si>
+    <t>1.Discussion about wire frame.                                            2.Designing wire frame for  the Requester and Approver</t>
+  </si>
+  <si>
+    <t>1.Drilled down the User Stories. 
+2.Exploration on Abstract factory pattern.
+3.Meeting with Rafi.
+4.Discussion about the meeting.</t>
+  </si>
+  <si>
+    <t>wire framing for the UI of HR Page</t>
+  </si>
+  <si>
+    <t>1,1,3,0.5,0.5</t>
+  </si>
+  <si>
+    <t>1.Acceptance criteria 2.Constraints 3.Dependencies 4.assumptions</t>
+  </si>
+  <si>
+    <t>1.Prepare a Flowchart for User Stories. 
+2.Meeting with Rafi.
+3.Discussion about the meeting.</t>
+  </si>
+  <si>
+    <t>1. wireframe for approver 2.Constraints 3.Dependencies</t>
+  </si>
+  <si>
+    <t>3,1,0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1.discussion about wire frame .                                     2.made wire frame on Admin home page(manage employee,manage Award,manage Department).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1.Meeting with rafi.                                                  2.drilled down the user story.           3.Discussion about the meeting .     4.rework on flow diagram</t>
+  </si>
+  <si>
+    <t>wire framing for the UI of Admin</t>
+  </si>
+  <si>
+    <t>1. Wire framing for the UI of Public pages. 
+2. Removed duplicates from the User Stories.</t>
+  </si>
+  <si>
+    <t>1.Drilled down the User Stories. 
+2.Exploration on Abstract factory pattern.
+3.Meeting with Rafi.
+4.Project Review.
+5.Discussion about the meeting.</t>
+  </si>
+  <si>
+    <t>Wire framing for the UI of Dashboard</t>
+  </si>
+  <si>
+    <t>2
+-
+1
+-
+1</t>
+  </si>
+  <si>
+    <t>-
+1
+-
+2
+-</t>
+  </si>
+  <si>
+    <t>1.Prepare a Flowchart for User Stories. 
+2.Exploration on Abstract factory pattern.
+3.Meeting with Rafi.
+4.Discussion about the meeting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.Meeting with rafi.                                                  2.drilled down the user story.           3.Discussion about the meeting .     4.rework on flow diagram</t>
+  </si>
+  <si>
+    <t>1. Designing wireframe for approver 2.Constraints</t>
+  </si>
+  <si>
+    <t>1.Discussion about wire frame,2.Designing wire frame for  the home page</t>
+  </si>
+  <si>
+    <t>2
+-
+1
+1</t>
+  </si>
+  <si>
+    <t>-
+2
+-
+-</t>
+  </si>
+  <si>
+    <t>1.Wireframe for Admin 2.</t>
+  </si>
+  <si>
+    <t>Informed to admin team</t>
+  </si>
+  <si>
+    <t>Pulling from Git and again uploading it to  One drive inorder to edit Excel Sheet and again downloading from one drive and pushing back to the scm(GIT) seems to be a tedious process</t>
+  </si>
+  <si>
+    <t>Need access for excell desktop version</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,13 +250,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -197,16 +298,54 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -229,66 +368,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Accent4" xfId="1" builtinId="41"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -627,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="B3:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E20" sqref="B16:H26"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -641,16 +845,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="15">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="6"/>
@@ -658,7 +862,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:8" ht="15">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3"/>
@@ -669,7 +873,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="2:8" ht="15">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="3"/>
@@ -680,7 +884,7 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="2:8" ht="15">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -695,7 +899,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:8" ht="15">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3"/>
@@ -706,7 +910,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:8" ht="15">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -721,7 +925,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:8" ht="15">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -736,7 +940,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="2:8" ht="15">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -751,7 +955,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="2:8" ht="15">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -766,7 +970,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="2:8" ht="15">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="3"/>
@@ -777,7 +981,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="2:8" ht="15">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="2"/>
@@ -806,237 +1010,237 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="2:8" ht="15">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="84" customHeight="1">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="15"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="2:8" ht="87" customHeight="1">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="15"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="2:8" ht="81" customHeight="1">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="14"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="2:8" ht="81.75" customHeight="1">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="2:8" ht="78" customHeight="1">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="14"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="2:8" ht="90" customHeight="1">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="15"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="2:8" ht="76.5" customHeight="1">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="15"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="2:8" ht="84.75" customHeight="1">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="15"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="2:8" ht="84" customHeight="1">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H25" s="15"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="2:8" ht="83.25" customHeight="1">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="15"/>
+      <c r="H26" s="12"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B17:H26">
@@ -1049,256 +1253,446 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE42D53-7E04-4254-8D5E-88A8C21EAC94}">
-  <dimension ref="F14:L24"/>
+  <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AP21" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="99.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="50.25" customHeight="1"/>
   <cols>
-    <col min="5" max="5" width="2.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
-    <col min="7" max="7" width="56.140625" customWidth="1"/>
-    <col min="8" max="8" width="45.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
     <col min="9" max="9" width="24.140625" customWidth="1"/>
     <col min="10" max="10" width="95.140625" customWidth="1"/>
     <col min="11" max="11" width="56.7109375" customWidth="1"/>
     <col min="12" max="12" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="14" spans="6:12" ht="99.75" customHeight="1">
-      <c r="F14" s="10" t="s">
+    <row r="2" spans="2:12" ht="24.75" customHeight="1">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="C2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="D2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="E2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="F2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="G2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="H2" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="6:12" ht="99.75" customHeight="1">
-      <c r="F15" s="10" t="s">
+    <row r="3" spans="2:12" ht="99.75" customHeight="1">
+      <c r="B3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="33">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="2:12" ht="99.75" customHeight="1">
+      <c r="B4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="2:12" ht="99.75" customHeight="1">
+      <c r="B5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="2:12" ht="99.75" customHeight="1">
+      <c r="B6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="33">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="2:12" ht="99.75" customHeight="1">
+      <c r="B7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="12" t="s">
+      <c r="C7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="31"/>
+    </row>
+    <row r="8" spans="2:12" ht="99.75" customHeight="1">
+      <c r="B8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="F8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="G8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="15"/>
-    </row>
-    <row r="16" spans="6:12" ht="99.75" customHeight="1">
-      <c r="F16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="12" t="s">
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="2:12" ht="99.75" customHeight="1">
+      <c r="B9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="2:12" ht="99.75" customHeight="1">
+      <c r="B10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="17" t="s">
+      <c r="F10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="15"/>
-    </row>
-    <row r="17" spans="6:12" ht="99.75" customHeight="1">
-      <c r="F17" s="11" t="s">
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="2:12" ht="99.75" customHeight="1">
+      <c r="B11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="2:12" ht="99.75" customHeight="1">
+      <c r="B12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="29"/>
+    </row>
+    <row r="14" spans="2:12" ht="50.25" customHeight="1">
+      <c r="C14" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+    </row>
+    <row r="15" spans="2:12" ht="50.25" customHeight="1">
+      <c r="C15" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="24"/>
+    </row>
+    <row r="16" spans="2:12" ht="50.25" customHeight="1">
+      <c r="C16" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" s="14"/>
-    </row>
-    <row r="18" spans="6:12" ht="99.75" customHeight="1">
-      <c r="F18" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" s="13"/>
-    </row>
-    <row r="19" spans="6:12" ht="99.75" customHeight="1">
-      <c r="F19" s="10" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="24"/>
+    </row>
+    <row r="17" spans="3:12" ht="50.25" customHeight="1">
+      <c r="C17" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" s="14"/>
-    </row>
-    <row r="20" spans="6:12" ht="99.75" customHeight="1">
-      <c r="F20" s="10" t="s">
+      <c r="D17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="25"/>
+    </row>
+    <row r="18" spans="3:12" ht="50.25" customHeight="1">
+      <c r="C18" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="26"/>
+    </row>
+    <row r="19" spans="3:12" ht="50.25" customHeight="1">
+      <c r="C19" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="3:12" ht="50.25" customHeight="1">
+      <c r="C20" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="24"/>
+    </row>
+    <row r="21" spans="3:12" ht="50.25" customHeight="1">
+      <c r="C21" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" s="15"/>
-    </row>
-    <row r="21" spans="6:12" ht="99.75" customHeight="1">
-      <c r="F21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="15"/>
-    </row>
-    <row r="22" spans="6:12" ht="99.75" customHeight="1">
-      <c r="F22" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L22" s="15"/>
-    </row>
-    <row r="23" spans="6:12" ht="99.75" customHeight="1">
-      <c r="F23" s="10" t="s">
+      <c r="D21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="24"/>
+    </row>
+    <row r="22" spans="3:12" ht="50.25" customHeight="1">
+      <c r="C22" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="24"/>
+    </row>
+    <row r="23" spans="3:12" ht="27.75" customHeight="1">
+      <c r="C23" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="24"/>
+    </row>
+    <row r="24" spans="3:12" ht="75.75" customHeight="1">
+      <c r="C24" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L23" s="15"/>
-    </row>
-    <row r="24" spans="6:12" ht="99.75" customHeight="1">
-      <c r="F24" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="15"/>
+      <c r="D24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="24"/>
+    </row>
+    <row r="29" spans="3:12" ht="50.25" customHeight="1">
+      <c r="E29" s="32"/>
+    </row>
+    <row r="30" spans="3:12" ht="50.25" customHeight="1">
+      <c r="F30" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="13_ncr:1_{2C4052C1-E49C-4FC8-9008-7CCA3C84511D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1947839E-6F3D-4700-B2B3-8D9363B5729F}"/>
+  <xr:revisionPtr revIDLastSave="467" documentId="13_ncr:1_{2C4052C1-E49C-4FC8-9008-7CCA3C84511D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2A2ADE9-D122-43F9-B58A-95AE5BB8B4BB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="40" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="58">
   <si>
     <t>Resource Name</t>
   </si>
@@ -126,13 +126,121 @@
   </si>
   <si>
     <t>VidhyaPriya V</t>
+  </si>
+  <si>
+    <t>1.Discussion about wire frame.                                            2.Designing wire frame for  the Requester and Approver</t>
+  </si>
+  <si>
+    <t>1.Drilled down the User Stories. 
+2.Exploration on Abstract factory pattern.
+3.Meeting with Rafi.
+4.Discussion about the meeting.</t>
+  </si>
+  <si>
+    <t>wire framing for the UI of HR Page</t>
+  </si>
+  <si>
+    <t>1,1,3,0.5,0.5</t>
+  </si>
+  <si>
+    <t>1.Acceptance criteria 2.Constraints 3.Dependencies 4.assumptions</t>
+  </si>
+  <si>
+    <t>1.Prepare a Flowchart for User Stories. 
+2.Meeting with Rafi.
+3.Discussion about the meeting.</t>
+  </si>
+  <si>
+    <t>1. wireframe for approver 2.Constraints 3.Dependencies</t>
+  </si>
+  <si>
+    <t>3,1,0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1.discussion about wire frame .                                     2.made wire frame on Admin home page(manage employee,manage Award,manage Department).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1.Meeting with rafi.                                                  2.drilled down the user story.           3.Discussion about the meeting .     4.rework on flow diagram</t>
+  </si>
+  <si>
+    <t>wire framing for the UI of Admin</t>
+  </si>
+  <si>
+    <t>1. Wire framing for the UI of Public pages. 
+2. Removed duplicates from the User Stories.</t>
+  </si>
+  <si>
+    <t>1.Drilled down the User Stories. 
+2.Exploration on Abstract factory pattern.
+3.Meeting with Rafi.
+4.Project Review.
+5.Discussion about the meeting.</t>
+  </si>
+  <si>
+    <t>Wire framing for the UI of Dashboard</t>
+  </si>
+  <si>
+    <t>2
+-
+1
+-
+1</t>
+  </si>
+  <si>
+    <t>-
+1
+-
+2
+-</t>
+  </si>
+  <si>
+    <t>1.Prepare a Flowchart for User Stories. 
+2.Exploration on Abstract factory pattern.
+3.Meeting with Rafi.
+4.Discussion about the meeting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.Meeting with rafi.                                                  2.drilled down the user story.           3.Discussion about the meeting .     4.rework on flow diagram</t>
+  </si>
+  <si>
+    <t>1. Designing wireframe for approver 2.Constraints</t>
+  </si>
+  <si>
+    <t>1.Discussion about wire frame,2.Designing wire frame for  the home page</t>
+  </si>
+  <si>
+    <t>2
+-
+1
+1</t>
+  </si>
+  <si>
+    <t>-
+2
+-
+-</t>
+  </si>
+  <si>
+    <t>1.Wireframe for Admin 2.</t>
+  </si>
+  <si>
+    <t>Informed to admin team</t>
+  </si>
+  <si>
+    <t>Pulling from Git and again uploading it to  One drive inorder to edit Excel Sheet and again downloading from one drive and pushing back to the scm(GIT) seems to be a tedious process</t>
+  </si>
+  <si>
+    <t>Need access for excell desktop version</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,13 +250,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -197,16 +298,54 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -229,66 +368,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Accent4" xfId="1" builtinId="41"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -627,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="B3:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E20" sqref="B16:H26"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -641,16 +845,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="15">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="6"/>
@@ -658,7 +862,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:8" ht="15">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3"/>
@@ -669,7 +873,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="2:8" ht="15">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="3"/>
@@ -680,7 +884,7 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="2:8" ht="15">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -695,7 +899,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:8" ht="15">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3"/>
@@ -706,7 +910,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:8" ht="15">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -721,7 +925,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:8" ht="15">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -736,7 +940,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="2:8" ht="15">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -751,7 +955,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="2:8" ht="15">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -766,7 +970,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="2:8" ht="15">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="3"/>
@@ -777,7 +981,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="2:8" ht="15">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="2"/>
@@ -806,237 +1010,237 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="2:8" ht="15">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="84" customHeight="1">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="15"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="2:8" ht="87" customHeight="1">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="15"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="2:8" ht="81" customHeight="1">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="14"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="2:8" ht="81.75" customHeight="1">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="2:8" ht="78" customHeight="1">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="14"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="2:8" ht="90" customHeight="1">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="15"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="2:8" ht="76.5" customHeight="1">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="15"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="2:8" ht="84.75" customHeight="1">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="15"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="2:8" ht="84" customHeight="1">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H25" s="15"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="2:8" ht="83.25" customHeight="1">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="15"/>
+      <c r="H26" s="12"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B17:H26">
@@ -1049,256 +1253,446 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE42D53-7E04-4254-8D5E-88A8C21EAC94}">
-  <dimension ref="F14:L24"/>
+  <dimension ref="B2:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AP21" sqref="A1:XFD1048576"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="99.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="50.25" customHeight="1"/>
   <cols>
-    <col min="5" max="5" width="2.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
-    <col min="7" max="7" width="56.140625" customWidth="1"/>
-    <col min="8" max="8" width="45.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
     <col min="9" max="9" width="24.140625" customWidth="1"/>
     <col min="10" max="10" width="95.140625" customWidth="1"/>
     <col min="11" max="11" width="56.7109375" customWidth="1"/>
     <col min="12" max="12" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="14" spans="6:12" ht="99.75" customHeight="1">
-      <c r="F14" s="10" t="s">
+    <row r="2" spans="2:12" ht="24.75" customHeight="1">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="C2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="D2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="E2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="F2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="G2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="H2" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="6:12" ht="99.75" customHeight="1">
-      <c r="F15" s="10" t="s">
+    <row r="3" spans="2:12" ht="99.75" customHeight="1">
+      <c r="B3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="33">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="2:12" ht="99.75" customHeight="1">
+      <c r="B4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="2:12" ht="99.75" customHeight="1">
+      <c r="B5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="2:12" ht="99.75" customHeight="1">
+      <c r="B6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="33">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="2:12" ht="99.75" customHeight="1">
+      <c r="B7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="12" t="s">
+      <c r="C7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="31"/>
+    </row>
+    <row r="8" spans="2:12" ht="99.75" customHeight="1">
+      <c r="B8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="F8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="G8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="15"/>
-    </row>
-    <row r="16" spans="6:12" ht="99.75" customHeight="1">
-      <c r="F16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="12" t="s">
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="2:12" ht="99.75" customHeight="1">
+      <c r="B9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="2:12" ht="99.75" customHeight="1">
+      <c r="B10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="17" t="s">
+      <c r="F10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="15"/>
-    </row>
-    <row r="17" spans="6:12" ht="99.75" customHeight="1">
-      <c r="F17" s="11" t="s">
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="2:12" ht="99.75" customHeight="1">
+      <c r="B11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="2:12" ht="99.75" customHeight="1">
+      <c r="B12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="29"/>
+    </row>
+    <row r="14" spans="2:12" ht="50.25" customHeight="1">
+      <c r="C14" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+    </row>
+    <row r="15" spans="2:12" ht="50.25" customHeight="1">
+      <c r="C15" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="24"/>
+    </row>
+    <row r="16" spans="2:12" ht="50.25" customHeight="1">
+      <c r="C16" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" s="14"/>
-    </row>
-    <row r="18" spans="6:12" ht="99.75" customHeight="1">
-      <c r="F18" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" s="13"/>
-    </row>
-    <row r="19" spans="6:12" ht="99.75" customHeight="1">
-      <c r="F19" s="10" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="24"/>
+    </row>
+    <row r="17" spans="3:12" ht="50.25" customHeight="1">
+      <c r="C17" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" s="14"/>
-    </row>
-    <row r="20" spans="6:12" ht="99.75" customHeight="1">
-      <c r="F20" s="10" t="s">
+      <c r="D17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="25"/>
+    </row>
+    <row r="18" spans="3:12" ht="50.25" customHeight="1">
+      <c r="C18" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="26"/>
+    </row>
+    <row r="19" spans="3:12" ht="50.25" customHeight="1">
+      <c r="C19" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="3:12" ht="50.25" customHeight="1">
+      <c r="C20" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="24"/>
+    </row>
+    <row r="21" spans="3:12" ht="50.25" customHeight="1">
+      <c r="C21" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" s="15"/>
-    </row>
-    <row r="21" spans="6:12" ht="99.75" customHeight="1">
-      <c r="F21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="15"/>
-    </row>
-    <row r="22" spans="6:12" ht="99.75" customHeight="1">
-      <c r="F22" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L22" s="15"/>
-    </row>
-    <row r="23" spans="6:12" ht="99.75" customHeight="1">
-      <c r="F23" s="10" t="s">
+      <c r="D21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="24"/>
+    </row>
+    <row r="22" spans="3:12" ht="50.25" customHeight="1">
+      <c r="C22" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="24"/>
+    </row>
+    <row r="23" spans="3:12" ht="27.75" customHeight="1">
+      <c r="C23" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="24"/>
+    </row>
+    <row r="24" spans="3:12" ht="75.75" customHeight="1">
+      <c r="C24" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L23" s="15"/>
-    </row>
-    <row r="24" spans="6:12" ht="99.75" customHeight="1">
-      <c r="F24" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="15"/>
+      <c r="D24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="24"/>
+    </row>
+    <row r="29" spans="3:12" ht="50.25" customHeight="1">
+      <c r="E29" s="32"/>
+    </row>
+    <row r="30" spans="3:12" ht="50.25" customHeight="1">
+      <c r="F30" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25203"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="467" documentId="13_ncr:1_{2C4052C1-E49C-4FC8-9008-7CCA3C84511D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2A2ADE9-D122-43F9-B58A-95AE5BB8B4BB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA9253FE-9944-494B-A7CF-7D25038980B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA9253FE-9944-494B-A7CF-7D25038980B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC706A49-972D-45D8-B15B-0AE8797DACB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA9253FE-9944-494B-A7CF-7D25038980B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="467" documentId="13_ncr:1_{2C4052C1-E49C-4FC8-9008-7CCA3C84511D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2A2ADE9-D122-43F9-B58A-95AE5BB8B4BB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA9253FE-9944-494B-A7CF-7D25038980B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="468" documentId="13_ncr:1_{2C4052C1-E49C-4FC8-9008-7CCA3C84511D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08E7F3E6-0929-45A6-863E-54E28594C5BE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="58">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1255,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE42D53-7E04-4254-8D5E-88A8C21EAC94}">
   <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.25" customHeight="1"/>
@@ -1355,8 +1355,8 @@
       <c r="F5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>26</v>
+      <c r="G5" s="15">
+        <v>1</v>
       </c>
       <c r="H5" s="11"/>
     </row>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="468" documentId="13_ncr:1_{2C4052C1-E49C-4FC8-9008-7CCA3C84511D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08E7F3E6-0929-45A6-863E-54E28594C5BE}"/>
+  <xr:revisionPtr revIDLastSave="502" documentId="13_ncr:1_{2C4052C1-E49C-4FC8-9008-7CCA3C84511D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A1C57AF-5862-4FEA-98F4-537301D066CC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="40" r:id="rId1"/>
     <sheet name="06-04-2022" sheetId="41" r:id="rId2"/>
+    <sheet name="07-04-2022" sheetId="42" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="62">
   <si>
     <t>Resource Name</t>
   </si>
@@ -234,6 +235,26 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>1.Changes on Acceptance criteria. 
+2.Dependencies.
+3.Assumptions.</t>
+  </si>
+  <si>
+    <t>1.Explored on git - How to clone, push ,pull .
+2.Created acceptance criteria for all user stories. 
+3.Created assumptions for public user story.
+4.Session on Abstract factory design pattern.
+5.Meeting with Rafi.</t>
+  </si>
+  <si>
+    <t>1-2-2-1</t>
+  </si>
+  <si>
+    <t>1.Acceptance criteria 
+2.Dependencies 
+3.Assumptions</t>
   </si>
 </sst>
 </file>
@@ -1255,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE42D53-7E04-4254-8D5E-88A8C21EAC94}">
   <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.25" customHeight="1"/>
@@ -1697,4 +1718,261 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8350AC00-EFFB-42E3-B11C-77314475CC20}">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="45">
+      <c r="B2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="63.75">
+      <c r="B3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="33">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="2:8" ht="163.5" customHeight="1">
+      <c r="B4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1</v>
+      </c>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="2:8" ht="204">
+      <c r="B5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="15">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="2:8" ht="191.25">
+      <c r="B6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="33">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="2:8" ht="229.5">
+      <c r="B7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="31"/>
+    </row>
+    <row r="8" spans="2:8" ht="142.5" customHeight="1">
+      <c r="B8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="2:8" ht="178.5">
+      <c r="B9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="2:8" ht="204">
+      <c r="B10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="2:8" ht="204">
+      <c r="B11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="2:8" ht="191.25">
+      <c r="B12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25203"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="502" documentId="13_ncr:1_{2C4052C1-E49C-4FC8-9008-7CCA3C84511D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A1C57AF-5862-4FEA-98F4-537301D066CC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C38337B2-1877-4A3E-BE25-D932695121B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="40" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="66">
   <si>
     <t>Resource Name</t>
   </si>
@@ -237,7 +237,16 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>1.Changes on Acceptance criteria. 
+    <t>1. Discussion on prototype.                                          2.Reworking on wire frame for  the Requester (Award page,my request page)and Approver(Award page,my request page,approver page)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.Meeting with rafi(wire frame)                                                  2.Session on Abstract Factory Pattern. 3.rework on prototype</t>
+  </si>
+  <si>
+    <t>0.5,5.5,1</t>
+  </si>
+  <si>
+    <t>1. Acceptance criteria. 
 2.Dependencies.
 3.Assumptions.</t>
   </si>
@@ -255,6 +264,9 @@
     <t>1.Acceptance criteria 
 2.Dependencies 
 3.Assumptions</t>
+  </si>
+  <si>
+    <t>1.Discussion on prototype.                                            2.Reworking on wire frame for  the Requester (Award page,my request page)and Approver(Award page,my request page,approver page)</t>
   </si>
 </sst>
 </file>
@@ -1725,7 +1737,7 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1762,21 +1774,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="63.75">
+    <row r="3" spans="2:8" ht="104.25" customHeight="1">
       <c r="B3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="G3" s="33">
         <v>1</v>
@@ -1788,16 +1800,16 @@
         <v>27</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" s="14">
         <v>1</v>
@@ -1872,40 +1884,40 @@
         <v>28</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G8" s="14">
         <v>1</v>
       </c>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="2:8" ht="178.5">
+    <row r="9" spans="2:8" ht="124.5" customHeight="1">
       <c r="B9" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>26</v>
+        <v>60</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1</v>
       </c>
       <c r="H9" s="12"/>
     </row>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C38337B2-1877-4A3E-BE25-D932695121B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C6D3A6E-9009-444D-903E-2A72C2015867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="75">
   <si>
     <t>Resource Name</t>
   </si>
@@ -261,12 +261,52 @@
     <t>1-2-2-1</t>
   </si>
   <si>
+    <t>Redesigning the home page, Dashboard in Admin page</t>
+  </si>
+  <si>
+    <t>1)Designed Wireframe for the Public and Approver pages
+2)Discussion about redesigning the wireframe 
+3)Session about design pattern (abstract factory)</t>
+  </si>
+  <si>
+    <t>Wire framing for the UI of HR page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4
+1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-
+-
+2
+</t>
+  </si>
+  <si>
     <t>1.Acceptance criteria 
 2.Dependencies 
 3.Assumptions</t>
   </si>
   <si>
     <t>1.Discussion on prototype.                                            2.Reworking on wire frame for  the Requester (Award page,my request page)and Approver(Award page,my request page,approver page)</t>
+  </si>
+  <si>
+    <t>Redesinging the Home page wireframe</t>
+  </si>
+  <si>
+    <t>1).Designed  homepage  wireframe. 2)Explored about Prototype design pattern.3)Disscussion meeting about  redesigning the wireframe 4) Dessign pattern session( abstract factory)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3
+-
+1
+</t>
+  </si>
+  <si>
+    <t>-
+2
+-
+1</t>
   </si>
 </sst>
 </file>
@@ -1288,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE42D53-7E04-4254-8D5E-88A8C21EAC94}">
   <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H12"/>
+    <sheetView topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.25" customHeight="1"/>
@@ -1736,8 +1776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8350AC00-EFFB-42E3-B11C-77314475CC20}">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1858,24 +1898,24 @@
       </c>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="2:8" ht="229.5">
+    <row r="7" spans="2:8" ht="101.25" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="H7" s="31"/>
     </row>
@@ -1884,7 +1924,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>62</v>
@@ -1905,7 +1945,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>59</v>
@@ -1921,7 +1961,7 @@
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="2:8" ht="204">
+    <row r="10" spans="2:8" ht="63.75">
       <c r="B10" s="17" t="s">
         <v>29</v>
       </c>
@@ -1942,37 +1982,35 @@
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="2:8" ht="204">
+    <row r="11" spans="2:8" ht="76.5">
       <c r="B11" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="2:8" ht="191.25">
+    <row r="12" spans="2:8" ht="25.5">
       <c r="B12" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>40</v>
-      </c>
+      <c r="D12" s="13"/>
       <c r="E12" s="27" t="s">
         <v>41</v>
       </c>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C6D3A6E-9009-444D-903E-2A72C2015867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{4C6D3A6E-9009-444D-903E-2A72C2015867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E53F52EC-C0DB-4162-B7F4-F3E6E010C355}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="80">
   <si>
     <t>Resource Name</t>
   </si>
@@ -261,6 +261,16 @@
     <t>1-2-2-1</t>
   </si>
   <si>
+    <t>1.  designing wireframe for dashboard 2.Constraints</t>
+  </si>
+  <si>
+    <t>1. designed wireframe for approver 
+2. Explor about constraints  3.meeting with rafi (MOM)</t>
+  </si>
+  <si>
+    <t>4,1,1</t>
+  </si>
+  <si>
     <t>Redesigning the home page, Dashboard in Admin page</t>
   </si>
   <si>
@@ -289,6 +299,13 @@
   </si>
   <si>
     <t>1.Discussion on prototype.                                            2.Reworking on wire frame for  the Requester (Award page,my request page)and Approver(Award page,my request page,approver page)</t>
+  </si>
+  <si>
+    <t>1.  Designing wireframe for dashboard 2.Constraints</t>
+  </si>
+  <si>
+    <t>1. designed wireframe for approver 
+2. Explor about constraints  3.Explore about prototype design pattern</t>
   </si>
   <si>
     <t>Redesinging the Home page wireframe</t>
@@ -1776,8 +1793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8350AC00-EFFB-42E3-B11C-77314475CC20}">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1856,28 +1873,28 @@
       </c>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="2:8" ht="204">
+    <row r="5" spans="2:8" ht="51">
       <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="G5" s="15">
         <v>1</v>
       </c>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="2:8" ht="191.25">
+    <row r="6" spans="2:8" ht="63.75">
       <c r="B6" s="17" t="s">
         <v>4</v>
       </c>
@@ -1903,19 +1920,19 @@
         <v>12</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H7" s="31"/>
     </row>
@@ -1924,7 +1941,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>62</v>
@@ -1945,7 +1962,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>59</v>
@@ -1966,19 +1983,19 @@
         <v>29</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>26</v>
+        <v>66</v>
+      </c>
+      <c r="G10" s="14">
+        <v>2</v>
       </c>
       <c r="H10" s="12"/>
     </row>
@@ -1987,19 +2004,19 @@
         <v>16</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H11" s="12"/>
     </row>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{4C6D3A6E-9009-444D-903E-2A72C2015867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E53F52EC-C0DB-4162-B7F4-F3E6E010C355}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BAEEA18-9994-4BC2-8E52-3F70D6927B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="83">
   <si>
     <t>Resource Name</t>
   </si>
@@ -237,7 +237,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>1. Discussion on prototype.                                          2.Reworking on wire frame for  the Requester (Award page,my request page)and Approver(Award page,my request page,approver page)</t>
+    <t>1.Discussion on prototype.                                            2.Reworking on wire frame for  the Requester (Award page,my request page)and Approver(Award page,my request page,approver page)AND HR page</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.Meeting with rafi(wire frame)                                                  2.Session on Abstract Factory Pattern. 3.rework on prototype</t>
@@ -271,6 +271,12 @@
     <t>4,1,1</t>
   </si>
   <si>
+    <t>1.Discussion on prototype.                                            2.Reworking on wire frame for  the Admin (Manage employee,manage Award,Manage Orz)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.Meeting with rafi(wire frame)                                                  2.Session on Abstract Factory Pattern. 3.rework on prototype(ADMIN)</t>
+  </si>
+  <si>
     <t>Redesigning the home page, Dashboard in Admin page</t>
   </si>
   <si>
@@ -298,9 +304,6 @@
 3.Assumptions</t>
   </si>
   <si>
-    <t>1.Discussion on prototype.                                            2.Reworking on wire frame for  the Requester (Award page,my request page)and Approver(Award page,my request page,approver page)</t>
-  </si>
-  <si>
     <t>1.  Designing wireframe for dashboard 2.Constraints</t>
   </si>
   <si>
@@ -324,6 +327,12 @@
 2
 -
 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.Discussion on prototype.                                            2.Reworking on wire frame for  the Admin (Manage employee,manage Award,Manage Orz)</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -1793,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8350AC00-EFFB-42E3-B11C-77314475CC20}">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1894,21 +1903,21 @@
       </c>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="2:8" ht="63.75">
+    <row r="6" spans="2:8" ht="101.25" customHeight="1">
       <c r="B6" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="G6" s="33">
         <v>1</v>
@@ -1920,19 +1929,19 @@
         <v>12</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H7" s="31"/>
     </row>
@@ -1941,7 +1950,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>62</v>
@@ -1962,7 +1971,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>59</v>
@@ -1983,10 +1992,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>24</v>
@@ -2004,38 +2013,40 @@
         <v>16</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="2:8" ht="25.5">
+    <row r="12" spans="2:8" ht="91.5" customHeight="1">
       <c r="B12" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="27" t="s">
-        <v>41</v>
+        <v>81</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="H12" s="29"/>
     </row>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BAEEA18-9994-4BC2-8E52-3F70D6927B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42F67046-A6A9-466C-BB64-634D120DB420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="40" r:id="rId1"/>
     <sheet name="06-04-2022" sheetId="41" r:id="rId2"/>
     <sheet name="07-04-2022" sheetId="42" r:id="rId3"/>
+    <sheet name="08-04-2022" sheetId="43" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="100">
   <si>
     <t>Resource Name</t>
   </si>
@@ -333,6 +334,81 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>1.Reworked on Wireframe for Approver
+2.Discussion About Meeting with Team
+3.Rechecked All Wireframes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.Meeting with rafi(wire frame)                                                  2.Session on DesignPattern - Builder,Prototype. 3.Rework on prototype(Approver)</t>
+  </si>
+  <si>
+    <t>2-2-1-2</t>
+  </si>
+  <si>
+    <t>1.Wireframe For HR
+2.Design Admin Dashboard</t>
+  </si>
+  <si>
+    <t>1. Assumptions for Public
+2. Git Explore
+3. Session on Design Pattern - Builder, Prototype
+4. Meeting with Rafi(MOM)
+5. Discussion About the Meeting with Team.</t>
+  </si>
+  <si>
+    <t>Improving the wireframe with neat flow</t>
+  </si>
+  <si>
+    <t>1)Designed wireframe of homepage and Login screen for each users. 
+2)Session about Prototype design pattern.
+3)Disscussion meeting about Wire Frame
+4)Discussion meeting about redesigning the wireframe and spliting the work between teams</t>
+  </si>
+  <si>
+    <t>Nil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4
+-
+1
+1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-
+1
+</t>
+  </si>
+  <si>
+    <t>1-2-1-1-1</t>
+  </si>
+  <si>
+    <t>1.Reworked on Wireframe for Requester
+2.Discussion About Meeting with Team
+3.Rechecked All Wireframes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.Meeting with rafi(wire frame)                                                  2.Session on DesignPattern - Builder,Prototype. 3.Rework on prototype(requester)</t>
+  </si>
+  <si>
+    <t>Redesinging the Home page wireframe, Desiging  poster for the published award</t>
+  </si>
+  <si>
+    <t>1).Designed  homepage and sidebar  wireframe. 2)Session about Prototype design pattern.3)Disscussion meeting about  redesigning the wireframe 4) discussion meeting about redesigning the wireframe and spliting the work betweenteams</t>
+  </si>
+  <si>
+    <t>4
+-
+1
+-</t>
+  </si>
+  <si>
+    <t>-
+1
+-
+1</t>
   </si>
 </sst>
 </file>
@@ -1802,8 +1878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8350AC00-EFFB-42E3-B11C-77314475CC20}">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2053,4 +2129,257 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141F7631-8030-4C9D-96AB-26E10E8B9306}">
+  <dimension ref="B4:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="10" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B4" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="33">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B7" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="33">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="2:8" ht="135.75" customHeight="1">
+      <c r="B9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1</v>
+      </c>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="14">
+        <v>2</v>
+      </c>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BAEEA18-9994-4BC2-8E52-3F70D6927B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF9D9844-FE05-4AE4-8DCD-83B6A181F316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="40" r:id="rId1"/>
     <sheet name="06-04-2022" sheetId="41" r:id="rId2"/>
     <sheet name="07-04-2022" sheetId="42" r:id="rId3"/>
+    <sheet name="08-04-2022" sheetId="43" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="100">
   <si>
     <t>Resource Name</t>
   </si>
@@ -333,6 +334,81 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>1.Reworked on Wireframe for Approver
+2.Discussion About Meeting with Team
+3.Rechecked All Wireframes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.Meeting with rafi(wire frame)                                                  2.Session on DesignPattern - Builder,Prototype. 3.Rework on prototype(Approver)</t>
+  </si>
+  <si>
+    <t>2-2-1-2</t>
+  </si>
+  <si>
+    <t>1.Wireframe For HR
+2.Design Admin Dashboard</t>
+  </si>
+  <si>
+    <t>1. Assumptions for Public
+2. Git Explore
+3. Session on Design Pattern - Builder, Prototype
+4. Meeting with Rafi(MOM)
+5. Discussion About the Meeting with Team.</t>
+  </si>
+  <si>
+    <t>Improving the wireframe with neat flow</t>
+  </si>
+  <si>
+    <t>1)Designed wireframe of homepage and Login screen for each users. 
+2)Session about Prototype design pattern.
+3)Disscussion meeting about Wire Frame
+4)Discussion meeting about redesigning the wireframe and spliting the work between teams</t>
+  </si>
+  <si>
+    <t>Nil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4
+-
+1
+1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-
+1
+</t>
+  </si>
+  <si>
+    <t>1-2-1-1-1</t>
+  </si>
+  <si>
+    <t>1.Reworked on Wireframe for Requester
+2.Discussion About Meeting with Team
+3.Rechecked All Wireframes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.Meeting with rafi(wire frame)                                                  2.Session on DesignPattern - Builder,Prototype. 3.Rework on prototype(requester)</t>
+  </si>
+  <si>
+    <t>Redesinging the Home page wireframe, Desiging  poster for the published award</t>
+  </si>
+  <si>
+    <t>1).Designed  homepage and sidebar  wireframe. 2)Session about Prototype design pattern.3)Review meeting with Rafi about  redesigning the wireframe 4) discussion meeting about redesigning the wireframe and spliting the work between teams</t>
+  </si>
+  <si>
+    <t>4
+-
+1
+-</t>
+  </si>
+  <si>
+    <t>-
+1
+-
+1</t>
   </si>
 </sst>
 </file>
@@ -1802,8 +1878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8350AC00-EFFB-42E3-B11C-77314475CC20}">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2053,4 +2129,257 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141F7631-8030-4C9D-96AB-26E10E8B9306}">
+  <dimension ref="B4:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="10" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B4" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="33">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B7" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="33">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="2:8" ht="135.75" customHeight="1">
+      <c r="B9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1</v>
+      </c>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="14">
+        <v>2</v>
+      </c>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25203"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42F67046-A6A9-466C-BB64-634D120DB420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{42F67046-A6A9-466C-BB64-634D120DB420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B719A44F-CAF8-433A-AD15-DD24E0573C2B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="40" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="105">
   <si>
     <t>Resource Name</t>
   </si>
@@ -358,6 +358,15 @@
 5. Discussion About the Meeting with Team.</t>
   </si>
   <si>
+    <t xml:space="preserve">1.  Redesigning wireframes for dashboard </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Designed wireframe for Dashboard.    2.Session on prototype,Builder design             pattern.                                               3.Discussion meeting with Rafi about                          wifeframes                                                4. Discussion with team about redesigning the wireframes              </t>
+  </si>
+  <si>
+    <t>3,1,1,0.5</t>
+  </si>
+  <si>
     <t>Improving the wireframe with neat flow</t>
   </si>
   <si>
@@ -391,6 +400,13 @@
   </si>
   <si>
     <t xml:space="preserve"> 1.Meeting with rafi(wire frame)                                                  2.Session on DesignPattern - Builder,Prototype. 3.Rework on prototype(requester)</t>
+  </si>
+  <si>
+    <t>1.Session about Prototype, Builder design pattern 
+2. Designed Wireframe for Dashboard 3.Discussion meeting with Rafi(MOM) 4.Discussion meeting with team about redesigning the wireframes</t>
+  </si>
+  <si>
+    <t>1,3,1,0.5</t>
   </si>
   <si>
     <t>Redesinging the Home page wireframe, Desiging  poster for the published award</t>
@@ -2135,8 +2151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141F7631-8030-4C9D-96AB-26E10E8B9306}">
   <dimension ref="B4:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2216,16 +2232,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="G7" s="15">
         <v>1</v>
@@ -2258,19 +2274,19 @@
         <v>12</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H9" s="31"/>
     </row>
@@ -2288,7 +2304,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G10" s="14">
         <v>1</v>
@@ -2300,10 +2316,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>24</v>
@@ -2321,19 +2337,19 @@
         <v>29</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="G12" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="12"/>
     </row>
@@ -2342,19 +2358,19 @@
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H13" s="12"/>
     </row>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF9D9844-FE05-4AE4-8DCD-83B6A181F316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA8CC3E8-FDA9-47C1-A208-FF30F99FA14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="40" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="102">
   <si>
     <t>Resource Name</t>
   </si>
@@ -356,6 +356,14 @@
 3. Session on Design Pattern - Builder, Prototype
 4. Meeting with Rafi(MOM)
 5. Discussion About the Meeting with Team.</t>
+  </si>
+  <si>
+    <t>1.Reworked on Wireframe for Admin(Manage employee,Manage Award,Manage Orz)
+2.Discussion About Meeting with Team
+3.Rechecked All Wireframes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.Meeting with rafi(wire frame)                                                  2.Session on DesignPattern - Builder,Prototype. 3.Rework on prototype(Admin)</t>
   </si>
   <si>
     <t>Improving the wireframe with neat flow</t>
@@ -2135,8 +2143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141F7631-8030-4C9D-96AB-26E10E8B9306}">
   <dimension ref="B4:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2237,16 +2245,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="G8" s="33">
         <v>1</v>
@@ -2258,19 +2266,19 @@
         <v>12</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H9" s="31"/>
     </row>
@@ -2288,7 +2296,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G10" s="14">
         <v>1</v>
@@ -2300,10 +2308,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>24</v>
@@ -2342,19 +2350,19 @@
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H13" s="12"/>
     </row>
@@ -2363,16 +2371,16 @@
         <v>30</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>82</v>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{42F67046-A6A9-466C-BB64-634D120DB420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B719A44F-CAF8-433A-AD15-DD24E0573C2B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A01739A-67FD-44B7-8B83-94F4084A5638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="102">
   <si>
     <t>Resource Name</t>
   </si>
@@ -358,13 +358,12 @@
 5. Discussion About the Meeting with Team.</t>
   </si>
   <si>
-    <t xml:space="preserve">1.  Redesigning wireframes for dashboard </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. Designed wireframe for Dashboard.    2.Session on prototype,Builder design             pattern.                                               3.Discussion meeting with Rafi about                          wifeframes                                                4. Discussion with team about redesigning the wireframes              </t>
-  </si>
-  <si>
-    <t>3,1,1,0.5</t>
+    <t>1.Reworked on Wireframe for Admin(Manage employee,Manage Award,Manage Orz)
+2.Discussion About Meeting with Team
+3.Rechecked All Wireframes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.Meeting with rafi(wire frame)                                                  2.Session on DesignPattern - Builder,Prototype. 3.Rework on prototype(Admin)</t>
   </si>
   <si>
     <t>Improving the wireframe with neat flow</t>
@@ -394,25 +393,18 @@
     <t>1-2-1-1-1</t>
   </si>
   <si>
-    <t>1.Reworked on Wireframe for Requester
-2.Discussion About Meeting with Team
-3.Rechecked All Wireframes</t>
+    <t>1.Reworked on Wireframe for Requester.
+2.Discussion About Meeting with Team.
+3.Rechecked All Wireframes.</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.Meeting with rafi(wire frame)                                                  2.Session on DesignPattern - Builder,Prototype. 3.Rework on prototype(requester)</t>
   </si>
   <si>
-    <t>1.Session about Prototype, Builder design pattern 
-2. Designed Wireframe for Dashboard 3.Discussion meeting with Rafi(MOM) 4.Discussion meeting with team about redesigning the wireframes</t>
-  </si>
-  <si>
-    <t>1,3,1,0.5</t>
-  </si>
-  <si>
     <t>Redesinging the Home page wireframe, Desiging  poster for the published award</t>
   </si>
   <si>
-    <t>1).Designed  homepage and sidebar  wireframe. 2)Session about Prototype design pattern.3)Disscussion meeting about  redesigning the wireframe 4) discussion meeting about redesigning the wireframe and spliting the work betweenteams</t>
+    <t>1).Designed  homepage and sidebar  wireframe. 2)Session about Prototype design pattern.3)Review meeting with Rafi about  redesigning the wireframe 4) discussion meeting about redesigning the wireframe and spliting the work between teams</t>
   </si>
   <si>
     <t>4
@@ -2151,8 +2143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141F7631-8030-4C9D-96AB-26E10E8B9306}">
   <dimension ref="B4:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2232,16 +2224,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="G7" s="15">
         <v>1</v>
@@ -2253,16 +2245,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="G8" s="33">
         <v>1</v>
@@ -2274,19 +2266,19 @@
         <v>12</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="G9" s="20" t="s">
         <v>94</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>95</v>
       </c>
       <c r="H9" s="31"/>
     </row>
@@ -2304,7 +2296,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G10" s="14">
         <v>1</v>
@@ -2316,10 +2308,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>24</v>
@@ -2337,19 +2329,19 @@
         <v>29</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="G12" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="12"/>
     </row>
@@ -2358,19 +2350,19 @@
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>101</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>104</v>
       </c>
       <c r="H13" s="12"/>
     </row>
@@ -2379,16 +2371,16 @@
         <v>30</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>82</v>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BAEEA18-9994-4BC2-8E52-3F70D6927B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4B2E56B-4BD7-406C-A0B8-B639BC84BBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="40" r:id="rId1"/>
     <sheet name="06-04-2022" sheetId="41" r:id="rId2"/>
     <sheet name="07-04-2022" sheetId="42" r:id="rId3"/>
+    <sheet name="08-04-2022" sheetId="43" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="103">
   <si>
     <t>Resource Name</t>
   </si>
@@ -333,6 +334,93 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>1.Reworked on Wireframe for Approver
+2.Discussion About Meeting with Team
+3.Rechecked All Wireframes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.Meeting with rafi(wire frame)                                                  2.Session on DesignPattern - Builder,Prototype. 3.Rework on prototype(Approver)</t>
+  </si>
+  <si>
+    <t>2-2-1-2</t>
+  </si>
+  <si>
+    <t>1.Wireframe For HR
+2.Design Admin Dashboard.</t>
+  </si>
+  <si>
+    <t>1. Assumptions for Public
+2. Git Explore
+3. Session on Design Pattern - Builder, Prototype
+4. Meeting with Rafi(MOM)
+5. Discussion About the Meeting with Team.</t>
+  </si>
+  <si>
+    <t>1.Reworked on Wireframe for Admin(Manage employee,Manage Award,Manage Orz)
+2.Discussion About Meeting with Team
+3.Rechecked All Wireframes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.Meeting with rafi(wire frame)                                                  2.Session on DesignPattern - Builder,Prototype. 3.Rework on prototype(Admin)</t>
+  </si>
+  <si>
+    <t>Improving the wireframe with neat flow</t>
+  </si>
+  <si>
+    <t>1)Designed wireframe of homepage and Login screen for each users. 
+2)Session about Prototype design pattern.
+3)Disscussion meeting about Wire Frame
+4)Discussion meeting about redesigning the wireframe and spliting the work between teams</t>
+  </si>
+  <si>
+    <t>Nil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4
+-
+1
+1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-
+1
+</t>
+  </si>
+  <si>
+    <t>1.Wireframe For HR
+2.Design Admin Dashboard</t>
+  </si>
+  <si>
+    <t>1-2-1-1-1</t>
+  </si>
+  <si>
+    <t>1.Reworked on Wireframe for Requester.
+2.Discussion About Meeting with Team.
+3.Rechecked All Wireframes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.Meeting with rafi(wire frame)                                                  2.Session on DesignPattern - Builder,Prototype. 3.Rework on prototype(requester)</t>
+  </si>
+  <si>
+    <t>Redesinging the Home page wireframe, Desiging  poster for the published award</t>
+  </si>
+  <si>
+    <t>1).Designed  homepage and sidebar  wireframe. 2)Session about Prototype design pattern.3)Review meeting with Rafi about  redesigning the wireframe 4) discussion meeting about redesigning the wireframe and spliting the work between teams</t>
+  </si>
+  <si>
+    <t>4
+-
+1
+-</t>
+  </si>
+  <si>
+    <t>-
+1
+-
+1</t>
   </si>
 </sst>
 </file>
@@ -1802,8 +1890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8350AC00-EFFB-42E3-B11C-77314475CC20}">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2053,4 +2141,257 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141F7631-8030-4C9D-96AB-26E10E8B9306}">
+  <dimension ref="B4:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="10" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B4" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="33">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B7" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="33">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="2:8" ht="135.75" customHeight="1">
+      <c r="B9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1</v>
+      </c>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="14">
+        <v>2</v>
+      </c>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25207"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A01739A-67FD-44B7-8B83-94F4084A5638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FF7D287-0B31-49A8-94BF-19FA525C08D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="40" r:id="rId1"/>
     <sheet name="06-04-2022" sheetId="41" r:id="rId2"/>
     <sheet name="07-04-2022" sheetId="42" r:id="rId3"/>
-    <sheet name="08-04-2022" sheetId="43" r:id="rId4"/>
+    <sheet name="08-04-2022 " sheetId="44" r:id="rId4"/>
+    <sheet name="09-04-2022" sheetId="43" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="113">
   <si>
     <t>Resource Name</t>
   </si>
@@ -348,7 +349,7 @@
   </si>
   <si>
     <t>1.Wireframe For HR
-2.Design Admin Dashboard</t>
+2.Design Admin Dashboard.</t>
   </si>
   <si>
     <t>1. Assumptions for Public
@@ -390,6 +391,10 @@
 </t>
   </si>
   <si>
+    <t>1.Wireframe For HR
+2.Design Admin Dashboard</t>
+  </si>
+  <si>
     <t>1-2-1-1-1</t>
   </si>
   <si>
@@ -417,6 +422,43 @@
 1
 -
 1</t>
+  </si>
+  <si>
+    <t>1.Wireframe For HR
+2.Design Admin(Manage Organisation)</t>
+  </si>
+  <si>
+    <t>1. Assumptions for Public
+2. Session on Design Pattern - Builder, Prototype
+3. Meeting with Rafi(MOM)
+4. Discussion About the Meeting with Team.</t>
+  </si>
+  <si>
+    <t>1. designed wireframe for approver 
+2. Explore about constraints  3.meeting with rafi (MOM)</t>
+  </si>
+  <si>
+    <t>1.Reworked on Wireframe for Admin(Home page,Manage employee,Awards,Organization,Department)
+2.Rechecked All Wireframes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       1.Meeting with rafi(wire frame)                                                   2.Rework on prototype(Admin)3.Discussion about Meeting with team(Wireframe)</t>
+  </si>
+  <si>
+    <t>2,2,3,1</t>
+  </si>
+  <si>
+    <t>Developing  the workflow of  the  homepage wireframe and  desgining the  login workflow</t>
+  </si>
+  <si>
+    <t>1)Brain Storming with team for - 1 hour. 
+2).Refining the Home page and lading page wireframes - 2 hours</t>
+  </si>
+  <si>
+    <t>3 hrs</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -1438,8 +1480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE42D53-7E04-4254-8D5E-88A8C21EAC94}">
   <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.25" customHeight="1"/>
@@ -1886,8 +1928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8350AC00-EFFB-42E3-B11C-77314475CC20}">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H12"/>
+    <sheetView topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2140,11 +2182,262 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141F7631-8030-4C9D-96AB-26E10E8B9306}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3A5E95-3FAF-42D8-986E-9C3B3ED96D50}">
   <dimension ref="B4:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A5" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="10" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B4" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="33">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B7" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="33">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="2:8" ht="135.75" customHeight="1">
+      <c r="B9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1</v>
+      </c>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="14">
+        <v>2</v>
+      </c>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141F7631-8030-4C9D-96AB-26E10E8B9306}">
+  <dimension ref="B4:H32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2203,10 +2496,10 @@
         <v>27</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>24</v>
@@ -2214,8 +2507,8 @@
       <c r="F6" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="14">
-        <v>1</v>
+      <c r="G6" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="H6" s="12"/>
     </row>
@@ -2227,7 +2520,7 @@
         <v>64</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>24</v>
@@ -2245,19 +2538,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="33">
-        <v>1</v>
+        <v>108</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>24</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -2266,19 +2559,19 @@
         <v>12</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="H9" s="31"/>
     </row>
@@ -2287,7 +2580,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>87</v>
@@ -2296,7 +2589,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G10" s="14">
         <v>1</v>
@@ -2308,10 +2601,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>24</v>
@@ -2350,19 +2643,19 @@
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H13" s="12"/>
     </row>
@@ -2386,6 +2679,124 @@
         <v>82</v>
       </c>
       <c r="H14" s="29"/>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" ht="60.75" customHeight="1">
+      <c r="C23" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="3:6" ht="57" customHeight="1">
+      <c r="C24" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="3:6" ht="51.75" customHeight="1">
+      <c r="C25" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="3:6" ht="56.25" customHeight="1">
+      <c r="C26" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="3:6" ht="58.5" customHeight="1">
+      <c r="C27" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="3:6" ht="58.5" customHeight="1">
+      <c r="C28" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="3:6" ht="59.25" customHeight="1">
+      <c r="C29" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="3:6" ht="51.75" customHeight="1">
+      <c r="C30" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="3:6" ht="53.25" customHeight="1">
+      <c r="C31" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="3:6" ht="63.75">
+      <c r="C32" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="34" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FF7D287-0B31-49A8-94BF-19FA525C08D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A45B301-481B-4B40-B47E-354AE930B3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="115">
   <si>
     <t>Resource Name</t>
   </si>
@@ -459,6 +459,16 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>1)Brain Storming with team 
+2).Refining the Home page and landing page wireframes  3) discussion meeting about redesigning the wireframe and spliting the work between teams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1
+4
+1
+</t>
   </si>
 </sst>
 </file>
@@ -2185,7 +2195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3A5E95-3FAF-42D8-986E-9C3B3ED96D50}">
   <dimension ref="B4:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2436,8 +2446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141F7631-8030-4C9D-96AB-26E10E8B9306}">
   <dimension ref="B4:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2646,16 +2656,16 @@
         <v>109</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="H13" s="12"/>
     </row>
@@ -2666,14 +2676,14 @@
       <c r="C14" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>89</v>
+      <c r="D14" s="13" t="s">
+        <v>107</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>82</v>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FF7D287-0B31-49A8-94BF-19FA525C08D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFF69680-5ABB-4625-830D-70E7C52ED07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="117">
   <si>
     <t>Resource Name</t>
   </si>
@@ -445,7 +445,10 @@
     <t xml:space="preserve">       1.Meeting with rafi(wire frame)                                                   2.Rework on prototype(Admin)3.Discussion about Meeting with team(Wireframe)</t>
   </si>
   <si>
-    <t>2,2,3,1</t>
+    <t>2,1,2,2,1</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>Developing  the workflow of  the  homepage wireframe and  desgining the  login workflow</t>
@@ -458,7 +461,20 @@
     <t>3 hrs</t>
   </si>
   <si>
-    <t>-</t>
+    <t>1)Brain Storming with team 
+2).Refining the Home page and landing page wireframes  3) discussion meeting about redesigning the wireframe and spliting the work between teams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1
+4
+1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       1.Meeting with rafi(wire frame)                                                   2.Rework on prototype(Admin) 3.Project review 4.Discussion about Meeting with team(Wireframe)</t>
+  </si>
+  <si>
+    <t>4,2,2,2,1,1</t>
   </si>
 </sst>
 </file>
@@ -2436,8 +2452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141F7631-8030-4C9D-96AB-26E10E8B9306}">
   <dimension ref="B4:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2550,7 +2566,7 @@
         <v>108</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -2559,19 +2575,19 @@
         <v>12</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H9" s="31"/>
     </row>
@@ -2643,19 +2659,19 @@
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>109</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>102</v>
       </c>
       <c r="H13" s="12"/>
     </row>
@@ -2664,19 +2680,19 @@
         <v>30</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>82</v>
+        <v>116</v>
+      </c>
+      <c r="G14" s="28">
+        <v>1</v>
       </c>
       <c r="H14" s="29"/>
     </row>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25207"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4B2E56B-4BD7-406C-A0B8-B639BC84BBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60CC280C-E0BD-4026-8D27-E35DF2FC98BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="40" r:id="rId1"/>
     <sheet name="06-04-2022" sheetId="41" r:id="rId2"/>
     <sheet name="07-04-2022" sheetId="42" r:id="rId3"/>
-    <sheet name="08-04-2022" sheetId="43" r:id="rId4"/>
+    <sheet name="08-04-2022 " sheetId="44" r:id="rId4"/>
+    <sheet name="09-04-2022" sheetId="43" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="117">
   <si>
     <t>Resource Name</t>
   </si>
@@ -421,6 +422,59 @@
 1
 -
 1</t>
+  </si>
+  <si>
+    <t>1.Wireframe For HR
+2.Design Admin(Manage Organisation)</t>
+  </si>
+  <si>
+    <t>1. Assumptions for Public
+2. Session on Design Pattern - Builder, Prototype
+3. Meeting with Rafi(MOM)
+4. Discussion About the Meeting with Team.</t>
+  </si>
+  <si>
+    <t>1. designed wireframe for approver 
+2. Explore about constraints  3.meeting with rafi (MOM)</t>
+  </si>
+  <si>
+    <t>1.Reworked on Wireframe for Admin(Home page,Manage employee,Awards,Organization,Department)
+2.Rechecked All Wireframes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       1.Meeting with rafi(wire frame)                                                   2.Rework on prototype(Admin)3.Discussion about Meeting with team(Wireframe)</t>
+  </si>
+  <si>
+    <t>2,1,2,2,1</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Developing  the workflow of  the  homepage wireframe and  desgining the  login workflow</t>
+  </si>
+  <si>
+    <t>1)Brain Storming with team for - 1 hour. 
+2).Refining the Home page and lading page wireframes - 2 hours</t>
+  </si>
+  <si>
+    <t>3 hrs</t>
+  </si>
+  <si>
+    <t>1)Brain Storming with team 
+2).Refining the Home page and landing page wireframes  3) discussion meeting about redesigning the wireframe and spliting the work between teams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1
+4
+1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       1.Meeting with rafi(wire frame)                                                   2.Rework on prototype(Admin) 3.Project review 4.Discussion about Meeting with team(Wireframe)</t>
+  </si>
+  <si>
+    <t>4,2,2,2,1,1</t>
   </si>
 </sst>
 </file>
@@ -1442,8 +1496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE42D53-7E04-4254-8D5E-88A8C21EAC94}">
   <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.25" customHeight="1"/>
@@ -1890,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8350AC00-EFFB-42E3-B11C-77314475CC20}">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H12"/>
+    <sheetView topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2144,11 +2198,262 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141F7631-8030-4C9D-96AB-26E10E8B9306}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3A5E95-3FAF-42D8-986E-9C3B3ED96D50}">
   <dimension ref="B4:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="10" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B4" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="33">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B7" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="33">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="2:8" ht="135.75" customHeight="1">
+      <c r="B9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1</v>
+      </c>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="14">
+        <v>2</v>
+      </c>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141F7631-8030-4C9D-96AB-26E10E8B9306}">
+  <dimension ref="B4:H32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2207,10 +2512,10 @@
         <v>27</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>24</v>
@@ -2218,8 +2523,8 @@
       <c r="F6" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="14">
-        <v>1</v>
+      <c r="G6" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="H6" s="12"/>
     </row>
@@ -2231,7 +2536,7 @@
         <v>64</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>24</v>
@@ -2249,19 +2554,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="33">
-        <v>1</v>
+        <v>108</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>109</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -2270,19 +2575,19 @@
         <v>12</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="H9" s="31"/>
     </row>
@@ -2354,19 +2659,19 @@
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H13" s="12"/>
     </row>
@@ -2375,21 +2680,139 @@
         <v>30</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>82</v>
+        <v>116</v>
+      </c>
+      <c r="G14" s="28">
+        <v>1</v>
       </c>
       <c r="H14" s="29"/>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" ht="60.75" customHeight="1">
+      <c r="C23" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="3:6" ht="57" customHeight="1">
+      <c r="C24" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="3:6" ht="51.75" customHeight="1">
+      <c r="C25" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="3:6" ht="56.25" customHeight="1">
+      <c r="C26" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="3:6" ht="58.5" customHeight="1">
+      <c r="C27" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="3:6" ht="58.5" customHeight="1">
+      <c r="C28" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="3:6" ht="59.25" customHeight="1">
+      <c r="C29" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="3:6" ht="51.75" customHeight="1">
+      <c r="C30" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="3:6" ht="53.25" customHeight="1">
+      <c r="C31" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="3:6" ht="63.75">
+      <c r="C32" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="34" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFF69680-5ABB-4625-830D-70E7C52ED07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49C31D0B-7E4C-4FB4-A1E9-AB0101CB130E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="121">
   <si>
     <t>Resource Name</t>
   </si>
@@ -425,17 +425,26 @@
   </si>
   <si>
     <t>1.Wireframe For HR
-2.Design Admin(Manage Organisation)</t>
-  </si>
-  <si>
-    <t>1. Assumptions for Public
-2. Session on Design Pattern - Builder, Prototype
+2.Rechecked  Admin ManageOrganization</t>
+  </si>
+  <si>
+    <t>1. Wireframe for HR
+2. Recheck on Wireframe Approver Requester
 3. Meeting with Rafi(MOM)
 4. Discussion About the Meeting with Team.</t>
   </si>
   <si>
-    <t>1. designed wireframe for approver 
-2. Explore about constraints  3.meeting with rafi (MOM)</t>
+    <t>3-1-2-1</t>
+  </si>
+  <si>
+    <t>1.  Redesigning wireframe for dashboard</t>
+  </si>
+  <si>
+    <t>1. designed wireframe for Dashboard
+2.meeting with rafi (MOM)</t>
+  </si>
+  <si>
+    <t>4,2</t>
   </si>
   <si>
     <t>1.Reworked on Wireframe for Admin(Home page,Manage employee,Awards,Organization,Department)
@@ -459,6 +468,10 @@
   </si>
   <si>
     <t>3 hrs</t>
+  </si>
+  <si>
+    <t>1.Wireframe For HR
+2.Rechecked  Admin Manage Employee</t>
   </si>
   <si>
     <t>1)Brain Storming with team 
@@ -2452,8 +2465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141F7631-8030-4C9D-96AB-26E10E8B9306}">
   <dimension ref="B4:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2521,10 +2534,10 @@
         <v>24</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>24</v>
+        <v>105</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1</v>
       </c>
       <c r="H6" s="12"/>
     </row>
@@ -2533,19 +2546,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="15">
-        <v>1</v>
+        <v>108</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="H7" s="11"/>
     </row>
@@ -2554,19 +2567,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -2575,19 +2588,19 @@
         <v>12</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F9" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>112</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>109</v>
       </c>
       <c r="H9" s="31"/>
     </row>
@@ -2596,16 +2609,16 @@
         <v>28</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G10" s="14">
         <v>1</v>
@@ -2638,19 +2651,19 @@
         <v>29</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="14">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="H12" s="12"/>
     </row>
@@ -2659,19 +2672,19 @@
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H13" s="12"/>
     </row>
@@ -2680,16 +2693,16 @@
         <v>30</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G14" s="28">
         <v>1</v>
@@ -2798,8 +2811,12 @@
       <c r="C31" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="3:6" ht="63.75">

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60CC280C-E0BD-4026-8D27-E35DF2FC98BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49C31D0B-7E4C-4FB4-A1E9-AB0101CB130E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="121">
   <si>
     <t>Resource Name</t>
   </si>
@@ -425,17 +425,26 @@
   </si>
   <si>
     <t>1.Wireframe For HR
-2.Design Admin(Manage Organisation)</t>
-  </si>
-  <si>
-    <t>1. Assumptions for Public
-2. Session on Design Pattern - Builder, Prototype
+2.Rechecked  Admin ManageOrganization</t>
+  </si>
+  <si>
+    <t>1. Wireframe for HR
+2. Recheck on Wireframe Approver Requester
 3. Meeting with Rafi(MOM)
 4. Discussion About the Meeting with Team.</t>
   </si>
   <si>
-    <t>1. designed wireframe for approver 
-2. Explore about constraints  3.meeting with rafi (MOM)</t>
+    <t>3-1-2-1</t>
+  </si>
+  <si>
+    <t>1.  Redesigning wireframe for dashboard</t>
+  </si>
+  <si>
+    <t>1. designed wireframe for Dashboard
+2.meeting with rafi (MOM)</t>
+  </si>
+  <si>
+    <t>4,2</t>
   </si>
   <si>
     <t>1.Reworked on Wireframe for Admin(Home page,Manage employee,Awards,Organization,Department)
@@ -459,6 +468,10 @@
   </si>
   <si>
     <t>3 hrs</t>
+  </si>
+  <si>
+    <t>1.Wireframe For HR
+2.Rechecked  Admin Manage Employee</t>
   </si>
   <si>
     <t>1)Brain Storming with team 
@@ -2452,8 +2465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141F7631-8030-4C9D-96AB-26E10E8B9306}">
   <dimension ref="B4:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2521,10 +2534,10 @@
         <v>24</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>24</v>
+        <v>105</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1</v>
       </c>
       <c r="H6" s="12"/>
     </row>
@@ -2533,19 +2546,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="15">
-        <v>1</v>
+        <v>108</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="H7" s="11"/>
     </row>
@@ -2554,19 +2567,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -2575,19 +2588,19 @@
         <v>12</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F9" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>112</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>109</v>
       </c>
       <c r="H9" s="31"/>
     </row>
@@ -2596,16 +2609,16 @@
         <v>28</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G10" s="14">
         <v>1</v>
@@ -2638,19 +2651,19 @@
         <v>29</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="14">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="H12" s="12"/>
     </row>
@@ -2659,19 +2672,19 @@
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H13" s="12"/>
     </row>
@@ -2680,16 +2693,16 @@
         <v>30</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G14" s="28">
         <v>1</v>
@@ -2798,8 +2811,12 @@
       <c r="C31" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="3:6" ht="63.75">

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60CC280C-E0BD-4026-8D27-E35DF2FC98BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{60CC280C-E0BD-4026-8D27-E35DF2FC98BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45991AAC-77E4-4099-9728-24321586B4FF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="120">
   <si>
     <t>Resource Name</t>
   </si>
@@ -434,8 +434,14 @@
 4. Discussion About the Meeting with Team.</t>
   </si>
   <si>
-    <t>1. designed wireframe for approver 
-2. Explore about constraints  3.meeting with rafi (MOM)</t>
+    <t>1.  Redesigning wireframe for dashboard (Admin, HR, Approver)</t>
+  </si>
+  <si>
+    <t>1. designed wireframe for Dashboard
+2.meeting with rafi (MOM) 3. Discussion with team about refining the wireframe</t>
+  </si>
+  <si>
+    <t>4,2,1</t>
   </si>
   <si>
     <t>1.Reworked on Wireframe for Admin(Home page,Manage employee,Awards,Organization,Department)
@@ -459,6 +465,10 @@
   </si>
   <si>
     <t>3 hrs</t>
+  </si>
+  <si>
+    <t>1. designed wireframe for Dashboard
+2.meeting with rafi (MOM) 3. Discussion with team about refining the wireframe  4. Project review (College)</t>
   </si>
   <si>
     <t>1)Brain Storming with team 
@@ -2452,8 +2462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141F7631-8030-4C9D-96AB-26E10E8B9306}">
   <dimension ref="B4:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2533,19 +2543,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="15">
-        <v>1</v>
+        <v>107</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="H7" s="11"/>
     </row>
@@ -2554,19 +2564,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -2575,19 +2585,19 @@
         <v>12</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H9" s="31"/>
     </row>
@@ -2638,19 +2648,19 @@
         <v>29</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="G12" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="12"/>
     </row>
@@ -2659,19 +2669,19 @@
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H13" s="12"/>
     </row>
@@ -2680,16 +2690,16 @@
         <v>30</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G14" s="28">
         <v>1</v>
@@ -2798,8 +2808,12 @@
       <c r="C31" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="3:6" ht="63.75">

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49C31D0B-7E4C-4FB4-A1E9-AB0101CB130E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B1698CF-285C-4BDD-BA45-5AB0DEB5E88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="120">
   <si>
     <t>Resource Name</t>
   </si>
@@ -434,17 +434,14 @@
 4. Discussion About the Meeting with Team.</t>
   </si>
   <si>
-    <t>3-1-2-1</t>
-  </si>
-  <si>
-    <t>1.  Redesigning wireframe for dashboard</t>
+    <t>1.  Redesigning wireframe for dashboard (Admin, HR, Approver)</t>
   </si>
   <si>
     <t>1. designed wireframe for Dashboard
-2.meeting with rafi (MOM)</t>
-  </si>
-  <si>
-    <t>4,2</t>
+2.meeting with rafi (MOM) 3. Discussion with team about refining the wireframe</t>
+  </si>
+  <si>
+    <t>4,2,1</t>
   </si>
   <si>
     <t>1.Reworked on Wireframe for Admin(Home page,Manage employee,Awards,Organization,Department)
@@ -470,12 +467,12 @@
     <t>3 hrs</t>
   </si>
   <si>
-    <t>1.Wireframe For HR
-2.Rechecked  Admin Manage Employee</t>
-  </si>
-  <si>
-    <t>1)Brain Storming with team 
-2).Refining the Home page and landing page wireframes  3) discussion meeting about redesigning the wireframe and spliting the work between teams</t>
+    <t>1. designed wireframe for Dashboard
+2.meeting with rafi (MOM) 3. Discussion with team about refining the wireframe  4. Project review (College)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Brain Storming with team 
+2).Refining the Home page and landing page wireframes  3) discussion meeting about redesigning the wireframe </t>
   </si>
   <si>
     <t xml:space="preserve">1
@@ -2465,8 +2462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141F7631-8030-4C9D-96AB-26E10E8B9306}">
   <dimension ref="B4:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2534,10 +2531,10 @@
         <v>24</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="G6" s="14">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="H6" s="12"/>
     </row>
@@ -2546,16 +2543,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>107</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>108</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>24</v>
@@ -2567,19 +2564,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="13" t="s">
+      <c r="G8" s="33" t="s">
         <v>111</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>112</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -2588,19 +2585,19 @@
         <v>12</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>114</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H9" s="31"/>
     </row>
@@ -2609,7 +2606,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>104</v>
@@ -2618,7 +2615,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G10" s="14">
         <v>1</v>
@@ -2651,19 +2648,19 @@
         <v>29</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>24</v>
+      <c r="G12" s="14">
+        <v>1</v>
       </c>
       <c r="H12" s="12"/>
     </row>
@@ -2672,19 +2669,19 @@
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>118</v>
-      </c>
       <c r="G13" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H13" s="12"/>
     </row>
@@ -2693,16 +2690,16 @@
         <v>30</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>119</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>120</v>
       </c>
       <c r="G14" s="28">
         <v>1</v>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{60CC280C-E0BD-4026-8D27-E35DF2FC98BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45991AAC-77E4-4099-9728-24321586B4FF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{507205A1-9512-4837-BA67-AEF72FC7FCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="124">
   <si>
     <t>Resource Name</t>
   </si>
@@ -424,6 +424,20 @@
 1</t>
   </si>
   <si>
+    <t>1.Reworked on Wireframe for Requester(award,request,profile)     and approver (award,approve,request,profile).
+2.Discussion About Meeting with Team.
+3.Rechecked All Wireframes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.Meeting with rafi(wire frame)                                                   2.Rework on prototype(Approver)</t>
+  </si>
+  <si>
+    <t>4-0.5-1-1.5-2</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>1.Wireframe For HR
 2.Design Admin(Manage Organisation)</t>
   </si>
@@ -454,9 +468,6 @@
     <t>2,1,2,2,1</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Developing  the workflow of  the  homepage wireframe and  desgining the  login workflow</t>
   </si>
   <si>
@@ -465,6 +476,9 @@
   </si>
   <si>
     <t>3 hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.Meeting with rafi(wire frame)                                                   2.Rework on prototype(Requester)</t>
   </si>
   <si>
     <t>1. designed wireframe for Dashboard
@@ -2463,7 +2477,7 @@
   <dimension ref="B4:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2496,24 +2510,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="99.75" customHeight="1">
+    <row r="5" spans="2:8" ht="106.5" customHeight="1">
       <c r="B5" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="33">
-        <v>1</v>
+        <v>105</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>106</v>
       </c>
       <c r="H5" s="11"/>
     </row>
@@ -2522,10 +2536,10 @@
         <v>27</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>24</v>
@@ -2543,16 +2557,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>24</v>
@@ -2564,19 +2578,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -2585,19 +2599,19 @@
         <v>12</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H9" s="31"/>
     </row>
@@ -2622,24 +2636,24 @@
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="2:8" ht="99.75" customHeight="1">
+    <row r="11" spans="2:8" ht="125.25" customHeight="1">
       <c r="B11" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="14">
-        <v>1</v>
+        <v>105</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="H11" s="12"/>
     </row>
@@ -2648,16 +2662,16 @@
         <v>29</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G12" s="14">
         <v>1</v>
@@ -2669,19 +2683,19 @@
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H13" s="12"/>
     </row>
@@ -2690,16 +2704,16 @@
         <v>30</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G14" s="28">
         <v>1</v>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{507205A1-9512-4837-BA67-AEF72FC7FCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0CACA92-A303-46C0-8F01-A29A1B364E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="125">
   <si>
     <t>Resource Name</t>
   </si>
@@ -439,23 +439,26 @@
   </si>
   <si>
     <t>1.Wireframe For HR
-2.Design Admin(Manage Organisation)</t>
-  </si>
-  <si>
-    <t>1. Assumptions for Public
-2. Session on Design Pattern - Builder, Prototype
+2.Rechecked  Admin ManageOrganization</t>
+  </si>
+  <si>
+    <t>1. Wireframe for HR
+2. Recheck on Wireframe Approver Requester
 3. Meeting with Rafi(MOM)
 4. Discussion About the Meeting with Team.</t>
   </si>
   <si>
-    <t>1.  Redesigning wireframe for dashboard (Admin, HR, Approver)</t>
+    <t>3-1-2-1</t>
+  </si>
+  <si>
+    <t>1.  Redesigning wireframe for dashboard</t>
   </si>
   <si>
     <t>1. designed wireframe for Dashboard
-2.meeting with rafi (MOM) 3. Discussion with team about refining the wireframe</t>
-  </si>
-  <si>
-    <t>4,2,1</t>
+2.meeting with rafi (MOM)</t>
+  </si>
+  <si>
+    <t>4,2</t>
   </si>
   <si>
     <t>1.Reworked on Wireframe for Admin(Home page,Manage employee,Awards,Organization,Department)
@@ -478,11 +481,11 @@
     <t>3 hrs</t>
   </si>
   <si>
+    <t>1.Wireframe For HR
+2.Rechecked  Admin Manage Employee</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 1.Meeting with rafi(wire frame)                                                   2.Rework on prototype(Requester)</t>
-  </si>
-  <si>
-    <t>1. designed wireframe for Dashboard
-2.meeting with rafi (MOM) 3. Discussion with team about refining the wireframe  4. Project review (College)</t>
   </si>
   <si>
     <t>1)Brain Storming with team 
@@ -2476,8 +2479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141F7631-8030-4C9D-96AB-26E10E8B9306}">
   <dimension ref="B4:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2510,7 +2513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="106.5" customHeight="1">
+    <row r="5" spans="2:8" ht="99.75" customHeight="1">
       <c r="B5" s="17" t="s">
         <v>6</v>
       </c>
@@ -2545,10 +2548,10 @@
         <v>24</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>24</v>
+        <v>109</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1</v>
       </c>
       <c r="H6" s="12"/>
     </row>
@@ -2557,16 +2560,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>24</v>
@@ -2578,16 +2581,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G8" s="33" t="s">
         <v>106</v>
@@ -2599,16 +2602,16 @@
         <v>12</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G9" s="20" t="s">
         <v>106</v>
@@ -2620,23 +2623,23 @@
         <v>28</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="G10" s="14">
         <v>1</v>
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="2:8" ht="125.25" customHeight="1">
+    <row r="11" spans="2:8" ht="99.75" customHeight="1">
       <c r="B11" s="17" t="s">
         <v>10</v>
       </c>
@@ -2644,7 +2647,7 @@
         <v>103</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>24</v>
@@ -2662,19 +2665,19 @@
         <v>29</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" s="14">
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="H12" s="12"/>
     </row>
@@ -2683,16 +2686,16 @@
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>106</v>
@@ -2704,16 +2707,16 @@
         <v>30</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G14" s="28">
         <v>1</v>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25207"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA8CC3E8-FDA9-47C1-A208-FF30F99FA14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61EC79E2-5961-4BEC-88E4-1B8C42792C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="40" r:id="rId1"/>
     <sheet name="06-04-2022" sheetId="41" r:id="rId2"/>
     <sheet name="07-04-2022" sheetId="42" r:id="rId3"/>
-    <sheet name="08-04-2022" sheetId="43" r:id="rId4"/>
+    <sheet name="08-04-2022 " sheetId="44" r:id="rId4"/>
+    <sheet name="09-04-2022 " sheetId="45" r:id="rId5"/>
+    <sheet name="11-04-2022" sheetId="43" r:id="rId6"/>
+    <sheet name="12-04-2022" sheetId="46" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="171">
   <si>
     <t>Resource Name</t>
   </si>
@@ -348,7 +351,7 @@
   </si>
   <si>
     <t>1.Wireframe For HR
-2.Design Admin Dashboard</t>
+2.Design Admin Dashboard.</t>
   </si>
   <si>
     <t>1. Assumptions for Public
@@ -390,12 +393,16 @@
 </t>
   </si>
   <si>
+    <t>1.Wireframe For HR
+2.Design Admin Dashboard</t>
+  </si>
+  <si>
     <t>1-2-1-1-1</t>
   </si>
   <si>
-    <t>1.Reworked on Wireframe for Requester
-2.Discussion About Meeting with Team
-3.Rechecked All Wireframes</t>
+    <t>1.Reworked on Wireframe for Requester.
+2.Discussion About Meeting with Team.
+3.Rechecked All Wireframes.</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.Meeting with rafi(wire frame)                                                  2.Session on DesignPattern - Builder,Prototype. 3.Rework on prototype(requester)</t>
@@ -417,13 +424,231 @@
 1
 -
 1</t>
+  </si>
+  <si>
+    <t>1.Reworked on Wireframe for Requester(award,request,profile)     and approver (award,approve,request,profile).
+2.Discussion About Meeting with Team.
+3.Rechecked All Wireframes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.Meeting with rafi(wire frame)                                                   2.Rework on prototype(Approver)</t>
+  </si>
+  <si>
+    <t>4-0.5-1-1.5-2</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1.Wireframe For HR
+2.Rechecked  Admin ManageOrganization</t>
+  </si>
+  <si>
+    <t>1. Wireframe for HR
+2. Recheck on Wireframe Approver Requester
+3. Meeting with Rafi(MOM)
+4. Discussion About the Meeting with Team.</t>
+  </si>
+  <si>
+    <t>3-1-2-1</t>
+  </si>
+  <si>
+    <t>1.  Redesigning wireframe for dashboard</t>
+  </si>
+  <si>
+    <t>1. designed wireframe for Dashboard
+2.meeting with rafi (MOM)</t>
+  </si>
+  <si>
+    <t>4,2</t>
+  </si>
+  <si>
+    <t>1.Reworked on Wireframe for Admin(Home page,Manage employee,Awards,Organization,Department)
+2.Rechecked All Wireframes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       1.Meeting with rafi(wire frame)                                                   2.Rework on prototype(Admin)3.Discussion about Meeting with team(Wireframe)</t>
+  </si>
+  <si>
+    <t>2,1,2,2,1</t>
+  </si>
+  <si>
+    <t>Developing  the workflow of  the  homepage wireframe and  desgining the  login workflow</t>
+  </si>
+  <si>
+    <t>1)Brain Storming with team for - 1 hour. 
+2).Refining the Home page and lading page wireframes - 2 hours</t>
+  </si>
+  <si>
+    <t>3 hrs</t>
+  </si>
+  <si>
+    <t>1.Wireframe For HR
+2.Rechecked  Admin Manage Employee</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.Meeting with rafi(wire frame)                                                   2.Rework on prototype(Requester)</t>
+  </si>
+  <si>
+    <t>1)Brain Storming with team 
+2).Refining the Home page and landing page wireframes  3) discussion meeting about redesigning the wireframe and spliting the work between teams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1
+4
+1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       1.Meeting with rafi(wire frame)                                                   2.Rework on prototype(Admin) 3.Project review 4.Discussion about Meeting with team(Wireframe)</t>
+  </si>
+  <si>
+    <t>4,2,2,2,1,1</t>
+  </si>
+  <si>
+    <t>Rechecked all WireFrame</t>
+  </si>
+  <si>
+    <t>Discussion with team.</t>
+  </si>
+  <si>
+    <t>1 hr 15 mins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wireframe for approver(changed naming conventions,flow for rejection reason)</t>
+  </si>
+  <si>
+    <t>1 hr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> check on wireframe for HR</t>
+  </si>
+  <si>
+    <t>1 hr 30 mins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> checked wireframe for admin(refined flow for awards,employee,department)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Ajaybharathi K</t>
+  </si>
+  <si>
+    <t>Data Model Table</t>
+  </si>
+  <si>
+    <t>Discussion with Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NIL</t>
+  </si>
+  <si>
+    <t>1hr 15 mins</t>
+  </si>
+  <si>
+    <t>Data Model  1st Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 1 hr</t>
+  </si>
+  <si>
+    <t>entering MOM For Last 2 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                1/2 hr</t>
+  </si>
+  <si>
+    <t>Meeting with team regarding wireframe (Approver)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviewing Data model </t>
+  </si>
+  <si>
+    <t>Anitha Session</t>
+  </si>
+  <si>
+    <t>Reviewing the Flow of the Wireframe (All)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               1 hr 15 min</t>
+  </si>
+  <si>
+    <t>Rechecked wireframe for admin(refined flow for awards,employee,department)</t>
+  </si>
+  <si>
+    <t>MVC Application Review</t>
+  </si>
+  <si>
+    <t>Session with Anitha</t>
+  </si>
+  <si>
+    <t>Data Models - Relationship</t>
+  </si>
+  <si>
+    <t>Entity and Operations for data model - 2hrs</t>
+  </si>
+  <si>
+    <t>Had a discussion with team - 1.15hrs</t>
+  </si>
+  <si>
+    <t>Gone through the wire frames - 1hrs</t>
+  </si>
+  <si>
+    <t>4.5hrs</t>
+  </si>
+  <si>
+    <t>Redesign Dashboard</t>
+  </si>
+  <si>
+    <t>1 hrs</t>
+  </si>
+  <si>
+    <t>Rechecked for Approver, Admin Flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rechecked Data Model Table </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> checked wireframe for admin(refined flow for awards,employee,organisation,department)</t>
+  </si>
+  <si>
+    <t>Data model Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussion with Team </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review the flow for all wireframes.  </t>
+  </si>
+  <si>
+    <t>2 hr redesigning the DashboardDiscussion with team.</t>
+  </si>
+  <si>
+    <t>1 hour 15 mins</t>
+  </si>
+  <si>
+    <t>Dashboard redesign</t>
+  </si>
+  <si>
+    <t>redesigning the Dashboard</t>
+  </si>
+  <si>
+    <t>3 hours</t>
+  </si>
+  <si>
+    <t>project presentation</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hour </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,6 +739,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -528,7 +808,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -566,13 +846,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -672,6 +1108,133 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent4" xfId="1" builtinId="41"/>
@@ -1438,8 +2001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE42D53-7E04-4254-8D5E-88A8C21EAC94}">
   <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.25" customHeight="1"/>
@@ -1886,8 +2449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8350AC00-EFFB-42E3-B11C-77314475CC20}">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H12"/>
+    <sheetView topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2140,11 +2703,637 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141F7631-8030-4C9D-96AB-26E10E8B9306}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3A5E95-3FAF-42D8-986E-9C3B3ED96D50}">
   <dimension ref="B4:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A5" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="10" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B4" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="33">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B7" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="33">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="2:8" ht="135.75" customHeight="1">
+      <c r="B9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1</v>
+      </c>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="14">
+        <v>2</v>
+      </c>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D939281-B099-4B72-AA02-825A3ABC1A93}">
+  <dimension ref="B4:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="10" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B4" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B5" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="38"/>
+    </row>
+    <row r="6" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B6" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="33">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B7" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B8" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="39"/>
+    </row>
+    <row r="9" spans="2:8" ht="135.75" customHeight="1">
+      <c r="B9" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B10" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="33">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B11" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B12" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B13" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="2:8" ht="99.75" customHeight="1">
+      <c r="B14" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="40">
+        <v>1</v>
+      </c>
+      <c r="H14" s="29"/>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" ht="60.75" customHeight="1">
+      <c r="C23" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+    </row>
+    <row r="24" spans="3:6" ht="57" customHeight="1">
+      <c r="C24" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+    </row>
+    <row r="25" spans="3:6" ht="51.75" customHeight="1">
+      <c r="C25" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="43"/>
+    </row>
+    <row r="26" spans="3:6" ht="56.25" customHeight="1">
+      <c r="C26" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+    </row>
+    <row r="27" spans="3:6" ht="58.5" customHeight="1">
+      <c r="C27" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="43"/>
+    </row>
+    <row r="28" spans="3:6" ht="58.5" customHeight="1">
+      <c r="C28" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="43"/>
+    </row>
+    <row r="29" spans="3:6" ht="59.25" customHeight="1">
+      <c r="C29" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="43"/>
+    </row>
+    <row r="30" spans="3:6" ht="51.75" customHeight="1">
+      <c r="C30" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="43"/>
+    </row>
+    <row r="31" spans="3:6" ht="53.25" customHeight="1">
+      <c r="C31" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="43"/>
+    </row>
+    <row r="32" spans="3:6" ht="63.75">
+      <c r="C32" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="43"/>
+      <c r="F32" s="44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141F7631-8030-4C9D-96AB-26E10E8B9306}">
+  <dimension ref="B4:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2182,19 +3371,19 @@
         <v>6</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="33">
-        <v>1</v>
+        <v>105</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>106</v>
       </c>
       <c r="H5" s="11"/>
     </row>
@@ -2203,16 +3392,16 @@
         <v>27</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="G6" s="14">
         <v>1</v>
@@ -2224,19 +3413,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="15">
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="H7" s="11"/>
     </row>
@@ -2245,19 +3434,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="33">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>106</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -2266,19 +3455,19 @@
         <v>12</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="H9" s="31"/>
     </row>
@@ -2287,16 +3476,16 @@
         <v>28</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G10" s="14">
         <v>1</v>
@@ -2308,19 +3497,19 @@
         <v>10</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="14">
-        <v>1</v>
+        <v>105</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="H11" s="12"/>
     </row>
@@ -2329,19 +3518,19 @@
         <v>29</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="14">
-        <v>2</v>
+        <v>112</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="H12" s="12"/>
     </row>
@@ -2350,19 +3539,19 @@
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H13" s="12"/>
     </row>
@@ -2371,23 +3560,791 @@
         <v>30</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>82</v>
+        <v>124</v>
+      </c>
+      <c r="G14" s="28">
+        <v>1</v>
       </c>
       <c r="H14" s="29"/>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" ht="60.75" customHeight="1">
+      <c r="C23" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="3:6" ht="57" customHeight="1">
+      <c r="C24" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="3:6" ht="51.75" customHeight="1">
+      <c r="C25" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="3:6" ht="56.25" customHeight="1">
+      <c r="C26" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="3:6" ht="58.5" customHeight="1">
+      <c r="C27" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="3:6" ht="58.5" customHeight="1">
+      <c r="C28" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="3:6" ht="59.25" customHeight="1">
+      <c r="C29" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="3:6" ht="51.75" customHeight="1">
+      <c r="C30" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="3:6" ht="53.25" customHeight="1">
+      <c r="C31" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="3:6" ht="63.75">
+      <c r="C32" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="34" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD40CF5-BD55-4D10-8C22-DF938ABB531A}">
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="3" max="3" width="94.7109375" customWidth="1"/>
+    <col min="4" max="7" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="54"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="62"/>
+      <c r="C3" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="50"/>
+      <c r="E3" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="49"/>
+      <c r="G3" s="56"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="62"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="50"/>
+      <c r="E4" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="49"/>
+      <c r="G4" s="56"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="68"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="69"/>
+      <c r="E5" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="75"/>
+      <c r="G5" s="59"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="56"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="63"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="83"/>
+      <c r="E7" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="56"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="63"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="56"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="63"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="63"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="85"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="74"/>
+      <c r="G11" s="54"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="64"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="56"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="64"/>
+      <c r="B13" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="50"/>
+      <c r="E13" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="49"/>
+      <c r="G13" s="56"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="64"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="50"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="56"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="64"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="56"/>
+    </row>
+    <row r="16" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A16" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="74"/>
+      <c r="G16" s="54"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A17" s="81"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="83"/>
+      <c r="E17" s="49">
+        <v>1.5</v>
+      </c>
+      <c r="F17" s="49"/>
+      <c r="G17" s="56"/>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A18" s="81"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="83"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49">
+        <v>1.5</v>
+      </c>
+      <c r="G18" s="56"/>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A19" s="82"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="69"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="73">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="56"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="54"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="55"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="56"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="57"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" s="78"/>
+      <c r="G22" s="79"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="61"/>
+      <c r="E23" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="49"/>
+      <c r="G23" s="56"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="81"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="83"/>
+      <c r="E24" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="49"/>
+      <c r="G24" s="56"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="81"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="83"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="56"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="82"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="69"/>
+      <c r="E26" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26" s="49"/>
+      <c r="G26" s="56"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="74"/>
+      <c r="G27" s="54"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="62"/>
+      <c r="C28" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="50"/>
+      <c r="E28" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" s="49"/>
+      <c r="G28" s="56"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="62"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="50"/>
+      <c r="E29" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" s="49"/>
+      <c r="G29" s="56"/>
+    </row>
+    <row r="30" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A30" s="68"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="69"/>
+      <c r="E30" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="75"/>
+      <c r="G30" s="59"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="56"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="55"/>
+      <c r="B32" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="71"/>
+      <c r="E32" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="49"/>
+      <c r="G32" s="56"/>
+    </row>
+    <row r="33" spans="1:7" ht="21" customHeight="1">
+      <c r="A33" s="55"/>
+      <c r="B33" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="71"/>
+      <c r="E33" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" s="49"/>
+      <c r="G33" s="56"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="55"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="56"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="55"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="56"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" s="61"/>
+      <c r="E36" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" s="74"/>
+      <c r="G36" s="54"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="55"/>
+      <c r="B37" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" s="50"/>
+      <c r="E37" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="F37" s="49"/>
+      <c r="G37" s="56"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="55"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" s="50"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="G38" s="56"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="55"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="56"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="57"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="59"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="49"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="56"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="55"/>
+      <c r="B42" s="46"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="56"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="55"/>
+      <c r="B43" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" s="83"/>
+      <c r="E43" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="F43" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="56"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="55"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="56"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="57"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="59"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="D46" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="D41:D45"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="D2:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61EC79E2-5961-4BEC-88E4-1B8C42792C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{816EB5B9-DF27-4D35-A80A-E88448DB11F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="171">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1139,79 +1139,82 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1229,9 +1232,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -3708,7 +3708,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3720,630 +3720,603 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="54" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="74" t="s">
+      <c r="D2" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="74" t="s">
+      <c r="F2" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="54"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="62"/>
-      <c r="C3" s="47" t="s">
+      <c r="A3" s="63"/>
+      <c r="C3" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="49" t="s">
+      <c r="D3" s="68"/>
+      <c r="E3" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="49"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="62"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46" t="s">
+      <c r="A4" s="63"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="49" t="s">
+      <c r="D4" s="68"/>
+      <c r="E4" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="49"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="68"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="75" t="s">
+      <c r="D5" s="61"/>
+      <c r="E5" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="F5" s="75"/>
-      <c r="G5" s="59"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="67" t="s">
         <v>134</v>
       </c>
       <c r="C6" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="56"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="63"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46" t="s">
+      <c r="A7" s="64"/>
+      <c r="C7" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="49" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="56"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="63"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="56"/>
+      <c r="A8" s="64"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="49"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="63"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="56"/>
+      <c r="A9" s="64"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="49"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="63"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="49" t="s">
+      <c r="A10" s="64"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="67"/>
       <c r="H10" s="85"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="E11" s="74" t="s">
+      <c r="E11" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="F11" s="74"/>
-      <c r="G11" s="54"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="64"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46" t="s">
+      <c r="A12" s="66"/>
+      <c r="C12" t="s">
         <v>142</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="51" t="s">
+      <c r="D12" s="68"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="G12" s="56"/>
+      <c r="G12" s="49"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="64"/>
-      <c r="B13" s="46" t="s">
+      <c r="A13" s="66"/>
+      <c r="B13" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" t="s">
         <v>144</v>
       </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="49" t="s">
+      <c r="D13" s="68"/>
+      <c r="E13" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="56"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="64"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46" t="s">
+      <c r="A14" s="66"/>
+      <c r="C14" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="56"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="49"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="64"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="56"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="49"/>
     </row>
     <row r="16" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="74" t="s">
+      <c r="D16" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="74"/>
-      <c r="G16" s="54"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A17" s="81"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46" t="s">
+      <c r="A17" s="82"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="D17" s="83"/>
-      <c r="E17" s="49">
+      <c r="D17" s="60"/>
+      <c r="E17" s="72">
         <v>1.5</v>
       </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="56"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A18" s="81"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46" t="s">
+      <c r="A18" s="82"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="D18" s="83"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49">
+      <c r="D18" s="60"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72">
         <v>1.5</v>
       </c>
-      <c r="G18" s="56"/>
+      <c r="G18" s="49"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A19" s="82"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46" t="s">
+      <c r="A19" s="83"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="73">
+      <c r="D19" s="61"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="74">
         <v>0.5</v>
       </c>
-      <c r="G19" s="56"/>
+      <c r="G19" s="49"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="54"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="55"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46" t="s">
+      <c r="A21" s="57"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="56"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="57"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="76" t="s">
+      <c r="A22" s="58"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="D22" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="78" t="s">
+      <c r="D22" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="F22" s="78"/>
-      <c r="G22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="80"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" t="s">
         <v>135</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="49" t="s">
+      <c r="D23" s="59"/>
+      <c r="E23" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="F23" s="49"/>
-      <c r="G23" s="56"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="49"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="81"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46" t="s">
+      <c r="A24" s="82"/>
+      <c r="C24" t="s">
         <v>157</v>
       </c>
-      <c r="D24" s="83"/>
-      <c r="E24" s="49" t="s">
+      <c r="D24" s="60"/>
+      <c r="E24" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="F24" s="49"/>
-      <c r="G24" s="56"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="81"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46" t="s">
+      <c r="A25" s="82"/>
+      <c r="C25" t="s">
         <v>149</v>
       </c>
-      <c r="D25" s="83"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="49" t="s">
+      <c r="D25" s="60"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="G25" s="56"/>
+      <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="82"/>
+      <c r="A26" s="83"/>
       <c r="B26" s="84"/>
       <c r="C26" s="84" t="s">
         <v>158</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="49" t="s">
+      <c r="D26" s="61"/>
+      <c r="E26" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="56"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="56" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="74" t="s">
+      <c r="D27" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="F27" s="74"/>
-      <c r="G27" s="54"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="48"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="62"/>
-      <c r="C28" s="47" t="s">
+      <c r="A28" s="57"/>
+      <c r="C28" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="49" t="s">
+      <c r="D28" s="60"/>
+      <c r="E28" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="F28" s="49"/>
-      <c r="G28" s="56"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="49"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="62"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46" t="s">
+      <c r="A29" s="57"/>
+      <c r="C29" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="49" t="s">
+      <c r="D29" s="60"/>
+      <c r="E29" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="49"/>
-      <c r="G29" s="56"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A30" s="68"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58" t="s">
+      <c r="A30" s="58"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="D30" s="69"/>
-      <c r="E30" s="75" t="s">
+      <c r="D30" s="61"/>
+      <c r="E30" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="F30" s="75"/>
-      <c r="G30" s="59"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="51"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="56"/>
+      <c r="D31" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="49"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="55"/>
-      <c r="B32" s="46" t="s">
+      <c r="A32" s="57"/>
+      <c r="B32" t="s">
         <v>160</v>
       </c>
-      <c r="C32" s="46" t="s">
+      <c r="C32" t="s">
         <v>161</v>
       </c>
-      <c r="D32" s="71"/>
-      <c r="E32" s="49" t="s">
+      <c r="D32" s="70"/>
+      <c r="E32" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="F32" s="49"/>
-      <c r="G32" s="56"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="49"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="55"/>
-      <c r="B33" s="46" t="s">
+      <c r="A33" s="57"/>
+      <c r="B33" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" t="s">
         <v>162</v>
       </c>
-      <c r="D33" s="71"/>
-      <c r="E33" s="49" t="s">
+      <c r="D33" s="70"/>
+      <c r="E33" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="F33" s="49"/>
-      <c r="G33" s="56"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="49"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="55"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="56"/>
+      <c r="A34" s="57"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="49"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="55"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="56"/>
+      <c r="A35" s="57"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53" t="s">
+      <c r="B36" s="47"/>
+      <c r="C36" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="D36" s="61"/>
-      <c r="E36" s="74" t="s">
+      <c r="D36" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="74"/>
-      <c r="G36" s="54"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="55"/>
-      <c r="B37" s="46" t="s">
+      <c r="A37" s="57"/>
+      <c r="B37" t="s">
         <v>165</v>
       </c>
       <c r="C37" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="D37" s="50"/>
-      <c r="E37" s="49" t="s">
+      <c r="D37" s="68"/>
+      <c r="E37" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="F37" s="49"/>
-      <c r="G37" s="56"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="55"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46" t="s">
+      <c r="A38" s="57"/>
+      <c r="C38" t="s">
         <v>168</v>
       </c>
-      <c r="D38" s="50"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49" t="s">
+      <c r="D38" s="68"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="G38" s="56"/>
+      <c r="G38" s="49"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="55"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="56"/>
+      <c r="A39" s="57"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="57"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="59"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="51"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="49"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="56"/>
+      <c r="D41" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="46"/>
+      <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="55"/>
-      <c r="B42" s="46"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="56"/>
+      <c r="A42" s="57"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="46"/>
+      <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="55"/>
-      <c r="B43" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="46" t="s">
+      <c r="A43" s="57"/>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
         <v>161</v>
       </c>
-      <c r="D43" s="83"/>
-      <c r="E43" s="49" t="s">
+      <c r="D43" s="60"/>
+      <c r="E43" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="F43" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" s="56"/>
+      <c r="F43" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="55"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="56"/>
+      <c r="A44" s="57"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="46"/>
+      <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="57"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="59"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="51"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="D46" s="48"/>
+      <c r="D46" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D11:D15"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="D36:D40"/>
     <mergeCell ref="D23:D26"/>
     <mergeCell ref="D41:D45"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:A45"/>
     <mergeCell ref="D27:D30"/>
     <mergeCell ref="A31:A35"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="D11:D15"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="A11:A15"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="D2:D5"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D6:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{816EB5B9-DF27-4D35-A80A-E88448DB11F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="463" documentId="8_{CF9D9844-FE05-4AE4-8DCD-83B6A181F316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAF51D1A-8401-4630-BB16-E337642E5B03}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="172">
   <si>
     <t>Resource Name</t>
   </si>
@@ -506,15 +506,18 @@
     <t>4,2,2,2,1,1</t>
   </si>
   <si>
+    <t xml:space="preserve">Data Model </t>
+  </si>
+  <si>
+    <t>Discussion with team.</t>
+  </si>
+  <si>
+    <t>1 hr 15 mins</t>
+  </si>
+  <si>
     <t>Rechecked all WireFrame</t>
   </si>
   <si>
-    <t>Discussion with team.</t>
-  </si>
-  <si>
-    <t>1 hr 15 mins</t>
-  </si>
-  <si>
     <t xml:space="preserve"> wireframe for approver(changed naming conventions,flow for rejection reason)</t>
   </si>
   <si>
@@ -539,21 +542,24 @@
     <t>Discussion with Team</t>
   </si>
   <si>
+    <t xml:space="preserve">   NIL</t>
+  </si>
+  <si>
+    <t>1hr 15 mins</t>
+  </si>
+  <si>
+    <t>Data Model  1st Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 1 hr</t>
+  </si>
+  <si>
+    <t>entering MOM For Last 2 days</t>
+  </si>
+  <si>
     <t xml:space="preserve"> NIL</t>
   </si>
   <si>
-    <t>1hr 15 mins</t>
-  </si>
-  <si>
-    <t>Data Model  1st Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 1 hr</t>
-  </si>
-  <si>
-    <t>entering MOM For Last 2 days</t>
-  </si>
-  <si>
     <t xml:space="preserve">                1/2 hr</t>
   </si>
   <si>
@@ -603,9 +609,6 @@
   </si>
   <si>
     <t>Rechecked for Approver, Admin Flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rechecked Data Model Table </t>
   </si>
   <si>
     <t xml:space="preserve"> checked wireframe for admin(refined flow for awards,employee,organisation,department)</t>
@@ -808,7 +811,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -976,39 +979,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1139,80 +1116,76 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1233,8 +1206,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent4" xfId="1" builtinId="41"/>
@@ -3705,10 +3676,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD40CF5-BD55-4D10-8C22-DF938ABB531A}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="D6" sqref="D6:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3719,604 +3690,636 @@
     <col min="4" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:7" ht="30">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="64" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="62" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="51" t="s">
         <v>126</v>
       </c>
       <c r="D2" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="48"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="63"/>
-      <c r="C3" s="75" t="s">
+      <c r="G2" s="52"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="60"/>
+      <c r="B3" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="72" t="s">
+      <c r="C3" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="49"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="63"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67" t="s">
+      <c r="D3" s="49"/>
+      <c r="E3" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="72" t="s">
+      <c r="F3" s="70"/>
+      <c r="G3" s="54"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="60"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="F4" s="72"/>
-      <c r="G4" s="49"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="76"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50" t="s">
+      <c r="D4" s="49"/>
+      <c r="E4" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="51"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="64" t="s">
+      <c r="F4" s="70"/>
+      <c r="G4" s="54"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="74"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="D5" s="66"/>
+      <c r="E5" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="73"/>
+      <c r="G5" s="57"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="61" t="s">
         <v>134</v>
       </c>
+      <c r="B6" s="46" t="s">
+        <v>135</v>
+      </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D6" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="49"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="64"/>
-      <c r="C7" t="s">
+      <c r="E6" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="46" t="s">
+      <c r="F6" s="70"/>
+      <c r="G6" s="54"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="61"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="49"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="64"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="49"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="64"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="49"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="64"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="85"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="F7" s="70"/>
+      <c r="G7" s="54"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="61"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="54"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="61"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="54"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="61"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="70"/>
+      <c r="G10" s="54"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>140</v>
+      <c r="B11" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>141</v>
       </c>
       <c r="D11" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="72"/>
+      <c r="G11" s="52"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="62"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="49"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="54"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="62"/>
+      <c r="B13" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="49"/>
+      <c r="E13" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="70"/>
+      <c r="G13" s="54"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="62"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="49"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="54"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="62"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="54"/>
+    </row>
+    <row r="16" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A16" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="72"/>
+      <c r="G16" s="52"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A17" s="80"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="49"/>
+      <c r="E17" s="70">
+        <v>1.5</v>
+      </c>
+      <c r="F17" s="70"/>
+      <c r="G17" s="54"/>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A18" s="80"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="49"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70">
+        <v>1.5</v>
+      </c>
+      <c r="G18" s="54"/>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A19" s="81"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="66"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="71">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="54"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="52"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="53"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="54"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="55"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" s="77"/>
+      <c r="G22" s="78"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="E11" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="48"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="66"/>
-      <c r="C12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="73" t="s">
-        <v>141</v>
-      </c>
-      <c r="G12" s="49"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="66"/>
-      <c r="B13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="49"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="66"/>
-      <c r="C14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="49"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="66"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="49"/>
-    </row>
-    <row r="16" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A16" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="47" t="s">
+      <c r="D23" s="59"/>
+      <c r="E23" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="70"/>
+      <c r="G23" s="54"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="80"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="49"/>
+      <c r="E24" s="70">
+        <v>2</v>
+      </c>
+      <c r="F24" s="70"/>
+      <c r="G24" s="54"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="80"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="49"/>
+      <c r="E25" s="47">
+        <v>1</v>
+      </c>
+      <c r="F25" s="70"/>
+      <c r="G25" s="54"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="81"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="D26" s="66"/>
+      <c r="E26" s="70">
+        <v>1</v>
+      </c>
+      <c r="F26" s="70"/>
+      <c r="G26" s="54"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="F16" s="52"/>
-      <c r="G16" s="48"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A17" s="82"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67" t="s">
-        <v>147</v>
-      </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="72">
-        <v>1.5</v>
-      </c>
-      <c r="F17" s="72"/>
-      <c r="G17" s="49"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A18" s="82"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72">
-        <v>1.5</v>
-      </c>
-      <c r="G18" s="49"/>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A19" s="83"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="74">
-        <v>0.5</v>
-      </c>
-      <c r="G19" s="49"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="48"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="57"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67" t="s">
-        <v>152</v>
-      </c>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="49"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="58"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77" t="s">
-        <v>153</v>
-      </c>
-      <c r="D22" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="79" t="s">
-        <v>154</v>
-      </c>
-      <c r="F22" s="79"/>
-      <c r="G22" s="80"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>155</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D27" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="72"/>
+      <c r="G27" s="52"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="53"/>
+      <c r="B28" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="49"/>
+      <c r="E28" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="70"/>
+      <c r="G28" s="54"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="53"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="49"/>
+      <c r="E29" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="70"/>
+      <c r="G29" s="54"/>
+    </row>
+    <row r="30" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A30" s="55"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" s="66"/>
+      <c r="E30" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" s="73"/>
+      <c r="G30" s="57"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="54"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="53"/>
+      <c r="B32" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="68"/>
+      <c r="E32" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="70"/>
+      <c r="G32" s="54"/>
+    </row>
+    <row r="33" spans="1:7" ht="21" customHeight="1">
+      <c r="A33" s="53"/>
+      <c r="B33" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="F23" s="46"/>
-      <c r="G23" s="49"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="82"/>
-      <c r="C24" t="s">
-        <v>157</v>
-      </c>
-      <c r="D24" s="60"/>
-      <c r="E24" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="49"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="82"/>
-      <c r="C25" t="s">
-        <v>149</v>
-      </c>
-      <c r="D25" s="60"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="G25" s="49"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="83"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84" t="s">
-        <v>158</v>
-      </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="F26" s="46"/>
-      <c r="G26" s="49"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27" s="52"/>
-      <c r="G27" s="48"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="57"/>
-      <c r="C28" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="D28" s="60"/>
-      <c r="E28" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="F28" s="46"/>
-      <c r="G28" s="49"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="57"/>
-      <c r="C29" t="s">
+      <c r="C33" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" s="68"/>
+      <c r="E33" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="F29" s="46"/>
-      <c r="G29" s="49"/>
-    </row>
-    <row r="30" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A30" s="58"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="F30" s="55"/>
-      <c r="G30" s="51"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="49"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="57"/>
-      <c r="B32" t="s">
-        <v>160</v>
-      </c>
-      <c r="C32" t="s">
-        <v>161</v>
-      </c>
-      <c r="D32" s="70"/>
-      <c r="E32" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="F32" s="46"/>
-      <c r="G32" s="49"/>
-    </row>
-    <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="57"/>
-      <c r="B33" t="s">
-        <v>134</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="F33" s="70"/>
+      <c r="G33" s="54"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="53"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="54"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="53"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="54"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="D36" s="59"/>
+      <c r="E36" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="F36" s="72"/>
+      <c r="G36" s="52"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="53"/>
+      <c r="B37" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="49"/>
+      <c r="E37" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" s="70"/>
+      <c r="G37" s="54"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="53"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38" s="49"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="G38" s="54"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="53"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="54"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="55"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="57"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="70"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="54"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="53"/>
+      <c r="B42" s="46"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="54"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="53"/>
+      <c r="B43" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="D33" s="70"/>
-      <c r="E33" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="F33" s="46"/>
-      <c r="G33" s="49"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="57"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="49"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="57"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="49"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="D36" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="F36" s="52"/>
-      <c r="G36" s="48"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="57"/>
-      <c r="B37" t="s">
-        <v>165</v>
-      </c>
-      <c r="C37" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="D37" s="68"/>
-      <c r="E37" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="F37" s="46"/>
-      <c r="G37" s="49"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="57"/>
-      <c r="C38" t="s">
-        <v>168</v>
-      </c>
-      <c r="D38" s="68"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="G38" s="49"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="57"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="49"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="58"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="51"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="46"/>
-      <c r="G41" s="49"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="57"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="46"/>
-      <c r="G42" s="49"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="57"/>
-      <c r="B43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" t="s">
-        <v>161</v>
-      </c>
-      <c r="D43" s="60"/>
-      <c r="E43" s="46" t="s">
-        <v>170</v>
+      <c r="D43" s="49"/>
+      <c r="E43" s="70" t="s">
+        <v>171</v>
       </c>
       <c r="F43" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="G43" s="49"/>
+      <c r="G43" s="54"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="57"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="46"/>
-      <c r="G44" s="49"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="54"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="58"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="51"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="57"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="D46" s="46"/>
+      <c r="D46" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="D16:D19"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="D36:D40"/>
     <mergeCell ref="D23:D26"/>
     <mergeCell ref="D41:D45"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A45"/>
     <mergeCell ref="D27:D30"/>
     <mergeCell ref="A31:A35"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D11:D15"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="A11:A15"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="D2:D5"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D6:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="463" documentId="8_{CF9D9844-FE05-4AE4-8DCD-83B6A181F316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAF51D1A-8401-4630-BB16-E337642E5B03}"/>
+  <xr:revisionPtr revIDLastSave="664" documentId="8_{CF9D9844-FE05-4AE4-8DCD-83B6A181F316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A4C3BC4-016B-4A5C-83FE-DB3CD90F65C8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="40" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="09-04-2022 " sheetId="45" r:id="rId5"/>
     <sheet name="11-04-2022" sheetId="43" r:id="rId6"/>
     <sheet name="12-04-2022" sheetId="46" r:id="rId7"/>
+    <sheet name="13-04-2022" sheetId="47" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="214">
   <si>
     <t>Resource Name</t>
   </si>
@@ -646,12 +647,138 @@
   <si>
     <t xml:space="preserve">1 hour </t>
   </si>
+  <si>
+    <t>sample data for data model(excel sheet)</t>
+  </si>
+  <si>
+    <t>30mins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wireframe for approver(changed naming conventions,Add request)</t>
+  </si>
+  <si>
+    <t>refined the user story</t>
+  </si>
+  <si>
+    <t>1hr30mins</t>
+  </si>
+  <si>
+    <t>College review</t>
+  </si>
+  <si>
+    <t>Meeting with Rafi( About Lesson,data model.physical model,view model )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hr </t>
+  </si>
+  <si>
+    <t>30 mins</t>
+  </si>
+  <si>
+    <t>Normalisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical Data Model </t>
+  </si>
+  <si>
+    <t>2hr 30mins</t>
+  </si>
+  <si>
+    <t>Meeting with Rafi( plan for next 3days )</t>
+  </si>
+  <si>
+    <t>1hr</t>
+  </si>
+  <si>
+    <t>entering MOM For Last day</t>
+  </si>
+  <si>
+    <t>1/2 hr</t>
+  </si>
+  <si>
+    <t>Logo removed for all wireframe pages some alignment corrections</t>
+  </si>
+  <si>
+    <t>Session about lesson learned (planning for 4 days - Services, Operations, class diagram, view model)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refining Constraints, dependencies for each user story </t>
+  </si>
+  <si>
+    <t>2 hr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               30mins</t>
+  </si>
+  <si>
+    <t>Normalization</t>
+  </si>
+  <si>
+    <t>1hr15mins</t>
+  </si>
+  <si>
+    <t>Dashboard modiications</t>
+  </si>
+  <si>
+    <t>Rechecked the Prototype with the last MOM - 1hr</t>
+  </si>
+  <si>
+    <t>3.5hrs</t>
+  </si>
+  <si>
+    <t>15mins</t>
+  </si>
+  <si>
+    <t>Discussed and implemented the Physical model - 1hrs</t>
+  </si>
+  <si>
+    <t>Project Review Preparation</t>
+  </si>
+  <si>
+    <t>Checked Admin flow</t>
+  </si>
+  <si>
+    <t>wireframe for requester(Add Request)</t>
+  </si>
+  <si>
+    <t>30min</t>
+  </si>
+  <si>
+    <t>rechecked wireframe for approver(Add Request,changed naming conventions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wireframe for HR(Add Request)</t>
+  </si>
+  <si>
+    <t>1.15min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  rechecked wireframe for admin(refined flow for awards,employee,organisation,department)</t>
+  </si>
+  <si>
+    <t>Learned normalization concepts</t>
+  </si>
+  <si>
+    <t>Refining use cases(dependencies,constraints)</t>
+  </si>
+  <si>
+    <t>Session with Rafi about Lessions learned in project training and what to do for next 7 days</t>
+  </si>
+  <si>
+    <t>Session with Rafi regarding lessons learned and what we are going to do till next mid week</t>
+  </si>
+  <si>
+    <t>Refined the user story</t>
+  </si>
+  <si>
+    <t>Meeting with Rafi( About Lesson,data model,physical model,view model )</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,6 +924,21 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -811,7 +953,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -949,6 +1091,17 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -959,8 +1112,8 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
@@ -970,13 +1123,104 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -985,7 +1229,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1116,95 +1360,181 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3678,8 +4008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD40CF5-BD55-4D10-8C22-DF938ABB531A}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D10"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C50" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3691,616 +4021,585 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="54" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="72" t="s">
+      <c r="D2" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="52"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="60"/>
-      <c r="B3" s="46" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="70" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="70"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="49"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="60"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46" t="s">
+      <c r="A4" s="88"/>
+      <c r="C4" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="70" t="s">
+      <c r="D4" s="84"/>
+      <c r="E4" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="70"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="49"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="74"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56" t="s">
+      <c r="A5" s="89"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="73" t="s">
+      <c r="D5" s="85"/>
+      <c r="E5" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="57"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="90" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" t="s">
         <v>135</v>
       </c>
       <c r="C6" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="54"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46" t="s">
+      <c r="A7" s="90"/>
+      <c r="C7" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="70" t="s">
+      <c r="D7" s="84"/>
+      <c r="E7" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="70"/>
-      <c r="G7" s="54"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="54"/>
+      <c r="A8" s="90"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="49"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="61"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="54"/>
+      <c r="A9" s="90"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="49"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="61"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="70" t="s">
+      <c r="A10" s="91"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="70"/>
-      <c r="G10" s="54"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="49"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="72" t="s">
+      <c r="E11" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="F11" s="72"/>
-      <c r="G11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="62"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46" t="s">
+      <c r="A12" s="92"/>
+      <c r="C12" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70" t="s">
+      <c r="D12" s="84"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="G12" s="54"/>
+      <c r="G12" s="49"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="62"/>
-      <c r="B13" s="46" t="s">
+      <c r="A13" s="92"/>
+      <c r="B13" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="70" t="s">
+      <c r="D13" s="84"/>
+      <c r="E13" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="54"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="62"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46" t="s">
+      <c r="A14" s="92"/>
+      <c r="C14" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="54"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="49"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="62"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="54"/>
+      <c r="A15" s="92"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="49"/>
     </row>
     <row r="16" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="72" t="s">
+      <c r="D16" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="F16" s="72"/>
-      <c r="G16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A17" s="80"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46" t="s">
+      <c r="A17" s="78"/>
+      <c r="C17" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="70">
+      <c r="D17" s="84"/>
+      <c r="E17" s="46">
         <v>1.5</v>
       </c>
-      <c r="F17" s="70"/>
-      <c r="G17" s="54"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A18" s="80"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46" t="s">
+      <c r="A18" s="78"/>
+      <c r="C18" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70">
+      <c r="D18" s="84"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46">
         <v>1.5</v>
       </c>
-      <c r="G18" s="54"/>
+      <c r="G18" s="49"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A19" s="81"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46" t="s">
+      <c r="A19" s="78"/>
+      <c r="C19" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="71">
+      <c r="D19" s="85"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="57">
         <v>0.5</v>
       </c>
-      <c r="G19" s="54"/>
+      <c r="G19" s="49"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="53"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46" t="s">
+      <c r="A21" s="78"/>
+      <c r="C21" t="s">
         <v>154</v>
       </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="54"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="55"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75" t="s">
+      <c r="A22" s="79"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="D22" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="77" t="s">
+      <c r="D22" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="F22" s="77"/>
-      <c r="G22" s="78"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="51"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" t="s">
         <v>157</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="70" t="s">
+      <c r="D23" s="83"/>
+      <c r="E23" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="F23" s="70"/>
-      <c r="G23" s="54"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="49"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="80"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46" t="s">
+      <c r="A24" s="86"/>
+      <c r="C24" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="70">
+      <c r="D24" s="84"/>
+      <c r="E24" s="46">
         <v>2</v>
       </c>
-      <c r="F24" s="70"/>
-      <c r="G24" s="54"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="80"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46" t="s">
+      <c r="A25" s="86"/>
+      <c r="C25" t="s">
         <v>151</v>
       </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="47">
+      <c r="D25" s="84"/>
+      <c r="E25" s="46">
         <v>1</v>
       </c>
-      <c r="F25" s="70"/>
-      <c r="G25" s="54"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="81"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46" t="s">
+      <c r="A26" s="86"/>
+      <c r="C26" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="66"/>
-      <c r="E26" s="70">
+      <c r="D26" s="85"/>
+      <c r="E26" s="46">
         <v>1</v>
       </c>
-      <c r="F26" s="70"/>
-      <c r="G26" s="54"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="72" t="s">
+      <c r="D27" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="F27" s="72"/>
-      <c r="G27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="48"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="53"/>
+      <c r="A28" s="78"/>
       <c r="B28" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="70" t="s">
+      <c r="D28" s="84"/>
+      <c r="E28" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="F28" s="70"/>
-      <c r="G28" s="54"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="49"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="53"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46" t="s">
+      <c r="A29" s="78"/>
+      <c r="C29" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="70" t="s">
+      <c r="D29" s="84"/>
+      <c r="E29" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="F29" s="70"/>
-      <c r="G29" s="54"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A30" s="55"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56" t="s">
+      <c r="A30" s="78"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="D30" s="66"/>
-      <c r="E30" s="73" t="s">
+      <c r="D30" s="85"/>
+      <c r="E30" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="F30" s="73"/>
-      <c r="G30" s="57"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="51"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="54"/>
+      <c r="D31" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="49"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="53"/>
-      <c r="B32" s="46" t="s">
+      <c r="A32" s="78"/>
+      <c r="B32" t="s">
         <v>161</v>
       </c>
-      <c r="C32" s="46" t="s">
+      <c r="C32" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="68"/>
-      <c r="E32" s="70" t="s">
+      <c r="D32" s="81"/>
+      <c r="E32" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="F32" s="70"/>
-      <c r="G32" s="54"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="49"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="53"/>
-      <c r="B33" s="46" t="s">
+      <c r="A33" s="78"/>
+      <c r="B33" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="68"/>
-      <c r="E33" s="70" t="s">
+      <c r="D33" s="81"/>
+      <c r="E33" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="F33" s="70"/>
-      <c r="G33" s="54"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="49"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="53"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="54"/>
+      <c r="A34" s="78"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="49"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="53"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="54"/>
+      <c r="A35" s="78"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51" t="s">
+      <c r="B36" s="47"/>
+      <c r="C36" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="D36" s="59"/>
-      <c r="E36" s="72" t="s">
+      <c r="D36" s="83"/>
+      <c r="E36" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="F36" s="72"/>
-      <c r="G36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="53"/>
-      <c r="B37" s="46" t="s">
+      <c r="A37" s="78"/>
+      <c r="B37" t="s">
         <v>166</v>
       </c>
       <c r="C37" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="D37" s="49"/>
-      <c r="E37" s="70" t="s">
+      <c r="D37" s="84"/>
+      <c r="E37" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="F37" s="70"/>
-      <c r="G37" s="54"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="53"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46" t="s">
+      <c r="A38" s="78"/>
+      <c r="C38" t="s">
         <v>169</v>
       </c>
-      <c r="D38" s="49"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70" t="s">
+      <c r="D38" s="84"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="G38" s="54"/>
+      <c r="G38" s="49"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="53"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="54"/>
+      <c r="A39" s="78"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="55"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="57"/>
+      <c r="A40" s="79"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="51"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="50" t="s">
+      <c r="A41" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="70"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="54"/>
+      <c r="D41" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="46"/>
+      <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="53"/>
-      <c r="B42" s="46"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="54"/>
+      <c r="A42" s="78"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="46"/>
+      <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="53"/>
-      <c r="B43" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="46" t="s">
+      <c r="A43" s="78"/>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
         <v>162</v>
       </c>
-      <c r="D43" s="49"/>
-      <c r="E43" s="70" t="s">
+      <c r="D43" s="84"/>
+      <c r="E43" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="F43" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" s="54"/>
+      <c r="F43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="53"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="54"/>
+      <c r="A44" s="78"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="46"/>
+      <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="55"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="57"/>
+      <c r="A45" s="79"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="51"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="D46" s="47"/>
+      <c r="D46" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="D2:D5"/>
     <mergeCell ref="A36:A40"/>
     <mergeCell ref="A41:A45"/>
     <mergeCell ref="D31:D35"/>
@@ -4313,13 +4612,726 @@
     <mergeCell ref="D41:D45"/>
     <mergeCell ref="D27:D30"/>
     <mergeCell ref="A31:A35"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A15"/>
     <mergeCell ref="A27:A30"/>
-    <mergeCell ref="D2:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5078C7BA-40AD-44B2-B44A-F90FDEF2CC2F}">
+  <dimension ref="A1:G55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="53.42578125" customWidth="1"/>
+    <col min="3" max="3" width="94.7109375" customWidth="1"/>
+    <col min="4" max="7" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30">
+      <c r="A1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="59"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="98"/>
+      <c r="B3" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="101"/>
+      <c r="E3" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="63"/>
+      <c r="G3" s="60"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="98"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="101"/>
+      <c r="E4" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="63"/>
+      <c r="G4" s="60"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="98"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="68" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="101"/>
+      <c r="E5" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="63"/>
+      <c r="G5" s="60"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="98"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="101"/>
+      <c r="E6" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="63"/>
+      <c r="G6" s="60"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="99"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="102"/>
+      <c r="E7" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="64"/>
+      <c r="G7" s="61"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="103" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="95" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="103"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="95"/>
+      <c r="E9" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="103"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="95"/>
+      <c r="E10" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="104"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="95"/>
+      <c r="E11" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="62"/>
+      <c r="C12" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" s="94" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="103"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="95"/>
+      <c r="E13" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="103"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="95"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="60"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="103"/>
+      <c r="B15" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="57"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="104"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+    </row>
+    <row r="17" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A17" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="66"/>
+      <c r="C17" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A18" s="93"/>
+      <c r="B18" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="95"/>
+      <c r="E18" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A19" s="93"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" s="95"/>
+      <c r="E19" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A20" s="93"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="95"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="G20" s="60"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="94" t="s">
+        <v>197</v>
+      </c>
+      <c r="F21" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" s="59"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="93"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="60"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="93"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="61"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="105" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="95"/>
+      <c r="E24" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="93"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66" t="s">
+        <v>200</v>
+      </c>
+      <c r="D25" s="95"/>
+      <c r="E25" s="63">
+        <v>2</v>
+      </c>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="93"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="95"/>
+      <c r="E26" s="63">
+        <v>1</v>
+      </c>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="106"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66" t="s">
+        <v>201</v>
+      </c>
+      <c r="D27" s="96"/>
+      <c r="E27" s="63">
+        <v>1</v>
+      </c>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="F28" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="59"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="93"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="D29" s="95"/>
+      <c r="E29" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="93"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="69" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" s="95"/>
+      <c r="E30" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="93"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="D31" s="95"/>
+      <c r="E31" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="93"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" s="95"/>
+      <c r="E32" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+    </row>
+    <row r="33" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A33" s="93"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="D33" s="96"/>
+      <c r="E33" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="63"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="93"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66" t="s">
+        <v>208</v>
+      </c>
+      <c r="D35" s="95"/>
+      <c r="E35" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+    </row>
+    <row r="36" spans="1:7" ht="21" customHeight="1">
+      <c r="A36" s="93"/>
+      <c r="B36" s="66" t="s">
+        <v>209</v>
+      </c>
+      <c r="C36" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="95"/>
+      <c r="E36" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="93"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66" t="s">
+        <v>210</v>
+      </c>
+      <c r="D37" s="95"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="G37" s="60"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="93"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="94"/>
+      <c r="E39" s="62" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="93"/>
+      <c r="B40" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="95"/>
+      <c r="E40" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="93"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="D41" s="95"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="G41" s="60"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="93"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="106"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="61"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="66"/>
+      <c r="C44" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="F44" s="62"/>
+      <c r="G44" s="60"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="93"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" s="95"/>
+      <c r="E45" s="66" t="s">
+        <v>176</v>
+      </c>
+      <c r="F45" s="63"/>
+      <c r="G45" s="60"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="93"/>
+      <c r="B46" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" s="66" t="s">
+        <v>212</v>
+      </c>
+      <c r="D46" s="95"/>
+      <c r="E46" s="66" t="s">
+        <v>176</v>
+      </c>
+      <c r="F46" s="76"/>
+      <c r="G46" s="60"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="93"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="D47" s="95"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="G47" s="60"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="106"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="61"/>
+    </row>
+    <row r="49" spans="4:5">
+      <c r="D49" s="46"/>
+    </row>
+    <row r="55" spans="4:5">
+      <c r="E55" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="D21:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63FD64DE-2875-4081-9403-75CF08E31DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{434FF424-4ABB-438D-8F1E-4E5C434CCC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="216">
   <si>
     <t>Resource Name</t>
   </si>
@@ -672,12 +672,18 @@
     <t xml:space="preserve">1 hr </t>
   </si>
   <si>
+    <t>30 mins</t>
+  </si>
+  <si>
     <t>Normalisation</t>
   </si>
   <si>
     <t xml:space="preserve">Physical Data Model </t>
   </si>
   <si>
+    <t>2hr 30mins</t>
+  </si>
+  <si>
     <t>Meeting with Rafi( plan for next 3days )</t>
   </si>
   <si>
@@ -729,6 +735,12 @@
     <t>Project Review Preparation</t>
   </si>
   <si>
+    <t>Project Review</t>
+  </si>
+  <si>
+    <t>40 min</t>
+  </si>
+  <si>
     <t>Checked Admin flow</t>
   </si>
   <si>
@@ -754,9 +766,6 @@
   </si>
   <si>
     <t>Refining use cases(dependencies,constraints)</t>
-  </si>
-  <si>
-    <t>30 mins</t>
   </si>
   <si>
     <t>Session with Rafi about Lessions learned in project training and what to do for next 7 days</t>
@@ -1226,7 +1235,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1419,99 +1428,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1522,11 +1438,68 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1534,6 +1507,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4044,7 +4050,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="80" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="47" t="s">
@@ -4053,7 +4059,7 @@
       <c r="C2" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="77" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="52" t="s">
@@ -4065,14 +4071,14 @@
       <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="74"/>
+      <c r="A3" s="81"/>
       <c r="B3" t="s">
         <v>128</v>
       </c>
       <c r="C3" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="71"/>
+      <c r="D3" s="78"/>
       <c r="E3" s="46" t="s">
         <v>130</v>
       </c>
@@ -4080,11 +4086,11 @@
       <c r="G3" s="49"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="74"/>
+      <c r="A4" s="81"/>
       <c r="C4" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="71"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="46" t="s">
         <v>132</v>
       </c>
@@ -4092,12 +4098,12 @@
       <c r="G4" s="49"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="75"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="50"/>
       <c r="C5" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="72"/>
+      <c r="D5" s="79"/>
       <c r="E5" s="55" t="s">
         <v>132</v>
       </c>
@@ -4105,7 +4111,7 @@
       <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="83" t="s">
         <v>134</v>
       </c>
       <c r="B6" t="s">
@@ -4114,7 +4120,7 @@
       <c r="C6" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="77" t="s">
         <v>137</v>
       </c>
       <c r="E6" s="46" t="s">
@@ -4124,11 +4130,11 @@
       <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="76"/>
+      <c r="A7" s="83"/>
       <c r="C7" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="71"/>
+      <c r="D7" s="78"/>
       <c r="E7" s="46" t="s">
         <v>118</v>
       </c>
@@ -4136,22 +4142,22 @@
       <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="76"/>
-      <c r="D8" s="71"/>
+      <c r="A8" s="83"/>
+      <c r="D8" s="78"/>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
       <c r="G8" s="49"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="76"/>
-      <c r="D9" s="71"/>
+      <c r="A9" s="83"/>
+      <c r="D9" s="78"/>
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
       <c r="G9" s="49"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="77"/>
-      <c r="D10" s="72"/>
+      <c r="A10" s="84"/>
+      <c r="D10" s="79"/>
       <c r="E10" s="46" t="s">
         <v>140</v>
       </c>
@@ -4159,7 +4165,7 @@
       <c r="G10" s="49"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="85" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -4168,7 +4174,7 @@
       <c r="C11" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="77" t="s">
         <v>142</v>
       </c>
       <c r="E11" s="52" t="s">
@@ -4178,11 +4184,11 @@
       <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="78"/>
+      <c r="A12" s="85"/>
       <c r="C12" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="71"/>
+      <c r="D12" s="78"/>
       <c r="E12" s="46"/>
       <c r="F12" s="46" t="s">
         <v>143</v>
@@ -4190,14 +4196,14 @@
       <c r="G12" s="49"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="78"/>
+      <c r="A13" s="85"/>
       <c r="B13" t="s">
         <v>145</v>
       </c>
       <c r="C13" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="71"/>
+      <c r="D13" s="78"/>
       <c r="E13" s="46" t="s">
         <v>143</v>
       </c>
@@ -4205,24 +4211,24 @@
       <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="78"/>
+      <c r="A14" s="85"/>
       <c r="C14" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="71"/>
+      <c r="D14" s="78"/>
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
       <c r="G14" s="49"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="78"/>
-      <c r="D15" s="72"/>
+      <c r="A15" s="85"/>
+      <c r="D15" s="79"/>
       <c r="E15" s="46"/>
       <c r="F15" s="46"/>
       <c r="G15" s="49"/>
     </row>
     <row r="16" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="86" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="47" t="s">
@@ -4231,7 +4237,7 @@
       <c r="C16" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="70" t="s">
+      <c r="D16" s="77" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="52" t="s">
@@ -4241,11 +4247,11 @@
       <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A17" s="80"/>
+      <c r="A17" s="87"/>
       <c r="C17" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="71"/>
+      <c r="D17" s="78"/>
       <c r="E17" s="46">
         <v>1.5</v>
       </c>
@@ -4253,11 +4259,11 @@
       <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A18" s="80"/>
+      <c r="A18" s="87"/>
       <c r="C18" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="71"/>
+      <c r="D18" s="78"/>
       <c r="E18" s="46"/>
       <c r="F18" s="46">
         <v>1.5</v>
@@ -4265,11 +4271,11 @@
       <c r="G18" s="49"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A19" s="80"/>
+      <c r="A19" s="87"/>
       <c r="C19" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="72"/>
+      <c r="D19" s="79"/>
       <c r="E19" s="46"/>
       <c r="F19" s="57">
         <v>0.5</v>
@@ -4277,7 +4283,7 @@
       <c r="G19" s="49"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="86" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="47" t="s">
@@ -4292,7 +4298,7 @@
       <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="80"/>
+      <c r="A21" s="87"/>
       <c r="C21" t="s">
         <v>154</v>
       </c>
@@ -4302,7 +4308,7 @@
       <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="81"/>
+      <c r="A22" s="88"/>
       <c r="B22" s="50"/>
       <c r="C22" s="50" t="s">
         <v>155</v>
@@ -4317,7 +4323,7 @@
       <c r="G22" s="51"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="85" t="s">
+      <c r="A23" s="92" t="s">
         <v>28</v>
       </c>
       <c r="B23" t="s">
@@ -4326,7 +4332,7 @@
       <c r="C23" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="70"/>
+      <c r="D23" s="77"/>
       <c r="E23" s="46" t="s">
         <v>158</v>
       </c>
@@ -4334,11 +4340,11 @@
       <c r="G23" s="49"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="85"/>
+      <c r="A24" s="92"/>
       <c r="C24" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="71"/>
+      <c r="D24" s="78"/>
       <c r="E24" s="46">
         <v>2</v>
       </c>
@@ -4346,11 +4352,11 @@
       <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="85"/>
+      <c r="A25" s="92"/>
       <c r="C25" t="s">
         <v>151</v>
       </c>
-      <c r="D25" s="71"/>
+      <c r="D25" s="78"/>
       <c r="E25" s="46">
         <v>1</v>
       </c>
@@ -4358,11 +4364,11 @@
       <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="85"/>
+      <c r="A26" s="92"/>
       <c r="C26" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="72"/>
+      <c r="D26" s="79"/>
       <c r="E26" s="46">
         <v>1</v>
       </c>
@@ -4370,7 +4376,7 @@
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="79" t="s">
+      <c r="A27" s="86" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="47" t="s">
@@ -4379,7 +4385,7 @@
       <c r="C27" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="70" t="s">
+      <c r="D27" s="77" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="52" t="s">
@@ -4389,14 +4395,14 @@
       <c r="G27" s="48"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="80"/>
+      <c r="A28" s="87"/>
       <c r="B28" s="45" t="s">
         <v>128</v>
       </c>
       <c r="C28" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="71"/>
+      <c r="D28" s="78"/>
       <c r="E28" s="46" t="s">
         <v>130</v>
       </c>
@@ -4404,11 +4410,11 @@
       <c r="G28" s="49"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="80"/>
+      <c r="A29" s="87"/>
       <c r="C29" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="71"/>
+      <c r="D29" s="78"/>
       <c r="E29" s="46" t="s">
         <v>132</v>
       </c>
@@ -4416,12 +4422,12 @@
       <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A30" s="80"/>
+      <c r="A30" s="87"/>
       <c r="B30" s="50"/>
       <c r="C30" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="D30" s="72"/>
+      <c r="D30" s="79"/>
       <c r="E30" s="55" t="s">
         <v>132</v>
       </c>
@@ -4429,10 +4435,10 @@
       <c r="G30" s="51"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="79" t="s">
+      <c r="A31" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="82" t="s">
+      <c r="D31" s="89" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="46"/>
@@ -4440,14 +4446,14 @@
       <c r="G31" s="49"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="80"/>
+      <c r="A32" s="87"/>
       <c r="B32" t="s">
         <v>161</v>
       </c>
       <c r="C32" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="83"/>
+      <c r="D32" s="90"/>
       <c r="E32" s="46" t="s">
         <v>138</v>
       </c>
@@ -4455,14 +4461,14 @@
       <c r="G32" s="49"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="80"/>
+      <c r="A33" s="87"/>
       <c r="B33" t="s">
         <v>135</v>
       </c>
       <c r="C33" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="83"/>
+      <c r="D33" s="90"/>
       <c r="E33" s="46" t="s">
         <v>130</v>
       </c>
@@ -4470,28 +4476,28 @@
       <c r="G33" s="49"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="80"/>
-      <c r="D34" s="83"/>
+      <c r="A34" s="87"/>
+      <c r="D34" s="90"/>
       <c r="E34" s="46"/>
       <c r="F34" s="46"/>
       <c r="G34" s="49"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="80"/>
-      <c r="D35" s="84"/>
+      <c r="A35" s="87"/>
+      <c r="D35" s="91"/>
       <c r="E35" s="46"/>
       <c r="F35" s="46"/>
       <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="79" t="s">
+      <c r="A36" s="86" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="47"/>
       <c r="C36" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="D36" s="70"/>
+      <c r="D36" s="77"/>
       <c r="E36" s="52" t="s">
         <v>165</v>
       </c>
@@ -4499,14 +4505,14 @@
       <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="80"/>
+      <c r="A37" s="87"/>
       <c r="B37" t="s">
         <v>166</v>
       </c>
       <c r="C37" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="D37" s="71"/>
+      <c r="D37" s="78"/>
       <c r="E37" s="46" t="s">
         <v>168</v>
       </c>
@@ -4514,11 +4520,11 @@
       <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="80"/>
+      <c r="A38" s="87"/>
       <c r="C38" t="s">
         <v>169</v>
       </c>
-      <c r="D38" s="71"/>
+      <c r="D38" s="78"/>
       <c r="E38" s="46"/>
       <c r="F38" s="46" t="s">
         <v>170</v>
@@ -4526,46 +4532,46 @@
       <c r="G38" s="49"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="80"/>
-      <c r="D39" s="71"/>
+      <c r="A39" s="87"/>
+      <c r="D39" s="78"/>
       <c r="E39" s="46"/>
       <c r="F39" s="46"/>
       <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="81"/>
+      <c r="A40" s="88"/>
       <c r="B40" s="50"/>
       <c r="C40" s="50"/>
-      <c r="D40" s="72"/>
+      <c r="D40" s="79"/>
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
       <c r="G40" s="51"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="80" t="s">
+      <c r="A41" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="70" t="s">
+      <c r="D41" s="77" t="s">
         <v>24</v>
       </c>
       <c r="E41" s="46"/>
       <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="80"/>
-      <c r="D42" s="71"/>
+      <c r="A42" s="87"/>
+      <c r="D42" s="78"/>
       <c r="E42" s="46"/>
       <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="80"/>
+      <c r="A43" s="87"/>
       <c r="B43" t="s">
         <v>24</v>
       </c>
       <c r="C43" t="s">
         <v>162</v>
       </c>
-      <c r="D43" s="71"/>
+      <c r="D43" s="78"/>
       <c r="E43" s="46" t="s">
         <v>171</v>
       </c>
@@ -4575,16 +4581,16 @@
       <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="80"/>
-      <c r="D44" s="71"/>
+      <c r="A44" s="87"/>
+      <c r="D44" s="78"/>
       <c r="E44" s="46"/>
       <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="81"/>
+      <c r="A45" s="88"/>
       <c r="B45" s="50"/>
       <c r="C45" s="50"/>
-      <c r="D45" s="72"/>
+      <c r="D45" s="79"/>
       <c r="E45" s="55"/>
       <c r="F45" s="50"/>
       <c r="G45" s="51"/>
@@ -4620,10 +4626,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5078C7BA-40AD-44B2-B44A-F90FDEF2CC2F}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4658,7 +4664,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="102" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65" t="s">
@@ -4667,7 +4673,7 @@
       <c r="C2" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="105" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="56" t="s">
@@ -4679,14 +4685,12 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="93"/>
-      <c r="B3" s="66" t="s">
-        <v>128</v>
-      </c>
+      <c r="A3" s="103"/>
+      <c r="B3" s="66"/>
       <c r="C3" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="96"/>
+      <c r="D3" s="106"/>
       <c r="E3" s="57" t="s">
         <v>130</v>
       </c>
@@ -4694,12 +4698,12 @@
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="93"/>
+      <c r="A4" s="103"/>
       <c r="B4" s="66"/>
       <c r="C4" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="96"/>
+      <c r="D4" s="106"/>
       <c r="E4" s="57" t="s">
         <v>176</v>
       </c>
@@ -4707,12 +4711,12 @@
       <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="93"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="66"/>
       <c r="C5" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="96"/>
+      <c r="D5" s="106"/>
       <c r="E5" s="57" t="s">
         <v>173</v>
       </c>
@@ -4720,12 +4724,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="93"/>
+      <c r="A6" s="103"/>
       <c r="B6" s="66"/>
       <c r="C6" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="96"/>
+      <c r="D6" s="106"/>
       <c r="E6" s="57" t="s">
         <v>127</v>
       </c>
@@ -4733,12 +4737,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="94"/>
+      <c r="A7" s="104"/>
       <c r="B7" s="67"/>
       <c r="C7" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="97"/>
+      <c r="D7" s="107"/>
       <c r="E7" s="58" t="s">
         <v>179</v>
       </c>
@@ -4746,7 +4750,7 @@
       <c r="G7" s="61"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="108" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="66" t="s">
@@ -4755,22 +4759,22 @@
       <c r="C8" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="89" t="s">
+      <c r="D8" s="94" t="s">
         <v>137</v>
       </c>
       <c r="E8" s="63" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="98"/>
+      <c r="A9" s="108"/>
       <c r="B9" s="66"/>
       <c r="C9" s="66" t="s">
-        <v>180</v>
-      </c>
-      <c r="D9" s="89"/>
+        <v>181</v>
+      </c>
+      <c r="D9" s="94"/>
       <c r="E9" s="63" t="s">
         <v>130</v>
       </c>
@@ -4778,66 +4782,68 @@
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="98"/>
+      <c r="A10" s="108"/>
       <c r="B10" s="66"/>
       <c r="C10" s="66" t="s">
-        <v>181</v>
-      </c>
-      <c r="D10" s="89"/>
-      <c r="E10" s="63"/>
+        <v>182</v>
+      </c>
+      <c r="D10" s="94"/>
+      <c r="E10" s="63" t="s">
+        <v>183</v>
+      </c>
       <c r="F10" s="60"/>
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="99"/>
+      <c r="A11" s="109"/>
       <c r="B11" s="66"/>
       <c r="C11" s="66" t="s">
-        <v>182</v>
-      </c>
-      <c r="D11" s="89"/>
+        <v>184</v>
+      </c>
+      <c r="D11" s="94"/>
       <c r="E11" s="63" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F11" s="60"/>
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="98" t="s">
+      <c r="A12" s="108" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="62"/>
       <c r="C12" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="D12" s="88" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" s="93" t="s">
         <v>142</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F12" s="59"/>
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="98"/>
+      <c r="A13" s="108"/>
       <c r="B13" s="63"/>
-      <c r="C13" s="100" t="s">
-        <v>186</v>
-      </c>
-      <c r="D13" s="89"/>
+      <c r="C13" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="94"/>
       <c r="E13" s="63" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F13" s="60"/>
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="98"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="100" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" s="89"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="94"/>
       <c r="E14" s="63"/>
       <c r="F14" s="60" t="s">
         <v>130</v>
@@ -4845,53 +4851,53 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="98"/>
+      <c r="A15" s="108"/>
       <c r="B15" s="63" t="s">
-        <v>188</v>
-      </c>
-      <c r="C15" s="100"/>
-      <c r="D15" s="89"/>
+        <v>190</v>
+      </c>
+      <c r="C15" s="57"/>
+      <c r="D15" s="94"/>
       <c r="E15" s="63" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F15" s="60"/>
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="99"/>
+      <c r="A16" s="109"/>
       <c r="B16" s="64"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="90"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="63"/>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A17" s="87" t="s">
+      <c r="A17" s="100" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="88" t="s">
+      <c r="D17" s="93" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="62" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F17" s="59"/>
       <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A18" s="87"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="66" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C18" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="89"/>
+      <c r="D18" s="94"/>
       <c r="E18" s="63" t="s">
         <v>176</v>
       </c>
@@ -4899,12 +4905,12 @@
       <c r="G18" s="60"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A19" s="87"/>
+      <c r="A19" s="100"/>
       <c r="B19" s="66"/>
       <c r="C19" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="D19" s="89"/>
+      <c r="D19" s="94"/>
       <c r="E19" s="63" t="s">
         <v>176</v>
       </c>
@@ -4912,63 +4918,63 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A20" s="87"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="66"/>
       <c r="C20" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="D20" s="89"/>
+      <c r="D20" s="94"/>
       <c r="E20" s="63"/>
       <c r="F20" s="63" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="99" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="65" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>194</v>
-      </c>
-      <c r="D21" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="88" t="s">
-        <v>195</v>
-      </c>
-      <c r="F21" s="108" t="s">
         <v>196</v>
       </c>
+      <c r="D21" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="93" t="s">
+        <v>197</v>
+      </c>
+      <c r="F21" s="96" t="s">
+        <v>198</v>
+      </c>
       <c r="G21" s="59"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="87"/>
+      <c r="A22" s="100"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="109"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="97"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="87"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="67"/>
       <c r="C23" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="110"/>
+        <v>199</v>
+      </c>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="98"/>
       <c r="G23" s="61"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="86" t="s">
+      <c r="A24" s="99" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="66" t="s">
@@ -4977,7 +4983,7 @@
       <c r="C24" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="89"/>
+      <c r="D24" s="94"/>
       <c r="E24" s="63" t="s">
         <v>173</v>
       </c>
@@ -4985,333 +4991,346 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="87"/>
+      <c r="A25" s="100"/>
       <c r="B25" s="66"/>
       <c r="C25" s="66" t="s">
-        <v>198</v>
-      </c>
-      <c r="D25" s="89"/>
-      <c r="E25" s="63">
-        <v>2</v>
+        <v>200</v>
+      </c>
+      <c r="D25" s="94"/>
+      <c r="E25" s="63" t="s">
+        <v>191</v>
       </c>
       <c r="F25" s="60"/>
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="87"/>
+      <c r="A26" s="100"/>
       <c r="B26" s="66"/>
       <c r="C26" s="66" t="s">
-        <v>180</v>
-      </c>
-      <c r="D26" s="89"/>
-      <c r="E26" s="63">
-        <v>1</v>
+        <v>181</v>
+      </c>
+      <c r="D26" s="94"/>
+      <c r="E26" s="63" t="s">
+        <v>130</v>
       </c>
       <c r="F26" s="60"/>
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="91"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="66"/>
       <c r="C27" s="66" t="s">
-        <v>199</v>
-      </c>
-      <c r="D27" s="90"/>
-      <c r="E27" s="63">
-        <v>1</v>
+        <v>201</v>
+      </c>
+      <c r="D27" s="94"/>
+      <c r="E27" s="63" t="s">
+        <v>202</v>
       </c>
       <c r="F27" s="60"/>
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="87" t="s">
+      <c r="A28" s="101"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28" s="95"/>
+      <c r="E28" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="105" t="s">
+      <c r="B29" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="56" t="s">
+      <c r="C29" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="D28" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="62" t="s">
+      <c r="D29" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="F28" s="59" t="s">
+      <c r="F29" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="G28" s="59"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="87"/>
-      <c r="B29" s="101"/>
-      <c r="C29" s="100" t="s">
-        <v>200</v>
-      </c>
-      <c r="D29" s="89"/>
-      <c r="E29" s="63" t="s">
-        <v>201</v>
-      </c>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
+      <c r="G29" s="59"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="87"/>
-      <c r="B30" s="102"/>
-      <c r="C30" s="69" t="s">
-        <v>202</v>
-      </c>
-      <c r="D30" s="89"/>
+      <c r="A30" s="100"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" s="94"/>
       <c r="E30" s="63" t="s">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="F30" s="60"/>
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="87"/>
-      <c r="B31" s="102"/>
-      <c r="C31" s="100" t="s">
-        <v>203</v>
-      </c>
-      <c r="D31" s="89"/>
+      <c r="A31" s="100"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="69" t="s">
+        <v>206</v>
+      </c>
+      <c r="D31" s="94"/>
       <c r="E31" s="63" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="F31" s="60"/>
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="87"/>
-      <c r="B32" s="103"/>
-      <c r="C32" s="100" t="s">
-        <v>178</v>
-      </c>
-      <c r="D32" s="89"/>
+      <c r="A32" s="100"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" s="94"/>
       <c r="E32" s="63" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="F32" s="60"/>
       <c r="G32" s="60"/>
     </row>
-    <row r="33" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A33" s="87"/>
-      <c r="B33" s="104"/>
-      <c r="C33" s="58" t="s">
-        <v>205</v>
-      </c>
-      <c r="D33" s="90"/>
-      <c r="E33" s="64" t="s">
+    <row r="33" spans="1:7">
+      <c r="A33" s="100"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33" s="94"/>
+      <c r="E33" s="63" t="s">
+        <v>208</v>
+      </c>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+    </row>
+    <row r="34" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A34" s="100"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" s="95"/>
+      <c r="E34" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="86" t="s">
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="63"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="87"/>
       <c r="B35" s="66"/>
-      <c r="C35" s="66" t="s">
-        <v>206</v>
-      </c>
-      <c r="D35" s="89"/>
-      <c r="E35" s="63" t="s">
-        <v>130</v>
-      </c>
+      <c r="C35" s="66"/>
+      <c r="D35" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="63"/>
       <c r="F35" s="60"/>
       <c r="G35" s="60"/>
     </row>
-    <row r="36" spans="1:7" ht="21" customHeight="1">
-      <c r="A36" s="87"/>
-      <c r="B36" s="66" t="s">
-        <v>207</v>
-      </c>
+    <row r="36" spans="1:7">
+      <c r="A36" s="100"/>
+      <c r="B36" s="66"/>
       <c r="C36" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="D36" s="89"/>
+        <v>210</v>
+      </c>
+      <c r="D36" s="94"/>
       <c r="E36" s="63" t="s">
-        <v>208</v>
+        <v>130</v>
       </c>
       <c r="F36" s="60"/>
       <c r="G36" s="60"/>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="87"/>
-      <c r="B37" s="66"/>
+    <row r="37" spans="1:7" ht="21" customHeight="1">
+      <c r="A37" s="100"/>
+      <c r="B37" s="66" t="s">
+        <v>211</v>
+      </c>
       <c r="C37" s="66" t="s">
-        <v>209</v>
-      </c>
-      <c r="D37" s="89"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="94"/>
+      <c r="E37" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="100"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66" t="s">
+        <v>212</v>
+      </c>
+      <c r="D38" s="94"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="G37" s="60"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="87"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="60"/>
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="86" t="s">
+      <c r="A39" s="100"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65" t="s">
+      <c r="B40" s="65"/>
+      <c r="C40" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D39" s="88"/>
-      <c r="E39" s="62" t="s">
+      <c r="D40" s="93"/>
+      <c r="E40" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="87"/>
-      <c r="B40" s="66" t="s">
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="100"/>
+      <c r="B41" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="C40" s="68" t="s">
+      <c r="C41" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="D40" s="89"/>
-      <c r="E40" s="63" t="s">
+      <c r="D41" s="94"/>
+      <c r="E41" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="87"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="66" t="s">
-        <v>210</v>
-      </c>
-      <c r="D41" s="89"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="60" t="s">
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="100"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="D42" s="94"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="G41" s="60"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="87"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="60"/>
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="91"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="90"/>
-      <c r="E43" s="64"/>
+      <c r="A43" s="100"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="63"/>
       <c r="F43" s="60"/>
-      <c r="G43" s="61"/>
+      <c r="G43" s="60"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="87" t="s">
+      <c r="A44" s="101"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="61"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="66"/>
-      <c r="C44" s="65" t="s">
+      <c r="B45" s="66"/>
+      <c r="C45" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D44" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="65" t="s">
+      <c r="D45" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="F44" s="62"/>
-      <c r="G44" s="60"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="87"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="66" t="s">
+      <c r="F45" s="62"/>
+      <c r="G45" s="60"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="100"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D45" s="89"/>
-      <c r="E45" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="F45" s="63"/>
-      <c r="G45" s="60"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="87"/>
-      <c r="B46" s="66" t="s">
-        <v>191</v>
-      </c>
-      <c r="C46" s="66" t="s">
-        <v>211</v>
-      </c>
-      <c r="D46" s="89"/>
+      <c r="D46" s="94"/>
       <c r="E46" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="F46" s="107"/>
+      <c r="F46" s="63"/>
       <c r="G46" s="60"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="87"/>
-      <c r="B47" s="66"/>
+      <c r="A47" s="100"/>
+      <c r="B47" s="66" t="s">
+        <v>193</v>
+      </c>
       <c r="C47" s="66" t="s">
-        <v>212</v>
-      </c>
-      <c r="D47" s="89"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="63" t="s">
-        <v>192</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="D47" s="94"/>
+      <c r="E47" s="66" t="s">
+        <v>176</v>
+      </c>
+      <c r="F47" s="76"/>
       <c r="G47" s="60"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="91"/>
-      <c r="B48" s="67"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="90"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="61"/>
-    </row>
-    <row r="49" spans="4:5">
-      <c r="D49" s="46"/>
-    </row>
-    <row r="55" spans="4:5">
-      <c r="E55" s="106"/>
+      <c r="A48" s="100"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66" t="s">
+        <v>215</v>
+      </c>
+      <c r="D48" s="94"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="G48" s="60"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="101"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="61"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="D50" s="46"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="E56" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="D29:D34"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="A8:A11"/>
@@ -5321,15 +5340,15 @@
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="D17:D20"/>
     <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="D24:D28"/>
     <mergeCell ref="D21:D23"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="D40:D44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25217"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{434FF424-4ABB-438D-8F1E-4E5C434CCC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA91C824-AE10-4A5B-A1AB-F79A39731B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="40" r:id="rId1"/>
@@ -21,6 +21,10 @@
     <sheet name="11-04-2022" sheetId="43" r:id="rId6"/>
     <sheet name="12-04-2022" sheetId="46" r:id="rId7"/>
     <sheet name="13-04-2022" sheetId="47" r:id="rId8"/>
+    <sheet name="16-04-2022" sheetId="52" r:id="rId9"/>
+    <sheet name="18-04-2022" sheetId="49" r:id="rId10"/>
+    <sheet name="19-04-2022" sheetId="50" r:id="rId11"/>
+    <sheet name="20-04-2022" sheetId="51" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="304">
   <si>
     <t>Resource Name</t>
   </si>
@@ -778,6 +782,270 @@
   </si>
   <si>
     <t>Meeting with Rafi( About Lesson,data model,physical model,view model )</t>
+  </si>
+  <si>
+    <t>Absent</t>
+  </si>
+  <si>
+    <t>Reworked on DataModelling</t>
+  </si>
+  <si>
+    <t>2hours</t>
+  </si>
+  <si>
+    <t>recap about Exception handling in C#</t>
+  </si>
+  <si>
+    <t>Entity Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular </t>
+  </si>
+  <si>
+    <t>2hr</t>
+  </si>
+  <si>
+    <t>Explored C#</t>
+  </si>
+  <si>
+    <t>HLD, Angular</t>
+  </si>
+  <si>
+    <t>Worked on dashboard - Features - 3hrs</t>
+  </si>
+  <si>
+    <t>Explored about implementing Graph - 1hr</t>
+  </si>
+  <si>
+    <t>NIl</t>
+  </si>
+  <si>
+    <t>HLD</t>
+  </si>
+  <si>
+    <t>C# Explore</t>
+  </si>
+  <si>
+    <t>4hr</t>
+  </si>
+  <si>
+    <t>What is Web API ?</t>
+  </si>
+  <si>
+    <t>created home page (HTML,CSS,BOOTSTRAP)</t>
+  </si>
+  <si>
+    <t>3.5HRS</t>
+  </si>
+  <si>
+    <t>Explore about HLD</t>
+  </si>
+  <si>
+    <t>redesigning the Dashboard with  date filter,altering the fields(x-axis)</t>
+  </si>
+  <si>
+    <t>Exploration  about angular and dashboard  integration using angular</t>
+  </si>
+  <si>
+    <t>refined the Datamodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 hours </t>
+  </si>
+  <si>
+    <t>2 hours</t>
+  </si>
+  <si>
+    <t>Discussion with Team about HLD</t>
+  </si>
+  <si>
+    <t>1hour</t>
+  </si>
+  <si>
+    <t>Data Dictionaries And View model in HLD</t>
+  </si>
+  <si>
+    <t>2 hour</t>
+  </si>
+  <si>
+    <t>Modules and Features in HLD</t>
+  </si>
+  <si>
+    <t>absent</t>
+  </si>
+  <si>
+    <t>Discussion with team about HLD</t>
+  </si>
+  <si>
+    <t>working on Award home page (HTML)</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>Discussion with Team - 1.30hrs</t>
+  </si>
+  <si>
+    <t>Worked on HLD - Features - 3hrs</t>
+  </si>
+  <si>
+    <t>Explored and collected information on Facade design pattern - 1hr</t>
+  </si>
+  <si>
+    <t>2hr30mins</t>
+  </si>
+  <si>
+    <t>C# Access Modifiers with Examples</t>
+  </si>
+  <si>
+    <t>40mins</t>
+  </si>
+  <si>
+    <t>Web API</t>
+  </si>
+  <si>
+    <t>Web API Sample Project Understanding</t>
+  </si>
+  <si>
+    <t>4 hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on HLD - Features </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration  in angular </t>
+  </si>
+  <si>
+    <t>View Model in HLD</t>
+  </si>
+  <si>
+    <t>Standup Meeting</t>
+  </si>
+  <si>
+    <t>Explored on how to create Webapi</t>
+  </si>
+  <si>
+    <t>30 minutes</t>
+  </si>
+  <si>
+    <t>Explored on Typescript</t>
+  </si>
+  <si>
+    <t>System Architecture in HLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Services in HLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EF</t>
+  </si>
+  <si>
+    <t>Discussion with team about Yesterday (18-04-2022) activities (HLD)</t>
+  </si>
+  <si>
+    <t>Typescript</t>
+  </si>
+  <si>
+    <t>Typescript sample program Assignment</t>
+  </si>
+  <si>
+    <t>Typescript (sample program)</t>
+  </si>
+  <si>
+    <t>Recollected the basic concepts(oops,datatype,sql,access modifiers,constructor)</t>
+  </si>
+  <si>
+    <t>3.5 hrs</t>
+  </si>
+  <si>
+    <t>Discussion about services</t>
+  </si>
+  <si>
+    <t>Standup Meeting - 1hr</t>
+  </si>
+  <si>
+    <t>HLD, HTML Layouts</t>
+  </si>
+  <si>
+    <t>Explored Type Script - 1.5hrs</t>
+  </si>
+  <si>
+    <t>HTML layout for Login page - 2hrs</t>
+  </si>
+  <si>
+    <t>Review the Features and Modules</t>
+  </si>
+  <si>
+    <t>Standup meeting about HLD</t>
+  </si>
+  <si>
+    <t>Write the typescript sample program</t>
+  </si>
+  <si>
+    <t>Explore about angular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration about Type script </t>
+  </si>
+  <si>
+    <t>Explored on Web API</t>
+  </si>
+  <si>
+    <t>Done Typescript sample program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Softskills </t>
+  </si>
+  <si>
+    <t>Standup Meeting with team about HLD</t>
+  </si>
+  <si>
+    <t>recap the Web API, EF</t>
+  </si>
+  <si>
+    <t>Softskills session</t>
+  </si>
+  <si>
+    <t>Session with Rafi about the work plan for this week (Web API, Html layout, HLD)</t>
+  </si>
+  <si>
+    <t>45 mins</t>
+  </si>
+  <si>
+    <t>Referred the HLD Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soft skill session with Jaya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed MOM </t>
+  </si>
+  <si>
+    <t>20mins</t>
+  </si>
+  <si>
+    <t>Session with Rafi Work plan for upcoming days(HLD,HTML layouts as per prototype)</t>
+  </si>
+  <si>
+    <t>45mins</t>
+  </si>
+  <si>
+    <t>HTML layouts</t>
+  </si>
+  <si>
+    <t>Softskill session - 1hr</t>
+  </si>
+  <si>
+    <t>HTML layout for Login and forgot password screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Explore HLD about dependency, layers,third party integration</t>
+  </si>
+  <si>
+    <t>Session with Rafi on HLD and discussed workplan for this week(HLD,HTML Layout,Web API)</t>
+  </si>
+  <si>
+    <t>Services in HLD</t>
   </si>
 </sst>
 </file>
@@ -959,7 +1227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1229,13 +1497,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1443,6 +1761,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1540,6 +1874,86 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1888,7 +2302,7 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="34.85546875" customWidth="1"/>
@@ -1897,7 +2311,7 @@
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="15">
+    <row r="3" spans="2:8">
       <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
@@ -1914,7 +2328,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" ht="15">
+    <row r="4" spans="2:8">
       <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
@@ -1925,7 +2339,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="15">
+    <row r="5" spans="2:8">
       <c r="B5" s="19" t="s">
         <v>5</v>
       </c>
@@ -1936,7 +2350,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:8" ht="15">
+    <row r="6" spans="2:8">
       <c r="B6" s="19" t="s">
         <v>6</v>
       </c>
@@ -1951,7 +2365,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8" ht="15">
+    <row r="7" spans="2:8">
       <c r="B7" s="19" t="s">
         <v>9</v>
       </c>
@@ -1962,7 +2376,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15">
+    <row r="8" spans="2:8">
       <c r="B8" s="19" t="s">
         <v>10</v>
       </c>
@@ -1977,7 +2391,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:8" ht="15">
+    <row r="9" spans="2:8">
       <c r="B9" s="19" t="s">
         <v>12</v>
       </c>
@@ -1992,7 +2406,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="2:8" ht="15">
+    <row r="10" spans="2:8">
       <c r="B10" s="19" t="s">
         <v>13</v>
       </c>
@@ -2007,7 +2421,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="2:8" ht="15">
+    <row r="11" spans="2:8">
       <c r="B11" s="19" t="s">
         <v>14</v>
       </c>
@@ -2022,7 +2436,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="2:8" ht="15">
+    <row r="12" spans="2:8">
       <c r="B12" s="19" t="s">
         <v>15</v>
       </c>
@@ -2033,7 +2447,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="2:8" ht="15">
+    <row r="13" spans="2:8">
       <c r="B13" s="19" t="s">
         <v>16</v>
       </c>
@@ -2044,7 +2458,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="2:8" ht="15">
+    <row r="14" spans="2:8">
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2053,7 +2467,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="2:8" ht="15">
+    <row r="15" spans="2:8">
       <c r="B15" s="4"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
@@ -2062,7 +2476,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="2:8" ht="15">
+    <row r="16" spans="2:8">
       <c r="B16" s="16" t="s">
         <v>0</v>
       </c>
@@ -2301,6 +2715,1873 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="187" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44822B4E-5F0D-4AA1-8394-144DB203D40C}">
+  <dimension ref="A1:G40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" customWidth="1"/>
+    <col min="3" max="3" width="109.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="45">
+      <c r="A1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="59"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="109"/>
+      <c r="B3" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="112"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="60"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="110"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="61"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="114" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="66"/>
+      <c r="C5" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="116" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="114"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="63" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="116"/>
+      <c r="E6" s="63" t="s">
+        <v>243</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="114"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="63" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" s="116"/>
+      <c r="E7" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="115"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="62"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="99" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="65"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="59"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="114"/>
+      <c r="B10" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="D10" s="100"/>
+      <c r="E10" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="60"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="115"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="60"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="65"/>
+      <c r="C12" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="D12" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="63">
+        <v>1</v>
+      </c>
+      <c r="F12" s="60"/>
+      <c r="G12" s="59"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="106"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="63" t="s">
+        <v>247</v>
+      </c>
+      <c r="D13" s="96"/>
+      <c r="E13" s="63" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="106"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="96"/>
+      <c r="E14" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="106"/>
+      <c r="B15" s="67" t="s">
+        <v>248</v>
+      </c>
+      <c r="C15" s="64"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="G15" s="60"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="63"/>
+      <c r="C16" s="57" t="s">
+        <v>249</v>
+      </c>
+      <c r="D16" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="99" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="102">
+        <v>1</v>
+      </c>
+      <c r="G16" s="59"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="106"/>
+      <c r="B17" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>250</v>
+      </c>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="60"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="106"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="61"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="105" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>228</v>
+      </c>
+      <c r="C19" s="66" t="s">
+        <v>240</v>
+      </c>
+      <c r="D19" s="100" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>252</v>
+      </c>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="106"/>
+      <c r="B20" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="66" t="s">
+        <v>253</v>
+      </c>
+      <c r="D20" s="100"/>
+      <c r="E20" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>254</v>
+      </c>
+      <c r="G20" s="60"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="106"/>
+      <c r="B21" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="C21" s="66" t="s">
+        <v>256</v>
+      </c>
+      <c r="D21" s="100"/>
+      <c r="E21" s="63" t="s">
+        <v>252</v>
+      </c>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="106"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="107"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="D24" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="F24" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" s="59"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="106"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="63" t="s">
+        <v>247</v>
+      </c>
+      <c r="D25" s="96"/>
+      <c r="E25" s="63" t="s">
+        <v>257</v>
+      </c>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="106"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="96"/>
+      <c r="E26" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="106"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="62"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="106"/>
+      <c r="B29" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="C29" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" s="100"/>
+      <c r="E29" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="106"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="102"/>
+      <c r="E31" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="106"/>
+      <c r="B32" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="68" t="s">
+        <v>258</v>
+      </c>
+      <c r="D32" s="103"/>
+      <c r="E32" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="106"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66" t="s">
+        <v>259</v>
+      </c>
+      <c r="D33" s="103"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="G33" s="60"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="106"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="107"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="61"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="62"/>
+      <c r="C36" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="D36" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" s="62"/>
+      <c r="G36" s="60"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="106"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="D37" s="100"/>
+      <c r="E37" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="F37" s="63"/>
+      <c r="G37" s="60"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="106"/>
+      <c r="B38" s="63" t="s">
+        <v>248</v>
+      </c>
+      <c r="C38" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="D38" s="100"/>
+      <c r="E38" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="G38" s="60"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="106"/>
+      <c r="B39" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="D39" s="100"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="133" t="s">
+        <v>171</v>
+      </c>
+      <c r="G39" s="60"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="107"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="D28:D30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CD1CE-B6FA-48B8-A6CC-4149467C6873}">
+  <dimension ref="A1:G41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="74.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="45">
+      <c r="A1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="59"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="109"/>
+      <c r="B3" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="112"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="60"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="110"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="61"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="114" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="66"/>
+      <c r="C5" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="119" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="114"/>
+      <c r="B6" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>262</v>
+      </c>
+      <c r="D6" s="100"/>
+      <c r="E6" s="63" t="s">
+        <v>263</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="114"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" s="100"/>
+      <c r="E7" s="63" t="s">
+        <v>263</v>
+      </c>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="114"/>
+      <c r="B8" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="66"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="115"/>
+      <c r="B9" s="66" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" s="66"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="64" t="s">
+        <v>241</v>
+      </c>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" s="99" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="120" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" s="62"/>
+      <c r="G10" s="59"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="114"/>
+      <c r="B11" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>268</v>
+      </c>
+      <c r="D11" s="100"/>
+      <c r="E11" s="63" t="s">
+        <v>263</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="G11" s="60"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="115"/>
+      <c r="B12" s="64" t="s">
+        <v>269</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="D12" s="101"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="G12" s="60"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="68" t="s">
+        <v>271</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="119" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="G13" s="59"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="106"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="63" t="s">
+        <v>272</v>
+      </c>
+      <c r="D14" s="96"/>
+      <c r="E14" s="63" t="s">
+        <v>273</v>
+      </c>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="106"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="63" t="s">
+        <v>274</v>
+      </c>
+      <c r="D15" s="96"/>
+      <c r="E15" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="106"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="63"/>
+      <c r="C17" s="62" t="s">
+        <v>275</v>
+      </c>
+      <c r="D17" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="100" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="102">
+        <v>1</v>
+      </c>
+      <c r="G17" s="59"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="106"/>
+      <c r="B18" s="63" t="s">
+        <v>276</v>
+      </c>
+      <c r="C18" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="60"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="106"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="58" t="s">
+        <v>278</v>
+      </c>
+      <c r="D19" s="101"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="61"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="105" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="62"/>
+      <c r="C20" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="D20" s="100" t="s">
+        <v>227</v>
+      </c>
+      <c r="E20" s="119" t="s">
+        <v>173</v>
+      </c>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="106"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="117" t="s">
+        <v>279</v>
+      </c>
+      <c r="D21" s="100"/>
+      <c r="E21" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="106"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="117" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" s="100"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" s="60"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="106"/>
+      <c r="B23" s="63" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="117"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="G23" s="60"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="121"/>
+      <c r="C24" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="D24" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="119" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" s="59"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="126"/>
+      <c r="B25" s="122" t="s">
+        <v>271</v>
+      </c>
+      <c r="C25" s="60" t="s">
+        <v>272</v>
+      </c>
+      <c r="D25" s="96"/>
+      <c r="E25" s="63" t="s">
+        <v>273</v>
+      </c>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="126"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="60" t="s">
+        <v>274</v>
+      </c>
+      <c r="D26" s="96"/>
+      <c r="E26" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="127"/>
+      <c r="B27" s="135"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="106" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="62"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="106"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="117" t="s">
+        <v>280</v>
+      </c>
+      <c r="D29" s="103"/>
+      <c r="E29" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="106"/>
+      <c r="B30" s="63" t="s">
+        <v>269</v>
+      </c>
+      <c r="C30" s="117" t="s">
+        <v>281</v>
+      </c>
+      <c r="D30" s="103"/>
+      <c r="E30" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="60"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="131"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="117" t="s">
+        <v>282</v>
+      </c>
+      <c r="D31" s="64"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="60"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="66"/>
+      <c r="C32" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="D32" s="100"/>
+      <c r="E32" s="119" t="s">
+        <v>173</v>
+      </c>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="106"/>
+      <c r="B33" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="68" t="s">
+        <v>283</v>
+      </c>
+      <c r="D33" s="100"/>
+      <c r="E33" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="106"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66" t="s">
+        <v>236</v>
+      </c>
+      <c r="D34" s="100"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="G34" s="60"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="106"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="107"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="61"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="62"/>
+      <c r="C37" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="D37" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="120" t="s">
+        <v>173</v>
+      </c>
+      <c r="F37" s="62"/>
+      <c r="G37" s="60"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="106"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="60" t="s">
+        <v>284</v>
+      </c>
+      <c r="D38" s="96"/>
+      <c r="E38" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="F38" s="63"/>
+      <c r="G38" s="60"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="106"/>
+      <c r="B39" s="63" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="D39" s="96"/>
+      <c r="E39" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="F39" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="G39" s="60"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="106"/>
+      <c r="B40" s="139" t="s">
+        <v>228</v>
+      </c>
+      <c r="C40" s="49"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="133" t="s">
+        <v>170</v>
+      </c>
+      <c r="G40" s="60"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="107"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="D28:D30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53787AF6-DADA-4A12-9844-18CC696737AE}">
+  <dimension ref="A1:G43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="3" max="3" width="81.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="39.42578125" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="45">
+      <c r="A1" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="130" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="130" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="130" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="130" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="130" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="59"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="106"/>
+      <c r="B3" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="112"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="60"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="107"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="61"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="114" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="66"/>
+      <c r="C5" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="116" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="119" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="114"/>
+      <c r="B6" s="66" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" s="116"/>
+      <c r="E6" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="114"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="114"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="115"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63" t="s">
+        <v>287</v>
+      </c>
+      <c r="D10" s="99" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="120" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" s="62"/>
+      <c r="G10" s="59"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="114"/>
+      <c r="B11" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="D11" s="100"/>
+      <c r="E11" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="G11" s="60"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="115"/>
+      <c r="B12" s="64" t="s">
+        <v>269</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>290</v>
+      </c>
+      <c r="D12" s="100"/>
+      <c r="E12" s="67" t="s">
+        <v>291</v>
+      </c>
+      <c r="F12" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="60"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="68"/>
+      <c r="C13" s="65" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="G13" s="59"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="106"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="D14" s="103"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="106"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66" t="s">
+        <v>293</v>
+      </c>
+      <c r="D15" s="103"/>
+      <c r="E15" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="106"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66" t="s">
+        <v>294</v>
+      </c>
+      <c r="D16" s="103"/>
+      <c r="E16" s="60" t="s">
+        <v>295</v>
+      </c>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="106"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67" t="s">
+        <v>296</v>
+      </c>
+      <c r="D17" s="104"/>
+      <c r="E17" s="60" t="s">
+        <v>297</v>
+      </c>
+      <c r="F17" s="63"/>
+      <c r="G17" s="60"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="63"/>
+      <c r="C18" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="D18" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="99" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="102">
+        <v>1</v>
+      </c>
+      <c r="G18" s="59"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="106"/>
+      <c r="B19" s="63" t="s">
+        <v>298</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>299</v>
+      </c>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="60"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="106"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="58" t="s">
+        <v>300</v>
+      </c>
+      <c r="D20" s="101"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="61"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="105" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="62"/>
+      <c r="C21" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="D21" s="100" t="s">
+        <v>227</v>
+      </c>
+      <c r="E21" s="119" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="106"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="57" t="s">
+        <v>279</v>
+      </c>
+      <c r="D22" s="100"/>
+      <c r="E22" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="106"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="D23" s="100"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="G23" s="60"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="106"/>
+      <c r="B24" s="63" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="57"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="G24" s="60"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="121"/>
+      <c r="C25" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="D25" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="119" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="G25" s="59"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="137"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="D26" s="116"/>
+      <c r="E26" s="139" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="126"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="63" t="s">
+        <v>293</v>
+      </c>
+      <c r="D27" s="96"/>
+      <c r="E27" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="126"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="63" t="s">
+        <v>294</v>
+      </c>
+      <c r="D28" s="96"/>
+      <c r="E28" s="63" t="s">
+        <v>295</v>
+      </c>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="127"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="D29" s="96"/>
+      <c r="E29" s="64" t="s">
+        <v>297</v>
+      </c>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="106" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="D30" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="106"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="D31" s="103"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="60"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="106"/>
+      <c r="B32" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="C32" s="136" t="s">
+        <v>301</v>
+      </c>
+      <c r="D32" s="103"/>
+      <c r="E32" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="131"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="66" t="s">
+        <v>290</v>
+      </c>
+      <c r="D33" s="64"/>
+      <c r="E33" s="60" t="s">
+        <v>291</v>
+      </c>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="65"/>
+      <c r="C34" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="D34" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="119" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="106"/>
+      <c r="B35" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="68" t="s">
+        <v>283</v>
+      </c>
+      <c r="D35" s="100"/>
+      <c r="E35" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="106"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66" t="s">
+        <v>236</v>
+      </c>
+      <c r="D36" s="100"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="G36" s="60"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="106"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="107"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="61"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="66"/>
+      <c r="C39" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="D39" s="141" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="128" t="s">
+        <v>173</v>
+      </c>
+      <c r="F39" s="62"/>
+      <c r="G39" s="60"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="106"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="63" t="s">
+        <v>293</v>
+      </c>
+      <c r="D40" s="142"/>
+      <c r="E40" s="117" t="s">
+        <v>170</v>
+      </c>
+      <c r="F40" s="63"/>
+      <c r="G40" s="60"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="106"/>
+      <c r="B41" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="C41" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="D41" s="142"/>
+      <c r="E41" s="117" t="s">
+        <v>171</v>
+      </c>
+      <c r="F41" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="G41" s="60"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="106"/>
+      <c r="B42" s="66" t="s">
+        <v>303</v>
+      </c>
+      <c r="C42" s="76"/>
+      <c r="D42" s="142"/>
+      <c r="E42" s="117" t="s">
+        <v>291</v>
+      </c>
+      <c r="F42" s="76"/>
+      <c r="G42" s="60"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="107"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="140"/>
+      <c r="D43" s="143"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="D10:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2771,7 +5052,7 @@
     <col min="8" max="8" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="45">
+    <row r="2" spans="2:8" ht="27.75">
       <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
@@ -2836,7 +5117,7 @@
       </c>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="2:8" ht="51">
+    <row r="5" spans="2:8" ht="37.5">
       <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
@@ -2941,7 +5222,7 @@
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="2:8" ht="63.75">
+    <row r="10" spans="2:8" ht="37.5">
       <c r="B10" s="17" t="s">
         <v>29</v>
       </c>
@@ -2962,7 +5243,7 @@
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="2:8" ht="76.5">
+    <row r="11" spans="2:8" ht="61.5">
       <c r="B11" s="17" t="s">
         <v>16</v>
       </c>
@@ -3618,7 +5899,7 @@
       </c>
       <c r="F31" s="43"/>
     </row>
-    <row r="32" spans="3:6" ht="63.75">
+    <row r="32" spans="3:6" ht="61.5">
       <c r="C32" s="42" t="s">
         <v>16</v>
       </c>
@@ -3993,7 +6274,7 @@
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="3:6" ht="63.75">
+    <row r="32" spans="3:6" ht="61.5">
       <c r="C32" s="19" t="s">
         <v>16</v>
       </c>
@@ -4015,7 +6296,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C50" sqref="A1:XFD1048576"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4026,7 +6307,7 @@
     <col min="4" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30">
+    <row r="1" spans="1:7" ht="27.75">
       <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
@@ -4050,7 +6331,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="86" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="47" t="s">
@@ -4059,7 +6340,7 @@
       <c r="C2" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="83" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="52" t="s">
@@ -4071,14 +6352,14 @@
       <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="81"/>
+      <c r="A3" s="87"/>
       <c r="B3" t="s">
         <v>128</v>
       </c>
       <c r="C3" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="78"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="46" t="s">
         <v>130</v>
       </c>
@@ -4086,11 +6367,11 @@
       <c r="G3" s="49"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="81"/>
+      <c r="A4" s="87"/>
       <c r="C4" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="78"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="46" t="s">
         <v>132</v>
       </c>
@@ -4098,12 +6379,12 @@
       <c r="G4" s="49"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="82"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="50"/>
       <c r="C5" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="79"/>
+      <c r="D5" s="85"/>
       <c r="E5" s="55" t="s">
         <v>132</v>
       </c>
@@ -4111,7 +6392,7 @@
       <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="89" t="s">
         <v>134</v>
       </c>
       <c r="B6" t="s">
@@ -4120,7 +6401,7 @@
       <c r="C6" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="83" t="s">
         <v>137</v>
       </c>
       <c r="E6" s="46" t="s">
@@ -4130,11 +6411,11 @@
       <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="83"/>
+      <c r="A7" s="89"/>
       <c r="C7" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="78"/>
+      <c r="D7" s="84"/>
       <c r="E7" s="46" t="s">
         <v>118</v>
       </c>
@@ -4142,22 +6423,22 @@
       <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="83"/>
-      <c r="D8" s="78"/>
+      <c r="A8" s="89"/>
+      <c r="D8" s="84"/>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
       <c r="G8" s="49"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="83"/>
-      <c r="D9" s="78"/>
+      <c r="A9" s="89"/>
+      <c r="D9" s="84"/>
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
       <c r="G9" s="49"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="84"/>
-      <c r="D10" s="79"/>
+      <c r="A10" s="90"/>
+      <c r="D10" s="85"/>
       <c r="E10" s="46" t="s">
         <v>140</v>
       </c>
@@ -4165,7 +6446,7 @@
       <c r="G10" s="49"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="91" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -4174,7 +6455,7 @@
       <c r="C11" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="83" t="s">
         <v>142</v>
       </c>
       <c r="E11" s="52" t="s">
@@ -4184,11 +6465,11 @@
       <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="85"/>
+      <c r="A12" s="91"/>
       <c r="C12" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="78"/>
+      <c r="D12" s="84"/>
       <c r="E12" s="46"/>
       <c r="F12" s="46" t="s">
         <v>143</v>
@@ -4196,14 +6477,14 @@
       <c r="G12" s="49"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="85"/>
+      <c r="A13" s="91"/>
       <c r="B13" t="s">
         <v>145</v>
       </c>
       <c r="C13" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="78"/>
+      <c r="D13" s="84"/>
       <c r="E13" s="46" t="s">
         <v>143</v>
       </c>
@@ -4211,24 +6492,24 @@
       <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="85"/>
+      <c r="A14" s="91"/>
       <c r="C14" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="78"/>
+      <c r="D14" s="84"/>
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
       <c r="G14" s="49"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="85"/>
-      <c r="D15" s="79"/>
+      <c r="A15" s="91"/>
+      <c r="D15" s="85"/>
       <c r="E15" s="46"/>
       <c r="F15" s="46"/>
       <c r="G15" s="49"/>
     </row>
     <row r="16" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="92" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="47" t="s">
@@ -4237,7 +6518,7 @@
       <c r="C16" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="77" t="s">
+      <c r="D16" s="83" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="52" t="s">
@@ -4247,11 +6528,11 @@
       <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A17" s="87"/>
+      <c r="A17" s="93"/>
       <c r="C17" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="78"/>
+      <c r="D17" s="84"/>
       <c r="E17" s="46">
         <v>1.5</v>
       </c>
@@ -4259,11 +6540,11 @@
       <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A18" s="87"/>
+      <c r="A18" s="93"/>
       <c r="C18" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="78"/>
+      <c r="D18" s="84"/>
       <c r="E18" s="46"/>
       <c r="F18" s="46">
         <v>1.5</v>
@@ -4271,11 +6552,11 @@
       <c r="G18" s="49"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A19" s="87"/>
+      <c r="A19" s="93"/>
       <c r="C19" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="79"/>
+      <c r="D19" s="85"/>
       <c r="E19" s="46"/>
       <c r="F19" s="57">
         <v>0.5</v>
@@ -4283,7 +6564,7 @@
       <c r="G19" s="49"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="92" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="47" t="s">
@@ -4298,7 +6579,7 @@
       <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="87"/>
+      <c r="A21" s="93"/>
       <c r="C21" t="s">
         <v>154</v>
       </c>
@@ -4308,7 +6589,7 @@
       <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="88"/>
+      <c r="A22" s="94"/>
       <c r="B22" s="50"/>
       <c r="C22" s="50" t="s">
         <v>155</v>
@@ -4323,7 +6604,7 @@
       <c r="G22" s="51"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="92" t="s">
+      <c r="A23" s="98" t="s">
         <v>28</v>
       </c>
       <c r="B23" t="s">
@@ -4332,7 +6613,7 @@
       <c r="C23" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="77"/>
+      <c r="D23" s="83"/>
       <c r="E23" s="46" t="s">
         <v>158</v>
       </c>
@@ -4340,11 +6621,11 @@
       <c r="G23" s="49"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="92"/>
+      <c r="A24" s="98"/>
       <c r="C24" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="78"/>
+      <c r="D24" s="84"/>
       <c r="E24" s="46">
         <v>2</v>
       </c>
@@ -4352,11 +6633,11 @@
       <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="92"/>
+      <c r="A25" s="98"/>
       <c r="C25" t="s">
         <v>151</v>
       </c>
-      <c r="D25" s="78"/>
+      <c r="D25" s="84"/>
       <c r="E25" s="46">
         <v>1</v>
       </c>
@@ -4364,11 +6645,11 @@
       <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="92"/>
+      <c r="A26" s="98"/>
       <c r="C26" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="79"/>
+      <c r="D26" s="85"/>
       <c r="E26" s="46">
         <v>1</v>
       </c>
@@ -4376,7 +6657,7 @@
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="86" t="s">
+      <c r="A27" s="92" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="47" t="s">
@@ -4385,7 +6666,7 @@
       <c r="C27" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="77" t="s">
+      <c r="D27" s="83" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="52" t="s">
@@ -4395,14 +6676,14 @@
       <c r="G27" s="48"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="87"/>
+      <c r="A28" s="93"/>
       <c r="B28" s="45" t="s">
         <v>128</v>
       </c>
       <c r="C28" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="78"/>
+      <c r="D28" s="84"/>
       <c r="E28" s="46" t="s">
         <v>130</v>
       </c>
@@ -4410,11 +6691,11 @@
       <c r="G28" s="49"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="87"/>
+      <c r="A29" s="93"/>
       <c r="C29" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="78"/>
+      <c r="D29" s="84"/>
       <c r="E29" s="46" t="s">
         <v>132</v>
       </c>
@@ -4422,12 +6703,12 @@
       <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A30" s="87"/>
+      <c r="A30" s="93"/>
       <c r="B30" s="50"/>
       <c r="C30" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="D30" s="79"/>
+      <c r="D30" s="85"/>
       <c r="E30" s="55" t="s">
         <v>132</v>
       </c>
@@ -4435,10 +6716,10 @@
       <c r="G30" s="51"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="86" t="s">
+      <c r="A31" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="89" t="s">
+      <c r="D31" s="95" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="46"/>
@@ -4446,14 +6727,14 @@
       <c r="G31" s="49"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="87"/>
+      <c r="A32" s="93"/>
       <c r="B32" t="s">
         <v>161</v>
       </c>
       <c r="C32" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="90"/>
+      <c r="D32" s="96"/>
       <c r="E32" s="46" t="s">
         <v>138</v>
       </c>
@@ -4461,14 +6742,14 @@
       <c r="G32" s="49"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="87"/>
+      <c r="A33" s="93"/>
       <c r="B33" t="s">
         <v>135</v>
       </c>
       <c r="C33" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="90"/>
+      <c r="D33" s="96"/>
       <c r="E33" s="46" t="s">
         <v>130</v>
       </c>
@@ -4476,28 +6757,28 @@
       <c r="G33" s="49"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="87"/>
-      <c r="D34" s="90"/>
+      <c r="A34" s="93"/>
+      <c r="D34" s="96"/>
       <c r="E34" s="46"/>
       <c r="F34" s="46"/>
       <c r="G34" s="49"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="87"/>
-      <c r="D35" s="91"/>
+      <c r="A35" s="93"/>
+      <c r="D35" s="97"/>
       <c r="E35" s="46"/>
       <c r="F35" s="46"/>
       <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="86" t="s">
+      <c r="A36" s="92" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="47"/>
       <c r="C36" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="D36" s="77"/>
+      <c r="D36" s="83"/>
       <c r="E36" s="52" t="s">
         <v>165</v>
       </c>
@@ -4505,14 +6786,14 @@
       <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="87"/>
+      <c r="A37" s="93"/>
       <c r="B37" t="s">
         <v>166</v>
       </c>
       <c r="C37" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="D37" s="78"/>
+      <c r="D37" s="84"/>
       <c r="E37" s="46" t="s">
         <v>168</v>
       </c>
@@ -4520,11 +6801,11 @@
       <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="87"/>
+      <c r="A38" s="93"/>
       <c r="C38" t="s">
         <v>169</v>
       </c>
-      <c r="D38" s="78"/>
+      <c r="D38" s="84"/>
       <c r="E38" s="46"/>
       <c r="F38" s="46" t="s">
         <v>170</v>
@@ -4532,46 +6813,46 @@
       <c r="G38" s="49"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="87"/>
-      <c r="D39" s="78"/>
+      <c r="A39" s="93"/>
+      <c r="D39" s="84"/>
       <c r="E39" s="46"/>
       <c r="F39" s="46"/>
       <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="88"/>
+      <c r="A40" s="94"/>
       <c r="B40" s="50"/>
       <c r="C40" s="50"/>
-      <c r="D40" s="79"/>
+      <c r="D40" s="85"/>
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
       <c r="G40" s="51"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="87" t="s">
+      <c r="A41" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="77" t="s">
+      <c r="D41" s="83" t="s">
         <v>24</v>
       </c>
       <c r="E41" s="46"/>
       <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="87"/>
-      <c r="D42" s="78"/>
+      <c r="A42" s="93"/>
+      <c r="D42" s="84"/>
       <c r="E42" s="46"/>
       <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="87"/>
+      <c r="A43" s="93"/>
       <c r="B43" t="s">
         <v>24</v>
       </c>
       <c r="C43" t="s">
         <v>162</v>
       </c>
-      <c r="D43" s="78"/>
+      <c r="D43" s="84"/>
       <c r="E43" s="46" t="s">
         <v>171</v>
       </c>
@@ -4581,16 +6862,16 @@
       <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="87"/>
-      <c r="D44" s="78"/>
+      <c r="A44" s="93"/>
+      <c r="D44" s="84"/>
       <c r="E44" s="46"/>
       <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="88"/>
+      <c r="A45" s="94"/>
       <c r="B45" s="50"/>
       <c r="C45" s="50"/>
-      <c r="D45" s="79"/>
+      <c r="D45" s="85"/>
       <c r="E45" s="55"/>
       <c r="F45" s="50"/>
       <c r="G45" s="51"/>
@@ -4628,8 +6909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5078C7BA-40AD-44B2-B44A-F90FDEF2CC2F}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4640,7 +6921,7 @@
     <col min="4" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30">
+    <row r="1" spans="1:7" ht="27.75">
       <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
@@ -4664,7 +6945,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="108" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65" t="s">
@@ -4673,7 +6954,7 @@
       <c r="C2" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="105" t="s">
+      <c r="D2" s="111" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="56" t="s">
@@ -4685,12 +6966,12 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="103"/>
+      <c r="A3" s="109"/>
       <c r="B3" s="66"/>
       <c r="C3" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="106"/>
+      <c r="D3" s="112"/>
       <c r="E3" s="57" t="s">
         <v>130</v>
       </c>
@@ -4698,12 +6979,12 @@
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="103"/>
+      <c r="A4" s="109"/>
       <c r="B4" s="66"/>
       <c r="C4" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="106"/>
+      <c r="D4" s="112"/>
       <c r="E4" s="57" t="s">
         <v>176</v>
       </c>
@@ -4711,12 +6992,12 @@
       <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="103"/>
+      <c r="A5" s="109"/>
       <c r="B5" s="66"/>
       <c r="C5" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="106"/>
+      <c r="D5" s="112"/>
       <c r="E5" s="57" t="s">
         <v>173</v>
       </c>
@@ -4724,12 +7005,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="103"/>
+      <c r="A6" s="109"/>
       <c r="B6" s="66"/>
       <c r="C6" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="106"/>
+      <c r="D6" s="112"/>
       <c r="E6" s="57" t="s">
         <v>127</v>
       </c>
@@ -4737,12 +7018,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="104"/>
+      <c r="A7" s="110"/>
       <c r="B7" s="67"/>
       <c r="C7" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="107"/>
+      <c r="D7" s="113"/>
       <c r="E7" s="58" t="s">
         <v>179</v>
       </c>
@@ -4750,7 +7031,7 @@
       <c r="G7" s="61"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="114" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="66" t="s">
@@ -4759,7 +7040,7 @@
       <c r="C8" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="94" t="s">
+      <c r="D8" s="100" t="s">
         <v>137</v>
       </c>
       <c r="E8" s="63" t="s">
@@ -4769,12 +7050,12 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="108"/>
+      <c r="A9" s="114"/>
       <c r="B9" s="66"/>
       <c r="C9" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="94"/>
+      <c r="D9" s="100"/>
       <c r="E9" s="63" t="s">
         <v>130</v>
       </c>
@@ -4782,12 +7063,12 @@
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="108"/>
+      <c r="A10" s="114"/>
       <c r="B10" s="66"/>
       <c r="C10" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="D10" s="94"/>
+      <c r="D10" s="100"/>
       <c r="E10" s="63" t="s">
         <v>183</v>
       </c>
@@ -4795,12 +7076,12 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="109"/>
+      <c r="A11" s="115"/>
       <c r="B11" s="66"/>
       <c r="C11" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="94"/>
+      <c r="D11" s="100"/>
       <c r="E11" s="63" t="s">
         <v>185</v>
       </c>
@@ -4808,14 +7089,14 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="114" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="62"/>
       <c r="C12" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="93" t="s">
+      <c r="D12" s="99" t="s">
         <v>142</v>
       </c>
       <c r="E12" s="62" t="s">
@@ -4825,12 +7106,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="108"/>
+      <c r="A13" s="114"/>
       <c r="B13" s="63"/>
       <c r="C13" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="D13" s="94"/>
+      <c r="D13" s="100"/>
       <c r="E13" s="63" t="s">
         <v>187</v>
       </c>
@@ -4838,12 +7119,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="108"/>
+      <c r="A14" s="114"/>
       <c r="B14" s="76"/>
       <c r="C14" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="94"/>
+      <c r="D14" s="100"/>
       <c r="E14" s="63"/>
       <c r="F14" s="60" t="s">
         <v>130</v>
@@ -4851,12 +7132,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="108"/>
+      <c r="A15" s="114"/>
       <c r="B15" s="63" t="s">
         <v>190</v>
       </c>
       <c r="C15" s="57"/>
-      <c r="D15" s="94"/>
+      <c r="D15" s="100"/>
       <c r="E15" s="63" t="s">
         <v>191</v>
       </c>
@@ -4864,23 +7145,23 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="109"/>
+      <c r="A16" s="115"/>
       <c r="B16" s="64"/>
       <c r="C16" s="57"/>
-      <c r="D16" s="95"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="63"/>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="106" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="93" t="s">
+      <c r="D17" s="99" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="62" t="s">
@@ -4890,14 +7171,14 @@
       <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A18" s="100"/>
+      <c r="A18" s="106"/>
       <c r="B18" s="66" t="s">
         <v>193</v>
       </c>
       <c r="C18" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="94"/>
+      <c r="D18" s="100"/>
       <c r="E18" s="63" t="s">
         <v>176</v>
       </c>
@@ -4905,12 +7186,12 @@
       <c r="G18" s="60"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A19" s="100"/>
+      <c r="A19" s="106"/>
       <c r="B19" s="66"/>
       <c r="C19" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="D19" s="94"/>
+      <c r="D19" s="100"/>
       <c r="E19" s="63" t="s">
         <v>176</v>
       </c>
@@ -4918,12 +7199,12 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A20" s="100"/>
+      <c r="A20" s="106"/>
       <c r="B20" s="66"/>
       <c r="C20" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="D20" s="94"/>
+      <c r="D20" s="100"/>
       <c r="E20" s="63"/>
       <c r="F20" s="63" t="s">
         <v>194</v>
@@ -4931,7 +7212,7 @@
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="99" t="s">
+      <c r="A21" s="105" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="65" t="s">
@@ -4940,41 +7221,41 @@
       <c r="C21" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="D21" s="93" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="93" t="s">
+      <c r="D21" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="99" t="s">
         <v>197</v>
       </c>
-      <c r="F21" s="96" t="s">
+      <c r="F21" s="102" t="s">
         <v>198</v>
       </c>
       <c r="G21" s="59"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="100"/>
+      <c r="A22" s="106"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="97"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="103"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="100"/>
+      <c r="A23" s="106"/>
       <c r="B23" s="67"/>
       <c r="C23" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="98"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="104"/>
       <c r="G23" s="61"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="99" t="s">
+      <c r="A24" s="105" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="66" t="s">
@@ -4983,7 +7264,7 @@
       <c r="C24" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="94"/>
+      <c r="D24" s="100"/>
       <c r="E24" s="63" t="s">
         <v>173</v>
       </c>
@@ -4991,12 +7272,12 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="100"/>
+      <c r="A25" s="106"/>
       <c r="B25" s="66"/>
       <c r="C25" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="D25" s="94"/>
+      <c r="D25" s="100"/>
       <c r="E25" s="63" t="s">
         <v>191</v>
       </c>
@@ -5004,12 +7285,12 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="100"/>
+      <c r="A26" s="106"/>
       <c r="B26" s="66"/>
       <c r="C26" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="D26" s="94"/>
+      <c r="D26" s="100"/>
       <c r="E26" s="63" t="s">
         <v>130</v>
       </c>
@@ -5017,12 +7298,12 @@
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="100"/>
+      <c r="A27" s="106"/>
       <c r="B27" s="66"/>
       <c r="C27" s="66" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="94"/>
+      <c r="D27" s="100"/>
       <c r="E27" s="63" t="s">
         <v>202</v>
       </c>
@@ -5030,12 +7311,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="101"/>
+      <c r="A28" s="107"/>
       <c r="B28" s="66"/>
       <c r="C28" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="D28" s="95"/>
+      <c r="D28" s="101"/>
       <c r="E28" s="63" t="s">
         <v>130</v>
       </c>
@@ -5043,7 +7324,7 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="100" t="s">
+      <c r="A29" s="106" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="74" t="s">
@@ -5052,7 +7333,7 @@
       <c r="C29" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="93" t="s">
+      <c r="D29" s="99" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="62" t="s">
@@ -5064,12 +7345,12 @@
       <c r="G29" s="59"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="100"/>
+      <c r="A30" s="106"/>
       <c r="B30" s="70"/>
       <c r="C30" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="D30" s="94"/>
+      <c r="D30" s="100"/>
       <c r="E30" s="63" t="s">
         <v>205</v>
       </c>
@@ -5077,12 +7358,12 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="100"/>
+      <c r="A31" s="106"/>
       <c r="B31" s="71"/>
       <c r="C31" s="69" t="s">
         <v>206</v>
       </c>
-      <c r="D31" s="94"/>
+      <c r="D31" s="100"/>
       <c r="E31" s="63" t="s">
         <v>130</v>
       </c>
@@ -5090,12 +7371,12 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="100"/>
+      <c r="A32" s="106"/>
       <c r="B32" s="71"/>
       <c r="C32" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="D32" s="94"/>
+      <c r="D32" s="100"/>
       <c r="E32" s="63" t="s">
         <v>179</v>
       </c>
@@ -5103,12 +7384,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="100"/>
+      <c r="A33" s="106"/>
       <c r="B33" s="72"/>
       <c r="C33" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="D33" s="94"/>
+      <c r="D33" s="100"/>
       <c r="E33" s="63" t="s">
         <v>208</v>
       </c>
@@ -5116,12 +7397,12 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A34" s="100"/>
+      <c r="A34" s="106"/>
       <c r="B34" s="73"/>
       <c r="C34" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="D34" s="95"/>
+      <c r="D34" s="101"/>
       <c r="E34" s="64" t="s">
         <v>132</v>
       </c>
@@ -5129,12 +7410,12 @@
       <c r="G34" s="61"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="99" t="s">
+      <c r="A35" s="105" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="66"/>
       <c r="C35" s="66"/>
-      <c r="D35" s="93" t="s">
+      <c r="D35" s="99" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="63"/>
@@ -5142,12 +7423,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="100"/>
+      <c r="A36" s="106"/>
       <c r="B36" s="66"/>
       <c r="C36" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="D36" s="94"/>
+      <c r="D36" s="100"/>
       <c r="E36" s="63" t="s">
         <v>130</v>
       </c>
@@ -5155,14 +7436,14 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7" ht="21" customHeight="1">
-      <c r="A37" s="100"/>
+      <c r="A37" s="106"/>
       <c r="B37" s="66" t="s">
         <v>211</v>
       </c>
       <c r="C37" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="D37" s="94"/>
+      <c r="D37" s="100"/>
       <c r="E37" s="63" t="s">
         <v>180</v>
       </c>
@@ -5170,12 +7451,12 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="100"/>
+      <c r="A38" s="106"/>
       <c r="B38" s="66"/>
       <c r="C38" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="D38" s="94"/>
+      <c r="D38" s="100"/>
       <c r="E38" s="63"/>
       <c r="F38" s="60" t="s">
         <v>130</v>
@@ -5183,23 +7464,23 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="100"/>
+      <c r="A39" s="106"/>
       <c r="B39" s="66"/>
       <c r="C39" s="66"/>
-      <c r="D39" s="95"/>
+      <c r="D39" s="101"/>
       <c r="E39" s="63"/>
       <c r="F39" s="60"/>
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="99" t="s">
+      <c r="A40" s="105" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="65"/>
       <c r="C40" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="93"/>
+      <c r="D40" s="99"/>
       <c r="E40" s="62" t="s">
         <v>165</v>
       </c>
@@ -5207,14 +7488,14 @@
       <c r="G40" s="59"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="100"/>
+      <c r="A41" s="106"/>
       <c r="B41" s="66" t="s">
         <v>166</v>
       </c>
       <c r="C41" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="D41" s="94"/>
+      <c r="D41" s="100"/>
       <c r="E41" s="63" t="s">
         <v>168</v>
       </c>
@@ -5222,12 +7503,12 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="100"/>
+      <c r="A42" s="106"/>
       <c r="B42" s="66"/>
       <c r="C42" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="D42" s="94"/>
+      <c r="D42" s="100"/>
       <c r="E42" s="63"/>
       <c r="F42" s="60" t="s">
         <v>170</v>
@@ -5235,32 +7516,32 @@
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="100"/>
+      <c r="A43" s="106"/>
       <c r="B43" s="66"/>
       <c r="C43" s="66"/>
-      <c r="D43" s="94"/>
+      <c r="D43" s="100"/>
       <c r="E43" s="63"/>
       <c r="F43" s="60"/>
       <c r="G43" s="60"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="101"/>
+      <c r="A44" s="107"/>
       <c r="B44" s="67"/>
       <c r="C44" s="67"/>
-      <c r="D44" s="95"/>
+      <c r="D44" s="101"/>
       <c r="E44" s="64"/>
       <c r="F44" s="60"/>
       <c r="G44" s="61"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="100" t="s">
+      <c r="A45" s="106" t="s">
         <v>30</v>
       </c>
       <c r="B45" s="66"/>
       <c r="C45" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D45" s="93" t="s">
+      <c r="D45" s="99" t="s">
         <v>24</v>
       </c>
       <c r="E45" s="65" t="s">
@@ -5270,12 +7551,12 @@
       <c r="G45" s="60"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="100"/>
+      <c r="A46" s="106"/>
       <c r="B46" s="66"/>
       <c r="C46" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D46" s="94"/>
+      <c r="D46" s="100"/>
       <c r="E46" s="66" t="s">
         <v>176</v>
       </c>
@@ -5283,14 +7564,14 @@
       <c r="G46" s="60"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="100"/>
+      <c r="A47" s="106"/>
       <c r="B47" s="66" t="s">
         <v>193</v>
       </c>
       <c r="C47" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="D47" s="94"/>
+      <c r="D47" s="100"/>
       <c r="E47" s="66" t="s">
         <v>176</v>
       </c>
@@ -5298,12 +7579,12 @@
       <c r="G47" s="60"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="100"/>
+      <c r="A48" s="106"/>
       <c r="B48" s="66"/>
       <c r="C48" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="D48" s="94"/>
+      <c r="D48" s="100"/>
       <c r="E48" s="66"/>
       <c r="F48" s="63" t="s">
         <v>194</v>
@@ -5311,10 +7592,10 @@
       <c r="G48" s="60"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="101"/>
+      <c r="A49" s="107"/>
       <c r="B49" s="67"/>
       <c r="C49" s="67"/>
-      <c r="D49" s="95"/>
+      <c r="D49" s="101"/>
       <c r="E49" s="67"/>
       <c r="F49" s="64"/>
       <c r="G49" s="61"/>
@@ -5352,4 +7633,538 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98AF41B8-7A85-46D9-B88B-9A72A502D06D}">
+  <dimension ref="A1:G39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="32" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="45">
+      <c r="A1" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="130" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="130" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="130" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="130" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="130" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="59"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="106"/>
+      <c r="B3" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="112"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="60"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="107"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="61"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="114" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="66"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="96" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="63"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="114"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="96"/>
+      <c r="E6" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="114"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="115"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="62"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="99" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="65"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="59"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="114"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="100"/>
+      <c r="E10" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="60"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="114"/>
+      <c r="B11" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="57"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="60"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="65"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="66"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="59"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="106"/>
+      <c r="B13" s="66" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" s="76"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="66" t="s">
+        <v>222</v>
+      </c>
+      <c r="F13" s="76"/>
+      <c r="G13" s="60"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="106"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="96"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="60"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="107"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="60"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="63"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" s="103">
+        <v>1</v>
+      </c>
+      <c r="G16" s="59"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="106"/>
+      <c r="B17" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="60"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="106"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="61"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="105" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="100" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" s="63"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="106"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="106"/>
+      <c r="B21" s="66" t="s">
+        <v>228</v>
+      </c>
+      <c r="C21" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="D21" s="100"/>
+      <c r="E21" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="G21" s="60"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="106"/>
+      <c r="B22" s="66" t="s">
+        <v>231</v>
+      </c>
+      <c r="C22" s="66"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="107"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="78"/>
+      <c r="C24" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="D24" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="65" t="s">
+        <v>233</v>
+      </c>
+      <c r="F24" s="65"/>
+      <c r="G24" s="62"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="106"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="63"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="106"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="64"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="62"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="106"/>
+      <c r="B28" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" s="66" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" s="100"/>
+      <c r="E28" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="F28" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="G28" s="60"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="106"/>
+      <c r="B29" s="66" t="s">
+        <v>221</v>
+      </c>
+      <c r="C29" s="66"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="60"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="106"/>
+      <c r="B31" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="D31" s="103"/>
+      <c r="E31" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="106"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66" t="s">
+        <v>236</v>
+      </c>
+      <c r="D32" s="103"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="G32" s="60"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="106"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="107"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="61"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="62"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="132"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="60"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="106"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="66" t="s">
+        <v>237</v>
+      </c>
+      <c r="D36" s="103"/>
+      <c r="E36" s="117" t="s">
+        <v>238</v>
+      </c>
+      <c r="F36" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="G36" s="60"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="106"/>
+      <c r="B37" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="C37" s="46"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="60"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="106"/>
+      <c r="B38" s="63"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="60"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="107"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="D9:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA91C824-AE10-4A5B-A1AB-F79A39731B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1634" documentId="8_{CF9D9844-FE05-4AE4-8DCD-83B6A181F316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE68245E-A6AF-4AE9-95AE-2223C019F391}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="40" r:id="rId1"/>
@@ -1042,10 +1042,10 @@
     <t xml:space="preserve">                    Explore HLD about dependency, layers,third party integration</t>
   </si>
   <si>
+    <t>Services in HLD</t>
+  </si>
+  <si>
     <t>Session with Rafi on HLD and discussed workplan for this week(HLD,HTML Layout,Web API)</t>
-  </si>
-  <si>
-    <t>Services in HLD</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1553,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1777,111 +1777,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1901,6 +1796,123 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1910,51 +1922,30 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2722,8 +2713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44822B4E-5F0D-4AA1-8394-144DB203D40C}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2761,12 +2752,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="121" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="124" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -2778,36 +2769,36 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="109"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="112"/>
+      <c r="D3" s="125"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="110"/>
+      <c r="A4" s="123"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="113"/>
+      <c r="D4" s="126"/>
       <c r="E4" s="58"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="127" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="109" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="63" t="s">
@@ -2817,12 +2808,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="114"/>
+      <c r="A6" s="127"/>
       <c r="B6" s="66"/>
       <c r="C6" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="D6" s="116"/>
+      <c r="D6" s="109"/>
       <c r="E6" s="63" t="s">
         <v>243</v>
       </c>
@@ -2830,12 +2821,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="114"/>
+      <c r="A7" s="127"/>
       <c r="B7" s="66"/>
       <c r="C7" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="116"/>
+      <c r="D7" s="109"/>
       <c r="E7" s="63" t="s">
         <v>180</v>
       </c>
@@ -2843,21 +2834,21 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="115"/>
+      <c r="A8" s="128"/>
       <c r="B8" s="66"/>
       <c r="C8" s="64"/>
-      <c r="D8" s="116"/>
+      <c r="D8" s="109"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="127" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="62"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="99" t="s">
+      <c r="C9" s="57"/>
+      <c r="D9" s="112" t="s">
         <v>142</v>
       </c>
       <c r="E9" s="65"/>
@@ -2865,14 +2856,14 @@
       <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="114"/>
+      <c r="A10" s="127"/>
       <c r="B10" s="63" t="s">
         <v>216</v>
       </c>
       <c r="C10" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="D10" s="100"/>
+      <c r="D10" s="113"/>
       <c r="E10" s="66" t="s">
         <v>106</v>
       </c>
@@ -2882,23 +2873,23 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="115"/>
+      <c r="A11" s="128"/>
       <c r="B11" s="63"/>
       <c r="C11" s="57"/>
-      <c r="D11" s="101"/>
+      <c r="D11" s="114"/>
       <c r="E11" s="67"/>
       <c r="F11" s="64"/>
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="119" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="65"/>
       <c r="C12" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="D12" s="95" t="s">
+      <c r="D12" s="108" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="63">
@@ -2908,12 +2899,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="106"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="66"/>
       <c r="C13" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="96"/>
+      <c r="D13" s="109"/>
       <c r="E13" s="63" t="s">
         <v>230</v>
       </c>
@@ -2921,12 +2912,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="106"/>
+      <c r="A14" s="119"/>
       <c r="B14" s="66"/>
       <c r="C14" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="96"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="63" t="s">
         <v>185</v>
       </c>
@@ -2934,12 +2925,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="106"/>
+      <c r="A15" s="119"/>
       <c r="B15" s="67" t="s">
         <v>248</v>
       </c>
       <c r="C15" s="64"/>
-      <c r="D15" s="96"/>
+      <c r="D15" s="109"/>
       <c r="E15" s="63"/>
       <c r="F15" s="63" t="s">
         <v>194</v>
@@ -2947,50 +2938,50 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="105" t="s">
+      <c r="A16" s="118" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="63"/>
       <c r="C16" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="D16" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="99" t="s">
+      <c r="D16" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="112" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="102">
+      <c r="F16" s="115">
         <v>1</v>
       </c>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="106"/>
+      <c r="A17" s="119"/>
       <c r="B17" s="63" t="s">
         <v>224</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>250</v>
       </c>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="103"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="116"/>
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="106"/>
+      <c r="A18" s="119"/>
       <c r="B18" s="64"/>
       <c r="C18" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="104"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="117"/>
       <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="105" t="s">
+      <c r="A19" s="118" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="66" t="s">
@@ -2999,7 +2990,7 @@
       <c r="C19" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="D19" s="100" t="s">
+      <c r="D19" s="113" t="s">
         <v>227</v>
       </c>
       <c r="E19" s="63" t="s">
@@ -3009,14 +3000,14 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="106"/>
+      <c r="A20" s="119"/>
       <c r="B20" s="66" t="s">
         <v>248</v>
       </c>
       <c r="C20" s="66" t="s">
         <v>253</v>
       </c>
-      <c r="D20" s="100"/>
+      <c r="D20" s="113"/>
       <c r="E20" s="63" t="s">
         <v>185</v>
       </c>
@@ -3026,14 +3017,14 @@
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="106"/>
+      <c r="A21" s="119"/>
       <c r="B21" s="66" t="s">
         <v>255</v>
       </c>
       <c r="C21" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="D21" s="100"/>
+      <c r="D21" s="113"/>
       <c r="E21" s="63" t="s">
         <v>252</v>
       </c>
@@ -3041,25 +3032,25 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="106"/>
+      <c r="A22" s="119"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66"/>
-      <c r="D22" s="100"/>
+      <c r="D22" s="113"/>
       <c r="E22" s="63"/>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="107"/>
+      <c r="A23" s="120"/>
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
-      <c r="D23" s="101"/>
+      <c r="D23" s="114"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="106" t="s">
+      <c r="A24" s="119" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="78" t="s">
@@ -3068,7 +3059,7 @@
       <c r="C24" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="D24" s="95" t="s">
+      <c r="D24" s="108" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="62" t="s">
@@ -3080,12 +3071,12 @@
       <c r="G24" s="59"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="106"/>
+      <c r="A25" s="119"/>
       <c r="B25" s="79"/>
       <c r="C25" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D25" s="96"/>
+      <c r="D25" s="109"/>
       <c r="E25" s="63" t="s">
         <v>257</v>
       </c>
@@ -3093,12 +3084,12 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="106"/>
+      <c r="A26" s="119"/>
       <c r="B26" s="80"/>
       <c r="C26" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D26" s="96"/>
+      <c r="D26" s="109"/>
       <c r="E26" s="63" t="s">
         <v>185</v>
       </c>
@@ -3106,21 +3097,21 @@
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="106"/>
+      <c r="A27" s="119"/>
       <c r="B27" s="81"/>
       <c r="C27" s="64"/>
-      <c r="D27" s="97"/>
+      <c r="D27" s="110"/>
       <c r="E27" s="63"/>
       <c r="F27" s="61"/>
       <c r="G27" s="61"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="105" t="s">
+      <c r="A28" s="118" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="66"/>
       <c r="C28" s="66"/>
-      <c r="D28" s="99" t="s">
+      <c r="D28" s="112" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="62"/>
@@ -3128,14 +3119,14 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="106"/>
+      <c r="A29" s="119"/>
       <c r="B29" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C29" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D29" s="100"/>
+      <c r="D29" s="113"/>
       <c r="E29" s="63" t="s">
         <v>106</v>
       </c>
@@ -3143,23 +3134,23 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="106"/>
+      <c r="A30" s="119"/>
       <c r="B30" s="66"/>
       <c r="C30" s="66"/>
-      <c r="D30" s="100"/>
+      <c r="D30" s="113"/>
       <c r="E30" s="64"/>
       <c r="F30" s="60"/>
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="105" t="s">
+      <c r="A31" s="118" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="65"/>
       <c r="C31" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="102"/>
+      <c r="D31" s="115"/>
       <c r="E31" s="60" t="s">
         <v>171</v>
       </c>
@@ -3167,14 +3158,14 @@
       <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="106"/>
+      <c r="A32" s="119"/>
       <c r="B32" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="D32" s="103"/>
+      <c r="D32" s="116"/>
       <c r="E32" s="60" t="s">
         <v>168</v>
       </c>
@@ -3182,12 +3173,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="106"/>
+      <c r="A33" s="119"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66" t="s">
         <v>259</v>
       </c>
-      <c r="D33" s="103"/>
+      <c r="D33" s="116"/>
       <c r="E33" s="60"/>
       <c r="F33" s="60" t="s">
         <v>170</v>
@@ -3195,32 +3186,32 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="106"/>
+      <c r="A34" s="119"/>
       <c r="B34" s="66"/>
       <c r="C34" s="66"/>
-      <c r="D34" s="103"/>
+      <c r="D34" s="116"/>
       <c r="E34" s="60"/>
       <c r="F34" s="60"/>
       <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="107"/>
+      <c r="A35" s="120"/>
       <c r="B35" s="66"/>
       <c r="C35" s="67"/>
-      <c r="D35" s="104"/>
+      <c r="D35" s="117"/>
       <c r="E35" s="60"/>
       <c r="F35" s="60"/>
       <c r="G35" s="61"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="106" t="s">
+      <c r="A36" s="119" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="62"/>
       <c r="C36" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="D36" s="100" t="s">
+      <c r="D36" s="113" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="82" t="s">
@@ -3230,12 +3221,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="106"/>
+      <c r="A37" s="119"/>
       <c r="B37" s="63"/>
       <c r="C37" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="D37" s="100"/>
+      <c r="D37" s="113"/>
       <c r="E37" s="66" t="s">
         <v>170</v>
       </c>
@@ -3243,14 +3234,14 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="106"/>
+      <c r="A38" s="119"/>
       <c r="B38" s="63" t="s">
         <v>248</v>
       </c>
       <c r="C38" s="60" t="s">
         <v>260</v>
       </c>
-      <c r="D38" s="100"/>
+      <c r="D38" s="113"/>
       <c r="E38" s="66" t="s">
         <v>171</v>
       </c>
@@ -3260,22 +3251,22 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="106"/>
+      <c r="A39" s="119"/>
       <c r="B39" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="D39" s="100"/>
+      <c r="D39" s="113"/>
       <c r="E39" s="66"/>
-      <c r="F39" s="133" t="s">
+      <c r="F39" s="94" t="s">
         <v>171</v>
       </c>
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="107"/>
+      <c r="A40" s="120"/>
       <c r="B40" s="64"/>
       <c r="C40" s="58"/>
-      <c r="D40" s="101"/>
+      <c r="D40" s="114"/>
       <c r="E40" s="67"/>
       <c r="F40" s="64"/>
       <c r="G40" s="61"/>
@@ -3313,8 +3304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CD1CE-B6FA-48B8-A6CC-4149467C6873}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3352,12 +3343,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="121" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="124" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -3369,53 +3360,53 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="109"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="112"/>
+      <c r="D3" s="125"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="110"/>
+      <c r="A4" s="123"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="117"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="127" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="100" t="s">
+      <c r="D5" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="119" t="s">
+      <c r="E5" s="84" t="s">
         <v>173</v>
       </c>
       <c r="F5" s="60"/>
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="114"/>
+      <c r="A6" s="127"/>
       <c r="B6" s="66" t="s">
         <v>255</v>
       </c>
       <c r="C6" s="66" t="s">
         <v>262</v>
       </c>
-      <c r="D6" s="100"/>
+      <c r="D6" s="113"/>
       <c r="E6" s="63" t="s">
         <v>263</v>
       </c>
@@ -3423,12 +3414,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="114"/>
+      <c r="A7" s="127"/>
       <c r="B7" s="66"/>
       <c r="C7" s="66" t="s">
         <v>264</v>
       </c>
-      <c r="D7" s="100"/>
+      <c r="D7" s="113"/>
       <c r="E7" s="63" t="s">
         <v>263</v>
       </c>
@@ -3436,12 +3427,12 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="114"/>
+      <c r="A8" s="127"/>
       <c r="B8" s="66" t="s">
         <v>265</v>
       </c>
       <c r="C8" s="66"/>
-      <c r="D8" s="100"/>
+      <c r="D8" s="113"/>
       <c r="E8" s="63" t="s">
         <v>241</v>
       </c>
@@ -3449,12 +3440,12 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="115"/>
+      <c r="A9" s="128"/>
       <c r="B9" s="66" t="s">
         <v>266</v>
       </c>
       <c r="C9" s="66"/>
-      <c r="D9" s="100"/>
+      <c r="D9" s="113"/>
       <c r="E9" s="64" t="s">
         <v>241</v>
       </c>
@@ -3462,31 +3453,31 @@
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="114" t="s">
+      <c r="A10" s="127" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="62"/>
       <c r="C10" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D10" s="99" t="s">
+      <c r="D10" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="120" t="s">
+      <c r="E10" s="85" t="s">
         <v>173</v>
       </c>
       <c r="F10" s="62"/>
       <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="114"/>
+      <c r="A11" s="127"/>
       <c r="B11" s="63" t="s">
         <v>267</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="D11" s="100"/>
+      <c r="D11" s="113"/>
       <c r="E11" s="63" t="s">
         <v>263</v>
       </c>
@@ -3496,14 +3487,14 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="115"/>
+      <c r="A12" s="128"/>
       <c r="B12" s="64" t="s">
         <v>269</v>
       </c>
       <c r="C12" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="D12" s="101"/>
+      <c r="D12" s="114"/>
       <c r="E12" s="66"/>
       <c r="F12" s="64" t="s">
         <v>180</v>
@@ -3511,7 +3502,7 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="119" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="68" t="s">
@@ -3520,10 +3511,10 @@
       <c r="C13" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="119" t="s">
+      <c r="D13" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="84" t="s">
         <v>173</v>
       </c>
       <c r="F13" s="59" t="s">
@@ -3532,12 +3523,12 @@
       <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="106"/>
+      <c r="A14" s="119"/>
       <c r="B14" s="66"/>
       <c r="C14" s="63" t="s">
         <v>272</v>
       </c>
-      <c r="D14" s="96"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="63" t="s">
         <v>273</v>
       </c>
@@ -3545,12 +3536,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="106"/>
+      <c r="A15" s="119"/>
       <c r="B15" s="66"/>
       <c r="C15" s="63" t="s">
         <v>274</v>
       </c>
-      <c r="D15" s="96"/>
+      <c r="D15" s="109"/>
       <c r="E15" s="63" t="s">
         <v>173</v>
       </c>
@@ -3558,81 +3549,81 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="106"/>
+      <c r="A16" s="119"/>
       <c r="B16" s="67"/>
       <c r="C16" s="64"/>
-      <c r="D16" s="96"/>
+      <c r="D16" s="109"/>
       <c r="E16" s="64"/>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="105" t="s">
+      <c r="A17" s="118" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="63"/>
       <c r="C17" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="D17" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="100" t="s">
+      <c r="D17" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="113" t="s">
         <v>156</v>
       </c>
-      <c r="F17" s="102">
+      <c r="F17" s="115">
         <v>1</v>
       </c>
       <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="106"/>
+      <c r="A18" s="119"/>
       <c r="B18" s="63" t="s">
         <v>276</v>
       </c>
       <c r="C18" s="77" t="s">
         <v>277</v>
       </c>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="103"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="116"/>
       <c r="G18" s="60"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="106"/>
+      <c r="A19" s="119"/>
       <c r="B19" s="63"/>
       <c r="C19" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="D19" s="101"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="104"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="117"/>
       <c r="G19" s="61"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="105" t="s">
+      <c r="A20" s="118" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="62"/>
       <c r="C20" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D20" s="100" t="s">
+      <c r="D20" s="113" t="s">
         <v>227</v>
       </c>
-      <c r="E20" s="119" t="s">
+      <c r="E20" s="84" t="s">
         <v>173</v>
       </c>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="106"/>
+      <c r="A21" s="119"/>
       <c r="B21" s="63"/>
-      <c r="C21" s="117" t="s">
+      <c r="C21" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="D21" s="100"/>
+      <c r="D21" s="113"/>
       <c r="E21" s="63" t="s">
         <v>185</v>
       </c>
@@ -3640,12 +3631,12 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="106"/>
+      <c r="A22" s="119"/>
       <c r="B22" s="76"/>
-      <c r="C22" s="117" t="s">
+      <c r="C22" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="D22" s="100"/>
+      <c r="D22" s="113"/>
       <c r="E22" s="63"/>
       <c r="F22" s="60" t="s">
         <v>185</v>
@@ -3653,12 +3644,12 @@
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="106"/>
+      <c r="A23" s="119"/>
       <c r="B23" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="C23" s="117"/>
-      <c r="D23" s="100"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="113"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60" t="s">
         <v>222</v>
@@ -3666,17 +3657,17 @@
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="125" t="s">
+      <c r="A24" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="121"/>
+      <c r="B24" s="86"/>
       <c r="C24" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D24" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="119" t="s">
+      <c r="D24" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="84" t="s">
         <v>173</v>
       </c>
       <c r="F24" s="59" t="s">
@@ -3685,14 +3676,14 @@
       <c r="G24" s="59"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="126"/>
-      <c r="B25" s="122" t="s">
+      <c r="A25" s="130"/>
+      <c r="B25" s="87" t="s">
         <v>271</v>
       </c>
       <c r="C25" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="D25" s="96"/>
+      <c r="D25" s="109"/>
       <c r="E25" s="63" t="s">
         <v>273</v>
       </c>
@@ -3700,12 +3691,12 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="126"/>
-      <c r="B26" s="123"/>
+      <c r="A26" s="130"/>
+      <c r="B26" s="88"/>
       <c r="C26" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="D26" s="96"/>
+      <c r="D26" s="109"/>
       <c r="E26" s="63" t="s">
         <v>173</v>
       </c>
@@ -3713,21 +3704,21 @@
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="127"/>
-      <c r="B27" s="135"/>
+      <c r="A27" s="131"/>
+      <c r="B27" s="133"/>
       <c r="C27" s="61"/>
-      <c r="D27" s="116"/>
+      <c r="D27" s="109"/>
       <c r="E27" s="64"/>
       <c r="F27" s="61"/>
       <c r="G27" s="61"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="106" t="s">
+      <c r="A28" s="119" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="62"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="102" t="s">
+      <c r="C28" s="132"/>
+      <c r="D28" s="115" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="60"/>
@@ -3735,12 +3726,12 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="106"/>
+      <c r="A29" s="119"/>
       <c r="B29" s="63"/>
-      <c r="C29" s="117" t="s">
+      <c r="C29" s="132" t="s">
         <v>280</v>
       </c>
-      <c r="D29" s="103"/>
+      <c r="D29" s="116"/>
       <c r="E29" s="60" t="s">
         <v>180</v>
       </c>
@@ -3748,14 +3739,14 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="106"/>
+      <c r="A30" s="119"/>
       <c r="B30" s="63" t="s">
         <v>269</v>
       </c>
-      <c r="C30" s="117" t="s">
+      <c r="C30" s="132" t="s">
         <v>281</v>
       </c>
-      <c r="D30" s="103"/>
+      <c r="D30" s="116"/>
       <c r="E30" s="60" t="s">
         <v>180</v>
       </c>
@@ -3765,9 +3756,9 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="131"/>
+      <c r="A31" s="90"/>
       <c r="B31" s="64"/>
-      <c r="C31" s="117" t="s">
+      <c r="C31" s="132" t="s">
         <v>282</v>
       </c>
       <c r="D31" s="64"/>
@@ -3778,29 +3769,29 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="106" t="s">
+      <c r="A32" s="119" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="66"/>
       <c r="C32" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D32" s="100"/>
-      <c r="E32" s="119" t="s">
+      <c r="D32" s="113"/>
+      <c r="E32" s="84" t="s">
         <v>173</v>
       </c>
       <c r="F32" s="59"/>
       <c r="G32" s="59"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="106"/>
+      <c r="A33" s="119"/>
       <c r="B33" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C33" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="D33" s="100"/>
+      <c r="D33" s="113"/>
       <c r="E33" s="63" t="s">
         <v>168</v>
       </c>
@@ -3808,12 +3799,12 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="106"/>
+      <c r="A34" s="119"/>
       <c r="B34" s="66"/>
       <c r="C34" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="D34" s="100"/>
+      <c r="D34" s="113"/>
       <c r="E34" s="63"/>
       <c r="F34" s="60" t="s">
         <v>170</v>
@@ -3821,62 +3812,62 @@
       <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="106"/>
+      <c r="A35" s="119"/>
       <c r="B35" s="66"/>
       <c r="C35" s="66"/>
-      <c r="D35" s="100"/>
+      <c r="D35" s="113"/>
       <c r="E35" s="63"/>
       <c r="F35" s="60"/>
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="107"/>
+      <c r="A36" s="120"/>
       <c r="B36" s="66"/>
       <c r="C36" s="66"/>
-      <c r="D36" s="101"/>
+      <c r="D36" s="114"/>
       <c r="E36" s="64"/>
       <c r="F36" s="60"/>
       <c r="G36" s="61"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="106" t="s">
+      <c r="A37" s="119" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="62"/>
       <c r="C37" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D37" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="120" t="s">
+      <c r="D37" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="85" t="s">
         <v>173</v>
       </c>
       <c r="F37" s="62"/>
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="106"/>
+      <c r="A38" s="119"/>
       <c r="B38" s="63"/>
       <c r="C38" s="60" t="s">
         <v>284</v>
       </c>
-      <c r="D38" s="96"/>
+      <c r="D38" s="109"/>
       <c r="E38" s="66" t="s">
-        <v>170</v>
+        <v>238</v>
       </c>
       <c r="F38" s="63"/>
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="106"/>
+      <c r="A39" s="119"/>
       <c r="B39" s="63" t="s">
         <v>248</v>
       </c>
       <c r="C39" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="D39" s="96"/>
+      <c r="D39" s="109"/>
       <c r="E39" s="66" t="s">
         <v>170</v>
       </c>
@@ -3886,23 +3877,23 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="106"/>
-      <c r="B40" s="139" t="s">
+      <c r="A40" s="119"/>
+      <c r="B40" s="138" t="s">
         <v>228</v>
       </c>
       <c r="C40" s="49"/>
-      <c r="D40" s="96"/>
+      <c r="D40" s="109"/>
       <c r="E40" s="66"/>
-      <c r="F40" s="133" t="s">
+      <c r="F40" s="94" t="s">
         <v>170</v>
       </c>
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="107"/>
+      <c r="A41" s="120"/>
       <c r="B41" s="64"/>
       <c r="C41" s="61"/>
-      <c r="D41" s="97"/>
+      <c r="D41" s="110"/>
       <c r="E41" s="67"/>
       <c r="F41" s="64"/>
       <c r="G41" s="61"/>
@@ -3941,7 +3932,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D10" sqref="D10:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3956,35 +3947,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="130" t="s">
+      <c r="C1" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="130" t="s">
+      <c r="D1" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="130" t="s">
+      <c r="E1" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="130" t="s">
+      <c r="F1" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="130" t="s">
+      <c r="G1" s="92" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="118" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="124" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -3996,53 +3987,53 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="106"/>
+      <c r="A3" s="119"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="112"/>
+      <c r="D3" s="125"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="107"/>
+      <c r="A4" s="120"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="113"/>
+      <c r="D4" s="126"/>
       <c r="E4" s="57"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="127" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="109" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="119" t="s">
+      <c r="E5" s="84" t="s">
         <v>173</v>
       </c>
       <c r="F5" s="60"/>
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="114"/>
+      <c r="A6" s="127"/>
       <c r="B6" s="66" t="s">
         <v>228</v>
       </c>
       <c r="C6" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="D6" s="116"/>
+      <c r="D6" s="109"/>
       <c r="E6" s="63" t="s">
         <v>241</v>
       </c>
@@ -4050,58 +4041,58 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="114"/>
+      <c r="A7" s="127"/>
       <c r="B7" s="66"/>
       <c r="C7" s="63"/>
-      <c r="D7" s="116"/>
+      <c r="D7" s="109"/>
       <c r="E7" s="63"/>
       <c r="F7" s="60"/>
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="114"/>
+      <c r="A8" s="127"/>
       <c r="B8" s="66"/>
       <c r="C8" s="63"/>
-      <c r="D8" s="116"/>
+      <c r="D8" s="109"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="115"/>
+      <c r="A9" s="128"/>
       <c r="B9" s="66"/>
       <c r="C9" s="64"/>
-      <c r="D9" s="116"/>
+      <c r="D9" s="109"/>
       <c r="E9" s="64"/>
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="114" t="s">
+      <c r="A10" s="127" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="62"/>
       <c r="C10" s="63" t="s">
         <v>287</v>
       </c>
-      <c r="D10" s="99" t="s">
+      <c r="D10" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="120" t="s">
+      <c r="E10" s="85" t="s">
         <v>173</v>
       </c>
       <c r="F10" s="62"/>
       <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="114"/>
+      <c r="A11" s="127"/>
       <c r="B11" s="63" t="s">
         <v>288</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="D11" s="100"/>
+      <c r="D11" s="113"/>
       <c r="E11" s="63" t="s">
         <v>130</v>
       </c>
@@ -4111,14 +4102,14 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="115"/>
+      <c r="A12" s="128"/>
       <c r="B12" s="64" t="s">
         <v>269</v>
       </c>
       <c r="C12" s="69" t="s">
         <v>290</v>
       </c>
-      <c r="D12" s="100"/>
+      <c r="D12" s="113"/>
       <c r="E12" s="67" t="s">
         <v>291</v>
       </c>
@@ -4128,14 +4119,14 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="119" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="68"/>
       <c r="C13" s="65" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="102" t="s">
+      <c r="D13" s="115" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="77" t="s">
@@ -4147,23 +4138,23 @@
       <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="106"/>
+      <c r="A14" s="119"/>
       <c r="B14" s="68"/>
       <c r="C14" s="60" t="s">
         <v>292</v>
       </c>
-      <c r="D14" s="103"/>
+      <c r="D14" s="116"/>
       <c r="E14" s="77"/>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="106"/>
+      <c r="A15" s="119"/>
       <c r="B15" s="66"/>
       <c r="C15" s="66" t="s">
         <v>293</v>
       </c>
-      <c r="D15" s="103"/>
+      <c r="D15" s="116"/>
       <c r="E15" s="60" t="s">
         <v>130</v>
       </c>
@@ -4171,12 +4162,12 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="106"/>
+      <c r="A16" s="119"/>
       <c r="B16" s="66"/>
       <c r="C16" s="66" t="s">
         <v>294</v>
       </c>
-      <c r="D16" s="103"/>
+      <c r="D16" s="116"/>
       <c r="E16" s="60" t="s">
         <v>295</v>
       </c>
@@ -4184,12 +4175,12 @@
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="106"/>
+      <c r="A17" s="119"/>
       <c r="B17" s="67"/>
       <c r="C17" s="67" t="s">
         <v>296</v>
       </c>
-      <c r="D17" s="104"/>
+      <c r="D17" s="117"/>
       <c r="E17" s="60" t="s">
         <v>297</v>
       </c>
@@ -4197,72 +4188,72 @@
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="105" t="s">
+      <c r="A18" s="118" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="63"/>
       <c r="C18" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D18" s="100" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="99" t="s">
+      <c r="D18" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="112" t="s">
         <v>156</v>
       </c>
-      <c r="F18" s="102">
+      <c r="F18" s="115">
         <v>1</v>
       </c>
       <c r="G18" s="59"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="106"/>
+      <c r="A19" s="119"/>
       <c r="B19" s="63" t="s">
         <v>298</v>
       </c>
       <c r="C19" s="77" t="s">
         <v>299</v>
       </c>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="103"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="116"/>
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="106"/>
+      <c r="A20" s="119"/>
       <c r="B20" s="63"/>
       <c r="C20" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="D20" s="101"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="104"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="117"/>
       <c r="G20" s="61"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="105" t="s">
+      <c r="A21" s="118" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="62"/>
       <c r="C21" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D21" s="100" t="s">
+      <c r="D21" s="113" t="s">
         <v>227</v>
       </c>
-      <c r="E21" s="119" t="s">
+      <c r="E21" s="84" t="s">
         <v>173</v>
       </c>
       <c r="F21" s="60"/>
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="106"/>
+      <c r="A22" s="119"/>
       <c r="B22" s="63"/>
       <c r="C22" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="D22" s="100"/>
+      <c r="D22" s="113"/>
       <c r="E22" s="63" t="s">
         <v>185</v>
       </c>
@@ -4270,12 +4261,12 @@
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="106"/>
+      <c r="A23" s="119"/>
       <c r="B23" s="76"/>
       <c r="C23" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="D23" s="100"/>
+      <c r="D23" s="113"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60" t="s">
         <v>185</v>
@@ -4283,12 +4274,12 @@
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="106"/>
+      <c r="A24" s="119"/>
       <c r="B24" s="63" t="s">
         <v>255</v>
       </c>
       <c r="C24" s="57"/>
-      <c r="D24" s="100"/>
+      <c r="D24" s="113"/>
       <c r="E24" s="63"/>
       <c r="F24" s="60" t="s">
         <v>222</v>
@@ -4296,17 +4287,17 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="125" t="s">
+      <c r="A25" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="121"/>
+      <c r="B25" s="86"/>
       <c r="C25" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D25" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="119" t="s">
+      <c r="D25" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="84" t="s">
         <v>173</v>
       </c>
       <c r="F25" s="59" t="s">
@@ -4315,25 +4306,25 @@
       <c r="G25" s="59"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="137"/>
-      <c r="B26" s="138"/>
+      <c r="A26" s="135"/>
+      <c r="B26" s="136"/>
       <c r="C26" s="60" t="s">
         <v>292</v>
       </c>
-      <c r="D26" s="116"/>
-      <c r="E26" s="139" t="s">
+      <c r="D26" s="137"/>
+      <c r="E26" s="138" t="s">
         <v>130</v>
       </c>
       <c r="F26" s="60"/>
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="126"/>
-      <c r="B27" s="122"/>
+      <c r="A27" s="130"/>
+      <c r="B27" s="87"/>
       <c r="C27" s="63" t="s">
         <v>293</v>
       </c>
-      <c r="D27" s="96"/>
+      <c r="D27" s="109"/>
       <c r="E27" s="63" t="s">
         <v>130</v>
       </c>
@@ -4341,12 +4332,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="126"/>
-      <c r="B28" s="123"/>
+      <c r="A28" s="130"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="D28" s="96"/>
+      <c r="D28" s="109"/>
       <c r="E28" s="63" t="s">
         <v>295</v>
       </c>
@@ -4354,12 +4345,12 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="127"/>
-      <c r="B29" s="124"/>
+      <c r="A29" s="131"/>
+      <c r="B29" s="89"/>
       <c r="C29" s="64" t="s">
         <v>296</v>
       </c>
-      <c r="D29" s="96"/>
+      <c r="D29" s="109"/>
       <c r="E29" s="64" t="s">
         <v>297</v>
       </c>
@@ -4367,14 +4358,14 @@
       <c r="G29" s="61"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="106" t="s">
+      <c r="A30" s="119" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="66"/>
       <c r="C30" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="D30" s="102" t="s">
+      <c r="D30" s="115" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="60" t="s">
@@ -4384,12 +4375,12 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="106"/>
+      <c r="A31" s="119"/>
       <c r="B31" s="66"/>
       <c r="C31" s="66" t="s">
         <v>289</v>
       </c>
-      <c r="D31" s="103"/>
+      <c r="D31" s="116"/>
       <c r="E31" s="60"/>
       <c r="F31" s="60" t="s">
         <v>130</v>
@@ -4397,14 +4388,14 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="106"/>
+      <c r="A32" s="119"/>
       <c r="B32" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="C32" s="136" t="s">
+      <c r="C32" s="134" t="s">
         <v>301</v>
       </c>
-      <c r="D32" s="103"/>
+      <c r="D32" s="116"/>
       <c r="E32" s="60" t="s">
         <v>191</v>
       </c>
@@ -4412,7 +4403,7 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="131"/>
+      <c r="A33" s="90"/>
       <c r="B33" s="57"/>
       <c r="C33" s="66" t="s">
         <v>290</v>
@@ -4425,31 +4416,31 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="106" t="s">
+      <c r="A34" s="119" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="65"/>
       <c r="C34" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D34" s="100" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="119" t="s">
+      <c r="D34" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="84" t="s">
         <v>173</v>
       </c>
       <c r="F34" s="59"/>
       <c r="G34" s="59"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="106"/>
+      <c r="A35" s="119"/>
       <c r="B35" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C35" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="D35" s="100"/>
+      <c r="D35" s="113"/>
       <c r="E35" s="63" t="s">
         <v>168</v>
       </c>
@@ -4457,12 +4448,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="106"/>
+      <c r="A36" s="119"/>
       <c r="B36" s="66"/>
       <c r="C36" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="D36" s="100"/>
+      <c r="D36" s="113"/>
       <c r="E36" s="63"/>
       <c r="F36" s="60" t="s">
         <v>170</v>
@@ -4470,63 +4461,63 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="106"/>
+      <c r="A37" s="119"/>
       <c r="B37" s="66"/>
       <c r="C37" s="66"/>
-      <c r="D37" s="100"/>
+      <c r="D37" s="113"/>
       <c r="E37" s="63"/>
       <c r="F37" s="60"/>
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="107"/>
+      <c r="A38" s="120"/>
       <c r="B38" s="67"/>
       <c r="C38" s="66"/>
-      <c r="D38" s="100"/>
+      <c r="D38" s="113"/>
       <c r="E38" s="64"/>
       <c r="F38" s="60"/>
       <c r="G38" s="61"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="106" t="s">
+      <c r="A39" s="119" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="66"/>
-      <c r="C39" s="62" t="s">
+      <c r="C39" s="65" t="s">
         <v>261</v>
       </c>
-      <c r="D39" s="141" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="128" t="s">
+      <c r="D39" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="140" t="s">
         <v>173</v>
       </c>
       <c r="F39" s="62"/>
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="106"/>
+      <c r="A40" s="119"/>
       <c r="B40" s="66"/>
-      <c r="C40" s="63" t="s">
+      <c r="C40" s="66" t="s">
         <v>293</v>
       </c>
-      <c r="D40" s="142"/>
-      <c r="E40" s="117" t="s">
+      <c r="D40" s="116"/>
+      <c r="E40" s="132" t="s">
         <v>170</v>
       </c>
       <c r="F40" s="63"/>
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="106"/>
+      <c r="A41" s="119"/>
       <c r="B41" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="C41" s="66" t="s">
         <v>302</v>
       </c>
-      <c r="D41" s="142"/>
-      <c r="E41" s="117" t="s">
+      <c r="D41" s="116"/>
+      <c r="E41" s="132" t="s">
         <v>171</v>
       </c>
       <c r="F41" s="63" t="s">
@@ -4535,29 +4526,41 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="106"/>
-      <c r="B42" s="66" t="s">
+      <c r="A42" s="119"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66" t="s">
         <v>303</v>
       </c>
-      <c r="C42" s="76"/>
-      <c r="D42" s="142"/>
-      <c r="E42" s="117" t="s">
+      <c r="D42" s="116"/>
+      <c r="E42" s="132" t="s">
         <v>291</v>
       </c>
       <c r="F42" s="76"/>
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="107"/>
+      <c r="A43" s="120"/>
       <c r="B43" s="67"/>
-      <c r="C43" s="140"/>
-      <c r="D43" s="143"/>
+      <c r="C43" s="139"/>
+      <c r="D43" s="117"/>
       <c r="E43" s="58"/>
       <c r="F43" s="64"/>
       <c r="G43" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="D34:D38"/>
     <mergeCell ref="A39:A43"/>
@@ -4568,18 +4571,6 @@
     <mergeCell ref="D25:D29"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="D30:D32"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="D10:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6331,7 +6322,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="99" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="47" t="s">
@@ -6340,7 +6331,7 @@
       <c r="C2" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="96" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="52" t="s">
@@ -6352,14 +6343,14 @@
       <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="87"/>
+      <c r="A3" s="100"/>
       <c r="B3" t="s">
         <v>128</v>
       </c>
       <c r="C3" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="84"/>
+      <c r="D3" s="97"/>
       <c r="E3" s="46" t="s">
         <v>130</v>
       </c>
@@ -6367,11 +6358,11 @@
       <c r="G3" s="49"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="87"/>
+      <c r="A4" s="100"/>
       <c r="C4" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="84"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="46" t="s">
         <v>132</v>
       </c>
@@ -6379,12 +6370,12 @@
       <c r="G4" s="49"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="88"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="50"/>
       <c r="C5" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="85"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="55" t="s">
         <v>132</v>
       </c>
@@ -6392,7 +6383,7 @@
       <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="102" t="s">
         <v>134</v>
       </c>
       <c r="B6" t="s">
@@ -6401,7 +6392,7 @@
       <c r="C6" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="96" t="s">
         <v>137</v>
       </c>
       <c r="E6" s="46" t="s">
@@ -6411,11 +6402,11 @@
       <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="89"/>
+      <c r="A7" s="102"/>
       <c r="C7" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="84"/>
+      <c r="D7" s="97"/>
       <c r="E7" s="46" t="s">
         <v>118</v>
       </c>
@@ -6423,22 +6414,22 @@
       <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="89"/>
-      <c r="D8" s="84"/>
+      <c r="A8" s="102"/>
+      <c r="D8" s="97"/>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
       <c r="G8" s="49"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="89"/>
-      <c r="D9" s="84"/>
+      <c r="A9" s="102"/>
+      <c r="D9" s="97"/>
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
       <c r="G9" s="49"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="90"/>
-      <c r="D10" s="85"/>
+      <c r="A10" s="103"/>
+      <c r="D10" s="98"/>
       <c r="E10" s="46" t="s">
         <v>140</v>
       </c>
@@ -6446,7 +6437,7 @@
       <c r="G10" s="49"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="104" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -6455,7 +6446,7 @@
       <c r="C11" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="83" t="s">
+      <c r="D11" s="96" t="s">
         <v>142</v>
       </c>
       <c r="E11" s="52" t="s">
@@ -6465,11 +6456,11 @@
       <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="91"/>
+      <c r="A12" s="104"/>
       <c r="C12" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="84"/>
+      <c r="D12" s="97"/>
       <c r="E12" s="46"/>
       <c r="F12" s="46" t="s">
         <v>143</v>
@@ -6477,14 +6468,14 @@
       <c r="G12" s="49"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="91"/>
+      <c r="A13" s="104"/>
       <c r="B13" t="s">
         <v>145</v>
       </c>
       <c r="C13" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="84"/>
+      <c r="D13" s="97"/>
       <c r="E13" s="46" t="s">
         <v>143</v>
       </c>
@@ -6492,24 +6483,24 @@
       <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="91"/>
+      <c r="A14" s="104"/>
       <c r="C14" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="84"/>
+      <c r="D14" s="97"/>
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
       <c r="G14" s="49"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="91"/>
-      <c r="D15" s="85"/>
+      <c r="A15" s="104"/>
+      <c r="D15" s="98"/>
       <c r="E15" s="46"/>
       <c r="F15" s="46"/>
       <c r="G15" s="49"/>
     </row>
     <row r="16" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A16" s="92" t="s">
+      <c r="A16" s="105" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="47" t="s">
@@ -6518,7 +6509,7 @@
       <c r="C16" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="83" t="s">
+      <c r="D16" s="96" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="52" t="s">
@@ -6528,11 +6519,11 @@
       <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A17" s="93"/>
+      <c r="A17" s="106"/>
       <c r="C17" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="84"/>
+      <c r="D17" s="97"/>
       <c r="E17" s="46">
         <v>1.5</v>
       </c>
@@ -6540,11 +6531,11 @@
       <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A18" s="93"/>
+      <c r="A18" s="106"/>
       <c r="C18" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="84"/>
+      <c r="D18" s="97"/>
       <c r="E18" s="46"/>
       <c r="F18" s="46">
         <v>1.5</v>
@@ -6552,11 +6543,11 @@
       <c r="G18" s="49"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A19" s="93"/>
+      <c r="A19" s="106"/>
       <c r="C19" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="85"/>
+      <c r="D19" s="98"/>
       <c r="E19" s="46"/>
       <c r="F19" s="57">
         <v>0.5</v>
@@ -6564,7 +6555,7 @@
       <c r="G19" s="49"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="105" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="47" t="s">
@@ -6579,7 +6570,7 @@
       <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="93"/>
+      <c r="A21" s="106"/>
       <c r="C21" t="s">
         <v>154</v>
       </c>
@@ -6589,7 +6580,7 @@
       <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="94"/>
+      <c r="A22" s="107"/>
       <c r="B22" s="50"/>
       <c r="C22" s="50" t="s">
         <v>155</v>
@@ -6604,7 +6595,7 @@
       <c r="G22" s="51"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="98" t="s">
+      <c r="A23" s="111" t="s">
         <v>28</v>
       </c>
       <c r="B23" t="s">
@@ -6613,7 +6604,7 @@
       <c r="C23" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="83"/>
+      <c r="D23" s="96"/>
       <c r="E23" s="46" t="s">
         <v>158</v>
       </c>
@@ -6621,11 +6612,11 @@
       <c r="G23" s="49"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="98"/>
+      <c r="A24" s="111"/>
       <c r="C24" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="84"/>
+      <c r="D24" s="97"/>
       <c r="E24" s="46">
         <v>2</v>
       </c>
@@ -6633,11 +6624,11 @@
       <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="98"/>
+      <c r="A25" s="111"/>
       <c r="C25" t="s">
         <v>151</v>
       </c>
-      <c r="D25" s="84"/>
+      <c r="D25" s="97"/>
       <c r="E25" s="46">
         <v>1</v>
       </c>
@@ -6645,11 +6636,11 @@
       <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="98"/>
+      <c r="A26" s="111"/>
       <c r="C26" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="85"/>
+      <c r="D26" s="98"/>
       <c r="E26" s="46">
         <v>1</v>
       </c>
@@ -6657,7 +6648,7 @@
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="92" t="s">
+      <c r="A27" s="105" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="47" t="s">
@@ -6666,7 +6657,7 @@
       <c r="C27" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="83" t="s">
+      <c r="D27" s="96" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="52" t="s">
@@ -6676,14 +6667,14 @@
       <c r="G27" s="48"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="93"/>
+      <c r="A28" s="106"/>
       <c r="B28" s="45" t="s">
         <v>128</v>
       </c>
       <c r="C28" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="84"/>
+      <c r="D28" s="97"/>
       <c r="E28" s="46" t="s">
         <v>130</v>
       </c>
@@ -6691,11 +6682,11 @@
       <c r="G28" s="49"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="93"/>
+      <c r="A29" s="106"/>
       <c r="C29" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="84"/>
+      <c r="D29" s="97"/>
       <c r="E29" s="46" t="s">
         <v>132</v>
       </c>
@@ -6703,12 +6694,12 @@
       <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A30" s="93"/>
+      <c r="A30" s="106"/>
       <c r="B30" s="50"/>
       <c r="C30" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="D30" s="85"/>
+      <c r="D30" s="98"/>
       <c r="E30" s="55" t="s">
         <v>132</v>
       </c>
@@ -6716,10 +6707,10 @@
       <c r="G30" s="51"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="92" t="s">
+      <c r="A31" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="95" t="s">
+      <c r="D31" s="108" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="46"/>
@@ -6727,14 +6718,14 @@
       <c r="G31" s="49"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="93"/>
+      <c r="A32" s="106"/>
       <c r="B32" t="s">
         <v>161</v>
       </c>
       <c r="C32" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="96"/>
+      <c r="D32" s="109"/>
       <c r="E32" s="46" t="s">
         <v>138</v>
       </c>
@@ -6742,14 +6733,14 @@
       <c r="G32" s="49"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="93"/>
+      <c r="A33" s="106"/>
       <c r="B33" t="s">
         <v>135</v>
       </c>
       <c r="C33" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="96"/>
+      <c r="D33" s="109"/>
       <c r="E33" s="46" t="s">
         <v>130</v>
       </c>
@@ -6757,28 +6748,28 @@
       <c r="G33" s="49"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="93"/>
-      <c r="D34" s="96"/>
+      <c r="A34" s="106"/>
+      <c r="D34" s="109"/>
       <c r="E34" s="46"/>
       <c r="F34" s="46"/>
       <c r="G34" s="49"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="93"/>
-      <c r="D35" s="97"/>
+      <c r="A35" s="106"/>
+      <c r="D35" s="110"/>
       <c r="E35" s="46"/>
       <c r="F35" s="46"/>
       <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="92" t="s">
+      <c r="A36" s="105" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="47"/>
       <c r="C36" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="D36" s="83"/>
+      <c r="D36" s="96"/>
       <c r="E36" s="52" t="s">
         <v>165</v>
       </c>
@@ -6786,14 +6777,14 @@
       <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="93"/>
+      <c r="A37" s="106"/>
       <c r="B37" t="s">
         <v>166</v>
       </c>
       <c r="C37" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="D37" s="84"/>
+      <c r="D37" s="97"/>
       <c r="E37" s="46" t="s">
         <v>168</v>
       </c>
@@ -6801,11 +6792,11 @@
       <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="93"/>
+      <c r="A38" s="106"/>
       <c r="C38" t="s">
         <v>169</v>
       </c>
-      <c r="D38" s="84"/>
+      <c r="D38" s="97"/>
       <c r="E38" s="46"/>
       <c r="F38" s="46" t="s">
         <v>170</v>
@@ -6813,46 +6804,46 @@
       <c r="G38" s="49"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="93"/>
-      <c r="D39" s="84"/>
+      <c r="A39" s="106"/>
+      <c r="D39" s="97"/>
       <c r="E39" s="46"/>
       <c r="F39" s="46"/>
       <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="94"/>
+      <c r="A40" s="107"/>
       <c r="B40" s="50"/>
       <c r="C40" s="50"/>
-      <c r="D40" s="85"/>
+      <c r="D40" s="98"/>
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
       <c r="G40" s="51"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="93" t="s">
+      <c r="A41" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="83" t="s">
+      <c r="D41" s="96" t="s">
         <v>24</v>
       </c>
       <c r="E41" s="46"/>
       <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="93"/>
-      <c r="D42" s="84"/>
+      <c r="A42" s="106"/>
+      <c r="D42" s="97"/>
       <c r="E42" s="46"/>
       <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="93"/>
+      <c r="A43" s="106"/>
       <c r="B43" t="s">
         <v>24</v>
       </c>
       <c r="C43" t="s">
         <v>162</v>
       </c>
-      <c r="D43" s="84"/>
+      <c r="D43" s="97"/>
       <c r="E43" s="46" t="s">
         <v>171</v>
       </c>
@@ -6862,16 +6853,16 @@
       <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="93"/>
-      <c r="D44" s="84"/>
+      <c r="A44" s="106"/>
+      <c r="D44" s="97"/>
       <c r="E44" s="46"/>
       <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="94"/>
+      <c r="A45" s="107"/>
       <c r="B45" s="50"/>
       <c r="C45" s="50"/>
-      <c r="D45" s="85"/>
+      <c r="D45" s="98"/>
       <c r="E45" s="55"/>
       <c r="F45" s="50"/>
       <c r="G45" s="51"/>
@@ -6910,7 +6901,7 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6945,7 +6936,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="121" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65" t="s">
@@ -6954,7 +6945,7 @@
       <c r="C2" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="124" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="56" t="s">
@@ -6966,12 +6957,12 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="109"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="66"/>
       <c r="C3" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="112"/>
+      <c r="D3" s="125"/>
       <c r="E3" s="57" t="s">
         <v>130</v>
       </c>
@@ -6979,12 +6970,12 @@
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="109"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="66"/>
       <c r="C4" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="112"/>
+      <c r="D4" s="125"/>
       <c r="E4" s="57" t="s">
         <v>176</v>
       </c>
@@ -6992,12 +6983,12 @@
       <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="109"/>
+      <c r="A5" s="122"/>
       <c r="B5" s="66"/>
       <c r="C5" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="112"/>
+      <c r="D5" s="125"/>
       <c r="E5" s="57" t="s">
         <v>173</v>
       </c>
@@ -7005,12 +6996,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="109"/>
+      <c r="A6" s="122"/>
       <c r="B6" s="66"/>
       <c r="C6" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="112"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="57" t="s">
         <v>127</v>
       </c>
@@ -7018,12 +7009,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="110"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="67"/>
       <c r="C7" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="113"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="58" t="s">
         <v>179</v>
       </c>
@@ -7031,7 +7022,7 @@
       <c r="G7" s="61"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="127" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="66" t="s">
@@ -7040,7 +7031,7 @@
       <c r="C8" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="100" t="s">
+      <c r="D8" s="113" t="s">
         <v>137</v>
       </c>
       <c r="E8" s="63" t="s">
@@ -7050,12 +7041,12 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="114"/>
+      <c r="A9" s="127"/>
       <c r="B9" s="66"/>
       <c r="C9" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="100"/>
+      <c r="D9" s="113"/>
       <c r="E9" s="63" t="s">
         <v>130</v>
       </c>
@@ -7063,12 +7054,12 @@
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="114"/>
+      <c r="A10" s="127"/>
       <c r="B10" s="66"/>
       <c r="C10" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="D10" s="100"/>
+      <c r="D10" s="113"/>
       <c r="E10" s="63" t="s">
         <v>183</v>
       </c>
@@ -7076,12 +7067,12 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="115"/>
+      <c r="A11" s="128"/>
       <c r="B11" s="66"/>
       <c r="C11" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="100"/>
+      <c r="D11" s="113"/>
       <c r="E11" s="63" t="s">
         <v>185</v>
       </c>
@@ -7089,14 +7080,14 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="114" t="s">
+      <c r="A12" s="127" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="62"/>
       <c r="C12" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="99" t="s">
+      <c r="D12" s="112" t="s">
         <v>142</v>
       </c>
       <c r="E12" s="62" t="s">
@@ -7106,12 +7097,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="114"/>
+      <c r="A13" s="127"/>
       <c r="B13" s="63"/>
       <c r="C13" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="D13" s="100"/>
+      <c r="D13" s="113"/>
       <c r="E13" s="63" t="s">
         <v>187</v>
       </c>
@@ -7119,12 +7110,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="114"/>
+      <c r="A14" s="127"/>
       <c r="B14" s="76"/>
       <c r="C14" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="100"/>
+      <c r="D14" s="113"/>
       <c r="E14" s="63"/>
       <c r="F14" s="60" t="s">
         <v>130</v>
@@ -7132,12 +7123,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="114"/>
+      <c r="A15" s="127"/>
       <c r="B15" s="63" t="s">
         <v>190</v>
       </c>
       <c r="C15" s="57"/>
-      <c r="D15" s="100"/>
+      <c r="D15" s="113"/>
       <c r="E15" s="63" t="s">
         <v>191</v>
       </c>
@@ -7145,23 +7136,23 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="115"/>
+      <c r="A16" s="128"/>
       <c r="B16" s="64"/>
       <c r="C16" s="57"/>
-      <c r="D16" s="101"/>
+      <c r="D16" s="114"/>
       <c r="E16" s="63"/>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A17" s="106" t="s">
+      <c r="A17" s="119" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="99" t="s">
+      <c r="D17" s="112" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="62" t="s">
@@ -7171,14 +7162,14 @@
       <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A18" s="106"/>
+      <c r="A18" s="119"/>
       <c r="B18" s="66" t="s">
         <v>193</v>
       </c>
       <c r="C18" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="100"/>
+      <c r="D18" s="113"/>
       <c r="E18" s="63" t="s">
         <v>176</v>
       </c>
@@ -7186,12 +7177,12 @@
       <c r="G18" s="60"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A19" s="106"/>
+      <c r="A19" s="119"/>
       <c r="B19" s="66"/>
       <c r="C19" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="D19" s="100"/>
+      <c r="D19" s="113"/>
       <c r="E19" s="63" t="s">
         <v>176</v>
       </c>
@@ -7199,12 +7190,12 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A20" s="106"/>
+      <c r="A20" s="119"/>
       <c r="B20" s="66"/>
       <c r="C20" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="D20" s="100"/>
+      <c r="D20" s="113"/>
       <c r="E20" s="63"/>
       <c r="F20" s="63" t="s">
         <v>194</v>
@@ -7212,7 +7203,7 @@
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="105" t="s">
+      <c r="A21" s="118" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="65" t="s">
@@ -7221,41 +7212,41 @@
       <c r="C21" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="D21" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="99" t="s">
+      <c r="D21" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="112" t="s">
         <v>197</v>
       </c>
-      <c r="F21" s="102" t="s">
+      <c r="F21" s="115" t="s">
         <v>198</v>
       </c>
       <c r="G21" s="59"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="106"/>
+      <c r="A22" s="119"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="103"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="116"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="106"/>
+      <c r="A23" s="119"/>
       <c r="B23" s="67"/>
       <c r="C23" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="104"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="117"/>
       <c r="G23" s="61"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="105" t="s">
+      <c r="A24" s="118" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="66" t="s">
@@ -7264,7 +7255,7 @@
       <c r="C24" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="100"/>
+      <c r="D24" s="113"/>
       <c r="E24" s="63" t="s">
         <v>173</v>
       </c>
@@ -7272,12 +7263,12 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="106"/>
+      <c r="A25" s="119"/>
       <c r="B25" s="66"/>
       <c r="C25" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="D25" s="100"/>
+      <c r="D25" s="113"/>
       <c r="E25" s="63" t="s">
         <v>191</v>
       </c>
@@ -7285,12 +7276,12 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="106"/>
+      <c r="A26" s="119"/>
       <c r="B26" s="66"/>
       <c r="C26" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="D26" s="100"/>
+      <c r="D26" s="113"/>
       <c r="E26" s="63" t="s">
         <v>130</v>
       </c>
@@ -7298,12 +7289,12 @@
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="106"/>
+      <c r="A27" s="119"/>
       <c r="B27" s="66"/>
       <c r="C27" s="66" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="100"/>
+      <c r="D27" s="113"/>
       <c r="E27" s="63" t="s">
         <v>202</v>
       </c>
@@ -7311,12 +7302,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="107"/>
+      <c r="A28" s="120"/>
       <c r="B28" s="66"/>
       <c r="C28" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="D28" s="101"/>
+      <c r="D28" s="114"/>
       <c r="E28" s="63" t="s">
         <v>130</v>
       </c>
@@ -7324,7 +7315,7 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="106" t="s">
+      <c r="A29" s="119" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="74" t="s">
@@ -7333,7 +7324,7 @@
       <c r="C29" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="99" t="s">
+      <c r="D29" s="112" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="62" t="s">
@@ -7345,12 +7336,12 @@
       <c r="G29" s="59"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="106"/>
+      <c r="A30" s="119"/>
       <c r="B30" s="70"/>
       <c r="C30" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="D30" s="100"/>
+      <c r="D30" s="113"/>
       <c r="E30" s="63" t="s">
         <v>205</v>
       </c>
@@ -7358,12 +7349,12 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="106"/>
+      <c r="A31" s="119"/>
       <c r="B31" s="71"/>
       <c r="C31" s="69" t="s">
         <v>206</v>
       </c>
-      <c r="D31" s="100"/>
+      <c r="D31" s="113"/>
       <c r="E31" s="63" t="s">
         <v>130</v>
       </c>
@@ -7371,12 +7362,12 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="106"/>
+      <c r="A32" s="119"/>
       <c r="B32" s="71"/>
       <c r="C32" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="D32" s="100"/>
+      <c r="D32" s="113"/>
       <c r="E32" s="63" t="s">
         <v>179</v>
       </c>
@@ -7384,12 +7375,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="106"/>
+      <c r="A33" s="119"/>
       <c r="B33" s="72"/>
       <c r="C33" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="D33" s="100"/>
+      <c r="D33" s="113"/>
       <c r="E33" s="63" t="s">
         <v>208</v>
       </c>
@@ -7397,12 +7388,12 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A34" s="106"/>
+      <c r="A34" s="119"/>
       <c r="B34" s="73"/>
       <c r="C34" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="D34" s="101"/>
+      <c r="D34" s="114"/>
       <c r="E34" s="64" t="s">
         <v>132</v>
       </c>
@@ -7410,12 +7401,12 @@
       <c r="G34" s="61"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="105" t="s">
+      <c r="A35" s="118" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="66"/>
       <c r="C35" s="66"/>
-      <c r="D35" s="99" t="s">
+      <c r="D35" s="112" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="63"/>
@@ -7423,12 +7414,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="106"/>
+      <c r="A36" s="119"/>
       <c r="B36" s="66"/>
       <c r="C36" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="D36" s="100"/>
+      <c r="D36" s="113"/>
       <c r="E36" s="63" t="s">
         <v>130</v>
       </c>
@@ -7436,14 +7427,14 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7" ht="21" customHeight="1">
-      <c r="A37" s="106"/>
+      <c r="A37" s="119"/>
       <c r="B37" s="66" t="s">
         <v>211</v>
       </c>
       <c r="C37" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="D37" s="100"/>
+      <c r="D37" s="113"/>
       <c r="E37" s="63" t="s">
         <v>180</v>
       </c>
@@ -7451,12 +7442,12 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="106"/>
+      <c r="A38" s="119"/>
       <c r="B38" s="66"/>
       <c r="C38" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="D38" s="100"/>
+      <c r="D38" s="113"/>
       <c r="E38" s="63"/>
       <c r="F38" s="60" t="s">
         <v>130</v>
@@ -7464,23 +7455,23 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="106"/>
+      <c r="A39" s="119"/>
       <c r="B39" s="66"/>
       <c r="C39" s="66"/>
-      <c r="D39" s="101"/>
+      <c r="D39" s="114"/>
       <c r="E39" s="63"/>
       <c r="F39" s="60"/>
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="105" t="s">
+      <c r="A40" s="118" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="65"/>
       <c r="C40" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="99"/>
+      <c r="D40" s="112"/>
       <c r="E40" s="62" t="s">
         <v>165</v>
       </c>
@@ -7488,14 +7479,14 @@
       <c r="G40" s="59"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="106"/>
+      <c r="A41" s="119"/>
       <c r="B41" s="66" t="s">
         <v>166</v>
       </c>
       <c r="C41" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="D41" s="100"/>
+      <c r="D41" s="113"/>
       <c r="E41" s="63" t="s">
         <v>168</v>
       </c>
@@ -7503,12 +7494,12 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="106"/>
+      <c r="A42" s="119"/>
       <c r="B42" s="66"/>
       <c r="C42" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="D42" s="100"/>
+      <c r="D42" s="113"/>
       <c r="E42" s="63"/>
       <c r="F42" s="60" t="s">
         <v>170</v>
@@ -7516,32 +7507,32 @@
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="106"/>
+      <c r="A43" s="119"/>
       <c r="B43" s="66"/>
       <c r="C43" s="66"/>
-      <c r="D43" s="100"/>
+      <c r="D43" s="113"/>
       <c r="E43" s="63"/>
       <c r="F43" s="60"/>
       <c r="G43" s="60"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="107"/>
+      <c r="A44" s="120"/>
       <c r="B44" s="67"/>
       <c r="C44" s="67"/>
-      <c r="D44" s="101"/>
+      <c r="D44" s="114"/>
       <c r="E44" s="64"/>
       <c r="F44" s="60"/>
       <c r="G44" s="61"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="106" t="s">
+      <c r="A45" s="119" t="s">
         <v>30</v>
       </c>
       <c r="B45" s="66"/>
       <c r="C45" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D45" s="99" t="s">
+      <c r="D45" s="112" t="s">
         <v>24</v>
       </c>
       <c r="E45" s="65" t="s">
@@ -7551,12 +7542,12 @@
       <c r="G45" s="60"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="106"/>
+      <c r="A46" s="119"/>
       <c r="B46" s="66"/>
       <c r="C46" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D46" s="100"/>
+      <c r="D46" s="113"/>
       <c r="E46" s="66" t="s">
         <v>176</v>
       </c>
@@ -7564,14 +7555,14 @@
       <c r="G46" s="60"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="106"/>
+      <c r="A47" s="119"/>
       <c r="B47" s="66" t="s">
         <v>193</v>
       </c>
       <c r="C47" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="D47" s="100"/>
+      <c r="D47" s="113"/>
       <c r="E47" s="66" t="s">
         <v>176</v>
       </c>
@@ -7579,12 +7570,12 @@
       <c r="G47" s="60"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="106"/>
+      <c r="A48" s="119"/>
       <c r="B48" s="66"/>
       <c r="C48" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="D48" s="100"/>
+      <c r="D48" s="113"/>
       <c r="E48" s="66"/>
       <c r="F48" s="63" t="s">
         <v>194</v>
@@ -7592,10 +7583,10 @@
       <c r="G48" s="60"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="107"/>
+      <c r="A49" s="120"/>
       <c r="B49" s="67"/>
       <c r="C49" s="67"/>
-      <c r="D49" s="101"/>
+      <c r="D49" s="114"/>
       <c r="E49" s="67"/>
       <c r="F49" s="64"/>
       <c r="G49" s="61"/>
@@ -7640,7 +7631,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7655,35 +7646,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="130" t="s">
+      <c r="C1" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="130" t="s">
+      <c r="D1" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="130" t="s">
+      <c r="E1" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="130" t="s">
+      <c r="F1" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="130" t="s">
+      <c r="G1" s="92" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="118" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="124" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -7695,34 +7686,34 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="106"/>
+      <c r="A3" s="119"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="112"/>
+      <c r="D3" s="125"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="107"/>
+      <c r="A4" s="120"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="113"/>
+      <c r="D4" s="126"/>
       <c r="E4" s="58"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="127" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62"/>
-      <c r="D5" s="96" t="s">
+      <c r="D5" s="109" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="63"/>
@@ -7730,12 +7721,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="114"/>
+      <c r="A6" s="127"/>
       <c r="B6" s="66"/>
       <c r="C6" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="96"/>
+      <c r="D6" s="109"/>
       <c r="E6" s="63" t="s">
         <v>218</v>
       </c>
@@ -7743,30 +7734,30 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="114"/>
+      <c r="A7" s="127"/>
       <c r="B7" s="66"/>
       <c r="C7" s="63"/>
-      <c r="D7" s="96"/>
+      <c r="D7" s="109"/>
       <c r="E7" s="63"/>
       <c r="F7" s="60"/>
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="115"/>
+      <c r="A8" s="128"/>
       <c r="B8" s="66"/>
       <c r="C8" s="64"/>
-      <c r="D8" s="96"/>
+      <c r="D8" s="109"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="127" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="62"/>
       <c r="C9" s="57"/>
-      <c r="D9" s="99" t="s">
+      <c r="D9" s="112" t="s">
         <v>142</v>
       </c>
       <c r="E9" s="65"/>
@@ -7774,12 +7765,12 @@
       <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="114"/>
+      <c r="A10" s="127"/>
       <c r="B10" s="63"/>
       <c r="C10" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="D10" s="100"/>
+      <c r="D10" s="113"/>
       <c r="E10" s="66" t="s">
         <v>106</v>
       </c>
@@ -7789,12 +7780,12 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="114"/>
+      <c r="A11" s="127"/>
       <c r="B11" s="63" t="s">
         <v>220</v>
       </c>
       <c r="C11" s="57"/>
-      <c r="D11" s="101"/>
+      <c r="D11" s="114"/>
       <c r="E11" s="67"/>
       <c r="F11" s="63" t="s">
         <v>130</v>
@@ -7802,12 +7793,12 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="105" t="s">
+      <c r="A12" s="118" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="65"/>
       <c r="C12" s="62"/>
-      <c r="D12" s="95" t="s">
+      <c r="D12" s="108" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="66"/>
@@ -7815,12 +7806,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="106"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="66" t="s">
         <v>221</v>
       </c>
       <c r="C13" s="76"/>
-      <c r="D13" s="96"/>
+      <c r="D13" s="109"/>
       <c r="E13" s="66" t="s">
         <v>222</v>
       </c>
@@ -7828,12 +7819,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="106"/>
+      <c r="A14" s="119"/>
       <c r="B14" s="66"/>
       <c r="C14" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="D14" s="96"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="66"/>
       <c r="F14" s="63" t="s">
         <v>222</v>
@@ -7841,62 +7832,62 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="107"/>
+      <c r="A15" s="120"/>
       <c r="B15" s="67"/>
       <c r="C15" s="64"/>
-      <c r="D15" s="96"/>
+      <c r="D15" s="109"/>
       <c r="E15" s="66"/>
       <c r="F15" s="64"/>
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="106" t="s">
+      <c r="A16" s="119" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="63"/>
       <c r="C16" s="57"/>
-      <c r="D16" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="99" t="s">
+      <c r="D16" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="112" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="103">
+      <c r="F16" s="116">
         <v>1</v>
       </c>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="106"/>
+      <c r="A17" s="119"/>
       <c r="B17" s="63" t="s">
         <v>224</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>225</v>
       </c>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="103"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="116"/>
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="106"/>
+      <c r="A18" s="119"/>
       <c r="B18" s="64"/>
       <c r="C18" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="104"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="117"/>
       <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="105" t="s">
+      <c r="A19" s="118" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="66"/>
-      <c r="D19" s="100" t="s">
+      <c r="D19" s="113" t="s">
         <v>227</v>
       </c>
       <c r="E19" s="63"/>
@@ -7904,23 +7895,23 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="106"/>
+      <c r="A20" s="119"/>
       <c r="B20" s="66"/>
       <c r="C20" s="66"/>
-      <c r="D20" s="100"/>
+      <c r="D20" s="113"/>
       <c r="E20" s="63"/>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="106"/>
+      <c r="A21" s="119"/>
       <c r="B21" s="66" t="s">
         <v>228</v>
       </c>
       <c r="C21" s="66" t="s">
         <v>229</v>
       </c>
-      <c r="D21" s="100"/>
+      <c r="D21" s="113"/>
       <c r="E21" s="63" t="s">
         <v>185</v>
       </c>
@@ -7930,34 +7921,34 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="106"/>
+      <c r="A22" s="119"/>
       <c r="B22" s="66" t="s">
         <v>231</v>
       </c>
       <c r="C22" s="66"/>
-      <c r="D22" s="100"/>
+      <c r="D22" s="113"/>
       <c r="E22" s="63"/>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="107"/>
+      <c r="A23" s="120"/>
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
-      <c r="D23" s="101"/>
+      <c r="D23" s="114"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="106" t="s">
+      <c r="A24" s="119" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="78"/>
       <c r="C24" s="62" t="s">
         <v>232</v>
       </c>
-      <c r="D24" s="95" t="s">
+      <c r="D24" s="108" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="65" t="s">
@@ -7967,30 +7958,30 @@
       <c r="G24" s="62"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="106"/>
-      <c r="B25" s="118"/>
+      <c r="A25" s="119"/>
+      <c r="B25" s="83"/>
       <c r="C25" s="63"/>
-      <c r="D25" s="116"/>
+      <c r="D25" s="109"/>
       <c r="E25" s="66"/>
       <c r="F25" s="66"/>
       <c r="G25" s="63"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="106"/>
-      <c r="B26" s="134"/>
+      <c r="A26" s="119"/>
+      <c r="B26" s="95"/>
       <c r="C26" s="64"/>
-      <c r="D26" s="116"/>
+      <c r="D26" s="109"/>
       <c r="E26" s="66"/>
       <c r="F26" s="67"/>
       <c r="G26" s="64"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="105" t="s">
+      <c r="A27" s="118" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="66"/>
       <c r="C27" s="66"/>
-      <c r="D27" s="99" t="s">
+      <c r="D27" s="112" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="62"/>
@@ -7998,14 +7989,14 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="106"/>
+      <c r="A28" s="119"/>
       <c r="B28" s="66" t="s">
         <v>220</v>
       </c>
       <c r="C28" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="D28" s="100"/>
+      <c r="D28" s="113"/>
       <c r="E28" s="63" t="s">
         <v>222</v>
       </c>
@@ -8015,12 +8006,12 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="106"/>
+      <c r="A29" s="119"/>
       <c r="B29" s="66" t="s">
         <v>221</v>
       </c>
       <c r="C29" s="66"/>
-      <c r="D29" s="100"/>
+      <c r="D29" s="113"/>
       <c r="E29" s="64"/>
       <c r="F29" s="60" t="s">
         <v>130</v>
@@ -8028,25 +8019,25 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="105" t="s">
+      <c r="A30" s="118" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="65"/>
       <c r="C30" s="65"/>
-      <c r="D30" s="102"/>
+      <c r="D30" s="115"/>
       <c r="E30" s="60"/>
       <c r="F30" s="59"/>
       <c r="G30" s="59"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="106"/>
+      <c r="A31" s="119"/>
       <c r="B31" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C31" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="D31" s="103"/>
+      <c r="D31" s="116"/>
       <c r="E31" s="60" t="s">
         <v>168</v>
       </c>
@@ -8054,12 +8045,12 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="106"/>
+      <c r="A32" s="119"/>
       <c r="B32" s="66"/>
       <c r="C32" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="D32" s="103"/>
+      <c r="D32" s="116"/>
       <c r="E32" s="60"/>
       <c r="F32" s="60" t="s">
         <v>170</v>
@@ -8067,44 +8058,44 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="106"/>
+      <c r="A33" s="119"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66"/>
-      <c r="D33" s="103"/>
+      <c r="D33" s="116"/>
       <c r="E33" s="60"/>
       <c r="F33" s="60"/>
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="107"/>
+      <c r="A34" s="120"/>
       <c r="B34" s="66"/>
       <c r="C34" s="67"/>
-      <c r="D34" s="104"/>
+      <c r="D34" s="117"/>
       <c r="E34" s="60"/>
       <c r="F34" s="60"/>
       <c r="G34" s="61"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="106" t="s">
+      <c r="A35" s="119" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="62"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="132"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="116" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="93"/>
       <c r="F35" s="62"/>
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="106"/>
+      <c r="A36" s="119"/>
       <c r="B36" s="63"/>
       <c r="C36" s="66" t="s">
         <v>237</v>
       </c>
-      <c r="D36" s="103"/>
-      <c r="E36" s="117" t="s">
+      <c r="D36" s="116"/>
+      <c r="E36" s="57" t="s">
         <v>238</v>
       </c>
       <c r="F36" s="63" t="s">
@@ -8113,35 +8104,47 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="106"/>
+      <c r="A37" s="119"/>
       <c r="B37" s="63" t="s">
         <v>221</v>
       </c>
       <c r="C37" s="46"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="117"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="57"/>
       <c r="F37" s="76"/>
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="106"/>
+      <c r="A38" s="119"/>
       <c r="B38" s="63"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="117"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="57"/>
       <c r="F38" s="76"/>
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="107"/>
+      <c r="A39" s="120"/>
       <c r="B39" s="64"/>
       <c r="C39" s="58"/>
-      <c r="D39" s="104"/>
+      <c r="D39" s="117"/>
       <c r="E39" s="58"/>
       <c r="F39" s="64"/>
       <c r="G39" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="D30:D34"/>
     <mergeCell ref="A35:A39"/>
@@ -8152,18 +8155,6 @@
     <mergeCell ref="D24:D26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="D27:D29"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="D9:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1634" documentId="8_{CF9D9844-FE05-4AE4-8DCD-83B6A181F316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE68245E-A6AF-4AE9-95AE-2223C019F391}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3400B822-54C4-4C4E-993A-C2B87DC52FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="305">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1042,10 +1042,13 @@
     <t xml:space="preserve">                    Explore HLD about dependency, layers,third party integration</t>
   </si>
   <si>
+    <t xml:space="preserve">Softskill session </t>
+  </si>
+  <si>
+    <t>Session with Rafi on HLD and discussed workplan for this week(HLD,HTML Layout,Web API)</t>
+  </si>
+  <si>
     <t>Services in HLD</t>
-  </si>
-  <si>
-    <t>Session with Rafi on HLD and discussed workplan for this week(HLD,HTML Layout,Web API)</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1556,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1777,9 +1780,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1811,9 +1811,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1823,6 +1847,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1841,25 +1868,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1871,6 +1883,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1880,39 +1919,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1925,9 +1931,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1943,9 +1946,21 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2713,8 +2728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44822B4E-5F0D-4AA1-8394-144DB203D40C}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2752,12 +2767,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="118" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="121" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -2769,36 +2784,36 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="122"/>
+      <c r="A3" s="119"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="125"/>
+      <c r="D3" s="122"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="123"/>
+      <c r="A4" s="120"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="126"/>
+      <c r="D4" s="123"/>
       <c r="E4" s="58"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="127" t="s">
+      <c r="A5" s="124" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="101" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="63" t="s">
@@ -2808,12 +2823,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="127"/>
+      <c r="A6" s="124"/>
       <c r="B6" s="66"/>
       <c r="C6" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="D6" s="109"/>
+      <c r="D6" s="101"/>
       <c r="E6" s="63" t="s">
         <v>243</v>
       </c>
@@ -2821,12 +2836,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="127"/>
+      <c r="A7" s="124"/>
       <c r="B7" s="66"/>
       <c r="C7" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="109"/>
+      <c r="D7" s="101"/>
       <c r="E7" s="63" t="s">
         <v>180</v>
       </c>
@@ -2834,21 +2849,21 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="128"/>
+      <c r="A8" s="125"/>
       <c r="B8" s="66"/>
       <c r="C8" s="64"/>
-      <c r="D8" s="109"/>
+      <c r="D8" s="101"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="127" t="s">
+      <c r="A9" s="124" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="62"/>
       <c r="C9" s="57"/>
-      <c r="D9" s="112" t="s">
+      <c r="D9" s="115" t="s">
         <v>142</v>
       </c>
       <c r="E9" s="65"/>
@@ -2856,14 +2871,14 @@
       <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="127"/>
+      <c r="A10" s="124"/>
       <c r="B10" s="63" t="s">
         <v>216</v>
       </c>
       <c r="C10" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="D10" s="113"/>
+      <c r="D10" s="116"/>
       <c r="E10" s="66" t="s">
         <v>106</v>
       </c>
@@ -2873,23 +2888,23 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="128"/>
+      <c r="A11" s="125"/>
       <c r="B11" s="63"/>
       <c r="C11" s="57"/>
-      <c r="D11" s="114"/>
+      <c r="D11" s="117"/>
       <c r="E11" s="67"/>
       <c r="F11" s="64"/>
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="119" t="s">
+      <c r="A12" s="113" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="65"/>
       <c r="C12" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="D12" s="108" t="s">
+      <c r="D12" s="100" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="63">
@@ -2899,12 +2914,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="119"/>
+      <c r="A13" s="113"/>
       <c r="B13" s="66"/>
       <c r="C13" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="109"/>
+      <c r="D13" s="101"/>
       <c r="E13" s="63" t="s">
         <v>230</v>
       </c>
@@ -2912,12 +2927,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="119"/>
+      <c r="A14" s="113"/>
       <c r="B14" s="66"/>
       <c r="C14" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="109"/>
+      <c r="D14" s="101"/>
       <c r="E14" s="63" t="s">
         <v>185</v>
       </c>
@@ -2925,12 +2940,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="119"/>
+      <c r="A15" s="113"/>
       <c r="B15" s="67" t="s">
         <v>248</v>
       </c>
       <c r="C15" s="64"/>
-      <c r="D15" s="109"/>
+      <c r="D15" s="101"/>
       <c r="E15" s="63"/>
       <c r="F15" s="63" t="s">
         <v>194</v>
@@ -2938,50 +2953,50 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="118" t="s">
+      <c r="A16" s="126" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="63"/>
       <c r="C16" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="D16" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="112" t="s">
+      <c r="D16" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="115" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="115">
+      <c r="F16" s="127">
         <v>1</v>
       </c>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="119"/>
+      <c r="A17" s="113"/>
       <c r="B17" s="63" t="s">
         <v>224</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>250</v>
       </c>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="116"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="128"/>
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="119"/>
+      <c r="A18" s="113"/>
       <c r="B18" s="64"/>
       <c r="C18" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="129"/>
       <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="118" t="s">
+      <c r="A19" s="126" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="66" t="s">
@@ -2990,7 +3005,7 @@
       <c r="C19" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="D19" s="113" t="s">
+      <c r="D19" s="116" t="s">
         <v>227</v>
       </c>
       <c r="E19" s="63" t="s">
@@ -3000,14 +3015,14 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="119"/>
+      <c r="A20" s="113"/>
       <c r="B20" s="66" t="s">
         <v>248</v>
       </c>
       <c r="C20" s="66" t="s">
         <v>253</v>
       </c>
-      <c r="D20" s="113"/>
+      <c r="D20" s="116"/>
       <c r="E20" s="63" t="s">
         <v>185</v>
       </c>
@@ -3017,14 +3032,14 @@
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="119"/>
+      <c r="A21" s="113"/>
       <c r="B21" s="66" t="s">
         <v>255</v>
       </c>
       <c r="C21" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="D21" s="113"/>
+      <c r="D21" s="116"/>
       <c r="E21" s="63" t="s">
         <v>252</v>
       </c>
@@ -3032,25 +3047,25 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="119"/>
+      <c r="A22" s="113"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66"/>
-      <c r="D22" s="113"/>
+      <c r="D22" s="116"/>
       <c r="E22" s="63"/>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="120"/>
+      <c r="A23" s="114"/>
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
-      <c r="D23" s="114"/>
+      <c r="D23" s="117"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="119" t="s">
+      <c r="A24" s="113" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="78" t="s">
@@ -3059,7 +3074,7 @@
       <c r="C24" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="D24" s="108" t="s">
+      <c r="D24" s="100" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="62" t="s">
@@ -3071,12 +3086,12 @@
       <c r="G24" s="59"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="119"/>
+      <c r="A25" s="113"/>
       <c r="B25" s="79"/>
       <c r="C25" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D25" s="109"/>
+      <c r="D25" s="101"/>
       <c r="E25" s="63" t="s">
         <v>257</v>
       </c>
@@ -3084,12 +3099,12 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="119"/>
+      <c r="A26" s="113"/>
       <c r="B26" s="80"/>
       <c r="C26" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D26" s="109"/>
+      <c r="D26" s="101"/>
       <c r="E26" s="63" t="s">
         <v>185</v>
       </c>
@@ -3097,21 +3112,21 @@
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="119"/>
+      <c r="A27" s="113"/>
       <c r="B27" s="81"/>
       <c r="C27" s="64"/>
-      <c r="D27" s="110"/>
+      <c r="D27" s="102"/>
       <c r="E27" s="63"/>
       <c r="F27" s="61"/>
       <c r="G27" s="61"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="118" t="s">
+      <c r="A28" s="126" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="66"/>
       <c r="C28" s="66"/>
-      <c r="D28" s="112" t="s">
+      <c r="D28" s="115" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="62"/>
@@ -3119,14 +3134,14 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="119"/>
+      <c r="A29" s="113"/>
       <c r="B29" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C29" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D29" s="113"/>
+      <c r="D29" s="116"/>
       <c r="E29" s="63" t="s">
         <v>106</v>
       </c>
@@ -3134,23 +3149,23 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="119"/>
+      <c r="A30" s="113"/>
       <c r="B30" s="66"/>
       <c r="C30" s="66"/>
-      <c r="D30" s="113"/>
+      <c r="D30" s="116"/>
       <c r="E30" s="64"/>
       <c r="F30" s="60"/>
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="118" t="s">
+      <c r="A31" s="126" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="65"/>
       <c r="C31" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="115"/>
+      <c r="D31" s="127"/>
       <c r="E31" s="60" t="s">
         <v>171</v>
       </c>
@@ -3158,14 +3173,14 @@
       <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="119"/>
+      <c r="A32" s="113"/>
       <c r="B32" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="D32" s="116"/>
+      <c r="D32" s="128"/>
       <c r="E32" s="60" t="s">
         <v>168</v>
       </c>
@@ -3173,12 +3188,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="119"/>
+      <c r="A33" s="113"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66" t="s">
         <v>259</v>
       </c>
-      <c r="D33" s="116"/>
+      <c r="D33" s="128"/>
       <c r="E33" s="60"/>
       <c r="F33" s="60" t="s">
         <v>170</v>
@@ -3186,32 +3201,32 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="119"/>
+      <c r="A34" s="113"/>
       <c r="B34" s="66"/>
       <c r="C34" s="66"/>
-      <c r="D34" s="116"/>
+      <c r="D34" s="128"/>
       <c r="E34" s="60"/>
       <c r="F34" s="60"/>
       <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="120"/>
+      <c r="A35" s="114"/>
       <c r="B35" s="66"/>
       <c r="C35" s="67"/>
-      <c r="D35" s="117"/>
+      <c r="D35" s="129"/>
       <c r="E35" s="60"/>
       <c r="F35" s="60"/>
       <c r="G35" s="61"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="119" t="s">
+      <c r="A36" s="113" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="62"/>
       <c r="C36" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="D36" s="113" t="s">
+      <c r="D36" s="116" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="82" t="s">
@@ -3221,12 +3236,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="119"/>
+      <c r="A37" s="113"/>
       <c r="B37" s="63"/>
       <c r="C37" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="D37" s="113"/>
+      <c r="D37" s="116"/>
       <c r="E37" s="66" t="s">
         <v>170</v>
       </c>
@@ -3234,14 +3249,14 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="119"/>
+      <c r="A38" s="113"/>
       <c r="B38" s="63" t="s">
         <v>248</v>
       </c>
       <c r="C38" s="60" t="s">
         <v>260</v>
       </c>
-      <c r="D38" s="113"/>
+      <c r="D38" s="116"/>
       <c r="E38" s="66" t="s">
         <v>171</v>
       </c>
@@ -3251,28 +3266,38 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="119"/>
+      <c r="A39" s="113"/>
       <c r="B39" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="D39" s="113"/>
+      <c r="D39" s="116"/>
       <c r="E39" s="66"/>
-      <c r="F39" s="94" t="s">
+      <c r="F39" s="93" t="s">
         <v>171</v>
       </c>
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="120"/>
+      <c r="A40" s="114"/>
       <c r="B40" s="64"/>
       <c r="C40" s="58"/>
-      <c r="D40" s="114"/>
+      <c r="D40" s="117"/>
       <c r="E40" s="67"/>
       <c r="F40" s="64"/>
       <c r="G40" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="D28:D30"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -3285,16 +3310,6 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="E16:E18"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="D28:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3302,10 +3317,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CD1CE-B6FA-48B8-A6CC-4149467C6873}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3343,12 +3358,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="118" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="121" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -3360,53 +3375,53 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="122"/>
+      <c r="A3" s="119"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="125"/>
+      <c r="D3" s="122"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="123"/>
+      <c r="A4" s="120"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
-      <c r="D4" s="126"/>
+      <c r="D4" s="123"/>
       <c r="E4" s="57"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="127" t="s">
+      <c r="A5" s="124" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="113" t="s">
+      <c r="D5" s="116" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="83" t="s">
         <v>173</v>
       </c>
       <c r="F5" s="60"/>
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="127"/>
+      <c r="A6" s="124"/>
       <c r="B6" s="66" t="s">
         <v>255</v>
       </c>
       <c r="C6" s="66" t="s">
         <v>262</v>
       </c>
-      <c r="D6" s="113"/>
+      <c r="D6" s="116"/>
       <c r="E6" s="63" t="s">
         <v>263</v>
       </c>
@@ -3414,12 +3429,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="127"/>
+      <c r="A7" s="124"/>
       <c r="B7" s="66"/>
       <c r="C7" s="66" t="s">
         <v>264</v>
       </c>
-      <c r="D7" s="113"/>
+      <c r="D7" s="116"/>
       <c r="E7" s="63" t="s">
         <v>263</v>
       </c>
@@ -3427,12 +3442,12 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="127"/>
+      <c r="A8" s="124"/>
       <c r="B8" s="66" t="s">
         <v>265</v>
       </c>
       <c r="C8" s="66"/>
-      <c r="D8" s="113"/>
+      <c r="D8" s="116"/>
       <c r="E8" s="63" t="s">
         <v>241</v>
       </c>
@@ -3440,12 +3455,12 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="128"/>
+      <c r="A9" s="125"/>
       <c r="B9" s="66" t="s">
         <v>266</v>
       </c>
       <c r="C9" s="66"/>
-      <c r="D9" s="113"/>
+      <c r="D9" s="116"/>
       <c r="E9" s="64" t="s">
         <v>241</v>
       </c>
@@ -3453,31 +3468,31 @@
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="127" t="s">
+      <c r="A10" s="124" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="62"/>
       <c r="C10" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D10" s="112" t="s">
+      <c r="D10" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="85" t="s">
+      <c r="E10" s="84" t="s">
         <v>173</v>
       </c>
       <c r="F10" s="62"/>
       <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="127"/>
+      <c r="A11" s="124"/>
       <c r="B11" s="63" t="s">
         <v>267</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="D11" s="113"/>
+      <c r="D11" s="116"/>
       <c r="E11" s="63" t="s">
         <v>263</v>
       </c>
@@ -3487,14 +3502,14 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="128"/>
-      <c r="B12" s="64" t="s">
+      <c r="A12" s="125"/>
+      <c r="B12" s="63" t="s">
         <v>269</v>
       </c>
       <c r="C12" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="D12" s="114"/>
+      <c r="D12" s="117"/>
       <c r="E12" s="66"/>
       <c r="F12" s="64" t="s">
         <v>180</v>
@@ -3502,19 +3517,19 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="119" t="s">
+      <c r="A13" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="144" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="108" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="84" t="s">
+      <c r="D13" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="83" t="s">
         <v>173</v>
       </c>
       <c r="F13" s="59" t="s">
@@ -3523,12 +3538,12 @@
       <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="119"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="63" t="s">
+      <c r="A14" s="113"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="D14" s="109"/>
+      <c r="D14" s="101"/>
       <c r="E14" s="63" t="s">
         <v>273</v>
       </c>
@@ -3536,392 +3551,383 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="119"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="63" t="s">
+      <c r="A15" s="113"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="D15" s="109"/>
-      <c r="E15" s="63" t="s">
+      <c r="D15" s="101"/>
+      <c r="E15" s="64" t="s">
         <v>173</v>
       </c>
       <c r="F15" s="60"/>
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="119"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
+      <c r="A16" s="126" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="63"/>
+      <c r="C16" s="62" t="s">
+        <v>275</v>
+      </c>
+      <c r="D16" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="116" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="127">
+        <v>1</v>
+      </c>
+      <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="118" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="62" t="s">
-        <v>275</v>
-      </c>
-      <c r="D17" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="113" t="s">
-        <v>156</v>
-      </c>
-      <c r="F17" s="115">
-        <v>1</v>
-      </c>
-      <c r="G17" s="59"/>
+      <c r="A17" s="113"/>
+      <c r="B17" s="63" t="s">
+        <v>276</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="D17" s="116"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="119"/>
-      <c r="B18" s="63" t="s">
-        <v>276</v>
-      </c>
-      <c r="C18" s="77" t="s">
-        <v>277</v>
-      </c>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="60"/>
+      <c r="A18" s="113"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="58" t="s">
+        <v>278</v>
+      </c>
+      <c r="D18" s="117"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="119"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="58" t="s">
-        <v>278</v>
-      </c>
-      <c r="D19" s="114"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="61"/>
+      <c r="A19" s="126" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="62"/>
+      <c r="C19" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="D19" s="116" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" s="83" t="s">
+        <v>173</v>
+      </c>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="118" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="59" t="s">
-        <v>261</v>
-      </c>
-      <c r="D20" s="113" t="s">
-        <v>227</v>
-      </c>
-      <c r="E20" s="84" t="s">
-        <v>173</v>
+      <c r="A20" s="113"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="57" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="116"/>
+      <c r="E20" s="63" t="s">
+        <v>185</v>
       </c>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="119"/>
-      <c r="B21" s="63"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="76"/>
       <c r="C21" s="57" t="s">
-        <v>279</v>
-      </c>
-      <c r="D21" s="113"/>
-      <c r="E21" s="63" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" s="116"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="F21" s="60"/>
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="119"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="57" t="s">
-        <v>271</v>
-      </c>
-      <c r="D22" s="113"/>
+      <c r="A22" s="113"/>
+      <c r="B22" s="63" t="s">
+        <v>255</v>
+      </c>
+      <c r="C22" s="57"/>
+      <c r="D22" s="116"/>
       <c r="E22" s="63"/>
       <c r="F22" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="G22" s="60"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="130" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="85"/>
+      <c r="C23" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="D23" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="83" t="s">
+        <v>173</v>
+      </c>
+      <c r="F23" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="G22" s="60"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="119"/>
-      <c r="B23" s="63" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="60" t="s">
-        <v>222</v>
-      </c>
-      <c r="G23" s="60"/>
+      <c r="G23" s="59"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="129" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="86"/>
-      <c r="C24" s="59" t="s">
-        <v>261</v>
-      </c>
-      <c r="D24" s="108" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="84" t="s">
+      <c r="A24" s="131"/>
+      <c r="B24" s="86" t="s">
+        <v>271</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>272</v>
+      </c>
+      <c r="D24" s="101"/>
+      <c r="E24" s="63" t="s">
+        <v>273</v>
+      </c>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="131"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="60" t="s">
+        <v>274</v>
+      </c>
+      <c r="D25" s="101"/>
+      <c r="E25" s="63" t="s">
         <v>173</v>
-      </c>
-      <c r="F24" s="59" t="s">
-        <v>185</v>
-      </c>
-      <c r="G24" s="59"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="130"/>
-      <c r="B25" s="87" t="s">
-        <v>271</v>
-      </c>
-      <c r="C25" s="60" t="s">
-        <v>272</v>
-      </c>
-      <c r="D25" s="109"/>
-      <c r="E25" s="63" t="s">
-        <v>273</v>
       </c>
       <c r="F25" s="60"/>
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="130"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="D26" s="109"/>
-      <c r="E26" s="63" t="s">
-        <v>173</v>
-      </c>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
+      <c r="A26" s="132"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="131"/>
-      <c r="B27" s="133"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
+      <c r="A27" s="113" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="62"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="127" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="119" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="132"/>
-      <c r="D28" s="115" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="60"/>
+      <c r="A28" s="113"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="D28" s="128"/>
+      <c r="E28" s="60" t="s">
+        <v>180</v>
+      </c>
       <c r="F28" s="60"/>
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="119"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="132" t="s">
-        <v>280</v>
-      </c>
-      <c r="D29" s="116"/>
+      <c r="A29" s="113"/>
+      <c r="B29" s="63" t="s">
+        <v>269</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>281</v>
+      </c>
+      <c r="D29" s="128"/>
       <c r="E29" s="60" t="s">
         <v>180</v>
       </c>
-      <c r="F29" s="60"/>
+      <c r="F29" s="60" t="s">
+        <v>130</v>
+      </c>
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="119"/>
-      <c r="B30" s="63" t="s">
-        <v>269</v>
-      </c>
-      <c r="C30" s="132" t="s">
-        <v>281</v>
-      </c>
-      <c r="D30" s="116"/>
-      <c r="E30" s="60" t="s">
-        <v>180</v>
-      </c>
+      <c r="A30" s="89"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="57" t="s">
+        <v>282</v>
+      </c>
+      <c r="D30" s="64"/>
+      <c r="E30" s="60"/>
       <c r="F30" s="60" t="s">
         <v>130</v>
       </c>
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="90"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="132" t="s">
-        <v>282</v>
-      </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="G31" s="60"/>
+      <c r="A31" s="113" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="66"/>
+      <c r="C31" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="D31" s="116"/>
+      <c r="E31" s="83" t="s">
+        <v>173</v>
+      </c>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="119" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="66"/>
-      <c r="C32" s="62" t="s">
-        <v>261</v>
-      </c>
-      <c r="D32" s="113"/>
-      <c r="E32" s="84" t="s">
-        <v>173</v>
-      </c>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
+      <c r="A32" s="113"/>
+      <c r="B32" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="68" t="s">
+        <v>283</v>
+      </c>
+      <c r="D32" s="116"/>
+      <c r="E32" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="119"/>
-      <c r="B33" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="68" t="s">
-        <v>283</v>
-      </c>
-      <c r="D33" s="113"/>
-      <c r="E33" s="63" t="s">
-        <v>168</v>
-      </c>
-      <c r="F33" s="60"/>
+      <c r="A33" s="113"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66" t="s">
+        <v>236</v>
+      </c>
+      <c r="D33" s="116"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="60" t="s">
+        <v>170</v>
+      </c>
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="119"/>
+      <c r="A34" s="113"/>
       <c r="B34" s="66"/>
-      <c r="C34" s="66" t="s">
-        <v>236</v>
-      </c>
-      <c r="D34" s="113"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="116"/>
       <c r="E34" s="63"/>
-      <c r="F34" s="60" t="s">
-        <v>170</v>
-      </c>
+      <c r="F34" s="60"/>
       <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="119"/>
+      <c r="A35" s="114"/>
       <c r="B35" s="66"/>
       <c r="C35" s="66"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="63"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="64"/>
       <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
+      <c r="G35" s="61"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="120"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="114"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="61"/>
+      <c r="A36" s="113" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="62"/>
+      <c r="C36" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="D36" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="84" t="s">
+        <v>173</v>
+      </c>
+      <c r="F36" s="62"/>
+      <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="119" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="62"/>
-      <c r="C37" s="59" t="s">
-        <v>261</v>
-      </c>
-      <c r="D37" s="108" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="85" t="s">
-        <v>173</v>
-      </c>
-      <c r="F37" s="62"/>
+      <c r="A37" s="113"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="60" t="s">
+        <v>284</v>
+      </c>
+      <c r="D37" s="101"/>
+      <c r="E37" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="F37" s="63"/>
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="119"/>
-      <c r="B38" s="63"/>
+      <c r="A38" s="113"/>
+      <c r="B38" s="63" t="s">
+        <v>248</v>
+      </c>
       <c r="C38" s="60" t="s">
-        <v>284</v>
-      </c>
-      <c r="D38" s="109"/>
+        <v>285</v>
+      </c>
+      <c r="D38" s="101"/>
       <c r="E38" s="66" t="s">
-        <v>238</v>
-      </c>
-      <c r="F38" s="63"/>
+        <v>170</v>
+      </c>
+      <c r="F38" s="63" t="s">
+        <v>241</v>
+      </c>
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="119"/>
-      <c r="B39" s="63" t="s">
-        <v>248</v>
-      </c>
-      <c r="C39" s="60" t="s">
-        <v>285</v>
-      </c>
-      <c r="D39" s="109"/>
-      <c r="E39" s="66" t="s">
+      <c r="A39" s="113"/>
+      <c r="B39" s="138" t="s">
+        <v>228</v>
+      </c>
+      <c r="C39" s="49"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="93" t="s">
         <v>170</v>
       </c>
-      <c r="F39" s="63" t="s">
-        <v>241</v>
-      </c>
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="119"/>
-      <c r="B40" s="138" t="s">
-        <v>228</v>
-      </c>
-      <c r="C40" s="49"/>
-      <c r="D40" s="109"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="94" t="s">
-        <v>170</v>
-      </c>
-      <c r="G40" s="60"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="120"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="61"/>
+      <c r="A40" s="114"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="F16:F18"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="D5:D9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="D10:D12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3931,8 +3937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53787AF6-DADA-4A12-9844-18CC696737AE}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3947,35 +3953,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="G1" s="91" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="126" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="121" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -3987,53 +3993,53 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="119"/>
+      <c r="A3" s="113"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="125"/>
+      <c r="D3" s="122"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="120"/>
+      <c r="A4" s="114"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="126"/>
+      <c r="D4" s="123"/>
       <c r="E4" s="57"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="127" t="s">
+      <c r="A5" s="124" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="101" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="83" t="s">
         <v>173</v>
       </c>
       <c r="F5" s="60"/>
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="127"/>
+      <c r="A6" s="124"/>
       <c r="B6" s="66" t="s">
         <v>228</v>
       </c>
       <c r="C6" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="D6" s="109"/>
+      <c r="D6" s="101"/>
       <c r="E6" s="63" t="s">
         <v>241</v>
       </c>
@@ -4041,58 +4047,58 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="127"/>
+      <c r="A7" s="124"/>
       <c r="B7" s="66"/>
       <c r="C7" s="63"/>
-      <c r="D7" s="109"/>
+      <c r="D7" s="101"/>
       <c r="E7" s="63"/>
       <c r="F7" s="60"/>
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="127"/>
+      <c r="A8" s="124"/>
       <c r="B8" s="66"/>
       <c r="C8" s="63"/>
-      <c r="D8" s="109"/>
+      <c r="D8" s="101"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="128"/>
+      <c r="A9" s="125"/>
       <c r="B9" s="66"/>
       <c r="C9" s="64"/>
-      <c r="D9" s="109"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="64"/>
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="127" t="s">
+      <c r="A10" s="124" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="62"/>
       <c r="C10" s="63" t="s">
         <v>287</v>
       </c>
-      <c r="D10" s="112" t="s">
+      <c r="D10" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="85" t="s">
+      <c r="E10" s="84" t="s">
         <v>173</v>
       </c>
       <c r="F10" s="62"/>
       <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="127"/>
+      <c r="A11" s="124"/>
       <c r="B11" s="63" t="s">
         <v>288</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="D11" s="113"/>
+      <c r="D11" s="116"/>
       <c r="E11" s="63" t="s">
         <v>130</v>
       </c>
@@ -4102,14 +4108,14 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="128"/>
+      <c r="A12" s="125"/>
       <c r="B12" s="64" t="s">
         <v>269</v>
       </c>
       <c r="C12" s="69" t="s">
         <v>290</v>
       </c>
-      <c r="D12" s="113"/>
+      <c r="D12" s="116"/>
       <c r="E12" s="67" t="s">
         <v>291</v>
       </c>
@@ -4119,14 +4125,14 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="119" t="s">
+      <c r="A13" s="113" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="68"/>
       <c r="C13" s="65" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="115" t="s">
+      <c r="D13" s="127" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="77" t="s">
@@ -4138,23 +4144,23 @@
       <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="119"/>
+      <c r="A14" s="113"/>
       <c r="B14" s="68"/>
       <c r="C14" s="60" t="s">
         <v>292</v>
       </c>
-      <c r="D14" s="116"/>
+      <c r="D14" s="128"/>
       <c r="E14" s="77"/>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="119"/>
+      <c r="A15" s="113"/>
       <c r="B15" s="66"/>
       <c r="C15" s="66" t="s">
         <v>293</v>
       </c>
-      <c r="D15" s="116"/>
+      <c r="D15" s="128"/>
       <c r="E15" s="60" t="s">
         <v>130</v>
       </c>
@@ -4162,12 +4168,12 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="119"/>
+      <c r="A16" s="113"/>
       <c r="B16" s="66"/>
       <c r="C16" s="66" t="s">
         <v>294</v>
       </c>
-      <c r="D16" s="116"/>
+      <c r="D16" s="128"/>
       <c r="E16" s="60" t="s">
         <v>295</v>
       </c>
@@ -4175,12 +4181,12 @@
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="119"/>
+      <c r="A17" s="113"/>
       <c r="B17" s="67"/>
       <c r="C17" s="67" t="s">
         <v>296</v>
       </c>
-      <c r="D17" s="117"/>
+      <c r="D17" s="129"/>
       <c r="E17" s="60" t="s">
         <v>297</v>
       </c>
@@ -4188,72 +4194,72 @@
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="118" t="s">
+      <c r="A18" s="126" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="63"/>
       <c r="C18" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D18" s="113" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="112" t="s">
+      <c r="D18" s="116" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="115" t="s">
         <v>156</v>
       </c>
-      <c r="F18" s="115">
+      <c r="F18" s="127">
         <v>1</v>
       </c>
       <c r="G18" s="59"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="119"/>
+      <c r="A19" s="113"/>
       <c r="B19" s="63" t="s">
         <v>298</v>
       </c>
       <c r="C19" s="77" t="s">
         <v>299</v>
       </c>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="128"/>
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="119"/>
+      <c r="A20" s="113"/>
       <c r="B20" s="63"/>
       <c r="C20" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="D20" s="114"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="129"/>
       <c r="G20" s="61"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="118" t="s">
+      <c r="A21" s="126" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="62"/>
       <c r="C21" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D21" s="113" t="s">
+      <c r="D21" s="116" t="s">
         <v>227</v>
       </c>
-      <c r="E21" s="84" t="s">
+      <c r="E21" s="83" t="s">
         <v>173</v>
       </c>
       <c r="F21" s="60"/>
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="119"/>
+      <c r="A22" s="113"/>
       <c r="B22" s="63"/>
       <c r="C22" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="D22" s="113"/>
+      <c r="D22" s="116"/>
       <c r="E22" s="63" t="s">
         <v>185</v>
       </c>
@@ -4261,12 +4267,12 @@
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="119"/>
+      <c r="A23" s="113"/>
       <c r="B23" s="76"/>
       <c r="C23" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="D23" s="113"/>
+      <c r="D23" s="116"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60" t="s">
         <v>185</v>
@@ -4274,12 +4280,12 @@
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="119"/>
+      <c r="A24" s="113"/>
       <c r="B24" s="63" t="s">
         <v>255</v>
       </c>
       <c r="C24" s="57"/>
-      <c r="D24" s="113"/>
+      <c r="D24" s="116"/>
       <c r="E24" s="63"/>
       <c r="F24" s="60" t="s">
         <v>222</v>
@@ -4287,17 +4293,17 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="129" t="s">
+      <c r="A25" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="86"/>
+      <c r="B25" s="85"/>
       <c r="C25" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D25" s="108" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="84" t="s">
+      <c r="D25" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="83" t="s">
         <v>173</v>
       </c>
       <c r="F25" s="59" t="s">
@@ -4319,12 +4325,12 @@
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="130"/>
-      <c r="B27" s="87"/>
+      <c r="A27" s="131"/>
+      <c r="B27" s="86"/>
       <c r="C27" s="63" t="s">
         <v>293</v>
       </c>
-      <c r="D27" s="109"/>
+      <c r="D27" s="101"/>
       <c r="E27" s="63" t="s">
         <v>130</v>
       </c>
@@ -4332,12 +4338,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="130"/>
-      <c r="B28" s="88"/>
+      <c r="A28" s="131"/>
+      <c r="B28" s="87"/>
       <c r="C28" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="D28" s="109"/>
+      <c r="D28" s="101"/>
       <c r="E28" s="63" t="s">
         <v>295</v>
       </c>
@@ -4345,12 +4351,12 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="131"/>
-      <c r="B29" s="89"/>
+      <c r="A29" s="132"/>
+      <c r="B29" s="88"/>
       <c r="C29" s="64" t="s">
         <v>296</v>
       </c>
-      <c r="D29" s="109"/>
+      <c r="D29" s="101"/>
       <c r="E29" s="64" t="s">
         <v>297</v>
       </c>
@@ -4358,14 +4364,14 @@
       <c r="G29" s="61"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="119" t="s">
+      <c r="A30" s="113" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="66"/>
       <c r="C30" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="D30" s="115" t="s">
+      <c r="D30" s="127" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="60" t="s">
@@ -4375,12 +4381,12 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="119"/>
+      <c r="A31" s="113"/>
       <c r="B31" s="66"/>
       <c r="C31" s="66" t="s">
         <v>289</v>
       </c>
-      <c r="D31" s="116"/>
+      <c r="D31" s="128"/>
       <c r="E31" s="60"/>
       <c r="F31" s="60" t="s">
         <v>130</v>
@@ -4388,14 +4394,14 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="119"/>
+      <c r="A32" s="113"/>
       <c r="B32" s="66" t="s">
         <v>255</v>
       </c>
       <c r="C32" s="134" t="s">
         <v>301</v>
       </c>
-      <c r="D32" s="116"/>
+      <c r="D32" s="128"/>
       <c r="E32" s="60" t="s">
         <v>191</v>
       </c>
@@ -4403,7 +4409,7 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="90"/>
+      <c r="A33" s="89"/>
       <c r="B33" s="57"/>
       <c r="C33" s="66" t="s">
         <v>290</v>
@@ -4416,31 +4422,31 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="119" t="s">
+      <c r="A34" s="113" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="65"/>
       <c r="C34" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D34" s="113" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="84" t="s">
+      <c r="D34" s="116" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="83" t="s">
         <v>173</v>
       </c>
       <c r="F34" s="59"/>
       <c r="G34" s="59"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="119"/>
+      <c r="A35" s="113"/>
       <c r="B35" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C35" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="D35" s="113"/>
+      <c r="D35" s="116"/>
       <c r="E35" s="63" t="s">
         <v>168</v>
       </c>
@@ -4448,12 +4454,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="119"/>
+      <c r="A36" s="113"/>
       <c r="B36" s="66"/>
       <c r="C36" s="66" t="s">
-        <v>236</v>
-      </c>
-      <c r="D36" s="113"/>
+        <v>302</v>
+      </c>
+      <c r="D36" s="116"/>
       <c r="E36" s="63"/>
       <c r="F36" s="60" t="s">
         <v>170</v>
@@ -4461,32 +4467,36 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="119"/>
+      <c r="A37" s="113"/>
       <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="63"/>
+      <c r="C37" s="66" t="s">
+        <v>290</v>
+      </c>
+      <c r="D37" s="116"/>
+      <c r="E37" s="63" t="s">
+        <v>297</v>
+      </c>
       <c r="F37" s="60"/>
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="120"/>
+      <c r="A38" s="114"/>
       <c r="B38" s="67"/>
       <c r="C38" s="66"/>
-      <c r="D38" s="113"/>
+      <c r="D38" s="116"/>
       <c r="E38" s="64"/>
       <c r="F38" s="60"/>
       <c r="G38" s="61"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="119" t="s">
+      <c r="A39" s="113" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="66"/>
-      <c r="C39" s="65" t="s">
+      <c r="C39" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D39" s="115" t="s">
+      <c r="D39" s="141" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="140" t="s">
@@ -4496,28 +4506,28 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="119"/>
+      <c r="A40" s="113"/>
       <c r="B40" s="66"/>
-      <c r="C40" s="66" t="s">
+      <c r="C40" s="63" t="s">
         <v>293</v>
       </c>
-      <c r="D40" s="116"/>
-      <c r="E40" s="132" t="s">
+      <c r="D40" s="142"/>
+      <c r="E40" s="133" t="s">
         <v>170</v>
       </c>
       <c r="F40" s="63"/>
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="119"/>
+      <c r="A41" s="113"/>
       <c r="B41" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="C41" s="66" t="s">
-        <v>302</v>
-      </c>
-      <c r="D41" s="116"/>
-      <c r="E41" s="132" t="s">
+      <c r="C41" s="63" t="s">
+        <v>303</v>
+      </c>
+      <c r="D41" s="142"/>
+      <c r="E41" s="133" t="s">
         <v>171</v>
       </c>
       <c r="F41" s="63" t="s">
@@ -4526,23 +4536,23 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="119"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="66" t="s">
-        <v>303</v>
-      </c>
-      <c r="D42" s="116"/>
-      <c r="E42" s="132" t="s">
+      <c r="A42" s="113"/>
+      <c r="B42" s="66" t="s">
+        <v>304</v>
+      </c>
+      <c r="C42" s="76"/>
+      <c r="D42" s="142"/>
+      <c r="E42" s="133" t="s">
         <v>291</v>
       </c>
       <c r="F42" s="76"/>
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="120"/>
+      <c r="A43" s="114"/>
       <c r="B43" s="67"/>
       <c r="C43" s="139"/>
-      <c r="D43" s="117"/>
+      <c r="D43" s="143"/>
       <c r="E43" s="58"/>
       <c r="F43" s="64"/>
       <c r="G43" s="61"/>
@@ -6322,7 +6332,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="107" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="47" t="s">
@@ -6331,7 +6341,7 @@
       <c r="C2" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="103" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="52" t="s">
@@ -6343,14 +6353,14 @@
       <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="100"/>
+      <c r="A3" s="108"/>
       <c r="B3" t="s">
         <v>128</v>
       </c>
       <c r="C3" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="97"/>
+      <c r="D3" s="104"/>
       <c r="E3" s="46" t="s">
         <v>130</v>
       </c>
@@ -6358,11 +6368,11 @@
       <c r="G3" s="49"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="100"/>
+      <c r="A4" s="108"/>
       <c r="C4" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="97"/>
+      <c r="D4" s="104"/>
       <c r="E4" s="46" t="s">
         <v>132</v>
       </c>
@@ -6370,12 +6380,12 @@
       <c r="G4" s="49"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="101"/>
+      <c r="A5" s="109"/>
       <c r="B5" s="50"/>
       <c r="C5" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="98"/>
+      <c r="D5" s="105"/>
       <c r="E5" s="55" t="s">
         <v>132</v>
       </c>
@@ -6383,7 +6393,7 @@
       <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B6" t="s">
@@ -6392,7 +6402,7 @@
       <c r="C6" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="103" t="s">
         <v>137</v>
       </c>
       <c r="E6" s="46" t="s">
@@ -6402,11 +6412,11 @@
       <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="102"/>
+      <c r="A7" s="110"/>
       <c r="C7" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="97"/>
+      <c r="D7" s="104"/>
       <c r="E7" s="46" t="s">
         <v>118</v>
       </c>
@@ -6414,22 +6424,22 @@
       <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="102"/>
-      <c r="D8" s="97"/>
+      <c r="A8" s="110"/>
+      <c r="D8" s="104"/>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
       <c r="G8" s="49"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="102"/>
-      <c r="D9" s="97"/>
+      <c r="A9" s="110"/>
+      <c r="D9" s="104"/>
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
       <c r="G9" s="49"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="103"/>
-      <c r="D10" s="98"/>
+      <c r="A10" s="111"/>
+      <c r="D10" s="105"/>
       <c r="E10" s="46" t="s">
         <v>140</v>
       </c>
@@ -6437,7 +6447,7 @@
       <c r="G10" s="49"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="112" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -6446,7 +6456,7 @@
       <c r="C11" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="96" t="s">
+      <c r="D11" s="103" t="s">
         <v>142</v>
       </c>
       <c r="E11" s="52" t="s">
@@ -6456,11 +6466,11 @@
       <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="104"/>
+      <c r="A12" s="112"/>
       <c r="C12" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="97"/>
+      <c r="D12" s="104"/>
       <c r="E12" s="46"/>
       <c r="F12" s="46" t="s">
         <v>143</v>
@@ -6468,14 +6478,14 @@
       <c r="G12" s="49"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="104"/>
+      <c r="A13" s="112"/>
       <c r="B13" t="s">
         <v>145</v>
       </c>
       <c r="C13" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="97"/>
+      <c r="D13" s="104"/>
       <c r="E13" s="46" t="s">
         <v>143</v>
       </c>
@@ -6483,24 +6493,24 @@
       <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="104"/>
+      <c r="A14" s="112"/>
       <c r="C14" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="97"/>
+      <c r="D14" s="104"/>
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
       <c r="G14" s="49"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="104"/>
-      <c r="D15" s="98"/>
+      <c r="A15" s="112"/>
+      <c r="D15" s="105"/>
       <c r="E15" s="46"/>
       <c r="F15" s="46"/>
       <c r="G15" s="49"/>
     </row>
     <row r="16" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A16" s="105" t="s">
+      <c r="A16" s="97" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="47" t="s">
@@ -6509,7 +6519,7 @@
       <c r="C16" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="96" t="s">
+      <c r="D16" s="103" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="52" t="s">
@@ -6519,11 +6529,11 @@
       <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A17" s="106"/>
+      <c r="A17" s="98"/>
       <c r="C17" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="97"/>
+      <c r="D17" s="104"/>
       <c r="E17" s="46">
         <v>1.5</v>
       </c>
@@ -6531,11 +6541,11 @@
       <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A18" s="106"/>
+      <c r="A18" s="98"/>
       <c r="C18" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="97"/>
+      <c r="D18" s="104"/>
       <c r="E18" s="46"/>
       <c r="F18" s="46">
         <v>1.5</v>
@@ -6543,11 +6553,11 @@
       <c r="G18" s="49"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A19" s="106"/>
+      <c r="A19" s="98"/>
       <c r="C19" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="98"/>
+      <c r="D19" s="105"/>
       <c r="E19" s="46"/>
       <c r="F19" s="57">
         <v>0.5</v>
@@ -6555,7 +6565,7 @@
       <c r="G19" s="49"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="105" t="s">
+      <c r="A20" s="97" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="47" t="s">
@@ -6570,7 +6580,7 @@
       <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="106"/>
+      <c r="A21" s="98"/>
       <c r="C21" t="s">
         <v>154</v>
       </c>
@@ -6580,7 +6590,7 @@
       <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="107"/>
+      <c r="A22" s="99"/>
       <c r="B22" s="50"/>
       <c r="C22" s="50" t="s">
         <v>155</v>
@@ -6595,7 +6605,7 @@
       <c r="G22" s="51"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="111" t="s">
+      <c r="A23" s="106" t="s">
         <v>28</v>
       </c>
       <c r="B23" t="s">
@@ -6604,7 +6614,7 @@
       <c r="C23" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="96"/>
+      <c r="D23" s="103"/>
       <c r="E23" s="46" t="s">
         <v>158</v>
       </c>
@@ -6612,11 +6622,11 @@
       <c r="G23" s="49"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="111"/>
+      <c r="A24" s="106"/>
       <c r="C24" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="97"/>
+      <c r="D24" s="104"/>
       <c r="E24" s="46">
         <v>2</v>
       </c>
@@ -6624,11 +6634,11 @@
       <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="111"/>
+      <c r="A25" s="106"/>
       <c r="C25" t="s">
         <v>151</v>
       </c>
-      <c r="D25" s="97"/>
+      <c r="D25" s="104"/>
       <c r="E25" s="46">
         <v>1</v>
       </c>
@@ -6636,11 +6646,11 @@
       <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="111"/>
+      <c r="A26" s="106"/>
       <c r="C26" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="98"/>
+      <c r="D26" s="105"/>
       <c r="E26" s="46">
         <v>1</v>
       </c>
@@ -6648,7 +6658,7 @@
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="105" t="s">
+      <c r="A27" s="97" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="47" t="s">
@@ -6657,7 +6667,7 @@
       <c r="C27" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="96" t="s">
+      <c r="D27" s="103" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="52" t="s">
@@ -6667,14 +6677,14 @@
       <c r="G27" s="48"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="106"/>
+      <c r="A28" s="98"/>
       <c r="B28" s="45" t="s">
         <v>128</v>
       </c>
       <c r="C28" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="97"/>
+      <c r="D28" s="104"/>
       <c r="E28" s="46" t="s">
         <v>130</v>
       </c>
@@ -6682,11 +6692,11 @@
       <c r="G28" s="49"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="106"/>
+      <c r="A29" s="98"/>
       <c r="C29" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="97"/>
+      <c r="D29" s="104"/>
       <c r="E29" s="46" t="s">
         <v>132</v>
       </c>
@@ -6694,12 +6704,12 @@
       <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A30" s="106"/>
+      <c r="A30" s="98"/>
       <c r="B30" s="50"/>
       <c r="C30" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="D30" s="98"/>
+      <c r="D30" s="105"/>
       <c r="E30" s="55" t="s">
         <v>132</v>
       </c>
@@ -6707,10 +6717,10 @@
       <c r="G30" s="51"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="105" t="s">
+      <c r="A31" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="108" t="s">
+      <c r="D31" s="100" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="46"/>
@@ -6718,14 +6728,14 @@
       <c r="G31" s="49"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="106"/>
+      <c r="A32" s="98"/>
       <c r="B32" t="s">
         <v>161</v>
       </c>
       <c r="C32" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="109"/>
+      <c r="D32" s="101"/>
       <c r="E32" s="46" t="s">
         <v>138</v>
       </c>
@@ -6733,14 +6743,14 @@
       <c r="G32" s="49"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="106"/>
+      <c r="A33" s="98"/>
       <c r="B33" t="s">
         <v>135</v>
       </c>
       <c r="C33" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="109"/>
+      <c r="D33" s="101"/>
       <c r="E33" s="46" t="s">
         <v>130</v>
       </c>
@@ -6748,28 +6758,28 @@
       <c r="G33" s="49"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="106"/>
-      <c r="D34" s="109"/>
+      <c r="A34" s="98"/>
+      <c r="D34" s="101"/>
       <c r="E34" s="46"/>
       <c r="F34" s="46"/>
       <c r="G34" s="49"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="106"/>
-      <c r="D35" s="110"/>
+      <c r="A35" s="98"/>
+      <c r="D35" s="102"/>
       <c r="E35" s="46"/>
       <c r="F35" s="46"/>
       <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="105" t="s">
+      <c r="A36" s="97" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="47"/>
       <c r="C36" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="D36" s="96"/>
+      <c r="D36" s="103"/>
       <c r="E36" s="52" t="s">
         <v>165</v>
       </c>
@@ -6777,14 +6787,14 @@
       <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="106"/>
+      <c r="A37" s="98"/>
       <c r="B37" t="s">
         <v>166</v>
       </c>
       <c r="C37" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="D37" s="97"/>
+      <c r="D37" s="104"/>
       <c r="E37" s="46" t="s">
         <v>168</v>
       </c>
@@ -6792,11 +6802,11 @@
       <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="106"/>
+      <c r="A38" s="98"/>
       <c r="C38" t="s">
         <v>169</v>
       </c>
-      <c r="D38" s="97"/>
+      <c r="D38" s="104"/>
       <c r="E38" s="46"/>
       <c r="F38" s="46" t="s">
         <v>170</v>
@@ -6804,46 +6814,46 @@
       <c r="G38" s="49"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="106"/>
-      <c r="D39" s="97"/>
+      <c r="A39" s="98"/>
+      <c r="D39" s="104"/>
       <c r="E39" s="46"/>
       <c r="F39" s="46"/>
       <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="107"/>
+      <c r="A40" s="99"/>
       <c r="B40" s="50"/>
       <c r="C40" s="50"/>
-      <c r="D40" s="98"/>
+      <c r="D40" s="105"/>
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
       <c r="G40" s="51"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="106" t="s">
+      <c r="A41" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="96" t="s">
+      <c r="D41" s="103" t="s">
         <v>24</v>
       </c>
       <c r="E41" s="46"/>
       <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="106"/>
-      <c r="D42" s="97"/>
+      <c r="A42" s="98"/>
+      <c r="D42" s="104"/>
       <c r="E42" s="46"/>
       <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="106"/>
+      <c r="A43" s="98"/>
       <c r="B43" t="s">
         <v>24</v>
       </c>
       <c r="C43" t="s">
         <v>162</v>
       </c>
-      <c r="D43" s="97"/>
+      <c r="D43" s="104"/>
       <c r="E43" s="46" t="s">
         <v>171</v>
       </c>
@@ -6853,16 +6863,16 @@
       <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="106"/>
-      <c r="D44" s="97"/>
+      <c r="A44" s="98"/>
+      <c r="D44" s="104"/>
       <c r="E44" s="46"/>
       <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="107"/>
+      <c r="A45" s="99"/>
       <c r="B45" s="50"/>
       <c r="C45" s="50"/>
-      <c r="D45" s="98"/>
+      <c r="D45" s="105"/>
       <c r="E45" s="55"/>
       <c r="F45" s="50"/>
       <c r="G45" s="51"/>
@@ -6872,6 +6882,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="D2:D5"/>
     <mergeCell ref="A36:A40"/>
     <mergeCell ref="A41:A45"/>
     <mergeCell ref="D31:D35"/>
@@ -6885,12 +6901,6 @@
     <mergeCell ref="D27:D30"/>
     <mergeCell ref="A31:A35"/>
     <mergeCell ref="A27:A30"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="D2:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6900,7 +6910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5078C7BA-40AD-44B2-B44A-F90FDEF2CC2F}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -6936,7 +6946,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="118" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65" t="s">
@@ -6945,7 +6955,7 @@
       <c r="C2" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="121" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="56" t="s">
@@ -6957,12 +6967,12 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="122"/>
+      <c r="A3" s="119"/>
       <c r="B3" s="66"/>
       <c r="C3" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="125"/>
+      <c r="D3" s="122"/>
       <c r="E3" s="57" t="s">
         <v>130</v>
       </c>
@@ -6970,12 +6980,12 @@
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="122"/>
+      <c r="A4" s="119"/>
       <c r="B4" s="66"/>
       <c r="C4" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="125"/>
+      <c r="D4" s="122"/>
       <c r="E4" s="57" t="s">
         <v>176</v>
       </c>
@@ -6983,12 +6993,12 @@
       <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="122"/>
+      <c r="A5" s="119"/>
       <c r="B5" s="66"/>
       <c r="C5" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="125"/>
+      <c r="D5" s="122"/>
       <c r="E5" s="57" t="s">
         <v>173</v>
       </c>
@@ -6996,12 +7006,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="122"/>
+      <c r="A6" s="119"/>
       <c r="B6" s="66"/>
       <c r="C6" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="125"/>
+      <c r="D6" s="122"/>
       <c r="E6" s="57" t="s">
         <v>127</v>
       </c>
@@ -7009,12 +7019,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="123"/>
+      <c r="A7" s="120"/>
       <c r="B7" s="67"/>
       <c r="C7" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="126"/>
+      <c r="D7" s="123"/>
       <c r="E7" s="58" t="s">
         <v>179</v>
       </c>
@@ -7022,7 +7032,7 @@
       <c r="G7" s="61"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="124" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="66" t="s">
@@ -7031,7 +7041,7 @@
       <c r="C8" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="113" t="s">
+      <c r="D8" s="116" t="s">
         <v>137</v>
       </c>
       <c r="E8" s="63" t="s">
@@ -7041,12 +7051,12 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="127"/>
+      <c r="A9" s="124"/>
       <c r="B9" s="66"/>
       <c r="C9" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="113"/>
+      <c r="D9" s="116"/>
       <c r="E9" s="63" t="s">
         <v>130</v>
       </c>
@@ -7054,12 +7064,12 @@
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="127"/>
+      <c r="A10" s="124"/>
       <c r="B10" s="66"/>
       <c r="C10" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="D10" s="113"/>
+      <c r="D10" s="116"/>
       <c r="E10" s="63" t="s">
         <v>183</v>
       </c>
@@ -7067,12 +7077,12 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="128"/>
+      <c r="A11" s="125"/>
       <c r="B11" s="66"/>
       <c r="C11" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="113"/>
+      <c r="D11" s="116"/>
       <c r="E11" s="63" t="s">
         <v>185</v>
       </c>
@@ -7080,14 +7090,14 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="127" t="s">
+      <c r="A12" s="124" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="62"/>
       <c r="C12" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="112" t="s">
+      <c r="D12" s="115" t="s">
         <v>142</v>
       </c>
       <c r="E12" s="62" t="s">
@@ -7097,12 +7107,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="127"/>
+      <c r="A13" s="124"/>
       <c r="B13" s="63"/>
       <c r="C13" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="D13" s="113"/>
+      <c r="D13" s="116"/>
       <c r="E13" s="63" t="s">
         <v>187</v>
       </c>
@@ -7110,12 +7120,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="127"/>
+      <c r="A14" s="124"/>
       <c r="B14" s="76"/>
       <c r="C14" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="113"/>
+      <c r="D14" s="116"/>
       <c r="E14" s="63"/>
       <c r="F14" s="60" t="s">
         <v>130</v>
@@ -7123,12 +7133,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="127"/>
+      <c r="A15" s="124"/>
       <c r="B15" s="63" t="s">
         <v>190</v>
       </c>
       <c r="C15" s="57"/>
-      <c r="D15" s="113"/>
+      <c r="D15" s="116"/>
       <c r="E15" s="63" t="s">
         <v>191</v>
       </c>
@@ -7136,23 +7146,23 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="128"/>
+      <c r="A16" s="125"/>
       <c r="B16" s="64"/>
       <c r="C16" s="57"/>
-      <c r="D16" s="114"/>
+      <c r="D16" s="117"/>
       <c r="E16" s="63"/>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A17" s="119" t="s">
+      <c r="A17" s="113" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="112" t="s">
+      <c r="D17" s="115" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="62" t="s">
@@ -7162,14 +7172,14 @@
       <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A18" s="119"/>
+      <c r="A18" s="113"/>
       <c r="B18" s="66" t="s">
         <v>193</v>
       </c>
       <c r="C18" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="113"/>
+      <c r="D18" s="116"/>
       <c r="E18" s="63" t="s">
         <v>176</v>
       </c>
@@ -7177,12 +7187,12 @@
       <c r="G18" s="60"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A19" s="119"/>
+      <c r="A19" s="113"/>
       <c r="B19" s="66"/>
       <c r="C19" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="D19" s="113"/>
+      <c r="D19" s="116"/>
       <c r="E19" s="63" t="s">
         <v>176</v>
       </c>
@@ -7190,12 +7200,12 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A20" s="119"/>
+      <c r="A20" s="113"/>
       <c r="B20" s="66"/>
       <c r="C20" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="D20" s="113"/>
+      <c r="D20" s="116"/>
       <c r="E20" s="63"/>
       <c r="F20" s="63" t="s">
         <v>194</v>
@@ -7203,7 +7213,7 @@
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="118" t="s">
+      <c r="A21" s="126" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="65" t="s">
@@ -7212,41 +7222,41 @@
       <c r="C21" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="D21" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="112" t="s">
+      <c r="D21" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="115" t="s">
         <v>197</v>
       </c>
-      <c r="F21" s="115" t="s">
+      <c r="F21" s="127" t="s">
         <v>198</v>
       </c>
       <c r="G21" s="59"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="119"/>
+      <c r="A22" s="113"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="116"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="128"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="119"/>
+      <c r="A23" s="113"/>
       <c r="B23" s="67"/>
       <c r="C23" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="129"/>
       <c r="G23" s="61"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="118" t="s">
+      <c r="A24" s="126" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="66" t="s">
@@ -7255,7 +7265,7 @@
       <c r="C24" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="113"/>
+      <c r="D24" s="116"/>
       <c r="E24" s="63" t="s">
         <v>173</v>
       </c>
@@ -7263,12 +7273,12 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="119"/>
+      <c r="A25" s="113"/>
       <c r="B25" s="66"/>
       <c r="C25" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="D25" s="113"/>
+      <c r="D25" s="116"/>
       <c r="E25" s="63" t="s">
         <v>191</v>
       </c>
@@ -7276,12 +7286,12 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="119"/>
+      <c r="A26" s="113"/>
       <c r="B26" s="66"/>
       <c r="C26" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="D26" s="113"/>
+      <c r="D26" s="116"/>
       <c r="E26" s="63" t="s">
         <v>130</v>
       </c>
@@ -7289,12 +7299,12 @@
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="119"/>
+      <c r="A27" s="113"/>
       <c r="B27" s="66"/>
       <c r="C27" s="66" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="113"/>
+      <c r="D27" s="116"/>
       <c r="E27" s="63" t="s">
         <v>202</v>
       </c>
@@ -7302,12 +7312,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="120"/>
+      <c r="A28" s="114"/>
       <c r="B28" s="66"/>
       <c r="C28" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="D28" s="114"/>
+      <c r="D28" s="117"/>
       <c r="E28" s="63" t="s">
         <v>130</v>
       </c>
@@ -7315,7 +7325,7 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="119" t="s">
+      <c r="A29" s="113" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="74" t="s">
@@ -7324,7 +7334,7 @@
       <c r="C29" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="112" t="s">
+      <c r="D29" s="115" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="62" t="s">
@@ -7336,12 +7346,12 @@
       <c r="G29" s="59"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="119"/>
+      <c r="A30" s="113"/>
       <c r="B30" s="70"/>
       <c r="C30" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="D30" s="113"/>
+      <c r="D30" s="116"/>
       <c r="E30" s="63" t="s">
         <v>205</v>
       </c>
@@ -7349,12 +7359,12 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="119"/>
+      <c r="A31" s="113"/>
       <c r="B31" s="71"/>
       <c r="C31" s="69" t="s">
         <v>206</v>
       </c>
-      <c r="D31" s="113"/>
+      <c r="D31" s="116"/>
       <c r="E31" s="63" t="s">
         <v>130</v>
       </c>
@@ -7362,12 +7372,12 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="119"/>
+      <c r="A32" s="113"/>
       <c r="B32" s="71"/>
       <c r="C32" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="D32" s="113"/>
+      <c r="D32" s="116"/>
       <c r="E32" s="63" t="s">
         <v>179</v>
       </c>
@@ -7375,12 +7385,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="119"/>
+      <c r="A33" s="113"/>
       <c r="B33" s="72"/>
       <c r="C33" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="D33" s="113"/>
+      <c r="D33" s="116"/>
       <c r="E33" s="63" t="s">
         <v>208</v>
       </c>
@@ -7388,12 +7398,12 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A34" s="119"/>
+      <c r="A34" s="113"/>
       <c r="B34" s="73"/>
       <c r="C34" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="D34" s="114"/>
+      <c r="D34" s="117"/>
       <c r="E34" s="64" t="s">
         <v>132</v>
       </c>
@@ -7401,12 +7411,12 @@
       <c r="G34" s="61"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="118" t="s">
+      <c r="A35" s="126" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="66"/>
       <c r="C35" s="66"/>
-      <c r="D35" s="112" t="s">
+      <c r="D35" s="115" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="63"/>
@@ -7414,12 +7424,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="119"/>
+      <c r="A36" s="113"/>
       <c r="B36" s="66"/>
       <c r="C36" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="D36" s="113"/>
+      <c r="D36" s="116"/>
       <c r="E36" s="63" t="s">
         <v>130</v>
       </c>
@@ -7427,14 +7437,14 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7" ht="21" customHeight="1">
-      <c r="A37" s="119"/>
+      <c r="A37" s="113"/>
       <c r="B37" s="66" t="s">
         <v>211</v>
       </c>
       <c r="C37" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="D37" s="113"/>
+      <c r="D37" s="116"/>
       <c r="E37" s="63" t="s">
         <v>180</v>
       </c>
@@ -7442,12 +7452,12 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="119"/>
+      <c r="A38" s="113"/>
       <c r="B38" s="66"/>
       <c r="C38" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="D38" s="113"/>
+      <c r="D38" s="116"/>
       <c r="E38" s="63"/>
       <c r="F38" s="60" t="s">
         <v>130</v>
@@ -7455,23 +7465,23 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="119"/>
+      <c r="A39" s="113"/>
       <c r="B39" s="66"/>
       <c r="C39" s="66"/>
-      <c r="D39" s="114"/>
+      <c r="D39" s="117"/>
       <c r="E39" s="63"/>
       <c r="F39" s="60"/>
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="118" t="s">
+      <c r="A40" s="126" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="65"/>
       <c r="C40" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="112"/>
+      <c r="D40" s="115"/>
       <c r="E40" s="62" t="s">
         <v>165</v>
       </c>
@@ -7479,14 +7489,14 @@
       <c r="G40" s="59"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="119"/>
+      <c r="A41" s="113"/>
       <c r="B41" s="66" t="s">
         <v>166</v>
       </c>
       <c r="C41" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="D41" s="113"/>
+      <c r="D41" s="116"/>
       <c r="E41" s="63" t="s">
         <v>168</v>
       </c>
@@ -7494,12 +7504,12 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="119"/>
+      <c r="A42" s="113"/>
       <c r="B42" s="66"/>
       <c r="C42" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="D42" s="113"/>
+      <c r="D42" s="116"/>
       <c r="E42" s="63"/>
       <c r="F42" s="60" t="s">
         <v>170</v>
@@ -7507,32 +7517,32 @@
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="119"/>
+      <c r="A43" s="113"/>
       <c r="B43" s="66"/>
       <c r="C43" s="66"/>
-      <c r="D43" s="113"/>
+      <c r="D43" s="116"/>
       <c r="E43" s="63"/>
       <c r="F43" s="60"/>
       <c r="G43" s="60"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="120"/>
+      <c r="A44" s="114"/>
       <c r="B44" s="67"/>
       <c r="C44" s="67"/>
-      <c r="D44" s="114"/>
+      <c r="D44" s="117"/>
       <c r="E44" s="64"/>
       <c r="F44" s="60"/>
       <c r="G44" s="61"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="119" t="s">
+      <c r="A45" s="113" t="s">
         <v>30</v>
       </c>
       <c r="B45" s="66"/>
       <c r="C45" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D45" s="112" t="s">
+      <c r="D45" s="115" t="s">
         <v>24</v>
       </c>
       <c r="E45" s="65" t="s">
@@ -7542,12 +7552,12 @@
       <c r="G45" s="60"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="119"/>
+      <c r="A46" s="113"/>
       <c r="B46" s="66"/>
       <c r="C46" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D46" s="113"/>
+      <c r="D46" s="116"/>
       <c r="E46" s="66" t="s">
         <v>176</v>
       </c>
@@ -7555,14 +7565,14 @@
       <c r="G46" s="60"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="119"/>
+      <c r="A47" s="113"/>
       <c r="B47" s="66" t="s">
         <v>193</v>
       </c>
       <c r="C47" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="D47" s="113"/>
+      <c r="D47" s="116"/>
       <c r="E47" s="66" t="s">
         <v>176</v>
       </c>
@@ -7570,12 +7580,12 @@
       <c r="G47" s="60"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="119"/>
+      <c r="A48" s="113"/>
       <c r="B48" s="66"/>
       <c r="C48" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="D48" s="113"/>
+      <c r="D48" s="116"/>
       <c r="E48" s="66"/>
       <c r="F48" s="63" t="s">
         <v>194</v>
@@ -7583,10 +7593,10 @@
       <c r="G48" s="60"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="120"/>
+      <c r="A49" s="114"/>
       <c r="B49" s="67"/>
       <c r="C49" s="67"/>
-      <c r="D49" s="114"/>
+      <c r="D49" s="117"/>
       <c r="E49" s="67"/>
       <c r="F49" s="64"/>
       <c r="G49" s="61"/>
@@ -7599,6 +7609,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="D40:D44"/>
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="D45:D49"/>
     <mergeCell ref="A29:A34"/>
@@ -7615,12 +7631,6 @@
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="D24:D28"/>
     <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="D40:D44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7631,7 +7641,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7646,35 +7656,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="G1" s="91" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="126" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="121" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -7686,34 +7696,34 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="119"/>
+      <c r="A3" s="113"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="125"/>
+      <c r="D3" s="122"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="120"/>
+      <c r="A4" s="114"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="126"/>
+      <c r="D4" s="123"/>
       <c r="E4" s="58"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="127" t="s">
+      <c r="A5" s="124" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62"/>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="101" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="63"/>
@@ -7721,12 +7731,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="127"/>
+      <c r="A6" s="124"/>
       <c r="B6" s="66"/>
       <c r="C6" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="109"/>
+      <c r="D6" s="101"/>
       <c r="E6" s="63" t="s">
         <v>218</v>
       </c>
@@ -7734,30 +7744,30 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="127"/>
+      <c r="A7" s="124"/>
       <c r="B7" s="66"/>
       <c r="C7" s="63"/>
-      <c r="D7" s="109"/>
+      <c r="D7" s="101"/>
       <c r="E7" s="63"/>
       <c r="F7" s="60"/>
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="128"/>
+      <c r="A8" s="125"/>
       <c r="B8" s="66"/>
       <c r="C8" s="64"/>
-      <c r="D8" s="109"/>
+      <c r="D8" s="101"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="127" t="s">
+      <c r="A9" s="124" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="62"/>
       <c r="C9" s="57"/>
-      <c r="D9" s="112" t="s">
+      <c r="D9" s="115" t="s">
         <v>142</v>
       </c>
       <c r="E9" s="65"/>
@@ -7765,12 +7775,12 @@
       <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="127"/>
+      <c r="A10" s="124"/>
       <c r="B10" s="63"/>
       <c r="C10" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="D10" s="113"/>
+      <c r="D10" s="116"/>
       <c r="E10" s="66" t="s">
         <v>106</v>
       </c>
@@ -7780,12 +7790,12 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="127"/>
+      <c r="A11" s="124"/>
       <c r="B11" s="63" t="s">
         <v>220</v>
       </c>
       <c r="C11" s="57"/>
-      <c r="D11" s="114"/>
+      <c r="D11" s="117"/>
       <c r="E11" s="67"/>
       <c r="F11" s="63" t="s">
         <v>130</v>
@@ -7793,12 +7803,12 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="118" t="s">
+      <c r="A12" s="126" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="65"/>
       <c r="C12" s="62"/>
-      <c r="D12" s="108" t="s">
+      <c r="D12" s="100" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="66"/>
@@ -7806,12 +7816,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="119"/>
+      <c r="A13" s="113"/>
       <c r="B13" s="66" t="s">
         <v>221</v>
       </c>
       <c r="C13" s="76"/>
-      <c r="D13" s="109"/>
+      <c r="D13" s="101"/>
       <c r="E13" s="66" t="s">
         <v>222</v>
       </c>
@@ -7819,12 +7829,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="119"/>
+      <c r="A14" s="113"/>
       <c r="B14" s="66"/>
       <c r="C14" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="D14" s="109"/>
+      <c r="D14" s="101"/>
       <c r="E14" s="66"/>
       <c r="F14" s="63" t="s">
         <v>222</v>
@@ -7832,62 +7842,62 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="120"/>
+      <c r="A15" s="114"/>
       <c r="B15" s="67"/>
       <c r="C15" s="64"/>
-      <c r="D15" s="109"/>
+      <c r="D15" s="101"/>
       <c r="E15" s="66"/>
       <c r="F15" s="64"/>
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="119" t="s">
+      <c r="A16" s="113" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="63"/>
       <c r="C16" s="57"/>
-      <c r="D16" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="112" t="s">
+      <c r="D16" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="115" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="116">
+      <c r="F16" s="128">
         <v>1</v>
       </c>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="119"/>
+      <c r="A17" s="113"/>
       <c r="B17" s="63" t="s">
         <v>224</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>225</v>
       </c>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="116"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="128"/>
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="119"/>
+      <c r="A18" s="113"/>
       <c r="B18" s="64"/>
       <c r="C18" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="129"/>
       <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="118" t="s">
+      <c r="A19" s="126" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="66"/>
-      <c r="D19" s="113" t="s">
+      <c r="D19" s="116" t="s">
         <v>227</v>
       </c>
       <c r="E19" s="63"/>
@@ -7895,23 +7905,23 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="119"/>
+      <c r="A20" s="113"/>
       <c r="B20" s="66"/>
       <c r="C20" s="66"/>
-      <c r="D20" s="113"/>
+      <c r="D20" s="116"/>
       <c r="E20" s="63"/>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="119"/>
+      <c r="A21" s="113"/>
       <c r="B21" s="66" t="s">
         <v>228</v>
       </c>
       <c r="C21" s="66" t="s">
         <v>229</v>
       </c>
-      <c r="D21" s="113"/>
+      <c r="D21" s="116"/>
       <c r="E21" s="63" t="s">
         <v>185</v>
       </c>
@@ -7921,34 +7931,34 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="119"/>
+      <c r="A22" s="113"/>
       <c r="B22" s="66" t="s">
         <v>231</v>
       </c>
       <c r="C22" s="66"/>
-      <c r="D22" s="113"/>
+      <c r="D22" s="116"/>
       <c r="E22" s="63"/>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="120"/>
+      <c r="A23" s="114"/>
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
-      <c r="D23" s="114"/>
+      <c r="D23" s="117"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="119" t="s">
+      <c r="A24" s="113" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="78"/>
       <c r="C24" s="62" t="s">
         <v>232</v>
       </c>
-      <c r="D24" s="108" t="s">
+      <c r="D24" s="100" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="65" t="s">
@@ -7958,30 +7968,30 @@
       <c r="G24" s="62"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="119"/>
-      <c r="B25" s="83"/>
+      <c r="A25" s="113"/>
+      <c r="B25" s="94"/>
       <c r="C25" s="63"/>
-      <c r="D25" s="109"/>
+      <c r="D25" s="101"/>
       <c r="E25" s="66"/>
       <c r="F25" s="66"/>
       <c r="G25" s="63"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="119"/>
+      <c r="A26" s="113"/>
       <c r="B26" s="95"/>
       <c r="C26" s="64"/>
-      <c r="D26" s="109"/>
+      <c r="D26" s="101"/>
       <c r="E26" s="66"/>
       <c r="F26" s="67"/>
       <c r="G26" s="64"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="118" t="s">
+      <c r="A27" s="126" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="66"/>
       <c r="C27" s="66"/>
-      <c r="D27" s="112" t="s">
+      <c r="D27" s="115" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="62"/>
@@ -7989,14 +7999,14 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="119"/>
+      <c r="A28" s="113"/>
       <c r="B28" s="66" t="s">
         <v>220</v>
       </c>
       <c r="C28" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="D28" s="113"/>
+      <c r="D28" s="116"/>
       <c r="E28" s="63" t="s">
         <v>222</v>
       </c>
@@ -8006,12 +8016,12 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="119"/>
+      <c r="A29" s="113"/>
       <c r="B29" s="66" t="s">
         <v>221</v>
       </c>
       <c r="C29" s="66"/>
-      <c r="D29" s="113"/>
+      <c r="D29" s="116"/>
       <c r="E29" s="64"/>
       <c r="F29" s="60" t="s">
         <v>130</v>
@@ -8019,25 +8029,25 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="118" t="s">
+      <c r="A30" s="126" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="65"/>
       <c r="C30" s="65"/>
-      <c r="D30" s="115"/>
+      <c r="D30" s="127"/>
       <c r="E30" s="60"/>
       <c r="F30" s="59"/>
       <c r="G30" s="59"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="119"/>
+      <c r="A31" s="113"/>
       <c r="B31" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C31" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="D31" s="116"/>
+      <c r="D31" s="128"/>
       <c r="E31" s="60" t="s">
         <v>168</v>
       </c>
@@ -8045,12 +8055,12 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="119"/>
+      <c r="A32" s="113"/>
       <c r="B32" s="66"/>
       <c r="C32" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="D32" s="116"/>
+      <c r="D32" s="128"/>
       <c r="E32" s="60"/>
       <c r="F32" s="60" t="s">
         <v>170</v>
@@ -8058,43 +8068,43 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="119"/>
+      <c r="A33" s="113"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66"/>
-      <c r="D33" s="116"/>
+      <c r="D33" s="128"/>
       <c r="E33" s="60"/>
       <c r="F33" s="60"/>
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="120"/>
+      <c r="A34" s="114"/>
       <c r="B34" s="66"/>
       <c r="C34" s="67"/>
-      <c r="D34" s="117"/>
+      <c r="D34" s="129"/>
       <c r="E34" s="60"/>
       <c r="F34" s="60"/>
       <c r="G34" s="61"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="119" t="s">
+      <c r="A35" s="113" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="62"/>
       <c r="C35" s="57"/>
-      <c r="D35" s="116" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="93"/>
+      <c r="D35" s="128" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="92"/>
       <c r="F35" s="62"/>
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="119"/>
+      <c r="A36" s="113"/>
       <c r="B36" s="63"/>
       <c r="C36" s="66" t="s">
         <v>237</v>
       </c>
-      <c r="D36" s="116"/>
+      <c r="D36" s="128"/>
       <c r="E36" s="57" t="s">
         <v>238</v>
       </c>
@@ -8104,35 +8114,45 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="119"/>
+      <c r="A37" s="113"/>
       <c r="B37" s="63" t="s">
         <v>221</v>
       </c>
       <c r="C37" s="46"/>
-      <c r="D37" s="116"/>
+      <c r="D37" s="128"/>
       <c r="E37" s="57"/>
       <c r="F37" s="76"/>
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="119"/>
+      <c r="A38" s="113"/>
       <c r="B38" s="63"/>
-      <c r="D38" s="116"/>
+      <c r="D38" s="128"/>
       <c r="E38" s="57"/>
       <c r="F38" s="76"/>
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="120"/>
+      <c r="A39" s="114"/>
       <c r="B39" s="64"/>
       <c r="C39" s="58"/>
-      <c r="D39" s="117"/>
+      <c r="D39" s="129"/>
       <c r="E39" s="58"/>
       <c r="F39" s="64"/>
       <c r="G39" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="D27:D29"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -8145,16 +8165,6 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="E16:E18"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="D27:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3400B822-54C4-4C4E-993A-C2B87DC52FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC30A0B3-0884-4967-B846-5E3480021A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="40" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="306">
   <si>
     <t>Resource Name</t>
   </si>
@@ -997,6 +997,12 @@
     <t xml:space="preserve">Softskills </t>
   </si>
   <si>
+    <t>Session with Rafi about Web API, Html layout, HLD.</t>
+  </si>
+  <si>
+    <t>45 mins</t>
+  </si>
+  <si>
     <t>Standup Meeting with team about HLD</t>
   </si>
   <si>
@@ -1007,9 +1013,6 @@
   </si>
   <si>
     <t>Session with Rafi about the work plan for this week (Web API, Html layout, HLD)</t>
-  </si>
-  <si>
-    <t>45 mins</t>
   </si>
   <si>
     <t>Referred the HLD Document</t>
@@ -1556,7 +1559,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1780,6 +1783,9 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1811,15 +1817,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1928,39 +1944,17 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2728,8 +2722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44822B4E-5F0D-4AA1-8394-144DB203D40C}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2767,12 +2761,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="123" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="126" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -2784,36 +2778,36 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="119"/>
+      <c r="A3" s="124"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="122"/>
+      <c r="D3" s="127"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="120"/>
+      <c r="A4" s="125"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="123"/>
+      <c r="D4" s="128"/>
       <c r="E4" s="58"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="129" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="D5" s="101" t="s">
+      <c r="D5" s="106" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="63" t="s">
@@ -2823,12 +2817,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="124"/>
+      <c r="A6" s="129"/>
       <c r="B6" s="66"/>
       <c r="C6" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="D6" s="101"/>
+      <c r="D6" s="106"/>
       <c r="E6" s="63" t="s">
         <v>243</v>
       </c>
@@ -2836,12 +2830,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="124"/>
+      <c r="A7" s="129"/>
       <c r="B7" s="66"/>
       <c r="C7" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="101"/>
+      <c r="D7" s="106"/>
       <c r="E7" s="63" t="s">
         <v>180</v>
       </c>
@@ -2849,21 +2843,21 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="125"/>
+      <c r="A8" s="130"/>
       <c r="B8" s="66"/>
       <c r="C8" s="64"/>
-      <c r="D8" s="101"/>
+      <c r="D8" s="106"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="124" t="s">
+      <c r="A9" s="129" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="62"/>
       <c r="C9" s="57"/>
-      <c r="D9" s="115" t="s">
+      <c r="D9" s="120" t="s">
         <v>142</v>
       </c>
       <c r="E9" s="65"/>
@@ -2871,14 +2865,14 @@
       <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="124"/>
+      <c r="A10" s="129"/>
       <c r="B10" s="63" t="s">
         <v>216</v>
       </c>
       <c r="C10" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="D10" s="116"/>
+      <c r="D10" s="121"/>
       <c r="E10" s="66" t="s">
         <v>106</v>
       </c>
@@ -2888,23 +2882,23 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="125"/>
+      <c r="A11" s="130"/>
       <c r="B11" s="63"/>
       <c r="C11" s="57"/>
-      <c r="D11" s="117"/>
+      <c r="D11" s="122"/>
       <c r="E11" s="67"/>
       <c r="F11" s="64"/>
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="118" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="65"/>
       <c r="C12" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="D12" s="100" t="s">
+      <c r="D12" s="105" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="63">
@@ -2914,12 +2908,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="113"/>
+      <c r="A13" s="118"/>
       <c r="B13" s="66"/>
       <c r="C13" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="101"/>
+      <c r="D13" s="106"/>
       <c r="E13" s="63" t="s">
         <v>230</v>
       </c>
@@ -2927,12 +2921,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="113"/>
+      <c r="A14" s="118"/>
       <c r="B14" s="66"/>
       <c r="C14" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="101"/>
+      <c r="D14" s="106"/>
       <c r="E14" s="63" t="s">
         <v>185</v>
       </c>
@@ -2940,12 +2934,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="113"/>
+      <c r="A15" s="118"/>
       <c r="B15" s="67" t="s">
         <v>248</v>
       </c>
       <c r="C15" s="64"/>
-      <c r="D15" s="101"/>
+      <c r="D15" s="106"/>
       <c r="E15" s="63"/>
       <c r="F15" s="63" t="s">
         <v>194</v>
@@ -2953,50 +2947,50 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="126" t="s">
+      <c r="A16" s="131" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="63"/>
       <c r="C16" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="D16" s="115" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="115" t="s">
+      <c r="D16" s="120" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="120" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="127">
+      <c r="F16" s="132">
         <v>1</v>
       </c>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="113"/>
+      <c r="A17" s="118"/>
       <c r="B17" s="63" t="s">
         <v>224</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>250</v>
       </c>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="128"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="133"/>
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="113"/>
+      <c r="A18" s="118"/>
       <c r="B18" s="64"/>
       <c r="C18" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="129"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="134"/>
       <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="126" t="s">
+      <c r="A19" s="131" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="66" t="s">
@@ -3005,7 +2999,7 @@
       <c r="C19" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="D19" s="116" t="s">
+      <c r="D19" s="121" t="s">
         <v>227</v>
       </c>
       <c r="E19" s="63" t="s">
@@ -3015,14 +3009,14 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="113"/>
+      <c r="A20" s="118"/>
       <c r="B20" s="66" t="s">
         <v>248</v>
       </c>
       <c r="C20" s="66" t="s">
         <v>253</v>
       </c>
-      <c r="D20" s="116"/>
+      <c r="D20" s="121"/>
       <c r="E20" s="63" t="s">
         <v>185</v>
       </c>
@@ -3032,14 +3026,14 @@
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="113"/>
+      <c r="A21" s="118"/>
       <c r="B21" s="66" t="s">
         <v>255</v>
       </c>
       <c r="C21" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="D21" s="116"/>
+      <c r="D21" s="121"/>
       <c r="E21" s="63" t="s">
         <v>252</v>
       </c>
@@ -3047,25 +3041,25 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="113"/>
+      <c r="A22" s="118"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66"/>
-      <c r="D22" s="116"/>
+      <c r="D22" s="121"/>
       <c r="E22" s="63"/>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="114"/>
+      <c r="A23" s="119"/>
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
-      <c r="D23" s="117"/>
+      <c r="D23" s="122"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="113" t="s">
+      <c r="A24" s="118" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="78" t="s">
@@ -3074,7 +3068,7 @@
       <c r="C24" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="D24" s="100" t="s">
+      <c r="D24" s="105" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="62" t="s">
@@ -3086,12 +3080,12 @@
       <c r="G24" s="59"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="113"/>
+      <c r="A25" s="118"/>
       <c r="B25" s="79"/>
       <c r="C25" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D25" s="101"/>
+      <c r="D25" s="106"/>
       <c r="E25" s="63" t="s">
         <v>257</v>
       </c>
@@ -3099,12 +3093,12 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="113"/>
+      <c r="A26" s="118"/>
       <c r="B26" s="80"/>
       <c r="C26" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D26" s="101"/>
+      <c r="D26" s="106"/>
       <c r="E26" s="63" t="s">
         <v>185</v>
       </c>
@@ -3112,21 +3106,21 @@
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="113"/>
+      <c r="A27" s="118"/>
       <c r="B27" s="81"/>
       <c r="C27" s="64"/>
-      <c r="D27" s="102"/>
+      <c r="D27" s="107"/>
       <c r="E27" s="63"/>
       <c r="F27" s="61"/>
       <c r="G27" s="61"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="126" t="s">
+      <c r="A28" s="131" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="66"/>
       <c r="C28" s="66"/>
-      <c r="D28" s="115" t="s">
+      <c r="D28" s="120" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="62"/>
@@ -3134,14 +3128,14 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="113"/>
+      <c r="A29" s="118"/>
       <c r="B29" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C29" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D29" s="116"/>
+      <c r="D29" s="121"/>
       <c r="E29" s="63" t="s">
         <v>106</v>
       </c>
@@ -3149,23 +3143,23 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="113"/>
+      <c r="A30" s="118"/>
       <c r="B30" s="66"/>
       <c r="C30" s="66"/>
-      <c r="D30" s="116"/>
+      <c r="D30" s="121"/>
       <c r="E30" s="64"/>
       <c r="F30" s="60"/>
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="126" t="s">
+      <c r="A31" s="131" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="65"/>
       <c r="C31" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="127"/>
+      <c r="D31" s="132"/>
       <c r="E31" s="60" t="s">
         <v>171</v>
       </c>
@@ -3173,14 +3167,14 @@
       <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="113"/>
+      <c r="A32" s="118"/>
       <c r="B32" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="D32" s="128"/>
+      <c r="D32" s="133"/>
       <c r="E32" s="60" t="s">
         <v>168</v>
       </c>
@@ -3188,12 +3182,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="113"/>
+      <c r="A33" s="118"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66" t="s">
         <v>259</v>
       </c>
-      <c r="D33" s="128"/>
+      <c r="D33" s="133"/>
       <c r="E33" s="60"/>
       <c r="F33" s="60" t="s">
         <v>170</v>
@@ -3201,32 +3195,32 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="113"/>
+      <c r="A34" s="118"/>
       <c r="B34" s="66"/>
       <c r="C34" s="66"/>
-      <c r="D34" s="128"/>
+      <c r="D34" s="133"/>
       <c r="E34" s="60"/>
       <c r="F34" s="60"/>
       <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="114"/>
+      <c r="A35" s="119"/>
       <c r="B35" s="66"/>
       <c r="C35" s="67"/>
-      <c r="D35" s="129"/>
+      <c r="D35" s="134"/>
       <c r="E35" s="60"/>
       <c r="F35" s="60"/>
       <c r="G35" s="61"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="113" t="s">
+      <c r="A36" s="118" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="62"/>
       <c r="C36" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="D36" s="116" t="s">
+      <c r="D36" s="121" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="82" t="s">
@@ -3236,12 +3230,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="113"/>
+      <c r="A37" s="118"/>
       <c r="B37" s="63"/>
       <c r="C37" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="D37" s="116"/>
+      <c r="D37" s="121"/>
       <c r="E37" s="66" t="s">
         <v>170</v>
       </c>
@@ -3249,14 +3243,14 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="113"/>
+      <c r="A38" s="118"/>
       <c r="B38" s="63" t="s">
         <v>248</v>
       </c>
       <c r="C38" s="60" t="s">
         <v>260</v>
       </c>
-      <c r="D38" s="116"/>
+      <c r="D38" s="121"/>
       <c r="E38" s="66" t="s">
         <v>171</v>
       </c>
@@ -3266,22 +3260,22 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="113"/>
+      <c r="A39" s="118"/>
       <c r="B39" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="D39" s="116"/>
+      <c r="D39" s="121"/>
       <c r="E39" s="66"/>
-      <c r="F39" s="93" t="s">
+      <c r="F39" s="94" t="s">
         <v>171</v>
       </c>
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="114"/>
+      <c r="A40" s="119"/>
       <c r="B40" s="64"/>
       <c r="C40" s="58"/>
-      <c r="D40" s="117"/>
+      <c r="D40" s="122"/>
       <c r="E40" s="67"/>
       <c r="F40" s="64"/>
       <c r="G40" s="61"/>
@@ -3319,8 +3313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CD1CE-B6FA-48B8-A6CC-4149467C6873}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E15"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3358,12 +3352,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="123" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="126" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -3375,53 +3369,53 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="119"/>
+      <c r="A3" s="124"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="122"/>
+      <c r="D3" s="127"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="120"/>
+      <c r="A4" s="125"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
-      <c r="D4" s="123"/>
+      <c r="D4" s="128"/>
       <c r="E4" s="57"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="129" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="121" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="84" t="s">
         <v>173</v>
       </c>
       <c r="F5" s="60"/>
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="124"/>
+      <c r="A6" s="129"/>
       <c r="B6" s="66" t="s">
         <v>255</v>
       </c>
       <c r="C6" s="66" t="s">
         <v>262</v>
       </c>
-      <c r="D6" s="116"/>
+      <c r="D6" s="121"/>
       <c r="E6" s="63" t="s">
         <v>263</v>
       </c>
@@ -3429,12 +3423,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="124"/>
+      <c r="A7" s="129"/>
       <c r="B7" s="66"/>
       <c r="C7" s="66" t="s">
         <v>264</v>
       </c>
-      <c r="D7" s="116"/>
+      <c r="D7" s="121"/>
       <c r="E7" s="63" t="s">
         <v>263</v>
       </c>
@@ -3442,12 +3436,12 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="124"/>
+      <c r="A8" s="129"/>
       <c r="B8" s="66" t="s">
         <v>265</v>
       </c>
       <c r="C8" s="66"/>
-      <c r="D8" s="116"/>
+      <c r="D8" s="121"/>
       <c r="E8" s="63" t="s">
         <v>241</v>
       </c>
@@ -3455,12 +3449,12 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="125"/>
+      <c r="A9" s="130"/>
       <c r="B9" s="66" t="s">
         <v>266</v>
       </c>
       <c r="C9" s="66"/>
-      <c r="D9" s="116"/>
+      <c r="D9" s="121"/>
       <c r="E9" s="64" t="s">
         <v>241</v>
       </c>
@@ -3468,31 +3462,31 @@
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="124" t="s">
+      <c r="A10" s="129" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="62"/>
       <c r="C10" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D10" s="115" t="s">
+      <c r="D10" s="120" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="84" t="s">
+      <c r="E10" s="85" t="s">
         <v>173</v>
       </c>
       <c r="F10" s="62"/>
       <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="124"/>
+      <c r="A11" s="129"/>
       <c r="B11" s="63" t="s">
         <v>267</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="D11" s="116"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="63" t="s">
         <v>263</v>
       </c>
@@ -3502,14 +3496,14 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="125"/>
+      <c r="A12" s="130"/>
       <c r="B12" s="63" t="s">
         <v>269</v>
       </c>
       <c r="C12" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="D12" s="117"/>
+      <c r="D12" s="122"/>
       <c r="E12" s="66"/>
       <c r="F12" s="64" t="s">
         <v>180</v>
@@ -3517,19 +3511,19 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="144" t="s">
+      <c r="B13" s="101" t="s">
         <v>271</v>
       </c>
       <c r="C13" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="100" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="83" t="s">
+      <c r="D13" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="84" t="s">
         <v>173</v>
       </c>
       <c r="F13" s="59" t="s">
@@ -3538,12 +3532,12 @@
       <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="113"/>
+      <c r="A14" s="118"/>
       <c r="B14" s="63"/>
       <c r="C14" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="D14" s="101"/>
+      <c r="D14" s="106"/>
       <c r="E14" s="63" t="s">
         <v>273</v>
       </c>
@@ -3551,12 +3545,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="113"/>
+      <c r="A15" s="118"/>
       <c r="B15" s="64"/>
       <c r="C15" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="D15" s="101"/>
+      <c r="D15" s="106"/>
       <c r="E15" s="64" t="s">
         <v>173</v>
       </c>
@@ -3564,72 +3558,72 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="126" t="s">
+      <c r="A16" s="131" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="63"/>
       <c r="C16" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="D16" s="115" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="116" t="s">
+      <c r="D16" s="120" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="121" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="127">
+      <c r="F16" s="132">
         <v>1</v>
       </c>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="113"/>
+      <c r="A17" s="118"/>
       <c r="B17" s="63" t="s">
         <v>276</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>277</v>
       </c>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="128"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="133"/>
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="113"/>
+      <c r="A18" s="118"/>
       <c r="B18" s="63"/>
       <c r="C18" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="D18" s="117"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="129"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="134"/>
       <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="126" t="s">
+      <c r="A19" s="131" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="62"/>
       <c r="C19" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D19" s="116" t="s">
+      <c r="D19" s="121" t="s">
         <v>227</v>
       </c>
-      <c r="E19" s="83" t="s">
+      <c r="E19" s="84" t="s">
         <v>173</v>
       </c>
       <c r="F19" s="60"/>
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="113"/>
+      <c r="A20" s="118"/>
       <c r="B20" s="63"/>
       <c r="C20" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="116"/>
+      <c r="D20" s="121"/>
       <c r="E20" s="63" t="s">
         <v>185</v>
       </c>
@@ -3637,12 +3631,12 @@
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="113"/>
+      <c r="A21" s="118"/>
       <c r="B21" s="76"/>
       <c r="C21" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="D21" s="116"/>
+      <c r="D21" s="121"/>
       <c r="E21" s="63"/>
       <c r="F21" s="60" t="s">
         <v>185</v>
@@ -3650,12 +3644,12 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="113"/>
+      <c r="A22" s="118"/>
       <c r="B22" s="63" t="s">
         <v>255</v>
       </c>
       <c r="C22" s="57"/>
-      <c r="D22" s="116"/>
+      <c r="D22" s="121"/>
       <c r="E22" s="63"/>
       <c r="F22" s="60" t="s">
         <v>222</v>
@@ -3663,17 +3657,17 @@
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="130" t="s">
+      <c r="A23" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="85"/>
+      <c r="B23" s="86"/>
       <c r="C23" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D23" s="100" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="83" t="s">
+      <c r="D23" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="84" t="s">
         <v>173</v>
       </c>
       <c r="F23" s="59" t="s">
@@ -3682,14 +3676,14 @@
       <c r="G23" s="59"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="131"/>
-      <c r="B24" s="86" t="s">
+      <c r="A24" s="136"/>
+      <c r="B24" s="87" t="s">
         <v>271</v>
       </c>
       <c r="C24" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="D24" s="101"/>
+      <c r="D24" s="106"/>
       <c r="E24" s="63" t="s">
         <v>273</v>
       </c>
@@ -3697,12 +3691,12 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="131"/>
-      <c r="B25" s="87"/>
+      <c r="A25" s="136"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="D25" s="101"/>
+      <c r="D25" s="106"/>
       <c r="E25" s="63" t="s">
         <v>173</v>
       </c>
@@ -3710,21 +3704,21 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="132"/>
+      <c r="A26" s="137"/>
       <c r="B26" s="96"/>
       <c r="C26" s="61"/>
-      <c r="D26" s="101"/>
+      <c r="D26" s="106"/>
       <c r="E26" s="64"/>
       <c r="F26" s="61"/>
       <c r="G26" s="61"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="113" t="s">
+      <c r="A27" s="118" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="62"/>
       <c r="C27" s="57"/>
-      <c r="D27" s="127" t="s">
+      <c r="D27" s="132" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="60"/>
@@ -3732,12 +3726,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="113"/>
+      <c r="A28" s="118"/>
       <c r="B28" s="63"/>
       <c r="C28" s="57" t="s">
         <v>280</v>
       </c>
-      <c r="D28" s="128"/>
+      <c r="D28" s="133"/>
       <c r="E28" s="60" t="s">
         <v>180</v>
       </c>
@@ -3745,14 +3739,14 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="113"/>
+      <c r="A29" s="118"/>
       <c r="B29" s="63" t="s">
         <v>269</v>
       </c>
       <c r="C29" s="57" t="s">
         <v>281</v>
       </c>
-      <c r="D29" s="128"/>
+      <c r="D29" s="133"/>
       <c r="E29" s="60" t="s">
         <v>180</v>
       </c>
@@ -3762,7 +3756,7 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="89"/>
+      <c r="A30" s="90"/>
       <c r="B30" s="64"/>
       <c r="C30" s="57" t="s">
         <v>282</v>
@@ -3775,29 +3769,29 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="113" t="s">
+      <c r="A31" s="118" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="66"/>
       <c r="C31" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D31" s="116"/>
-      <c r="E31" s="83" t="s">
+      <c r="D31" s="121"/>
+      <c r="E31" s="84" t="s">
         <v>173</v>
       </c>
       <c r="F31" s="59"/>
       <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="113"/>
+      <c r="A32" s="118"/>
       <c r="B32" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="D32" s="116"/>
+      <c r="D32" s="121"/>
       <c r="E32" s="63" t="s">
         <v>168</v>
       </c>
@@ -3805,12 +3799,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="113"/>
+      <c r="A33" s="118"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="D33" s="116"/>
+      <c r="D33" s="121"/>
       <c r="E33" s="63"/>
       <c r="F33" s="60" t="s">
         <v>170</v>
@@ -3818,47 +3812,47 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="113"/>
+      <c r="A34" s="118"/>
       <c r="B34" s="66"/>
       <c r="C34" s="66"/>
-      <c r="D34" s="116"/>
+      <c r="D34" s="121"/>
       <c r="E34" s="63"/>
       <c r="F34" s="60"/>
       <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="114"/>
+      <c r="A35" s="119"/>
       <c r="B35" s="66"/>
       <c r="C35" s="66"/>
-      <c r="D35" s="117"/>
+      <c r="D35" s="122"/>
       <c r="E35" s="64"/>
       <c r="F35" s="60"/>
       <c r="G35" s="61"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="113" t="s">
+      <c r="A36" s="118" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="62"/>
       <c r="C36" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D36" s="100" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="84" t="s">
+      <c r="D36" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="85" t="s">
         <v>173</v>
       </c>
       <c r="F36" s="62"/>
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="113"/>
+      <c r="A37" s="118"/>
       <c r="B37" s="63"/>
       <c r="C37" s="60" t="s">
         <v>284</v>
       </c>
-      <c r="D37" s="101"/>
+      <c r="D37" s="106"/>
       <c r="E37" s="66" t="s">
         <v>170</v>
       </c>
@@ -3866,14 +3860,14 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="113"/>
+      <c r="A38" s="118"/>
       <c r="B38" s="63" t="s">
         <v>248</v>
       </c>
       <c r="C38" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="D38" s="101"/>
+      <c r="D38" s="106"/>
       <c r="E38" s="66" t="s">
         <v>170</v>
       </c>
@@ -3883,23 +3877,23 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="113"/>
-      <c r="B39" s="138" t="s">
+      <c r="A39" s="118"/>
+      <c r="B39" s="99" t="s">
         <v>228</v>
       </c>
       <c r="C39" s="49"/>
-      <c r="D39" s="101"/>
+      <c r="D39" s="106"/>
       <c r="E39" s="66"/>
-      <c r="F39" s="93" t="s">
+      <c r="F39" s="94" t="s">
         <v>170</v>
       </c>
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="114"/>
+      <c r="A40" s="119"/>
       <c r="B40" s="64"/>
       <c r="C40" s="61"/>
-      <c r="D40" s="102"/>
+      <c r="D40" s="107"/>
       <c r="E40" s="67"/>
       <c r="F40" s="64"/>
       <c r="G40" s="61"/>
@@ -3937,8 +3931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53787AF6-DADA-4A12-9844-18CC696737AE}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3953,35 +3947,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="D1" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="E1" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="G1" s="92" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="131" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="126" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -3993,53 +3987,53 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="113"/>
+      <c r="A3" s="118"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="122"/>
+      <c r="D3" s="127"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="114"/>
+      <c r="A4" s="119"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="123"/>
+      <c r="D4" s="128"/>
       <c r="E4" s="57"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="129" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="101" t="s">
+      <c r="D5" s="106" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="84" t="s">
         <v>173</v>
       </c>
       <c r="F5" s="60"/>
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="124"/>
+      <c r="A6" s="129"/>
       <c r="B6" s="66" t="s">
         <v>228</v>
       </c>
       <c r="C6" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="D6" s="101"/>
+      <c r="D6" s="106"/>
       <c r="E6" s="63" t="s">
         <v>241</v>
       </c>
@@ -4047,58 +4041,62 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="124"/>
+      <c r="A7" s="129"/>
       <c r="B7" s="66"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="63"/>
+      <c r="C7" s="69" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" s="106"/>
+      <c r="E7" s="67" t="s">
+        <v>288</v>
+      </c>
       <c r="F7" s="60"/>
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="124"/>
+      <c r="A8" s="129"/>
       <c r="B8" s="66"/>
       <c r="C8" s="63"/>
-      <c r="D8" s="101"/>
+      <c r="D8" s="106"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="125"/>
+      <c r="A9" s="130"/>
       <c r="B9" s="66"/>
       <c r="C9" s="64"/>
-      <c r="D9" s="101"/>
+      <c r="D9" s="106"/>
       <c r="E9" s="64"/>
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="124" t="s">
+      <c r="A10" s="129" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="62"/>
       <c r="C10" s="63" t="s">
-        <v>287</v>
-      </c>
-      <c r="D10" s="115" t="s">
+        <v>289</v>
+      </c>
+      <c r="D10" s="120" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="84" t="s">
+      <c r="E10" s="85" t="s">
         <v>173</v>
       </c>
       <c r="F10" s="62"/>
       <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="124"/>
+      <c r="A11" s="129"/>
       <c r="B11" s="63" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>289</v>
-      </c>
-      <c r="D11" s="116"/>
+        <v>291</v>
+      </c>
+      <c r="D11" s="121"/>
       <c r="E11" s="63" t="s">
         <v>130</v>
       </c>
@@ -4108,16 +4106,16 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="125"/>
+      <c r="A12" s="130"/>
       <c r="B12" s="64" t="s">
         <v>269</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>290</v>
-      </c>
-      <c r="D12" s="116"/>
+        <v>292</v>
+      </c>
+      <c r="D12" s="121"/>
       <c r="E12" s="67" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F12" s="64" t="s">
         <v>130</v>
@@ -4125,14 +4123,14 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="118" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="68"/>
       <c r="C13" s="65" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="127" t="s">
+      <c r="D13" s="132" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="77" t="s">
@@ -4144,23 +4142,23 @@
       <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="113"/>
+      <c r="A14" s="118"/>
       <c r="B14" s="68"/>
       <c r="C14" s="60" t="s">
-        <v>292</v>
-      </c>
-      <c r="D14" s="128"/>
+        <v>293</v>
+      </c>
+      <c r="D14" s="133"/>
       <c r="E14" s="77"/>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="113"/>
+      <c r="A15" s="118"/>
       <c r="B15" s="66"/>
       <c r="C15" s="66" t="s">
-        <v>293</v>
-      </c>
-      <c r="D15" s="128"/>
+        <v>294</v>
+      </c>
+      <c r="D15" s="133"/>
       <c r="E15" s="60" t="s">
         <v>130</v>
       </c>
@@ -4168,98 +4166,98 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="113"/>
+      <c r="A16" s="118"/>
       <c r="B16" s="66"/>
       <c r="C16" s="66" t="s">
-        <v>294</v>
-      </c>
-      <c r="D16" s="128"/>
+        <v>295</v>
+      </c>
+      <c r="D16" s="133"/>
       <c r="E16" s="60" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="113"/>
+      <c r="A17" s="118"/>
       <c r="B17" s="67"/>
       <c r="C17" s="67" t="s">
-        <v>296</v>
-      </c>
-      <c r="D17" s="129"/>
+        <v>297</v>
+      </c>
+      <c r="D17" s="134"/>
       <c r="E17" s="60" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="126" t="s">
+      <c r="A18" s="131" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="63"/>
       <c r="C18" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D18" s="116" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="115" t="s">
+      <c r="D18" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="120" t="s">
         <v>156</v>
       </c>
-      <c r="F18" s="127">
+      <c r="F18" s="132">
         <v>1</v>
       </c>
       <c r="G18" s="59"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="113"/>
+      <c r="A19" s="118"/>
       <c r="B19" s="63" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C19" s="77" t="s">
-        <v>299</v>
-      </c>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="128"/>
+        <v>300</v>
+      </c>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="133"/>
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="113"/>
+      <c r="A20" s="118"/>
       <c r="B20" s="63"/>
       <c r="C20" s="58" t="s">
-        <v>300</v>
-      </c>
-      <c r="D20" s="117"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="129"/>
+        <v>301</v>
+      </c>
+      <c r="D20" s="122"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="134"/>
       <c r="G20" s="61"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="126" t="s">
+      <c r="A21" s="131" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="62"/>
       <c r="C21" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D21" s="116" t="s">
+      <c r="D21" s="121" t="s">
         <v>227</v>
       </c>
-      <c r="E21" s="83" t="s">
+      <c r="E21" s="84" t="s">
         <v>173</v>
       </c>
       <c r="F21" s="60"/>
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="113"/>
+      <c r="A22" s="118"/>
       <c r="B22" s="63"/>
       <c r="C22" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="D22" s="116"/>
+      <c r="D22" s="121"/>
       <c r="E22" s="63" t="s">
         <v>185</v>
       </c>
@@ -4267,12 +4265,12 @@
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="113"/>
+      <c r="A23" s="118"/>
       <c r="B23" s="76"/>
       <c r="C23" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="D23" s="116"/>
+      <c r="D23" s="121"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60" t="s">
         <v>185</v>
@@ -4280,12 +4278,12 @@
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="113"/>
+      <c r="A24" s="118"/>
       <c r="B24" s="63" t="s">
         <v>255</v>
       </c>
       <c r="C24" s="57"/>
-      <c r="D24" s="116"/>
+      <c r="D24" s="121"/>
       <c r="E24" s="63"/>
       <c r="F24" s="60" t="s">
         <v>222</v>
@@ -4293,17 +4291,17 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="130" t="s">
+      <c r="A25" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="85"/>
+      <c r="B25" s="86"/>
       <c r="C25" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D25" s="100" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="83" t="s">
+      <c r="D25" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="84" t="s">
         <v>173</v>
       </c>
       <c r="F25" s="59" t="s">
@@ -4312,25 +4310,25 @@
       <c r="G25" s="59"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="135"/>
-      <c r="B26" s="136"/>
+      <c r="A26" s="141"/>
+      <c r="B26" s="98"/>
       <c r="C26" s="60" t="s">
-        <v>292</v>
-      </c>
-      <c r="D26" s="137"/>
-      <c r="E26" s="138" t="s">
+        <v>293</v>
+      </c>
+      <c r="D26" s="106"/>
+      <c r="E26" s="99" t="s">
         <v>130</v>
       </c>
       <c r="F26" s="60"/>
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="131"/>
-      <c r="B27" s="86"/>
+      <c r="A27" s="136"/>
+      <c r="B27" s="87"/>
       <c r="C27" s="63" t="s">
-        <v>293</v>
-      </c>
-      <c r="D27" s="101"/>
+        <v>294</v>
+      </c>
+      <c r="D27" s="106"/>
       <c r="E27" s="63" t="s">
         <v>130</v>
       </c>
@@ -4338,40 +4336,40 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="131"/>
-      <c r="B28" s="87"/>
+      <c r="A28" s="136"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="63" t="s">
-        <v>294</v>
-      </c>
-      <c r="D28" s="101"/>
+        <v>295</v>
+      </c>
+      <c r="D28" s="106"/>
       <c r="E28" s="63" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F28" s="60"/>
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="132"/>
-      <c r="B29" s="88"/>
+      <c r="A29" s="137"/>
+      <c r="B29" s="89"/>
       <c r="C29" s="64" t="s">
-        <v>296</v>
-      </c>
-      <c r="D29" s="101"/>
+        <v>297</v>
+      </c>
+      <c r="D29" s="106"/>
       <c r="E29" s="64" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F29" s="61"/>
       <c r="G29" s="61"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="113" t="s">
+      <c r="A30" s="118" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="66"/>
       <c r="C30" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="D30" s="127" t="s">
+      <c r="D30" s="132" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="60" t="s">
@@ -4381,12 +4379,12 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="113"/>
+      <c r="A31" s="118"/>
       <c r="B31" s="66"/>
       <c r="C31" s="66" t="s">
-        <v>289</v>
-      </c>
-      <c r="D31" s="128"/>
+        <v>291</v>
+      </c>
+      <c r="D31" s="133"/>
       <c r="E31" s="60"/>
       <c r="F31" s="60" t="s">
         <v>130</v>
@@ -4394,14 +4392,14 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="113"/>
+      <c r="A32" s="118"/>
       <c r="B32" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="C32" s="134" t="s">
-        <v>301</v>
-      </c>
-      <c r="D32" s="128"/>
+      <c r="C32" s="97" t="s">
+        <v>302</v>
+      </c>
+      <c r="D32" s="133"/>
       <c r="E32" s="60" t="s">
         <v>191</v>
       </c>
@@ -4409,44 +4407,44 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="89"/>
+      <c r="A33" s="90"/>
       <c r="B33" s="57"/>
       <c r="C33" s="66" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D33" s="64"/>
       <c r="E33" s="60" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F33" s="60"/>
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="113" t="s">
+      <c r="A34" s="118" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="65"/>
       <c r="C34" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D34" s="116" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="83" t="s">
+      <c r="D34" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="84" t="s">
         <v>173</v>
       </c>
       <c r="F34" s="59"/>
       <c r="G34" s="59"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="113"/>
+      <c r="A35" s="118"/>
       <c r="B35" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C35" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="D35" s="116"/>
+      <c r="D35" s="121"/>
       <c r="E35" s="63" t="s">
         <v>168</v>
       </c>
@@ -4454,12 +4452,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="113"/>
+      <c r="A36" s="118"/>
       <c r="B36" s="66"/>
       <c r="C36" s="66" t="s">
-        <v>302</v>
-      </c>
-      <c r="D36" s="116"/>
+        <v>303</v>
+      </c>
+      <c r="D36" s="121"/>
       <c r="E36" s="63"/>
       <c r="F36" s="60" t="s">
         <v>170</v>
@@ -4467,67 +4465,67 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="113"/>
+      <c r="A37" s="118"/>
       <c r="B37" s="66"/>
       <c r="C37" s="66" t="s">
-        <v>290</v>
-      </c>
-      <c r="D37" s="116"/>
+        <v>292</v>
+      </c>
+      <c r="D37" s="121"/>
       <c r="E37" s="63" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F37" s="60"/>
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="114"/>
+      <c r="A38" s="119"/>
       <c r="B38" s="67"/>
       <c r="C38" s="66"/>
-      <c r="D38" s="116"/>
+      <c r="D38" s="121"/>
       <c r="E38" s="64"/>
       <c r="F38" s="60"/>
       <c r="G38" s="61"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="113" t="s">
+      <c r="A39" s="118" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="66"/>
       <c r="C39" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D39" s="141" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="140" t="s">
+      <c r="D39" s="138" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="77" t="s">
         <v>173</v>
       </c>
       <c r="F39" s="62"/>
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="113"/>
+      <c r="A40" s="118"/>
       <c r="B40" s="66"/>
       <c r="C40" s="63" t="s">
-        <v>293</v>
-      </c>
-      <c r="D40" s="142"/>
-      <c r="E40" s="133" t="s">
+        <v>294</v>
+      </c>
+      <c r="D40" s="139"/>
+      <c r="E40" s="57" t="s">
         <v>170</v>
       </c>
       <c r="F40" s="63"/>
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="113"/>
+      <c r="A41" s="118"/>
       <c r="B41" s="66" t="s">
         <v>248</v>
       </c>
       <c r="C41" s="63" t="s">
-        <v>303</v>
-      </c>
-      <c r="D41" s="142"/>
-      <c r="E41" s="133" t="s">
+        <v>304</v>
+      </c>
+      <c r="D41" s="139"/>
+      <c r="E41" s="57" t="s">
         <v>171</v>
       </c>
       <c r="F41" s="63" t="s">
@@ -4536,29 +4534,39 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="113"/>
+      <c r="A42" s="118"/>
       <c r="B42" s="66" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C42" s="76"/>
-      <c r="D42" s="142"/>
-      <c r="E42" s="133" t="s">
-        <v>291</v>
+      <c r="D42" s="139"/>
+      <c r="E42" s="57" t="s">
+        <v>288</v>
       </c>
       <c r="F42" s="76"/>
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="114"/>
+      <c r="A43" s="119"/>
       <c r="B43" s="67"/>
-      <c r="C43" s="139"/>
-      <c r="D43" s="143"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="140"/>
       <c r="E43" s="58"/>
       <c r="F43" s="64"/>
       <c r="G43" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="D30:D32"/>
     <mergeCell ref="F18:F20"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -4571,16 +4579,6 @@
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="E18:E20"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="D30:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6332,7 +6330,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="112" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="47" t="s">
@@ -6341,7 +6339,7 @@
       <c r="C2" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="108" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="52" t="s">
@@ -6353,14 +6351,14 @@
       <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="108"/>
+      <c r="A3" s="113"/>
       <c r="B3" t="s">
         <v>128</v>
       </c>
       <c r="C3" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="104"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="46" t="s">
         <v>130</v>
       </c>
@@ -6368,11 +6366,11 @@
       <c r="G3" s="49"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="108"/>
+      <c r="A4" s="113"/>
       <c r="C4" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="104"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="46" t="s">
         <v>132</v>
       </c>
@@ -6380,12 +6378,12 @@
       <c r="G4" s="49"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="109"/>
+      <c r="A5" s="114"/>
       <c r="B5" s="50"/>
       <c r="C5" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="105"/>
+      <c r="D5" s="110"/>
       <c r="E5" s="55" t="s">
         <v>132</v>
       </c>
@@ -6393,7 +6391,7 @@
       <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="115" t="s">
         <v>134</v>
       </c>
       <c r="B6" t="s">
@@ -6402,7 +6400,7 @@
       <c r="C6" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="108" t="s">
         <v>137</v>
       </c>
       <c r="E6" s="46" t="s">
@@ -6412,11 +6410,11 @@
       <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="110"/>
+      <c r="A7" s="115"/>
       <c r="C7" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="104"/>
+      <c r="D7" s="109"/>
       <c r="E7" s="46" t="s">
         <v>118</v>
       </c>
@@ -6424,22 +6422,22 @@
       <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="110"/>
-      <c r="D8" s="104"/>
+      <c r="A8" s="115"/>
+      <c r="D8" s="109"/>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
       <c r="G8" s="49"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="110"/>
-      <c r="D9" s="104"/>
+      <c r="A9" s="115"/>
+      <c r="D9" s="109"/>
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
       <c r="G9" s="49"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="111"/>
-      <c r="D10" s="105"/>
+      <c r="A10" s="116"/>
+      <c r="D10" s="110"/>
       <c r="E10" s="46" t="s">
         <v>140</v>
       </c>
@@ -6447,7 +6445,7 @@
       <c r="G10" s="49"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="112" t="s">
+      <c r="A11" s="117" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -6456,7 +6454,7 @@
       <c r="C11" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="103" t="s">
+      <c r="D11" s="108" t="s">
         <v>142</v>
       </c>
       <c r="E11" s="52" t="s">
@@ -6466,11 +6464,11 @@
       <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="112"/>
+      <c r="A12" s="117"/>
       <c r="C12" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="104"/>
+      <c r="D12" s="109"/>
       <c r="E12" s="46"/>
       <c r="F12" s="46" t="s">
         <v>143</v>
@@ -6478,14 +6476,14 @@
       <c r="G12" s="49"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="112"/>
+      <c r="A13" s="117"/>
       <c r="B13" t="s">
         <v>145</v>
       </c>
       <c r="C13" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="104"/>
+      <c r="D13" s="109"/>
       <c r="E13" s="46" t="s">
         <v>143</v>
       </c>
@@ -6493,24 +6491,24 @@
       <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="112"/>
+      <c r="A14" s="117"/>
       <c r="C14" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="104"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
       <c r="G14" s="49"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="112"/>
-      <c r="D15" s="105"/>
+      <c r="A15" s="117"/>
+      <c r="D15" s="110"/>
       <c r="E15" s="46"/>
       <c r="F15" s="46"/>
       <c r="G15" s="49"/>
     </row>
     <row r="16" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A16" s="97" t="s">
+      <c r="A16" s="102" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="47" t="s">
@@ -6519,7 +6517,7 @@
       <c r="C16" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="103" t="s">
+      <c r="D16" s="108" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="52" t="s">
@@ -6529,11 +6527,11 @@
       <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A17" s="98"/>
+      <c r="A17" s="103"/>
       <c r="C17" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="104"/>
+      <c r="D17" s="109"/>
       <c r="E17" s="46">
         <v>1.5</v>
       </c>
@@ -6541,11 +6539,11 @@
       <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A18" s="98"/>
+      <c r="A18" s="103"/>
       <c r="C18" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="104"/>
+      <c r="D18" s="109"/>
       <c r="E18" s="46"/>
       <c r="F18" s="46">
         <v>1.5</v>
@@ -6553,11 +6551,11 @@
       <c r="G18" s="49"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A19" s="98"/>
+      <c r="A19" s="103"/>
       <c r="C19" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="105"/>
+      <c r="D19" s="110"/>
       <c r="E19" s="46"/>
       <c r="F19" s="57">
         <v>0.5</v>
@@ -6565,7 +6563,7 @@
       <c r="G19" s="49"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="102" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="47" t="s">
@@ -6580,7 +6578,7 @@
       <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="98"/>
+      <c r="A21" s="103"/>
       <c r="C21" t="s">
         <v>154</v>
       </c>
@@ -6590,7 +6588,7 @@
       <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="99"/>
+      <c r="A22" s="104"/>
       <c r="B22" s="50"/>
       <c r="C22" s="50" t="s">
         <v>155</v>
@@ -6605,7 +6603,7 @@
       <c r="G22" s="51"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="106" t="s">
+      <c r="A23" s="111" t="s">
         <v>28</v>
       </c>
       <c r="B23" t="s">
@@ -6614,7 +6612,7 @@
       <c r="C23" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="103"/>
+      <c r="D23" s="108"/>
       <c r="E23" s="46" t="s">
         <v>158</v>
       </c>
@@ -6622,11 +6620,11 @@
       <c r="G23" s="49"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="106"/>
+      <c r="A24" s="111"/>
       <c r="C24" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="104"/>
+      <c r="D24" s="109"/>
       <c r="E24" s="46">
         <v>2</v>
       </c>
@@ -6634,11 +6632,11 @@
       <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="106"/>
+      <c r="A25" s="111"/>
       <c r="C25" t="s">
         <v>151</v>
       </c>
-      <c r="D25" s="104"/>
+      <c r="D25" s="109"/>
       <c r="E25" s="46">
         <v>1</v>
       </c>
@@ -6646,11 +6644,11 @@
       <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="106"/>
+      <c r="A26" s="111"/>
       <c r="C26" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="105"/>
+      <c r="D26" s="110"/>
       <c r="E26" s="46">
         <v>1</v>
       </c>
@@ -6658,7 +6656,7 @@
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="97" t="s">
+      <c r="A27" s="102" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="47" t="s">
@@ -6667,7 +6665,7 @@
       <c r="C27" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="103" t="s">
+      <c r="D27" s="108" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="52" t="s">
@@ -6677,14 +6675,14 @@
       <c r="G27" s="48"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="98"/>
+      <c r="A28" s="103"/>
       <c r="B28" s="45" t="s">
         <v>128</v>
       </c>
       <c r="C28" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="104"/>
+      <c r="D28" s="109"/>
       <c r="E28" s="46" t="s">
         <v>130</v>
       </c>
@@ -6692,11 +6690,11 @@
       <c r="G28" s="49"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="98"/>
+      <c r="A29" s="103"/>
       <c r="C29" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="104"/>
+      <c r="D29" s="109"/>
       <c r="E29" s="46" t="s">
         <v>132</v>
       </c>
@@ -6704,12 +6702,12 @@
       <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A30" s="98"/>
+      <c r="A30" s="103"/>
       <c r="B30" s="50"/>
       <c r="C30" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="D30" s="105"/>
+      <c r="D30" s="110"/>
       <c r="E30" s="55" t="s">
         <v>132</v>
       </c>
@@ -6717,10 +6715,10 @@
       <c r="G30" s="51"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="97" t="s">
+      <c r="A31" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="100" t="s">
+      <c r="D31" s="105" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="46"/>
@@ -6728,14 +6726,14 @@
       <c r="G31" s="49"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="98"/>
+      <c r="A32" s="103"/>
       <c r="B32" t="s">
         <v>161</v>
       </c>
       <c r="C32" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="101"/>
+      <c r="D32" s="106"/>
       <c r="E32" s="46" t="s">
         <v>138</v>
       </c>
@@ -6743,14 +6741,14 @@
       <c r="G32" s="49"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="98"/>
+      <c r="A33" s="103"/>
       <c r="B33" t="s">
         <v>135</v>
       </c>
       <c r="C33" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="101"/>
+      <c r="D33" s="106"/>
       <c r="E33" s="46" t="s">
         <v>130</v>
       </c>
@@ -6758,28 +6756,28 @@
       <c r="G33" s="49"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="98"/>
-      <c r="D34" s="101"/>
+      <c r="A34" s="103"/>
+      <c r="D34" s="106"/>
       <c r="E34" s="46"/>
       <c r="F34" s="46"/>
       <c r="G34" s="49"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="98"/>
-      <c r="D35" s="102"/>
+      <c r="A35" s="103"/>
+      <c r="D35" s="107"/>
       <c r="E35" s="46"/>
       <c r="F35" s="46"/>
       <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="97" t="s">
+      <c r="A36" s="102" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="47"/>
       <c r="C36" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="D36" s="103"/>
+      <c r="D36" s="108"/>
       <c r="E36" s="52" t="s">
         <v>165</v>
       </c>
@@ -6787,14 +6785,14 @@
       <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="98"/>
+      <c r="A37" s="103"/>
       <c r="B37" t="s">
         <v>166</v>
       </c>
       <c r="C37" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="D37" s="104"/>
+      <c r="D37" s="109"/>
       <c r="E37" s="46" t="s">
         <v>168</v>
       </c>
@@ -6802,11 +6800,11 @@
       <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="98"/>
+      <c r="A38" s="103"/>
       <c r="C38" t="s">
         <v>169</v>
       </c>
-      <c r="D38" s="104"/>
+      <c r="D38" s="109"/>
       <c r="E38" s="46"/>
       <c r="F38" s="46" t="s">
         <v>170</v>
@@ -6814,46 +6812,46 @@
       <c r="G38" s="49"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="98"/>
-      <c r="D39" s="104"/>
+      <c r="A39" s="103"/>
+      <c r="D39" s="109"/>
       <c r="E39" s="46"/>
       <c r="F39" s="46"/>
       <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="99"/>
+      <c r="A40" s="104"/>
       <c r="B40" s="50"/>
       <c r="C40" s="50"/>
-      <c r="D40" s="105"/>
+      <c r="D40" s="110"/>
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
       <c r="G40" s="51"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="98" t="s">
+      <c r="A41" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="103" t="s">
+      <c r="D41" s="108" t="s">
         <v>24</v>
       </c>
       <c r="E41" s="46"/>
       <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="98"/>
-      <c r="D42" s="104"/>
+      <c r="A42" s="103"/>
+      <c r="D42" s="109"/>
       <c r="E42" s="46"/>
       <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="98"/>
+      <c r="A43" s="103"/>
       <c r="B43" t="s">
         <v>24</v>
       </c>
       <c r="C43" t="s">
         <v>162</v>
       </c>
-      <c r="D43" s="104"/>
+      <c r="D43" s="109"/>
       <c r="E43" s="46" t="s">
         <v>171</v>
       </c>
@@ -6863,16 +6861,16 @@
       <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="98"/>
-      <c r="D44" s="104"/>
+      <c r="A44" s="103"/>
+      <c r="D44" s="109"/>
       <c r="E44" s="46"/>
       <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="99"/>
+      <c r="A45" s="104"/>
       <c r="B45" s="50"/>
       <c r="C45" s="50"/>
-      <c r="D45" s="105"/>
+      <c r="D45" s="110"/>
       <c r="E45" s="55"/>
       <c r="F45" s="50"/>
       <c r="G45" s="51"/>
@@ -6910,7 +6908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5078C7BA-40AD-44B2-B44A-F90FDEF2CC2F}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -6946,7 +6944,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="123" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65" t="s">
@@ -6955,7 +6953,7 @@
       <c r="C2" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="126" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="56" t="s">
@@ -6967,12 +6965,12 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="119"/>
+      <c r="A3" s="124"/>
       <c r="B3" s="66"/>
       <c r="C3" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="122"/>
+      <c r="D3" s="127"/>
       <c r="E3" s="57" t="s">
         <v>130</v>
       </c>
@@ -6980,12 +6978,12 @@
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="119"/>
+      <c r="A4" s="124"/>
       <c r="B4" s="66"/>
       <c r="C4" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="122"/>
+      <c r="D4" s="127"/>
       <c r="E4" s="57" t="s">
         <v>176</v>
       </c>
@@ -6993,12 +6991,12 @@
       <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="119"/>
+      <c r="A5" s="124"/>
       <c r="B5" s="66"/>
       <c r="C5" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="122"/>
+      <c r="D5" s="127"/>
       <c r="E5" s="57" t="s">
         <v>173</v>
       </c>
@@ -7006,12 +7004,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="119"/>
+      <c r="A6" s="124"/>
       <c r="B6" s="66"/>
       <c r="C6" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="122"/>
+      <c r="D6" s="127"/>
       <c r="E6" s="57" t="s">
         <v>127</v>
       </c>
@@ -7019,12 +7017,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="120"/>
+      <c r="A7" s="125"/>
       <c r="B7" s="67"/>
       <c r="C7" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="123"/>
+      <c r="D7" s="128"/>
       <c r="E7" s="58" t="s">
         <v>179</v>
       </c>
@@ -7032,7 +7030,7 @@
       <c r="G7" s="61"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="124" t="s">
+      <c r="A8" s="129" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="66" t="s">
@@ -7041,7 +7039,7 @@
       <c r="C8" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="116" t="s">
+      <c r="D8" s="121" t="s">
         <v>137</v>
       </c>
       <c r="E8" s="63" t="s">
@@ -7051,12 +7049,12 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="124"/>
+      <c r="A9" s="129"/>
       <c r="B9" s="66"/>
       <c r="C9" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="116"/>
+      <c r="D9" s="121"/>
       <c r="E9" s="63" t="s">
         <v>130</v>
       </c>
@@ -7064,12 +7062,12 @@
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="124"/>
+      <c r="A10" s="129"/>
       <c r="B10" s="66"/>
       <c r="C10" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="D10" s="116"/>
+      <c r="D10" s="121"/>
       <c r="E10" s="63" t="s">
         <v>183</v>
       </c>
@@ -7077,12 +7075,12 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="125"/>
+      <c r="A11" s="130"/>
       <c r="B11" s="66"/>
       <c r="C11" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="116"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="63" t="s">
         <v>185</v>
       </c>
@@ -7090,14 +7088,14 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="124" t="s">
+      <c r="A12" s="129" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="62"/>
       <c r="C12" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="115" t="s">
+      <c r="D12" s="120" t="s">
         <v>142</v>
       </c>
       <c r="E12" s="62" t="s">
@@ -7107,12 +7105,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="124"/>
+      <c r="A13" s="129"/>
       <c r="B13" s="63"/>
       <c r="C13" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="D13" s="116"/>
+      <c r="D13" s="121"/>
       <c r="E13" s="63" t="s">
         <v>187</v>
       </c>
@@ -7120,12 +7118,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="124"/>
+      <c r="A14" s="129"/>
       <c r="B14" s="76"/>
       <c r="C14" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="116"/>
+      <c r="D14" s="121"/>
       <c r="E14" s="63"/>
       <c r="F14" s="60" t="s">
         <v>130</v>
@@ -7133,12 +7131,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="124"/>
+      <c r="A15" s="129"/>
       <c r="B15" s="63" t="s">
         <v>190</v>
       </c>
       <c r="C15" s="57"/>
-      <c r="D15" s="116"/>
+      <c r="D15" s="121"/>
       <c r="E15" s="63" t="s">
         <v>191</v>
       </c>
@@ -7146,23 +7144,23 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="125"/>
+      <c r="A16" s="130"/>
       <c r="B16" s="64"/>
       <c r="C16" s="57"/>
-      <c r="D16" s="117"/>
+      <c r="D16" s="122"/>
       <c r="E16" s="63"/>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A17" s="113" t="s">
+      <c r="A17" s="118" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="115" t="s">
+      <c r="D17" s="120" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="62" t="s">
@@ -7172,14 +7170,14 @@
       <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A18" s="113"/>
+      <c r="A18" s="118"/>
       <c r="B18" s="66" t="s">
         <v>193</v>
       </c>
       <c r="C18" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="116"/>
+      <c r="D18" s="121"/>
       <c r="E18" s="63" t="s">
         <v>176</v>
       </c>
@@ -7187,12 +7185,12 @@
       <c r="G18" s="60"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A19" s="113"/>
+      <c r="A19" s="118"/>
       <c r="B19" s="66"/>
       <c r="C19" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="D19" s="116"/>
+      <c r="D19" s="121"/>
       <c r="E19" s="63" t="s">
         <v>176</v>
       </c>
@@ -7200,12 +7198,12 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A20" s="113"/>
+      <c r="A20" s="118"/>
       <c r="B20" s="66"/>
       <c r="C20" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="D20" s="116"/>
+      <c r="D20" s="121"/>
       <c r="E20" s="63"/>
       <c r="F20" s="63" t="s">
         <v>194</v>
@@ -7213,7 +7211,7 @@
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="126" t="s">
+      <c r="A21" s="131" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="65" t="s">
@@ -7222,41 +7220,41 @@
       <c r="C21" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="D21" s="115" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="115" t="s">
+      <c r="D21" s="120" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="120" t="s">
         <v>197</v>
       </c>
-      <c r="F21" s="127" t="s">
+      <c r="F21" s="132" t="s">
         <v>198</v>
       </c>
       <c r="G21" s="59"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="113"/>
+      <c r="A22" s="118"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="128"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="133"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="113"/>
+      <c r="A23" s="118"/>
       <c r="B23" s="67"/>
       <c r="C23" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="129"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="134"/>
       <c r="G23" s="61"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="126" t="s">
+      <c r="A24" s="131" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="66" t="s">
@@ -7265,7 +7263,7 @@
       <c r="C24" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="116"/>
+      <c r="D24" s="121"/>
       <c r="E24" s="63" t="s">
         <v>173</v>
       </c>
@@ -7273,12 +7271,12 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="113"/>
+      <c r="A25" s="118"/>
       <c r="B25" s="66"/>
       <c r="C25" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="D25" s="116"/>
+      <c r="D25" s="121"/>
       <c r="E25" s="63" t="s">
         <v>191</v>
       </c>
@@ -7286,12 +7284,12 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="113"/>
+      <c r="A26" s="118"/>
       <c r="B26" s="66"/>
       <c r="C26" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="D26" s="116"/>
+      <c r="D26" s="121"/>
       <c r="E26" s="63" t="s">
         <v>130</v>
       </c>
@@ -7299,12 +7297,12 @@
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="113"/>
+      <c r="A27" s="118"/>
       <c r="B27" s="66"/>
       <c r="C27" s="66" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="116"/>
+      <c r="D27" s="121"/>
       <c r="E27" s="63" t="s">
         <v>202</v>
       </c>
@@ -7312,12 +7310,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="114"/>
+      <c r="A28" s="119"/>
       <c r="B28" s="66"/>
       <c r="C28" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="D28" s="117"/>
+      <c r="D28" s="122"/>
       <c r="E28" s="63" t="s">
         <v>130</v>
       </c>
@@ -7325,7 +7323,7 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="113" t="s">
+      <c r="A29" s="118" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="74" t="s">
@@ -7334,7 +7332,7 @@
       <c r="C29" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="115" t="s">
+      <c r="D29" s="120" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="62" t="s">
@@ -7346,12 +7344,12 @@
       <c r="G29" s="59"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="113"/>
+      <c r="A30" s="118"/>
       <c r="B30" s="70"/>
       <c r="C30" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="D30" s="116"/>
+      <c r="D30" s="121"/>
       <c r="E30" s="63" t="s">
         <v>205</v>
       </c>
@@ -7359,12 +7357,12 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="113"/>
+      <c r="A31" s="118"/>
       <c r="B31" s="71"/>
       <c r="C31" s="69" t="s">
         <v>206</v>
       </c>
-      <c r="D31" s="116"/>
+      <c r="D31" s="121"/>
       <c r="E31" s="63" t="s">
         <v>130</v>
       </c>
@@ -7372,12 +7370,12 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="113"/>
+      <c r="A32" s="118"/>
       <c r="B32" s="71"/>
       <c r="C32" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="D32" s="116"/>
+      <c r="D32" s="121"/>
       <c r="E32" s="63" t="s">
         <v>179</v>
       </c>
@@ -7385,12 +7383,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="113"/>
+      <c r="A33" s="118"/>
       <c r="B33" s="72"/>
       <c r="C33" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="D33" s="116"/>
+      <c r="D33" s="121"/>
       <c r="E33" s="63" t="s">
         <v>208</v>
       </c>
@@ -7398,12 +7396,12 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A34" s="113"/>
+      <c r="A34" s="118"/>
       <c r="B34" s="73"/>
       <c r="C34" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="D34" s="117"/>
+      <c r="D34" s="122"/>
       <c r="E34" s="64" t="s">
         <v>132</v>
       </c>
@@ -7411,12 +7409,12 @@
       <c r="G34" s="61"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="126" t="s">
+      <c r="A35" s="131" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="66"/>
       <c r="C35" s="66"/>
-      <c r="D35" s="115" t="s">
+      <c r="D35" s="120" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="63"/>
@@ -7424,12 +7422,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="113"/>
+      <c r="A36" s="118"/>
       <c r="B36" s="66"/>
       <c r="C36" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="D36" s="116"/>
+      <c r="D36" s="121"/>
       <c r="E36" s="63" t="s">
         <v>130</v>
       </c>
@@ -7437,14 +7435,14 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7" ht="21" customHeight="1">
-      <c r="A37" s="113"/>
+      <c r="A37" s="118"/>
       <c r="B37" s="66" t="s">
         <v>211</v>
       </c>
       <c r="C37" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="D37" s="116"/>
+      <c r="D37" s="121"/>
       <c r="E37" s="63" t="s">
         <v>180</v>
       </c>
@@ -7452,12 +7450,12 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="113"/>
+      <c r="A38" s="118"/>
       <c r="B38" s="66"/>
       <c r="C38" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="D38" s="116"/>
+      <c r="D38" s="121"/>
       <c r="E38" s="63"/>
       <c r="F38" s="60" t="s">
         <v>130</v>
@@ -7465,23 +7463,23 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="113"/>
+      <c r="A39" s="118"/>
       <c r="B39" s="66"/>
       <c r="C39" s="66"/>
-      <c r="D39" s="117"/>
+      <c r="D39" s="122"/>
       <c r="E39" s="63"/>
       <c r="F39" s="60"/>
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="126" t="s">
+      <c r="A40" s="131" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="65"/>
       <c r="C40" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="115"/>
+      <c r="D40" s="120"/>
       <c r="E40" s="62" t="s">
         <v>165</v>
       </c>
@@ -7489,14 +7487,14 @@
       <c r="G40" s="59"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="113"/>
+      <c r="A41" s="118"/>
       <c r="B41" s="66" t="s">
         <v>166</v>
       </c>
       <c r="C41" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="D41" s="116"/>
+      <c r="D41" s="121"/>
       <c r="E41" s="63" t="s">
         <v>168</v>
       </c>
@@ -7504,12 +7502,12 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="113"/>
+      <c r="A42" s="118"/>
       <c r="B42" s="66"/>
       <c r="C42" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="D42" s="116"/>
+      <c r="D42" s="121"/>
       <c r="E42" s="63"/>
       <c r="F42" s="60" t="s">
         <v>170</v>
@@ -7517,32 +7515,32 @@
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="113"/>
+      <c r="A43" s="118"/>
       <c r="B43" s="66"/>
       <c r="C43" s="66"/>
-      <c r="D43" s="116"/>
+      <c r="D43" s="121"/>
       <c r="E43" s="63"/>
       <c r="F43" s="60"/>
       <c r="G43" s="60"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="114"/>
+      <c r="A44" s="119"/>
       <c r="B44" s="67"/>
       <c r="C44" s="67"/>
-      <c r="D44" s="117"/>
+      <c r="D44" s="122"/>
       <c r="E44" s="64"/>
       <c r="F44" s="60"/>
       <c r="G44" s="61"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="113" t="s">
+      <c r="A45" s="118" t="s">
         <v>30</v>
       </c>
       <c r="B45" s="66"/>
       <c r="C45" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D45" s="115" t="s">
+      <c r="D45" s="120" t="s">
         <v>24</v>
       </c>
       <c r="E45" s="65" t="s">
@@ -7552,12 +7550,12 @@
       <c r="G45" s="60"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="113"/>
+      <c r="A46" s="118"/>
       <c r="B46" s="66"/>
       <c r="C46" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D46" s="116"/>
+      <c r="D46" s="121"/>
       <c r="E46" s="66" t="s">
         <v>176</v>
       </c>
@@ -7565,14 +7563,14 @@
       <c r="G46" s="60"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="113"/>
+      <c r="A47" s="118"/>
       <c r="B47" s="66" t="s">
         <v>193</v>
       </c>
       <c r="C47" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="D47" s="116"/>
+      <c r="D47" s="121"/>
       <c r="E47" s="66" t="s">
         <v>176</v>
       </c>
@@ -7580,12 +7578,12 @@
       <c r="G47" s="60"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="113"/>
+      <c r="A48" s="118"/>
       <c r="B48" s="66"/>
       <c r="C48" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="D48" s="116"/>
+      <c r="D48" s="121"/>
       <c r="E48" s="66"/>
       <c r="F48" s="63" t="s">
         <v>194</v>
@@ -7593,10 +7591,10 @@
       <c r="G48" s="60"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="114"/>
+      <c r="A49" s="119"/>
       <c r="B49" s="67"/>
       <c r="C49" s="67"/>
-      <c r="D49" s="117"/>
+      <c r="D49" s="122"/>
       <c r="E49" s="67"/>
       <c r="F49" s="64"/>
       <c r="G49" s="61"/>
@@ -7640,8 +7638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98AF41B8-7A85-46D9-B88B-9A72A502D06D}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7656,35 +7654,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="D1" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="E1" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="G1" s="92" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="131" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="126" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -7696,34 +7694,34 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="113"/>
+      <c r="A3" s="118"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="122"/>
+      <c r="D3" s="127"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="114"/>
+      <c r="A4" s="119"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="123"/>
+      <c r="D4" s="128"/>
       <c r="E4" s="58"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="129" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62"/>
-      <c r="D5" s="101" t="s">
+      <c r="D5" s="106" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="63"/>
@@ -7731,12 +7729,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="124"/>
+      <c r="A6" s="129"/>
       <c r="B6" s="66"/>
       <c r="C6" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="101"/>
+      <c r="D6" s="106"/>
       <c r="E6" s="63" t="s">
         <v>218</v>
       </c>
@@ -7744,30 +7742,30 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="124"/>
+      <c r="A7" s="129"/>
       <c r="B7" s="66"/>
       <c r="C7" s="63"/>
-      <c r="D7" s="101"/>
+      <c r="D7" s="106"/>
       <c r="E7" s="63"/>
       <c r="F7" s="60"/>
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="125"/>
+      <c r="A8" s="130"/>
       <c r="B8" s="66"/>
       <c r="C8" s="64"/>
-      <c r="D8" s="101"/>
+      <c r="D8" s="106"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="124" t="s">
+      <c r="A9" s="129" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="62"/>
       <c r="C9" s="57"/>
-      <c r="D9" s="115" t="s">
+      <c r="D9" s="120" t="s">
         <v>142</v>
       </c>
       <c r="E9" s="65"/>
@@ -7775,12 +7773,12 @@
       <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="124"/>
+      <c r="A10" s="129"/>
       <c r="B10" s="63"/>
       <c r="C10" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="D10" s="116"/>
+      <c r="D10" s="121"/>
       <c r="E10" s="66" t="s">
         <v>106</v>
       </c>
@@ -7790,12 +7788,12 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="124"/>
+      <c r="A11" s="129"/>
       <c r="B11" s="63" t="s">
         <v>220</v>
       </c>
       <c r="C11" s="57"/>
-      <c r="D11" s="117"/>
+      <c r="D11" s="122"/>
       <c r="E11" s="67"/>
       <c r="F11" s="63" t="s">
         <v>130</v>
@@ -7803,12 +7801,12 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="126" t="s">
+      <c r="A12" s="131" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="65"/>
       <c r="C12" s="62"/>
-      <c r="D12" s="100" t="s">
+      <c r="D12" s="105" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="66"/>
@@ -7816,12 +7814,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="113"/>
+      <c r="A13" s="118"/>
       <c r="B13" s="66" t="s">
         <v>221</v>
       </c>
       <c r="C13" s="76"/>
-      <c r="D13" s="101"/>
+      <c r="D13" s="106"/>
       <c r="E13" s="66" t="s">
         <v>222</v>
       </c>
@@ -7829,12 +7827,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="113"/>
+      <c r="A14" s="118"/>
       <c r="B14" s="66"/>
       <c r="C14" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="D14" s="101"/>
+      <c r="D14" s="106"/>
       <c r="E14" s="66"/>
       <c r="F14" s="63" t="s">
         <v>222</v>
@@ -7842,62 +7840,62 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="114"/>
+      <c r="A15" s="119"/>
       <c r="B15" s="67"/>
       <c r="C15" s="64"/>
-      <c r="D15" s="101"/>
+      <c r="D15" s="106"/>
       <c r="E15" s="66"/>
       <c r="F15" s="64"/>
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="113" t="s">
+      <c r="A16" s="118" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="63"/>
       <c r="C16" s="57"/>
-      <c r="D16" s="115" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="115" t="s">
+      <c r="D16" s="120" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="120" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="128">
+      <c r="F16" s="133">
         <v>1</v>
       </c>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="113"/>
+      <c r="A17" s="118"/>
       <c r="B17" s="63" t="s">
         <v>224</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>225</v>
       </c>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="128"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="133"/>
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="113"/>
+      <c r="A18" s="118"/>
       <c r="B18" s="64"/>
       <c r="C18" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="129"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="134"/>
       <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="126" t="s">
+      <c r="A19" s="131" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="66"/>
-      <c r="D19" s="116" t="s">
+      <c r="D19" s="121" t="s">
         <v>227</v>
       </c>
       <c r="E19" s="63"/>
@@ -7905,23 +7903,23 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="113"/>
+      <c r="A20" s="118"/>
       <c r="B20" s="66"/>
       <c r="C20" s="66"/>
-      <c r="D20" s="116"/>
+      <c r="D20" s="121"/>
       <c r="E20" s="63"/>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="113"/>
+      <c r="A21" s="118"/>
       <c r="B21" s="66" t="s">
         <v>228</v>
       </c>
       <c r="C21" s="66" t="s">
         <v>229</v>
       </c>
-      <c r="D21" s="116"/>
+      <c r="D21" s="121"/>
       <c r="E21" s="63" t="s">
         <v>185</v>
       </c>
@@ -7931,34 +7929,34 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="113"/>
+      <c r="A22" s="118"/>
       <c r="B22" s="66" t="s">
         <v>231</v>
       </c>
       <c r="C22" s="66"/>
-      <c r="D22" s="116"/>
+      <c r="D22" s="121"/>
       <c r="E22" s="63"/>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="114"/>
+      <c r="A23" s="119"/>
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
-      <c r="D23" s="117"/>
+      <c r="D23" s="122"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="113" t="s">
+      <c r="A24" s="118" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="78"/>
       <c r="C24" s="62" t="s">
         <v>232</v>
       </c>
-      <c r="D24" s="100" t="s">
+      <c r="D24" s="105" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="65" t="s">
@@ -7968,30 +7966,30 @@
       <c r="G24" s="62"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="113"/>
-      <c r="B25" s="94"/>
+      <c r="A25" s="118"/>
+      <c r="B25" s="83"/>
       <c r="C25" s="63"/>
-      <c r="D25" s="101"/>
+      <c r="D25" s="106"/>
       <c r="E25" s="66"/>
       <c r="F25" s="66"/>
       <c r="G25" s="63"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="113"/>
+      <c r="A26" s="118"/>
       <c r="B26" s="95"/>
       <c r="C26" s="64"/>
-      <c r="D26" s="101"/>
+      <c r="D26" s="106"/>
       <c r="E26" s="66"/>
       <c r="F26" s="67"/>
       <c r="G26" s="64"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="126" t="s">
+      <c r="A27" s="131" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="66"/>
       <c r="C27" s="66"/>
-      <c r="D27" s="115" t="s">
+      <c r="D27" s="120" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="62"/>
@@ -7999,14 +7997,14 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="113"/>
+      <c r="A28" s="118"/>
       <c r="B28" s="66" t="s">
         <v>220</v>
       </c>
       <c r="C28" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="D28" s="116"/>
+      <c r="D28" s="121"/>
       <c r="E28" s="63" t="s">
         <v>222</v>
       </c>
@@ -8016,12 +8014,12 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="113"/>
+      <c r="A29" s="118"/>
       <c r="B29" s="66" t="s">
         <v>221</v>
       </c>
       <c r="C29" s="66"/>
-      <c r="D29" s="116"/>
+      <c r="D29" s="121"/>
       <c r="E29" s="64"/>
       <c r="F29" s="60" t="s">
         <v>130</v>
@@ -8029,25 +8027,25 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="126" t="s">
+      <c r="A30" s="131" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="65"/>
       <c r="C30" s="65"/>
-      <c r="D30" s="127"/>
+      <c r="D30" s="132"/>
       <c r="E30" s="60"/>
       <c r="F30" s="59"/>
       <c r="G30" s="59"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="113"/>
+      <c r="A31" s="118"/>
       <c r="B31" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C31" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="D31" s="128"/>
+      <c r="D31" s="133"/>
       <c r="E31" s="60" t="s">
         <v>168</v>
       </c>
@@ -8055,12 +8053,12 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="113"/>
+      <c r="A32" s="118"/>
       <c r="B32" s="66"/>
       <c r="C32" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="D32" s="128"/>
+      <c r="D32" s="133"/>
       <c r="E32" s="60"/>
       <c r="F32" s="60" t="s">
         <v>170</v>
@@ -8068,43 +8066,43 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="113"/>
+      <c r="A33" s="118"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66"/>
-      <c r="D33" s="128"/>
+      <c r="D33" s="133"/>
       <c r="E33" s="60"/>
       <c r="F33" s="60"/>
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="114"/>
+      <c r="A34" s="119"/>
       <c r="B34" s="66"/>
       <c r="C34" s="67"/>
-      <c r="D34" s="129"/>
+      <c r="D34" s="134"/>
       <c r="E34" s="60"/>
       <c r="F34" s="60"/>
       <c r="G34" s="61"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="113" t="s">
+      <c r="A35" s="118" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="62"/>
       <c r="C35" s="57"/>
-      <c r="D35" s="128" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="92"/>
+      <c r="D35" s="133" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="93"/>
       <c r="F35" s="62"/>
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="113"/>
+      <c r="A36" s="118"/>
       <c r="B36" s="63"/>
       <c r="C36" s="66" t="s">
         <v>237</v>
       </c>
-      <c r="D36" s="128"/>
+      <c r="D36" s="133"/>
       <c r="E36" s="57" t="s">
         <v>238</v>
       </c>
@@ -8114,29 +8112,29 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="113"/>
+      <c r="A37" s="118"/>
       <c r="B37" s="63" t="s">
         <v>221</v>
       </c>
       <c r="C37" s="46"/>
-      <c r="D37" s="128"/>
+      <c r="D37" s="133"/>
       <c r="E37" s="57"/>
       <c r="F37" s="76"/>
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="113"/>
+      <c r="A38" s="118"/>
       <c r="B38" s="63"/>
-      <c r="D38" s="128"/>
+      <c r="D38" s="133"/>
       <c r="E38" s="57"/>
       <c r="F38" s="76"/>
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="114"/>
+      <c r="A39" s="119"/>
       <c r="B39" s="64"/>
       <c r="C39" s="58"/>
-      <c r="D39" s="129"/>
+      <c r="D39" s="134"/>
       <c r="E39" s="58"/>
       <c r="F39" s="64"/>
       <c r="G39" s="61"/>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC30A0B3-0884-4967-B846-5E3480021A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72F02B88-C0EA-4B66-886A-B915AFE67B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1836,6 +1836,33 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1854,35 +1881,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1890,15 +1911,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1921,18 +1933,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2761,12 +2761,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="127" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="126" t="s">
+      <c r="D2" s="130" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -2778,36 +2778,36 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="124"/>
+      <c r="A3" s="128"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="127"/>
+      <c r="D3" s="131"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="125"/>
+      <c r="A4" s="129"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="128"/>
+      <c r="D4" s="132"/>
       <c r="E4" s="58"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="133" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="D5" s="106" t="s">
+      <c r="D5" s="115" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="63" t="s">
@@ -2817,12 +2817,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="129"/>
+      <c r="A6" s="133"/>
       <c r="B6" s="66"/>
       <c r="C6" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="D6" s="106"/>
+      <c r="D6" s="115"/>
       <c r="E6" s="63" t="s">
         <v>243</v>
       </c>
@@ -2830,12 +2830,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="129"/>
+      <c r="A7" s="133"/>
       <c r="B7" s="66"/>
       <c r="C7" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="106"/>
+      <c r="D7" s="115"/>
       <c r="E7" s="63" t="s">
         <v>180</v>
       </c>
@@ -2843,21 +2843,21 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="130"/>
+      <c r="A8" s="134"/>
       <c r="B8" s="66"/>
       <c r="C8" s="64"/>
-      <c r="D8" s="106"/>
+      <c r="D8" s="115"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="133" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="62"/>
       <c r="C9" s="57"/>
-      <c r="D9" s="120" t="s">
+      <c r="D9" s="118" t="s">
         <v>142</v>
       </c>
       <c r="E9" s="65"/>
@@ -2865,14 +2865,14 @@
       <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="129"/>
+      <c r="A10" s="133"/>
       <c r="B10" s="63" t="s">
         <v>216</v>
       </c>
       <c r="C10" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="D10" s="121"/>
+      <c r="D10" s="119"/>
       <c r="E10" s="66" t="s">
         <v>106</v>
       </c>
@@ -2882,23 +2882,23 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="130"/>
+      <c r="A11" s="134"/>
       <c r="B11" s="63"/>
       <c r="C11" s="57"/>
-      <c r="D11" s="122"/>
+      <c r="D11" s="120"/>
       <c r="E11" s="67"/>
       <c r="F11" s="64"/>
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="118" t="s">
+      <c r="A12" s="125" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="65"/>
       <c r="C12" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="D12" s="105" t="s">
+      <c r="D12" s="114" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="63">
@@ -2908,12 +2908,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="118"/>
+      <c r="A13" s="125"/>
       <c r="B13" s="66"/>
       <c r="C13" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="106"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="63" t="s">
         <v>230</v>
       </c>
@@ -2921,12 +2921,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="118"/>
+      <c r="A14" s="125"/>
       <c r="B14" s="66"/>
       <c r="C14" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="106"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="63" t="s">
         <v>185</v>
       </c>
@@ -2934,12 +2934,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="118"/>
+      <c r="A15" s="125"/>
       <c r="B15" s="67" t="s">
         <v>248</v>
       </c>
       <c r="C15" s="64"/>
-      <c r="D15" s="106"/>
+      <c r="D15" s="115"/>
       <c r="E15" s="63"/>
       <c r="F15" s="63" t="s">
         <v>194</v>
@@ -2947,50 +2947,50 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="131" t="s">
+      <c r="A16" s="124" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="63"/>
       <c r="C16" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="D16" s="120" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="120" t="s">
+      <c r="D16" s="118" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="132">
+      <c r="F16" s="121">
         <v>1</v>
       </c>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="118"/>
+      <c r="A17" s="125"/>
       <c r="B17" s="63" t="s">
         <v>224</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>250</v>
       </c>
-      <c r="D17" s="121"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="133"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="122"/>
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="118"/>
+      <c r="A18" s="125"/>
       <c r="B18" s="64"/>
       <c r="C18" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="134"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="123"/>
       <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="131" t="s">
+      <c r="A19" s="124" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="66" t="s">
@@ -2999,7 +2999,7 @@
       <c r="C19" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="D19" s="121" t="s">
+      <c r="D19" s="119" t="s">
         <v>227</v>
       </c>
       <c r="E19" s="63" t="s">
@@ -3009,14 +3009,14 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="118"/>
+      <c r="A20" s="125"/>
       <c r="B20" s="66" t="s">
         <v>248</v>
       </c>
       <c r="C20" s="66" t="s">
         <v>253</v>
       </c>
-      <c r="D20" s="121"/>
+      <c r="D20" s="119"/>
       <c r="E20" s="63" t="s">
         <v>185</v>
       </c>
@@ -3026,14 +3026,14 @@
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="118"/>
+      <c r="A21" s="125"/>
       <c r="B21" s="66" t="s">
         <v>255</v>
       </c>
       <c r="C21" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="D21" s="121"/>
+      <c r="D21" s="119"/>
       <c r="E21" s="63" t="s">
         <v>252</v>
       </c>
@@ -3041,25 +3041,25 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="118"/>
+      <c r="A22" s="125"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66"/>
-      <c r="D22" s="121"/>
+      <c r="D22" s="119"/>
       <c r="E22" s="63"/>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="119"/>
+      <c r="A23" s="126"/>
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
-      <c r="D23" s="122"/>
+      <c r="D23" s="120"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="118" t="s">
+      <c r="A24" s="125" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="78" t="s">
@@ -3068,7 +3068,7 @@
       <c r="C24" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="D24" s="105" t="s">
+      <c r="D24" s="114" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="62" t="s">
@@ -3080,12 +3080,12 @@
       <c r="G24" s="59"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="118"/>
+      <c r="A25" s="125"/>
       <c r="B25" s="79"/>
       <c r="C25" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D25" s="106"/>
+      <c r="D25" s="115"/>
       <c r="E25" s="63" t="s">
         <v>257</v>
       </c>
@@ -3093,12 +3093,12 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="118"/>
+      <c r="A26" s="125"/>
       <c r="B26" s="80"/>
       <c r="C26" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D26" s="106"/>
+      <c r="D26" s="115"/>
       <c r="E26" s="63" t="s">
         <v>185</v>
       </c>
@@ -3106,21 +3106,21 @@
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="118"/>
+      <c r="A27" s="125"/>
       <c r="B27" s="81"/>
       <c r="C27" s="64"/>
-      <c r="D27" s="107"/>
+      <c r="D27" s="116"/>
       <c r="E27" s="63"/>
       <c r="F27" s="61"/>
       <c r="G27" s="61"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="131" t="s">
+      <c r="A28" s="124" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="66"/>
       <c r="C28" s="66"/>
-      <c r="D28" s="120" t="s">
+      <c r="D28" s="118" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="62"/>
@@ -3128,14 +3128,14 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="118"/>
+      <c r="A29" s="125"/>
       <c r="B29" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C29" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D29" s="121"/>
+      <c r="D29" s="119"/>
       <c r="E29" s="63" t="s">
         <v>106</v>
       </c>
@@ -3143,23 +3143,23 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="118"/>
+      <c r="A30" s="125"/>
       <c r="B30" s="66"/>
       <c r="C30" s="66"/>
-      <c r="D30" s="121"/>
+      <c r="D30" s="119"/>
       <c r="E30" s="64"/>
       <c r="F30" s="60"/>
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="131" t="s">
+      <c r="A31" s="124" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="65"/>
       <c r="C31" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="132"/>
+      <c r="D31" s="121"/>
       <c r="E31" s="60" t="s">
         <v>171</v>
       </c>
@@ -3167,14 +3167,14 @@
       <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="118"/>
+      <c r="A32" s="125"/>
       <c r="B32" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="D32" s="133"/>
+      <c r="D32" s="122"/>
       <c r="E32" s="60" t="s">
         <v>168</v>
       </c>
@@ -3182,12 +3182,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="118"/>
+      <c r="A33" s="125"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66" t="s">
         <v>259</v>
       </c>
-      <c r="D33" s="133"/>
+      <c r="D33" s="122"/>
       <c r="E33" s="60"/>
       <c r="F33" s="60" t="s">
         <v>170</v>
@@ -3195,32 +3195,32 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="118"/>
+      <c r="A34" s="125"/>
       <c r="B34" s="66"/>
       <c r="C34" s="66"/>
-      <c r="D34" s="133"/>
+      <c r="D34" s="122"/>
       <c r="E34" s="60"/>
       <c r="F34" s="60"/>
       <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="119"/>
+      <c r="A35" s="126"/>
       <c r="B35" s="66"/>
       <c r="C35" s="67"/>
-      <c r="D35" s="134"/>
+      <c r="D35" s="123"/>
       <c r="E35" s="60"/>
       <c r="F35" s="60"/>
       <c r="G35" s="61"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="118" t="s">
+      <c r="A36" s="125" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="62"/>
       <c r="C36" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="D36" s="121" t="s">
+      <c r="D36" s="119" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="82" t="s">
@@ -3230,12 +3230,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="118"/>
+      <c r="A37" s="125"/>
       <c r="B37" s="63"/>
       <c r="C37" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="D37" s="121"/>
+      <c r="D37" s="119"/>
       <c r="E37" s="66" t="s">
         <v>170</v>
       </c>
@@ -3243,14 +3243,14 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="118"/>
+      <c r="A38" s="125"/>
       <c r="B38" s="63" t="s">
         <v>248</v>
       </c>
       <c r="C38" s="60" t="s">
         <v>260</v>
       </c>
-      <c r="D38" s="121"/>
+      <c r="D38" s="119"/>
       <c r="E38" s="66" t="s">
         <v>171</v>
       </c>
@@ -3260,11 +3260,11 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="118"/>
+      <c r="A39" s="125"/>
       <c r="B39" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="D39" s="121"/>
+      <c r="D39" s="119"/>
       <c r="E39" s="66"/>
       <c r="F39" s="94" t="s">
         <v>171</v>
@@ -3272,26 +3272,16 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="119"/>
+      <c r="A40" s="126"/>
       <c r="B40" s="64"/>
       <c r="C40" s="58"/>
-      <c r="D40" s="122"/>
+      <c r="D40" s="120"/>
       <c r="E40" s="67"/>
       <c r="F40" s="64"/>
       <c r="G40" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="D28:D30"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -3304,6 +3294,16 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="E16:E18"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="D28:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3352,12 +3352,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="127" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="126" t="s">
+      <c r="D2" s="130" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -3369,36 +3369,36 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="124"/>
+      <c r="A3" s="128"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="127"/>
+      <c r="D3" s="131"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="125"/>
+      <c r="A4" s="129"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
-      <c r="D4" s="128"/>
+      <c r="D4" s="132"/>
       <c r="E4" s="57"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="133" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="121" t="s">
+      <c r="D5" s="119" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="84" t="s">
@@ -3408,14 +3408,14 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="129"/>
+      <c r="A6" s="133"/>
       <c r="B6" s="66" t="s">
         <v>255</v>
       </c>
       <c r="C6" s="66" t="s">
         <v>262</v>
       </c>
-      <c r="D6" s="121"/>
+      <c r="D6" s="119"/>
       <c r="E6" s="63" t="s">
         <v>263</v>
       </c>
@@ -3423,12 +3423,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="129"/>
+      <c r="A7" s="133"/>
       <c r="B7" s="66"/>
       <c r="C7" s="66" t="s">
         <v>264</v>
       </c>
-      <c r="D7" s="121"/>
+      <c r="D7" s="119"/>
       <c r="E7" s="63" t="s">
         <v>263</v>
       </c>
@@ -3436,12 +3436,12 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="129"/>
+      <c r="A8" s="133"/>
       <c r="B8" s="66" t="s">
         <v>265</v>
       </c>
       <c r="C8" s="66"/>
-      <c r="D8" s="121"/>
+      <c r="D8" s="119"/>
       <c r="E8" s="63" t="s">
         <v>241</v>
       </c>
@@ -3449,12 +3449,12 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="130"/>
+      <c r="A9" s="134"/>
       <c r="B9" s="66" t="s">
         <v>266</v>
       </c>
       <c r="C9" s="66"/>
-      <c r="D9" s="121"/>
+      <c r="D9" s="119"/>
       <c r="E9" s="64" t="s">
         <v>241</v>
       </c>
@@ -3462,14 +3462,14 @@
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="129" t="s">
+      <c r="A10" s="133" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="62"/>
       <c r="C10" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D10" s="120" t="s">
+      <c r="D10" s="118" t="s">
         <v>142</v>
       </c>
       <c r="E10" s="85" t="s">
@@ -3479,14 +3479,14 @@
       <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="129"/>
+      <c r="A11" s="133"/>
       <c r="B11" s="63" t="s">
         <v>267</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="D11" s="121"/>
+      <c r="D11" s="119"/>
       <c r="E11" s="63" t="s">
         <v>263</v>
       </c>
@@ -3496,14 +3496,14 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="130"/>
+      <c r="A12" s="134"/>
       <c r="B12" s="63" t="s">
         <v>269</v>
       </c>
       <c r="C12" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="D12" s="122"/>
+      <c r="D12" s="120"/>
       <c r="E12" s="66"/>
       <c r="F12" s="64" t="s">
         <v>180</v>
@@ -3511,7 +3511,7 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="118" t="s">
+      <c r="A13" s="125" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="101" t="s">
@@ -3520,7 +3520,7 @@
       <c r="C13" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="105" t="s">
+      <c r="D13" s="114" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="84" t="s">
@@ -3532,12 +3532,12 @@
       <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="118"/>
+      <c r="A14" s="125"/>
       <c r="B14" s="63"/>
       <c r="C14" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="D14" s="106"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="63" t="s">
         <v>273</v>
       </c>
@@ -3545,12 +3545,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="118"/>
+      <c r="A15" s="125"/>
       <c r="B15" s="64"/>
       <c r="C15" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="D15" s="106"/>
+      <c r="D15" s="115"/>
       <c r="E15" s="64" t="s">
         <v>173</v>
       </c>
@@ -3558,57 +3558,57 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="131" t="s">
+      <c r="A16" s="124" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="63"/>
       <c r="C16" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="D16" s="120" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="121" t="s">
+      <c r="D16" s="118" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="119" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="132">
+      <c r="F16" s="121">
         <v>1</v>
       </c>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="118"/>
+      <c r="A17" s="125"/>
       <c r="B17" s="63" t="s">
         <v>276</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>277</v>
       </c>
-      <c r="D17" s="121"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="133"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="122"/>
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="118"/>
+      <c r="A18" s="125"/>
       <c r="B18" s="63"/>
       <c r="C18" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="D18" s="122"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="134"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="123"/>
       <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="131" t="s">
+      <c r="A19" s="124" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="62"/>
       <c r="C19" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D19" s="121" t="s">
+      <c r="D19" s="119" t="s">
         <v>227</v>
       </c>
       <c r="E19" s="84" t="s">
@@ -3618,12 +3618,12 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="118"/>
+      <c r="A20" s="125"/>
       <c r="B20" s="63"/>
       <c r="C20" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="121"/>
+      <c r="D20" s="119"/>
       <c r="E20" s="63" t="s">
         <v>185</v>
       </c>
@@ -3631,12 +3631,12 @@
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="118"/>
+      <c r="A21" s="125"/>
       <c r="B21" s="76"/>
       <c r="C21" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="D21" s="121"/>
+      <c r="D21" s="119"/>
       <c r="E21" s="63"/>
       <c r="F21" s="60" t="s">
         <v>185</v>
@@ -3644,12 +3644,12 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="118"/>
+      <c r="A22" s="125"/>
       <c r="B22" s="63" t="s">
         <v>255</v>
       </c>
       <c r="C22" s="57"/>
-      <c r="D22" s="121"/>
+      <c r="D22" s="119"/>
       <c r="E22" s="63"/>
       <c r="F22" s="60" t="s">
         <v>222</v>
@@ -3664,7 +3664,7 @@
       <c r="C23" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D23" s="105" t="s">
+      <c r="D23" s="114" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="84" t="s">
@@ -3683,7 +3683,7 @@
       <c r="C24" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="D24" s="106"/>
+      <c r="D24" s="115"/>
       <c r="E24" s="63" t="s">
         <v>273</v>
       </c>
@@ -3696,7 +3696,7 @@
       <c r="C25" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="D25" s="106"/>
+      <c r="D25" s="115"/>
       <c r="E25" s="63" t="s">
         <v>173</v>
       </c>
@@ -3707,18 +3707,18 @@
       <c r="A26" s="137"/>
       <c r="B26" s="96"/>
       <c r="C26" s="61"/>
-      <c r="D26" s="106"/>
+      <c r="D26" s="115"/>
       <c r="E26" s="64"/>
       <c r="F26" s="61"/>
       <c r="G26" s="61"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="118" t="s">
+      <c r="A27" s="125" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="62"/>
       <c r="C27" s="57"/>
-      <c r="D27" s="132" t="s">
+      <c r="D27" s="121" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="60"/>
@@ -3726,12 +3726,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="118"/>
+      <c r="A28" s="125"/>
       <c r="B28" s="63"/>
       <c r="C28" s="57" t="s">
         <v>280</v>
       </c>
-      <c r="D28" s="133"/>
+      <c r="D28" s="122"/>
       <c r="E28" s="60" t="s">
         <v>180</v>
       </c>
@@ -3739,14 +3739,14 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="118"/>
+      <c r="A29" s="125"/>
       <c r="B29" s="63" t="s">
         <v>269</v>
       </c>
       <c r="C29" s="57" t="s">
         <v>281</v>
       </c>
-      <c r="D29" s="133"/>
+      <c r="D29" s="122"/>
       <c r="E29" s="60" t="s">
         <v>180</v>
       </c>
@@ -3769,14 +3769,14 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="118" t="s">
+      <c r="A31" s="125" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="66"/>
       <c r="C31" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D31" s="121"/>
+      <c r="D31" s="119"/>
       <c r="E31" s="84" t="s">
         <v>173</v>
       </c>
@@ -3784,14 +3784,14 @@
       <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="118"/>
+      <c r="A32" s="125"/>
       <c r="B32" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="D32" s="121"/>
+      <c r="D32" s="119"/>
       <c r="E32" s="63" t="s">
         <v>168</v>
       </c>
@@ -3799,12 +3799,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="118"/>
+      <c r="A33" s="125"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="D33" s="121"/>
+      <c r="D33" s="119"/>
       <c r="E33" s="63"/>
       <c r="F33" s="60" t="s">
         <v>170</v>
@@ -3812,32 +3812,32 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="118"/>
+      <c r="A34" s="125"/>
       <c r="B34" s="66"/>
       <c r="C34" s="66"/>
-      <c r="D34" s="121"/>
+      <c r="D34" s="119"/>
       <c r="E34" s="63"/>
       <c r="F34" s="60"/>
       <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="119"/>
+      <c r="A35" s="126"/>
       <c r="B35" s="66"/>
       <c r="C35" s="66"/>
-      <c r="D35" s="122"/>
+      <c r="D35" s="120"/>
       <c r="E35" s="64"/>
       <c r="F35" s="60"/>
       <c r="G35" s="61"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="118" t="s">
+      <c r="A36" s="125" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="62"/>
       <c r="C36" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D36" s="105" t="s">
+      <c r="D36" s="114" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="85" t="s">
@@ -3847,12 +3847,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="118"/>
+      <c r="A37" s="125"/>
       <c r="B37" s="63"/>
       <c r="C37" s="60" t="s">
         <v>284</v>
       </c>
-      <c r="D37" s="106"/>
+      <c r="D37" s="115"/>
       <c r="E37" s="66" t="s">
         <v>170</v>
       </c>
@@ -3860,14 +3860,14 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="118"/>
+      <c r="A38" s="125"/>
       <c r="B38" s="63" t="s">
         <v>248</v>
       </c>
       <c r="C38" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="D38" s="106"/>
+      <c r="D38" s="115"/>
       <c r="E38" s="66" t="s">
         <v>170</v>
       </c>
@@ -3877,12 +3877,12 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="118"/>
+      <c r="A39" s="125"/>
       <c r="B39" s="99" t="s">
         <v>228</v>
       </c>
       <c r="C39" s="49"/>
-      <c r="D39" s="106"/>
+      <c r="D39" s="115"/>
       <c r="E39" s="66"/>
       <c r="F39" s="94" t="s">
         <v>170</v>
@@ -3890,26 +3890,16 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="119"/>
+      <c r="A40" s="126"/>
       <c r="B40" s="64"/>
       <c r="C40" s="61"/>
-      <c r="D40" s="107"/>
+      <c r="D40" s="116"/>
       <c r="E40" s="67"/>
       <c r="F40" s="64"/>
       <c r="G40" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="D27:D29"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -3922,6 +3912,16 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="E16:E18"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="D27:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3970,12 +3970,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="124" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="126" t="s">
+      <c r="D2" s="130" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -3987,36 +3987,36 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="118"/>
+      <c r="A3" s="125"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="127"/>
+      <c r="D3" s="131"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="119"/>
+      <c r="A4" s="126"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="128"/>
+      <c r="D4" s="132"/>
       <c r="E4" s="57"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="133" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="106" t="s">
+      <c r="D5" s="115" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="84" t="s">
@@ -4026,14 +4026,14 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="129"/>
+      <c r="A6" s="133"/>
       <c r="B6" s="66" t="s">
         <v>228</v>
       </c>
       <c r="C6" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="D6" s="106"/>
+      <c r="D6" s="115"/>
       <c r="E6" s="63" t="s">
         <v>241</v>
       </c>
@@ -4041,12 +4041,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="129"/>
+      <c r="A7" s="133"/>
       <c r="B7" s="66"/>
       <c r="C7" s="69" t="s">
         <v>287</v>
       </c>
-      <c r="D7" s="106"/>
+      <c r="D7" s="115"/>
       <c r="E7" s="67" t="s">
         <v>288</v>
       </c>
@@ -4054,32 +4054,32 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="129"/>
+      <c r="A8" s="133"/>
       <c r="B8" s="66"/>
       <c r="C8" s="63"/>
-      <c r="D8" s="106"/>
+      <c r="D8" s="115"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="130"/>
+      <c r="A9" s="134"/>
       <c r="B9" s="66"/>
       <c r="C9" s="64"/>
-      <c r="D9" s="106"/>
+      <c r="D9" s="115"/>
       <c r="E9" s="64"/>
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="129" t="s">
+      <c r="A10" s="133" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="62"/>
       <c r="C10" s="63" t="s">
         <v>289</v>
       </c>
-      <c r="D10" s="120" t="s">
+      <c r="D10" s="118" t="s">
         <v>142</v>
       </c>
       <c r="E10" s="85" t="s">
@@ -4089,14 +4089,14 @@
       <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="129"/>
+      <c r="A11" s="133"/>
       <c r="B11" s="63" t="s">
         <v>290</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>291</v>
       </c>
-      <c r="D11" s="121"/>
+      <c r="D11" s="119"/>
       <c r="E11" s="63" t="s">
         <v>130</v>
       </c>
@@ -4106,14 +4106,14 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="130"/>
+      <c r="A12" s="134"/>
       <c r="B12" s="64" t="s">
         <v>269</v>
       </c>
       <c r="C12" s="69" t="s">
         <v>292</v>
       </c>
-      <c r="D12" s="121"/>
+      <c r="D12" s="119"/>
       <c r="E12" s="67" t="s">
         <v>288</v>
       </c>
@@ -4123,14 +4123,14 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="118" t="s">
+      <c r="A13" s="125" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="68"/>
       <c r="C13" s="65" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="132" t="s">
+      <c r="D13" s="121" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="77" t="s">
@@ -4142,23 +4142,23 @@
       <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="118"/>
+      <c r="A14" s="125"/>
       <c r="B14" s="68"/>
       <c r="C14" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="D14" s="133"/>
+      <c r="D14" s="122"/>
       <c r="E14" s="77"/>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="118"/>
+      <c r="A15" s="125"/>
       <c r="B15" s="66"/>
       <c r="C15" s="66" t="s">
         <v>294</v>
       </c>
-      <c r="D15" s="133"/>
+      <c r="D15" s="122"/>
       <c r="E15" s="60" t="s">
         <v>130</v>
       </c>
@@ -4166,12 +4166,12 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="118"/>
+      <c r="A16" s="125"/>
       <c r="B16" s="66"/>
       <c r="C16" s="66" t="s">
         <v>295</v>
       </c>
-      <c r="D16" s="133"/>
+      <c r="D16" s="122"/>
       <c r="E16" s="60" t="s">
         <v>296</v>
       </c>
@@ -4179,12 +4179,12 @@
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="118"/>
+      <c r="A17" s="125"/>
       <c r="B17" s="67"/>
       <c r="C17" s="67" t="s">
         <v>297</v>
       </c>
-      <c r="D17" s="134"/>
+      <c r="D17" s="123"/>
       <c r="E17" s="60" t="s">
         <v>298</v>
       </c>
@@ -4192,57 +4192,57 @@
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="131" t="s">
+      <c r="A18" s="124" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="63"/>
       <c r="C18" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D18" s="121" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="120" t="s">
+      <c r="D18" s="119" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="F18" s="132">
+      <c r="F18" s="121">
         <v>1</v>
       </c>
       <c r="G18" s="59"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="118"/>
+      <c r="A19" s="125"/>
       <c r="B19" s="63" t="s">
         <v>299</v>
       </c>
       <c r="C19" s="77" t="s">
         <v>300</v>
       </c>
-      <c r="D19" s="121"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="133"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="122"/>
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="118"/>
+      <c r="A20" s="125"/>
       <c r="B20" s="63"/>
       <c r="C20" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="D20" s="122"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="134"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="123"/>
       <c r="G20" s="61"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="131" t="s">
+      <c r="A21" s="124" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="62"/>
       <c r="C21" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D21" s="121" t="s">
+      <c r="D21" s="119" t="s">
         <v>227</v>
       </c>
       <c r="E21" s="84" t="s">
@@ -4252,12 +4252,12 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="118"/>
+      <c r="A22" s="125"/>
       <c r="B22" s="63"/>
       <c r="C22" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="D22" s="121"/>
+      <c r="D22" s="119"/>
       <c r="E22" s="63" t="s">
         <v>185</v>
       </c>
@@ -4265,12 +4265,12 @@
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="118"/>
+      <c r="A23" s="125"/>
       <c r="B23" s="76"/>
       <c r="C23" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="D23" s="121"/>
+      <c r="D23" s="119"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60" t="s">
         <v>185</v>
@@ -4278,12 +4278,12 @@
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="118"/>
+      <c r="A24" s="125"/>
       <c r="B24" s="63" t="s">
         <v>255</v>
       </c>
       <c r="C24" s="57"/>
-      <c r="D24" s="121"/>
+      <c r="D24" s="119"/>
       <c r="E24" s="63"/>
       <c r="F24" s="60" t="s">
         <v>222</v>
@@ -4298,7 +4298,7 @@
       <c r="C25" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D25" s="105" t="s">
+      <c r="D25" s="114" t="s">
         <v>24</v>
       </c>
       <c r="E25" s="84" t="s">
@@ -4315,7 +4315,7 @@
       <c r="C26" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="D26" s="106"/>
+      <c r="D26" s="115"/>
       <c r="E26" s="99" t="s">
         <v>130</v>
       </c>
@@ -4328,7 +4328,7 @@
       <c r="C27" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="D27" s="106"/>
+      <c r="D27" s="115"/>
       <c r="E27" s="63" t="s">
         <v>130</v>
       </c>
@@ -4341,7 +4341,7 @@
       <c r="C28" s="63" t="s">
         <v>295</v>
       </c>
-      <c r="D28" s="106"/>
+      <c r="D28" s="115"/>
       <c r="E28" s="63" t="s">
         <v>296</v>
       </c>
@@ -4354,7 +4354,7 @@
       <c r="C29" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="D29" s="106"/>
+      <c r="D29" s="115"/>
       <c r="E29" s="64" t="s">
         <v>298</v>
       </c>
@@ -4362,14 +4362,14 @@
       <c r="G29" s="61"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="118" t="s">
+      <c r="A30" s="125" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="66"/>
       <c r="C30" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="D30" s="132" t="s">
+      <c r="D30" s="121" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="60" t="s">
@@ -4379,12 +4379,12 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="118"/>
+      <c r="A31" s="125"/>
       <c r="B31" s="66"/>
       <c r="C31" s="66" t="s">
         <v>291</v>
       </c>
-      <c r="D31" s="133"/>
+      <c r="D31" s="122"/>
       <c r="E31" s="60"/>
       <c r="F31" s="60" t="s">
         <v>130</v>
@@ -4392,14 +4392,14 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="118"/>
+      <c r="A32" s="125"/>
       <c r="B32" s="66" t="s">
         <v>255</v>
       </c>
       <c r="C32" s="97" t="s">
         <v>302</v>
       </c>
-      <c r="D32" s="133"/>
+      <c r="D32" s="122"/>
       <c r="E32" s="60" t="s">
         <v>191</v>
       </c>
@@ -4420,14 +4420,14 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="118" t="s">
+      <c r="A34" s="125" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="65"/>
       <c r="C34" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D34" s="121" t="s">
+      <c r="D34" s="119" t="s">
         <v>24</v>
       </c>
       <c r="E34" s="84" t="s">
@@ -4437,14 +4437,14 @@
       <c r="G34" s="59"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="118"/>
+      <c r="A35" s="125"/>
       <c r="B35" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C35" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="D35" s="121"/>
+      <c r="D35" s="119"/>
       <c r="E35" s="63" t="s">
         <v>168</v>
       </c>
@@ -4452,12 +4452,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="118"/>
+      <c r="A36" s="125"/>
       <c r="B36" s="66"/>
       <c r="C36" s="66" t="s">
         <v>303</v>
       </c>
-      <c r="D36" s="121"/>
+      <c r="D36" s="119"/>
       <c r="E36" s="63"/>
       <c r="F36" s="60" t="s">
         <v>170</v>
@@ -4465,12 +4465,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="118"/>
+      <c r="A37" s="125"/>
       <c r="B37" s="66"/>
       <c r="C37" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="D37" s="121"/>
+      <c r="D37" s="119"/>
       <c r="E37" s="63" t="s">
         <v>298</v>
       </c>
@@ -4478,16 +4478,16 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="119"/>
+      <c r="A38" s="126"/>
       <c r="B38" s="67"/>
       <c r="C38" s="66"/>
-      <c r="D38" s="121"/>
+      <c r="D38" s="119"/>
       <c r="E38" s="64"/>
       <c r="F38" s="60"/>
       <c r="G38" s="61"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="118" t="s">
+      <c r="A39" s="125" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="66"/>
@@ -4504,7 +4504,7 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="118"/>
+      <c r="A40" s="125"/>
       <c r="B40" s="66"/>
       <c r="C40" s="63" t="s">
         <v>294</v>
@@ -4517,7 +4517,7 @@
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="118"/>
+      <c r="A41" s="125"/>
       <c r="B41" s="66" t="s">
         <v>248</v>
       </c>
@@ -4534,7 +4534,7 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="118"/>
+      <c r="A42" s="125"/>
       <c r="B42" s="66" t="s">
         <v>305</v>
       </c>
@@ -4547,7 +4547,7 @@
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="119"/>
+      <c r="A43" s="126"/>
       <c r="B43" s="67"/>
       <c r="C43" s="100"/>
       <c r="D43" s="140"/>
@@ -4557,16 +4557,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="D30:D32"/>
     <mergeCell ref="F18:F20"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -4579,6 +4569,16 @@
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="E18:E20"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="D30:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6330,7 +6330,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="105" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="47" t="s">
@@ -6339,7 +6339,7 @@
       <c r="C2" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="102" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="52" t="s">
@@ -6351,14 +6351,14 @@
       <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="113"/>
+      <c r="A3" s="106"/>
       <c r="B3" t="s">
         <v>128</v>
       </c>
       <c r="C3" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="109"/>
+      <c r="D3" s="103"/>
       <c r="E3" s="46" t="s">
         <v>130</v>
       </c>
@@ -6366,11 +6366,11 @@
       <c r="G3" s="49"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="113"/>
+      <c r="A4" s="106"/>
       <c r="C4" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="109"/>
+      <c r="D4" s="103"/>
       <c r="E4" s="46" t="s">
         <v>132</v>
       </c>
@@ -6378,12 +6378,12 @@
       <c r="G4" s="49"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="114"/>
+      <c r="A5" s="107"/>
       <c r="B5" s="50"/>
       <c r="C5" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="110"/>
+      <c r="D5" s="104"/>
       <c r="E5" s="55" t="s">
         <v>132</v>
       </c>
@@ -6391,7 +6391,7 @@
       <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="108" t="s">
         <v>134</v>
       </c>
       <c r="B6" t="s">
@@ -6400,7 +6400,7 @@
       <c r="C6" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="108" t="s">
+      <c r="D6" s="102" t="s">
         <v>137</v>
       </c>
       <c r="E6" s="46" t="s">
@@ -6410,11 +6410,11 @@
       <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="115"/>
+      <c r="A7" s="108"/>
       <c r="C7" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="109"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="46" t="s">
         <v>118</v>
       </c>
@@ -6422,22 +6422,22 @@
       <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="115"/>
-      <c r="D8" s="109"/>
+      <c r="A8" s="108"/>
+      <c r="D8" s="103"/>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
       <c r="G8" s="49"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="115"/>
-      <c r="D9" s="109"/>
+      <c r="A9" s="108"/>
+      <c r="D9" s="103"/>
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
       <c r="G9" s="49"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="116"/>
-      <c r="D10" s="110"/>
+      <c r="A10" s="109"/>
+      <c r="D10" s="104"/>
       <c r="E10" s="46" t="s">
         <v>140</v>
       </c>
@@ -6445,7 +6445,7 @@
       <c r="G10" s="49"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="117" t="s">
+      <c r="A11" s="110" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -6454,7 +6454,7 @@
       <c r="C11" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="102" t="s">
         <v>142</v>
       </c>
       <c r="E11" s="52" t="s">
@@ -6464,11 +6464,11 @@
       <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="117"/>
+      <c r="A12" s="110"/>
       <c r="C12" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="109"/>
+      <c r="D12" s="103"/>
       <c r="E12" s="46"/>
       <c r="F12" s="46" t="s">
         <v>143</v>
@@ -6476,14 +6476,14 @@
       <c r="G12" s="49"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="117"/>
+      <c r="A13" s="110"/>
       <c r="B13" t="s">
         <v>145</v>
       </c>
       <c r="C13" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="109"/>
+      <c r="D13" s="103"/>
       <c r="E13" s="46" t="s">
         <v>143</v>
       </c>
@@ -6491,24 +6491,24 @@
       <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="117"/>
+      <c r="A14" s="110"/>
       <c r="C14" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="109"/>
+      <c r="D14" s="103"/>
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
       <c r="G14" s="49"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="117"/>
-      <c r="D15" s="110"/>
+      <c r="A15" s="110"/>
+      <c r="D15" s="104"/>
       <c r="E15" s="46"/>
       <c r="F15" s="46"/>
       <c r="G15" s="49"/>
     </row>
     <row r="16" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="111" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="47" t="s">
@@ -6517,7 +6517,7 @@
       <c r="C16" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="108" t="s">
+      <c r="D16" s="102" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="52" t="s">
@@ -6527,11 +6527,11 @@
       <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A17" s="103"/>
+      <c r="A17" s="112"/>
       <c r="C17" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="109"/>
+      <c r="D17" s="103"/>
       <c r="E17" s="46">
         <v>1.5</v>
       </c>
@@ -6539,11 +6539,11 @@
       <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A18" s="103"/>
+      <c r="A18" s="112"/>
       <c r="C18" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="109"/>
+      <c r="D18" s="103"/>
       <c r="E18" s="46"/>
       <c r="F18" s="46">
         <v>1.5</v>
@@ -6551,11 +6551,11 @@
       <c r="G18" s="49"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A19" s="103"/>
+      <c r="A19" s="112"/>
       <c r="C19" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="110"/>
+      <c r="D19" s="104"/>
       <c r="E19" s="46"/>
       <c r="F19" s="57">
         <v>0.5</v>
@@ -6563,7 +6563,7 @@
       <c r="G19" s="49"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="102" t="s">
+      <c r="A20" s="111" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="47" t="s">
@@ -6578,7 +6578,7 @@
       <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="103"/>
+      <c r="A21" s="112"/>
       <c r="C21" t="s">
         <v>154</v>
       </c>
@@ -6588,7 +6588,7 @@
       <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="104"/>
+      <c r="A22" s="113"/>
       <c r="B22" s="50"/>
       <c r="C22" s="50" t="s">
         <v>155</v>
@@ -6603,7 +6603,7 @@
       <c r="G22" s="51"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="111" t="s">
+      <c r="A23" s="117" t="s">
         <v>28</v>
       </c>
       <c r="B23" t="s">
@@ -6612,7 +6612,7 @@
       <c r="C23" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="108"/>
+      <c r="D23" s="102"/>
       <c r="E23" s="46" t="s">
         <v>158</v>
       </c>
@@ -6620,11 +6620,11 @@
       <c r="G23" s="49"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="111"/>
+      <c r="A24" s="117"/>
       <c r="C24" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="109"/>
+      <c r="D24" s="103"/>
       <c r="E24" s="46">
         <v>2</v>
       </c>
@@ -6632,11 +6632,11 @@
       <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="111"/>
+      <c r="A25" s="117"/>
       <c r="C25" t="s">
         <v>151</v>
       </c>
-      <c r="D25" s="109"/>
+      <c r="D25" s="103"/>
       <c r="E25" s="46">
         <v>1</v>
       </c>
@@ -6644,11 +6644,11 @@
       <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="111"/>
+      <c r="A26" s="117"/>
       <c r="C26" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="110"/>
+      <c r="D26" s="104"/>
       <c r="E26" s="46">
         <v>1</v>
       </c>
@@ -6656,7 +6656,7 @@
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="102" t="s">
+      <c r="A27" s="111" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="47" t="s">
@@ -6665,7 +6665,7 @@
       <c r="C27" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="108" t="s">
+      <c r="D27" s="102" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="52" t="s">
@@ -6675,14 +6675,14 @@
       <c r="G27" s="48"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="103"/>
+      <c r="A28" s="112"/>
       <c r="B28" s="45" t="s">
         <v>128</v>
       </c>
       <c r="C28" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="109"/>
+      <c r="D28" s="103"/>
       <c r="E28" s="46" t="s">
         <v>130</v>
       </c>
@@ -6690,11 +6690,11 @@
       <c r="G28" s="49"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="103"/>
+      <c r="A29" s="112"/>
       <c r="C29" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="109"/>
+      <c r="D29" s="103"/>
       <c r="E29" s="46" t="s">
         <v>132</v>
       </c>
@@ -6702,12 +6702,12 @@
       <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A30" s="103"/>
+      <c r="A30" s="112"/>
       <c r="B30" s="50"/>
       <c r="C30" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="D30" s="110"/>
+      <c r="D30" s="104"/>
       <c r="E30" s="55" t="s">
         <v>132</v>
       </c>
@@ -6715,10 +6715,10 @@
       <c r="G30" s="51"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="102" t="s">
+      <c r="A31" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="105" t="s">
+      <c r="D31" s="114" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="46"/>
@@ -6726,14 +6726,14 @@
       <c r="G31" s="49"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="103"/>
+      <c r="A32" s="112"/>
       <c r="B32" t="s">
         <v>161</v>
       </c>
       <c r="C32" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="106"/>
+      <c r="D32" s="115"/>
       <c r="E32" s="46" t="s">
         <v>138</v>
       </c>
@@ -6741,14 +6741,14 @@
       <c r="G32" s="49"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="103"/>
+      <c r="A33" s="112"/>
       <c r="B33" t="s">
         <v>135</v>
       </c>
       <c r="C33" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="106"/>
+      <c r="D33" s="115"/>
       <c r="E33" s="46" t="s">
         <v>130</v>
       </c>
@@ -6756,28 +6756,28 @@
       <c r="G33" s="49"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="103"/>
-      <c r="D34" s="106"/>
+      <c r="A34" s="112"/>
+      <c r="D34" s="115"/>
       <c r="E34" s="46"/>
       <c r="F34" s="46"/>
       <c r="G34" s="49"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="103"/>
-      <c r="D35" s="107"/>
+      <c r="A35" s="112"/>
+      <c r="D35" s="116"/>
       <c r="E35" s="46"/>
       <c r="F35" s="46"/>
       <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="102" t="s">
+      <c r="A36" s="111" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="47"/>
       <c r="C36" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="D36" s="108"/>
+      <c r="D36" s="102"/>
       <c r="E36" s="52" t="s">
         <v>165</v>
       </c>
@@ -6785,14 +6785,14 @@
       <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="103"/>
+      <c r="A37" s="112"/>
       <c r="B37" t="s">
         <v>166</v>
       </c>
       <c r="C37" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="D37" s="109"/>
+      <c r="D37" s="103"/>
       <c r="E37" s="46" t="s">
         <v>168</v>
       </c>
@@ -6800,11 +6800,11 @@
       <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="103"/>
+      <c r="A38" s="112"/>
       <c r="C38" t="s">
         <v>169</v>
       </c>
-      <c r="D38" s="109"/>
+      <c r="D38" s="103"/>
       <c r="E38" s="46"/>
       <c r="F38" s="46" t="s">
         <v>170</v>
@@ -6812,46 +6812,46 @@
       <c r="G38" s="49"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="103"/>
-      <c r="D39" s="109"/>
+      <c r="A39" s="112"/>
+      <c r="D39" s="103"/>
       <c r="E39" s="46"/>
       <c r="F39" s="46"/>
       <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="104"/>
+      <c r="A40" s="113"/>
       <c r="B40" s="50"/>
       <c r="C40" s="50"/>
-      <c r="D40" s="110"/>
+      <c r="D40" s="104"/>
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
       <c r="G40" s="51"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="103" t="s">
+      <c r="A41" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="108" t="s">
+      <c r="D41" s="102" t="s">
         <v>24</v>
       </c>
       <c r="E41" s="46"/>
       <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="103"/>
-      <c r="D42" s="109"/>
+      <c r="A42" s="112"/>
+      <c r="D42" s="103"/>
       <c r="E42" s="46"/>
       <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="103"/>
+      <c r="A43" s="112"/>
       <c r="B43" t="s">
         <v>24</v>
       </c>
       <c r="C43" t="s">
         <v>162</v>
       </c>
-      <c r="D43" s="109"/>
+      <c r="D43" s="103"/>
       <c r="E43" s="46" t="s">
         <v>171</v>
       </c>
@@ -6861,16 +6861,16 @@
       <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="103"/>
-      <c r="D44" s="109"/>
+      <c r="A44" s="112"/>
+      <c r="D44" s="103"/>
       <c r="E44" s="46"/>
       <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="104"/>
+      <c r="A45" s="113"/>
       <c r="B45" s="50"/>
       <c r="C45" s="50"/>
-      <c r="D45" s="110"/>
+      <c r="D45" s="104"/>
       <c r="E45" s="55"/>
       <c r="F45" s="50"/>
       <c r="G45" s="51"/>
@@ -6880,12 +6880,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="D2:D5"/>
     <mergeCell ref="A36:A40"/>
     <mergeCell ref="A41:A45"/>
     <mergeCell ref="D31:D35"/>
@@ -6899,6 +6893,12 @@
     <mergeCell ref="D27:D30"/>
     <mergeCell ref="A31:A35"/>
     <mergeCell ref="A27:A30"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="D2:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6944,7 +6944,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="127" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65" t="s">
@@ -6953,7 +6953,7 @@
       <c r="C2" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="126" t="s">
+      <c r="D2" s="130" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="56" t="s">
@@ -6965,12 +6965,12 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="124"/>
+      <c r="A3" s="128"/>
       <c r="B3" s="66"/>
       <c r="C3" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="127"/>
+      <c r="D3" s="131"/>
       <c r="E3" s="57" t="s">
         <v>130</v>
       </c>
@@ -6978,12 +6978,12 @@
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="124"/>
+      <c r="A4" s="128"/>
       <c r="B4" s="66"/>
       <c r="C4" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="127"/>
+      <c r="D4" s="131"/>
       <c r="E4" s="57" t="s">
         <v>176</v>
       </c>
@@ -6991,12 +6991,12 @@
       <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="124"/>
+      <c r="A5" s="128"/>
       <c r="B5" s="66"/>
       <c r="C5" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="127"/>
+      <c r="D5" s="131"/>
       <c r="E5" s="57" t="s">
         <v>173</v>
       </c>
@@ -7004,12 +7004,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="124"/>
+      <c r="A6" s="128"/>
       <c r="B6" s="66"/>
       <c r="C6" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="127"/>
+      <c r="D6" s="131"/>
       <c r="E6" s="57" t="s">
         <v>127</v>
       </c>
@@ -7017,12 +7017,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="125"/>
+      <c r="A7" s="129"/>
       <c r="B7" s="67"/>
       <c r="C7" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="128"/>
+      <c r="D7" s="132"/>
       <c r="E7" s="58" t="s">
         <v>179</v>
       </c>
@@ -7030,7 +7030,7 @@
       <c r="G7" s="61"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="133" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="66" t="s">
@@ -7039,7 +7039,7 @@
       <c r="C8" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="121" t="s">
+      <c r="D8" s="119" t="s">
         <v>137</v>
       </c>
       <c r="E8" s="63" t="s">
@@ -7049,12 +7049,12 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="129"/>
+      <c r="A9" s="133"/>
       <c r="B9" s="66"/>
       <c r="C9" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="121"/>
+      <c r="D9" s="119"/>
       <c r="E9" s="63" t="s">
         <v>130</v>
       </c>
@@ -7062,12 +7062,12 @@
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="129"/>
+      <c r="A10" s="133"/>
       <c r="B10" s="66"/>
       <c r="C10" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="D10" s="121"/>
+      <c r="D10" s="119"/>
       <c r="E10" s="63" t="s">
         <v>183</v>
       </c>
@@ -7075,12 +7075,12 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="130"/>
+      <c r="A11" s="134"/>
       <c r="B11" s="66"/>
       <c r="C11" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="121"/>
+      <c r="D11" s="119"/>
       <c r="E11" s="63" t="s">
         <v>185</v>
       </c>
@@ -7088,14 +7088,14 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="133" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="62"/>
       <c r="C12" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="120" t="s">
+      <c r="D12" s="118" t="s">
         <v>142</v>
       </c>
       <c r="E12" s="62" t="s">
@@ -7105,12 +7105,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="129"/>
+      <c r="A13" s="133"/>
       <c r="B13" s="63"/>
       <c r="C13" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="D13" s="121"/>
+      <c r="D13" s="119"/>
       <c r="E13" s="63" t="s">
         <v>187</v>
       </c>
@@ -7118,12 +7118,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="129"/>
+      <c r="A14" s="133"/>
       <c r="B14" s="76"/>
       <c r="C14" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="121"/>
+      <c r="D14" s="119"/>
       <c r="E14" s="63"/>
       <c r="F14" s="60" t="s">
         <v>130</v>
@@ -7131,12 +7131,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="129"/>
+      <c r="A15" s="133"/>
       <c r="B15" s="63" t="s">
         <v>190</v>
       </c>
       <c r="C15" s="57"/>
-      <c r="D15" s="121"/>
+      <c r="D15" s="119"/>
       <c r="E15" s="63" t="s">
         <v>191</v>
       </c>
@@ -7144,23 +7144,23 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="130"/>
+      <c r="A16" s="134"/>
       <c r="B16" s="64"/>
       <c r="C16" s="57"/>
-      <c r="D16" s="122"/>
+      <c r="D16" s="120"/>
       <c r="E16" s="63"/>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A17" s="118" t="s">
+      <c r="A17" s="125" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="120" t="s">
+      <c r="D17" s="118" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="62" t="s">
@@ -7170,14 +7170,14 @@
       <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A18" s="118"/>
+      <c r="A18" s="125"/>
       <c r="B18" s="66" t="s">
         <v>193</v>
       </c>
       <c r="C18" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="121"/>
+      <c r="D18" s="119"/>
       <c r="E18" s="63" t="s">
         <v>176</v>
       </c>
@@ -7185,12 +7185,12 @@
       <c r="G18" s="60"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A19" s="118"/>
+      <c r="A19" s="125"/>
       <c r="B19" s="66"/>
       <c r="C19" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="D19" s="121"/>
+      <c r="D19" s="119"/>
       <c r="E19" s="63" t="s">
         <v>176</v>
       </c>
@@ -7198,12 +7198,12 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A20" s="118"/>
+      <c r="A20" s="125"/>
       <c r="B20" s="66"/>
       <c r="C20" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="D20" s="121"/>
+      <c r="D20" s="119"/>
       <c r="E20" s="63"/>
       <c r="F20" s="63" t="s">
         <v>194</v>
@@ -7211,7 +7211,7 @@
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="131" t="s">
+      <c r="A21" s="124" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="65" t="s">
@@ -7220,41 +7220,41 @@
       <c r="C21" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="D21" s="120" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="120" t="s">
+      <c r="D21" s="118" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="118" t="s">
         <v>197</v>
       </c>
-      <c r="F21" s="132" t="s">
+      <c r="F21" s="121" t="s">
         <v>198</v>
       </c>
       <c r="G21" s="59"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="118"/>
+      <c r="A22" s="125"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="D22" s="121"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="133"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="122"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="118"/>
+      <c r="A23" s="125"/>
       <c r="B23" s="67"/>
       <c r="C23" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="134"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="123"/>
       <c r="G23" s="61"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="131" t="s">
+      <c r="A24" s="124" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="66" t="s">
@@ -7263,7 +7263,7 @@
       <c r="C24" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="121"/>
+      <c r="D24" s="119"/>
       <c r="E24" s="63" t="s">
         <v>173</v>
       </c>
@@ -7271,12 +7271,12 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="118"/>
+      <c r="A25" s="125"/>
       <c r="B25" s="66"/>
       <c r="C25" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="D25" s="121"/>
+      <c r="D25" s="119"/>
       <c r="E25" s="63" t="s">
         <v>191</v>
       </c>
@@ -7284,12 +7284,12 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="118"/>
+      <c r="A26" s="125"/>
       <c r="B26" s="66"/>
       <c r="C26" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="D26" s="121"/>
+      <c r="D26" s="119"/>
       <c r="E26" s="63" t="s">
         <v>130</v>
       </c>
@@ -7297,12 +7297,12 @@
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="118"/>
+      <c r="A27" s="125"/>
       <c r="B27" s="66"/>
       <c r="C27" s="66" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="121"/>
+      <c r="D27" s="119"/>
       <c r="E27" s="63" t="s">
         <v>202</v>
       </c>
@@ -7310,12 +7310,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="119"/>
+      <c r="A28" s="126"/>
       <c r="B28" s="66"/>
       <c r="C28" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="D28" s="122"/>
+      <c r="D28" s="120"/>
       <c r="E28" s="63" t="s">
         <v>130</v>
       </c>
@@ -7323,7 +7323,7 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="118" t="s">
+      <c r="A29" s="125" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="74" t="s">
@@ -7332,7 +7332,7 @@
       <c r="C29" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="120" t="s">
+      <c r="D29" s="118" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="62" t="s">
@@ -7344,12 +7344,12 @@
       <c r="G29" s="59"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="118"/>
+      <c r="A30" s="125"/>
       <c r="B30" s="70"/>
       <c r="C30" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="D30" s="121"/>
+      <c r="D30" s="119"/>
       <c r="E30" s="63" t="s">
         <v>205</v>
       </c>
@@ -7357,12 +7357,12 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="118"/>
+      <c r="A31" s="125"/>
       <c r="B31" s="71"/>
       <c r="C31" s="69" t="s">
         <v>206</v>
       </c>
-      <c r="D31" s="121"/>
+      <c r="D31" s="119"/>
       <c r="E31" s="63" t="s">
         <v>130</v>
       </c>
@@ -7370,12 +7370,12 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="118"/>
+      <c r="A32" s="125"/>
       <c r="B32" s="71"/>
       <c r="C32" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="D32" s="121"/>
+      <c r="D32" s="119"/>
       <c r="E32" s="63" t="s">
         <v>179</v>
       </c>
@@ -7383,12 +7383,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="118"/>
+      <c r="A33" s="125"/>
       <c r="B33" s="72"/>
       <c r="C33" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="D33" s="121"/>
+      <c r="D33" s="119"/>
       <c r="E33" s="63" t="s">
         <v>208</v>
       </c>
@@ -7396,12 +7396,12 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A34" s="118"/>
+      <c r="A34" s="125"/>
       <c r="B34" s="73"/>
       <c r="C34" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="D34" s="122"/>
+      <c r="D34" s="120"/>
       <c r="E34" s="64" t="s">
         <v>132</v>
       </c>
@@ -7409,12 +7409,12 @@
       <c r="G34" s="61"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="131" t="s">
+      <c r="A35" s="124" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="66"/>
       <c r="C35" s="66"/>
-      <c r="D35" s="120" t="s">
+      <c r="D35" s="118" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="63"/>
@@ -7422,12 +7422,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="118"/>
+      <c r="A36" s="125"/>
       <c r="B36" s="66"/>
       <c r="C36" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="D36" s="121"/>
+      <c r="D36" s="119"/>
       <c r="E36" s="63" t="s">
         <v>130</v>
       </c>
@@ -7435,14 +7435,14 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7" ht="21" customHeight="1">
-      <c r="A37" s="118"/>
+      <c r="A37" s="125"/>
       <c r="B37" s="66" t="s">
         <v>211</v>
       </c>
       <c r="C37" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="D37" s="121"/>
+      <c r="D37" s="119"/>
       <c r="E37" s="63" t="s">
         <v>180</v>
       </c>
@@ -7450,12 +7450,12 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="118"/>
+      <c r="A38" s="125"/>
       <c r="B38" s="66"/>
       <c r="C38" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="D38" s="121"/>
+      <c r="D38" s="119"/>
       <c r="E38" s="63"/>
       <c r="F38" s="60" t="s">
         <v>130</v>
@@ -7463,23 +7463,23 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="118"/>
+      <c r="A39" s="125"/>
       <c r="B39" s="66"/>
       <c r="C39" s="66"/>
-      <c r="D39" s="122"/>
+      <c r="D39" s="120"/>
       <c r="E39" s="63"/>
       <c r="F39" s="60"/>
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="131" t="s">
+      <c r="A40" s="124" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="65"/>
       <c r="C40" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="120"/>
+      <c r="D40" s="118"/>
       <c r="E40" s="62" t="s">
         <v>165</v>
       </c>
@@ -7487,14 +7487,14 @@
       <c r="G40" s="59"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="118"/>
+      <c r="A41" s="125"/>
       <c r="B41" s="66" t="s">
         <v>166</v>
       </c>
       <c r="C41" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="D41" s="121"/>
+      <c r="D41" s="119"/>
       <c r="E41" s="63" t="s">
         <v>168</v>
       </c>
@@ -7502,12 +7502,12 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="118"/>
+      <c r="A42" s="125"/>
       <c r="B42" s="66"/>
       <c r="C42" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="D42" s="121"/>
+      <c r="D42" s="119"/>
       <c r="E42" s="63"/>
       <c r="F42" s="60" t="s">
         <v>170</v>
@@ -7515,32 +7515,32 @@
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="118"/>
+      <c r="A43" s="125"/>
       <c r="B43" s="66"/>
       <c r="C43" s="66"/>
-      <c r="D43" s="121"/>
+      <c r="D43" s="119"/>
       <c r="E43" s="63"/>
       <c r="F43" s="60"/>
       <c r="G43" s="60"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="119"/>
+      <c r="A44" s="126"/>
       <c r="B44" s="67"/>
       <c r="C44" s="67"/>
-      <c r="D44" s="122"/>
+      <c r="D44" s="120"/>
       <c r="E44" s="64"/>
       <c r="F44" s="60"/>
       <c r="G44" s="61"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="118" t="s">
+      <c r="A45" s="125" t="s">
         <v>30</v>
       </c>
       <c r="B45" s="66"/>
       <c r="C45" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D45" s="120" t="s">
+      <c r="D45" s="118" t="s">
         <v>24</v>
       </c>
       <c r="E45" s="65" t="s">
@@ -7550,12 +7550,12 @@
       <c r="G45" s="60"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="118"/>
+      <c r="A46" s="125"/>
       <c r="B46" s="66"/>
       <c r="C46" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D46" s="121"/>
+      <c r="D46" s="119"/>
       <c r="E46" s="66" t="s">
         <v>176</v>
       </c>
@@ -7563,14 +7563,14 @@
       <c r="G46" s="60"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="118"/>
+      <c r="A47" s="125"/>
       <c r="B47" s="66" t="s">
         <v>193</v>
       </c>
       <c r="C47" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="D47" s="121"/>
+      <c r="D47" s="119"/>
       <c r="E47" s="66" t="s">
         <v>176</v>
       </c>
@@ -7578,12 +7578,12 @@
       <c r="G47" s="60"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="118"/>
+      <c r="A48" s="125"/>
       <c r="B48" s="66"/>
       <c r="C48" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="D48" s="121"/>
+      <c r="D48" s="119"/>
       <c r="E48" s="66"/>
       <c r="F48" s="63" t="s">
         <v>194</v>
@@ -7591,10 +7591,10 @@
       <c r="G48" s="60"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="119"/>
+      <c r="A49" s="126"/>
       <c r="B49" s="67"/>
       <c r="C49" s="67"/>
-      <c r="D49" s="122"/>
+      <c r="D49" s="120"/>
       <c r="E49" s="67"/>
       <c r="F49" s="64"/>
       <c r="G49" s="61"/>
@@ -7607,12 +7607,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="D40:D44"/>
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="D45:D49"/>
     <mergeCell ref="A29:A34"/>
@@ -7629,6 +7623,12 @@
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="D24:D28"/>
     <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="D40:D44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7677,12 +7677,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="124" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="126" t="s">
+      <c r="D2" s="130" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -7694,34 +7694,34 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="118"/>
+      <c r="A3" s="125"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="127"/>
+      <c r="D3" s="131"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="119"/>
+      <c r="A4" s="126"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="128"/>
+      <c r="D4" s="132"/>
       <c r="E4" s="58"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="133" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62"/>
-      <c r="D5" s="106" t="s">
+      <c r="D5" s="115" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="63"/>
@@ -7729,12 +7729,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="129"/>
+      <c r="A6" s="133"/>
       <c r="B6" s="66"/>
       <c r="C6" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="106"/>
+      <c r="D6" s="115"/>
       <c r="E6" s="63" t="s">
         <v>218</v>
       </c>
@@ -7742,30 +7742,30 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="129"/>
+      <c r="A7" s="133"/>
       <c r="B7" s="66"/>
       <c r="C7" s="63"/>
-      <c r="D7" s="106"/>
+      <c r="D7" s="115"/>
       <c r="E7" s="63"/>
       <c r="F7" s="60"/>
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="130"/>
+      <c r="A8" s="134"/>
       <c r="B8" s="66"/>
       <c r="C8" s="64"/>
-      <c r="D8" s="106"/>
+      <c r="D8" s="115"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="133" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="62"/>
       <c r="C9" s="57"/>
-      <c r="D9" s="120" t="s">
+      <c r="D9" s="118" t="s">
         <v>142</v>
       </c>
       <c r="E9" s="65"/>
@@ -7773,12 +7773,12 @@
       <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="129"/>
+      <c r="A10" s="133"/>
       <c r="B10" s="63"/>
       <c r="C10" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="D10" s="121"/>
+      <c r="D10" s="119"/>
       <c r="E10" s="66" t="s">
         <v>106</v>
       </c>
@@ -7788,12 +7788,12 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="129"/>
+      <c r="A11" s="133"/>
       <c r="B11" s="63" t="s">
         <v>220</v>
       </c>
       <c r="C11" s="57"/>
-      <c r="D11" s="122"/>
+      <c r="D11" s="120"/>
       <c r="E11" s="67"/>
       <c r="F11" s="63" t="s">
         <v>130</v>
@@ -7801,12 +7801,12 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="131" t="s">
+      <c r="A12" s="124" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="65"/>
       <c r="C12" s="62"/>
-      <c r="D12" s="105" t="s">
+      <c r="D12" s="114" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="66"/>
@@ -7814,12 +7814,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="118"/>
+      <c r="A13" s="125"/>
       <c r="B13" s="66" t="s">
         <v>221</v>
       </c>
       <c r="C13" s="76"/>
-      <c r="D13" s="106"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="66" t="s">
         <v>222</v>
       </c>
@@ -7827,12 +7827,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="118"/>
+      <c r="A14" s="125"/>
       <c r="B14" s="66"/>
       <c r="C14" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="D14" s="106"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="66"/>
       <c r="F14" s="63" t="s">
         <v>222</v>
@@ -7840,62 +7840,62 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="119"/>
+      <c r="A15" s="126"/>
       <c r="B15" s="67"/>
       <c r="C15" s="64"/>
-      <c r="D15" s="106"/>
+      <c r="D15" s="115"/>
       <c r="E15" s="66"/>
       <c r="F15" s="64"/>
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="118" t="s">
+      <c r="A16" s="125" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="63"/>
       <c r="C16" s="57"/>
-      <c r="D16" s="120" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="120" t="s">
+      <c r="D16" s="118" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="118" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="133">
+      <c r="F16" s="122">
         <v>1</v>
       </c>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="118"/>
+      <c r="A17" s="125"/>
       <c r="B17" s="63" t="s">
         <v>224</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>225</v>
       </c>
-      <c r="D17" s="121"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="133"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="122"/>
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="118"/>
+      <c r="A18" s="125"/>
       <c r="B18" s="64"/>
       <c r="C18" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="134"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="123"/>
       <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="131" t="s">
+      <c r="A19" s="124" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="66"/>
-      <c r="D19" s="121" t="s">
+      <c r="D19" s="119" t="s">
         <v>227</v>
       </c>
       <c r="E19" s="63"/>
@@ -7903,23 +7903,23 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="118"/>
+      <c r="A20" s="125"/>
       <c r="B20" s="66"/>
       <c r="C20" s="66"/>
-      <c r="D20" s="121"/>
+      <c r="D20" s="119"/>
       <c r="E20" s="63"/>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="118"/>
+      <c r="A21" s="125"/>
       <c r="B21" s="66" t="s">
         <v>228</v>
       </c>
       <c r="C21" s="66" t="s">
         <v>229</v>
       </c>
-      <c r="D21" s="121"/>
+      <c r="D21" s="119"/>
       <c r="E21" s="63" t="s">
         <v>185</v>
       </c>
@@ -7929,34 +7929,34 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="118"/>
+      <c r="A22" s="125"/>
       <c r="B22" s="66" t="s">
         <v>231</v>
       </c>
       <c r="C22" s="66"/>
-      <c r="D22" s="121"/>
+      <c r="D22" s="119"/>
       <c r="E22" s="63"/>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="119"/>
+      <c r="A23" s="126"/>
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
-      <c r="D23" s="122"/>
+      <c r="D23" s="120"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="118" t="s">
+      <c r="A24" s="125" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="78"/>
       <c r="C24" s="62" t="s">
         <v>232</v>
       </c>
-      <c r="D24" s="105" t="s">
+      <c r="D24" s="114" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="65" t="s">
@@ -7966,30 +7966,30 @@
       <c r="G24" s="62"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="118"/>
+      <c r="A25" s="125"/>
       <c r="B25" s="83"/>
       <c r="C25" s="63"/>
-      <c r="D25" s="106"/>
+      <c r="D25" s="115"/>
       <c r="E25" s="66"/>
       <c r="F25" s="66"/>
       <c r="G25" s="63"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="118"/>
+      <c r="A26" s="125"/>
       <c r="B26" s="95"/>
       <c r="C26" s="64"/>
-      <c r="D26" s="106"/>
+      <c r="D26" s="115"/>
       <c r="E26" s="66"/>
       <c r="F26" s="67"/>
       <c r="G26" s="64"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="131" t="s">
+      <c r="A27" s="124" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="66"/>
       <c r="C27" s="66"/>
-      <c r="D27" s="120" t="s">
+      <c r="D27" s="118" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="62"/>
@@ -7997,14 +7997,14 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="118"/>
+      <c r="A28" s="125"/>
       <c r="B28" s="66" t="s">
         <v>220</v>
       </c>
       <c r="C28" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="D28" s="121"/>
+      <c r="D28" s="119"/>
       <c r="E28" s="63" t="s">
         <v>222</v>
       </c>
@@ -8014,12 +8014,12 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="118"/>
+      <c r="A29" s="125"/>
       <c r="B29" s="66" t="s">
         <v>221</v>
       </c>
       <c r="C29" s="66"/>
-      <c r="D29" s="121"/>
+      <c r="D29" s="119"/>
       <c r="E29" s="64"/>
       <c r="F29" s="60" t="s">
         <v>130</v>
@@ -8027,25 +8027,25 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="131" t="s">
+      <c r="A30" s="124" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="65"/>
       <c r="C30" s="65"/>
-      <c r="D30" s="132"/>
+      <c r="D30" s="121"/>
       <c r="E30" s="60"/>
       <c r="F30" s="59"/>
       <c r="G30" s="59"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="118"/>
+      <c r="A31" s="125"/>
       <c r="B31" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C31" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="D31" s="133"/>
+      <c r="D31" s="122"/>
       <c r="E31" s="60" t="s">
         <v>168</v>
       </c>
@@ -8053,12 +8053,12 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="118"/>
+      <c r="A32" s="125"/>
       <c r="B32" s="66"/>
       <c r="C32" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="D32" s="133"/>
+      <c r="D32" s="122"/>
       <c r="E32" s="60"/>
       <c r="F32" s="60" t="s">
         <v>170</v>
@@ -8066,30 +8066,30 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="118"/>
+      <c r="A33" s="125"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66"/>
-      <c r="D33" s="133"/>
+      <c r="D33" s="122"/>
       <c r="E33" s="60"/>
       <c r="F33" s="60"/>
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="119"/>
+      <c r="A34" s="126"/>
       <c r="B34" s="66"/>
       <c r="C34" s="67"/>
-      <c r="D34" s="134"/>
+      <c r="D34" s="123"/>
       <c r="E34" s="60"/>
       <c r="F34" s="60"/>
       <c r="G34" s="61"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="118" t="s">
+      <c r="A35" s="125" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="62"/>
       <c r="C35" s="57"/>
-      <c r="D35" s="133" t="s">
+      <c r="D35" s="122" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="93"/>
@@ -8097,12 +8097,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="118"/>
+      <c r="A36" s="125"/>
       <c r="B36" s="63"/>
       <c r="C36" s="66" t="s">
         <v>237</v>
       </c>
-      <c r="D36" s="133"/>
+      <c r="D36" s="122"/>
       <c r="E36" s="57" t="s">
         <v>238</v>
       </c>
@@ -8112,45 +8112,35 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="118"/>
+      <c r="A37" s="125"/>
       <c r="B37" s="63" t="s">
         <v>221</v>
       </c>
       <c r="C37" s="46"/>
-      <c r="D37" s="133"/>
+      <c r="D37" s="122"/>
       <c r="E37" s="57"/>
       <c r="F37" s="76"/>
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="118"/>
+      <c r="A38" s="125"/>
       <c r="B38" s="63"/>
-      <c r="D38" s="133"/>
+      <c r="D38" s="122"/>
       <c r="E38" s="57"/>
       <c r="F38" s="76"/>
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="119"/>
+      <c r="A39" s="126"/>
       <c r="B39" s="64"/>
       <c r="C39" s="58"/>
-      <c r="D39" s="134"/>
+      <c r="D39" s="123"/>
       <c r="E39" s="58"/>
       <c r="F39" s="64"/>
       <c r="G39" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="D27:D29"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -8163,6 +8153,16 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="E16:E18"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="D27:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72F02B88-C0EA-4B66-886A-B915AFE67B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF8A11F8-4709-48DA-BC4C-D9B44D0BDAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="40" r:id="rId1"/>
@@ -1559,7 +1559,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1783,6 +1783,111 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1802,15 +1907,27 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1826,6 +1943,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1833,128 +1953,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2722,8 +2731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44822B4E-5F0D-4AA1-8394-144DB203D40C}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2761,12 +2770,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="104" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="130" t="s">
+      <c r="D2" s="107" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -2778,36 +2787,36 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="128"/>
+      <c r="A3" s="105"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="131"/>
+      <c r="D3" s="108"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="129"/>
+      <c r="A4" s="106"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="132"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="58"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="D5" s="115" t="s">
+      <c r="D5" s="116" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="63" t="s">
@@ -2817,12 +2826,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="133"/>
+      <c r="A6" s="110"/>
       <c r="B6" s="66"/>
       <c r="C6" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="D6" s="115"/>
+      <c r="D6" s="116"/>
       <c r="E6" s="63" t="s">
         <v>243</v>
       </c>
@@ -2830,12 +2839,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="133"/>
+      <c r="A7" s="110"/>
       <c r="B7" s="66"/>
       <c r="C7" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="115"/>
+      <c r="D7" s="116"/>
       <c r="E7" s="63" t="s">
         <v>180</v>
       </c>
@@ -2843,21 +2852,21 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="134"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="66"/>
       <c r="C8" s="64"/>
-      <c r="D8" s="115"/>
+      <c r="D8" s="116"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="133" t="s">
+      <c r="A9" s="110" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="62"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="118" t="s">
+      <c r="C9" s="117"/>
+      <c r="D9" s="101" t="s">
         <v>142</v>
       </c>
       <c r="E9" s="65"/>
@@ -2865,14 +2874,14 @@
       <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="133"/>
+      <c r="A10" s="110"/>
       <c r="B10" s="63" t="s">
         <v>216</v>
       </c>
       <c r="C10" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="D10" s="119"/>
+      <c r="D10" s="102"/>
       <c r="E10" s="66" t="s">
         <v>106</v>
       </c>
@@ -2882,23 +2891,23 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="134"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="63"/>
       <c r="C11" s="57"/>
-      <c r="D11" s="120"/>
+      <c r="D11" s="103"/>
       <c r="E11" s="67"/>
       <c r="F11" s="64"/>
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="125" t="s">
+      <c r="A12" s="99" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="65"/>
       <c r="C12" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="D12" s="114" t="s">
+      <c r="D12" s="86" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="63">
@@ -2908,12 +2917,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="125"/>
+      <c r="A13" s="99"/>
       <c r="B13" s="66"/>
       <c r="C13" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="115"/>
+      <c r="D13" s="87"/>
       <c r="E13" s="63" t="s">
         <v>230</v>
       </c>
@@ -2921,12 +2930,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="125"/>
+      <c r="A14" s="99"/>
       <c r="B14" s="66"/>
       <c r="C14" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="115"/>
+      <c r="D14" s="87"/>
       <c r="E14" s="63" t="s">
         <v>185</v>
       </c>
@@ -2934,12 +2943,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="125"/>
+      <c r="A15" s="99"/>
       <c r="B15" s="67" t="s">
         <v>248</v>
       </c>
       <c r="C15" s="64"/>
-      <c r="D15" s="115"/>
+      <c r="D15" s="87"/>
       <c r="E15" s="63"/>
       <c r="F15" s="63" t="s">
         <v>194</v>
@@ -2947,50 +2956,50 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="124" t="s">
+      <c r="A16" s="112" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="63"/>
       <c r="C16" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="D16" s="118" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="118" t="s">
+      <c r="D16" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="121">
+      <c r="F16" s="113">
         <v>1</v>
       </c>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="125"/>
+      <c r="A17" s="99"/>
       <c r="B17" s="63" t="s">
         <v>224</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>250</v>
       </c>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="122"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="114"/>
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="125"/>
+      <c r="A18" s="99"/>
       <c r="B18" s="64"/>
       <c r="C18" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="123"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="115"/>
       <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="124" t="s">
+      <c r="A19" s="112" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="66" t="s">
@@ -2999,7 +3008,7 @@
       <c r="C19" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="D19" s="119" t="s">
+      <c r="D19" s="102" t="s">
         <v>227</v>
       </c>
       <c r="E19" s="63" t="s">
@@ -3009,14 +3018,14 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="125"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="66" t="s">
         <v>248</v>
       </c>
       <c r="C20" s="66" t="s">
         <v>253</v>
       </c>
-      <c r="D20" s="119"/>
+      <c r="D20" s="102"/>
       <c r="E20" s="63" t="s">
         <v>185</v>
       </c>
@@ -3026,14 +3035,14 @@
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="125"/>
+      <c r="A21" s="99"/>
       <c r="B21" s="66" t="s">
         <v>255</v>
       </c>
       <c r="C21" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="D21" s="119"/>
+      <c r="D21" s="102"/>
       <c r="E21" s="63" t="s">
         <v>252</v>
       </c>
@@ -3041,25 +3050,25 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="125"/>
+      <c r="A22" s="99"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66"/>
-      <c r="D22" s="119"/>
+      <c r="D22" s="102"/>
       <c r="E22" s="63"/>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="126"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
-      <c r="D23" s="120"/>
+      <c r="D23" s="103"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="125" t="s">
+      <c r="A24" s="99" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="78" t="s">
@@ -3068,7 +3077,7 @@
       <c r="C24" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="D24" s="114" t="s">
+      <c r="D24" s="86" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="62" t="s">
@@ -3080,12 +3089,12 @@
       <c r="G24" s="59"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="125"/>
+      <c r="A25" s="99"/>
       <c r="B25" s="79"/>
       <c r="C25" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D25" s="115"/>
+      <c r="D25" s="87"/>
       <c r="E25" s="63" t="s">
         <v>257</v>
       </c>
@@ -3093,12 +3102,12 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="125"/>
+      <c r="A26" s="99"/>
       <c r="B26" s="80"/>
       <c r="C26" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D26" s="115"/>
+      <c r="D26" s="87"/>
       <c r="E26" s="63" t="s">
         <v>185</v>
       </c>
@@ -3106,21 +3115,21 @@
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="125"/>
+      <c r="A27" s="99"/>
       <c r="B27" s="81"/>
       <c r="C27" s="64"/>
-      <c r="D27" s="116"/>
+      <c r="D27" s="88"/>
       <c r="E27" s="63"/>
       <c r="F27" s="61"/>
       <c r="G27" s="61"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="124" t="s">
+      <c r="A28" s="112" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="66"/>
       <c r="C28" s="66"/>
-      <c r="D28" s="118" t="s">
+      <c r="D28" s="101" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="62"/>
@@ -3128,14 +3137,14 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="125"/>
+      <c r="A29" s="99"/>
       <c r="B29" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C29" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D29" s="119"/>
+      <c r="D29" s="102"/>
       <c r="E29" s="63" t="s">
         <v>106</v>
       </c>
@@ -3143,23 +3152,23 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="125"/>
+      <c r="A30" s="99"/>
       <c r="B30" s="66"/>
       <c r="C30" s="66"/>
-      <c r="D30" s="119"/>
+      <c r="D30" s="102"/>
       <c r="E30" s="64"/>
       <c r="F30" s="60"/>
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="124" t="s">
+      <c r="A31" s="112" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="65"/>
       <c r="C31" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="121"/>
+      <c r="D31" s="113"/>
       <c r="E31" s="60" t="s">
         <v>171</v>
       </c>
@@ -3167,14 +3176,14 @@
       <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="125"/>
+      <c r="A32" s="99"/>
       <c r="B32" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="D32" s="122"/>
+      <c r="D32" s="114"/>
       <c r="E32" s="60" t="s">
         <v>168</v>
       </c>
@@ -3182,12 +3191,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="125"/>
+      <c r="A33" s="99"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66" t="s">
         <v>259</v>
       </c>
-      <c r="D33" s="122"/>
+      <c r="D33" s="114"/>
       <c r="E33" s="60"/>
       <c r="F33" s="60" t="s">
         <v>170</v>
@@ -3195,32 +3204,32 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="125"/>
+      <c r="A34" s="99"/>
       <c r="B34" s="66"/>
       <c r="C34" s="66"/>
-      <c r="D34" s="122"/>
+      <c r="D34" s="114"/>
       <c r="E34" s="60"/>
       <c r="F34" s="60"/>
       <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="126"/>
+      <c r="A35" s="100"/>
       <c r="B35" s="66"/>
       <c r="C35" s="67"/>
-      <c r="D35" s="123"/>
+      <c r="D35" s="115"/>
       <c r="E35" s="60"/>
       <c r="F35" s="60"/>
       <c r="G35" s="61"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="125" t="s">
+      <c r="A36" s="99" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="62"/>
       <c r="C36" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="D36" s="119" t="s">
+      <c r="D36" s="102" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="82" t="s">
@@ -3230,12 +3239,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="125"/>
+      <c r="A37" s="99"/>
       <c r="B37" s="63"/>
       <c r="C37" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="D37" s="119"/>
+      <c r="D37" s="102"/>
       <c r="E37" s="66" t="s">
         <v>170</v>
       </c>
@@ -3243,14 +3252,14 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="125"/>
+      <c r="A38" s="99"/>
       <c r="B38" s="63" t="s">
         <v>248</v>
       </c>
       <c r="C38" s="60" t="s">
         <v>260</v>
       </c>
-      <c r="D38" s="119"/>
+      <c r="D38" s="102"/>
       <c r="E38" s="66" t="s">
         <v>171</v>
       </c>
@@ -3260,28 +3269,38 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="125"/>
+      <c r="A39" s="99"/>
       <c r="B39" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="D39" s="119"/>
+      <c r="D39" s="102"/>
       <c r="E39" s="66"/>
-      <c r="F39" s="94" t="s">
+      <c r="F39" s="133" t="s">
         <v>171</v>
       </c>
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="126"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="64"/>
       <c r="C40" s="58"/>
-      <c r="D40" s="120"/>
+      <c r="D40" s="103"/>
       <c r="E40" s="67"/>
       <c r="F40" s="64"/>
       <c r="G40" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="D28:D30"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -3294,16 +3313,6 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="E16:E18"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="D28:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3313,8 +3322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CD1CE-B6FA-48B8-A6CC-4149467C6873}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3352,12 +3361,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="104" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="130" t="s">
+      <c r="D2" s="107" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -3369,53 +3378,53 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="128"/>
+      <c r="A3" s="105"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="131"/>
+      <c r="D3" s="108"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="129"/>
+      <c r="A4" s="106"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="57"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="117"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="102" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="119" t="s">
         <v>173</v>
       </c>
       <c r="F5" s="60"/>
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="133"/>
+      <c r="A6" s="110"/>
       <c r="B6" s="66" t="s">
         <v>255</v>
       </c>
       <c r="C6" s="66" t="s">
         <v>262</v>
       </c>
-      <c r="D6" s="119"/>
+      <c r="D6" s="102"/>
       <c r="E6" s="63" t="s">
         <v>263</v>
       </c>
@@ -3423,12 +3432,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="133"/>
+      <c r="A7" s="110"/>
       <c r="B7" s="66"/>
       <c r="C7" s="66" t="s">
         <v>264</v>
       </c>
-      <c r="D7" s="119"/>
+      <c r="D7" s="102"/>
       <c r="E7" s="63" t="s">
         <v>263</v>
       </c>
@@ -3436,12 +3445,12 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="133"/>
+      <c r="A8" s="110"/>
       <c r="B8" s="66" t="s">
         <v>265</v>
       </c>
       <c r="C8" s="66"/>
-      <c r="D8" s="119"/>
+      <c r="D8" s="102"/>
       <c r="E8" s="63" t="s">
         <v>241</v>
       </c>
@@ -3449,12 +3458,12 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="134"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="66" t="s">
         <v>266</v>
       </c>
       <c r="C9" s="66"/>
-      <c r="D9" s="119"/>
+      <c r="D9" s="102"/>
       <c r="E9" s="64" t="s">
         <v>241</v>
       </c>
@@ -3462,31 +3471,31 @@
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="133" t="s">
+      <c r="A10" s="110" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="62"/>
       <c r="C10" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D10" s="118" t="s">
+      <c r="D10" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="85" t="s">
+      <c r="E10" s="120" t="s">
         <v>173</v>
       </c>
       <c r="F10" s="62"/>
       <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="133"/>
+      <c r="A11" s="110"/>
       <c r="B11" s="63" t="s">
         <v>267</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="D11" s="119"/>
+      <c r="D11" s="102"/>
       <c r="E11" s="63" t="s">
         <v>263</v>
       </c>
@@ -3496,14 +3505,14 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="134"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="63" t="s">
         <v>269</v>
       </c>
       <c r="C12" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="D12" s="120"/>
+      <c r="D12" s="103"/>
       <c r="E12" s="66"/>
       <c r="F12" s="64" t="s">
         <v>180</v>
@@ -3511,19 +3520,19 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="125" t="s">
+      <c r="A13" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="144" t="s">
         <v>271</v>
       </c>
       <c r="C13" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="114" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="84" t="s">
+      <c r="D13" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="119" t="s">
         <v>173</v>
       </c>
       <c r="F13" s="59" t="s">
@@ -3532,12 +3541,12 @@
       <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="125"/>
+      <c r="A14" s="99"/>
       <c r="B14" s="63"/>
       <c r="C14" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="D14" s="115"/>
+      <c r="D14" s="87"/>
       <c r="E14" s="63" t="s">
         <v>273</v>
       </c>
@@ -3545,12 +3554,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="125"/>
+      <c r="A15" s="99"/>
       <c r="B15" s="64"/>
       <c r="C15" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="D15" s="115"/>
+      <c r="D15" s="87"/>
       <c r="E15" s="64" t="s">
         <v>173</v>
       </c>
@@ -3558,72 +3567,72 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="124" t="s">
+      <c r="A16" s="112" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="63"/>
       <c r="C16" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="D16" s="118" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="119" t="s">
+      <c r="D16" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="102" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="121">
+      <c r="F16" s="113">
         <v>1</v>
       </c>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="125"/>
+      <c r="A17" s="99"/>
       <c r="B17" s="63" t="s">
         <v>276</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>277</v>
       </c>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="122"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="114"/>
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="125"/>
+      <c r="A18" s="99"/>
       <c r="B18" s="63"/>
       <c r="C18" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="123"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="115"/>
       <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="124" t="s">
+      <c r="A19" s="112" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="62"/>
       <c r="C19" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D19" s="119" t="s">
+      <c r="D19" s="102" t="s">
         <v>227</v>
       </c>
-      <c r="E19" s="84" t="s">
+      <c r="E19" s="119" t="s">
         <v>173</v>
       </c>
       <c r="F19" s="60"/>
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="125"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="63"/>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="117" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="119"/>
+      <c r="D20" s="102"/>
       <c r="E20" s="63" t="s">
         <v>185</v>
       </c>
@@ -3631,12 +3640,12 @@
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="125"/>
+      <c r="A21" s="99"/>
       <c r="B21" s="76"/>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="117" t="s">
         <v>271</v>
       </c>
-      <c r="D21" s="119"/>
+      <c r="D21" s="102"/>
       <c r="E21" s="63"/>
       <c r="F21" s="60" t="s">
         <v>185</v>
@@ -3644,12 +3653,12 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="125"/>
+      <c r="A22" s="99"/>
       <c r="B22" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="119"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="102"/>
       <c r="E22" s="63"/>
       <c r="F22" s="60" t="s">
         <v>222</v>
@@ -3657,17 +3666,17 @@
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="135" t="s">
+      <c r="A23" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="86"/>
+      <c r="B23" s="121"/>
       <c r="C23" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D23" s="114" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="84" t="s">
+      <c r="D23" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="119" t="s">
         <v>173</v>
       </c>
       <c r="F23" s="59" t="s">
@@ -3676,14 +3685,14 @@
       <c r="G23" s="59"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="136"/>
-      <c r="B24" s="87" t="s">
+      <c r="A24" s="126"/>
+      <c r="B24" s="122" t="s">
         <v>271</v>
       </c>
       <c r="C24" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="D24" s="115"/>
+      <c r="D24" s="87"/>
       <c r="E24" s="63" t="s">
         <v>273</v>
       </c>
@@ -3691,12 +3700,12 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="136"/>
-      <c r="B25" s="88"/>
+      <c r="A25" s="126"/>
+      <c r="B25" s="123"/>
       <c r="C25" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="D25" s="115"/>
+      <c r="D25" s="87"/>
       <c r="E25" s="63" t="s">
         <v>173</v>
       </c>
@@ -3704,21 +3713,21 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="137"/>
-      <c r="B26" s="96"/>
+      <c r="A26" s="127"/>
+      <c r="B26" s="135"/>
       <c r="C26" s="61"/>
-      <c r="D26" s="115"/>
+      <c r="D26" s="116"/>
       <c r="E26" s="64"/>
       <c r="F26" s="61"/>
       <c r="G26" s="61"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="125" t="s">
+      <c r="A27" s="99" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="62"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="121" t="s">
+      <c r="C27" s="117"/>
+      <c r="D27" s="113" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="60"/>
@@ -3726,12 +3735,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="125"/>
+      <c r="A28" s="99"/>
       <c r="B28" s="63"/>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="117" t="s">
         <v>280</v>
       </c>
-      <c r="D28" s="122"/>
+      <c r="D28" s="114"/>
       <c r="E28" s="60" t="s">
         <v>180</v>
       </c>
@@ -3739,14 +3748,14 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="125"/>
+      <c r="A29" s="99"/>
       <c r="B29" s="63" t="s">
         <v>269</v>
       </c>
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="117" t="s">
         <v>281</v>
       </c>
-      <c r="D29" s="122"/>
+      <c r="D29" s="114"/>
       <c r="E29" s="60" t="s">
         <v>180</v>
       </c>
@@ -3756,9 +3765,9 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="90"/>
+      <c r="A30" s="131"/>
       <c r="B30" s="64"/>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="117" t="s">
         <v>282</v>
       </c>
       <c r="D30" s="64"/>
@@ -3769,29 +3778,29 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="125" t="s">
+      <c r="A31" s="99" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="66"/>
       <c r="C31" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D31" s="119"/>
-      <c r="E31" s="84" t="s">
+      <c r="D31" s="102"/>
+      <c r="E31" s="119" t="s">
         <v>173</v>
       </c>
       <c r="F31" s="59"/>
       <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="125"/>
+      <c r="A32" s="99"/>
       <c r="B32" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="D32" s="119"/>
+      <c r="D32" s="102"/>
       <c r="E32" s="63" t="s">
         <v>168</v>
       </c>
@@ -3799,12 +3808,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="125"/>
+      <c r="A33" s="99"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="D33" s="119"/>
+      <c r="D33" s="102"/>
       <c r="E33" s="63"/>
       <c r="F33" s="60" t="s">
         <v>170</v>
@@ -3812,47 +3821,47 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="125"/>
+      <c r="A34" s="99"/>
       <c r="B34" s="66"/>
       <c r="C34" s="66"/>
-      <c r="D34" s="119"/>
+      <c r="D34" s="102"/>
       <c r="E34" s="63"/>
       <c r="F34" s="60"/>
       <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="126"/>
+      <c r="A35" s="100"/>
       <c r="B35" s="66"/>
       <c r="C35" s="66"/>
-      <c r="D35" s="120"/>
+      <c r="D35" s="103"/>
       <c r="E35" s="64"/>
       <c r="F35" s="60"/>
       <c r="G35" s="61"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="125" t="s">
+      <c r="A36" s="99" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="62"/>
       <c r="C36" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D36" s="114" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="85" t="s">
+      <c r="D36" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="120" t="s">
         <v>173</v>
       </c>
       <c r="F36" s="62"/>
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="125"/>
+      <c r="A37" s="99"/>
       <c r="B37" s="63"/>
       <c r="C37" s="60" t="s">
         <v>284</v>
       </c>
-      <c r="D37" s="115"/>
+      <c r="D37" s="87"/>
       <c r="E37" s="66" t="s">
         <v>170</v>
       </c>
@@ -3860,14 +3869,14 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="125"/>
+      <c r="A38" s="99"/>
       <c r="B38" s="63" t="s">
         <v>248</v>
       </c>
       <c r="C38" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="D38" s="115"/>
+      <c r="D38" s="87"/>
       <c r="E38" s="66" t="s">
         <v>170</v>
       </c>
@@ -3877,29 +3886,39 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="125"/>
-      <c r="B39" s="99" t="s">
+      <c r="A39" s="99"/>
+      <c r="B39" s="139" t="s">
         <v>228</v>
       </c>
       <c r="C39" s="49"/>
-      <c r="D39" s="115"/>
+      <c r="D39" s="87"/>
       <c r="E39" s="66"/>
-      <c r="F39" s="94" t="s">
+      <c r="F39" s="133" t="s">
         <v>170</v>
       </c>
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="126"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="64"/>
       <c r="C40" s="61"/>
-      <c r="D40" s="116"/>
+      <c r="D40" s="88"/>
       <c r="E40" s="67"/>
       <c r="F40" s="64"/>
       <c r="G40" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="D27:D29"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -3912,16 +3931,6 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="E16:E18"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="D27:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3931,8 +3940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53787AF6-DADA-4A12-9844-18CC696737AE}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3947,35 +3956,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="G1" s="54" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="104" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="130" t="s">
+      <c r="D2" s="107" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -3987,53 +3996,53 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="125"/>
+      <c r="A3" s="105"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="131"/>
+      <c r="D3" s="108"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="126"/>
+      <c r="A4" s="106"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="57"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="117"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="115" t="s">
+      <c r="D5" s="116" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="119" t="s">
         <v>173</v>
       </c>
       <c r="F5" s="60"/>
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="133"/>
+      <c r="A6" s="110"/>
       <c r="B6" s="66" t="s">
         <v>228</v>
       </c>
       <c r="C6" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="D6" s="115"/>
+      <c r="D6" s="116"/>
       <c r="E6" s="63" t="s">
         <v>241</v>
       </c>
@@ -4041,12 +4050,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="133"/>
+      <c r="A7" s="110"/>
       <c r="B7" s="66"/>
       <c r="C7" s="69" t="s">
         <v>287</v>
       </c>
-      <c r="D7" s="115"/>
+      <c r="D7" s="116"/>
       <c r="E7" s="67" t="s">
         <v>288</v>
       </c>
@@ -4054,49 +4063,49 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="133"/>
+      <c r="A8" s="110"/>
       <c r="B8" s="66"/>
       <c r="C8" s="63"/>
-      <c r="D8" s="115"/>
+      <c r="D8" s="116"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="134"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="66"/>
       <c r="C9" s="64"/>
-      <c r="D9" s="115"/>
+      <c r="D9" s="116"/>
       <c r="E9" s="64"/>
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="133" t="s">
+      <c r="A10" s="110" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="62"/>
       <c r="C10" s="63" t="s">
         <v>289</v>
       </c>
-      <c r="D10" s="118" t="s">
+      <c r="D10" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="85" t="s">
+      <c r="E10" s="120" t="s">
         <v>173</v>
       </c>
       <c r="F10" s="62"/>
       <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="133"/>
+      <c r="A11" s="110"/>
       <c r="B11" s="63" t="s">
         <v>290</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>291</v>
       </c>
-      <c r="D11" s="119"/>
+      <c r="D11" s="102"/>
       <c r="E11" s="63" t="s">
         <v>130</v>
       </c>
@@ -4106,14 +4115,14 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="134"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="64" t="s">
         <v>269</v>
       </c>
       <c r="C12" s="69" t="s">
         <v>292</v>
       </c>
-      <c r="D12" s="119"/>
+      <c r="D12" s="102"/>
       <c r="E12" s="67" t="s">
         <v>288</v>
       </c>
@@ -4123,17 +4132,17 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="125" t="s">
+      <c r="A13" s="99" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="68"/>
       <c r="C13" s="65" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="121" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="77" t="s">
+      <c r="D13" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="128" t="s">
         <v>173</v>
       </c>
       <c r="F13" s="59" t="s">
@@ -4142,23 +4151,23 @@
       <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="125"/>
+      <c r="A14" s="99"/>
       <c r="B14" s="68"/>
       <c r="C14" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="D14" s="122"/>
-      <c r="E14" s="77"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="125"/>
+      <c r="A15" s="99"/>
       <c r="B15" s="66"/>
       <c r="C15" s="66" t="s">
         <v>294</v>
       </c>
-      <c r="D15" s="122"/>
+      <c r="D15" s="114"/>
       <c r="E15" s="60" t="s">
         <v>130</v>
       </c>
@@ -4166,12 +4175,12 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="125"/>
+      <c r="A16" s="99"/>
       <c r="B16" s="66"/>
       <c r="C16" s="66" t="s">
         <v>295</v>
       </c>
-      <c r="D16" s="122"/>
+      <c r="D16" s="114"/>
       <c r="E16" s="60" t="s">
         <v>296</v>
       </c>
@@ -4179,12 +4188,12 @@
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="125"/>
+      <c r="A17" s="99"/>
       <c r="B17" s="67"/>
       <c r="C17" s="67" t="s">
         <v>297</v>
       </c>
-      <c r="D17" s="123"/>
+      <c r="D17" s="115"/>
       <c r="E17" s="60" t="s">
         <v>298</v>
       </c>
@@ -4192,72 +4201,72 @@
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="124" t="s">
+      <c r="A18" s="112" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="63"/>
       <c r="C18" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D18" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="118" t="s">
+      <c r="D18" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="F18" s="121">
+      <c r="F18" s="113">
         <v>1</v>
       </c>
       <c r="G18" s="59"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="125"/>
+      <c r="A19" s="99"/>
       <c r="B19" s="63" t="s">
         <v>299</v>
       </c>
       <c r="C19" s="77" t="s">
         <v>300</v>
       </c>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="122"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="114"/>
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="125"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="63"/>
       <c r="C20" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="D20" s="120"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="123"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="115"/>
       <c r="G20" s="61"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="124" t="s">
+      <c r="A21" s="112" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="62"/>
       <c r="C21" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D21" s="119" t="s">
+      <c r="D21" s="102" t="s">
         <v>227</v>
       </c>
-      <c r="E21" s="84" t="s">
+      <c r="E21" s="119" t="s">
         <v>173</v>
       </c>
       <c r="F21" s="60"/>
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="125"/>
+      <c r="A22" s="99"/>
       <c r="B22" s="63"/>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="117" t="s">
         <v>279</v>
       </c>
-      <c r="D22" s="119"/>
+      <c r="D22" s="102"/>
       <c r="E22" s="63" t="s">
         <v>185</v>
       </c>
@@ -4265,12 +4274,12 @@
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="125"/>
+      <c r="A23" s="99"/>
       <c r="B23" s="76"/>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="117" t="s">
         <v>271</v>
       </c>
-      <c r="D23" s="119"/>
+      <c r="D23" s="102"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60" t="s">
         <v>185</v>
@@ -4278,12 +4287,12 @@
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="125"/>
+      <c r="A24" s="99"/>
       <c r="B24" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="119"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="102"/>
       <c r="E24" s="63"/>
       <c r="F24" s="60" t="s">
         <v>222</v>
@@ -4291,17 +4300,17 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="135" t="s">
+      <c r="A25" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="86"/>
+      <c r="B25" s="121"/>
       <c r="C25" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D25" s="114" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="84" t="s">
+      <c r="D25" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="119" t="s">
         <v>173</v>
       </c>
       <c r="F25" s="59" t="s">
@@ -4310,25 +4319,25 @@
       <c r="G25" s="59"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="141"/>
-      <c r="B26" s="98"/>
+      <c r="A26" s="137"/>
+      <c r="B26" s="138"/>
       <c r="C26" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="D26" s="115"/>
-      <c r="E26" s="99" t="s">
+      <c r="D26" s="116"/>
+      <c r="E26" s="139" t="s">
         <v>130</v>
       </c>
       <c r="F26" s="60"/>
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="136"/>
-      <c r="B27" s="87"/>
+      <c r="A27" s="126"/>
+      <c r="B27" s="122"/>
       <c r="C27" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="D27" s="115"/>
+      <c r="D27" s="87"/>
       <c r="E27" s="63" t="s">
         <v>130</v>
       </c>
@@ -4336,12 +4345,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="136"/>
-      <c r="B28" s="88"/>
+      <c r="A28" s="126"/>
+      <c r="B28" s="123"/>
       <c r="C28" s="63" t="s">
         <v>295</v>
       </c>
-      <c r="D28" s="115"/>
+      <c r="D28" s="87"/>
       <c r="E28" s="63" t="s">
         <v>296</v>
       </c>
@@ -4349,12 +4358,12 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="137"/>
-      <c r="B29" s="89"/>
+      <c r="A29" s="127"/>
+      <c r="B29" s="124"/>
       <c r="C29" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="D29" s="115"/>
+      <c r="D29" s="116"/>
       <c r="E29" s="64" t="s">
         <v>298</v>
       </c>
@@ -4362,14 +4371,14 @@
       <c r="G29" s="61"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="125" t="s">
+      <c r="A30" s="99" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="66"/>
       <c r="C30" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="D30" s="121" t="s">
+      <c r="D30" s="113" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="60" t="s">
@@ -4379,12 +4388,12 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="125"/>
+      <c r="A31" s="99"/>
       <c r="B31" s="66"/>
       <c r="C31" s="66" t="s">
         <v>291</v>
       </c>
-      <c r="D31" s="122"/>
+      <c r="D31" s="114"/>
       <c r="E31" s="60"/>
       <c r="F31" s="60" t="s">
         <v>130</v>
@@ -4392,14 +4401,14 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="125"/>
+      <c r="A32" s="99"/>
       <c r="B32" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="C32" s="97" t="s">
+      <c r="C32" s="136" t="s">
         <v>302</v>
       </c>
-      <c r="D32" s="122"/>
+      <c r="D32" s="114"/>
       <c r="E32" s="60" t="s">
         <v>191</v>
       </c>
@@ -4407,8 +4416,8 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="90"/>
-      <c r="B33" s="57"/>
+      <c r="A33" s="131"/>
+      <c r="B33" s="117"/>
       <c r="C33" s="66" t="s">
         <v>292</v>
       </c>
@@ -4420,31 +4429,31 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="125" t="s">
+      <c r="A34" s="99" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="65"/>
       <c r="C34" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D34" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="84" t="s">
+      <c r="D34" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="119" t="s">
         <v>173</v>
       </c>
       <c r="F34" s="59"/>
       <c r="G34" s="59"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="125"/>
+      <c r="A35" s="99"/>
       <c r="B35" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C35" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="D35" s="119"/>
+      <c r="D35" s="102"/>
       <c r="E35" s="63" t="s">
         <v>168</v>
       </c>
@@ -4452,12 +4461,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="125"/>
+      <c r="A36" s="99"/>
       <c r="B36" s="66"/>
       <c r="C36" s="66" t="s">
         <v>303</v>
       </c>
-      <c r="D36" s="119"/>
+      <c r="D36" s="102"/>
       <c r="E36" s="63"/>
       <c r="F36" s="60" t="s">
         <v>170</v>
@@ -4465,12 +4474,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="125"/>
+      <c r="A37" s="99"/>
       <c r="B37" s="66"/>
       <c r="C37" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="D37" s="119"/>
+      <c r="D37" s="102"/>
       <c r="E37" s="63" t="s">
         <v>298</v>
       </c>
@@ -4478,54 +4487,54 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="126"/>
+      <c r="A38" s="100"/>
       <c r="B38" s="67"/>
       <c r="C38" s="66"/>
-      <c r="D38" s="119"/>
+      <c r="D38" s="102"/>
       <c r="E38" s="64"/>
       <c r="F38" s="60"/>
       <c r="G38" s="61"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="125" t="s">
+      <c r="A39" s="99" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="66"/>
       <c r="C39" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D39" s="138" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="77" t="s">
+      <c r="D39" s="141" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="128" t="s">
         <v>173</v>
       </c>
       <c r="F39" s="62"/>
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="125"/>
+      <c r="A40" s="99"/>
       <c r="B40" s="66"/>
       <c r="C40" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="D40" s="139"/>
-      <c r="E40" s="57" t="s">
+      <c r="D40" s="142"/>
+      <c r="E40" s="117" t="s">
         <v>170</v>
       </c>
       <c r="F40" s="63"/>
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="125"/>
+      <c r="A41" s="99"/>
       <c r="B41" s="66" t="s">
         <v>248</v>
       </c>
       <c r="C41" s="63" t="s">
         <v>304</v>
       </c>
-      <c r="D41" s="139"/>
-      <c r="E41" s="57" t="s">
+      <c r="D41" s="142"/>
+      <c r="E41" s="117" t="s">
         <v>171</v>
       </c>
       <c r="F41" s="63" t="s">
@@ -4534,41 +4543,29 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="125"/>
+      <c r="A42" s="99"/>
       <c r="B42" s="66" t="s">
         <v>305</v>
       </c>
       <c r="C42" s="76"/>
-      <c r="D42" s="139"/>
-      <c r="E42" s="57" t="s">
+      <c r="D42" s="142"/>
+      <c r="E42" s="117" t="s">
         <v>288</v>
       </c>
       <c r="F42" s="76"/>
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="126"/>
+      <c r="A43" s="100"/>
       <c r="B43" s="67"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="140"/>
+      <c r="C43" s="140"/>
+      <c r="D43" s="143"/>
       <c r="E43" s="58"/>
       <c r="F43" s="64"/>
       <c r="G43" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="D34:D38"/>
     <mergeCell ref="A39:A43"/>
@@ -4579,6 +4576,18 @@
     <mergeCell ref="D25:D29"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="D30:D32"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="D10:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6330,7 +6339,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="93" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="47" t="s">
@@ -6339,7 +6348,7 @@
       <c r="C2" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="102" t="s">
+      <c r="D2" s="89" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="52" t="s">
@@ -6351,14 +6360,14 @@
       <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="106"/>
+      <c r="A3" s="94"/>
       <c r="B3" t="s">
         <v>128</v>
       </c>
       <c r="C3" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="103"/>
+      <c r="D3" s="90"/>
       <c r="E3" s="46" t="s">
         <v>130</v>
       </c>
@@ -6366,11 +6375,11 @@
       <c r="G3" s="49"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="106"/>
+      <c r="A4" s="94"/>
       <c r="C4" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="103"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="46" t="s">
         <v>132</v>
       </c>
@@ -6378,12 +6387,12 @@
       <c r="G4" s="49"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="107"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="50"/>
       <c r="C5" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="104"/>
+      <c r="D5" s="91"/>
       <c r="E5" s="55" t="s">
         <v>132</v>
       </c>
@@ -6391,7 +6400,7 @@
       <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="96" t="s">
         <v>134</v>
       </c>
       <c r="B6" t="s">
@@ -6400,7 +6409,7 @@
       <c r="C6" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="102" t="s">
+      <c r="D6" s="89" t="s">
         <v>137</v>
       </c>
       <c r="E6" s="46" t="s">
@@ -6410,11 +6419,11 @@
       <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="108"/>
+      <c r="A7" s="96"/>
       <c r="C7" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="103"/>
+      <c r="D7" s="90"/>
       <c r="E7" s="46" t="s">
         <v>118</v>
       </c>
@@ -6422,22 +6431,22 @@
       <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="108"/>
-      <c r="D8" s="103"/>
+      <c r="A8" s="96"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
       <c r="G8" s="49"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="108"/>
-      <c r="D9" s="103"/>
+      <c r="A9" s="96"/>
+      <c r="D9" s="90"/>
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
       <c r="G9" s="49"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="109"/>
-      <c r="D10" s="104"/>
+      <c r="A10" s="97"/>
+      <c r="D10" s="91"/>
       <c r="E10" s="46" t="s">
         <v>140</v>
       </c>
@@ -6445,7 +6454,7 @@
       <c r="G10" s="49"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="98" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -6454,7 +6463,7 @@
       <c r="C11" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="102" t="s">
+      <c r="D11" s="89" t="s">
         <v>142</v>
       </c>
       <c r="E11" s="52" t="s">
@@ -6464,11 +6473,11 @@
       <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="110"/>
+      <c r="A12" s="98"/>
       <c r="C12" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="103"/>
+      <c r="D12" s="90"/>
       <c r="E12" s="46"/>
       <c r="F12" s="46" t="s">
         <v>143</v>
@@ -6476,14 +6485,14 @@
       <c r="G12" s="49"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="110"/>
+      <c r="A13" s="98"/>
       <c r="B13" t="s">
         <v>145</v>
       </c>
       <c r="C13" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="103"/>
+      <c r="D13" s="90"/>
       <c r="E13" s="46" t="s">
         <v>143</v>
       </c>
@@ -6491,24 +6500,24 @@
       <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="110"/>
+      <c r="A14" s="98"/>
       <c r="C14" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="103"/>
+      <c r="D14" s="90"/>
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
       <c r="G14" s="49"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="110"/>
-      <c r="D15" s="104"/>
+      <c r="A15" s="98"/>
+      <c r="D15" s="91"/>
       <c r="E15" s="46"/>
       <c r="F15" s="46"/>
       <c r="G15" s="49"/>
     </row>
     <row r="16" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A16" s="111" t="s">
+      <c r="A16" s="83" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="47" t="s">
@@ -6517,7 +6526,7 @@
       <c r="C16" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="102" t="s">
+      <c r="D16" s="89" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="52" t="s">
@@ -6527,11 +6536,11 @@
       <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A17" s="112"/>
+      <c r="A17" s="84"/>
       <c r="C17" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="103"/>
+      <c r="D17" s="90"/>
       <c r="E17" s="46">
         <v>1.5</v>
       </c>
@@ -6539,11 +6548,11 @@
       <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A18" s="112"/>
+      <c r="A18" s="84"/>
       <c r="C18" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="103"/>
+      <c r="D18" s="90"/>
       <c r="E18" s="46"/>
       <c r="F18" s="46">
         <v>1.5</v>
@@ -6551,11 +6560,11 @@
       <c r="G18" s="49"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A19" s="112"/>
+      <c r="A19" s="84"/>
       <c r="C19" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="104"/>
+      <c r="D19" s="91"/>
       <c r="E19" s="46"/>
       <c r="F19" s="57">
         <v>0.5</v>
@@ -6563,7 +6572,7 @@
       <c r="G19" s="49"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="111" t="s">
+      <c r="A20" s="83" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="47" t="s">
@@ -6578,7 +6587,7 @@
       <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="112"/>
+      <c r="A21" s="84"/>
       <c r="C21" t="s">
         <v>154</v>
       </c>
@@ -6588,7 +6597,7 @@
       <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="113"/>
+      <c r="A22" s="85"/>
       <c r="B22" s="50"/>
       <c r="C22" s="50" t="s">
         <v>155</v>
@@ -6603,7 +6612,7 @@
       <c r="G22" s="51"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="117" t="s">
+      <c r="A23" s="92" t="s">
         <v>28</v>
       </c>
       <c r="B23" t="s">
@@ -6612,7 +6621,7 @@
       <c r="C23" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="102"/>
+      <c r="D23" s="89"/>
       <c r="E23" s="46" t="s">
         <v>158</v>
       </c>
@@ -6620,11 +6629,11 @@
       <c r="G23" s="49"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="117"/>
+      <c r="A24" s="92"/>
       <c r="C24" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="103"/>
+      <c r="D24" s="90"/>
       <c r="E24" s="46">
         <v>2</v>
       </c>
@@ -6632,11 +6641,11 @@
       <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="117"/>
+      <c r="A25" s="92"/>
       <c r="C25" t="s">
         <v>151</v>
       </c>
-      <c r="D25" s="103"/>
+      <c r="D25" s="90"/>
       <c r="E25" s="46">
         <v>1</v>
       </c>
@@ -6644,11 +6653,11 @@
       <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="117"/>
+      <c r="A26" s="92"/>
       <c r="C26" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="104"/>
+      <c r="D26" s="91"/>
       <c r="E26" s="46">
         <v>1</v>
       </c>
@@ -6656,7 +6665,7 @@
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="111" t="s">
+      <c r="A27" s="83" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="47" t="s">
@@ -6665,7 +6674,7 @@
       <c r="C27" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="102" t="s">
+      <c r="D27" s="89" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="52" t="s">
@@ -6675,14 +6684,14 @@
       <c r="G27" s="48"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="112"/>
+      <c r="A28" s="84"/>
       <c r="B28" s="45" t="s">
         <v>128</v>
       </c>
       <c r="C28" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="103"/>
+      <c r="D28" s="90"/>
       <c r="E28" s="46" t="s">
         <v>130</v>
       </c>
@@ -6690,11 +6699,11 @@
       <c r="G28" s="49"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="112"/>
+      <c r="A29" s="84"/>
       <c r="C29" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="103"/>
+      <c r="D29" s="90"/>
       <c r="E29" s="46" t="s">
         <v>132</v>
       </c>
@@ -6702,12 +6711,12 @@
       <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A30" s="112"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="50"/>
       <c r="C30" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="D30" s="104"/>
+      <c r="D30" s="91"/>
       <c r="E30" s="55" t="s">
         <v>132</v>
       </c>
@@ -6715,10 +6724,10 @@
       <c r="G30" s="51"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="111" t="s">
+      <c r="A31" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="114" t="s">
+      <c r="D31" s="86" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="46"/>
@@ -6726,14 +6735,14 @@
       <c r="G31" s="49"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="112"/>
+      <c r="A32" s="84"/>
       <c r="B32" t="s">
         <v>161</v>
       </c>
       <c r="C32" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="115"/>
+      <c r="D32" s="87"/>
       <c r="E32" s="46" t="s">
         <v>138</v>
       </c>
@@ -6741,14 +6750,14 @@
       <c r="G32" s="49"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="112"/>
+      <c r="A33" s="84"/>
       <c r="B33" t="s">
         <v>135</v>
       </c>
       <c r="C33" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="115"/>
+      <c r="D33" s="87"/>
       <c r="E33" s="46" t="s">
         <v>130</v>
       </c>
@@ -6756,28 +6765,28 @@
       <c r="G33" s="49"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="112"/>
-      <c r="D34" s="115"/>
+      <c r="A34" s="84"/>
+      <c r="D34" s="87"/>
       <c r="E34" s="46"/>
       <c r="F34" s="46"/>
       <c r="G34" s="49"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="112"/>
-      <c r="D35" s="116"/>
+      <c r="A35" s="84"/>
+      <c r="D35" s="88"/>
       <c r="E35" s="46"/>
       <c r="F35" s="46"/>
       <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="111" t="s">
+      <c r="A36" s="83" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="47"/>
       <c r="C36" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="D36" s="102"/>
+      <c r="D36" s="89"/>
       <c r="E36" s="52" t="s">
         <v>165</v>
       </c>
@@ -6785,14 +6794,14 @@
       <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="112"/>
+      <c r="A37" s="84"/>
       <c r="B37" t="s">
         <v>166</v>
       </c>
       <c r="C37" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="D37" s="103"/>
+      <c r="D37" s="90"/>
       <c r="E37" s="46" t="s">
         <v>168</v>
       </c>
@@ -6800,11 +6809,11 @@
       <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="112"/>
+      <c r="A38" s="84"/>
       <c r="C38" t="s">
         <v>169</v>
       </c>
-      <c r="D38" s="103"/>
+      <c r="D38" s="90"/>
       <c r="E38" s="46"/>
       <c r="F38" s="46" t="s">
         <v>170</v>
@@ -6812,46 +6821,46 @@
       <c r="G38" s="49"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="112"/>
-      <c r="D39" s="103"/>
+      <c r="A39" s="84"/>
+      <c r="D39" s="90"/>
       <c r="E39" s="46"/>
       <c r="F39" s="46"/>
       <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="113"/>
+      <c r="A40" s="85"/>
       <c r="B40" s="50"/>
       <c r="C40" s="50"/>
-      <c r="D40" s="104"/>
+      <c r="D40" s="91"/>
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
       <c r="G40" s="51"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="112" t="s">
+      <c r="A41" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="102" t="s">
+      <c r="D41" s="89" t="s">
         <v>24</v>
       </c>
       <c r="E41" s="46"/>
       <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="112"/>
-      <c r="D42" s="103"/>
+      <c r="A42" s="84"/>
+      <c r="D42" s="90"/>
       <c r="E42" s="46"/>
       <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="112"/>
+      <c r="A43" s="84"/>
       <c r="B43" t="s">
         <v>24</v>
       </c>
       <c r="C43" t="s">
         <v>162</v>
       </c>
-      <c r="D43" s="103"/>
+      <c r="D43" s="90"/>
       <c r="E43" s="46" t="s">
         <v>171</v>
       </c>
@@ -6861,16 +6870,16 @@
       <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="112"/>
-      <c r="D44" s="103"/>
+      <c r="A44" s="84"/>
+      <c r="D44" s="90"/>
       <c r="E44" s="46"/>
       <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="113"/>
+      <c r="A45" s="85"/>
       <c r="B45" s="50"/>
       <c r="C45" s="50"/>
-      <c r="D45" s="104"/>
+      <c r="D45" s="91"/>
       <c r="E45" s="55"/>
       <c r="F45" s="50"/>
       <c r="G45" s="51"/>
@@ -6880,6 +6889,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="D2:D5"/>
     <mergeCell ref="A36:A40"/>
     <mergeCell ref="A41:A45"/>
     <mergeCell ref="D31:D35"/>
@@ -6893,12 +6908,6 @@
     <mergeCell ref="D27:D30"/>
     <mergeCell ref="A31:A35"/>
     <mergeCell ref="A27:A30"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="D2:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6908,8 +6917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5078C7BA-40AD-44B2-B44A-F90FDEF2CC2F}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6944,7 +6953,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="104" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65" t="s">
@@ -6953,7 +6962,7 @@
       <c r="C2" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="130" t="s">
+      <c r="D2" s="107" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="56" t="s">
@@ -6965,12 +6974,12 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="128"/>
+      <c r="A3" s="105"/>
       <c r="B3" s="66"/>
       <c r="C3" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="131"/>
+      <c r="D3" s="108"/>
       <c r="E3" s="57" t="s">
         <v>130</v>
       </c>
@@ -6978,12 +6987,12 @@
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="128"/>
+      <c r="A4" s="105"/>
       <c r="B4" s="66"/>
       <c r="C4" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="131"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="57" t="s">
         <v>176</v>
       </c>
@@ -6991,12 +7000,12 @@
       <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="128"/>
+      <c r="A5" s="105"/>
       <c r="B5" s="66"/>
       <c r="C5" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="131"/>
+      <c r="D5" s="108"/>
       <c r="E5" s="57" t="s">
         <v>173</v>
       </c>
@@ -7004,12 +7013,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="128"/>
+      <c r="A6" s="105"/>
       <c r="B6" s="66"/>
       <c r="C6" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="131"/>
+      <c r="D6" s="108"/>
       <c r="E6" s="57" t="s">
         <v>127</v>
       </c>
@@ -7017,12 +7026,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="129"/>
+      <c r="A7" s="106"/>
       <c r="B7" s="67"/>
       <c r="C7" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="132"/>
+      <c r="D7" s="109"/>
       <c r="E7" s="58" t="s">
         <v>179</v>
       </c>
@@ -7030,7 +7039,7 @@
       <c r="G7" s="61"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="133" t="s">
+      <c r="A8" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="66" t="s">
@@ -7039,7 +7048,7 @@
       <c r="C8" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="119" t="s">
+      <c r="D8" s="102" t="s">
         <v>137</v>
       </c>
       <c r="E8" s="63" t="s">
@@ -7049,12 +7058,12 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="133"/>
+      <c r="A9" s="110"/>
       <c r="B9" s="66"/>
       <c r="C9" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="119"/>
+      <c r="D9" s="102"/>
       <c r="E9" s="63" t="s">
         <v>130</v>
       </c>
@@ -7062,12 +7071,12 @@
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="133"/>
+      <c r="A10" s="110"/>
       <c r="B10" s="66"/>
       <c r="C10" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="D10" s="119"/>
+      <c r="D10" s="102"/>
       <c r="E10" s="63" t="s">
         <v>183</v>
       </c>
@@ -7075,12 +7084,12 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="134"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="66"/>
       <c r="C11" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="119"/>
+      <c r="D11" s="102"/>
       <c r="E11" s="63" t="s">
         <v>185</v>
       </c>
@@ -7088,14 +7097,14 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="133" t="s">
+      <c r="A12" s="110" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="62"/>
       <c r="C12" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="118" t="s">
+      <c r="D12" s="101" t="s">
         <v>142</v>
       </c>
       <c r="E12" s="62" t="s">
@@ -7105,12 +7114,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="133"/>
+      <c r="A13" s="110"/>
       <c r="B13" s="63"/>
       <c r="C13" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="D13" s="119"/>
+      <c r="D13" s="102"/>
       <c r="E13" s="63" t="s">
         <v>187</v>
       </c>
@@ -7118,12 +7127,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="133"/>
+      <c r="A14" s="110"/>
       <c r="B14" s="76"/>
       <c r="C14" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="119"/>
+      <c r="D14" s="102"/>
       <c r="E14" s="63"/>
       <c r="F14" s="60" t="s">
         <v>130</v>
@@ -7131,12 +7140,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="133"/>
+      <c r="A15" s="110"/>
       <c r="B15" s="63" t="s">
         <v>190</v>
       </c>
       <c r="C15" s="57"/>
-      <c r="D15" s="119"/>
+      <c r="D15" s="102"/>
       <c r="E15" s="63" t="s">
         <v>191</v>
       </c>
@@ -7144,23 +7153,23 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="134"/>
+      <c r="A16" s="111"/>
       <c r="B16" s="64"/>
       <c r="C16" s="57"/>
-      <c r="D16" s="120"/>
+      <c r="D16" s="103"/>
       <c r="E16" s="63"/>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A17" s="125" t="s">
+      <c r="A17" s="99" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="118" t="s">
+      <c r="D17" s="101" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="62" t="s">
@@ -7170,14 +7179,14 @@
       <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A18" s="125"/>
+      <c r="A18" s="99"/>
       <c r="B18" s="66" t="s">
         <v>193</v>
       </c>
       <c r="C18" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="119"/>
+      <c r="D18" s="102"/>
       <c r="E18" s="63" t="s">
         <v>176</v>
       </c>
@@ -7185,12 +7194,12 @@
       <c r="G18" s="60"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A19" s="125"/>
+      <c r="A19" s="99"/>
       <c r="B19" s="66"/>
       <c r="C19" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="D19" s="119"/>
+      <c r="D19" s="102"/>
       <c r="E19" s="63" t="s">
         <v>176</v>
       </c>
@@ -7198,12 +7207,12 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A20" s="125"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="66"/>
       <c r="C20" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="D20" s="119"/>
+      <c r="D20" s="102"/>
       <c r="E20" s="63"/>
       <c r="F20" s="63" t="s">
         <v>194</v>
@@ -7211,7 +7220,7 @@
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="124" t="s">
+      <c r="A21" s="112" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="65" t="s">
@@ -7220,41 +7229,41 @@
       <c r="C21" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="D21" s="118" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="118" t="s">
+      <c r="D21" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="101" t="s">
         <v>197</v>
       </c>
-      <c r="F21" s="121" t="s">
+      <c r="F21" s="113" t="s">
         <v>198</v>
       </c>
       <c r="G21" s="59"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="125"/>
+      <c r="A22" s="99"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="122"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="114"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="125"/>
+      <c r="A23" s="99"/>
       <c r="B23" s="67"/>
       <c r="C23" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="123"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="115"/>
       <c r="G23" s="61"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="124" t="s">
+      <c r="A24" s="112" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="66" t="s">
@@ -7263,7 +7272,7 @@
       <c r="C24" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="119"/>
+      <c r="D24" s="102"/>
       <c r="E24" s="63" t="s">
         <v>173</v>
       </c>
@@ -7271,12 +7280,12 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="125"/>
+      <c r="A25" s="99"/>
       <c r="B25" s="66"/>
       <c r="C25" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="D25" s="119"/>
+      <c r="D25" s="102"/>
       <c r="E25" s="63" t="s">
         <v>191</v>
       </c>
@@ -7284,12 +7293,12 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="125"/>
+      <c r="A26" s="99"/>
       <c r="B26" s="66"/>
       <c r="C26" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="D26" s="119"/>
+      <c r="D26" s="102"/>
       <c r="E26" s="63" t="s">
         <v>130</v>
       </c>
@@ -7297,12 +7306,12 @@
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="125"/>
+      <c r="A27" s="99"/>
       <c r="B27" s="66"/>
       <c r="C27" s="66" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="119"/>
+      <c r="D27" s="102"/>
       <c r="E27" s="63" t="s">
         <v>202</v>
       </c>
@@ -7310,12 +7319,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="126"/>
+      <c r="A28" s="100"/>
       <c r="B28" s="66"/>
       <c r="C28" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="D28" s="120"/>
+      <c r="D28" s="103"/>
       <c r="E28" s="63" t="s">
         <v>130</v>
       </c>
@@ -7323,7 +7332,7 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="125" t="s">
+      <c r="A29" s="99" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="74" t="s">
@@ -7332,7 +7341,7 @@
       <c r="C29" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="118" t="s">
+      <c r="D29" s="101" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="62" t="s">
@@ -7344,12 +7353,12 @@
       <c r="G29" s="59"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="125"/>
+      <c r="A30" s="99"/>
       <c r="B30" s="70"/>
       <c r="C30" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="D30" s="119"/>
+      <c r="D30" s="102"/>
       <c r="E30" s="63" t="s">
         <v>205</v>
       </c>
@@ -7357,12 +7366,12 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="125"/>
+      <c r="A31" s="99"/>
       <c r="B31" s="71"/>
       <c r="C31" s="69" t="s">
         <v>206</v>
       </c>
-      <c r="D31" s="119"/>
+      <c r="D31" s="102"/>
       <c r="E31" s="63" t="s">
         <v>130</v>
       </c>
@@ -7370,12 +7379,12 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="125"/>
+      <c r="A32" s="99"/>
       <c r="B32" s="71"/>
       <c r="C32" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="D32" s="119"/>
+      <c r="D32" s="102"/>
       <c r="E32" s="63" t="s">
         <v>179</v>
       </c>
@@ -7383,12 +7392,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="125"/>
+      <c r="A33" s="99"/>
       <c r="B33" s="72"/>
       <c r="C33" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="D33" s="119"/>
+      <c r="D33" s="102"/>
       <c r="E33" s="63" t="s">
         <v>208</v>
       </c>
@@ -7396,12 +7405,12 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A34" s="125"/>
+      <c r="A34" s="99"/>
       <c r="B34" s="73"/>
       <c r="C34" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="D34" s="120"/>
+      <c r="D34" s="103"/>
       <c r="E34" s="64" t="s">
         <v>132</v>
       </c>
@@ -7409,12 +7418,12 @@
       <c r="G34" s="61"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="124" t="s">
+      <c r="A35" s="112" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="66"/>
       <c r="C35" s="66"/>
-      <c r="D35" s="118" t="s">
+      <c r="D35" s="101" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="63"/>
@@ -7422,12 +7431,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="125"/>
+      <c r="A36" s="99"/>
       <c r="B36" s="66"/>
       <c r="C36" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="D36" s="119"/>
+      <c r="D36" s="102"/>
       <c r="E36" s="63" t="s">
         <v>130</v>
       </c>
@@ -7435,14 +7444,14 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7" ht="21" customHeight="1">
-      <c r="A37" s="125"/>
+      <c r="A37" s="99"/>
       <c r="B37" s="66" t="s">
         <v>211</v>
       </c>
       <c r="C37" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="D37" s="119"/>
+      <c r="D37" s="102"/>
       <c r="E37" s="63" t="s">
         <v>180</v>
       </c>
@@ -7450,12 +7459,12 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="125"/>
+      <c r="A38" s="99"/>
       <c r="B38" s="66"/>
       <c r="C38" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="D38" s="119"/>
+      <c r="D38" s="102"/>
       <c r="E38" s="63"/>
       <c r="F38" s="60" t="s">
         <v>130</v>
@@ -7463,23 +7472,23 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="125"/>
+      <c r="A39" s="99"/>
       <c r="B39" s="66"/>
       <c r="C39" s="66"/>
-      <c r="D39" s="120"/>
+      <c r="D39" s="103"/>
       <c r="E39" s="63"/>
       <c r="F39" s="60"/>
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="124" t="s">
+      <c r="A40" s="112" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="65"/>
       <c r="C40" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="118"/>
+      <c r="D40" s="101"/>
       <c r="E40" s="62" t="s">
         <v>165</v>
       </c>
@@ -7487,14 +7496,14 @@
       <c r="G40" s="59"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="125"/>
+      <c r="A41" s="99"/>
       <c r="B41" s="66" t="s">
         <v>166</v>
       </c>
       <c r="C41" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="D41" s="119"/>
+      <c r="D41" s="102"/>
       <c r="E41" s="63" t="s">
         <v>168</v>
       </c>
@@ -7502,12 +7511,12 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="125"/>
+      <c r="A42" s="99"/>
       <c r="B42" s="66"/>
       <c r="C42" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="D42" s="119"/>
+      <c r="D42" s="102"/>
       <c r="E42" s="63"/>
       <c r="F42" s="60" t="s">
         <v>170</v>
@@ -7515,32 +7524,32 @@
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="125"/>
+      <c r="A43" s="99"/>
       <c r="B43" s="66"/>
       <c r="C43" s="66"/>
-      <c r="D43" s="119"/>
+      <c r="D43" s="102"/>
       <c r="E43" s="63"/>
       <c r="F43" s="60"/>
       <c r="G43" s="60"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="126"/>
+      <c r="A44" s="100"/>
       <c r="B44" s="67"/>
       <c r="C44" s="67"/>
-      <c r="D44" s="120"/>
+      <c r="D44" s="103"/>
       <c r="E44" s="64"/>
       <c r="F44" s="60"/>
       <c r="G44" s="61"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="125" t="s">
+      <c r="A45" s="99" t="s">
         <v>30</v>
       </c>
       <c r="B45" s="66"/>
       <c r="C45" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D45" s="118" t="s">
+      <c r="D45" s="101" t="s">
         <v>24</v>
       </c>
       <c r="E45" s="65" t="s">
@@ -7550,12 +7559,12 @@
       <c r="G45" s="60"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="125"/>
+      <c r="A46" s="99"/>
       <c r="B46" s="66"/>
       <c r="C46" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D46" s="119"/>
+      <c r="D46" s="102"/>
       <c r="E46" s="66" t="s">
         <v>176</v>
       </c>
@@ -7563,14 +7572,14 @@
       <c r="G46" s="60"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="125"/>
+      <c r="A47" s="99"/>
       <c r="B47" s="66" t="s">
         <v>193</v>
       </c>
       <c r="C47" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="D47" s="119"/>
+      <c r="D47" s="102"/>
       <c r="E47" s="66" t="s">
         <v>176</v>
       </c>
@@ -7578,12 +7587,12 @@
       <c r="G47" s="60"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="125"/>
+      <c r="A48" s="99"/>
       <c r="B48" s="66"/>
       <c r="C48" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="D48" s="119"/>
+      <c r="D48" s="102"/>
       <c r="E48" s="66"/>
       <c r="F48" s="63" t="s">
         <v>194</v>
@@ -7591,10 +7600,10 @@
       <c r="G48" s="60"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="126"/>
+      <c r="A49" s="100"/>
       <c r="B49" s="67"/>
       <c r="C49" s="67"/>
-      <c r="D49" s="120"/>
+      <c r="D49" s="103"/>
       <c r="E49" s="67"/>
       <c r="F49" s="64"/>
       <c r="G49" s="61"/>
@@ -7607,6 +7616,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="D40:D44"/>
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="D45:D49"/>
     <mergeCell ref="A29:A34"/>
@@ -7623,12 +7638,6 @@
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="D24:D28"/>
     <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="D40:D44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7638,8 +7647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98AF41B8-7A85-46D9-B88B-9A72A502D06D}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7654,35 +7663,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="G1" s="130" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="112" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="130" t="s">
+      <c r="D2" s="107" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -7694,34 +7703,34 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="125"/>
+      <c r="A3" s="99"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="131"/>
+      <c r="D3" s="108"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="126"/>
+      <c r="A4" s="100"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="132"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="58"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62"/>
-      <c r="D5" s="115" t="s">
+      <c r="D5" s="87" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="63"/>
@@ -7729,12 +7738,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="133"/>
+      <c r="A6" s="110"/>
       <c r="B6" s="66"/>
       <c r="C6" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="115"/>
+      <c r="D6" s="87"/>
       <c r="E6" s="63" t="s">
         <v>218</v>
       </c>
@@ -7742,30 +7751,30 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="133"/>
+      <c r="A7" s="110"/>
       <c r="B7" s="66"/>
       <c r="C7" s="63"/>
-      <c r="D7" s="115"/>
+      <c r="D7" s="87"/>
       <c r="E7" s="63"/>
       <c r="F7" s="60"/>
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="134"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="66"/>
       <c r="C8" s="64"/>
-      <c r="D8" s="115"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="133" t="s">
+      <c r="A9" s="110" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="62"/>
       <c r="C9" s="57"/>
-      <c r="D9" s="118" t="s">
+      <c r="D9" s="101" t="s">
         <v>142</v>
       </c>
       <c r="E9" s="65"/>
@@ -7773,12 +7782,12 @@
       <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="133"/>
+      <c r="A10" s="110"/>
       <c r="B10" s="63"/>
       <c r="C10" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="D10" s="119"/>
+      <c r="D10" s="102"/>
       <c r="E10" s="66" t="s">
         <v>106</v>
       </c>
@@ -7788,12 +7797,12 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="133"/>
+      <c r="A11" s="110"/>
       <c r="B11" s="63" t="s">
         <v>220</v>
       </c>
       <c r="C11" s="57"/>
-      <c r="D11" s="120"/>
+      <c r="D11" s="103"/>
       <c r="E11" s="67"/>
       <c r="F11" s="63" t="s">
         <v>130</v>
@@ -7801,12 +7810,12 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="124" t="s">
+      <c r="A12" s="112" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="65"/>
       <c r="C12" s="62"/>
-      <c r="D12" s="114" t="s">
+      <c r="D12" s="86" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="66"/>
@@ -7814,12 +7823,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="125"/>
+      <c r="A13" s="99"/>
       <c r="B13" s="66" t="s">
         <v>221</v>
       </c>
       <c r="C13" s="76"/>
-      <c r="D13" s="115"/>
+      <c r="D13" s="87"/>
       <c r="E13" s="66" t="s">
         <v>222</v>
       </c>
@@ -7827,12 +7836,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="125"/>
+      <c r="A14" s="99"/>
       <c r="B14" s="66"/>
       <c r="C14" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="D14" s="115"/>
+      <c r="D14" s="87"/>
       <c r="E14" s="66"/>
       <c r="F14" s="63" t="s">
         <v>222</v>
@@ -7840,62 +7849,62 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="126"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="67"/>
       <c r="C15" s="64"/>
-      <c r="D15" s="115"/>
+      <c r="D15" s="87"/>
       <c r="E15" s="66"/>
       <c r="F15" s="64"/>
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="125" t="s">
+      <c r="A16" s="99" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="63"/>
       <c r="C16" s="57"/>
-      <c r="D16" s="118" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="118" t="s">
+      <c r="D16" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="101" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="122">
+      <c r="F16" s="114">
         <v>1</v>
       </c>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="125"/>
+      <c r="A17" s="99"/>
       <c r="B17" s="63" t="s">
         <v>224</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>225</v>
       </c>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="122"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="114"/>
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="125"/>
+      <c r="A18" s="99"/>
       <c r="B18" s="64"/>
       <c r="C18" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="123"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="115"/>
       <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="124" t="s">
+      <c r="A19" s="112" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="66"/>
-      <c r="D19" s="119" t="s">
+      <c r="D19" s="102" t="s">
         <v>227</v>
       </c>
       <c r="E19" s="63"/>
@@ -7903,23 +7912,23 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="125"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="66"/>
       <c r="C20" s="66"/>
-      <c r="D20" s="119"/>
+      <c r="D20" s="102"/>
       <c r="E20" s="63"/>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="125"/>
+      <c r="A21" s="99"/>
       <c r="B21" s="66" t="s">
         <v>228</v>
       </c>
       <c r="C21" s="66" t="s">
         <v>229</v>
       </c>
-      <c r="D21" s="119"/>
+      <c r="D21" s="102"/>
       <c r="E21" s="63" t="s">
         <v>185</v>
       </c>
@@ -7929,34 +7938,34 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="125"/>
+      <c r="A22" s="99"/>
       <c r="B22" s="66" t="s">
         <v>231</v>
       </c>
       <c r="C22" s="66"/>
-      <c r="D22" s="119"/>
+      <c r="D22" s="102"/>
       <c r="E22" s="63"/>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="126"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
-      <c r="D23" s="120"/>
+      <c r="D23" s="103"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="125" t="s">
+      <c r="A24" s="99" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="78"/>
       <c r="C24" s="62" t="s">
         <v>232</v>
       </c>
-      <c r="D24" s="114" t="s">
+      <c r="D24" s="86" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="65" t="s">
@@ -7966,30 +7975,30 @@
       <c r="G24" s="62"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="125"/>
-      <c r="B25" s="83"/>
+      <c r="A25" s="99"/>
+      <c r="B25" s="118"/>
       <c r="C25" s="63"/>
-      <c r="D25" s="115"/>
+      <c r="D25" s="116"/>
       <c r="E25" s="66"/>
       <c r="F25" s="66"/>
       <c r="G25" s="63"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="125"/>
-      <c r="B26" s="95"/>
+      <c r="A26" s="99"/>
+      <c r="B26" s="134"/>
       <c r="C26" s="64"/>
-      <c r="D26" s="115"/>
+      <c r="D26" s="116"/>
       <c r="E26" s="66"/>
       <c r="F26" s="67"/>
       <c r="G26" s="64"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="124" t="s">
+      <c r="A27" s="112" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="66"/>
       <c r="C27" s="66"/>
-      <c r="D27" s="118" t="s">
+      <c r="D27" s="101" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="62"/>
@@ -7997,14 +8006,14 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="125"/>
+      <c r="A28" s="99"/>
       <c r="B28" s="66" t="s">
         <v>220</v>
       </c>
       <c r="C28" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="D28" s="119"/>
+      <c r="D28" s="102"/>
       <c r="E28" s="63" t="s">
         <v>222</v>
       </c>
@@ -8014,12 +8023,12 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="125"/>
+      <c r="A29" s="99"/>
       <c r="B29" s="66" t="s">
         <v>221</v>
       </c>
       <c r="C29" s="66"/>
-      <c r="D29" s="119"/>
+      <c r="D29" s="102"/>
       <c r="E29" s="64"/>
       <c r="F29" s="60" t="s">
         <v>130</v>
@@ -8027,25 +8036,25 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="124" t="s">
+      <c r="A30" s="112" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="65"/>
       <c r="C30" s="65"/>
-      <c r="D30" s="121"/>
+      <c r="D30" s="113"/>
       <c r="E30" s="60"/>
       <c r="F30" s="59"/>
       <c r="G30" s="59"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="125"/>
+      <c r="A31" s="99"/>
       <c r="B31" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C31" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="D31" s="122"/>
+      <c r="D31" s="114"/>
       <c r="E31" s="60" t="s">
         <v>168</v>
       </c>
@@ -8053,12 +8062,12 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="125"/>
+      <c r="A32" s="99"/>
       <c r="B32" s="66"/>
       <c r="C32" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="D32" s="122"/>
+      <c r="D32" s="114"/>
       <c r="E32" s="60"/>
       <c r="F32" s="60" t="s">
         <v>170</v>
@@ -8066,44 +8075,44 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="125"/>
+      <c r="A33" s="99"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66"/>
-      <c r="D33" s="122"/>
+      <c r="D33" s="114"/>
       <c r="E33" s="60"/>
       <c r="F33" s="60"/>
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="126"/>
+      <c r="A34" s="100"/>
       <c r="B34" s="66"/>
       <c r="C34" s="67"/>
-      <c r="D34" s="123"/>
+      <c r="D34" s="115"/>
       <c r="E34" s="60"/>
       <c r="F34" s="60"/>
       <c r="G34" s="61"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="125" t="s">
+      <c r="A35" s="99" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="62"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="122" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="93"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="114" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="132"/>
       <c r="F35" s="62"/>
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="125"/>
+      <c r="A36" s="99"/>
       <c r="B36" s="63"/>
       <c r="C36" s="66" t="s">
         <v>237</v>
       </c>
-      <c r="D36" s="122"/>
-      <c r="E36" s="57" t="s">
+      <c r="D36" s="114"/>
+      <c r="E36" s="117" t="s">
         <v>238</v>
       </c>
       <c r="F36" s="63" t="s">
@@ -8112,47 +8121,35 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="125"/>
+      <c r="A37" s="99"/>
       <c r="B37" s="63" t="s">
         <v>221</v>
       </c>
       <c r="C37" s="46"/>
-      <c r="D37" s="122"/>
-      <c r="E37" s="57"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="117"/>
       <c r="F37" s="76"/>
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="125"/>
+      <c r="A38" s="99"/>
       <c r="B38" s="63"/>
-      <c r="D38" s="122"/>
-      <c r="E38" s="57"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="117"/>
       <c r="F38" s="76"/>
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="126"/>
+      <c r="A39" s="100"/>
       <c r="B39" s="64"/>
       <c r="C39" s="58"/>
-      <c r="D39" s="123"/>
+      <c r="D39" s="115"/>
       <c r="E39" s="58"/>
       <c r="F39" s="64"/>
       <c r="G39" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="D30:D34"/>
     <mergeCell ref="A35:A39"/>
@@ -8163,6 +8160,18 @@
     <mergeCell ref="D24:D26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="D27:D29"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="D9:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF8A11F8-4709-48DA-BC4C-D9B44D0BDAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6FB5D88-66E4-4B9E-A5B8-A913AF320431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="40" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="18-04-2022" sheetId="49" r:id="rId10"/>
     <sheet name="19-04-2022" sheetId="50" r:id="rId11"/>
     <sheet name="20-04-2022" sheetId="51" r:id="rId12"/>
+    <sheet name="21-04-2022" sheetId="53" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="345">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1052,6 +1053,123 @@
   </si>
   <si>
     <t>Services in HLD</t>
+  </si>
+  <si>
+    <t>Discussed on Prototype with Team</t>
+  </si>
+  <si>
+    <t>1hr 30mins</t>
+  </si>
+  <si>
+    <t>Worked on datamodel operations</t>
+  </si>
+  <si>
+    <t>2hrs</t>
+  </si>
+  <si>
+    <t>Meet Rafi for Project clarification(Status, Delete)</t>
+  </si>
+  <si>
+    <t>10mins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  30mins</t>
+  </si>
+  <si>
+    <t>recap about  Architecture pattern in ppt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prototype review with team</t>
+  </si>
+  <si>
+    <t>DataModel Reviewed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviewed the prototype with team </t>
+  </si>
+  <si>
+    <t>Reviewed DataModel and services</t>
+  </si>
+  <si>
+    <t>HLD(NFR)</t>
+  </si>
+  <si>
+    <t>Standup Meeting - 30 mins</t>
+  </si>
+  <si>
+    <t>3hrs</t>
+  </si>
+  <si>
+    <t>Physical Model</t>
+  </si>
+  <si>
+    <t>Reviewed Prototype with team - 1.30hrs</t>
+  </si>
+  <si>
+    <t>Reworked on Data model - 1 hr</t>
+  </si>
+  <si>
+    <t>Reviewed Prototype with team</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Reviewed DataModel</t>
+  </si>
+  <si>
+    <t>Discussed about services</t>
+  </si>
+  <si>
+    <t>HLD(Services)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviewed Prototype with team </t>
+  </si>
+  <si>
+    <t>1hrs30mins</t>
+  </si>
+  <si>
+    <t>Reworked on Data model</t>
+  </si>
+  <si>
+    <t>Dicussed about Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standup meeting </t>
+  </si>
+  <si>
+    <t>Data Model Operations</t>
+  </si>
+  <si>
+    <t>Reviewed the prototype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                     College reward points Review meeting</t>
+  </si>
+  <si>
+    <t>Physical model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reviewing the prototype </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discusssing the MOM,about the status disabling feature </t>
+  </si>
+  <si>
+    <t>Helping to do the datamodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviewed the complete flow of the prototype </t>
+  </si>
+  <si>
+    <t>1 hours 30 minutes</t>
+  </si>
+  <si>
+    <t>Non functional requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rework on Data model </t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1553,13 +1671,109 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1783,6 +1997,107 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1801,35 +2116,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1837,15 +2146,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1870,100 +2170,59 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2307,7 +2566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="B3:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -2731,8 +2990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44822B4E-5F0D-4AA1-8394-144DB203D40C}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2770,12 +3029,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="134" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="137" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -2787,36 +3046,36 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="105"/>
+      <c r="A3" s="135"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="108"/>
+      <c r="D3" s="138"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="106"/>
+      <c r="A4" s="136"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="109"/>
+      <c r="D4" s="139"/>
       <c r="E4" s="58"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="140" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="122" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="63" t="s">
@@ -2826,12 +3085,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="110"/>
+      <c r="A6" s="140"/>
       <c r="B6" s="66"/>
       <c r="C6" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="D6" s="116"/>
+      <c r="D6" s="122"/>
       <c r="E6" s="63" t="s">
         <v>243</v>
       </c>
@@ -2839,12 +3098,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="110"/>
+      <c r="A7" s="140"/>
       <c r="B7" s="66"/>
       <c r="C7" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="116"/>
+      <c r="D7" s="122"/>
       <c r="E7" s="63" t="s">
         <v>180</v>
       </c>
@@ -2852,21 +3111,21 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="111"/>
+      <c r="A8" s="141"/>
       <c r="B8" s="66"/>
       <c r="C8" s="64"/>
-      <c r="D8" s="116"/>
+      <c r="D8" s="122"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="140" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="62"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="101" t="s">
+      <c r="C9" s="57"/>
+      <c r="D9" s="125" t="s">
         <v>142</v>
       </c>
       <c r="E9" s="65"/>
@@ -2874,14 +3133,14 @@
       <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="110"/>
+      <c r="A10" s="140"/>
       <c r="B10" s="63" t="s">
         <v>216</v>
       </c>
       <c r="C10" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="D10" s="102"/>
+      <c r="D10" s="126"/>
       <c r="E10" s="66" t="s">
         <v>106</v>
       </c>
@@ -2891,23 +3150,23 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="111"/>
+      <c r="A11" s="141"/>
       <c r="B11" s="63"/>
       <c r="C11" s="57"/>
-      <c r="D11" s="103"/>
+      <c r="D11" s="127"/>
       <c r="E11" s="67"/>
       <c r="F11" s="64"/>
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="132" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="65"/>
       <c r="C12" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="D12" s="86" t="s">
+      <c r="D12" s="121" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="63">
@@ -2917,12 +3176,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="99"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="66"/>
       <c r="C13" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="87"/>
+      <c r="D13" s="122"/>
       <c r="E13" s="63" t="s">
         <v>230</v>
       </c>
@@ -2930,12 +3189,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="99"/>
+      <c r="A14" s="132"/>
       <c r="B14" s="66"/>
       <c r="C14" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="87"/>
+      <c r="D14" s="122"/>
       <c r="E14" s="63" t="s">
         <v>185</v>
       </c>
@@ -2943,12 +3202,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="99"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="67" t="s">
         <v>248</v>
       </c>
       <c r="C15" s="64"/>
-      <c r="D15" s="87"/>
+      <c r="D15" s="122"/>
       <c r="E15" s="63"/>
       <c r="F15" s="63" t="s">
         <v>194</v>
@@ -2956,50 +3215,50 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="112" t="s">
+      <c r="A16" s="131" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="63"/>
       <c r="C16" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="D16" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="101" t="s">
+      <c r="D16" s="125" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="125" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="113">
+      <c r="F16" s="128">
         <v>1</v>
       </c>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="99"/>
+      <c r="A17" s="132"/>
       <c r="B17" s="63" t="s">
         <v>224</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>250</v>
       </c>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="114"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="129"/>
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="99"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="64"/>
       <c r="C18" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="115"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="130"/>
       <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="112" t="s">
+      <c r="A19" s="131" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="66" t="s">
@@ -3008,7 +3267,7 @@
       <c r="C19" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="D19" s="102" t="s">
+      <c r="D19" s="126" t="s">
         <v>227</v>
       </c>
       <c r="E19" s="63" t="s">
@@ -3018,14 +3277,14 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="99"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="66" t="s">
         <v>248</v>
       </c>
       <c r="C20" s="66" t="s">
         <v>253</v>
       </c>
-      <c r="D20" s="102"/>
+      <c r="D20" s="126"/>
       <c r="E20" s="63" t="s">
         <v>185</v>
       </c>
@@ -3035,14 +3294,14 @@
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="99"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="66" t="s">
         <v>255</v>
       </c>
       <c r="C21" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="D21" s="102"/>
+      <c r="D21" s="126"/>
       <c r="E21" s="63" t="s">
         <v>252</v>
       </c>
@@ -3050,25 +3309,25 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="99"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66"/>
-      <c r="D22" s="102"/>
+      <c r="D22" s="126"/>
       <c r="E22" s="63"/>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="100"/>
+      <c r="A23" s="133"/>
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
-      <c r="D23" s="103"/>
+      <c r="D23" s="127"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="99" t="s">
+      <c r="A24" s="132" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="78" t="s">
@@ -3077,7 +3336,7 @@
       <c r="C24" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="D24" s="86" t="s">
+      <c r="D24" s="121" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="62" t="s">
@@ -3089,12 +3348,12 @@
       <c r="G24" s="59"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="99"/>
+      <c r="A25" s="132"/>
       <c r="B25" s="79"/>
       <c r="C25" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D25" s="87"/>
+      <c r="D25" s="122"/>
       <c r="E25" s="63" t="s">
         <v>257</v>
       </c>
@@ -3102,12 +3361,12 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="99"/>
+      <c r="A26" s="132"/>
       <c r="B26" s="80"/>
       <c r="C26" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D26" s="87"/>
+      <c r="D26" s="122"/>
       <c r="E26" s="63" t="s">
         <v>185</v>
       </c>
@@ -3115,21 +3374,21 @@
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="99"/>
+      <c r="A27" s="132"/>
       <c r="B27" s="81"/>
       <c r="C27" s="64"/>
-      <c r="D27" s="88"/>
+      <c r="D27" s="123"/>
       <c r="E27" s="63"/>
       <c r="F27" s="61"/>
       <c r="G27" s="61"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="112" t="s">
+      <c r="A28" s="131" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="66"/>
       <c r="C28" s="66"/>
-      <c r="D28" s="101" t="s">
+      <c r="D28" s="125" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="62"/>
@@ -3137,14 +3396,14 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="99"/>
+      <c r="A29" s="132"/>
       <c r="B29" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C29" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D29" s="102"/>
+      <c r="D29" s="126"/>
       <c r="E29" s="63" t="s">
         <v>106</v>
       </c>
@@ -3152,23 +3411,23 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="99"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="66"/>
       <c r="C30" s="66"/>
-      <c r="D30" s="102"/>
+      <c r="D30" s="126"/>
       <c r="E30" s="64"/>
       <c r="F30" s="60"/>
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="112" t="s">
+      <c r="A31" s="131" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="65"/>
       <c r="C31" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="113"/>
+      <c r="D31" s="128"/>
       <c r="E31" s="60" t="s">
         <v>171</v>
       </c>
@@ -3176,14 +3435,14 @@
       <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="99"/>
+      <c r="A32" s="132"/>
       <c r="B32" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="D32" s="114"/>
+      <c r="D32" s="129"/>
       <c r="E32" s="60" t="s">
         <v>168</v>
       </c>
@@ -3191,12 +3450,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="99"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66" t="s">
         <v>259</v>
       </c>
-      <c r="D33" s="114"/>
+      <c r="D33" s="129"/>
       <c r="E33" s="60"/>
       <c r="F33" s="60" t="s">
         <v>170</v>
@@ -3204,32 +3463,32 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="99"/>
+      <c r="A34" s="132"/>
       <c r="B34" s="66"/>
       <c r="C34" s="66"/>
-      <c r="D34" s="114"/>
+      <c r="D34" s="129"/>
       <c r="E34" s="60"/>
       <c r="F34" s="60"/>
       <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="100"/>
+      <c r="A35" s="133"/>
       <c r="B35" s="66"/>
       <c r="C35" s="67"/>
-      <c r="D35" s="115"/>
+      <c r="D35" s="130"/>
       <c r="E35" s="60"/>
       <c r="F35" s="60"/>
       <c r="G35" s="61"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="99" t="s">
+      <c r="A36" s="132" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="62"/>
       <c r="C36" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="D36" s="102" t="s">
+      <c r="D36" s="126" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="82" t="s">
@@ -3239,12 +3498,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="99"/>
+      <c r="A37" s="132"/>
       <c r="B37" s="63"/>
       <c r="C37" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="D37" s="102"/>
+      <c r="D37" s="126"/>
       <c r="E37" s="66" t="s">
         <v>170</v>
       </c>
@@ -3252,14 +3511,14 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="99"/>
+      <c r="A38" s="132"/>
       <c r="B38" s="63" t="s">
         <v>248</v>
       </c>
       <c r="C38" s="60" t="s">
         <v>260</v>
       </c>
-      <c r="D38" s="102"/>
+      <c r="D38" s="126"/>
       <c r="E38" s="66" t="s">
         <v>171</v>
       </c>
@@ -3269,38 +3528,28 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="99"/>
+      <c r="A39" s="132"/>
       <c r="B39" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="D39" s="102"/>
+      <c r="D39" s="126"/>
       <c r="E39" s="66"/>
-      <c r="F39" s="133" t="s">
+      <c r="F39" s="93" t="s">
         <v>171</v>
       </c>
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="100"/>
+      <c r="A40" s="133"/>
       <c r="B40" s="64"/>
       <c r="C40" s="58"/>
-      <c r="D40" s="103"/>
+      <c r="D40" s="127"/>
       <c r="E40" s="67"/>
       <c r="F40" s="64"/>
       <c r="G40" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="D28:D30"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -3313,6 +3562,16 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="E16:E18"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="D28:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3322,8 +3581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CD1CE-B6FA-48B8-A6CC-4149467C6873}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3361,12 +3620,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="134" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="137" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -3378,53 +3637,53 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="105"/>
+      <c r="A3" s="135"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="108"/>
+      <c r="D3" s="138"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="106"/>
+      <c r="A4" s="136"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="117"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="140" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="119" t="s">
+      <c r="E5" s="84" t="s">
         <v>173</v>
       </c>
       <c r="F5" s="60"/>
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="110"/>
+      <c r="A6" s="140"/>
       <c r="B6" s="66" t="s">
         <v>255</v>
       </c>
       <c r="C6" s="66" t="s">
         <v>262</v>
       </c>
-      <c r="D6" s="102"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="63" t="s">
         <v>263</v>
       </c>
@@ -3432,12 +3691,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="110"/>
+      <c r="A7" s="140"/>
       <c r="B7" s="66"/>
       <c r="C7" s="66" t="s">
         <v>264</v>
       </c>
-      <c r="D7" s="102"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="63" t="s">
         <v>263</v>
       </c>
@@ -3445,12 +3704,12 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="110"/>
+      <c r="A8" s="140"/>
       <c r="B8" s="66" t="s">
         <v>265</v>
       </c>
       <c r="C8" s="66"/>
-      <c r="D8" s="102"/>
+      <c r="D8" s="126"/>
       <c r="E8" s="63" t="s">
         <v>241</v>
       </c>
@@ -3458,12 +3717,12 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="111"/>
+      <c r="A9" s="141"/>
       <c r="B9" s="66" t="s">
         <v>266</v>
       </c>
       <c r="C9" s="66"/>
-      <c r="D9" s="102"/>
+      <c r="D9" s="126"/>
       <c r="E9" s="64" t="s">
         <v>241</v>
       </c>
@@ -3471,31 +3730,31 @@
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="140" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="62"/>
       <c r="C10" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D10" s="101" t="s">
+      <c r="D10" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="120" t="s">
+      <c r="E10" s="85" t="s">
         <v>173</v>
       </c>
       <c r="F10" s="62"/>
       <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="110"/>
+      <c r="A11" s="140"/>
       <c r="B11" s="63" t="s">
         <v>267</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="D11" s="102"/>
+      <c r="D11" s="126"/>
       <c r="E11" s="63" t="s">
         <v>263</v>
       </c>
@@ -3505,14 +3764,14 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="111"/>
+      <c r="A12" s="141"/>
       <c r="B12" s="63" t="s">
         <v>269</v>
       </c>
       <c r="C12" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="D12" s="103"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="66"/>
       <c r="F12" s="64" t="s">
         <v>180</v>
@@ -3520,19 +3779,19 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="144" t="s">
+      <c r="B13" s="100" t="s">
         <v>271</v>
       </c>
       <c r="C13" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="119" t="s">
+      <c r="D13" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="84" t="s">
         <v>173</v>
       </c>
       <c r="F13" s="59" t="s">
@@ -3541,12 +3800,12 @@
       <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="99"/>
+      <c r="A14" s="132"/>
       <c r="B14" s="63"/>
       <c r="C14" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="D14" s="87"/>
+      <c r="D14" s="122"/>
       <c r="E14" s="63" t="s">
         <v>273</v>
       </c>
@@ -3554,12 +3813,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="99"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="64"/>
       <c r="C15" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="D15" s="87"/>
+      <c r="D15" s="122"/>
       <c r="E15" s="64" t="s">
         <v>173</v>
       </c>
@@ -3567,72 +3826,72 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="112" t="s">
+      <c r="A16" s="131" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="63"/>
       <c r="C16" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="D16" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="102" t="s">
+      <c r="D16" s="125" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="126" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="113">
+      <c r="F16" s="128">
         <v>1</v>
       </c>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="99"/>
+      <c r="A17" s="132"/>
       <c r="B17" s="63" t="s">
         <v>276</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>277</v>
       </c>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="114"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="129"/>
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="99"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="63"/>
       <c r="C18" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="D18" s="103"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="115"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="130"/>
       <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="112" t="s">
+      <c r="A19" s="131" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="62"/>
       <c r="C19" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D19" s="102" t="s">
+      <c r="D19" s="126" t="s">
         <v>227</v>
       </c>
-      <c r="E19" s="119" t="s">
+      <c r="E19" s="84" t="s">
         <v>173</v>
       </c>
       <c r="F19" s="60"/>
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="99"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="63"/>
-      <c r="C20" s="117" t="s">
+      <c r="C20" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="102"/>
+      <c r="D20" s="126"/>
       <c r="E20" s="63" t="s">
         <v>185</v>
       </c>
@@ -3640,12 +3899,12 @@
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="99"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="76"/>
-      <c r="C21" s="117" t="s">
+      <c r="C21" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="D21" s="102"/>
+      <c r="D21" s="126"/>
       <c r="E21" s="63"/>
       <c r="F21" s="60" t="s">
         <v>185</v>
@@ -3653,12 +3912,12 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="99"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="C22" s="117"/>
-      <c r="D22" s="102"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="126"/>
       <c r="E22" s="63"/>
       <c r="F22" s="60" t="s">
         <v>222</v>
@@ -3666,17 +3925,17 @@
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="125" t="s">
+      <c r="A23" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="121"/>
+      <c r="B23" s="86"/>
       <c r="C23" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D23" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="119" t="s">
+      <c r="D23" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="84" t="s">
         <v>173</v>
       </c>
       <c r="F23" s="59" t="s">
@@ -3685,14 +3944,14 @@
       <c r="G23" s="59"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="126"/>
-      <c r="B24" s="122" t="s">
+      <c r="A24" s="143"/>
+      <c r="B24" s="87" t="s">
         <v>271</v>
       </c>
       <c r="C24" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="D24" s="87"/>
+      <c r="D24" s="122"/>
       <c r="E24" s="63" t="s">
         <v>273</v>
       </c>
@@ -3700,12 +3959,12 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="126"/>
-      <c r="B25" s="123"/>
+      <c r="A25" s="143"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="D25" s="87"/>
+      <c r="D25" s="122"/>
       <c r="E25" s="63" t="s">
         <v>173</v>
       </c>
@@ -3713,21 +3972,21 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="127"/>
-      <c r="B26" s="135"/>
+      <c r="A26" s="144"/>
+      <c r="B26" s="95"/>
       <c r="C26" s="61"/>
-      <c r="D26" s="116"/>
+      <c r="D26" s="122"/>
       <c r="E26" s="64"/>
       <c r="F26" s="61"/>
       <c r="G26" s="61"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="99" t="s">
+      <c r="A27" s="132" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="62"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="113" t="s">
+      <c r="C27" s="57"/>
+      <c r="D27" s="128" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="60"/>
@@ -3735,12 +3994,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="99"/>
+      <c r="A28" s="132"/>
       <c r="B28" s="63"/>
-      <c r="C28" s="117" t="s">
+      <c r="C28" s="57" t="s">
         <v>280</v>
       </c>
-      <c r="D28" s="114"/>
+      <c r="D28" s="129"/>
       <c r="E28" s="60" t="s">
         <v>180</v>
       </c>
@@ -3748,14 +4007,14 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="99"/>
+      <c r="A29" s="132"/>
       <c r="B29" s="63" t="s">
         <v>269</v>
       </c>
-      <c r="C29" s="117" t="s">
+      <c r="C29" s="57" t="s">
         <v>281</v>
       </c>
-      <c r="D29" s="114"/>
+      <c r="D29" s="129"/>
       <c r="E29" s="60" t="s">
         <v>180</v>
       </c>
@@ -3765,9 +4024,9 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="131"/>
+      <c r="A30" s="89"/>
       <c r="B30" s="64"/>
-      <c r="C30" s="117" t="s">
+      <c r="C30" s="57" t="s">
         <v>282</v>
       </c>
       <c r="D30" s="64"/>
@@ -3778,29 +4037,29 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="99" t="s">
+      <c r="A31" s="132" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="66"/>
       <c r="C31" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D31" s="102"/>
-      <c r="E31" s="119" t="s">
+      <c r="D31" s="126"/>
+      <c r="E31" s="84" t="s">
         <v>173</v>
       </c>
       <c r="F31" s="59"/>
       <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="99"/>
+      <c r="A32" s="132"/>
       <c r="B32" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="D32" s="102"/>
+      <c r="D32" s="126"/>
       <c r="E32" s="63" t="s">
         <v>168</v>
       </c>
@@ -3808,12 +4067,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="99"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="D33" s="102"/>
+      <c r="D33" s="126"/>
       <c r="E33" s="63"/>
       <c r="F33" s="60" t="s">
         <v>170</v>
@@ -3821,47 +4080,47 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="99"/>
+      <c r="A34" s="132"/>
       <c r="B34" s="66"/>
       <c r="C34" s="66"/>
-      <c r="D34" s="102"/>
+      <c r="D34" s="126"/>
       <c r="E34" s="63"/>
       <c r="F34" s="60"/>
       <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="100"/>
+      <c r="A35" s="133"/>
       <c r="B35" s="66"/>
       <c r="C35" s="66"/>
-      <c r="D35" s="103"/>
+      <c r="D35" s="127"/>
       <c r="E35" s="64"/>
       <c r="F35" s="60"/>
       <c r="G35" s="61"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="99" t="s">
+      <c r="A36" s="132" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="62"/>
       <c r="C36" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D36" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="120" t="s">
+      <c r="D36" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="85" t="s">
         <v>173</v>
       </c>
       <c r="F36" s="62"/>
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="99"/>
+      <c r="A37" s="132"/>
       <c r="B37" s="63"/>
       <c r="C37" s="60" t="s">
         <v>284</v>
       </c>
-      <c r="D37" s="87"/>
+      <c r="D37" s="122"/>
       <c r="E37" s="66" t="s">
         <v>170</v>
       </c>
@@ -3869,14 +4128,14 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="99"/>
+      <c r="A38" s="132"/>
       <c r="B38" s="63" t="s">
         <v>248</v>
       </c>
       <c r="C38" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="D38" s="87"/>
+      <c r="D38" s="122"/>
       <c r="E38" s="66" t="s">
         <v>170</v>
       </c>
@@ -3886,39 +4145,29 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="99"/>
-      <c r="B39" s="139" t="s">
+      <c r="A39" s="132"/>
+      <c r="B39" s="98" t="s">
         <v>228</v>
       </c>
       <c r="C39" s="49"/>
-      <c r="D39" s="87"/>
+      <c r="D39" s="122"/>
       <c r="E39" s="66"/>
-      <c r="F39" s="133" t="s">
+      <c r="F39" s="93" t="s">
         <v>170</v>
       </c>
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="100"/>
+      <c r="A40" s="133"/>
       <c r="B40" s="64"/>
       <c r="C40" s="61"/>
-      <c r="D40" s="88"/>
+      <c r="D40" s="123"/>
       <c r="E40" s="67"/>
       <c r="F40" s="64"/>
       <c r="G40" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="D27:D29"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -3931,6 +4180,16 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="E16:E18"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="D27:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3940,9 +4199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53787AF6-DADA-4A12-9844-18CC696737AE}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:C43"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3955,94 +4212,94 @@
     <col min="7" max="7" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:7" ht="30">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="91" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="131" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="149" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="59" t="s">
         <v>106</v>
       </c>
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="105"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="63"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="60"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="106"/>
+      <c r="A4" s="133"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="64"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="140" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="122" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="119" t="s">
+      <c r="E5" s="98" t="s">
         <v>173</v>
       </c>
       <c r="F5" s="60"/>
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="110"/>
+      <c r="A6" s="140"/>
       <c r="B6" s="66" t="s">
         <v>228</v>
       </c>
       <c r="C6" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="D6" s="116"/>
+      <c r="D6" s="122"/>
       <c r="E6" s="63" t="s">
         <v>241</v>
       </c>
@@ -4050,62 +4307,62 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="110"/>
+      <c r="A7" s="140"/>
       <c r="B7" s="66"/>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="87" t="s">
         <v>287</v>
       </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="67" t="s">
+      <c r="D7" s="122"/>
+      <c r="E7" s="63" t="s">
         <v>288</v>
       </c>
       <c r="F7" s="60"/>
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="110"/>
+      <c r="A8" s="140"/>
       <c r="B8" s="66"/>
       <c r="C8" s="63"/>
-      <c r="D8" s="116"/>
+      <c r="D8" s="122"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="111"/>
+      <c r="A9" s="141"/>
       <c r="B9" s="66"/>
       <c r="C9" s="64"/>
-      <c r="D9" s="116"/>
+      <c r="D9" s="122"/>
       <c r="E9" s="64"/>
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="140" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="62"/>
       <c r="C10" s="63" t="s">
         <v>289</v>
       </c>
-      <c r="D10" s="101" t="s">
+      <c r="D10" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="120" t="s">
+      <c r="E10" s="85" t="s">
         <v>173</v>
       </c>
       <c r="F10" s="62"/>
       <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="110"/>
+      <c r="A11" s="140"/>
       <c r="B11" s="63" t="s">
         <v>290</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>291</v>
       </c>
-      <c r="D11" s="102"/>
+      <c r="D11" s="126"/>
       <c r="E11" s="63" t="s">
         <v>130</v>
       </c>
@@ -4115,15 +4372,15 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="111"/>
+      <c r="A12" s="141"/>
       <c r="B12" s="64" t="s">
         <v>269</v>
       </c>
       <c r="C12" s="69" t="s">
         <v>292</v>
       </c>
-      <c r="D12" s="102"/>
-      <c r="E12" s="67" t="s">
+      <c r="D12" s="126"/>
+      <c r="E12" s="66" t="s">
         <v>288</v>
       </c>
       <c r="F12" s="64" t="s">
@@ -4132,17 +4389,17 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="132" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="68"/>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="113" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="128" t="s">
+      <c r="D13" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="84" t="s">
         <v>173</v>
       </c>
       <c r="F13" s="59" t="s">
@@ -4151,122 +4408,122 @@
       <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="99"/>
+      <c r="A14" s="132"/>
       <c r="B14" s="68"/>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="63" t="s">
         <v>293</v>
       </c>
-      <c r="D14" s="114"/>
-      <c r="E14" s="128"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="98"/>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="99"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="66"/>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="D15" s="114"/>
-      <c r="E15" s="60" t="s">
+      <c r="D15" s="122"/>
+      <c r="E15" s="63" t="s">
         <v>130</v>
       </c>
       <c r="F15" s="60"/>
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="99"/>
+      <c r="A16" s="132"/>
       <c r="B16" s="66"/>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="63" t="s">
         <v>295</v>
       </c>
-      <c r="D16" s="114"/>
-      <c r="E16" s="60" t="s">
+      <c r="D16" s="122"/>
+      <c r="E16" s="63" t="s">
         <v>296</v>
       </c>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="99"/>
+      <c r="A17" s="132"/>
       <c r="B17" s="67"/>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="D17" s="115"/>
-      <c r="E17" s="60" t="s">
+      <c r="D17" s="123"/>
+      <c r="E17" s="64" t="s">
         <v>298</v>
       </c>
-      <c r="F17" s="63"/>
+      <c r="F17" s="60"/>
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="112" t="s">
+      <c r="A18" s="131" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="63"/>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D18" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="101" t="s">
+      <c r="D18" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="126" t="s">
         <v>156</v>
       </c>
-      <c r="F18" s="113">
+      <c r="F18" s="128">
         <v>1</v>
       </c>
       <c r="G18" s="59"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="99"/>
+      <c r="A19" s="132"/>
       <c r="B19" s="63" t="s">
         <v>299</v>
       </c>
       <c r="C19" s="77" t="s">
         <v>300</v>
       </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="114"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="129"/>
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="99"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="63"/>
       <c r="C20" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="D20" s="103"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="115"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="130"/>
       <c r="G20" s="61"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="112" t="s">
+      <c r="A21" s="131" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="62"/>
       <c r="C21" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D21" s="102" t="s">
+      <c r="D21" s="126" t="s">
         <v>227</v>
       </c>
-      <c r="E21" s="119" t="s">
+      <c r="E21" s="84" t="s">
         <v>173</v>
       </c>
       <c r="F21" s="60"/>
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="99"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="63"/>
-      <c r="C22" s="117" t="s">
+      <c r="C22" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="D22" s="102"/>
+      <c r="D22" s="126"/>
       <c r="E22" s="63" t="s">
         <v>185</v>
       </c>
@@ -4274,12 +4531,12 @@
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="99"/>
+      <c r="A23" s="132"/>
       <c r="B23" s="76"/>
-      <c r="C23" s="117" t="s">
+      <c r="C23" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="D23" s="102"/>
+      <c r="D23" s="126"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60" t="s">
         <v>185</v>
@@ -4287,12 +4544,12 @@
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="99"/>
+      <c r="A24" s="132"/>
       <c r="B24" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="C24" s="117"/>
-      <c r="D24" s="102"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="126"/>
       <c r="E24" s="63"/>
       <c r="F24" s="60" t="s">
         <v>222</v>
@@ -4300,17 +4557,17 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="125" t="s">
+      <c r="A25" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="121"/>
+      <c r="B25" s="86"/>
       <c r="C25" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D25" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="119" t="s">
+      <c r="D25" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="84" t="s">
         <v>173</v>
       </c>
       <c r="F25" s="59" t="s">
@@ -4319,25 +4576,25 @@
       <c r="G25" s="59"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="137"/>
-      <c r="B26" s="138"/>
+      <c r="A26" s="148"/>
+      <c r="B26" s="97"/>
       <c r="C26" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="D26" s="116"/>
-      <c r="E26" s="139" t="s">
+      <c r="D26" s="122"/>
+      <c r="E26" s="98" t="s">
         <v>130</v>
       </c>
       <c r="F26" s="60"/>
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="126"/>
-      <c r="B27" s="122"/>
+      <c r="A27" s="143"/>
+      <c r="B27" s="87"/>
       <c r="C27" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="D27" s="87"/>
+      <c r="D27" s="122"/>
       <c r="E27" s="63" t="s">
         <v>130</v>
       </c>
@@ -4345,12 +4602,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="126"/>
-      <c r="B28" s="123"/>
+      <c r="A28" s="143"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="63" t="s">
         <v>295</v>
       </c>
-      <c r="D28" s="87"/>
+      <c r="D28" s="122"/>
       <c r="E28" s="63" t="s">
         <v>296</v>
       </c>
@@ -4358,12 +4615,12 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="127"/>
-      <c r="B29" s="124"/>
+      <c r="A29" s="144"/>
+      <c r="B29" s="95"/>
       <c r="C29" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="D29" s="116"/>
+      <c r="D29" s="122"/>
       <c r="E29" s="64" t="s">
         <v>298</v>
       </c>
@@ -4371,14 +4628,14 @@
       <c r="G29" s="61"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="99" t="s">
+      <c r="A30" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66" t="s">
+      <c r="B30" s="62"/>
+      <c r="C30" s="57" t="s">
         <v>280</v>
       </c>
-      <c r="D30" s="113" t="s">
+      <c r="D30" s="128" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="60" t="s">
@@ -4388,12 +4645,12 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="99"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66" t="s">
+      <c r="A31" s="132"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="57" t="s">
         <v>291</v>
       </c>
-      <c r="D31" s="114"/>
+      <c r="D31" s="129"/>
       <c r="E31" s="60"/>
       <c r="F31" s="60" t="s">
         <v>130</v>
@@ -4401,14 +4658,14 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="99"/>
-      <c r="B32" s="66" t="s">
+      <c r="A32" s="132"/>
+      <c r="B32" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="C32" s="136" t="s">
+      <c r="C32" s="96" t="s">
         <v>302</v>
       </c>
-      <c r="D32" s="114"/>
+      <c r="D32" s="129"/>
       <c r="E32" s="60" t="s">
         <v>191</v>
       </c>
@@ -4416,9 +4673,9 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="131"/>
-      <c r="B33" s="117"/>
-      <c r="C33" s="66" t="s">
+      <c r="A33" s="89"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="57" t="s">
         <v>292</v>
       </c>
       <c r="D33" s="64"/>
@@ -4429,31 +4686,31 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="99" t="s">
+      <c r="A34" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="65"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D34" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="119" t="s">
+      <c r="D34" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="84" t="s">
         <v>173</v>
       </c>
       <c r="F34" s="59"/>
       <c r="G34" s="59"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="99"/>
+      <c r="A35" s="132"/>
       <c r="B35" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C35" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="D35" s="102"/>
+      <c r="D35" s="126"/>
       <c r="E35" s="63" t="s">
         <v>168</v>
       </c>
@@ -4461,12 +4718,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="99"/>
+      <c r="A36" s="132"/>
       <c r="B36" s="66"/>
       <c r="C36" s="66" t="s">
         <v>303</v>
       </c>
-      <c r="D36" s="102"/>
+      <c r="D36" s="126"/>
       <c r="E36" s="63"/>
       <c r="F36" s="60" t="s">
         <v>170</v>
@@ -4474,12 +4731,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="99"/>
+      <c r="A37" s="132"/>
       <c r="B37" s="66"/>
       <c r="C37" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="D37" s="102"/>
+      <c r="D37" s="126"/>
       <c r="E37" s="63" t="s">
         <v>298</v>
       </c>
@@ -4487,55 +4744,55 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="100"/>
+      <c r="A38" s="133"/>
       <c r="B38" s="67"/>
       <c r="C38" s="66"/>
-      <c r="D38" s="102"/>
+      <c r="D38" s="126"/>
       <c r="E38" s="64"/>
       <c r="F38" s="60"/>
       <c r="G38" s="61"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="99" t="s">
+      <c r="A39" s="132" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="66"/>
       <c r="C39" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D39" s="141" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="128" t="s">
+      <c r="D39" s="145" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="77" t="s">
         <v>173</v>
       </c>
       <c r="F39" s="62"/>
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="99"/>
+      <c r="A40" s="132"/>
       <c r="B40" s="66"/>
       <c r="C40" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="D40" s="142"/>
-      <c r="E40" s="117" t="s">
+      <c r="D40" s="146"/>
+      <c r="E40" s="57" t="s">
         <v>170</v>
       </c>
       <c r="F40" s="63"/>
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="99"/>
+      <c r="A41" s="132"/>
       <c r="B41" s="66" t="s">
         <v>248</v>
       </c>
       <c r="C41" s="63" t="s">
         <v>304</v>
       </c>
-      <c r="D41" s="142"/>
-      <c r="E41" s="117" t="s">
-        <v>171</v>
+      <c r="D41" s="146"/>
+      <c r="E41" s="57" t="s">
+        <v>288</v>
       </c>
       <c r="F41" s="63" t="s">
         <v>241</v>
@@ -4543,29 +4800,40 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="99"/>
+      <c r="A42" s="132"/>
       <c r="B42" s="66" t="s">
         <v>305</v>
       </c>
       <c r="C42" s="76"/>
-      <c r="D42" s="142"/>
-      <c r="E42" s="117" t="s">
-        <v>288</v>
-      </c>
-      <c r="F42" s="76"/>
+      <c r="D42" s="146"/>
+      <c r="F42" s="101" t="s">
+        <v>239</v>
+      </c>
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="100"/>
+      <c r="A43" s="133"/>
       <c r="B43" s="67"/>
-      <c r="C43" s="140"/>
-      <c r="D43" s="143"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="147"/>
       <c r="E43" s="58"/>
       <c r="F43" s="64"/>
       <c r="G43" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="D34:D38"/>
     <mergeCell ref="A39:A43"/>
@@ -4576,18 +4844,653 @@
     <mergeCell ref="D25:D29"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="D30:D32"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29BFE937-B8E4-40EB-B74B-BDF32F686EF8}">
+  <dimension ref="A1:G43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+    <col min="3" max="3" width="74.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30">
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="102" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="132" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="152" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="60"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="132"/>
+      <c r="B3" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="150"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="133"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="140" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="66"/>
+      <c r="C5" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="122" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="98" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="140"/>
+      <c r="B6" s="66" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" s="122"/>
+      <c r="E6" s="63" t="s">
+        <v>307</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="140"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="87" t="s">
+        <v>308</v>
+      </c>
+      <c r="D7" s="122"/>
+      <c r="E7" s="63" t="s">
+        <v>309</v>
+      </c>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="140"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="64" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" s="122"/>
+      <c r="E8" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="141"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" s="125" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="85" t="s">
+        <v>312</v>
+      </c>
+      <c r="F10" s="62"/>
+      <c r="G10" s="59"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="140"/>
+      <c r="B11" s="63" t="s">
+        <v>313</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>314</v>
+      </c>
+      <c r="D11" s="126"/>
+      <c r="E11" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="63"/>
+      <c r="G11" s="60"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="140"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="57" t="s">
+        <v>315</v>
+      </c>
+      <c r="D12" s="126"/>
+      <c r="E12" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="63"/>
+      <c r="G12" s="60"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="141"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="60"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="132" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="68"/>
+      <c r="C14" s="107" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="84" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="132"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="63" t="s">
+        <v>316</v>
+      </c>
+      <c r="D15" s="122"/>
+      <c r="E15" s="98" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="132"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="D16" s="122"/>
+      <c r="E16" s="95" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="132"/>
+      <c r="B17" s="66" t="s">
+        <v>318</v>
+      </c>
+      <c r="C17" s="63"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="G17" s="60"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="132"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="131" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63" t="s">
+        <v>319</v>
+      </c>
+      <c r="D19" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="126" t="s">
+        <v>320</v>
+      </c>
+      <c r="F19" s="128"/>
+      <c r="G19" s="59"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="132"/>
+      <c r="B20" s="63" t="s">
+        <v>321</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>322</v>
+      </c>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="60"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="132"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="58" t="s">
+        <v>323</v>
+      </c>
+      <c r="D21" s="127"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="61"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="131" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="62"/>
+      <c r="C22" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="D22" s="126" t="s">
+        <v>227</v>
+      </c>
+      <c r="E22" s="84" t="s">
+        <v>173</v>
+      </c>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="132"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="57" t="s">
+        <v>324</v>
+      </c>
+      <c r="D23" s="126"/>
+      <c r="E23" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="132"/>
+      <c r="B24" s="63" t="s">
+        <v>325</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>326</v>
+      </c>
+      <c r="D24" s="126"/>
+      <c r="E24" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="132"/>
+      <c r="B25" s="63" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="D25" s="126"/>
+      <c r="E25" s="63" t="s">
+        <v>309</v>
+      </c>
+      <c r="F25" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="G25" s="60"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="142" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="78"/>
+      <c r="C26" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="D26" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="84" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="148"/>
+      <c r="B27" s="83" t="s">
+        <v>328</v>
+      </c>
+      <c r="C27" s="98" t="s">
+        <v>329</v>
+      </c>
+      <c r="D27" s="122"/>
+      <c r="E27" s="98" t="s">
+        <v>330</v>
+      </c>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="143"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="63" t="s">
+        <v>331</v>
+      </c>
+      <c r="D28" s="122"/>
+      <c r="E28" s="63" t="s">
+        <v>309</v>
+      </c>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="143"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="63" t="s">
+        <v>332</v>
+      </c>
+      <c r="D29" s="122"/>
+      <c r="E29" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="153"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="63" t="s">
+        <v>310</v>
+      </c>
+      <c r="D30" s="122"/>
+      <c r="E30" s="63" t="s">
+        <v>311</v>
+      </c>
+      <c r="F30" s="60"/>
+      <c r="G30" s="61"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="155" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="156"/>
+      <c r="C31" s="157" t="s">
+        <v>333</v>
+      </c>
+      <c r="D31" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="156" t="s">
+        <v>180</v>
+      </c>
+      <c r="F31" s="156"/>
+      <c r="G31" s="60"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="119"/>
+      <c r="B32" s="60" t="s">
+        <v>334</v>
+      </c>
+      <c r="C32" s="154" t="s">
+        <v>335</v>
+      </c>
+      <c r="D32" s="129"/>
+      <c r="E32" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="120"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="159" t="s">
+        <v>336</v>
+      </c>
+      <c r="D33" s="130"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="G33" s="60"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="132" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="66"/>
+      <c r="C34" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="D34" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="98" t="s">
+        <v>180</v>
+      </c>
+      <c r="F34" s="60"/>
+      <c r="G34" s="59"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="132"/>
+      <c r="B35" s="66" t="s">
+        <v>337</v>
+      </c>
+      <c r="C35" s="68" t="s">
+        <v>338</v>
+      </c>
+      <c r="D35" s="126"/>
+      <c r="E35" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="132"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66" t="s">
+        <v>339</v>
+      </c>
+      <c r="D36" s="126"/>
+      <c r="E36" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="132"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66" t="s">
+        <v>340</v>
+      </c>
+      <c r="D37" s="126"/>
+      <c r="E37" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="133"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="126"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="61"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="132" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="66"/>
+      <c r="C39" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="D39" s="145" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="F39" s="62"/>
+      <c r="G39" s="60"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="132"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="62" t="s">
+        <v>341</v>
+      </c>
+      <c r="D40" s="146"/>
+      <c r="E40" s="77" t="s">
+        <v>342</v>
+      </c>
+      <c r="F40" s="63"/>
+      <c r="G40" s="60"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="132"/>
+      <c r="B41" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="C41" s="63" t="s">
+        <v>344</v>
+      </c>
+      <c r="D41" s="146"/>
+      <c r="E41" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="F41" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="G41" s="60"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="132"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="146"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="60"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="133"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="F19:F21"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="D5:D9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6339,7 +7242,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="112" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="47" t="s">
@@ -6348,7 +7251,7 @@
       <c r="C2" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="109" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="52" t="s">
@@ -6360,14 +7263,14 @@
       <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="94"/>
+      <c r="A3" s="113"/>
       <c r="B3" t="s">
         <v>128</v>
       </c>
       <c r="C3" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="90"/>
+      <c r="D3" s="110"/>
       <c r="E3" s="46" t="s">
         <v>130</v>
       </c>
@@ -6375,11 +7278,11 @@
       <c r="G3" s="49"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="94"/>
+      <c r="A4" s="113"/>
       <c r="C4" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="90"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="46" t="s">
         <v>132</v>
       </c>
@@ -6387,12 +7290,12 @@
       <c r="G4" s="49"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="95"/>
+      <c r="A5" s="114"/>
       <c r="B5" s="50"/>
       <c r="C5" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="91"/>
+      <c r="D5" s="111"/>
       <c r="E5" s="55" t="s">
         <v>132</v>
       </c>
@@ -6400,7 +7303,7 @@
       <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="115" t="s">
         <v>134</v>
       </c>
       <c r="B6" t="s">
@@ -6409,7 +7312,7 @@
       <c r="C6" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="109" t="s">
         <v>137</v>
       </c>
       <c r="E6" s="46" t="s">
@@ -6419,11 +7322,11 @@
       <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="96"/>
+      <c r="A7" s="115"/>
       <c r="C7" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="90"/>
+      <c r="D7" s="110"/>
       <c r="E7" s="46" t="s">
         <v>118</v>
       </c>
@@ -6431,22 +7334,22 @@
       <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="96"/>
-      <c r="D8" s="90"/>
+      <c r="A8" s="115"/>
+      <c r="D8" s="110"/>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
       <c r="G8" s="49"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="96"/>
-      <c r="D9" s="90"/>
+      <c r="A9" s="115"/>
+      <c r="D9" s="110"/>
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
       <c r="G9" s="49"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="97"/>
-      <c r="D10" s="91"/>
+      <c r="A10" s="116"/>
+      <c r="D10" s="111"/>
       <c r="E10" s="46" t="s">
         <v>140</v>
       </c>
@@ -6454,7 +7357,7 @@
       <c r="G10" s="49"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="117" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -6463,7 +7366,7 @@
       <c r="C11" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="89" t="s">
+      <c r="D11" s="109" t="s">
         <v>142</v>
       </c>
       <c r="E11" s="52" t="s">
@@ -6473,11 +7376,11 @@
       <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="98"/>
+      <c r="A12" s="117"/>
       <c r="C12" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="90"/>
+      <c r="D12" s="110"/>
       <c r="E12" s="46"/>
       <c r="F12" s="46" t="s">
         <v>143</v>
@@ -6485,14 +7388,14 @@
       <c r="G12" s="49"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="98"/>
+      <c r="A13" s="117"/>
       <c r="B13" t="s">
         <v>145</v>
       </c>
       <c r="C13" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="90"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="46" t="s">
         <v>143</v>
       </c>
@@ -6500,24 +7403,24 @@
       <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="98"/>
+      <c r="A14" s="117"/>
       <c r="C14" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="90"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
       <c r="G14" s="49"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="98"/>
-      <c r="D15" s="91"/>
+      <c r="A15" s="117"/>
+      <c r="D15" s="111"/>
       <c r="E15" s="46"/>
       <c r="F15" s="46"/>
       <c r="G15" s="49"/>
     </row>
     <row r="16" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="118" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="47" t="s">
@@ -6526,7 +7429,7 @@
       <c r="C16" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="89" t="s">
+      <c r="D16" s="109" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="52" t="s">
@@ -6536,11 +7439,11 @@
       <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A17" s="84"/>
+      <c r="A17" s="119"/>
       <c r="C17" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="90"/>
+      <c r="D17" s="110"/>
       <c r="E17" s="46">
         <v>1.5</v>
       </c>
@@ -6548,11 +7451,11 @@
       <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A18" s="84"/>
+      <c r="A18" s="119"/>
       <c r="C18" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="90"/>
+      <c r="D18" s="110"/>
       <c r="E18" s="46"/>
       <c r="F18" s="46">
         <v>1.5</v>
@@ -6560,11 +7463,11 @@
       <c r="G18" s="49"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A19" s="84"/>
+      <c r="A19" s="119"/>
       <c r="C19" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="91"/>
+      <c r="D19" s="111"/>
       <c r="E19" s="46"/>
       <c r="F19" s="57">
         <v>0.5</v>
@@ -6572,7 +7475,7 @@
       <c r="G19" s="49"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="118" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="47" t="s">
@@ -6587,7 +7490,7 @@
       <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="84"/>
+      <c r="A21" s="119"/>
       <c r="C21" t="s">
         <v>154</v>
       </c>
@@ -6597,7 +7500,7 @@
       <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="85"/>
+      <c r="A22" s="120"/>
       <c r="B22" s="50"/>
       <c r="C22" s="50" t="s">
         <v>155</v>
@@ -6612,7 +7515,7 @@
       <c r="G22" s="51"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="92" t="s">
+      <c r="A23" s="124" t="s">
         <v>28</v>
       </c>
       <c r="B23" t="s">
@@ -6621,7 +7524,7 @@
       <c r="C23" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="89"/>
+      <c r="D23" s="109"/>
       <c r="E23" s="46" t="s">
         <v>158</v>
       </c>
@@ -6629,11 +7532,11 @@
       <c r="G23" s="49"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="92"/>
+      <c r="A24" s="124"/>
       <c r="C24" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="90"/>
+      <c r="D24" s="110"/>
       <c r="E24" s="46">
         <v>2</v>
       </c>
@@ -6641,11 +7544,11 @@
       <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="92"/>
+      <c r="A25" s="124"/>
       <c r="C25" t="s">
         <v>151</v>
       </c>
-      <c r="D25" s="90"/>
+      <c r="D25" s="110"/>
       <c r="E25" s="46">
         <v>1</v>
       </c>
@@ -6653,11 +7556,11 @@
       <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="92"/>
+      <c r="A26" s="124"/>
       <c r="C26" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="91"/>
+      <c r="D26" s="111"/>
       <c r="E26" s="46">
         <v>1</v>
       </c>
@@ -6665,7 +7568,7 @@
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="83" t="s">
+      <c r="A27" s="118" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="47" t="s">
@@ -6674,7 +7577,7 @@
       <c r="C27" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="89" t="s">
+      <c r="D27" s="109" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="52" t="s">
@@ -6684,14 +7587,14 @@
       <c r="G27" s="48"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="84"/>
+      <c r="A28" s="119"/>
       <c r="B28" s="45" t="s">
         <v>128</v>
       </c>
       <c r="C28" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="90"/>
+      <c r="D28" s="110"/>
       <c r="E28" s="46" t="s">
         <v>130</v>
       </c>
@@ -6699,11 +7602,11 @@
       <c r="G28" s="49"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="84"/>
+      <c r="A29" s="119"/>
       <c r="C29" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="90"/>
+      <c r="D29" s="110"/>
       <c r="E29" s="46" t="s">
         <v>132</v>
       </c>
@@ -6711,12 +7614,12 @@
       <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A30" s="84"/>
+      <c r="A30" s="119"/>
       <c r="B30" s="50"/>
       <c r="C30" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="D30" s="91"/>
+      <c r="D30" s="111"/>
       <c r="E30" s="55" t="s">
         <v>132</v>
       </c>
@@ -6724,10 +7627,10 @@
       <c r="G30" s="51"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="83" t="s">
+      <c r="A31" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="86" t="s">
+      <c r="D31" s="121" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="46"/>
@@ -6735,14 +7638,14 @@
       <c r="G31" s="49"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="84"/>
+      <c r="A32" s="119"/>
       <c r="B32" t="s">
         <v>161</v>
       </c>
       <c r="C32" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="87"/>
+      <c r="D32" s="122"/>
       <c r="E32" s="46" t="s">
         <v>138</v>
       </c>
@@ -6750,14 +7653,14 @@
       <c r="G32" s="49"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="84"/>
+      <c r="A33" s="119"/>
       <c r="B33" t="s">
         <v>135</v>
       </c>
       <c r="C33" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="87"/>
+      <c r="D33" s="122"/>
       <c r="E33" s="46" t="s">
         <v>130</v>
       </c>
@@ -6765,28 +7668,28 @@
       <c r="G33" s="49"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="84"/>
-      <c r="D34" s="87"/>
+      <c r="A34" s="119"/>
+      <c r="D34" s="122"/>
       <c r="E34" s="46"/>
       <c r="F34" s="46"/>
       <c r="G34" s="49"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="84"/>
-      <c r="D35" s="88"/>
+      <c r="A35" s="119"/>
+      <c r="D35" s="123"/>
       <c r="E35" s="46"/>
       <c r="F35" s="46"/>
       <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="83" t="s">
+      <c r="A36" s="118" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="47"/>
       <c r="C36" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="D36" s="89"/>
+      <c r="D36" s="109"/>
       <c r="E36" s="52" t="s">
         <v>165</v>
       </c>
@@ -6794,14 +7697,14 @@
       <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="84"/>
+      <c r="A37" s="119"/>
       <c r="B37" t="s">
         <v>166</v>
       </c>
       <c r="C37" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="D37" s="90"/>
+      <c r="D37" s="110"/>
       <c r="E37" s="46" t="s">
         <v>168</v>
       </c>
@@ -6809,11 +7712,11 @@
       <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="84"/>
+      <c r="A38" s="119"/>
       <c r="C38" t="s">
         <v>169</v>
       </c>
-      <c r="D38" s="90"/>
+      <c r="D38" s="110"/>
       <c r="E38" s="46"/>
       <c r="F38" s="46" t="s">
         <v>170</v>
@@ -6821,46 +7724,46 @@
       <c r="G38" s="49"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="84"/>
-      <c r="D39" s="90"/>
+      <c r="A39" s="119"/>
+      <c r="D39" s="110"/>
       <c r="E39" s="46"/>
       <c r="F39" s="46"/>
       <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="85"/>
+      <c r="A40" s="120"/>
       <c r="B40" s="50"/>
       <c r="C40" s="50"/>
-      <c r="D40" s="91"/>
+      <c r="D40" s="111"/>
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
       <c r="G40" s="51"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="84" t="s">
+      <c r="A41" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="89" t="s">
+      <c r="D41" s="109" t="s">
         <v>24</v>
       </c>
       <c r="E41" s="46"/>
       <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="84"/>
-      <c r="D42" s="90"/>
+      <c r="A42" s="119"/>
+      <c r="D42" s="110"/>
       <c r="E42" s="46"/>
       <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="84"/>
+      <c r="A43" s="119"/>
       <c r="B43" t="s">
         <v>24</v>
       </c>
       <c r="C43" t="s">
         <v>162</v>
       </c>
-      <c r="D43" s="90"/>
+      <c r="D43" s="110"/>
       <c r="E43" s="46" t="s">
         <v>171</v>
       </c>
@@ -6870,16 +7773,16 @@
       <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="84"/>
-      <c r="D44" s="90"/>
+      <c r="A44" s="119"/>
+      <c r="D44" s="110"/>
       <c r="E44" s="46"/>
       <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="85"/>
+      <c r="A45" s="120"/>
       <c r="B45" s="50"/>
       <c r="C45" s="50"/>
-      <c r="D45" s="91"/>
+      <c r="D45" s="111"/>
       <c r="E45" s="55"/>
       <c r="F45" s="50"/>
       <c r="G45" s="51"/>
@@ -6889,12 +7792,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="D2:D5"/>
     <mergeCell ref="A36:A40"/>
     <mergeCell ref="A41:A45"/>
     <mergeCell ref="D31:D35"/>
@@ -6908,6 +7805,12 @@
     <mergeCell ref="D27:D30"/>
     <mergeCell ref="A31:A35"/>
     <mergeCell ref="A27:A30"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="D2:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6917,8 +7820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5078C7BA-40AD-44B2-B44A-F90FDEF2CC2F}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6953,7 +7856,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="134" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65" t="s">
@@ -6962,7 +7865,7 @@
       <c r="C2" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="137" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="56" t="s">
@@ -6974,12 +7877,12 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="105"/>
+      <c r="A3" s="135"/>
       <c r="B3" s="66"/>
       <c r="C3" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="108"/>
+      <c r="D3" s="138"/>
       <c r="E3" s="57" t="s">
         <v>130</v>
       </c>
@@ -6987,12 +7890,12 @@
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="105"/>
+      <c r="A4" s="135"/>
       <c r="B4" s="66"/>
       <c r="C4" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="108"/>
+      <c r="D4" s="138"/>
       <c r="E4" s="57" t="s">
         <v>176</v>
       </c>
@@ -7000,12 +7903,12 @@
       <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="105"/>
+      <c r="A5" s="135"/>
       <c r="B5" s="66"/>
       <c r="C5" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="108"/>
+      <c r="D5" s="138"/>
       <c r="E5" s="57" t="s">
         <v>173</v>
       </c>
@@ -7013,12 +7916,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="105"/>
+      <c r="A6" s="135"/>
       <c r="B6" s="66"/>
       <c r="C6" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="108"/>
+      <c r="D6" s="138"/>
       <c r="E6" s="57" t="s">
         <v>127</v>
       </c>
@@ -7026,12 +7929,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="106"/>
+      <c r="A7" s="136"/>
       <c r="B7" s="67"/>
       <c r="C7" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="109"/>
+      <c r="D7" s="139"/>
       <c r="E7" s="58" t="s">
         <v>179</v>
       </c>
@@ -7039,7 +7942,7 @@
       <c r="G7" s="61"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="140" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="66" t="s">
@@ -7048,7 +7951,7 @@
       <c r="C8" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="102" t="s">
+      <c r="D8" s="126" t="s">
         <v>137</v>
       </c>
       <c r="E8" s="63" t="s">
@@ -7058,12 +7961,12 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="110"/>
+      <c r="A9" s="140"/>
       <c r="B9" s="66"/>
       <c r="C9" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="102"/>
+      <c r="D9" s="126"/>
       <c r="E9" s="63" t="s">
         <v>130</v>
       </c>
@@ -7071,12 +7974,12 @@
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="110"/>
+      <c r="A10" s="140"/>
       <c r="B10" s="66"/>
       <c r="C10" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="D10" s="102"/>
+      <c r="D10" s="126"/>
       <c r="E10" s="63" t="s">
         <v>183</v>
       </c>
@@ -7084,12 +7987,12 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="111"/>
+      <c r="A11" s="141"/>
       <c r="B11" s="66"/>
       <c r="C11" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="102"/>
+      <c r="D11" s="126"/>
       <c r="E11" s="63" t="s">
         <v>185</v>
       </c>
@@ -7097,14 +8000,14 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="140" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="62"/>
       <c r="C12" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="101" t="s">
+      <c r="D12" s="125" t="s">
         <v>142</v>
       </c>
       <c r="E12" s="62" t="s">
@@ -7114,12 +8017,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="110"/>
+      <c r="A13" s="140"/>
       <c r="B13" s="63"/>
       <c r="C13" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="D13" s="102"/>
+      <c r="D13" s="126"/>
       <c r="E13" s="63" t="s">
         <v>187</v>
       </c>
@@ -7127,12 +8030,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="110"/>
+      <c r="A14" s="140"/>
       <c r="B14" s="76"/>
       <c r="C14" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="102"/>
+      <c r="D14" s="126"/>
       <c r="E14" s="63"/>
       <c r="F14" s="60" t="s">
         <v>130</v>
@@ -7140,12 +8043,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="110"/>
+      <c r="A15" s="140"/>
       <c r="B15" s="63" t="s">
         <v>190</v>
       </c>
       <c r="C15" s="57"/>
-      <c r="D15" s="102"/>
+      <c r="D15" s="126"/>
       <c r="E15" s="63" t="s">
         <v>191</v>
       </c>
@@ -7153,23 +8056,23 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="111"/>
+      <c r="A16" s="141"/>
       <c r="B16" s="64"/>
       <c r="C16" s="57"/>
-      <c r="D16" s="103"/>
+      <c r="D16" s="127"/>
       <c r="E16" s="63"/>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="132" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="101" t="s">
+      <c r="D17" s="125" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="62" t="s">
@@ -7179,14 +8082,14 @@
       <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A18" s="99"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="66" t="s">
         <v>193</v>
       </c>
       <c r="C18" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="102"/>
+      <c r="D18" s="126"/>
       <c r="E18" s="63" t="s">
         <v>176</v>
       </c>
@@ -7194,12 +8097,12 @@
       <c r="G18" s="60"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A19" s="99"/>
+      <c r="A19" s="132"/>
       <c r="B19" s="66"/>
       <c r="C19" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="D19" s="102"/>
+      <c r="D19" s="126"/>
       <c r="E19" s="63" t="s">
         <v>176</v>
       </c>
@@ -7207,12 +8110,12 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A20" s="99"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="66"/>
       <c r="C20" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="D20" s="102"/>
+      <c r="D20" s="126"/>
       <c r="E20" s="63"/>
       <c r="F20" s="63" t="s">
         <v>194</v>
@@ -7220,7 +8123,7 @@
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="112" t="s">
+      <c r="A21" s="131" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="65" t="s">
@@ -7229,41 +8132,41 @@
       <c r="C21" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="D21" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="101" t="s">
+      <c r="D21" s="125" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="125" t="s">
         <v>197</v>
       </c>
-      <c r="F21" s="113" t="s">
+      <c r="F21" s="128" t="s">
         <v>198</v>
       </c>
       <c r="G21" s="59"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="99"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="114"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="129"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="99"/>
+      <c r="A23" s="132"/>
       <c r="B23" s="67"/>
       <c r="C23" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="115"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="130"/>
       <c r="G23" s="61"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="112" t="s">
+      <c r="A24" s="131" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="66" t="s">
@@ -7272,7 +8175,7 @@
       <c r="C24" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="102"/>
+      <c r="D24" s="126"/>
       <c r="E24" s="63" t="s">
         <v>173</v>
       </c>
@@ -7280,12 +8183,12 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="99"/>
+      <c r="A25" s="132"/>
       <c r="B25" s="66"/>
       <c r="C25" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="D25" s="102"/>
+      <c r="D25" s="126"/>
       <c r="E25" s="63" t="s">
         <v>191</v>
       </c>
@@ -7293,12 +8196,12 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="99"/>
+      <c r="A26" s="132"/>
       <c r="B26" s="66"/>
       <c r="C26" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="D26" s="102"/>
+      <c r="D26" s="126"/>
       <c r="E26" s="63" t="s">
         <v>130</v>
       </c>
@@ -7306,12 +8209,12 @@
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="99"/>
+      <c r="A27" s="132"/>
       <c r="B27" s="66"/>
       <c r="C27" s="66" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="102"/>
+      <c r="D27" s="126"/>
       <c r="E27" s="63" t="s">
         <v>202</v>
       </c>
@@ -7319,12 +8222,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="100"/>
+      <c r="A28" s="133"/>
       <c r="B28" s="66"/>
       <c r="C28" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="D28" s="103"/>
+      <c r="D28" s="127"/>
       <c r="E28" s="63" t="s">
         <v>130</v>
       </c>
@@ -7332,7 +8235,7 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="99" t="s">
+      <c r="A29" s="132" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="74" t="s">
@@ -7341,7 +8244,7 @@
       <c r="C29" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="101" t="s">
+      <c r="D29" s="125" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="62" t="s">
@@ -7353,12 +8256,12 @@
       <c r="G29" s="59"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="99"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="70"/>
       <c r="C30" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="D30" s="102"/>
+      <c r="D30" s="126"/>
       <c r="E30" s="63" t="s">
         <v>205</v>
       </c>
@@ -7366,12 +8269,12 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="99"/>
+      <c r="A31" s="132"/>
       <c r="B31" s="71"/>
       <c r="C31" s="69" t="s">
         <v>206</v>
       </c>
-      <c r="D31" s="102"/>
+      <c r="D31" s="126"/>
       <c r="E31" s="63" t="s">
         <v>130</v>
       </c>
@@ -7379,12 +8282,12 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="99"/>
+      <c r="A32" s="132"/>
       <c r="B32" s="71"/>
       <c r="C32" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="D32" s="102"/>
+      <c r="D32" s="126"/>
       <c r="E32" s="63" t="s">
         <v>179</v>
       </c>
@@ -7392,12 +8295,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="99"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="72"/>
       <c r="C33" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="D33" s="102"/>
+      <c r="D33" s="126"/>
       <c r="E33" s="63" t="s">
         <v>208</v>
       </c>
@@ -7405,12 +8308,12 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A34" s="99"/>
+      <c r="A34" s="132"/>
       <c r="B34" s="73"/>
       <c r="C34" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="D34" s="103"/>
+      <c r="D34" s="127"/>
       <c r="E34" s="64" t="s">
         <v>132</v>
       </c>
@@ -7418,12 +8321,12 @@
       <c r="G34" s="61"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="112" t="s">
+      <c r="A35" s="131" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="66"/>
       <c r="C35" s="66"/>
-      <c r="D35" s="101" t="s">
+      <c r="D35" s="125" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="63"/>
@@ -7431,12 +8334,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="99"/>
+      <c r="A36" s="132"/>
       <c r="B36" s="66"/>
       <c r="C36" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="D36" s="102"/>
+      <c r="D36" s="126"/>
       <c r="E36" s="63" t="s">
         <v>130</v>
       </c>
@@ -7444,14 +8347,14 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7" ht="21" customHeight="1">
-      <c r="A37" s="99"/>
+      <c r="A37" s="132"/>
       <c r="B37" s="66" t="s">
         <v>211</v>
       </c>
       <c r="C37" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="D37" s="102"/>
+      <c r="D37" s="126"/>
       <c r="E37" s="63" t="s">
         <v>180</v>
       </c>
@@ -7459,12 +8362,12 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="99"/>
+      <c r="A38" s="132"/>
       <c r="B38" s="66"/>
       <c r="C38" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="D38" s="102"/>
+      <c r="D38" s="126"/>
       <c r="E38" s="63"/>
       <c r="F38" s="60" t="s">
         <v>130</v>
@@ -7472,23 +8375,23 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="99"/>
+      <c r="A39" s="132"/>
       <c r="B39" s="66"/>
       <c r="C39" s="66"/>
-      <c r="D39" s="103"/>
+      <c r="D39" s="127"/>
       <c r="E39" s="63"/>
       <c r="F39" s="60"/>
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="112" t="s">
+      <c r="A40" s="131" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="65"/>
       <c r="C40" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="101"/>
+      <c r="D40" s="125"/>
       <c r="E40" s="62" t="s">
         <v>165</v>
       </c>
@@ -7496,14 +8399,14 @@
       <c r="G40" s="59"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="99"/>
+      <c r="A41" s="132"/>
       <c r="B41" s="66" t="s">
         <v>166</v>
       </c>
       <c r="C41" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="D41" s="102"/>
+      <c r="D41" s="126"/>
       <c r="E41" s="63" t="s">
         <v>168</v>
       </c>
@@ -7511,12 +8414,12 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="99"/>
+      <c r="A42" s="132"/>
       <c r="B42" s="66"/>
       <c r="C42" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="D42" s="102"/>
+      <c r="D42" s="126"/>
       <c r="E42" s="63"/>
       <c r="F42" s="60" t="s">
         <v>170</v>
@@ -7524,32 +8427,32 @@
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="99"/>
+      <c r="A43" s="132"/>
       <c r="B43" s="66"/>
       <c r="C43" s="66"/>
-      <c r="D43" s="102"/>
+      <c r="D43" s="126"/>
       <c r="E43" s="63"/>
       <c r="F43" s="60"/>
       <c r="G43" s="60"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="100"/>
+      <c r="A44" s="133"/>
       <c r="B44" s="67"/>
       <c r="C44" s="67"/>
-      <c r="D44" s="103"/>
+      <c r="D44" s="127"/>
       <c r="E44" s="64"/>
       <c r="F44" s="60"/>
       <c r="G44" s="61"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="99" t="s">
+      <c r="A45" s="132" t="s">
         <v>30</v>
       </c>
       <c r="B45" s="66"/>
       <c r="C45" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D45" s="101" t="s">
+      <c r="D45" s="125" t="s">
         <v>24</v>
       </c>
       <c r="E45" s="65" t="s">
@@ -7559,12 +8462,12 @@
       <c r="G45" s="60"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="99"/>
+      <c r="A46" s="132"/>
       <c r="B46" s="66"/>
       <c r="C46" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D46" s="102"/>
+      <c r="D46" s="126"/>
       <c r="E46" s="66" t="s">
         <v>176</v>
       </c>
@@ -7572,14 +8475,14 @@
       <c r="G46" s="60"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="99"/>
+      <c r="A47" s="132"/>
       <c r="B47" s="66" t="s">
         <v>193</v>
       </c>
       <c r="C47" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="D47" s="102"/>
+      <c r="D47" s="126"/>
       <c r="E47" s="66" t="s">
         <v>176</v>
       </c>
@@ -7587,12 +8490,12 @@
       <c r="G47" s="60"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="99"/>
+      <c r="A48" s="132"/>
       <c r="B48" s="66"/>
       <c r="C48" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="D48" s="102"/>
+      <c r="D48" s="126"/>
       <c r="E48" s="66"/>
       <c r="F48" s="63" t="s">
         <v>194</v>
@@ -7600,10 +8503,10 @@
       <c r="G48" s="60"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="100"/>
+      <c r="A49" s="133"/>
       <c r="B49" s="67"/>
       <c r="C49" s="67"/>
-      <c r="D49" s="103"/>
+      <c r="D49" s="127"/>
       <c r="E49" s="67"/>
       <c r="F49" s="64"/>
       <c r="G49" s="61"/>
@@ -7616,12 +8519,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="D40:D44"/>
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="D45:D49"/>
     <mergeCell ref="A29:A34"/>
@@ -7638,6 +8535,12 @@
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="D24:D28"/>
     <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="D40:D44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7647,8 +8550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98AF41B8-7A85-46D9-B88B-9A72A502D06D}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7663,35 +8566,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="130" t="s">
+      <c r="C1" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="130" t="s">
+      <c r="D1" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="130" t="s">
+      <c r="E1" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="130" t="s">
+      <c r="F1" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="130" t="s">
+      <c r="G1" s="91" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="131" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="137" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -7703,34 +8606,34 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="99"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="108"/>
+      <c r="D3" s="138"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="100"/>
+      <c r="A4" s="133"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="109"/>
+      <c r="D4" s="139"/>
       <c r="E4" s="58"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="140" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62"/>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="122" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="63"/>
@@ -7738,12 +8641,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="110"/>
+      <c r="A6" s="140"/>
       <c r="B6" s="66"/>
       <c r="C6" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="87"/>
+      <c r="D6" s="122"/>
       <c r="E6" s="63" t="s">
         <v>218</v>
       </c>
@@ -7751,30 +8654,30 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="110"/>
+      <c r="A7" s="140"/>
       <c r="B7" s="66"/>
       <c r="C7" s="63"/>
-      <c r="D7" s="87"/>
+      <c r="D7" s="122"/>
       <c r="E7" s="63"/>
       <c r="F7" s="60"/>
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="111"/>
+      <c r="A8" s="141"/>
       <c r="B8" s="66"/>
       <c r="C8" s="64"/>
-      <c r="D8" s="87"/>
+      <c r="D8" s="122"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="140" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="62"/>
       <c r="C9" s="57"/>
-      <c r="D9" s="101" t="s">
+      <c r="D9" s="125" t="s">
         <v>142</v>
       </c>
       <c r="E9" s="65"/>
@@ -7782,12 +8685,12 @@
       <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="110"/>
+      <c r="A10" s="140"/>
       <c r="B10" s="63"/>
       <c r="C10" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="D10" s="102"/>
+      <c r="D10" s="126"/>
       <c r="E10" s="66" t="s">
         <v>106</v>
       </c>
@@ -7797,12 +8700,12 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="110"/>
+      <c r="A11" s="140"/>
       <c r="B11" s="63" t="s">
         <v>220</v>
       </c>
       <c r="C11" s="57"/>
-      <c r="D11" s="103"/>
+      <c r="D11" s="127"/>
       <c r="E11" s="67"/>
       <c r="F11" s="63" t="s">
         <v>130</v>
@@ -7810,12 +8713,12 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="112" t="s">
+      <c r="A12" s="131" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="65"/>
       <c r="C12" s="62"/>
-      <c r="D12" s="86" t="s">
+      <c r="D12" s="121" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="66"/>
@@ -7823,12 +8726,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="99"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="66" t="s">
         <v>221</v>
       </c>
       <c r="C13" s="76"/>
-      <c r="D13" s="87"/>
+      <c r="D13" s="122"/>
       <c r="E13" s="66" t="s">
         <v>222</v>
       </c>
@@ -7836,12 +8739,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="99"/>
+      <c r="A14" s="132"/>
       <c r="B14" s="66"/>
       <c r="C14" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="D14" s="87"/>
+      <c r="D14" s="122"/>
       <c r="E14" s="66"/>
       <c r="F14" s="63" t="s">
         <v>222</v>
@@ -7849,62 +8752,62 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="100"/>
+      <c r="A15" s="133"/>
       <c r="B15" s="67"/>
       <c r="C15" s="64"/>
-      <c r="D15" s="87"/>
+      <c r="D15" s="122"/>
       <c r="E15" s="66"/>
       <c r="F15" s="64"/>
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="132" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="63"/>
       <c r="C16" s="57"/>
-      <c r="D16" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="101" t="s">
+      <c r="D16" s="125" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="125" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="114">
+      <c r="F16" s="129">
         <v>1</v>
       </c>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="99"/>
+      <c r="A17" s="132"/>
       <c r="B17" s="63" t="s">
         <v>224</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>225</v>
       </c>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="114"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="129"/>
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="99"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="64"/>
       <c r="C18" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="115"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="130"/>
       <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="112" t="s">
+      <c r="A19" s="131" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="66"/>
-      <c r="D19" s="102" t="s">
+      <c r="D19" s="126" t="s">
         <v>227</v>
       </c>
       <c r="E19" s="63"/>
@@ -7912,23 +8815,23 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="99"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="66"/>
       <c r="C20" s="66"/>
-      <c r="D20" s="102"/>
+      <c r="D20" s="126"/>
       <c r="E20" s="63"/>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="99"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="66" t="s">
         <v>228</v>
       </c>
       <c r="C21" s="66" t="s">
         <v>229</v>
       </c>
-      <c r="D21" s="102"/>
+      <c r="D21" s="126"/>
       <c r="E21" s="63" t="s">
         <v>185</v>
       </c>
@@ -7938,34 +8841,34 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="99"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="66" t="s">
         <v>231</v>
       </c>
       <c r="C22" s="66"/>
-      <c r="D22" s="102"/>
+      <c r="D22" s="126"/>
       <c r="E22" s="63"/>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="100"/>
+      <c r="A23" s="133"/>
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
-      <c r="D23" s="103"/>
+      <c r="D23" s="127"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="99" t="s">
+      <c r="A24" s="132" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="78"/>
       <c r="C24" s="62" t="s">
         <v>232</v>
       </c>
-      <c r="D24" s="86" t="s">
+      <c r="D24" s="121" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="65" t="s">
@@ -7975,30 +8878,30 @@
       <c r="G24" s="62"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="99"/>
-      <c r="B25" s="118"/>
+      <c r="A25" s="132"/>
+      <c r="B25" s="83"/>
       <c r="C25" s="63"/>
-      <c r="D25" s="116"/>
+      <c r="D25" s="122"/>
       <c r="E25" s="66"/>
       <c r="F25" s="66"/>
       <c r="G25" s="63"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="99"/>
-      <c r="B26" s="134"/>
+      <c r="A26" s="132"/>
+      <c r="B26" s="94"/>
       <c r="C26" s="64"/>
-      <c r="D26" s="116"/>
+      <c r="D26" s="122"/>
       <c r="E26" s="66"/>
       <c r="F26" s="67"/>
       <c r="G26" s="64"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="112" t="s">
+      <c r="A27" s="131" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="66"/>
       <c r="C27" s="66"/>
-      <c r="D27" s="101" t="s">
+      <c r="D27" s="125" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="62"/>
@@ -8006,14 +8909,14 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="99"/>
+      <c r="A28" s="132"/>
       <c r="B28" s="66" t="s">
         <v>220</v>
       </c>
       <c r="C28" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="D28" s="102"/>
+      <c r="D28" s="126"/>
       <c r="E28" s="63" t="s">
         <v>222</v>
       </c>
@@ -8023,12 +8926,12 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="99"/>
+      <c r="A29" s="132"/>
       <c r="B29" s="66" t="s">
         <v>221</v>
       </c>
       <c r="C29" s="66"/>
-      <c r="D29" s="102"/>
+      <c r="D29" s="126"/>
       <c r="E29" s="64"/>
       <c r="F29" s="60" t="s">
         <v>130</v>
@@ -8036,25 +8939,25 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="112" t="s">
+      <c r="A30" s="131" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="65"/>
       <c r="C30" s="65"/>
-      <c r="D30" s="113"/>
+      <c r="D30" s="128"/>
       <c r="E30" s="60"/>
       <c r="F30" s="59"/>
       <c r="G30" s="59"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="99"/>
+      <c r="A31" s="132"/>
       <c r="B31" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C31" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="D31" s="114"/>
+      <c r="D31" s="129"/>
       <c r="E31" s="60" t="s">
         <v>168</v>
       </c>
@@ -8062,12 +8965,12 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="99"/>
+      <c r="A32" s="132"/>
       <c r="B32" s="66"/>
       <c r="C32" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="D32" s="114"/>
+      <c r="D32" s="129"/>
       <c r="E32" s="60"/>
       <c r="F32" s="60" t="s">
         <v>170</v>
@@ -8075,44 +8978,44 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="99"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66"/>
-      <c r="D33" s="114"/>
+      <c r="D33" s="129"/>
       <c r="E33" s="60"/>
       <c r="F33" s="60"/>
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="100"/>
+      <c r="A34" s="133"/>
       <c r="B34" s="66"/>
       <c r="C34" s="67"/>
-      <c r="D34" s="115"/>
+      <c r="D34" s="130"/>
       <c r="E34" s="60"/>
       <c r="F34" s="60"/>
       <c r="G34" s="61"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="99" t="s">
+      <c r="A35" s="132" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="62"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="114" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="132"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="129" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="92"/>
       <c r="F35" s="62"/>
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="99"/>
+      <c r="A36" s="132"/>
       <c r="B36" s="63"/>
       <c r="C36" s="66" t="s">
         <v>237</v>
       </c>
-      <c r="D36" s="114"/>
-      <c r="E36" s="117" t="s">
+      <c r="D36" s="129"/>
+      <c r="E36" s="57" t="s">
         <v>238</v>
       </c>
       <c r="F36" s="63" t="s">
@@ -8121,35 +9024,47 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="99"/>
+      <c r="A37" s="132"/>
       <c r="B37" s="63" t="s">
         <v>221</v>
       </c>
       <c r="C37" s="46"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="117"/>
+      <c r="D37" s="129"/>
+      <c r="E37" s="57"/>
       <c r="F37" s="76"/>
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="99"/>
+      <c r="A38" s="132"/>
       <c r="B38" s="63"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="117"/>
+      <c r="D38" s="129"/>
+      <c r="E38" s="57"/>
       <c r="F38" s="76"/>
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="100"/>
+      <c r="A39" s="133"/>
       <c r="B39" s="64"/>
       <c r="C39" s="58"/>
-      <c r="D39" s="115"/>
+      <c r="D39" s="130"/>
       <c r="E39" s="58"/>
       <c r="F39" s="64"/>
       <c r="G39" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="D30:D34"/>
     <mergeCell ref="A35:A39"/>
@@ -8160,18 +9075,6 @@
     <mergeCell ref="D24:D26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="D27:D29"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="D9:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6FB5D88-66E4-4B9E-A5B8-A913AF320431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1894" documentId="8_{CF9D9844-FE05-4AE4-8DCD-83B6A181F316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94354B0F-5B0F-40CE-A1DF-2F69451B7D0F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1894" documentId="8_{CF9D9844-FE05-4AE4-8DCD-83B6A181F316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94354B0F-5B0F-40CE-A1DF-2F69451B7D0F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EC6E674-42F9-423E-ADB2-1B08C6E7794B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="346">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1170,6 +1170,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Rework on Data model </t>
+  </si>
+  <si>
+    <t>Reviewed services</t>
   </si>
 </sst>
 </file>
@@ -2068,7 +2071,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2080,6 +2098,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2098,25 +2119,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2128,6 +2134,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2137,39 +2170,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2179,6 +2179,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2191,22 +2200,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3029,12 +3032,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="129" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="137" t="s">
+      <c r="D2" s="132" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -3046,36 +3049,36 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="135"/>
+      <c r="A3" s="130"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="138"/>
+      <c r="D3" s="133"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="136"/>
+      <c r="A4" s="131"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="139"/>
+      <c r="D4" s="134"/>
       <c r="E4" s="58"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="135" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="112" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="63" t="s">
@@ -3085,12 +3088,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="140"/>
+      <c r="A6" s="135"/>
       <c r="B6" s="66"/>
       <c r="C6" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="D6" s="122"/>
+      <c r="D6" s="112"/>
       <c r="E6" s="63" t="s">
         <v>243</v>
       </c>
@@ -3098,12 +3101,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="140"/>
+      <c r="A7" s="135"/>
       <c r="B7" s="66"/>
       <c r="C7" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="122"/>
+      <c r="D7" s="112"/>
       <c r="E7" s="63" t="s">
         <v>180</v>
       </c>
@@ -3111,21 +3114,21 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="141"/>
+      <c r="A8" s="136"/>
       <c r="B8" s="66"/>
       <c r="C8" s="64"/>
-      <c r="D8" s="122"/>
+      <c r="D8" s="112"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="140" t="s">
+      <c r="A9" s="135" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="62"/>
       <c r="C9" s="57"/>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="126" t="s">
         <v>142</v>
       </c>
       <c r="E9" s="65"/>
@@ -3133,14 +3136,14 @@
       <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="140"/>
+      <c r="A10" s="135"/>
       <c r="B10" s="63" t="s">
         <v>216</v>
       </c>
       <c r="C10" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="D10" s="126"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="66" t="s">
         <v>106</v>
       </c>
@@ -3150,23 +3153,23 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="141"/>
+      <c r="A11" s="136"/>
       <c r="B11" s="63"/>
       <c r="C11" s="57"/>
-      <c r="D11" s="127"/>
+      <c r="D11" s="128"/>
       <c r="E11" s="67"/>
       <c r="F11" s="64"/>
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="132" t="s">
+      <c r="A12" s="124" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="65"/>
       <c r="C12" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="D12" s="121" t="s">
+      <c r="D12" s="111" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="63">
@@ -3176,12 +3179,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="132"/>
+      <c r="A13" s="124"/>
       <c r="B13" s="66"/>
       <c r="C13" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="122"/>
+      <c r="D13" s="112"/>
       <c r="E13" s="63" t="s">
         <v>230</v>
       </c>
@@ -3189,12 +3192,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="132"/>
+      <c r="A14" s="124"/>
       <c r="B14" s="66"/>
       <c r="C14" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="122"/>
+      <c r="D14" s="112"/>
       <c r="E14" s="63" t="s">
         <v>185</v>
       </c>
@@ -3202,12 +3205,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="132"/>
+      <c r="A15" s="124"/>
       <c r="B15" s="67" t="s">
         <v>248</v>
       </c>
       <c r="C15" s="64"/>
-      <c r="D15" s="122"/>
+      <c r="D15" s="112"/>
       <c r="E15" s="63"/>
       <c r="F15" s="63" t="s">
         <v>194</v>
@@ -3215,50 +3218,50 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="131" t="s">
+      <c r="A16" s="137" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="63"/>
       <c r="C16" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="D16" s="125" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="125" t="s">
+      <c r="D16" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="126" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="128">
+      <c r="F16" s="138">
         <v>1</v>
       </c>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="132"/>
+      <c r="A17" s="124"/>
       <c r="B17" s="63" t="s">
         <v>224</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>250</v>
       </c>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="129"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="139"/>
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="132"/>
+      <c r="A18" s="124"/>
       <c r="B18" s="64"/>
       <c r="C18" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="130"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="140"/>
       <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="131" t="s">
+      <c r="A19" s="137" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="66" t="s">
@@ -3267,7 +3270,7 @@
       <c r="C19" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="D19" s="126" t="s">
+      <c r="D19" s="127" t="s">
         <v>227</v>
       </c>
       <c r="E19" s="63" t="s">
@@ -3277,14 +3280,14 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="132"/>
+      <c r="A20" s="124"/>
       <c r="B20" s="66" t="s">
         <v>248</v>
       </c>
       <c r="C20" s="66" t="s">
         <v>253</v>
       </c>
-      <c r="D20" s="126"/>
+      <c r="D20" s="127"/>
       <c r="E20" s="63" t="s">
         <v>185</v>
       </c>
@@ -3294,14 +3297,14 @@
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="132"/>
+      <c r="A21" s="124"/>
       <c r="B21" s="66" t="s">
         <v>255</v>
       </c>
       <c r="C21" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="D21" s="126"/>
+      <c r="D21" s="127"/>
       <c r="E21" s="63" t="s">
         <v>252</v>
       </c>
@@ -3309,25 +3312,25 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="132"/>
+      <c r="A22" s="124"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66"/>
-      <c r="D22" s="126"/>
+      <c r="D22" s="127"/>
       <c r="E22" s="63"/>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="133"/>
+      <c r="A23" s="125"/>
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
-      <c r="D23" s="127"/>
+      <c r="D23" s="128"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="132" t="s">
+      <c r="A24" s="124" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="78" t="s">
@@ -3336,7 +3339,7 @@
       <c r="C24" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="D24" s="121" t="s">
+      <c r="D24" s="111" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="62" t="s">
@@ -3348,12 +3351,12 @@
       <c r="G24" s="59"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="132"/>
+      <c r="A25" s="124"/>
       <c r="B25" s="79"/>
       <c r="C25" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D25" s="122"/>
+      <c r="D25" s="112"/>
       <c r="E25" s="63" t="s">
         <v>257</v>
       </c>
@@ -3361,12 +3364,12 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="132"/>
+      <c r="A26" s="124"/>
       <c r="B26" s="80"/>
       <c r="C26" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D26" s="122"/>
+      <c r="D26" s="112"/>
       <c r="E26" s="63" t="s">
         <v>185</v>
       </c>
@@ -3374,21 +3377,21 @@
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="132"/>
+      <c r="A27" s="124"/>
       <c r="B27" s="81"/>
       <c r="C27" s="64"/>
-      <c r="D27" s="123"/>
+      <c r="D27" s="113"/>
       <c r="E27" s="63"/>
       <c r="F27" s="61"/>
       <c r="G27" s="61"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="131" t="s">
+      <c r="A28" s="137" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="66"/>
       <c r="C28" s="66"/>
-      <c r="D28" s="125" t="s">
+      <c r="D28" s="126" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="62"/>
@@ -3396,14 +3399,14 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="132"/>
+      <c r="A29" s="124"/>
       <c r="B29" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C29" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D29" s="126"/>
+      <c r="D29" s="127"/>
       <c r="E29" s="63" t="s">
         <v>106</v>
       </c>
@@ -3411,23 +3414,23 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="132"/>
+      <c r="A30" s="124"/>
       <c r="B30" s="66"/>
       <c r="C30" s="66"/>
-      <c r="D30" s="126"/>
+      <c r="D30" s="127"/>
       <c r="E30" s="64"/>
       <c r="F30" s="60"/>
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="131" t="s">
+      <c r="A31" s="137" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="65"/>
       <c r="C31" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="128"/>
+      <c r="D31" s="138"/>
       <c r="E31" s="60" t="s">
         <v>171</v>
       </c>
@@ -3435,14 +3438,14 @@
       <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="132"/>
+      <c r="A32" s="124"/>
       <c r="B32" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="D32" s="129"/>
+      <c r="D32" s="139"/>
       <c r="E32" s="60" t="s">
         <v>168</v>
       </c>
@@ -3450,12 +3453,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="132"/>
+      <c r="A33" s="124"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66" t="s">
         <v>259</v>
       </c>
-      <c r="D33" s="129"/>
+      <c r="D33" s="139"/>
       <c r="E33" s="60"/>
       <c r="F33" s="60" t="s">
         <v>170</v>
@@ -3463,32 +3466,32 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="132"/>
+      <c r="A34" s="124"/>
       <c r="B34" s="66"/>
       <c r="C34" s="66"/>
-      <c r="D34" s="129"/>
+      <c r="D34" s="139"/>
       <c r="E34" s="60"/>
       <c r="F34" s="60"/>
       <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="133"/>
+      <c r="A35" s="125"/>
       <c r="B35" s="66"/>
       <c r="C35" s="67"/>
-      <c r="D35" s="130"/>
+      <c r="D35" s="140"/>
       <c r="E35" s="60"/>
       <c r="F35" s="60"/>
       <c r="G35" s="61"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="132" t="s">
+      <c r="A36" s="124" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="62"/>
       <c r="C36" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="D36" s="126" t="s">
+      <c r="D36" s="127" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="82" t="s">
@@ -3498,12 +3501,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="132"/>
+      <c r="A37" s="124"/>
       <c r="B37" s="63"/>
       <c r="C37" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="D37" s="126"/>
+      <c r="D37" s="127"/>
       <c r="E37" s="66" t="s">
         <v>170</v>
       </c>
@@ -3511,14 +3514,14 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="132"/>
+      <c r="A38" s="124"/>
       <c r="B38" s="63" t="s">
         <v>248</v>
       </c>
       <c r="C38" s="60" t="s">
         <v>260</v>
       </c>
-      <c r="D38" s="126"/>
+      <c r="D38" s="127"/>
       <c r="E38" s="66" t="s">
         <v>171</v>
       </c>
@@ -3528,11 +3531,11 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="132"/>
+      <c r="A39" s="124"/>
       <c r="B39" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="D39" s="126"/>
+      <c r="D39" s="127"/>
       <c r="E39" s="66"/>
       <c r="F39" s="93" t="s">
         <v>171</v>
@@ -3540,16 +3543,26 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="133"/>
+      <c r="A40" s="125"/>
       <c r="B40" s="64"/>
       <c r="C40" s="58"/>
-      <c r="D40" s="127"/>
+      <c r="D40" s="128"/>
       <c r="E40" s="67"/>
       <c r="F40" s="64"/>
       <c r="G40" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="D28:D30"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -3562,16 +3575,6 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="E16:E18"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="D28:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3620,12 +3623,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="129" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="137" t="s">
+      <c r="D2" s="132" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -3637,36 +3640,36 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="135"/>
+      <c r="A3" s="130"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="138"/>
+      <c r="D3" s="133"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="136"/>
+      <c r="A4" s="131"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
-      <c r="D4" s="139"/>
+      <c r="D4" s="134"/>
       <c r="E4" s="57"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="135" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="126" t="s">
+      <c r="D5" s="127" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="84" t="s">
@@ -3676,14 +3679,14 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="140"/>
+      <c r="A6" s="135"/>
       <c r="B6" s="66" t="s">
         <v>255</v>
       </c>
       <c r="C6" s="66" t="s">
         <v>262</v>
       </c>
-      <c r="D6" s="126"/>
+      <c r="D6" s="127"/>
       <c r="E6" s="63" t="s">
         <v>263</v>
       </c>
@@ -3691,12 +3694,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="140"/>
+      <c r="A7" s="135"/>
       <c r="B7" s="66"/>
       <c r="C7" s="66" t="s">
         <v>264</v>
       </c>
-      <c r="D7" s="126"/>
+      <c r="D7" s="127"/>
       <c r="E7" s="63" t="s">
         <v>263</v>
       </c>
@@ -3704,12 +3707,12 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="140"/>
+      <c r="A8" s="135"/>
       <c r="B8" s="66" t="s">
         <v>265</v>
       </c>
       <c r="C8" s="66"/>
-      <c r="D8" s="126"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="63" t="s">
         <v>241</v>
       </c>
@@ -3717,12 +3720,12 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="141"/>
+      <c r="A9" s="136"/>
       <c r="B9" s="66" t="s">
         <v>266</v>
       </c>
       <c r="C9" s="66"/>
-      <c r="D9" s="126"/>
+      <c r="D9" s="127"/>
       <c r="E9" s="64" t="s">
         <v>241</v>
       </c>
@@ -3730,14 +3733,14 @@
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="140" t="s">
+      <c r="A10" s="135" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="62"/>
       <c r="C10" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D10" s="125" t="s">
+      <c r="D10" s="126" t="s">
         <v>142</v>
       </c>
       <c r="E10" s="85" t="s">
@@ -3747,14 +3750,14 @@
       <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="140"/>
+      <c r="A11" s="135"/>
       <c r="B11" s="63" t="s">
         <v>267</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="D11" s="126"/>
+      <c r="D11" s="127"/>
       <c r="E11" s="63" t="s">
         <v>263</v>
       </c>
@@ -3764,14 +3767,14 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="141"/>
+      <c r="A12" s="136"/>
       <c r="B12" s="63" t="s">
         <v>269</v>
       </c>
       <c r="C12" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="D12" s="127"/>
+      <c r="D12" s="128"/>
       <c r="E12" s="66"/>
       <c r="F12" s="64" t="s">
         <v>180</v>
@@ -3779,7 +3782,7 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="132" t="s">
+      <c r="A13" s="124" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="100" t="s">
@@ -3788,7 +3791,7 @@
       <c r="C13" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="121" t="s">
+      <c r="D13" s="111" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="84" t="s">
@@ -3800,12 +3803,12 @@
       <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="132"/>
+      <c r="A14" s="124"/>
       <c r="B14" s="63"/>
       <c r="C14" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="D14" s="122"/>
+      <c r="D14" s="112"/>
       <c r="E14" s="63" t="s">
         <v>273</v>
       </c>
@@ -3813,12 +3816,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="132"/>
+      <c r="A15" s="124"/>
       <c r="B15" s="64"/>
       <c r="C15" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="D15" s="122"/>
+      <c r="D15" s="112"/>
       <c r="E15" s="64" t="s">
         <v>173</v>
       </c>
@@ -3826,57 +3829,57 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="131" t="s">
+      <c r="A16" s="137" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="63"/>
       <c r="C16" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="D16" s="125" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="126" t="s">
+      <c r="D16" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="127" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="128">
+      <c r="F16" s="138">
         <v>1</v>
       </c>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="132"/>
+      <c r="A17" s="124"/>
       <c r="B17" s="63" t="s">
         <v>276</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>277</v>
       </c>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="129"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="139"/>
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="132"/>
+      <c r="A18" s="124"/>
       <c r="B18" s="63"/>
       <c r="C18" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="D18" s="127"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="130"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="140"/>
       <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="131" t="s">
+      <c r="A19" s="137" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="62"/>
       <c r="C19" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D19" s="126" t="s">
+      <c r="D19" s="127" t="s">
         <v>227</v>
       </c>
       <c r="E19" s="84" t="s">
@@ -3886,12 +3889,12 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="132"/>
+      <c r="A20" s="124"/>
       <c r="B20" s="63"/>
       <c r="C20" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="126"/>
+      <c r="D20" s="127"/>
       <c r="E20" s="63" t="s">
         <v>185</v>
       </c>
@@ -3899,12 +3902,12 @@
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="132"/>
+      <c r="A21" s="124"/>
       <c r="B21" s="76"/>
       <c r="C21" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="D21" s="126"/>
+      <c r="D21" s="127"/>
       <c r="E21" s="63"/>
       <c r="F21" s="60" t="s">
         <v>185</v>
@@ -3912,12 +3915,12 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="132"/>
+      <c r="A22" s="124"/>
       <c r="B22" s="63" t="s">
         <v>255</v>
       </c>
       <c r="C22" s="57"/>
-      <c r="D22" s="126"/>
+      <c r="D22" s="127"/>
       <c r="E22" s="63"/>
       <c r="F22" s="60" t="s">
         <v>222</v>
@@ -3925,14 +3928,14 @@
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="142" t="s">
+      <c r="A23" s="141" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="86"/>
       <c r="C23" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D23" s="121" t="s">
+      <c r="D23" s="111" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="84" t="s">
@@ -3944,14 +3947,14 @@
       <c r="G23" s="59"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="143"/>
+      <c r="A24" s="142"/>
       <c r="B24" s="87" t="s">
         <v>271</v>
       </c>
       <c r="C24" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="D24" s="122"/>
+      <c r="D24" s="112"/>
       <c r="E24" s="63" t="s">
         <v>273</v>
       </c>
@@ -3959,12 +3962,12 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="143"/>
+      <c r="A25" s="142"/>
       <c r="B25" s="88"/>
       <c r="C25" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="D25" s="122"/>
+      <c r="D25" s="112"/>
       <c r="E25" s="63" t="s">
         <v>173</v>
       </c>
@@ -3972,21 +3975,21 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="144"/>
+      <c r="A26" s="143"/>
       <c r="B26" s="95"/>
       <c r="C26" s="61"/>
-      <c r="D26" s="122"/>
+      <c r="D26" s="112"/>
       <c r="E26" s="64"/>
       <c r="F26" s="61"/>
       <c r="G26" s="61"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="132" t="s">
+      <c r="A27" s="124" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="62"/>
       <c r="C27" s="57"/>
-      <c r="D27" s="128" t="s">
+      <c r="D27" s="138" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="60"/>
@@ -3994,12 +3997,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="132"/>
+      <c r="A28" s="124"/>
       <c r="B28" s="63"/>
       <c r="C28" s="57" t="s">
         <v>280</v>
       </c>
-      <c r="D28" s="129"/>
+      <c r="D28" s="139"/>
       <c r="E28" s="60" t="s">
         <v>180</v>
       </c>
@@ -4007,14 +4010,14 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="132"/>
+      <c r="A29" s="124"/>
       <c r="B29" s="63" t="s">
         <v>269</v>
       </c>
       <c r="C29" s="57" t="s">
         <v>281</v>
       </c>
-      <c r="D29" s="129"/>
+      <c r="D29" s="139"/>
       <c r="E29" s="60" t="s">
         <v>180</v>
       </c>
@@ -4037,14 +4040,14 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="132" t="s">
+      <c r="A31" s="124" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="66"/>
       <c r="C31" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D31" s="126"/>
+      <c r="D31" s="127"/>
       <c r="E31" s="84" t="s">
         <v>173</v>
       </c>
@@ -4052,14 +4055,14 @@
       <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="132"/>
+      <c r="A32" s="124"/>
       <c r="B32" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="D32" s="126"/>
+      <c r="D32" s="127"/>
       <c r="E32" s="63" t="s">
         <v>168</v>
       </c>
@@ -4067,12 +4070,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="132"/>
+      <c r="A33" s="124"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="D33" s="126"/>
+      <c r="D33" s="127"/>
       <c r="E33" s="63"/>
       <c r="F33" s="60" t="s">
         <v>170</v>
@@ -4080,32 +4083,32 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="132"/>
+      <c r="A34" s="124"/>
       <c r="B34" s="66"/>
       <c r="C34" s="66"/>
-      <c r="D34" s="126"/>
+      <c r="D34" s="127"/>
       <c r="E34" s="63"/>
       <c r="F34" s="60"/>
       <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="133"/>
+      <c r="A35" s="125"/>
       <c r="B35" s="66"/>
       <c r="C35" s="66"/>
-      <c r="D35" s="127"/>
+      <c r="D35" s="128"/>
       <c r="E35" s="64"/>
       <c r="F35" s="60"/>
       <c r="G35" s="61"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="132" t="s">
+      <c r="A36" s="124" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="62"/>
       <c r="C36" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D36" s="121" t="s">
+      <c r="D36" s="111" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="85" t="s">
@@ -4115,12 +4118,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="132"/>
+      <c r="A37" s="124"/>
       <c r="B37" s="63"/>
       <c r="C37" s="60" t="s">
         <v>284</v>
       </c>
-      <c r="D37" s="122"/>
+      <c r="D37" s="112"/>
       <c r="E37" s="66" t="s">
         <v>170</v>
       </c>
@@ -4128,14 +4131,14 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="132"/>
+      <c r="A38" s="124"/>
       <c r="B38" s="63" t="s">
         <v>248</v>
       </c>
       <c r="C38" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="D38" s="122"/>
+      <c r="D38" s="112"/>
       <c r="E38" s="66" t="s">
         <v>170</v>
       </c>
@@ -4145,12 +4148,12 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="132"/>
+      <c r="A39" s="124"/>
       <c r="B39" s="98" t="s">
         <v>228</v>
       </c>
       <c r="C39" s="49"/>
-      <c r="D39" s="122"/>
+      <c r="D39" s="112"/>
       <c r="E39" s="66"/>
       <c r="F39" s="93" t="s">
         <v>170</v>
@@ -4158,16 +4161,26 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="133"/>
+      <c r="A40" s="125"/>
       <c r="B40" s="64"/>
       <c r="C40" s="61"/>
-      <c r="D40" s="123"/>
+      <c r="D40" s="113"/>
       <c r="E40" s="67"/>
       <c r="F40" s="64"/>
       <c r="G40" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="D27:D29"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -4180,16 +4193,6 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="E16:E18"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="D27:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4199,7 +4202,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53787AF6-DADA-4A12-9844-18CC696737AE}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C15" workbookViewId="0">
+      <selection sqref="A1:G43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4236,12 +4241,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="137" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="149" t="s">
+      <c r="D2" s="144" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -4253,36 +4258,36 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="132"/>
+      <c r="A3" s="124"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="150"/>
+      <c r="D3" s="145"/>
       <c r="E3" s="63"/>
       <c r="F3" s="60"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="133"/>
+      <c r="A4" s="125"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="151"/>
+      <c r="D4" s="146"/>
       <c r="E4" s="64"/>
       <c r="F4" s="61"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="135" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="112" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="98" t="s">
@@ -4292,14 +4297,14 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="140"/>
+      <c r="A6" s="135"/>
       <c r="B6" s="66" t="s">
         <v>228</v>
       </c>
       <c r="C6" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="D6" s="122"/>
+      <c r="D6" s="112"/>
       <c r="E6" s="63" t="s">
         <v>241</v>
       </c>
@@ -4307,12 +4312,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="140"/>
+      <c r="A7" s="135"/>
       <c r="B7" s="66"/>
       <c r="C7" s="87" t="s">
         <v>287</v>
       </c>
-      <c r="D7" s="122"/>
+      <c r="D7" s="112"/>
       <c r="E7" s="63" t="s">
         <v>288</v>
       </c>
@@ -4320,32 +4325,32 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="140"/>
+      <c r="A8" s="135"/>
       <c r="B8" s="66"/>
       <c r="C8" s="63"/>
-      <c r="D8" s="122"/>
+      <c r="D8" s="112"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="141"/>
+      <c r="A9" s="136"/>
       <c r="B9" s="66"/>
       <c r="C9" s="64"/>
-      <c r="D9" s="122"/>
+      <c r="D9" s="112"/>
       <c r="E9" s="64"/>
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="140" t="s">
+      <c r="A10" s="135" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="62"/>
       <c r="C10" s="63" t="s">
         <v>289</v>
       </c>
-      <c r="D10" s="125" t="s">
+      <c r="D10" s="126" t="s">
         <v>142</v>
       </c>
       <c r="E10" s="85" t="s">
@@ -4355,14 +4360,14 @@
       <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="140"/>
+      <c r="A11" s="135"/>
       <c r="B11" s="63" t="s">
         <v>290</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>291</v>
       </c>
-      <c r="D11" s="126"/>
+      <c r="D11" s="127"/>
       <c r="E11" s="63" t="s">
         <v>130</v>
       </c>
@@ -4372,14 +4377,14 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="141"/>
+      <c r="A12" s="136"/>
       <c r="B12" s="64" t="s">
         <v>269</v>
       </c>
       <c r="C12" s="69" t="s">
         <v>292</v>
       </c>
-      <c r="D12" s="126"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="66" t="s">
         <v>288</v>
       </c>
@@ -4389,14 +4394,14 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="132" t="s">
+      <c r="A13" s="124" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="68"/>
       <c r="C13" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="121" t="s">
+      <c r="D13" s="111" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="84" t="s">
@@ -4408,23 +4413,23 @@
       <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="132"/>
+      <c r="A14" s="124"/>
       <c r="B14" s="68"/>
       <c r="C14" s="63" t="s">
         <v>293</v>
       </c>
-      <c r="D14" s="122"/>
+      <c r="D14" s="112"/>
       <c r="E14" s="98"/>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="132"/>
+      <c r="A15" s="124"/>
       <c r="B15" s="66"/>
       <c r="C15" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="D15" s="122"/>
+      <c r="D15" s="112"/>
       <c r="E15" s="63" t="s">
         <v>130</v>
       </c>
@@ -4432,12 +4437,12 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="132"/>
+      <c r="A16" s="124"/>
       <c r="B16" s="66"/>
       <c r="C16" s="63" t="s">
         <v>295</v>
       </c>
-      <c r="D16" s="122"/>
+      <c r="D16" s="112"/>
       <c r="E16" s="63" t="s">
         <v>296</v>
       </c>
@@ -4445,12 +4450,12 @@
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="132"/>
+      <c r="A17" s="124"/>
       <c r="B17" s="67"/>
       <c r="C17" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="D17" s="123"/>
+      <c r="D17" s="113"/>
       <c r="E17" s="64" t="s">
         <v>298</v>
       </c>
@@ -4458,57 +4463,57 @@
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="131" t="s">
+      <c r="A18" s="137" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="63"/>
       <c r="C18" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D18" s="126" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="126" t="s">
+      <c r="D18" s="127" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="127" t="s">
         <v>156</v>
       </c>
-      <c r="F18" s="128">
+      <c r="F18" s="138">
         <v>1</v>
       </c>
       <c r="G18" s="59"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="132"/>
+      <c r="A19" s="124"/>
       <c r="B19" s="63" t="s">
         <v>299</v>
       </c>
       <c r="C19" s="77" t="s">
         <v>300</v>
       </c>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="129"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="139"/>
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="132"/>
+      <c r="A20" s="124"/>
       <c r="B20" s="63"/>
       <c r="C20" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="D20" s="127"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="130"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="140"/>
       <c r="G20" s="61"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="131" t="s">
+      <c r="A21" s="137" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="62"/>
       <c r="C21" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D21" s="126" t="s">
+      <c r="D21" s="127" t="s">
         <v>227</v>
       </c>
       <c r="E21" s="84" t="s">
@@ -4518,12 +4523,12 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="132"/>
+      <c r="A22" s="124"/>
       <c r="B22" s="63"/>
       <c r="C22" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="D22" s="126"/>
+      <c r="D22" s="127"/>
       <c r="E22" s="63" t="s">
         <v>185</v>
       </c>
@@ -4531,12 +4536,12 @@
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="132"/>
+      <c r="A23" s="124"/>
       <c r="B23" s="76"/>
       <c r="C23" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="D23" s="126"/>
+      <c r="D23" s="127"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60" t="s">
         <v>185</v>
@@ -4544,12 +4549,12 @@
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="132"/>
+      <c r="A24" s="124"/>
       <c r="B24" s="63" t="s">
         <v>255</v>
       </c>
       <c r="C24" s="57"/>
-      <c r="D24" s="126"/>
+      <c r="D24" s="127"/>
       <c r="E24" s="63"/>
       <c r="F24" s="60" t="s">
         <v>222</v>
@@ -4557,14 +4562,14 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="142" t="s">
+      <c r="A25" s="141" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="86"/>
       <c r="C25" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D25" s="121" t="s">
+      <c r="D25" s="111" t="s">
         <v>24</v>
       </c>
       <c r="E25" s="84" t="s">
@@ -4576,12 +4581,12 @@
       <c r="G25" s="59"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="148"/>
+      <c r="A26" s="150"/>
       <c r="B26" s="97"/>
       <c r="C26" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="D26" s="122"/>
+      <c r="D26" s="112"/>
       <c r="E26" s="98" t="s">
         <v>130</v>
       </c>
@@ -4589,12 +4594,12 @@
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="143"/>
+      <c r="A27" s="142"/>
       <c r="B27" s="87"/>
       <c r="C27" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="D27" s="122"/>
+      <c r="D27" s="112"/>
       <c r="E27" s="63" t="s">
         <v>130</v>
       </c>
@@ -4602,12 +4607,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="143"/>
+      <c r="A28" s="142"/>
       <c r="B28" s="88"/>
       <c r="C28" s="63" t="s">
         <v>295</v>
       </c>
-      <c r="D28" s="122"/>
+      <c r="D28" s="112"/>
       <c r="E28" s="63" t="s">
         <v>296</v>
       </c>
@@ -4615,12 +4620,12 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="144"/>
+      <c r="A29" s="143"/>
       <c r="B29" s="95"/>
       <c r="C29" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="D29" s="122"/>
+      <c r="D29" s="112"/>
       <c r="E29" s="64" t="s">
         <v>298</v>
       </c>
@@ -4628,14 +4633,14 @@
       <c r="G29" s="61"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="132" t="s">
+      <c r="A30" s="124" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="62"/>
       <c r="C30" s="57" t="s">
         <v>280</v>
       </c>
-      <c r="D30" s="128" t="s">
+      <c r="D30" s="138" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="60" t="s">
@@ -4645,12 +4650,12 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="132"/>
+      <c r="A31" s="124"/>
       <c r="B31" s="63"/>
       <c r="C31" s="57" t="s">
         <v>291</v>
       </c>
-      <c r="D31" s="129"/>
+      <c r="D31" s="139"/>
       <c r="E31" s="60"/>
       <c r="F31" s="60" t="s">
         <v>130</v>
@@ -4658,14 +4663,14 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="132"/>
+      <c r="A32" s="124"/>
       <c r="B32" s="63" t="s">
         <v>255</v>
       </c>
       <c r="C32" s="96" t="s">
         <v>302</v>
       </c>
-      <c r="D32" s="129"/>
+      <c r="D32" s="139"/>
       <c r="E32" s="60" t="s">
         <v>191</v>
       </c>
@@ -4686,14 +4691,14 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="132" t="s">
+      <c r="A34" s="124" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="66"/>
       <c r="C34" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D34" s="126" t="s">
+      <c r="D34" s="127" t="s">
         <v>24</v>
       </c>
       <c r="E34" s="84" t="s">
@@ -4703,14 +4708,14 @@
       <c r="G34" s="59"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="132"/>
+      <c r="A35" s="124"/>
       <c r="B35" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C35" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="D35" s="126"/>
+      <c r="D35" s="127"/>
       <c r="E35" s="63" t="s">
         <v>168</v>
       </c>
@@ -4718,12 +4723,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="132"/>
+      <c r="A36" s="124"/>
       <c r="B36" s="66"/>
       <c r="C36" s="66" t="s">
         <v>303</v>
       </c>
-      <c r="D36" s="126"/>
+      <c r="D36" s="127"/>
       <c r="E36" s="63"/>
       <c r="F36" s="60" t="s">
         <v>170</v>
@@ -4731,12 +4736,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="132"/>
+      <c r="A37" s="124"/>
       <c r="B37" s="66"/>
       <c r="C37" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="D37" s="126"/>
+      <c r="D37" s="127"/>
       <c r="E37" s="63" t="s">
         <v>298</v>
       </c>
@@ -4744,23 +4749,23 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="133"/>
+      <c r="A38" s="125"/>
       <c r="B38" s="67"/>
       <c r="C38" s="66"/>
-      <c r="D38" s="126"/>
+      <c r="D38" s="127"/>
       <c r="E38" s="64"/>
       <c r="F38" s="60"/>
       <c r="G38" s="61"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="132" t="s">
+      <c r="A39" s="124" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="66"/>
       <c r="C39" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D39" s="145" t="s">
+      <c r="D39" s="147" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="77" t="s">
@@ -4770,12 +4775,12 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="132"/>
+      <c r="A40" s="124"/>
       <c r="B40" s="66"/>
       <c r="C40" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="D40" s="146"/>
+      <c r="D40" s="148"/>
       <c r="E40" s="57" t="s">
         <v>170</v>
       </c>
@@ -4783,14 +4788,14 @@
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="132"/>
+      <c r="A41" s="124"/>
       <c r="B41" s="66" t="s">
         <v>248</v>
       </c>
       <c r="C41" s="63" t="s">
         <v>304</v>
       </c>
-      <c r="D41" s="146"/>
+      <c r="D41" s="148"/>
       <c r="E41" s="57" t="s">
         <v>288</v>
       </c>
@@ -4800,28 +4805,38 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="132"/>
+      <c r="A42" s="124"/>
       <c r="B42" s="66" t="s">
         <v>305</v>
       </c>
       <c r="C42" s="76"/>
-      <c r="D42" s="146"/>
+      <c r="D42" s="148"/>
       <c r="F42" s="101" t="s">
         <v>239</v>
       </c>
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="133"/>
+      <c r="A43" s="125"/>
       <c r="B43" s="67"/>
       <c r="C43" s="99"/>
-      <c r="D43" s="147"/>
+      <c r="D43" s="149"/>
       <c r="E43" s="58"/>
       <c r="F43" s="64"/>
       <c r="G43" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="D30:D32"/>
     <mergeCell ref="F18:F20"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -4834,16 +4849,6 @@
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="E18:E20"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="D30:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4853,8 +4858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29BFE937-B8E4-40EB-B74B-BDF32F686EF8}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4892,7 +4897,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="124" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="66"/>
@@ -4909,36 +4914,36 @@
       <c r="G2" s="60"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="132"/>
+      <c r="A3" s="124"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="150"/>
+      <c r="D3" s="145"/>
       <c r="E3" s="63"/>
       <c r="F3" s="60"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="133"/>
+      <c r="A4" s="125"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="151"/>
+      <c r="D4" s="146"/>
       <c r="E4" s="64"/>
       <c r="F4" s="61"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="135" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="112" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="98" t="s">
@@ -4948,14 +4953,14 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="140"/>
+      <c r="A6" s="135"/>
       <c r="B6" s="66" t="s">
         <v>228</v>
       </c>
       <c r="C6" s="63" t="s">
         <v>306</v>
       </c>
-      <c r="D6" s="122"/>
+      <c r="D6" s="112"/>
       <c r="E6" s="63" t="s">
         <v>307</v>
       </c>
@@ -4963,12 +4968,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="140"/>
+      <c r="A7" s="135"/>
       <c r="B7" s="66"/>
       <c r="C7" s="87" t="s">
         <v>308</v>
       </c>
-      <c r="D7" s="122"/>
+      <c r="D7" s="112"/>
       <c r="E7" s="63" t="s">
         <v>309</v>
       </c>
@@ -4976,12 +4981,12 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="140"/>
+      <c r="A8" s="135"/>
       <c r="B8" s="66"/>
       <c r="C8" s="64" t="s">
         <v>310</v>
       </c>
-      <c r="D8" s="122"/>
+      <c r="D8" s="112"/>
       <c r="E8" s="64" t="s">
         <v>311</v>
       </c>
@@ -4989,23 +4994,23 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="141"/>
+      <c r="A9" s="136"/>
       <c r="B9" s="66"/>
       <c r="C9" s="64"/>
-      <c r="D9" s="122"/>
+      <c r="D9" s="112"/>
       <c r="E9" s="64"/>
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="140" t="s">
+      <c r="A10" s="135" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="62"/>
       <c r="C10" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D10" s="125" t="s">
+      <c r="D10" s="126" t="s">
         <v>142</v>
       </c>
       <c r="E10" s="85" t="s">
@@ -5015,14 +5020,14 @@
       <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="140"/>
+      <c r="A11" s="135"/>
       <c r="B11" s="63" t="s">
         <v>313</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>314</v>
       </c>
-      <c r="D11" s="126"/>
+      <c r="D11" s="127"/>
       <c r="E11" s="63" t="s">
         <v>132</v>
       </c>
@@ -5030,12 +5035,12 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="140"/>
+      <c r="A12" s="135"/>
       <c r="B12" s="63"/>
       <c r="C12" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="D12" s="126"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="66" t="s">
         <v>180</v>
       </c>
@@ -5043,23 +5048,23 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="141"/>
+      <c r="A13" s="136"/>
       <c r="B13" s="64"/>
       <c r="C13" s="58"/>
-      <c r="D13" s="126"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="66"/>
       <c r="F13" s="64"/>
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="132" t="s">
+      <c r="A14" s="124" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="68"/>
       <c r="C14" s="107" t="s">
         <v>261</v>
       </c>
-      <c r="D14" s="121" t="s">
+      <c r="D14" s="111" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="84" t="s">
@@ -5069,12 +5074,12 @@
       <c r="G14" s="59"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="132"/>
+      <c r="A15" s="124"/>
       <c r="B15" s="68"/>
       <c r="C15" s="63" t="s">
         <v>316</v>
       </c>
-      <c r="D15" s="122"/>
+      <c r="D15" s="112"/>
       <c r="E15" s="98" t="s">
         <v>132</v>
       </c>
@@ -5082,12 +5087,12 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="132"/>
+      <c r="A16" s="124"/>
       <c r="B16" s="66"/>
       <c r="C16" s="63" t="s">
         <v>317</v>
       </c>
-      <c r="D16" s="122"/>
+      <c r="D16" s="112"/>
       <c r="E16" s="95" t="s">
         <v>132</v>
       </c>
@@ -5095,12 +5100,12 @@
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="132"/>
+      <c r="A17" s="124"/>
       <c r="B17" s="66" t="s">
         <v>318</v>
       </c>
       <c r="C17" s="63"/>
-      <c r="D17" s="122"/>
+      <c r="D17" s="112"/>
       <c r="E17" s="63"/>
       <c r="F17" s="60" t="s">
         <v>185</v>
@@ -5108,64 +5113,64 @@
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="132"/>
+      <c r="A18" s="124"/>
       <c r="B18" s="67"/>
       <c r="C18" s="64"/>
-      <c r="D18" s="123"/>
+      <c r="D18" s="113"/>
       <c r="E18" s="64"/>
       <c r="F18" s="60"/>
       <c r="G18" s="60"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="131" t="s">
+      <c r="A19" s="137" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="63"/>
       <c r="C19" s="63" t="s">
         <v>319</v>
       </c>
-      <c r="D19" s="126" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="126" t="s">
+      <c r="D19" s="127" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="127" t="s">
         <v>320</v>
       </c>
-      <c r="F19" s="128"/>
+      <c r="F19" s="138"/>
       <c r="G19" s="59"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="132"/>
+      <c r="A20" s="124"/>
       <c r="B20" s="63" t="s">
         <v>321</v>
       </c>
       <c r="C20" s="77" t="s">
         <v>322</v>
       </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="129"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="139"/>
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="132"/>
+      <c r="A21" s="124"/>
       <c r="B21" s="63"/>
       <c r="C21" s="58" t="s">
         <v>323</v>
       </c>
-      <c r="D21" s="127"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="130"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="140"/>
       <c r="G21" s="61"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="131" t="s">
+      <c r="A22" s="137" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="62"/>
       <c r="C22" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D22" s="126" t="s">
+      <c r="D22" s="127" t="s">
         <v>227</v>
       </c>
       <c r="E22" s="84" t="s">
@@ -5175,12 +5180,12 @@
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="132"/>
+      <c r="A23" s="124"/>
       <c r="B23" s="63"/>
       <c r="C23" s="57" t="s">
         <v>324</v>
       </c>
-      <c r="D23" s="126"/>
+      <c r="D23" s="127"/>
       <c r="E23" s="63" t="s">
         <v>176</v>
       </c>
@@ -5188,14 +5193,14 @@
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="132"/>
+      <c r="A24" s="124"/>
       <c r="B24" s="63" t="s">
         <v>325</v>
       </c>
       <c r="C24" s="57" t="s">
         <v>326</v>
       </c>
-      <c r="D24" s="126"/>
+      <c r="D24" s="127"/>
       <c r="E24" s="63" t="s">
         <v>185</v>
       </c>
@@ -5203,14 +5208,14 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="132"/>
+      <c r="A25" s="124"/>
       <c r="B25" s="63" t="s">
         <v>255</v>
       </c>
       <c r="C25" s="57" t="s">
         <v>327</v>
       </c>
-      <c r="D25" s="126"/>
+      <c r="D25" s="127"/>
       <c r="E25" s="63" t="s">
         <v>309</v>
       </c>
@@ -5220,14 +5225,14 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="142" t="s">
+      <c r="A26" s="141" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="78"/>
       <c r="C26" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D26" s="121" t="s">
+      <c r="D26" s="111" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="84" t="s">
@@ -5237,14 +5242,14 @@
       <c r="G26" s="59"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="148"/>
+      <c r="A27" s="150"/>
       <c r="B27" s="83" t="s">
         <v>328</v>
       </c>
       <c r="C27" s="98" t="s">
         <v>329</v>
       </c>
-      <c r="D27" s="122"/>
+      <c r="D27" s="112"/>
       <c r="E27" s="98" t="s">
         <v>330</v>
       </c>
@@ -5252,12 +5257,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="143"/>
+      <c r="A28" s="142"/>
       <c r="B28" s="68"/>
       <c r="C28" s="63" t="s">
         <v>331</v>
       </c>
-      <c r="D28" s="122"/>
+      <c r="D28" s="112"/>
       <c r="E28" s="63" t="s">
         <v>309</v>
       </c>
@@ -5265,12 +5270,12 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="143"/>
+      <c r="A29" s="142"/>
       <c r="B29" s="80"/>
       <c r="C29" s="63" t="s">
         <v>332</v>
       </c>
-      <c r="D29" s="122"/>
+      <c r="D29" s="112"/>
       <c r="E29" s="63" t="s">
         <v>173</v>
       </c>
@@ -5278,12 +5283,12 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="153"/>
-      <c r="B30" s="108"/>
+      <c r="A30" s="151"/>
+      <c r="B30" s="154"/>
       <c r="C30" s="63" t="s">
         <v>310</v>
       </c>
-      <c r="D30" s="122"/>
+      <c r="D30" s="112"/>
       <c r="E30" s="63" t="s">
         <v>311</v>
       </c>
@@ -5308,14 +5313,14 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="119"/>
+      <c r="A32" s="109"/>
       <c r="B32" s="60" t="s">
         <v>334</v>
       </c>
-      <c r="C32" s="154" t="s">
+      <c r="C32" s="153" t="s">
         <v>335</v>
       </c>
-      <c r="D32" s="129"/>
+      <c r="D32" s="139"/>
       <c r="E32" s="60" t="s">
         <v>132</v>
       </c>
@@ -5323,12 +5328,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="120"/>
+      <c r="A33" s="110"/>
       <c r="B33" s="61"/>
       <c r="C33" s="159" t="s">
         <v>336</v>
       </c>
-      <c r="D33" s="130"/>
+      <c r="D33" s="140"/>
       <c r="E33" s="61"/>
       <c r="F33" s="61" t="s">
         <v>180</v>
@@ -5336,14 +5341,14 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="132" t="s">
+      <c r="A34" s="124" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="66"/>
       <c r="C34" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D34" s="126" t="s">
+      <c r="D34" s="127" t="s">
         <v>24</v>
       </c>
       <c r="E34" s="98" t="s">
@@ -5353,14 +5358,14 @@
       <c r="G34" s="59"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="132"/>
+      <c r="A35" s="124"/>
       <c r="B35" s="66" t="s">
         <v>337</v>
       </c>
       <c r="C35" s="68" t="s">
         <v>338</v>
       </c>
-      <c r="D35" s="126"/>
+      <c r="D35" s="127"/>
       <c r="E35" s="63" t="s">
         <v>170</v>
       </c>
@@ -5368,12 +5373,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="132"/>
+      <c r="A36" s="124"/>
       <c r="B36" s="66"/>
       <c r="C36" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="D36" s="126"/>
+      <c r="D36" s="127"/>
       <c r="E36" s="63" t="s">
         <v>241</v>
       </c>
@@ -5381,12 +5386,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="132"/>
+      <c r="A37" s="124"/>
       <c r="B37" s="66"/>
       <c r="C37" s="66" t="s">
         <v>340</v>
       </c>
-      <c r="D37" s="126"/>
+      <c r="D37" s="127"/>
       <c r="E37" s="63" t="s">
         <v>170</v>
       </c>
@@ -5394,23 +5399,23 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="133"/>
+      <c r="A38" s="125"/>
       <c r="B38" s="67"/>
       <c r="C38" s="66"/>
-      <c r="D38" s="126"/>
+      <c r="D38" s="127"/>
       <c r="E38" s="64"/>
       <c r="F38" s="60"/>
       <c r="G38" s="61"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="132" t="s">
+      <c r="A39" s="124" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="66"/>
       <c r="C39" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D39" s="145" t="s">
+      <c r="D39" s="147" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="46" t="s">
@@ -5420,12 +5425,12 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="132"/>
+      <c r="A40" s="124"/>
       <c r="B40" s="66"/>
       <c r="C40" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="D40" s="146"/>
+      <c r="D40" s="148"/>
       <c r="E40" s="77" t="s">
         <v>342</v>
       </c>
@@ -5433,14 +5438,14 @@
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="132"/>
+      <c r="A41" s="124"/>
       <c r="B41" s="66" t="s">
         <v>343</v>
       </c>
       <c r="C41" s="63" t="s">
         <v>344</v>
       </c>
-      <c r="D41" s="146"/>
+      <c r="D41" s="148"/>
       <c r="E41" s="57" t="s">
         <v>170</v>
       </c>
@@ -5450,35 +5455,29 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="132"/>
+      <c r="A42" s="124"/>
       <c r="B42" s="66"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="146"/>
-      <c r="E42" s="46"/>
+      <c r="C42" s="93" t="s">
+        <v>345</v>
+      </c>
+      <c r="D42" s="148"/>
+      <c r="E42" s="46" t="s">
+        <v>263</v>
+      </c>
       <c r="F42" s="101"/>
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="133"/>
+      <c r="A43" s="125"/>
       <c r="B43" s="67"/>
       <c r="C43" s="99"/>
-      <c r="D43" s="147"/>
+      <c r="D43" s="149"/>
       <c r="E43" s="58"/>
       <c r="F43" s="64"/>
       <c r="G43" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="D31:D33"/>
     <mergeCell ref="F19:F21"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -5491,6 +5490,16 @@
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="E19:E21"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="D31:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7242,7 +7251,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="118" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="47" t="s">
@@ -7251,7 +7260,7 @@
       <c r="C2" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="109" t="s">
+      <c r="D2" s="114" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="52" t="s">
@@ -7263,14 +7272,14 @@
       <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="113"/>
+      <c r="A3" s="119"/>
       <c r="B3" t="s">
         <v>128</v>
       </c>
       <c r="C3" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="110"/>
+      <c r="D3" s="115"/>
       <c r="E3" s="46" t="s">
         <v>130</v>
       </c>
@@ -7278,11 +7287,11 @@
       <c r="G3" s="49"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="113"/>
+      <c r="A4" s="119"/>
       <c r="C4" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="110"/>
+      <c r="D4" s="115"/>
       <c r="E4" s="46" t="s">
         <v>132</v>
       </c>
@@ -7290,12 +7299,12 @@
       <c r="G4" s="49"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="114"/>
+      <c r="A5" s="120"/>
       <c r="B5" s="50"/>
       <c r="C5" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="111"/>
+      <c r="D5" s="116"/>
       <c r="E5" s="55" t="s">
         <v>132</v>
       </c>
@@ -7303,7 +7312,7 @@
       <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="121" t="s">
         <v>134</v>
       </c>
       <c r="B6" t="s">
@@ -7312,7 +7321,7 @@
       <c r="C6" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="109" t="s">
+      <c r="D6" s="114" t="s">
         <v>137</v>
       </c>
       <c r="E6" s="46" t="s">
@@ -7322,11 +7331,11 @@
       <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="115"/>
+      <c r="A7" s="121"/>
       <c r="C7" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="110"/>
+      <c r="D7" s="115"/>
       <c r="E7" s="46" t="s">
         <v>118</v>
       </c>
@@ -7334,22 +7343,22 @@
       <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="115"/>
-      <c r="D8" s="110"/>
+      <c r="A8" s="121"/>
+      <c r="D8" s="115"/>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
       <c r="G8" s="49"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="115"/>
-      <c r="D9" s="110"/>
+      <c r="A9" s="121"/>
+      <c r="D9" s="115"/>
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
       <c r="G9" s="49"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="116"/>
-      <c r="D10" s="111"/>
+      <c r="A10" s="122"/>
+      <c r="D10" s="116"/>
       <c r="E10" s="46" t="s">
         <v>140</v>
       </c>
@@ -7357,7 +7366,7 @@
       <c r="G10" s="49"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="117" t="s">
+      <c r="A11" s="123" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -7366,7 +7375,7 @@
       <c r="C11" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="114" t="s">
         <v>142</v>
       </c>
       <c r="E11" s="52" t="s">
@@ -7376,11 +7385,11 @@
       <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="117"/>
+      <c r="A12" s="123"/>
       <c r="C12" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="110"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="46"/>
       <c r="F12" s="46" t="s">
         <v>143</v>
@@ -7388,14 +7397,14 @@
       <c r="G12" s="49"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="117"/>
+      <c r="A13" s="123"/>
       <c r="B13" t="s">
         <v>145</v>
       </c>
       <c r="C13" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="110"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="46" t="s">
         <v>143</v>
       </c>
@@ -7403,24 +7412,24 @@
       <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="117"/>
+      <c r="A14" s="123"/>
       <c r="C14" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="110"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
       <c r="G14" s="49"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="117"/>
-      <c r="D15" s="111"/>
+      <c r="A15" s="123"/>
+      <c r="D15" s="116"/>
       <c r="E15" s="46"/>
       <c r="F15" s="46"/>
       <c r="G15" s="49"/>
     </row>
     <row r="16" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A16" s="118" t="s">
+      <c r="A16" s="108" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="47" t="s">
@@ -7429,7 +7438,7 @@
       <c r="C16" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="109" t="s">
+      <c r="D16" s="114" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="52" t="s">
@@ -7439,11 +7448,11 @@
       <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A17" s="119"/>
+      <c r="A17" s="109"/>
       <c r="C17" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="110"/>
+      <c r="D17" s="115"/>
       <c r="E17" s="46">
         <v>1.5</v>
       </c>
@@ -7451,11 +7460,11 @@
       <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A18" s="119"/>
+      <c r="A18" s="109"/>
       <c r="C18" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="110"/>
+      <c r="D18" s="115"/>
       <c r="E18" s="46"/>
       <c r="F18" s="46">
         <v>1.5</v>
@@ -7463,11 +7472,11 @@
       <c r="G18" s="49"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A19" s="119"/>
+      <c r="A19" s="109"/>
       <c r="C19" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="111"/>
+      <c r="D19" s="116"/>
       <c r="E19" s="46"/>
       <c r="F19" s="57">
         <v>0.5</v>
@@ -7475,7 +7484,7 @@
       <c r="G19" s="49"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="118" t="s">
+      <c r="A20" s="108" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="47" t="s">
@@ -7490,7 +7499,7 @@
       <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="119"/>
+      <c r="A21" s="109"/>
       <c r="C21" t="s">
         <v>154</v>
       </c>
@@ -7500,7 +7509,7 @@
       <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="120"/>
+      <c r="A22" s="110"/>
       <c r="B22" s="50"/>
       <c r="C22" s="50" t="s">
         <v>155</v>
@@ -7515,7 +7524,7 @@
       <c r="G22" s="51"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="124" t="s">
+      <c r="A23" s="117" t="s">
         <v>28</v>
       </c>
       <c r="B23" t="s">
@@ -7524,7 +7533,7 @@
       <c r="C23" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="109"/>
+      <c r="D23" s="114"/>
       <c r="E23" s="46" t="s">
         <v>158</v>
       </c>
@@ -7532,11 +7541,11 @@
       <c r="G23" s="49"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="124"/>
+      <c r="A24" s="117"/>
       <c r="C24" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="110"/>
+      <c r="D24" s="115"/>
       <c r="E24" s="46">
         <v>2</v>
       </c>
@@ -7544,11 +7553,11 @@
       <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="124"/>
+      <c r="A25" s="117"/>
       <c r="C25" t="s">
         <v>151</v>
       </c>
-      <c r="D25" s="110"/>
+      <c r="D25" s="115"/>
       <c r="E25" s="46">
         <v>1</v>
       </c>
@@ -7556,11 +7565,11 @@
       <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="124"/>
+      <c r="A26" s="117"/>
       <c r="C26" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="111"/>
+      <c r="D26" s="116"/>
       <c r="E26" s="46">
         <v>1</v>
       </c>
@@ -7568,7 +7577,7 @@
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="118" t="s">
+      <c r="A27" s="108" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="47" t="s">
@@ -7577,7 +7586,7 @@
       <c r="C27" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="109" t="s">
+      <c r="D27" s="114" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="52" t="s">
@@ -7587,14 +7596,14 @@
       <c r="G27" s="48"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="119"/>
+      <c r="A28" s="109"/>
       <c r="B28" s="45" t="s">
         <v>128</v>
       </c>
       <c r="C28" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="110"/>
+      <c r="D28" s="115"/>
       <c r="E28" s="46" t="s">
         <v>130</v>
       </c>
@@ -7602,11 +7611,11 @@
       <c r="G28" s="49"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="119"/>
+      <c r="A29" s="109"/>
       <c r="C29" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="110"/>
+      <c r="D29" s="115"/>
       <c r="E29" s="46" t="s">
         <v>132</v>
       </c>
@@ -7614,12 +7623,12 @@
       <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A30" s="119"/>
+      <c r="A30" s="109"/>
       <c r="B30" s="50"/>
       <c r="C30" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="D30" s="111"/>
+      <c r="D30" s="116"/>
       <c r="E30" s="55" t="s">
         <v>132</v>
       </c>
@@ -7627,10 +7636,10 @@
       <c r="G30" s="51"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="118" t="s">
+      <c r="A31" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="121" t="s">
+      <c r="D31" s="111" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="46"/>
@@ -7638,14 +7647,14 @@
       <c r="G31" s="49"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="119"/>
+      <c r="A32" s="109"/>
       <c r="B32" t="s">
         <v>161</v>
       </c>
       <c r="C32" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="122"/>
+      <c r="D32" s="112"/>
       <c r="E32" s="46" t="s">
         <v>138</v>
       </c>
@@ -7653,14 +7662,14 @@
       <c r="G32" s="49"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="119"/>
+      <c r="A33" s="109"/>
       <c r="B33" t="s">
         <v>135</v>
       </c>
       <c r="C33" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="122"/>
+      <c r="D33" s="112"/>
       <c r="E33" s="46" t="s">
         <v>130</v>
       </c>
@@ -7668,28 +7677,28 @@
       <c r="G33" s="49"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="119"/>
-      <c r="D34" s="122"/>
+      <c r="A34" s="109"/>
+      <c r="D34" s="112"/>
       <c r="E34" s="46"/>
       <c r="F34" s="46"/>
       <c r="G34" s="49"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="119"/>
-      <c r="D35" s="123"/>
+      <c r="A35" s="109"/>
+      <c r="D35" s="113"/>
       <c r="E35" s="46"/>
       <c r="F35" s="46"/>
       <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="118" t="s">
+      <c r="A36" s="108" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="47"/>
       <c r="C36" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="D36" s="109"/>
+      <c r="D36" s="114"/>
       <c r="E36" s="52" t="s">
         <v>165</v>
       </c>
@@ -7697,14 +7706,14 @@
       <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="119"/>
+      <c r="A37" s="109"/>
       <c r="B37" t="s">
         <v>166</v>
       </c>
       <c r="C37" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="D37" s="110"/>
+      <c r="D37" s="115"/>
       <c r="E37" s="46" t="s">
         <v>168</v>
       </c>
@@ -7712,11 +7721,11 @@
       <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="119"/>
+      <c r="A38" s="109"/>
       <c r="C38" t="s">
         <v>169</v>
       </c>
-      <c r="D38" s="110"/>
+      <c r="D38" s="115"/>
       <c r="E38" s="46"/>
       <c r="F38" s="46" t="s">
         <v>170</v>
@@ -7724,46 +7733,46 @@
       <c r="G38" s="49"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="119"/>
-      <c r="D39" s="110"/>
+      <c r="A39" s="109"/>
+      <c r="D39" s="115"/>
       <c r="E39" s="46"/>
       <c r="F39" s="46"/>
       <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="120"/>
+      <c r="A40" s="110"/>
       <c r="B40" s="50"/>
       <c r="C40" s="50"/>
-      <c r="D40" s="111"/>
+      <c r="D40" s="116"/>
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
       <c r="G40" s="51"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="119" t="s">
+      <c r="A41" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="109" t="s">
+      <c r="D41" s="114" t="s">
         <v>24</v>
       </c>
       <c r="E41" s="46"/>
       <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="119"/>
-      <c r="D42" s="110"/>
+      <c r="A42" s="109"/>
+      <c r="D42" s="115"/>
       <c r="E42" s="46"/>
       <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="119"/>
+      <c r="A43" s="109"/>
       <c r="B43" t="s">
         <v>24</v>
       </c>
       <c r="C43" t="s">
         <v>162</v>
       </c>
-      <c r="D43" s="110"/>
+      <c r="D43" s="115"/>
       <c r="E43" s="46" t="s">
         <v>171</v>
       </c>
@@ -7773,16 +7782,16 @@
       <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="119"/>
-      <c r="D44" s="110"/>
+      <c r="A44" s="109"/>
+      <c r="D44" s="115"/>
       <c r="E44" s="46"/>
       <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="120"/>
+      <c r="A45" s="110"/>
       <c r="B45" s="50"/>
       <c r="C45" s="50"/>
-      <c r="D45" s="111"/>
+      <c r="D45" s="116"/>
       <c r="E45" s="55"/>
       <c r="F45" s="50"/>
       <c r="G45" s="51"/>
@@ -7792,6 +7801,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="D2:D5"/>
     <mergeCell ref="A36:A40"/>
     <mergeCell ref="A41:A45"/>
     <mergeCell ref="D31:D35"/>
@@ -7805,12 +7820,6 @@
     <mergeCell ref="D27:D30"/>
     <mergeCell ref="A31:A35"/>
     <mergeCell ref="A27:A30"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="D2:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7856,7 +7865,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="129" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65" t="s">
@@ -7865,7 +7874,7 @@
       <c r="C2" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="137" t="s">
+      <c r="D2" s="132" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="56" t="s">
@@ -7877,12 +7886,12 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="135"/>
+      <c r="A3" s="130"/>
       <c r="B3" s="66"/>
       <c r="C3" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="138"/>
+      <c r="D3" s="133"/>
       <c r="E3" s="57" t="s">
         <v>130</v>
       </c>
@@ -7890,12 +7899,12 @@
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="135"/>
+      <c r="A4" s="130"/>
       <c r="B4" s="66"/>
       <c r="C4" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="138"/>
+      <c r="D4" s="133"/>
       <c r="E4" s="57" t="s">
         <v>176</v>
       </c>
@@ -7903,12 +7912,12 @@
       <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="135"/>
+      <c r="A5" s="130"/>
       <c r="B5" s="66"/>
       <c r="C5" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="138"/>
+      <c r="D5" s="133"/>
       <c r="E5" s="57" t="s">
         <v>173</v>
       </c>
@@ -7916,12 +7925,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="135"/>
+      <c r="A6" s="130"/>
       <c r="B6" s="66"/>
       <c r="C6" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="138"/>
+      <c r="D6" s="133"/>
       <c r="E6" s="57" t="s">
         <v>127</v>
       </c>
@@ -7929,12 +7938,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="136"/>
+      <c r="A7" s="131"/>
       <c r="B7" s="67"/>
       <c r="C7" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="139"/>
+      <c r="D7" s="134"/>
       <c r="E7" s="58" t="s">
         <v>179</v>
       </c>
@@ -7942,7 +7951,7 @@
       <c r="G7" s="61"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="140" t="s">
+      <c r="A8" s="135" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="66" t="s">
@@ -7951,7 +7960,7 @@
       <c r="C8" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="126" t="s">
+      <c r="D8" s="127" t="s">
         <v>137</v>
       </c>
       <c r="E8" s="63" t="s">
@@ -7961,12 +7970,12 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="140"/>
+      <c r="A9" s="135"/>
       <c r="B9" s="66"/>
       <c r="C9" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="126"/>
+      <c r="D9" s="127"/>
       <c r="E9" s="63" t="s">
         <v>130</v>
       </c>
@@ -7974,12 +7983,12 @@
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="140"/>
+      <c r="A10" s="135"/>
       <c r="B10" s="66"/>
       <c r="C10" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="D10" s="126"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="63" t="s">
         <v>183</v>
       </c>
@@ -7987,12 +7996,12 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="141"/>
+      <c r="A11" s="136"/>
       <c r="B11" s="66"/>
       <c r="C11" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="126"/>
+      <c r="D11" s="127"/>
       <c r="E11" s="63" t="s">
         <v>185</v>
       </c>
@@ -8000,14 +8009,14 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="140" t="s">
+      <c r="A12" s="135" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="62"/>
       <c r="C12" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="125" t="s">
+      <c r="D12" s="126" t="s">
         <v>142</v>
       </c>
       <c r="E12" s="62" t="s">
@@ -8017,12 +8026,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="140"/>
+      <c r="A13" s="135"/>
       <c r="B13" s="63"/>
       <c r="C13" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="D13" s="126"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="63" t="s">
         <v>187</v>
       </c>
@@ -8030,12 +8039,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="140"/>
+      <c r="A14" s="135"/>
       <c r="B14" s="76"/>
       <c r="C14" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="126"/>
+      <c r="D14" s="127"/>
       <c r="E14" s="63"/>
       <c r="F14" s="60" t="s">
         <v>130</v>
@@ -8043,12 +8052,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="140"/>
+      <c r="A15" s="135"/>
       <c r="B15" s="63" t="s">
         <v>190</v>
       </c>
       <c r="C15" s="57"/>
-      <c r="D15" s="126"/>
+      <c r="D15" s="127"/>
       <c r="E15" s="63" t="s">
         <v>191</v>
       </c>
@@ -8056,23 +8065,23 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="141"/>
+      <c r="A16" s="136"/>
       <c r="B16" s="64"/>
       <c r="C16" s="57"/>
-      <c r="D16" s="127"/>
+      <c r="D16" s="128"/>
       <c r="E16" s="63"/>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A17" s="132" t="s">
+      <c r="A17" s="124" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="125" t="s">
+      <c r="D17" s="126" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="62" t="s">
@@ -8082,14 +8091,14 @@
       <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A18" s="132"/>
+      <c r="A18" s="124"/>
       <c r="B18" s="66" t="s">
         <v>193</v>
       </c>
       <c r="C18" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="126"/>
+      <c r="D18" s="127"/>
       <c r="E18" s="63" t="s">
         <v>176</v>
       </c>
@@ -8097,12 +8106,12 @@
       <c r="G18" s="60"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A19" s="132"/>
+      <c r="A19" s="124"/>
       <c r="B19" s="66"/>
       <c r="C19" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="D19" s="126"/>
+      <c r="D19" s="127"/>
       <c r="E19" s="63" t="s">
         <v>176</v>
       </c>
@@ -8110,12 +8119,12 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A20" s="132"/>
+      <c r="A20" s="124"/>
       <c r="B20" s="66"/>
       <c r="C20" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="D20" s="126"/>
+      <c r="D20" s="127"/>
       <c r="E20" s="63"/>
       <c r="F20" s="63" t="s">
         <v>194</v>
@@ -8123,7 +8132,7 @@
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="131" t="s">
+      <c r="A21" s="137" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="65" t="s">
@@ -8132,41 +8141,41 @@
       <c r="C21" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="D21" s="125" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="125" t="s">
+      <c r="D21" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="126" t="s">
         <v>197</v>
       </c>
-      <c r="F21" s="128" t="s">
+      <c r="F21" s="138" t="s">
         <v>198</v>
       </c>
       <c r="G21" s="59"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="132"/>
+      <c r="A22" s="124"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="129"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="139"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="132"/>
+      <c r="A23" s="124"/>
       <c r="B23" s="67"/>
       <c r="C23" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="130"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="140"/>
       <c r="G23" s="61"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="131" t="s">
+      <c r="A24" s="137" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="66" t="s">
@@ -8175,7 +8184,7 @@
       <c r="C24" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="126"/>
+      <c r="D24" s="127"/>
       <c r="E24" s="63" t="s">
         <v>173</v>
       </c>
@@ -8183,12 +8192,12 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="132"/>
+      <c r="A25" s="124"/>
       <c r="B25" s="66"/>
       <c r="C25" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="D25" s="126"/>
+      <c r="D25" s="127"/>
       <c r="E25" s="63" t="s">
         <v>191</v>
       </c>
@@ -8196,12 +8205,12 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="132"/>
+      <c r="A26" s="124"/>
       <c r="B26" s="66"/>
       <c r="C26" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="D26" s="126"/>
+      <c r="D26" s="127"/>
       <c r="E26" s="63" t="s">
         <v>130</v>
       </c>
@@ -8209,12 +8218,12 @@
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="132"/>
+      <c r="A27" s="124"/>
       <c r="B27" s="66"/>
       <c r="C27" s="66" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="126"/>
+      <c r="D27" s="127"/>
       <c r="E27" s="63" t="s">
         <v>202</v>
       </c>
@@ -8222,12 +8231,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="133"/>
+      <c r="A28" s="125"/>
       <c r="B28" s="66"/>
       <c r="C28" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="D28" s="127"/>
+      <c r="D28" s="128"/>
       <c r="E28" s="63" t="s">
         <v>130</v>
       </c>
@@ -8235,7 +8244,7 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="132" t="s">
+      <c r="A29" s="124" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="74" t="s">
@@ -8244,7 +8253,7 @@
       <c r="C29" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="125" t="s">
+      <c r="D29" s="126" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="62" t="s">
@@ -8256,12 +8265,12 @@
       <c r="G29" s="59"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="132"/>
+      <c r="A30" s="124"/>
       <c r="B30" s="70"/>
       <c r="C30" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="D30" s="126"/>
+      <c r="D30" s="127"/>
       <c r="E30" s="63" t="s">
         <v>205</v>
       </c>
@@ -8269,12 +8278,12 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="132"/>
+      <c r="A31" s="124"/>
       <c r="B31" s="71"/>
       <c r="C31" s="69" t="s">
         <v>206</v>
       </c>
-      <c r="D31" s="126"/>
+      <c r="D31" s="127"/>
       <c r="E31" s="63" t="s">
         <v>130</v>
       </c>
@@ -8282,12 +8291,12 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="132"/>
+      <c r="A32" s="124"/>
       <c r="B32" s="71"/>
       <c r="C32" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="D32" s="126"/>
+      <c r="D32" s="127"/>
       <c r="E32" s="63" t="s">
         <v>179</v>
       </c>
@@ -8295,12 +8304,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="132"/>
+      <c r="A33" s="124"/>
       <c r="B33" s="72"/>
       <c r="C33" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="D33" s="126"/>
+      <c r="D33" s="127"/>
       <c r="E33" s="63" t="s">
         <v>208</v>
       </c>
@@ -8308,12 +8317,12 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A34" s="132"/>
+      <c r="A34" s="124"/>
       <c r="B34" s="73"/>
       <c r="C34" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="D34" s="127"/>
+      <c r="D34" s="128"/>
       <c r="E34" s="64" t="s">
         <v>132</v>
       </c>
@@ -8321,12 +8330,12 @@
       <c r="G34" s="61"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="131" t="s">
+      <c r="A35" s="137" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="66"/>
       <c r="C35" s="66"/>
-      <c r="D35" s="125" t="s">
+      <c r="D35" s="126" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="63"/>
@@ -8334,12 +8343,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="132"/>
+      <c r="A36" s="124"/>
       <c r="B36" s="66"/>
       <c r="C36" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="D36" s="126"/>
+      <c r="D36" s="127"/>
       <c r="E36" s="63" t="s">
         <v>130</v>
       </c>
@@ -8347,14 +8356,14 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7" ht="21" customHeight="1">
-      <c r="A37" s="132"/>
+      <c r="A37" s="124"/>
       <c r="B37" s="66" t="s">
         <v>211</v>
       </c>
       <c r="C37" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="D37" s="126"/>
+      <c r="D37" s="127"/>
       <c r="E37" s="63" t="s">
         <v>180</v>
       </c>
@@ -8362,12 +8371,12 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="132"/>
+      <c r="A38" s="124"/>
       <c r="B38" s="66"/>
       <c r="C38" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="D38" s="126"/>
+      <c r="D38" s="127"/>
       <c r="E38" s="63"/>
       <c r="F38" s="60" t="s">
         <v>130</v>
@@ -8375,23 +8384,23 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="132"/>
+      <c r="A39" s="124"/>
       <c r="B39" s="66"/>
       <c r="C39" s="66"/>
-      <c r="D39" s="127"/>
+      <c r="D39" s="128"/>
       <c r="E39" s="63"/>
       <c r="F39" s="60"/>
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="131" t="s">
+      <c r="A40" s="137" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="65"/>
       <c r="C40" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="125"/>
+      <c r="D40" s="126"/>
       <c r="E40" s="62" t="s">
         <v>165</v>
       </c>
@@ -8399,14 +8408,14 @@
       <c r="G40" s="59"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="132"/>
+      <c r="A41" s="124"/>
       <c r="B41" s="66" t="s">
         <v>166</v>
       </c>
       <c r="C41" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="D41" s="126"/>
+      <c r="D41" s="127"/>
       <c r="E41" s="63" t="s">
         <v>168</v>
       </c>
@@ -8414,12 +8423,12 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="132"/>
+      <c r="A42" s="124"/>
       <c r="B42" s="66"/>
       <c r="C42" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="D42" s="126"/>
+      <c r="D42" s="127"/>
       <c r="E42" s="63"/>
       <c r="F42" s="60" t="s">
         <v>170</v>
@@ -8427,32 +8436,32 @@
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="132"/>
+      <c r="A43" s="124"/>
       <c r="B43" s="66"/>
       <c r="C43" s="66"/>
-      <c r="D43" s="126"/>
+      <c r="D43" s="127"/>
       <c r="E43" s="63"/>
       <c r="F43" s="60"/>
       <c r="G43" s="60"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="133"/>
+      <c r="A44" s="125"/>
       <c r="B44" s="67"/>
       <c r="C44" s="67"/>
-      <c r="D44" s="127"/>
+      <c r="D44" s="128"/>
       <c r="E44" s="64"/>
       <c r="F44" s="60"/>
       <c r="G44" s="61"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="132" t="s">
+      <c r="A45" s="124" t="s">
         <v>30</v>
       </c>
       <c r="B45" s="66"/>
       <c r="C45" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D45" s="125" t="s">
+      <c r="D45" s="126" t="s">
         <v>24</v>
       </c>
       <c r="E45" s="65" t="s">
@@ -8462,12 +8471,12 @@
       <c r="G45" s="60"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="132"/>
+      <c r="A46" s="124"/>
       <c r="B46" s="66"/>
       <c r="C46" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D46" s="126"/>
+      <c r="D46" s="127"/>
       <c r="E46" s="66" t="s">
         <v>176</v>
       </c>
@@ -8475,14 +8484,14 @@
       <c r="G46" s="60"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="132"/>
+      <c r="A47" s="124"/>
       <c r="B47" s="66" t="s">
         <v>193</v>
       </c>
       <c r="C47" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="D47" s="126"/>
+      <c r="D47" s="127"/>
       <c r="E47" s="66" t="s">
         <v>176</v>
       </c>
@@ -8490,12 +8499,12 @@
       <c r="G47" s="60"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="132"/>
+      <c r="A48" s="124"/>
       <c r="B48" s="66"/>
       <c r="C48" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="D48" s="126"/>
+      <c r="D48" s="127"/>
       <c r="E48" s="66"/>
       <c r="F48" s="63" t="s">
         <v>194</v>
@@ -8503,10 +8512,10 @@
       <c r="G48" s="60"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="133"/>
+      <c r="A49" s="125"/>
       <c r="B49" s="67"/>
       <c r="C49" s="67"/>
-      <c r="D49" s="127"/>
+      <c r="D49" s="128"/>
       <c r="E49" s="67"/>
       <c r="F49" s="64"/>
       <c r="G49" s="61"/>
@@ -8519,6 +8528,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="D40:D44"/>
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="D45:D49"/>
     <mergeCell ref="A29:A34"/>
@@ -8535,12 +8550,6 @@
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="D24:D28"/>
     <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="D40:D44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8589,12 +8598,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="137" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="137" t="s">
+      <c r="D2" s="132" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -8606,34 +8615,34 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="132"/>
+      <c r="A3" s="124"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="138"/>
+      <c r="D3" s="133"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="133"/>
+      <c r="A4" s="125"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="139"/>
+      <c r="D4" s="134"/>
       <c r="E4" s="58"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="135" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62"/>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="112" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="63"/>
@@ -8641,12 +8650,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="140"/>
+      <c r="A6" s="135"/>
       <c r="B6" s="66"/>
       <c r="C6" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="122"/>
+      <c r="D6" s="112"/>
       <c r="E6" s="63" t="s">
         <v>218</v>
       </c>
@@ -8654,30 +8663,30 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="140"/>
+      <c r="A7" s="135"/>
       <c r="B7" s="66"/>
       <c r="C7" s="63"/>
-      <c r="D7" s="122"/>
+      <c r="D7" s="112"/>
       <c r="E7" s="63"/>
       <c r="F7" s="60"/>
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="141"/>
+      <c r="A8" s="136"/>
       <c r="B8" s="66"/>
       <c r="C8" s="64"/>
-      <c r="D8" s="122"/>
+      <c r="D8" s="112"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="140" t="s">
+      <c r="A9" s="135" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="62"/>
       <c r="C9" s="57"/>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="126" t="s">
         <v>142</v>
       </c>
       <c r="E9" s="65"/>
@@ -8685,12 +8694,12 @@
       <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="140"/>
+      <c r="A10" s="135"/>
       <c r="B10" s="63"/>
       <c r="C10" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="D10" s="126"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="66" t="s">
         <v>106</v>
       </c>
@@ -8700,12 +8709,12 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="140"/>
+      <c r="A11" s="135"/>
       <c r="B11" s="63" t="s">
         <v>220</v>
       </c>
       <c r="C11" s="57"/>
-      <c r="D11" s="127"/>
+      <c r="D11" s="128"/>
       <c r="E11" s="67"/>
       <c r="F11" s="63" t="s">
         <v>130</v>
@@ -8713,12 +8722,12 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="131" t="s">
+      <c r="A12" s="137" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="65"/>
       <c r="C12" s="62"/>
-      <c r="D12" s="121" t="s">
+      <c r="D12" s="111" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="66"/>
@@ -8726,12 +8735,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="132"/>
+      <c r="A13" s="124"/>
       <c r="B13" s="66" t="s">
         <v>221</v>
       </c>
       <c r="C13" s="76"/>
-      <c r="D13" s="122"/>
+      <c r="D13" s="112"/>
       <c r="E13" s="66" t="s">
         <v>222</v>
       </c>
@@ -8739,12 +8748,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="132"/>
+      <c r="A14" s="124"/>
       <c r="B14" s="66"/>
       <c r="C14" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="D14" s="122"/>
+      <c r="D14" s="112"/>
       <c r="E14" s="66"/>
       <c r="F14" s="63" t="s">
         <v>222</v>
@@ -8752,62 +8761,62 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="133"/>
+      <c r="A15" s="125"/>
       <c r="B15" s="67"/>
       <c r="C15" s="64"/>
-      <c r="D15" s="122"/>
+      <c r="D15" s="112"/>
       <c r="E15" s="66"/>
       <c r="F15" s="64"/>
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="132" t="s">
+      <c r="A16" s="124" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="63"/>
       <c r="C16" s="57"/>
-      <c r="D16" s="125" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="125" t="s">
+      <c r="D16" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="126" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="129">
+      <c r="F16" s="139">
         <v>1</v>
       </c>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="132"/>
+      <c r="A17" s="124"/>
       <c r="B17" s="63" t="s">
         <v>224</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>225</v>
       </c>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="129"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="139"/>
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="132"/>
+      <c r="A18" s="124"/>
       <c r="B18" s="64"/>
       <c r="C18" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="130"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="140"/>
       <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="131" t="s">
+      <c r="A19" s="137" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="66"/>
-      <c r="D19" s="126" t="s">
+      <c r="D19" s="127" t="s">
         <v>227</v>
       </c>
       <c r="E19" s="63"/>
@@ -8815,23 +8824,23 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="132"/>
+      <c r="A20" s="124"/>
       <c r="B20" s="66"/>
       <c r="C20" s="66"/>
-      <c r="D20" s="126"/>
+      <c r="D20" s="127"/>
       <c r="E20" s="63"/>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="132"/>
+      <c r="A21" s="124"/>
       <c r="B21" s="66" t="s">
         <v>228</v>
       </c>
       <c r="C21" s="66" t="s">
         <v>229</v>
       </c>
-      <c r="D21" s="126"/>
+      <c r="D21" s="127"/>
       <c r="E21" s="63" t="s">
         <v>185</v>
       </c>
@@ -8841,34 +8850,34 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="132"/>
+      <c r="A22" s="124"/>
       <c r="B22" s="66" t="s">
         <v>231</v>
       </c>
       <c r="C22" s="66"/>
-      <c r="D22" s="126"/>
+      <c r="D22" s="127"/>
       <c r="E22" s="63"/>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="133"/>
+      <c r="A23" s="125"/>
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
-      <c r="D23" s="127"/>
+      <c r="D23" s="128"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="132" t="s">
+      <c r="A24" s="124" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="78"/>
       <c r="C24" s="62" t="s">
         <v>232</v>
       </c>
-      <c r="D24" s="121" t="s">
+      <c r="D24" s="111" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="65" t="s">
@@ -8878,30 +8887,30 @@
       <c r="G24" s="62"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="132"/>
+      <c r="A25" s="124"/>
       <c r="B25" s="83"/>
       <c r="C25" s="63"/>
-      <c r="D25" s="122"/>
+      <c r="D25" s="112"/>
       <c r="E25" s="66"/>
       <c r="F25" s="66"/>
       <c r="G25" s="63"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="132"/>
+      <c r="A26" s="124"/>
       <c r="B26" s="94"/>
       <c r="C26" s="64"/>
-      <c r="D26" s="122"/>
+      <c r="D26" s="112"/>
       <c r="E26" s="66"/>
       <c r="F26" s="67"/>
       <c r="G26" s="64"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="131" t="s">
+      <c r="A27" s="137" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="66"/>
       <c r="C27" s="66"/>
-      <c r="D27" s="125" t="s">
+      <c r="D27" s="126" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="62"/>
@@ -8909,14 +8918,14 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="132"/>
+      <c r="A28" s="124"/>
       <c r="B28" s="66" t="s">
         <v>220</v>
       </c>
       <c r="C28" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="D28" s="126"/>
+      <c r="D28" s="127"/>
       <c r="E28" s="63" t="s">
         <v>222</v>
       </c>
@@ -8926,12 +8935,12 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="132"/>
+      <c r="A29" s="124"/>
       <c r="B29" s="66" t="s">
         <v>221</v>
       </c>
       <c r="C29" s="66"/>
-      <c r="D29" s="126"/>
+      <c r="D29" s="127"/>
       <c r="E29" s="64"/>
       <c r="F29" s="60" t="s">
         <v>130</v>
@@ -8939,25 +8948,25 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="131" t="s">
+      <c r="A30" s="137" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="65"/>
       <c r="C30" s="65"/>
-      <c r="D30" s="128"/>
+      <c r="D30" s="138"/>
       <c r="E30" s="60"/>
       <c r="F30" s="59"/>
       <c r="G30" s="59"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="132"/>
+      <c r="A31" s="124"/>
       <c r="B31" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C31" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="D31" s="129"/>
+      <c r="D31" s="139"/>
       <c r="E31" s="60" t="s">
         <v>168</v>
       </c>
@@ -8965,12 +8974,12 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="132"/>
+      <c r="A32" s="124"/>
       <c r="B32" s="66"/>
       <c r="C32" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="D32" s="129"/>
+      <c r="D32" s="139"/>
       <c r="E32" s="60"/>
       <c r="F32" s="60" t="s">
         <v>170</v>
@@ -8978,30 +8987,30 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="132"/>
+      <c r="A33" s="124"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66"/>
-      <c r="D33" s="129"/>
+      <c r="D33" s="139"/>
       <c r="E33" s="60"/>
       <c r="F33" s="60"/>
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="133"/>
+      <c r="A34" s="125"/>
       <c r="B34" s="66"/>
       <c r="C34" s="67"/>
-      <c r="D34" s="130"/>
+      <c r="D34" s="140"/>
       <c r="E34" s="60"/>
       <c r="F34" s="60"/>
       <c r="G34" s="61"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="132" t="s">
+      <c r="A35" s="124" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="62"/>
       <c r="C35" s="57"/>
-      <c r="D35" s="129" t="s">
+      <c r="D35" s="139" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="92"/>
@@ -9009,12 +9018,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="132"/>
+      <c r="A36" s="124"/>
       <c r="B36" s="63"/>
       <c r="C36" s="66" t="s">
         <v>237</v>
       </c>
-      <c r="D36" s="129"/>
+      <c r="D36" s="139"/>
       <c r="E36" s="57" t="s">
         <v>238</v>
       </c>
@@ -9024,35 +9033,45 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="132"/>
+      <c r="A37" s="124"/>
       <c r="B37" s="63" t="s">
         <v>221</v>
       </c>
       <c r="C37" s="46"/>
-      <c r="D37" s="129"/>
+      <c r="D37" s="139"/>
       <c r="E37" s="57"/>
       <c r="F37" s="76"/>
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="132"/>
+      <c r="A38" s="124"/>
       <c r="B38" s="63"/>
-      <c r="D38" s="129"/>
+      <c r="D38" s="139"/>
       <c r="E38" s="57"/>
       <c r="F38" s="76"/>
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="133"/>
+      <c r="A39" s="125"/>
       <c r="B39" s="64"/>
       <c r="C39" s="58"/>
-      <c r="D39" s="130"/>
+      <c r="D39" s="140"/>
       <c r="E39" s="58"/>
       <c r="F39" s="64"/>
       <c r="G39" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="D27:D29"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -9065,16 +9084,6 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="E16:E18"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="D27:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EC6E674-42F9-423E-ADB2-1B08C6E7794B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DDD2F49-D6BB-4061-82E6-F5BD47C31795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="40" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="19-04-2022" sheetId="50" r:id="rId11"/>
     <sheet name="20-04-2022" sheetId="51" r:id="rId12"/>
     <sheet name="21-04-2022" sheetId="53" r:id="rId13"/>
+    <sheet name="22-04-2022" sheetId="54" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="392">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1160,6 +1161,12 @@
     <t>Helping to do the datamodel</t>
   </si>
   <si>
+    <t>meeting with rafi and doing the MOM changes(naming conventions , identify more  methods)</t>
+  </si>
+  <si>
+    <t>3.5v hours</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reviewed the complete flow of the prototype </t>
   </si>
   <si>
@@ -1172,7 +1179,139 @@
     <t xml:space="preserve"> Rework on Data model </t>
   </si>
   <si>
-    <t>Reviewed services</t>
+    <t>HTML Layout for Requester Award Page</t>
+  </si>
+  <si>
+    <t>Discussed Data model,physical model</t>
+  </si>
+  <si>
+    <t>1 hr 30 mins,1hr</t>
+  </si>
+  <si>
+    <t>Reworked on protype</t>
+  </si>
+  <si>
+    <t>2 hrs</t>
+  </si>
+  <si>
+    <t>Worked On class diagram</t>
+  </si>
+  <si>
+    <t>Worked on Service Interaction</t>
+  </si>
+  <si>
+    <t>Meeting with Rafi</t>
+  </si>
+  <si>
+    <t>1 hr 45 mins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin HTML Home page </t>
+  </si>
+  <si>
+    <t>Explore about Sytem Architecture and System Architecture Developed (include services analyzed)</t>
+  </si>
+  <si>
+    <t>15 mins</t>
+  </si>
+  <si>
+    <t>EF (Basics)</t>
+  </si>
+  <si>
+    <t>Reworked on prototype (breadcrumbs, Award type filters)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review with Rafi(Prototype and Data Model) </t>
+  </si>
+  <si>
+    <t>HLD(Non functional requirements)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30 mins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviewed DataModel </t>
+  </si>
+  <si>
+    <t>1hr 30 mins</t>
+  </si>
+  <si>
+    <t>Review meeting with Rafi - 1hr 45mins</t>
+  </si>
+  <si>
+    <t>5.15hrs</t>
+  </si>
+  <si>
+    <t>Team Meeting - 30 mins</t>
+  </si>
+  <si>
+    <t>System Architecture - 1hr</t>
+  </si>
+  <si>
+    <t>Database Diagram - 2hrs</t>
+  </si>
+  <si>
+    <t>Meeting with Rafi(Prototype, DataModel)</t>
+  </si>
+  <si>
+    <t>1hr45mins</t>
+  </si>
+  <si>
+    <t>Reviewed Physical Model, Data Model</t>
+  </si>
+  <si>
+    <t>1hr30min</t>
+  </si>
+  <si>
+    <t>Discussion About Services</t>
+  </si>
+  <si>
+    <t>Reworked on home page layout</t>
+  </si>
+  <si>
+    <t>Reviewed(Data model,physical model,services)</t>
+  </si>
+  <si>
+    <t>1hr,1hr</t>
+  </si>
+  <si>
+    <t>Reworked on prototype</t>
+  </si>
+  <si>
+    <t>meeting with rafi</t>
+  </si>
+  <si>
+    <t>1hr 45mins</t>
+  </si>
+  <si>
+    <t>Meet Rafi for team clarification</t>
+  </si>
+  <si>
+    <t>Session with rafi (Data model review)</t>
+  </si>
+  <si>
+    <t>Correct the mistakes in data model with team</t>
+  </si>
+  <si>
+    <t>Reviewed the system architecture, physical model</t>
+  </si>
+  <si>
+    <t>Standup meeting</t>
+  </si>
+  <si>
+    <t>Checked the prototype with datamodel operations</t>
+  </si>
+  <si>
+    <t>Disabling  feature for organisation , designation, department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking the Datamodel with  prototype </t>
+  </si>
+  <si>
+    <t>Checking the Entities in the physical model</t>
+  </si>
+  <si>
+    <t>Helping to do the html layout</t>
   </si>
 </sst>
 </file>
@@ -1354,7 +1493,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1770,13 +1909,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2071,6 +2223,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2089,35 +2296,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2125,15 +2326,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2158,18 +2350,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2179,6 +2359,18 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2188,44 +2380,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3032,12 +3209,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="143" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="146" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -3049,36 +3226,36 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="130"/>
+      <c r="A3" s="144"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="133"/>
+      <c r="D3" s="147"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="131"/>
+      <c r="A4" s="145"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="134"/>
+      <c r="D4" s="148"/>
       <c r="E4" s="58"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="149" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="D5" s="112" t="s">
+      <c r="D5" s="131" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="63" t="s">
@@ -3088,12 +3265,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="135"/>
+      <c r="A6" s="149"/>
       <c r="B6" s="66"/>
       <c r="C6" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="D6" s="112"/>
+      <c r="D6" s="131"/>
       <c r="E6" s="63" t="s">
         <v>243</v>
       </c>
@@ -3101,12 +3278,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="135"/>
+      <c r="A7" s="149"/>
       <c r="B7" s="66"/>
       <c r="C7" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="112"/>
+      <c r="D7" s="131"/>
       <c r="E7" s="63" t="s">
         <v>180</v>
       </c>
@@ -3114,21 +3291,21 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="136"/>
+      <c r="A8" s="150"/>
       <c r="B8" s="66"/>
       <c r="C8" s="64"/>
-      <c r="D8" s="112"/>
+      <c r="D8" s="131"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="135" t="s">
+      <c r="A9" s="149" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="62"/>
       <c r="C9" s="57"/>
-      <c r="D9" s="126" t="s">
+      <c r="D9" s="134" t="s">
         <v>142</v>
       </c>
       <c r="E9" s="65"/>
@@ -3136,14 +3313,14 @@
       <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="135"/>
+      <c r="A10" s="149"/>
       <c r="B10" s="63" t="s">
         <v>216</v>
       </c>
       <c r="C10" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="D10" s="127"/>
+      <c r="D10" s="135"/>
       <c r="E10" s="66" t="s">
         <v>106</v>
       </c>
@@ -3153,23 +3330,23 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="136"/>
+      <c r="A11" s="150"/>
       <c r="B11" s="63"/>
       <c r="C11" s="57"/>
-      <c r="D11" s="128"/>
+      <c r="D11" s="136"/>
       <c r="E11" s="67"/>
       <c r="F11" s="64"/>
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="124" t="s">
+      <c r="A12" s="141" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="65"/>
       <c r="C12" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="D12" s="111" t="s">
+      <c r="D12" s="130" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="63">
@@ -3179,12 +3356,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="124"/>
+      <c r="A13" s="141"/>
       <c r="B13" s="66"/>
       <c r="C13" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="112"/>
+      <c r="D13" s="131"/>
       <c r="E13" s="63" t="s">
         <v>230</v>
       </c>
@@ -3192,12 +3369,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="124"/>
+      <c r="A14" s="141"/>
       <c r="B14" s="66"/>
       <c r="C14" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="112"/>
+      <c r="D14" s="131"/>
       <c r="E14" s="63" t="s">
         <v>185</v>
       </c>
@@ -3205,12 +3382,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="124"/>
+      <c r="A15" s="141"/>
       <c r="B15" s="67" t="s">
         <v>248</v>
       </c>
       <c r="C15" s="64"/>
-      <c r="D15" s="112"/>
+      <c r="D15" s="131"/>
       <c r="E15" s="63"/>
       <c r="F15" s="63" t="s">
         <v>194</v>
@@ -3218,50 +3395,50 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="137" t="s">
+      <c r="A16" s="140" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="63"/>
       <c r="C16" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="D16" s="126" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="126" t="s">
+      <c r="D16" s="134" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="134" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="138">
+      <c r="F16" s="137">
         <v>1</v>
       </c>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="124"/>
+      <c r="A17" s="141"/>
       <c r="B17" s="63" t="s">
         <v>224</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>250</v>
       </c>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="139"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="138"/>
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="124"/>
+      <c r="A18" s="141"/>
       <c r="B18" s="64"/>
       <c r="C18" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="140"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="139"/>
       <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="137" t="s">
+      <c r="A19" s="140" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="66" t="s">
@@ -3270,7 +3447,7 @@
       <c r="C19" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="D19" s="127" t="s">
+      <c r="D19" s="135" t="s">
         <v>227</v>
       </c>
       <c r="E19" s="63" t="s">
@@ -3280,14 +3457,14 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="124"/>
+      <c r="A20" s="141"/>
       <c r="B20" s="66" t="s">
         <v>248</v>
       </c>
       <c r="C20" s="66" t="s">
         <v>253</v>
       </c>
-      <c r="D20" s="127"/>
+      <c r="D20" s="135"/>
       <c r="E20" s="63" t="s">
         <v>185</v>
       </c>
@@ -3297,14 +3474,14 @@
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="124"/>
+      <c r="A21" s="141"/>
       <c r="B21" s="66" t="s">
         <v>255</v>
       </c>
       <c r="C21" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="D21" s="127"/>
+      <c r="D21" s="135"/>
       <c r="E21" s="63" t="s">
         <v>252</v>
       </c>
@@ -3312,25 +3489,25 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="124"/>
+      <c r="A22" s="141"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66"/>
-      <c r="D22" s="127"/>
+      <c r="D22" s="135"/>
       <c r="E22" s="63"/>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="125"/>
+      <c r="A23" s="142"/>
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
-      <c r="D23" s="128"/>
+      <c r="D23" s="136"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="124" t="s">
+      <c r="A24" s="141" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="78" t="s">
@@ -3339,7 +3516,7 @@
       <c r="C24" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="D24" s="111" t="s">
+      <c r="D24" s="130" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="62" t="s">
@@ -3351,12 +3528,12 @@
       <c r="G24" s="59"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="124"/>
+      <c r="A25" s="141"/>
       <c r="B25" s="79"/>
       <c r="C25" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D25" s="112"/>
+      <c r="D25" s="131"/>
       <c r="E25" s="63" t="s">
         <v>257</v>
       </c>
@@ -3364,12 +3541,12 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="124"/>
+      <c r="A26" s="141"/>
       <c r="B26" s="80"/>
       <c r="C26" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D26" s="112"/>
+      <c r="D26" s="131"/>
       <c r="E26" s="63" t="s">
         <v>185</v>
       </c>
@@ -3377,21 +3554,21 @@
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="124"/>
+      <c r="A27" s="141"/>
       <c r="B27" s="81"/>
       <c r="C27" s="64"/>
-      <c r="D27" s="113"/>
+      <c r="D27" s="132"/>
       <c r="E27" s="63"/>
       <c r="F27" s="61"/>
       <c r="G27" s="61"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="137" t="s">
+      <c r="A28" s="140" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="66"/>
       <c r="C28" s="66"/>
-      <c r="D28" s="126" t="s">
+      <c r="D28" s="134" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="62"/>
@@ -3399,14 +3576,14 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="124"/>
+      <c r="A29" s="141"/>
       <c r="B29" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C29" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D29" s="127"/>
+      <c r="D29" s="135"/>
       <c r="E29" s="63" t="s">
         <v>106</v>
       </c>
@@ -3414,23 +3591,23 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="124"/>
+      <c r="A30" s="141"/>
       <c r="B30" s="66"/>
       <c r="C30" s="66"/>
-      <c r="D30" s="127"/>
+      <c r="D30" s="135"/>
       <c r="E30" s="64"/>
       <c r="F30" s="60"/>
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="137" t="s">
+      <c r="A31" s="140" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="65"/>
       <c r="C31" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="138"/>
+      <c r="D31" s="137"/>
       <c r="E31" s="60" t="s">
         <v>171</v>
       </c>
@@ -3438,14 +3615,14 @@
       <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="124"/>
+      <c r="A32" s="141"/>
       <c r="B32" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="D32" s="139"/>
+      <c r="D32" s="138"/>
       <c r="E32" s="60" t="s">
         <v>168</v>
       </c>
@@ -3453,12 +3630,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="124"/>
+      <c r="A33" s="141"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66" t="s">
         <v>259</v>
       </c>
-      <c r="D33" s="139"/>
+      <c r="D33" s="138"/>
       <c r="E33" s="60"/>
       <c r="F33" s="60" t="s">
         <v>170</v>
@@ -3466,32 +3643,32 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="124"/>
+      <c r="A34" s="141"/>
       <c r="B34" s="66"/>
       <c r="C34" s="66"/>
-      <c r="D34" s="139"/>
+      <c r="D34" s="138"/>
       <c r="E34" s="60"/>
       <c r="F34" s="60"/>
       <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="125"/>
+      <c r="A35" s="142"/>
       <c r="B35" s="66"/>
       <c r="C35" s="67"/>
-      <c r="D35" s="140"/>
+      <c r="D35" s="139"/>
       <c r="E35" s="60"/>
       <c r="F35" s="60"/>
       <c r="G35" s="61"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="124" t="s">
+      <c r="A36" s="141" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="62"/>
       <c r="C36" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="D36" s="127" t="s">
+      <c r="D36" s="135" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="82" t="s">
@@ -3501,12 +3678,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="124"/>
+      <c r="A37" s="141"/>
       <c r="B37" s="63"/>
       <c r="C37" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="D37" s="127"/>
+      <c r="D37" s="135"/>
       <c r="E37" s="66" t="s">
         <v>170</v>
       </c>
@@ -3514,14 +3691,14 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="124"/>
+      <c r="A38" s="141"/>
       <c r="B38" s="63" t="s">
         <v>248</v>
       </c>
       <c r="C38" s="60" t="s">
         <v>260</v>
       </c>
-      <c r="D38" s="127"/>
+      <c r="D38" s="135"/>
       <c r="E38" s="66" t="s">
         <v>171</v>
       </c>
@@ -3531,11 +3708,11 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="124"/>
+      <c r="A39" s="141"/>
       <c r="B39" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="D39" s="127"/>
+      <c r="D39" s="135"/>
       <c r="E39" s="66"/>
       <c r="F39" s="93" t="s">
         <v>171</v>
@@ -3543,26 +3720,16 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="125"/>
+      <c r="A40" s="142"/>
       <c r="B40" s="64"/>
       <c r="C40" s="58"/>
-      <c r="D40" s="128"/>
+      <c r="D40" s="136"/>
       <c r="E40" s="67"/>
       <c r="F40" s="64"/>
       <c r="G40" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="D28:D30"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -3575,6 +3742,16 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="E16:E18"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="D28:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3623,12 +3800,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="143" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="146" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -3640,36 +3817,36 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="130"/>
+      <c r="A3" s="144"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="133"/>
+      <c r="D3" s="147"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="131"/>
+      <c r="A4" s="145"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
-      <c r="D4" s="134"/>
+      <c r="D4" s="148"/>
       <c r="E4" s="57"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="149" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="127" t="s">
+      <c r="D5" s="135" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="84" t="s">
@@ -3679,14 +3856,14 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="135"/>
+      <c r="A6" s="149"/>
       <c r="B6" s="66" t="s">
         <v>255</v>
       </c>
       <c r="C6" s="66" t="s">
         <v>262</v>
       </c>
-      <c r="D6" s="127"/>
+      <c r="D6" s="135"/>
       <c r="E6" s="63" t="s">
         <v>263</v>
       </c>
@@ -3694,12 +3871,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="135"/>
+      <c r="A7" s="149"/>
       <c r="B7" s="66"/>
       <c r="C7" s="66" t="s">
         <v>264</v>
       </c>
-      <c r="D7" s="127"/>
+      <c r="D7" s="135"/>
       <c r="E7" s="63" t="s">
         <v>263</v>
       </c>
@@ -3707,12 +3884,12 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="135"/>
+      <c r="A8" s="149"/>
       <c r="B8" s="66" t="s">
         <v>265</v>
       </c>
       <c r="C8" s="66"/>
-      <c r="D8" s="127"/>
+      <c r="D8" s="135"/>
       <c r="E8" s="63" t="s">
         <v>241</v>
       </c>
@@ -3720,12 +3897,12 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="136"/>
+      <c r="A9" s="150"/>
       <c r="B9" s="66" t="s">
         <v>266</v>
       </c>
       <c r="C9" s="66"/>
-      <c r="D9" s="127"/>
+      <c r="D9" s="135"/>
       <c r="E9" s="64" t="s">
         <v>241</v>
       </c>
@@ -3733,14 +3910,14 @@
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="149" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="62"/>
       <c r="C10" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D10" s="126" t="s">
+      <c r="D10" s="134" t="s">
         <v>142</v>
       </c>
       <c r="E10" s="85" t="s">
@@ -3750,14 +3927,14 @@
       <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="135"/>
+      <c r="A11" s="149"/>
       <c r="B11" s="63" t="s">
         <v>267</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="D11" s="127"/>
+      <c r="D11" s="135"/>
       <c r="E11" s="63" t="s">
         <v>263</v>
       </c>
@@ -3767,14 +3944,14 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="136"/>
+      <c r="A12" s="150"/>
       <c r="B12" s="63" t="s">
         <v>269</v>
       </c>
       <c r="C12" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="D12" s="128"/>
+      <c r="D12" s="136"/>
       <c r="E12" s="66"/>
       <c r="F12" s="64" t="s">
         <v>180</v>
@@ -3782,7 +3959,7 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="124" t="s">
+      <c r="A13" s="141" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="100" t="s">
@@ -3791,7 +3968,7 @@
       <c r="C13" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="111" t="s">
+      <c r="D13" s="130" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="84" t="s">
@@ -3803,12 +3980,12 @@
       <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="124"/>
+      <c r="A14" s="141"/>
       <c r="B14" s="63"/>
       <c r="C14" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="D14" s="112"/>
+      <c r="D14" s="131"/>
       <c r="E14" s="63" t="s">
         <v>273</v>
       </c>
@@ -3816,12 +3993,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="124"/>
+      <c r="A15" s="141"/>
       <c r="B15" s="64"/>
       <c r="C15" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="D15" s="112"/>
+      <c r="D15" s="131"/>
       <c r="E15" s="64" t="s">
         <v>173</v>
       </c>
@@ -3829,57 +4006,57 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="137" t="s">
+      <c r="A16" s="140" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="63"/>
       <c r="C16" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="D16" s="126" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="127" t="s">
+      <c r="D16" s="134" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="135" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="138">
+      <c r="F16" s="137">
         <v>1</v>
       </c>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="124"/>
+      <c r="A17" s="141"/>
       <c r="B17" s="63" t="s">
         <v>276</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>277</v>
       </c>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="139"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="138"/>
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="124"/>
+      <c r="A18" s="141"/>
       <c r="B18" s="63"/>
       <c r="C18" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="D18" s="128"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="140"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="139"/>
       <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="137" t="s">
+      <c r="A19" s="140" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="62"/>
       <c r="C19" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D19" s="127" t="s">
+      <c r="D19" s="135" t="s">
         <v>227</v>
       </c>
       <c r="E19" s="84" t="s">
@@ -3889,12 +4066,12 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="124"/>
+      <c r="A20" s="141"/>
       <c r="B20" s="63"/>
       <c r="C20" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="127"/>
+      <c r="D20" s="135"/>
       <c r="E20" s="63" t="s">
         <v>185</v>
       </c>
@@ -3902,12 +4079,12 @@
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="124"/>
+      <c r="A21" s="141"/>
       <c r="B21" s="76"/>
       <c r="C21" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="D21" s="127"/>
+      <c r="D21" s="135"/>
       <c r="E21" s="63"/>
       <c r="F21" s="60" t="s">
         <v>185</v>
@@ -3915,12 +4092,12 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="124"/>
+      <c r="A22" s="141"/>
       <c r="B22" s="63" t="s">
         <v>255</v>
       </c>
       <c r="C22" s="57"/>
-      <c r="D22" s="127"/>
+      <c r="D22" s="135"/>
       <c r="E22" s="63"/>
       <c r="F22" s="60" t="s">
         <v>222</v>
@@ -3928,14 +4105,14 @@
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="141" t="s">
+      <c r="A23" s="151" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="86"/>
       <c r="C23" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D23" s="111" t="s">
+      <c r="D23" s="130" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="84" t="s">
@@ -3947,14 +4124,14 @@
       <c r="G23" s="59"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="142"/>
+      <c r="A24" s="152"/>
       <c r="B24" s="87" t="s">
         <v>271</v>
       </c>
       <c r="C24" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="D24" s="112"/>
+      <c r="D24" s="131"/>
       <c r="E24" s="63" t="s">
         <v>273</v>
       </c>
@@ -3962,12 +4139,12 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="142"/>
+      <c r="A25" s="152"/>
       <c r="B25" s="88"/>
       <c r="C25" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="D25" s="112"/>
+      <c r="D25" s="131"/>
       <c r="E25" s="63" t="s">
         <v>173</v>
       </c>
@@ -3975,21 +4152,21 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="143"/>
+      <c r="A26" s="153"/>
       <c r="B26" s="95"/>
       <c r="C26" s="61"/>
-      <c r="D26" s="112"/>
+      <c r="D26" s="131"/>
       <c r="E26" s="64"/>
       <c r="F26" s="61"/>
       <c r="G26" s="61"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="124" t="s">
+      <c r="A27" s="141" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="62"/>
       <c r="C27" s="57"/>
-      <c r="D27" s="138" t="s">
+      <c r="D27" s="137" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="60"/>
@@ -3997,12 +4174,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="124"/>
+      <c r="A28" s="141"/>
       <c r="B28" s="63"/>
       <c r="C28" s="57" t="s">
         <v>280</v>
       </c>
-      <c r="D28" s="139"/>
+      <c r="D28" s="138"/>
       <c r="E28" s="60" t="s">
         <v>180</v>
       </c>
@@ -4010,14 +4187,14 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="124"/>
+      <c r="A29" s="141"/>
       <c r="B29" s="63" t="s">
         <v>269</v>
       </c>
       <c r="C29" s="57" t="s">
         <v>281</v>
       </c>
-      <c r="D29" s="139"/>
+      <c r="D29" s="138"/>
       <c r="E29" s="60" t="s">
         <v>180</v>
       </c>
@@ -4040,14 +4217,14 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="124" t="s">
+      <c r="A31" s="141" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="66"/>
       <c r="C31" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D31" s="127"/>
+      <c r="D31" s="135"/>
       <c r="E31" s="84" t="s">
         <v>173</v>
       </c>
@@ -4055,14 +4232,14 @@
       <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="124"/>
+      <c r="A32" s="141"/>
       <c r="B32" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="D32" s="127"/>
+      <c r="D32" s="135"/>
       <c r="E32" s="63" t="s">
         <v>168</v>
       </c>
@@ -4070,12 +4247,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="124"/>
+      <c r="A33" s="141"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="D33" s="127"/>
+      <c r="D33" s="135"/>
       <c r="E33" s="63"/>
       <c r="F33" s="60" t="s">
         <v>170</v>
@@ -4083,32 +4260,32 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="124"/>
+      <c r="A34" s="141"/>
       <c r="B34" s="66"/>
       <c r="C34" s="66"/>
-      <c r="D34" s="127"/>
+      <c r="D34" s="135"/>
       <c r="E34" s="63"/>
       <c r="F34" s="60"/>
       <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="125"/>
+      <c r="A35" s="142"/>
       <c r="B35" s="66"/>
       <c r="C35" s="66"/>
-      <c r="D35" s="128"/>
+      <c r="D35" s="136"/>
       <c r="E35" s="64"/>
       <c r="F35" s="60"/>
       <c r="G35" s="61"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="124" t="s">
+      <c r="A36" s="141" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="62"/>
       <c r="C36" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D36" s="111" t="s">
+      <c r="D36" s="130" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="85" t="s">
@@ -4118,12 +4295,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="124"/>
+      <c r="A37" s="141"/>
       <c r="B37" s="63"/>
       <c r="C37" s="60" t="s">
         <v>284</v>
       </c>
-      <c r="D37" s="112"/>
+      <c r="D37" s="131"/>
       <c r="E37" s="66" t="s">
         <v>170</v>
       </c>
@@ -4131,14 +4308,14 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="124"/>
+      <c r="A38" s="141"/>
       <c r="B38" s="63" t="s">
         <v>248</v>
       </c>
       <c r="C38" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="D38" s="112"/>
+      <c r="D38" s="131"/>
       <c r="E38" s="66" t="s">
         <v>170</v>
       </c>
@@ -4148,12 +4325,12 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="124"/>
+      <c r="A39" s="141"/>
       <c r="B39" s="98" t="s">
         <v>228</v>
       </c>
       <c r="C39" s="49"/>
-      <c r="D39" s="112"/>
+      <c r="D39" s="131"/>
       <c r="E39" s="66"/>
       <c r="F39" s="93" t="s">
         <v>170</v>
@@ -4161,26 +4338,16 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="125"/>
+      <c r="A40" s="142"/>
       <c r="B40" s="64"/>
       <c r="C40" s="61"/>
-      <c r="D40" s="113"/>
+      <c r="D40" s="132"/>
       <c r="E40" s="67"/>
       <c r="F40" s="64"/>
       <c r="G40" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="D27:D29"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -4193,6 +4360,16 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="E16:E18"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="D27:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4202,8 +4379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53787AF6-DADA-4A12-9844-18CC696737AE}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="C15" workbookViewId="0">
-      <selection sqref="A1:G43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4241,12 +4418,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="140" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="144" t="s">
+      <c r="D2" s="158" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -4258,36 +4435,36 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="124"/>
+      <c r="A3" s="141"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="145"/>
+      <c r="D3" s="159"/>
       <c r="E3" s="63"/>
       <c r="F3" s="60"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="125"/>
+      <c r="A4" s="142"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="146"/>
+      <c r="D4" s="160"/>
       <c r="E4" s="64"/>
       <c r="F4" s="61"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="149" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="112" t="s">
+      <c r="D5" s="131" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="98" t="s">
@@ -4297,14 +4474,14 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="135"/>
+      <c r="A6" s="149"/>
       <c r="B6" s="66" t="s">
         <v>228</v>
       </c>
       <c r="C6" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="D6" s="112"/>
+      <c r="D6" s="131"/>
       <c r="E6" s="63" t="s">
         <v>241</v>
       </c>
@@ -4312,12 +4489,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="135"/>
+      <c r="A7" s="149"/>
       <c r="B7" s="66"/>
       <c r="C7" s="87" t="s">
         <v>287</v>
       </c>
-      <c r="D7" s="112"/>
+      <c r="D7" s="131"/>
       <c r="E7" s="63" t="s">
         <v>288</v>
       </c>
@@ -4325,32 +4502,32 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="135"/>
+      <c r="A8" s="149"/>
       <c r="B8" s="66"/>
       <c r="C8" s="63"/>
-      <c r="D8" s="112"/>
+      <c r="D8" s="131"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="136"/>
+      <c r="A9" s="150"/>
       <c r="B9" s="66"/>
       <c r="C9" s="64"/>
-      <c r="D9" s="112"/>
+      <c r="D9" s="131"/>
       <c r="E9" s="64"/>
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="149" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="62"/>
       <c r="C10" s="63" t="s">
         <v>289</v>
       </c>
-      <c r="D10" s="126" t="s">
+      <c r="D10" s="134" t="s">
         <v>142</v>
       </c>
       <c r="E10" s="85" t="s">
@@ -4360,14 +4537,14 @@
       <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="135"/>
+      <c r="A11" s="149"/>
       <c r="B11" s="63" t="s">
         <v>290</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>291</v>
       </c>
-      <c r="D11" s="127"/>
+      <c r="D11" s="135"/>
       <c r="E11" s="63" t="s">
         <v>130</v>
       </c>
@@ -4377,14 +4554,14 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="136"/>
+      <c r="A12" s="150"/>
       <c r="B12" s="64" t="s">
         <v>269</v>
       </c>
       <c r="C12" s="69" t="s">
         <v>292</v>
       </c>
-      <c r="D12" s="127"/>
+      <c r="D12" s="135"/>
       <c r="E12" s="66" t="s">
         <v>288</v>
       </c>
@@ -4394,14 +4571,14 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="124" t="s">
+      <c r="A13" s="141" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="68"/>
       <c r="C13" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="111" t="s">
+      <c r="D13" s="130" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="84" t="s">
@@ -4413,23 +4590,23 @@
       <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="124"/>
+      <c r="A14" s="141"/>
       <c r="B14" s="68"/>
       <c r="C14" s="63" t="s">
         <v>293</v>
       </c>
-      <c r="D14" s="112"/>
+      <c r="D14" s="131"/>
       <c r="E14" s="98"/>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="124"/>
+      <c r="A15" s="141"/>
       <c r="B15" s="66"/>
       <c r="C15" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="D15" s="112"/>
+      <c r="D15" s="131"/>
       <c r="E15" s="63" t="s">
         <v>130</v>
       </c>
@@ -4437,12 +4614,12 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="124"/>
+      <c r="A16" s="141"/>
       <c r="B16" s="66"/>
       <c r="C16" s="63" t="s">
         <v>295</v>
       </c>
-      <c r="D16" s="112"/>
+      <c r="D16" s="131"/>
       <c r="E16" s="63" t="s">
         <v>296</v>
       </c>
@@ -4450,12 +4627,12 @@
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="124"/>
+      <c r="A17" s="141"/>
       <c r="B17" s="67"/>
       <c r="C17" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="D17" s="113"/>
+      <c r="D17" s="132"/>
       <c r="E17" s="64" t="s">
         <v>298</v>
       </c>
@@ -4463,57 +4640,57 @@
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="137" t="s">
+      <c r="A18" s="140" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="63"/>
       <c r="C18" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D18" s="127" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="127" t="s">
+      <c r="D18" s="135" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="135" t="s">
         <v>156</v>
       </c>
-      <c r="F18" s="138">
+      <c r="F18" s="137">
         <v>1</v>
       </c>
       <c r="G18" s="59"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="124"/>
+      <c r="A19" s="141"/>
       <c r="B19" s="63" t="s">
         <v>299</v>
       </c>
       <c r="C19" s="77" t="s">
         <v>300</v>
       </c>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="139"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="138"/>
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="124"/>
+      <c r="A20" s="141"/>
       <c r="B20" s="63"/>
       <c r="C20" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="D20" s="128"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="140"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="139"/>
       <c r="G20" s="61"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="137" t="s">
+      <c r="A21" s="140" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="62"/>
       <c r="C21" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D21" s="127" t="s">
+      <c r="D21" s="135" t="s">
         <v>227</v>
       </c>
       <c r="E21" s="84" t="s">
@@ -4523,12 +4700,12 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="124"/>
+      <c r="A22" s="141"/>
       <c r="B22" s="63"/>
       <c r="C22" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="D22" s="127"/>
+      <c r="D22" s="135"/>
       <c r="E22" s="63" t="s">
         <v>185</v>
       </c>
@@ -4536,12 +4713,12 @@
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="124"/>
+      <c r="A23" s="141"/>
       <c r="B23" s="76"/>
       <c r="C23" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="D23" s="127"/>
+      <c r="D23" s="135"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60" t="s">
         <v>185</v>
@@ -4549,12 +4726,12 @@
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="124"/>
+      <c r="A24" s="141"/>
       <c r="B24" s="63" t="s">
         <v>255</v>
       </c>
       <c r="C24" s="57"/>
-      <c r="D24" s="127"/>
+      <c r="D24" s="135"/>
       <c r="E24" s="63"/>
       <c r="F24" s="60" t="s">
         <v>222</v>
@@ -4562,14 +4739,14 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="141" t="s">
+      <c r="A25" s="151" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="86"/>
       <c r="C25" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D25" s="111" t="s">
+      <c r="D25" s="130" t="s">
         <v>24</v>
       </c>
       <c r="E25" s="84" t="s">
@@ -4581,12 +4758,12 @@
       <c r="G25" s="59"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="150"/>
+      <c r="A26" s="157"/>
       <c r="B26" s="97"/>
       <c r="C26" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="D26" s="112"/>
+      <c r="D26" s="131"/>
       <c r="E26" s="98" t="s">
         <v>130</v>
       </c>
@@ -4594,12 +4771,12 @@
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="142"/>
+      <c r="A27" s="152"/>
       <c r="B27" s="87"/>
       <c r="C27" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="D27" s="112"/>
+      <c r="D27" s="131"/>
       <c r="E27" s="63" t="s">
         <v>130</v>
       </c>
@@ -4607,12 +4784,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="142"/>
+      <c r="A28" s="152"/>
       <c r="B28" s="88"/>
       <c r="C28" s="63" t="s">
         <v>295</v>
       </c>
-      <c r="D28" s="112"/>
+      <c r="D28" s="131"/>
       <c r="E28" s="63" t="s">
         <v>296</v>
       </c>
@@ -4620,12 +4797,12 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="143"/>
+      <c r="A29" s="153"/>
       <c r="B29" s="95"/>
       <c r="C29" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="D29" s="112"/>
+      <c r="D29" s="131"/>
       <c r="E29" s="64" t="s">
         <v>298</v>
       </c>
@@ -4633,14 +4810,14 @@
       <c r="G29" s="61"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="124" t="s">
+      <c r="A30" s="141" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="62"/>
       <c r="C30" s="57" t="s">
         <v>280</v>
       </c>
-      <c r="D30" s="138" t="s">
+      <c r="D30" s="137" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="60" t="s">
@@ -4650,12 +4827,12 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="124"/>
+      <c r="A31" s="141"/>
       <c r="B31" s="63"/>
       <c r="C31" s="57" t="s">
         <v>291</v>
       </c>
-      <c r="D31" s="139"/>
+      <c r="D31" s="138"/>
       <c r="E31" s="60"/>
       <c r="F31" s="60" t="s">
         <v>130</v>
@@ -4663,14 +4840,14 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="124"/>
+      <c r="A32" s="141"/>
       <c r="B32" s="63" t="s">
         <v>255</v>
       </c>
       <c r="C32" s="96" t="s">
         <v>302</v>
       </c>
-      <c r="D32" s="139"/>
+      <c r="D32" s="138"/>
       <c r="E32" s="60" t="s">
         <v>191</v>
       </c>
@@ -4691,14 +4868,14 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="124" t="s">
+      <c r="A34" s="141" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="66"/>
       <c r="C34" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D34" s="127" t="s">
+      <c r="D34" s="135" t="s">
         <v>24</v>
       </c>
       <c r="E34" s="84" t="s">
@@ -4708,14 +4885,14 @@
       <c r="G34" s="59"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="124"/>
+      <c r="A35" s="141"/>
       <c r="B35" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C35" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="D35" s="127"/>
+      <c r="D35" s="135"/>
       <c r="E35" s="63" t="s">
         <v>168</v>
       </c>
@@ -4723,12 +4900,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="124"/>
+      <c r="A36" s="141"/>
       <c r="B36" s="66"/>
       <c r="C36" s="66" t="s">
         <v>303</v>
       </c>
-      <c r="D36" s="127"/>
+      <c r="D36" s="135"/>
       <c r="E36" s="63"/>
       <c r="F36" s="60" t="s">
         <v>170</v>
@@ -4736,12 +4913,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="124"/>
+      <c r="A37" s="141"/>
       <c r="B37" s="66"/>
       <c r="C37" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="D37" s="127"/>
+      <c r="D37" s="135"/>
       <c r="E37" s="63" t="s">
         <v>298</v>
       </c>
@@ -4749,23 +4926,23 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="125"/>
+      <c r="A38" s="142"/>
       <c r="B38" s="67"/>
       <c r="C38" s="66"/>
-      <c r="D38" s="127"/>
+      <c r="D38" s="135"/>
       <c r="E38" s="64"/>
       <c r="F38" s="60"/>
       <c r="G38" s="61"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="124" t="s">
+      <c r="A39" s="141" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="66"/>
       <c r="C39" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D39" s="147" t="s">
+      <c r="D39" s="154" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="77" t="s">
@@ -4775,12 +4952,12 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="124"/>
+      <c r="A40" s="141"/>
       <c r="B40" s="66"/>
       <c r="C40" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="D40" s="148"/>
+      <c r="D40" s="155"/>
       <c r="E40" s="57" t="s">
         <v>170</v>
       </c>
@@ -4788,14 +4965,14 @@
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="124"/>
+      <c r="A41" s="141"/>
       <c r="B41" s="66" t="s">
         <v>248</v>
       </c>
       <c r="C41" s="63" t="s">
         <v>304</v>
       </c>
-      <c r="D41" s="148"/>
+      <c r="D41" s="155"/>
       <c r="E41" s="57" t="s">
         <v>288</v>
       </c>
@@ -4805,38 +4982,28 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="124"/>
+      <c r="A42" s="141"/>
       <c r="B42" s="66" t="s">
         <v>305</v>
       </c>
       <c r="C42" s="76"/>
-      <c r="D42" s="148"/>
+      <c r="D42" s="155"/>
       <c r="F42" s="101" t="s">
         <v>239</v>
       </c>
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="125"/>
+      <c r="A43" s="142"/>
       <c r="B43" s="67"/>
       <c r="C43" s="99"/>
-      <c r="D43" s="149"/>
+      <c r="D43" s="156"/>
       <c r="E43" s="58"/>
       <c r="F43" s="64"/>
       <c r="G43" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="D30:D32"/>
     <mergeCell ref="F18:F20"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -4849,6 +5016,16 @@
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="E18:E20"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="D30:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4858,8 +5035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29BFE937-B8E4-40EB-B74B-BDF32F686EF8}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="E35" sqref="A1:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4897,12 +5074,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="141" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="66"/>
       <c r="C2" s="66"/>
-      <c r="D2" s="152" t="s">
+      <c r="D2" s="161" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="63" t="s">
@@ -4914,36 +5091,36 @@
       <c r="G2" s="60"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="124"/>
+      <c r="A3" s="141"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="145"/>
+      <c r="D3" s="159"/>
       <c r="E3" s="63"/>
       <c r="F3" s="60"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="125"/>
+      <c r="A4" s="142"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="146"/>
+      <c r="D4" s="160"/>
       <c r="E4" s="64"/>
       <c r="F4" s="61"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="149" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="112" t="s">
+      <c r="D5" s="131" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="98" t="s">
@@ -4953,14 +5130,14 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="135"/>
+      <c r="A6" s="149"/>
       <c r="B6" s="66" t="s">
         <v>228</v>
       </c>
       <c r="C6" s="63" t="s">
         <v>306</v>
       </c>
-      <c r="D6" s="112"/>
+      <c r="D6" s="131"/>
       <c r="E6" s="63" t="s">
         <v>307</v>
       </c>
@@ -4968,12 +5145,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="135"/>
+      <c r="A7" s="149"/>
       <c r="B7" s="66"/>
       <c r="C7" s="87" t="s">
         <v>308</v>
       </c>
-      <c r="D7" s="112"/>
+      <c r="D7" s="131"/>
       <c r="E7" s="63" t="s">
         <v>309</v>
       </c>
@@ -4981,12 +5158,12 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="135"/>
+      <c r="A8" s="149"/>
       <c r="B8" s="66"/>
       <c r="C8" s="64" t="s">
         <v>310</v>
       </c>
-      <c r="D8" s="112"/>
+      <c r="D8" s="131"/>
       <c r="E8" s="64" t="s">
         <v>311</v>
       </c>
@@ -4994,23 +5171,23 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="136"/>
+      <c r="A9" s="150"/>
       <c r="B9" s="66"/>
       <c r="C9" s="64"/>
-      <c r="D9" s="112"/>
+      <c r="D9" s="131"/>
       <c r="E9" s="64"/>
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="149" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="62"/>
       <c r="C10" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D10" s="126" t="s">
+      <c r="D10" s="134" t="s">
         <v>142</v>
       </c>
       <c r="E10" s="85" t="s">
@@ -5020,14 +5197,14 @@
       <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="135"/>
+      <c r="A11" s="149"/>
       <c r="B11" s="63" t="s">
         <v>313</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>314</v>
       </c>
-      <c r="D11" s="127"/>
+      <c r="D11" s="135"/>
       <c r="E11" s="63" t="s">
         <v>132</v>
       </c>
@@ -5035,12 +5212,12 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="135"/>
+      <c r="A12" s="149"/>
       <c r="B12" s="63"/>
       <c r="C12" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="D12" s="127"/>
+      <c r="D12" s="135"/>
       <c r="E12" s="66" t="s">
         <v>180</v>
       </c>
@@ -5048,23 +5225,23 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="136"/>
+      <c r="A13" s="150"/>
       <c r="B13" s="64"/>
       <c r="C13" s="58"/>
-      <c r="D13" s="127"/>
+      <c r="D13" s="135"/>
       <c r="E13" s="66"/>
       <c r="F13" s="64"/>
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="124" t="s">
+      <c r="A14" s="141" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="68"/>
       <c r="C14" s="107" t="s">
         <v>261</v>
       </c>
-      <c r="D14" s="111" t="s">
+      <c r="D14" s="130" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="84" t="s">
@@ -5074,12 +5251,12 @@
       <c r="G14" s="59"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="124"/>
+      <c r="A15" s="141"/>
       <c r="B15" s="68"/>
       <c r="C15" s="63" t="s">
         <v>316</v>
       </c>
-      <c r="D15" s="112"/>
+      <c r="D15" s="131"/>
       <c r="E15" s="98" t="s">
         <v>132</v>
       </c>
@@ -5087,12 +5264,12 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="124"/>
+      <c r="A16" s="141"/>
       <c r="B16" s="66"/>
       <c r="C16" s="63" t="s">
         <v>317</v>
       </c>
-      <c r="D16" s="112"/>
+      <c r="D16" s="131"/>
       <c r="E16" s="95" t="s">
         <v>132</v>
       </c>
@@ -5100,12 +5277,12 @@
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="124"/>
+      <c r="A17" s="141"/>
       <c r="B17" s="66" t="s">
         <v>318</v>
       </c>
       <c r="C17" s="63"/>
-      <c r="D17" s="112"/>
+      <c r="D17" s="131"/>
       <c r="E17" s="63"/>
       <c r="F17" s="60" t="s">
         <v>185</v>
@@ -5113,64 +5290,64 @@
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="124"/>
+      <c r="A18" s="141"/>
       <c r="B18" s="67"/>
       <c r="C18" s="64"/>
-      <c r="D18" s="113"/>
+      <c r="D18" s="132"/>
       <c r="E18" s="64"/>
       <c r="F18" s="60"/>
       <c r="G18" s="60"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="137" t="s">
+      <c r="A19" s="140" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="63"/>
       <c r="C19" s="63" t="s">
         <v>319</v>
       </c>
-      <c r="D19" s="127" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="127" t="s">
+      <c r="D19" s="135" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="135" t="s">
         <v>320</v>
       </c>
-      <c r="F19" s="138"/>
+      <c r="F19" s="137"/>
       <c r="G19" s="59"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="124"/>
+      <c r="A20" s="141"/>
       <c r="B20" s="63" t="s">
         <v>321</v>
       </c>
       <c r="C20" s="77" t="s">
         <v>322</v>
       </c>
-      <c r="D20" s="127"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="139"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="138"/>
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="124"/>
+      <c r="A21" s="141"/>
       <c r="B21" s="63"/>
       <c r="C21" s="58" t="s">
         <v>323</v>
       </c>
-      <c r="D21" s="128"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="140"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="139"/>
       <c r="G21" s="61"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="137" t="s">
+      <c r="A22" s="140" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="62"/>
       <c r="C22" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D22" s="127" t="s">
+      <c r="D22" s="135" t="s">
         <v>227</v>
       </c>
       <c r="E22" s="84" t="s">
@@ -5180,12 +5357,12 @@
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="124"/>
+      <c r="A23" s="141"/>
       <c r="B23" s="63"/>
       <c r="C23" s="57" t="s">
         <v>324</v>
       </c>
-      <c r="D23" s="127"/>
+      <c r="D23" s="135"/>
       <c r="E23" s="63" t="s">
         <v>176</v>
       </c>
@@ -5193,14 +5370,14 @@
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="124"/>
+      <c r="A24" s="141"/>
       <c r="B24" s="63" t="s">
         <v>325</v>
       </c>
       <c r="C24" s="57" t="s">
         <v>326</v>
       </c>
-      <c r="D24" s="127"/>
+      <c r="D24" s="135"/>
       <c r="E24" s="63" t="s">
         <v>185</v>
       </c>
@@ -5208,14 +5385,14 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="124"/>
+      <c r="A25" s="141"/>
       <c r="B25" s="63" t="s">
         <v>255</v>
       </c>
       <c r="C25" s="57" t="s">
         <v>327</v>
       </c>
-      <c r="D25" s="127"/>
+      <c r="D25" s="135"/>
       <c r="E25" s="63" t="s">
         <v>309</v>
       </c>
@@ -5225,14 +5402,14 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="141" t="s">
+      <c r="A26" s="151" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="78"/>
       <c r="C26" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D26" s="111" t="s">
+      <c r="D26" s="130" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="84" t="s">
@@ -5242,14 +5419,14 @@
       <c r="G26" s="59"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="150"/>
+      <c r="A27" s="157"/>
       <c r="B27" s="83" t="s">
         <v>328</v>
       </c>
       <c r="C27" s="98" t="s">
         <v>329</v>
       </c>
-      <c r="D27" s="112"/>
+      <c r="D27" s="131"/>
       <c r="E27" s="98" t="s">
         <v>330</v>
       </c>
@@ -5257,12 +5434,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="142"/>
+      <c r="A28" s="152"/>
       <c r="B28" s="68"/>
       <c r="C28" s="63" t="s">
         <v>331</v>
       </c>
-      <c r="D28" s="112"/>
+      <c r="D28" s="131"/>
       <c r="E28" s="63" t="s">
         <v>309</v>
       </c>
@@ -5270,12 +5447,12 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="142"/>
+      <c r="A29" s="152"/>
       <c r="B29" s="80"/>
       <c r="C29" s="63" t="s">
         <v>332</v>
       </c>
-      <c r="D29" s="112"/>
+      <c r="D29" s="131"/>
       <c r="E29" s="63" t="s">
         <v>173</v>
       </c>
@@ -5283,12 +5460,12 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="151"/>
-      <c r="B30" s="154"/>
+      <c r="A30" s="162"/>
+      <c r="B30" s="108"/>
       <c r="C30" s="63" t="s">
         <v>310</v>
       </c>
-      <c r="D30" s="112"/>
+      <c r="D30" s="131"/>
       <c r="E30" s="63" t="s">
         <v>311</v>
       </c>
@@ -5296,31 +5473,31 @@
       <c r="G30" s="61"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="155" t="s">
+      <c r="A31" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="156"/>
-      <c r="C31" s="157" t="s">
+      <c r="B31" s="109"/>
+      <c r="C31" s="110" t="s">
         <v>333</v>
       </c>
-      <c r="D31" s="158" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="156" t="s">
+      <c r="D31" s="164" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="109" t="s">
         <v>180</v>
       </c>
-      <c r="F31" s="156"/>
+      <c r="F31" s="109"/>
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="109"/>
+      <c r="A32" s="128"/>
       <c r="B32" s="60" t="s">
         <v>334</v>
       </c>
-      <c r="C32" s="153" t="s">
+      <c r="C32" s="57" t="s">
         <v>335</v>
       </c>
-      <c r="D32" s="139"/>
+      <c r="D32" s="138"/>
       <c r="E32" s="60" t="s">
         <v>132</v>
       </c>
@@ -5328,12 +5505,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="110"/>
+      <c r="A33" s="129"/>
       <c r="B33" s="61"/>
-      <c r="C33" s="159" t="s">
+      <c r="C33" s="111" t="s">
         <v>336</v>
       </c>
-      <c r="D33" s="140"/>
+      <c r="D33" s="139"/>
       <c r="E33" s="61"/>
       <c r="F33" s="61" t="s">
         <v>180</v>
@@ -5341,14 +5518,14 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="124" t="s">
+      <c r="A34" s="141" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="66"/>
       <c r="C34" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D34" s="127" t="s">
+      <c r="D34" s="135" t="s">
         <v>24</v>
       </c>
       <c r="E34" s="98" t="s">
@@ -5358,14 +5535,14 @@
       <c r="G34" s="59"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="124"/>
+      <c r="A35" s="141"/>
       <c r="B35" s="66" t="s">
         <v>337</v>
       </c>
       <c r="C35" s="68" t="s">
         <v>338</v>
       </c>
-      <c r="D35" s="127"/>
+      <c r="D35" s="135"/>
       <c r="E35" s="63" t="s">
         <v>170</v>
       </c>
@@ -5373,12 +5550,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="124"/>
+      <c r="A36" s="141"/>
       <c r="B36" s="66"/>
       <c r="C36" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="D36" s="127"/>
+      <c r="D36" s="135"/>
       <c r="E36" s="63" t="s">
         <v>241</v>
       </c>
@@ -5386,12 +5563,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="124"/>
+      <c r="A37" s="141"/>
       <c r="B37" s="66"/>
       <c r="C37" s="66" t="s">
         <v>340</v>
       </c>
-      <c r="D37" s="127"/>
+      <c r="D37" s="135"/>
       <c r="E37" s="63" t="s">
         <v>170</v>
       </c>
@@ -5399,23 +5576,27 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="125"/>
+      <c r="A38" s="142"/>
       <c r="B38" s="67"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="127"/>
-      <c r="E38" s="64"/>
+      <c r="C38" s="66" t="s">
+        <v>341</v>
+      </c>
+      <c r="D38" s="135"/>
+      <c r="E38" s="64" t="s">
+        <v>342</v>
+      </c>
       <c r="F38" s="60"/>
       <c r="G38" s="61"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="124" t="s">
+      <c r="A39" s="141" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="66"/>
       <c r="C39" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D39" s="147" t="s">
+      <c r="D39" s="154" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="46" t="s">
@@ -5425,27 +5606,27 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="124"/>
+      <c r="A40" s="141"/>
       <c r="B40" s="66"/>
-      <c r="C40" s="62" t="s">
-        <v>341</v>
-      </c>
-      <c r="D40" s="148"/>
+      <c r="C40" s="63" t="s">
+        <v>343</v>
+      </c>
+      <c r="D40" s="155"/>
       <c r="E40" s="77" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F40" s="63"/>
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="124"/>
+      <c r="A41" s="141"/>
       <c r="B41" s="66" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C41" s="63" t="s">
-        <v>344</v>
-      </c>
-      <c r="D41" s="148"/>
+        <v>346</v>
+      </c>
+      <c r="D41" s="155"/>
       <c r="E41" s="57" t="s">
         <v>170</v>
       </c>
@@ -5455,29 +5636,35 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="124"/>
+      <c r="A42" s="141"/>
       <c r="B42" s="66"/>
-      <c r="C42" s="93" t="s">
-        <v>345</v>
-      </c>
-      <c r="D42" s="148"/>
-      <c r="E42" s="46" t="s">
-        <v>263</v>
-      </c>
+      <c r="C42" s="93"/>
+      <c r="D42" s="155"/>
+      <c r="E42" s="46"/>
       <c r="F42" s="101"/>
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="125"/>
+      <c r="A43" s="142"/>
       <c r="B43" s="67"/>
       <c r="C43" s="99"/>
-      <c r="D43" s="149"/>
+      <c r="D43" s="156"/>
       <c r="E43" s="58"/>
       <c r="F43" s="64"/>
       <c r="G43" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="D31:D33"/>
     <mergeCell ref="F19:F21"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -5490,16 +5677,701 @@
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="E19:E21"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="D34:D38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA09234C-6E93-41E9-BD5A-8ADA5800AAB1}">
+  <dimension ref="A2:G48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" customWidth="1"/>
+    <col min="3" max="3" width="86.140625" customWidth="1"/>
+    <col min="4" max="7" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="45">
+      <c r="A2" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="102" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="141" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="161" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="60"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="141"/>
+      <c r="B4" s="66" t="s">
+        <v>347</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4" s="159"/>
+      <c r="E4" s="63" t="s">
+        <v>349</v>
+      </c>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="142"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="66" t="s">
+        <v>350</v>
+      </c>
+      <c r="D5" s="160"/>
+      <c r="E5" s="63" t="s">
+        <v>351</v>
+      </c>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="149" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="66"/>
+      <c r="C6" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="131" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="84" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="149"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="63" t="s">
+        <v>352</v>
+      </c>
+      <c r="D7" s="131"/>
+      <c r="E7" s="63" t="s">
+        <v>309</v>
+      </c>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="149"/>
+      <c r="B8" s="66" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="87" t="s">
+        <v>353</v>
+      </c>
+      <c r="D8" s="131"/>
+      <c r="E8" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="149"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="150"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="62"/>
+      <c r="C11" s="63" t="s">
+        <v>354</v>
+      </c>
+      <c r="D11" s="134" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="85" t="s">
+        <v>355</v>
+      </c>
+      <c r="F11" s="62"/>
+      <c r="G11" s="59"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="149"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" s="135"/>
+      <c r="E12" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="63"/>
+      <c r="G12" s="60"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="149"/>
+      <c r="B13" s="63" t="s">
+        <v>356</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>357</v>
+      </c>
+      <c r="D13" s="135"/>
+      <c r="E13" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="63" t="s">
+        <v>358</v>
+      </c>
+      <c r="G13" s="60"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="149"/>
+      <c r="B14" s="63" t="s">
+        <v>359</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>315</v>
+      </c>
+      <c r="D14" s="135"/>
+      <c r="E14" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="63"/>
+      <c r="G14" s="60"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="150"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="57" t="s">
+        <v>360</v>
+      </c>
+      <c r="D15" s="135"/>
+      <c r="E15" s="66" t="s">
+        <v>351</v>
+      </c>
+      <c r="F15" s="64"/>
+      <c r="G15" s="60"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="141" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="100"/>
+      <c r="C16" s="59" t="s">
+        <v>361</v>
+      </c>
+      <c r="D16" s="130" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="84" t="s">
+        <v>355</v>
+      </c>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="141"/>
+      <c r="B17" s="98" t="s">
+        <v>362</v>
+      </c>
+      <c r="C17" s="112" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="131"/>
+      <c r="E17" s="98" t="s">
+        <v>363</v>
+      </c>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="141"/>
+      <c r="B18" s="87" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>364</v>
+      </c>
+      <c r="D18" s="131"/>
+      <c r="E18" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="60" t="s">
+        <v>365</v>
+      </c>
+      <c r="G18" s="60"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="141"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="61" t="s">
+        <v>327</v>
+      </c>
+      <c r="D19" s="132"/>
+      <c r="E19" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="127" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="57"/>
+      <c r="C20" s="63" t="s">
+        <v>366</v>
+      </c>
+      <c r="D20" s="137" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="137" t="s">
+        <v>367</v>
+      </c>
+      <c r="F20" s="134"/>
+      <c r="G20" s="137"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="128"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="63" t="s">
+        <v>368</v>
+      </c>
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="138"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="128"/>
+      <c r="B22" s="60" t="s">
+        <v>321</v>
+      </c>
+      <c r="C22" s="77" t="s">
+        <v>369</v>
+      </c>
+      <c r="D22" s="138"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="138"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="128"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="57" t="s">
+        <v>370</v>
+      </c>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="135"/>
+      <c r="G23" s="138"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="127" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="56"/>
+      <c r="C24" s="116" t="s">
+        <v>371</v>
+      </c>
+      <c r="D24" s="130" t="s">
+        <v>227</v>
+      </c>
+      <c r="E24" s="117" t="s">
+        <v>372</v>
+      </c>
+      <c r="F24" s="65"/>
+      <c r="G24" s="62"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="128"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="D25" s="131"/>
+      <c r="E25" s="85" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="66"/>
+      <c r="G25" s="63"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="128"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="63" t="s">
+        <v>373</v>
+      </c>
+      <c r="D26" s="131"/>
+      <c r="E26" s="66" t="s">
+        <v>374</v>
+      </c>
+      <c r="F26" s="66"/>
+      <c r="G26" s="63"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="128"/>
+      <c r="B27" s="57" t="s">
+        <v>325</v>
+      </c>
+      <c r="C27" s="63" t="s">
+        <v>375</v>
+      </c>
+      <c r="D27" s="131"/>
+      <c r="E27" s="66" t="s">
+        <v>309</v>
+      </c>
+      <c r="F27" s="66"/>
+      <c r="G27" s="63"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="128"/>
+      <c r="B28" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="C28" s="64"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="67" t="s">
+        <v>309</v>
+      </c>
+      <c r="F28" s="67"/>
+      <c r="G28" s="64"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="165" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="113"/>
+      <c r="C29" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="D29" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="98" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A30" s="166"/>
+      <c r="B30" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="C30" s="98" t="s">
+        <v>377</v>
+      </c>
+      <c r="D30" s="131"/>
+      <c r="E30" s="98" t="s">
+        <v>378</v>
+      </c>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="167"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="63" t="s">
+        <v>379</v>
+      </c>
+      <c r="D31" s="131"/>
+      <c r="E31" s="63" t="s">
+        <v>309</v>
+      </c>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="167"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="63" t="s">
+        <v>380</v>
+      </c>
+      <c r="D32" s="131"/>
+      <c r="E32" s="63" t="s">
+        <v>381</v>
+      </c>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="168"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="63" t="s">
+        <v>382</v>
+      </c>
+      <c r="D33" s="131"/>
+      <c r="E33" s="63" t="s">
+        <v>311</v>
+      </c>
+      <c r="F33" s="60"/>
+      <c r="G33" s="61"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="128" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="109"/>
+      <c r="C34" s="110" t="s">
+        <v>383</v>
+      </c>
+      <c r="D34" s="164" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="109" t="s">
+        <v>191</v>
+      </c>
+      <c r="F34" s="109"/>
+      <c r="G34" s="60"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="128"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="57" t="s">
+        <v>384</v>
+      </c>
+      <c r="D35" s="138"/>
+      <c r="E35" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="128"/>
+      <c r="B36" s="60" t="s">
+        <v>385</v>
+      </c>
+      <c r="C36" s="57" t="s">
+        <v>386</v>
+      </c>
+      <c r="D36" s="138"/>
+      <c r="E36" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="128"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="57" t="s">
+        <v>387</v>
+      </c>
+      <c r="D37" s="138"/>
+      <c r="E37" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="129"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="139"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="60"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="141" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="66"/>
+      <c r="C39" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="D39" s="135" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="98" t="s">
+        <v>180</v>
+      </c>
+      <c r="F39" s="60"/>
+      <c r="G39" s="59"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="141"/>
+      <c r="B40" s="66" t="s">
+        <v>388</v>
+      </c>
+      <c r="C40" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D40" s="135"/>
+      <c r="E40" s="63" t="s">
+        <v>243</v>
+      </c>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="141"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66" t="s">
+        <v>390</v>
+      </c>
+      <c r="D41" s="135"/>
+      <c r="E41" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="141"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66" t="s">
+        <v>391</v>
+      </c>
+      <c r="D42" s="135"/>
+      <c r="E42" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="142"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="135"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="61"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="141" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="66"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="154"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="60"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="141"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="155"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="60"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="141"/>
+      <c r="B46" s="66" t="s">
+        <v>245</v>
+      </c>
+      <c r="C46" s="63" t="s">
+        <v>245</v>
+      </c>
+      <c r="D46" s="155"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="60"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="141"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="155"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="101"/>
+      <c r="G47" s="60"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="142"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="156"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="D29:D33"/>
     <mergeCell ref="A39:A43"/>
     <mergeCell ref="D39:D43"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="F20:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7251,7 +8123,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="121" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="47" t="s">
@@ -7260,7 +8132,7 @@
       <c r="C2" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="114" t="s">
+      <c r="D2" s="118" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="52" t="s">
@@ -7272,14 +8144,14 @@
       <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="119"/>
+      <c r="A3" s="122"/>
       <c r="B3" t="s">
         <v>128</v>
       </c>
       <c r="C3" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="115"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="46" t="s">
         <v>130</v>
       </c>
@@ -7287,11 +8159,11 @@
       <c r="G3" s="49"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="119"/>
+      <c r="A4" s="122"/>
       <c r="C4" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="115"/>
+      <c r="D4" s="119"/>
       <c r="E4" s="46" t="s">
         <v>132</v>
       </c>
@@ -7299,12 +8171,12 @@
       <c r="G4" s="49"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="120"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="50"/>
       <c r="C5" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="116"/>
+      <c r="D5" s="120"/>
       <c r="E5" s="55" t="s">
         <v>132</v>
       </c>
@@ -7312,7 +8184,7 @@
       <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="124" t="s">
         <v>134</v>
       </c>
       <c r="B6" t="s">
@@ -7321,7 +8193,7 @@
       <c r="C6" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="114" t="s">
+      <c r="D6" s="118" t="s">
         <v>137</v>
       </c>
       <c r="E6" s="46" t="s">
@@ -7331,11 +8203,11 @@
       <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="121"/>
+      <c r="A7" s="124"/>
       <c r="C7" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="115"/>
+      <c r="D7" s="119"/>
       <c r="E7" s="46" t="s">
         <v>118</v>
       </c>
@@ -7343,22 +8215,22 @@
       <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="121"/>
-      <c r="D8" s="115"/>
+      <c r="A8" s="124"/>
+      <c r="D8" s="119"/>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
       <c r="G8" s="49"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="121"/>
-      <c r="D9" s="115"/>
+      <c r="A9" s="124"/>
+      <c r="D9" s="119"/>
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
       <c r="G9" s="49"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="122"/>
-      <c r="D10" s="116"/>
+      <c r="A10" s="125"/>
+      <c r="D10" s="120"/>
       <c r="E10" s="46" t="s">
         <v>140</v>
       </c>
@@ -7366,7 +8238,7 @@
       <c r="G10" s="49"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="126" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -7375,7 +8247,7 @@
       <c r="C11" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="114" t="s">
+      <c r="D11" s="118" t="s">
         <v>142</v>
       </c>
       <c r="E11" s="52" t="s">
@@ -7385,11 +8257,11 @@
       <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="123"/>
+      <c r="A12" s="126"/>
       <c r="C12" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="115"/>
+      <c r="D12" s="119"/>
       <c r="E12" s="46"/>
       <c r="F12" s="46" t="s">
         <v>143</v>
@@ -7397,14 +8269,14 @@
       <c r="G12" s="49"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="123"/>
+      <c r="A13" s="126"/>
       <c r="B13" t="s">
         <v>145</v>
       </c>
       <c r="C13" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="115"/>
+      <c r="D13" s="119"/>
       <c r="E13" s="46" t="s">
         <v>143</v>
       </c>
@@ -7412,24 +8284,24 @@
       <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="123"/>
+      <c r="A14" s="126"/>
       <c r="C14" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="115"/>
+      <c r="D14" s="119"/>
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
       <c r="G14" s="49"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="123"/>
-      <c r="D15" s="116"/>
+      <c r="A15" s="126"/>
+      <c r="D15" s="120"/>
       <c r="E15" s="46"/>
       <c r="F15" s="46"/>
       <c r="G15" s="49"/>
     </row>
     <row r="16" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="127" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="47" t="s">
@@ -7438,7 +8310,7 @@
       <c r="C16" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="114" t="s">
+      <c r="D16" s="118" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="52" t="s">
@@ -7448,11 +8320,11 @@
       <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A17" s="109"/>
+      <c r="A17" s="128"/>
       <c r="C17" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="115"/>
+      <c r="D17" s="119"/>
       <c r="E17" s="46">
         <v>1.5</v>
       </c>
@@ -7460,11 +8332,11 @@
       <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A18" s="109"/>
+      <c r="A18" s="128"/>
       <c r="C18" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="115"/>
+      <c r="D18" s="119"/>
       <c r="E18" s="46"/>
       <c r="F18" s="46">
         <v>1.5</v>
@@ -7472,11 +8344,11 @@
       <c r="G18" s="49"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A19" s="109"/>
+      <c r="A19" s="128"/>
       <c r="C19" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="116"/>
+      <c r="D19" s="120"/>
       <c r="E19" s="46"/>
       <c r="F19" s="57">
         <v>0.5</v>
@@ -7484,7 +8356,7 @@
       <c r="G19" s="49"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="127" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="47" t="s">
@@ -7499,7 +8371,7 @@
       <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="109"/>
+      <c r="A21" s="128"/>
       <c r="C21" t="s">
         <v>154</v>
       </c>
@@ -7509,7 +8381,7 @@
       <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="110"/>
+      <c r="A22" s="129"/>
       <c r="B22" s="50"/>
       <c r="C22" s="50" t="s">
         <v>155</v>
@@ -7524,7 +8396,7 @@
       <c r="G22" s="51"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="117" t="s">
+      <c r="A23" s="133" t="s">
         <v>28</v>
       </c>
       <c r="B23" t="s">
@@ -7533,7 +8405,7 @@
       <c r="C23" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="114"/>
+      <c r="D23" s="118"/>
       <c r="E23" s="46" t="s">
         <v>158</v>
       </c>
@@ -7541,11 +8413,11 @@
       <c r="G23" s="49"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="117"/>
+      <c r="A24" s="133"/>
       <c r="C24" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="115"/>
+      <c r="D24" s="119"/>
       <c r="E24" s="46">
         <v>2</v>
       </c>
@@ -7553,11 +8425,11 @@
       <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="117"/>
+      <c r="A25" s="133"/>
       <c r="C25" t="s">
         <v>151</v>
       </c>
-      <c r="D25" s="115"/>
+      <c r="D25" s="119"/>
       <c r="E25" s="46">
         <v>1</v>
       </c>
@@ -7565,11 +8437,11 @@
       <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="117"/>
+      <c r="A26" s="133"/>
       <c r="C26" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="116"/>
+      <c r="D26" s="120"/>
       <c r="E26" s="46">
         <v>1</v>
       </c>
@@ -7577,7 +8449,7 @@
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="108" t="s">
+      <c r="A27" s="127" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="47" t="s">
@@ -7586,7 +8458,7 @@
       <c r="C27" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="114" t="s">
+      <c r="D27" s="118" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="52" t="s">
@@ -7596,14 +8468,14 @@
       <c r="G27" s="48"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="109"/>
+      <c r="A28" s="128"/>
       <c r="B28" s="45" t="s">
         <v>128</v>
       </c>
       <c r="C28" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="115"/>
+      <c r="D28" s="119"/>
       <c r="E28" s="46" t="s">
         <v>130</v>
       </c>
@@ -7611,11 +8483,11 @@
       <c r="G28" s="49"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="109"/>
+      <c r="A29" s="128"/>
       <c r="C29" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="115"/>
+      <c r="D29" s="119"/>
       <c r="E29" s="46" t="s">
         <v>132</v>
       </c>
@@ -7623,12 +8495,12 @@
       <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A30" s="109"/>
+      <c r="A30" s="128"/>
       <c r="B30" s="50"/>
       <c r="C30" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="D30" s="116"/>
+      <c r="D30" s="120"/>
       <c r="E30" s="55" t="s">
         <v>132</v>
       </c>
@@ -7636,10 +8508,10 @@
       <c r="G30" s="51"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="108" t="s">
+      <c r="A31" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="111" t="s">
+      <c r="D31" s="130" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="46"/>
@@ -7647,14 +8519,14 @@
       <c r="G31" s="49"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="109"/>
+      <c r="A32" s="128"/>
       <c r="B32" t="s">
         <v>161</v>
       </c>
       <c r="C32" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="112"/>
+      <c r="D32" s="131"/>
       <c r="E32" s="46" t="s">
         <v>138</v>
       </c>
@@ -7662,14 +8534,14 @@
       <c r="G32" s="49"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="109"/>
+      <c r="A33" s="128"/>
       <c r="B33" t="s">
         <v>135</v>
       </c>
       <c r="C33" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="112"/>
+      <c r="D33" s="131"/>
       <c r="E33" s="46" t="s">
         <v>130</v>
       </c>
@@ -7677,28 +8549,28 @@
       <c r="G33" s="49"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="109"/>
-      <c r="D34" s="112"/>
+      <c r="A34" s="128"/>
+      <c r="D34" s="131"/>
       <c r="E34" s="46"/>
       <c r="F34" s="46"/>
       <c r="G34" s="49"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="109"/>
-      <c r="D35" s="113"/>
+      <c r="A35" s="128"/>
+      <c r="D35" s="132"/>
       <c r="E35" s="46"/>
       <c r="F35" s="46"/>
       <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="108" t="s">
+      <c r="A36" s="127" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="47"/>
       <c r="C36" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="D36" s="114"/>
+      <c r="D36" s="118"/>
       <c r="E36" s="52" t="s">
         <v>165</v>
       </c>
@@ -7706,14 +8578,14 @@
       <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="109"/>
+      <c r="A37" s="128"/>
       <c r="B37" t="s">
         <v>166</v>
       </c>
       <c r="C37" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="D37" s="115"/>
+      <c r="D37" s="119"/>
       <c r="E37" s="46" t="s">
         <v>168</v>
       </c>
@@ -7721,11 +8593,11 @@
       <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="109"/>
+      <c r="A38" s="128"/>
       <c r="C38" t="s">
         <v>169</v>
       </c>
-      <c r="D38" s="115"/>
+      <c r="D38" s="119"/>
       <c r="E38" s="46"/>
       <c r="F38" s="46" t="s">
         <v>170</v>
@@ -7733,46 +8605,46 @@
       <c r="G38" s="49"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="109"/>
-      <c r="D39" s="115"/>
+      <c r="A39" s="128"/>
+      <c r="D39" s="119"/>
       <c r="E39" s="46"/>
       <c r="F39" s="46"/>
       <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="110"/>
+      <c r="A40" s="129"/>
       <c r="B40" s="50"/>
       <c r="C40" s="50"/>
-      <c r="D40" s="116"/>
+      <c r="D40" s="120"/>
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
       <c r="G40" s="51"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="109" t="s">
+      <c r="A41" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="114" t="s">
+      <c r="D41" s="118" t="s">
         <v>24</v>
       </c>
       <c r="E41" s="46"/>
       <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="109"/>
-      <c r="D42" s="115"/>
+      <c r="A42" s="128"/>
+      <c r="D42" s="119"/>
       <c r="E42" s="46"/>
       <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="109"/>
+      <c r="A43" s="128"/>
       <c r="B43" t="s">
         <v>24</v>
       </c>
       <c r="C43" t="s">
         <v>162</v>
       </c>
-      <c r="D43" s="115"/>
+      <c r="D43" s="119"/>
       <c r="E43" s="46" t="s">
         <v>171</v>
       </c>
@@ -7782,16 +8654,16 @@
       <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="109"/>
-      <c r="D44" s="115"/>
+      <c r="A44" s="128"/>
+      <c r="D44" s="119"/>
       <c r="E44" s="46"/>
       <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="110"/>
+      <c r="A45" s="129"/>
       <c r="B45" s="50"/>
       <c r="C45" s="50"/>
-      <c r="D45" s="116"/>
+      <c r="D45" s="120"/>
       <c r="E45" s="55"/>
       <c r="F45" s="50"/>
       <c r="G45" s="51"/>
@@ -7801,12 +8673,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="D2:D5"/>
     <mergeCell ref="A36:A40"/>
     <mergeCell ref="A41:A45"/>
     <mergeCell ref="D31:D35"/>
@@ -7820,6 +8686,12 @@
     <mergeCell ref="D27:D30"/>
     <mergeCell ref="A31:A35"/>
     <mergeCell ref="A27:A30"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="D2:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7865,7 +8737,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="143" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65" t="s">
@@ -7874,7 +8746,7 @@
       <c r="C2" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="146" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="56" t="s">
@@ -7886,12 +8758,12 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="130"/>
+      <c r="A3" s="144"/>
       <c r="B3" s="66"/>
       <c r="C3" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="133"/>
+      <c r="D3" s="147"/>
       <c r="E3" s="57" t="s">
         <v>130</v>
       </c>
@@ -7899,12 +8771,12 @@
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="130"/>
+      <c r="A4" s="144"/>
       <c r="B4" s="66"/>
       <c r="C4" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="133"/>
+      <c r="D4" s="147"/>
       <c r="E4" s="57" t="s">
         <v>176</v>
       </c>
@@ -7912,12 +8784,12 @@
       <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="130"/>
+      <c r="A5" s="144"/>
       <c r="B5" s="66"/>
       <c r="C5" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="133"/>
+      <c r="D5" s="147"/>
       <c r="E5" s="57" t="s">
         <v>173</v>
       </c>
@@ -7925,12 +8797,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="130"/>
+      <c r="A6" s="144"/>
       <c r="B6" s="66"/>
       <c r="C6" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="133"/>
+      <c r="D6" s="147"/>
       <c r="E6" s="57" t="s">
         <v>127</v>
       </c>
@@ -7938,12 +8810,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="131"/>
+      <c r="A7" s="145"/>
       <c r="B7" s="67"/>
       <c r="C7" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="134"/>
+      <c r="D7" s="148"/>
       <c r="E7" s="58" t="s">
         <v>179</v>
       </c>
@@ -7951,7 +8823,7 @@
       <c r="G7" s="61"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="135" t="s">
+      <c r="A8" s="149" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="66" t="s">
@@ -7960,7 +8832,7 @@
       <c r="C8" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="127" t="s">
+      <c r="D8" s="135" t="s">
         <v>137</v>
       </c>
       <c r="E8" s="63" t="s">
@@ -7970,12 +8842,12 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="135"/>
+      <c r="A9" s="149"/>
       <c r="B9" s="66"/>
       <c r="C9" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="127"/>
+      <c r="D9" s="135"/>
       <c r="E9" s="63" t="s">
         <v>130</v>
       </c>
@@ -7983,12 +8855,12 @@
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="135"/>
+      <c r="A10" s="149"/>
       <c r="B10" s="66"/>
       <c r="C10" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="D10" s="127"/>
+      <c r="D10" s="135"/>
       <c r="E10" s="63" t="s">
         <v>183</v>
       </c>
@@ -7996,12 +8868,12 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="136"/>
+      <c r="A11" s="150"/>
       <c r="B11" s="66"/>
       <c r="C11" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="127"/>
+      <c r="D11" s="135"/>
       <c r="E11" s="63" t="s">
         <v>185</v>
       </c>
@@ -8009,14 +8881,14 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="135" t="s">
+      <c r="A12" s="149" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="62"/>
       <c r="C12" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="126" t="s">
+      <c r="D12" s="134" t="s">
         <v>142</v>
       </c>
       <c r="E12" s="62" t="s">
@@ -8026,12 +8898,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="135"/>
+      <c r="A13" s="149"/>
       <c r="B13" s="63"/>
       <c r="C13" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="D13" s="127"/>
+      <c r="D13" s="135"/>
       <c r="E13" s="63" t="s">
         <v>187</v>
       </c>
@@ -8039,12 +8911,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="135"/>
+      <c r="A14" s="149"/>
       <c r="B14" s="76"/>
       <c r="C14" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="127"/>
+      <c r="D14" s="135"/>
       <c r="E14" s="63"/>
       <c r="F14" s="60" t="s">
         <v>130</v>
@@ -8052,12 +8924,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="135"/>
+      <c r="A15" s="149"/>
       <c r="B15" s="63" t="s">
         <v>190</v>
       </c>
       <c r="C15" s="57"/>
-      <c r="D15" s="127"/>
+      <c r="D15" s="135"/>
       <c r="E15" s="63" t="s">
         <v>191</v>
       </c>
@@ -8065,23 +8937,23 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="136"/>
+      <c r="A16" s="150"/>
       <c r="B16" s="64"/>
       <c r="C16" s="57"/>
-      <c r="D16" s="128"/>
+      <c r="D16" s="136"/>
       <c r="E16" s="63"/>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A17" s="124" t="s">
+      <c r="A17" s="141" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="126" t="s">
+      <c r="D17" s="134" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="62" t="s">
@@ -8091,14 +8963,14 @@
       <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A18" s="124"/>
+      <c r="A18" s="141"/>
       <c r="B18" s="66" t="s">
         <v>193</v>
       </c>
       <c r="C18" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="127"/>
+      <c r="D18" s="135"/>
       <c r="E18" s="63" t="s">
         <v>176</v>
       </c>
@@ -8106,12 +8978,12 @@
       <c r="G18" s="60"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A19" s="124"/>
+      <c r="A19" s="141"/>
       <c r="B19" s="66"/>
       <c r="C19" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="D19" s="127"/>
+      <c r="D19" s="135"/>
       <c r="E19" s="63" t="s">
         <v>176</v>
       </c>
@@ -8119,12 +8991,12 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A20" s="124"/>
+      <c r="A20" s="141"/>
       <c r="B20" s="66"/>
       <c r="C20" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="D20" s="127"/>
+      <c r="D20" s="135"/>
       <c r="E20" s="63"/>
       <c r="F20" s="63" t="s">
         <v>194</v>
@@ -8132,7 +9004,7 @@
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="137" t="s">
+      <c r="A21" s="140" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="65" t="s">
@@ -8141,41 +9013,41 @@
       <c r="C21" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="D21" s="126" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="126" t="s">
+      <c r="D21" s="134" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="134" t="s">
         <v>197</v>
       </c>
-      <c r="F21" s="138" t="s">
+      <c r="F21" s="137" t="s">
         <v>198</v>
       </c>
       <c r="G21" s="59"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="124"/>
+      <c r="A22" s="141"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="139"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="138"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="124"/>
+      <c r="A23" s="141"/>
       <c r="B23" s="67"/>
       <c r="C23" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="D23" s="128"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="140"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="139"/>
       <c r="G23" s="61"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="137" t="s">
+      <c r="A24" s="140" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="66" t="s">
@@ -8184,7 +9056,7 @@
       <c r="C24" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="127"/>
+      <c r="D24" s="135"/>
       <c r="E24" s="63" t="s">
         <v>173</v>
       </c>
@@ -8192,12 +9064,12 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="124"/>
+      <c r="A25" s="141"/>
       <c r="B25" s="66"/>
       <c r="C25" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="D25" s="127"/>
+      <c r="D25" s="135"/>
       <c r="E25" s="63" t="s">
         <v>191</v>
       </c>
@@ -8205,12 +9077,12 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="124"/>
+      <c r="A26" s="141"/>
       <c r="B26" s="66"/>
       <c r="C26" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="D26" s="127"/>
+      <c r="D26" s="135"/>
       <c r="E26" s="63" t="s">
         <v>130</v>
       </c>
@@ -8218,12 +9090,12 @@
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="124"/>
+      <c r="A27" s="141"/>
       <c r="B27" s="66"/>
       <c r="C27" s="66" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="127"/>
+      <c r="D27" s="135"/>
       <c r="E27" s="63" t="s">
         <v>202</v>
       </c>
@@ -8231,12 +9103,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="125"/>
+      <c r="A28" s="142"/>
       <c r="B28" s="66"/>
       <c r="C28" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="D28" s="128"/>
+      <c r="D28" s="136"/>
       <c r="E28" s="63" t="s">
         <v>130</v>
       </c>
@@ -8244,7 +9116,7 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="124" t="s">
+      <c r="A29" s="141" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="74" t="s">
@@ -8253,7 +9125,7 @@
       <c r="C29" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="126" t="s">
+      <c r="D29" s="134" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="62" t="s">
@@ -8265,12 +9137,12 @@
       <c r="G29" s="59"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="124"/>
+      <c r="A30" s="141"/>
       <c r="B30" s="70"/>
       <c r="C30" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="D30" s="127"/>
+      <c r="D30" s="135"/>
       <c r="E30" s="63" t="s">
         <v>205</v>
       </c>
@@ -8278,12 +9150,12 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="124"/>
+      <c r="A31" s="141"/>
       <c r="B31" s="71"/>
       <c r="C31" s="69" t="s">
         <v>206</v>
       </c>
-      <c r="D31" s="127"/>
+      <c r="D31" s="135"/>
       <c r="E31" s="63" t="s">
         <v>130</v>
       </c>
@@ -8291,12 +9163,12 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="124"/>
+      <c r="A32" s="141"/>
       <c r="B32" s="71"/>
       <c r="C32" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="D32" s="127"/>
+      <c r="D32" s="135"/>
       <c r="E32" s="63" t="s">
         <v>179</v>
       </c>
@@ -8304,12 +9176,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="124"/>
+      <c r="A33" s="141"/>
       <c r="B33" s="72"/>
       <c r="C33" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="D33" s="127"/>
+      <c r="D33" s="135"/>
       <c r="E33" s="63" t="s">
         <v>208</v>
       </c>
@@ -8317,12 +9189,12 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A34" s="124"/>
+      <c r="A34" s="141"/>
       <c r="B34" s="73"/>
       <c r="C34" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="D34" s="128"/>
+      <c r="D34" s="136"/>
       <c r="E34" s="64" t="s">
         <v>132</v>
       </c>
@@ -8330,12 +9202,12 @@
       <c r="G34" s="61"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="137" t="s">
+      <c r="A35" s="140" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="66"/>
       <c r="C35" s="66"/>
-      <c r="D35" s="126" t="s">
+      <c r="D35" s="134" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="63"/>
@@ -8343,12 +9215,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="124"/>
+      <c r="A36" s="141"/>
       <c r="B36" s="66"/>
       <c r="C36" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="D36" s="127"/>
+      <c r="D36" s="135"/>
       <c r="E36" s="63" t="s">
         <v>130</v>
       </c>
@@ -8356,14 +9228,14 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7" ht="21" customHeight="1">
-      <c r="A37" s="124"/>
+      <c r="A37" s="141"/>
       <c r="B37" s="66" t="s">
         <v>211</v>
       </c>
       <c r="C37" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="D37" s="127"/>
+      <c r="D37" s="135"/>
       <c r="E37" s="63" t="s">
         <v>180</v>
       </c>
@@ -8371,12 +9243,12 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="124"/>
+      <c r="A38" s="141"/>
       <c r="B38" s="66"/>
       <c r="C38" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="D38" s="127"/>
+      <c r="D38" s="135"/>
       <c r="E38" s="63"/>
       <c r="F38" s="60" t="s">
         <v>130</v>
@@ -8384,23 +9256,23 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="124"/>
+      <c r="A39" s="141"/>
       <c r="B39" s="66"/>
       <c r="C39" s="66"/>
-      <c r="D39" s="128"/>
+      <c r="D39" s="136"/>
       <c r="E39" s="63"/>
       <c r="F39" s="60"/>
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="137" t="s">
+      <c r="A40" s="140" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="65"/>
       <c r="C40" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="126"/>
+      <c r="D40" s="134"/>
       <c r="E40" s="62" t="s">
         <v>165</v>
       </c>
@@ -8408,14 +9280,14 @@
       <c r="G40" s="59"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="124"/>
+      <c r="A41" s="141"/>
       <c r="B41" s="66" t="s">
         <v>166</v>
       </c>
       <c r="C41" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="D41" s="127"/>
+      <c r="D41" s="135"/>
       <c r="E41" s="63" t="s">
         <v>168</v>
       </c>
@@ -8423,12 +9295,12 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="124"/>
+      <c r="A42" s="141"/>
       <c r="B42" s="66"/>
       <c r="C42" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="D42" s="127"/>
+      <c r="D42" s="135"/>
       <c r="E42" s="63"/>
       <c r="F42" s="60" t="s">
         <v>170</v>
@@ -8436,32 +9308,32 @@
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="124"/>
+      <c r="A43" s="141"/>
       <c r="B43" s="66"/>
       <c r="C43" s="66"/>
-      <c r="D43" s="127"/>
+      <c r="D43" s="135"/>
       <c r="E43" s="63"/>
       <c r="F43" s="60"/>
       <c r="G43" s="60"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="125"/>
+      <c r="A44" s="142"/>
       <c r="B44" s="67"/>
       <c r="C44" s="67"/>
-      <c r="D44" s="128"/>
+      <c r="D44" s="136"/>
       <c r="E44" s="64"/>
       <c r="F44" s="60"/>
       <c r="G44" s="61"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="124" t="s">
+      <c r="A45" s="141" t="s">
         <v>30</v>
       </c>
       <c r="B45" s="66"/>
       <c r="C45" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D45" s="126" t="s">
+      <c r="D45" s="134" t="s">
         <v>24</v>
       </c>
       <c r="E45" s="65" t="s">
@@ -8471,12 +9343,12 @@
       <c r="G45" s="60"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="124"/>
+      <c r="A46" s="141"/>
       <c r="B46" s="66"/>
       <c r="C46" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D46" s="127"/>
+      <c r="D46" s="135"/>
       <c r="E46" s="66" t="s">
         <v>176</v>
       </c>
@@ -8484,14 +9356,14 @@
       <c r="G46" s="60"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="124"/>
+      <c r="A47" s="141"/>
       <c r="B47" s="66" t="s">
         <v>193</v>
       </c>
       <c r="C47" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="D47" s="127"/>
+      <c r="D47" s="135"/>
       <c r="E47" s="66" t="s">
         <v>176</v>
       </c>
@@ -8499,12 +9371,12 @@
       <c r="G47" s="60"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="124"/>
+      <c r="A48" s="141"/>
       <c r="B48" s="66"/>
       <c r="C48" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="D48" s="127"/>
+      <c r="D48" s="135"/>
       <c r="E48" s="66"/>
       <c r="F48" s="63" t="s">
         <v>194</v>
@@ -8512,10 +9384,10 @@
       <c r="G48" s="60"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="125"/>
+      <c r="A49" s="142"/>
       <c r="B49" s="67"/>
       <c r="C49" s="67"/>
-      <c r="D49" s="128"/>
+      <c r="D49" s="136"/>
       <c r="E49" s="67"/>
       <c r="F49" s="64"/>
       <c r="G49" s="61"/>
@@ -8528,12 +9400,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="D40:D44"/>
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="D45:D49"/>
     <mergeCell ref="A29:A34"/>
@@ -8550,6 +9416,12 @@
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="D24:D28"/>
     <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="D40:D44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8598,12 +9470,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="140" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="146" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -8615,34 +9487,34 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="124"/>
+      <c r="A3" s="141"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="133"/>
+      <c r="D3" s="147"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="125"/>
+      <c r="A4" s="142"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="134"/>
+      <c r="D4" s="148"/>
       <c r="E4" s="58"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="149" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62"/>
-      <c r="D5" s="112" t="s">
+      <c r="D5" s="131" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="63"/>
@@ -8650,12 +9522,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="135"/>
+      <c r="A6" s="149"/>
       <c r="B6" s="66"/>
       <c r="C6" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="112"/>
+      <c r="D6" s="131"/>
       <c r="E6" s="63" t="s">
         <v>218</v>
       </c>
@@ -8663,30 +9535,30 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="135"/>
+      <c r="A7" s="149"/>
       <c r="B7" s="66"/>
       <c r="C7" s="63"/>
-      <c r="D7" s="112"/>
+      <c r="D7" s="131"/>
       <c r="E7" s="63"/>
       <c r="F7" s="60"/>
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="136"/>
+      <c r="A8" s="150"/>
       <c r="B8" s="66"/>
       <c r="C8" s="64"/>
-      <c r="D8" s="112"/>
+      <c r="D8" s="131"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="135" t="s">
+      <c r="A9" s="149" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="62"/>
       <c r="C9" s="57"/>
-      <c r="D9" s="126" t="s">
+      <c r="D9" s="134" t="s">
         <v>142</v>
       </c>
       <c r="E9" s="65"/>
@@ -8694,12 +9566,12 @@
       <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="135"/>
+      <c r="A10" s="149"/>
       <c r="B10" s="63"/>
       <c r="C10" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="D10" s="127"/>
+      <c r="D10" s="135"/>
       <c r="E10" s="66" t="s">
         <v>106</v>
       </c>
@@ -8709,12 +9581,12 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="135"/>
+      <c r="A11" s="149"/>
       <c r="B11" s="63" t="s">
         <v>220</v>
       </c>
       <c r="C11" s="57"/>
-      <c r="D11" s="128"/>
+      <c r="D11" s="136"/>
       <c r="E11" s="67"/>
       <c r="F11" s="63" t="s">
         <v>130</v>
@@ -8722,12 +9594,12 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="137" t="s">
+      <c r="A12" s="140" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="65"/>
       <c r="C12" s="62"/>
-      <c r="D12" s="111" t="s">
+      <c r="D12" s="130" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="66"/>
@@ -8735,12 +9607,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="124"/>
+      <c r="A13" s="141"/>
       <c r="B13" s="66" t="s">
         <v>221</v>
       </c>
       <c r="C13" s="76"/>
-      <c r="D13" s="112"/>
+      <c r="D13" s="131"/>
       <c r="E13" s="66" t="s">
         <v>222</v>
       </c>
@@ -8748,12 +9620,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="124"/>
+      <c r="A14" s="141"/>
       <c r="B14" s="66"/>
       <c r="C14" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="D14" s="112"/>
+      <c r="D14" s="131"/>
       <c r="E14" s="66"/>
       <c r="F14" s="63" t="s">
         <v>222</v>
@@ -8761,62 +9633,62 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="125"/>
+      <c r="A15" s="142"/>
       <c r="B15" s="67"/>
       <c r="C15" s="64"/>
-      <c r="D15" s="112"/>
+      <c r="D15" s="131"/>
       <c r="E15" s="66"/>
       <c r="F15" s="64"/>
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="124" t="s">
+      <c r="A16" s="141" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="63"/>
       <c r="C16" s="57"/>
-      <c r="D16" s="126" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="126" t="s">
+      <c r="D16" s="134" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="134" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="139">
+      <c r="F16" s="138">
         <v>1</v>
       </c>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="124"/>
+      <c r="A17" s="141"/>
       <c r="B17" s="63" t="s">
         <v>224</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>225</v>
       </c>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="139"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="138"/>
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="124"/>
+      <c r="A18" s="141"/>
       <c r="B18" s="64"/>
       <c r="C18" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="140"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="139"/>
       <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="137" t="s">
+      <c r="A19" s="140" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="66"/>
-      <c r="D19" s="127" t="s">
+      <c r="D19" s="135" t="s">
         <v>227</v>
       </c>
       <c r="E19" s="63"/>
@@ -8824,23 +9696,23 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="124"/>
+      <c r="A20" s="141"/>
       <c r="B20" s="66"/>
       <c r="C20" s="66"/>
-      <c r="D20" s="127"/>
+      <c r="D20" s="135"/>
       <c r="E20" s="63"/>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="124"/>
+      <c r="A21" s="141"/>
       <c r="B21" s="66" t="s">
         <v>228</v>
       </c>
       <c r="C21" s="66" t="s">
         <v>229</v>
       </c>
-      <c r="D21" s="127"/>
+      <c r="D21" s="135"/>
       <c r="E21" s="63" t="s">
         <v>185</v>
       </c>
@@ -8850,34 +9722,34 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="124"/>
+      <c r="A22" s="141"/>
       <c r="B22" s="66" t="s">
         <v>231</v>
       </c>
       <c r="C22" s="66"/>
-      <c r="D22" s="127"/>
+      <c r="D22" s="135"/>
       <c r="E22" s="63"/>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="125"/>
+      <c r="A23" s="142"/>
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
-      <c r="D23" s="128"/>
+      <c r="D23" s="136"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="124" t="s">
+      <c r="A24" s="141" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="78"/>
       <c r="C24" s="62" t="s">
         <v>232</v>
       </c>
-      <c r="D24" s="111" t="s">
+      <c r="D24" s="130" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="65" t="s">
@@ -8887,30 +9759,30 @@
       <c r="G24" s="62"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="124"/>
+      <c r="A25" s="141"/>
       <c r="B25" s="83"/>
       <c r="C25" s="63"/>
-      <c r="D25" s="112"/>
+      <c r="D25" s="131"/>
       <c r="E25" s="66"/>
       <c r="F25" s="66"/>
       <c r="G25" s="63"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="124"/>
+      <c r="A26" s="141"/>
       <c r="B26" s="94"/>
       <c r="C26" s="64"/>
-      <c r="D26" s="112"/>
+      <c r="D26" s="131"/>
       <c r="E26" s="66"/>
       <c r="F26" s="67"/>
       <c r="G26" s="64"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="137" t="s">
+      <c r="A27" s="140" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="66"/>
       <c r="C27" s="66"/>
-      <c r="D27" s="126" t="s">
+      <c r="D27" s="134" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="62"/>
@@ -8918,14 +9790,14 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="124"/>
+      <c r="A28" s="141"/>
       <c r="B28" s="66" t="s">
         <v>220</v>
       </c>
       <c r="C28" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="D28" s="127"/>
+      <c r="D28" s="135"/>
       <c r="E28" s="63" t="s">
         <v>222</v>
       </c>
@@ -8935,12 +9807,12 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="124"/>
+      <c r="A29" s="141"/>
       <c r="B29" s="66" t="s">
         <v>221</v>
       </c>
       <c r="C29" s="66"/>
-      <c r="D29" s="127"/>
+      <c r="D29" s="135"/>
       <c r="E29" s="64"/>
       <c r="F29" s="60" t="s">
         <v>130</v>
@@ -8948,25 +9820,25 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="137" t="s">
+      <c r="A30" s="140" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="65"/>
       <c r="C30" s="65"/>
-      <c r="D30" s="138"/>
+      <c r="D30" s="137"/>
       <c r="E30" s="60"/>
       <c r="F30" s="59"/>
       <c r="G30" s="59"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="124"/>
+      <c r="A31" s="141"/>
       <c r="B31" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C31" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="D31" s="139"/>
+      <c r="D31" s="138"/>
       <c r="E31" s="60" t="s">
         <v>168</v>
       </c>
@@ -8974,12 +9846,12 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="124"/>
+      <c r="A32" s="141"/>
       <c r="B32" s="66"/>
       <c r="C32" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="D32" s="139"/>
+      <c r="D32" s="138"/>
       <c r="E32" s="60"/>
       <c r="F32" s="60" t="s">
         <v>170</v>
@@ -8987,30 +9859,30 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="124"/>
+      <c r="A33" s="141"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66"/>
-      <c r="D33" s="139"/>
+      <c r="D33" s="138"/>
       <c r="E33" s="60"/>
       <c r="F33" s="60"/>
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="125"/>
+      <c r="A34" s="142"/>
       <c r="B34" s="66"/>
       <c r="C34" s="67"/>
-      <c r="D34" s="140"/>
+      <c r="D34" s="139"/>
       <c r="E34" s="60"/>
       <c r="F34" s="60"/>
       <c r="G34" s="61"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="124" t="s">
+      <c r="A35" s="141" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="62"/>
       <c r="C35" s="57"/>
-      <c r="D35" s="139" t="s">
+      <c r="D35" s="138" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="92"/>
@@ -9018,12 +9890,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="124"/>
+      <c r="A36" s="141"/>
       <c r="B36" s="63"/>
       <c r="C36" s="66" t="s">
         <v>237</v>
       </c>
-      <c r="D36" s="139"/>
+      <c r="D36" s="138"/>
       <c r="E36" s="57" t="s">
         <v>238</v>
       </c>
@@ -9033,45 +9905,35 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="124"/>
+      <c r="A37" s="141"/>
       <c r="B37" s="63" t="s">
         <v>221</v>
       </c>
       <c r="C37" s="46"/>
-      <c r="D37" s="139"/>
+      <c r="D37" s="138"/>
       <c r="E37" s="57"/>
       <c r="F37" s="76"/>
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="124"/>
+      <c r="A38" s="141"/>
       <c r="B38" s="63"/>
-      <c r="D38" s="139"/>
+      <c r="D38" s="138"/>
       <c r="E38" s="57"/>
       <c r="F38" s="76"/>
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="125"/>
+      <c r="A39" s="142"/>
       <c r="B39" s="64"/>
       <c r="C39" s="58"/>
-      <c r="D39" s="140"/>
+      <c r="D39" s="139"/>
       <c r="E39" s="58"/>
       <c r="F39" s="64"/>
       <c r="G39" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="D27:D29"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -9084,6 +9946,16 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="E16:E18"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="D27:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DDD2F49-D6BB-4061-82E6-F5BD47C31795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E73AF25-8945-4C4A-B148-C9B6FA48E45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="40" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="20-04-2022" sheetId="51" r:id="rId12"/>
     <sheet name="21-04-2022" sheetId="53" r:id="rId13"/>
     <sheet name="22-04-2022" sheetId="54" r:id="rId14"/>
+    <sheet name="23-04-2022 " sheetId="55" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="424">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1312,6 +1313,102 @@
   </si>
   <si>
     <t>Helping to do the html layout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review meeting with Rafi </t>
+  </si>
+  <si>
+    <t>HTML Layout for Requester Request Page</t>
+  </si>
+  <si>
+    <t>1 hour,30 mins</t>
+  </si>
+  <si>
+    <t>Html layout for sidebar</t>
+  </si>
+  <si>
+    <t>2 hours 30 mins</t>
+  </si>
+  <si>
+    <t>MOM entered</t>
+  </si>
+  <si>
+    <t>recap html tags</t>
+  </si>
+  <si>
+    <t>20 mins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review with Rafi(Data Model and HLD) </t>
+  </si>
+  <si>
+    <t>Approver(HTML)</t>
+  </si>
+  <si>
+    <t>Review meeting with Rafi - 1hr 15mins</t>
+  </si>
+  <si>
+    <t>HTML Layouts</t>
+  </si>
+  <si>
+    <t>Reworked on Dependencies &amp; Interactions -1hr</t>
+  </si>
+  <si>
+    <t>Worked on dashboard layout HTML - 2hr</t>
+  </si>
+  <si>
+    <t>login page (HTML)</t>
+  </si>
+  <si>
+    <t>worked on requester award page (HTML)</t>
+  </si>
+  <si>
+    <t>2hrs,10mins</t>
+  </si>
+  <si>
+    <t>1hr 15mins</t>
+  </si>
+  <si>
+    <t>worked on home page (HTML)</t>
+  </si>
+  <si>
+    <t>1hrs 30mins</t>
+  </si>
+  <si>
+    <t>Meeting with rafi about datamodel and HLD (System Architecture, Dependency )</t>
+  </si>
+  <si>
+    <t>Admin's Organisation management page</t>
+  </si>
+  <si>
+    <t>Explore about html containers, layout</t>
+  </si>
+  <si>
+    <t>Meeting with Rafi about DataModel,HLD</t>
+  </si>
+  <si>
+    <t>1.45 hour</t>
+  </si>
+  <si>
+    <t>HTML layout for Admin</t>
+  </si>
+  <si>
+    <t>HTML Layout Admin under adding employees</t>
+  </si>
+  <si>
+    <t>Addding Css</t>
+  </si>
+  <si>
+    <t>Allignment using Bootstrap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploring about automatic dropdown </t>
+  </si>
+  <si>
+    <t>Adding html , css and bootstrap for admin page(organization)</t>
+  </si>
+  <si>
+    <t>HTML Layout(Admin Page)</t>
   </si>
 </sst>
 </file>
@@ -1928,7 +2025,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2251,6 +2348,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2260,6 +2381,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2278,25 +2402,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2308,6 +2417,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2317,39 +2453,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2359,6 +2462,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2371,27 +2483,18 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2403,6 +2506,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3209,12 +3315,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="141" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="146" t="s">
+      <c r="D2" s="144" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -3226,36 +3332,36 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="144"/>
+      <c r="A3" s="142"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="147"/>
+      <c r="D3" s="145"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="145"/>
+      <c r="A4" s="143"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="148"/>
+      <c r="D4" s="146"/>
       <c r="E4" s="58"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="147" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="124" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="63" t="s">
@@ -3265,12 +3371,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="149"/>
+      <c r="A6" s="147"/>
       <c r="B6" s="66"/>
       <c r="C6" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="D6" s="131"/>
+      <c r="D6" s="124"/>
       <c r="E6" s="63" t="s">
         <v>243</v>
       </c>
@@ -3278,12 +3384,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="149"/>
+      <c r="A7" s="147"/>
       <c r="B7" s="66"/>
       <c r="C7" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="131"/>
+      <c r="D7" s="124"/>
       <c r="E7" s="63" t="s">
         <v>180</v>
       </c>
@@ -3291,21 +3397,21 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="150"/>
+      <c r="A8" s="148"/>
       <c r="B8" s="66"/>
       <c r="C8" s="64"/>
-      <c r="D8" s="131"/>
+      <c r="D8" s="124"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="147" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="62"/>
       <c r="C9" s="57"/>
-      <c r="D9" s="134" t="s">
+      <c r="D9" s="138" t="s">
         <v>142</v>
       </c>
       <c r="E9" s="65"/>
@@ -3313,14 +3419,14 @@
       <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="149"/>
+      <c r="A10" s="147"/>
       <c r="B10" s="63" t="s">
         <v>216</v>
       </c>
       <c r="C10" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="D10" s="135"/>
+      <c r="D10" s="139"/>
       <c r="E10" s="66" t="s">
         <v>106</v>
       </c>
@@ -3330,23 +3436,23 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="150"/>
+      <c r="A11" s="148"/>
       <c r="B11" s="63"/>
       <c r="C11" s="57"/>
-      <c r="D11" s="136"/>
+      <c r="D11" s="140"/>
       <c r="E11" s="67"/>
       <c r="F11" s="64"/>
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="141" t="s">
+      <c r="A12" s="136" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="65"/>
       <c r="C12" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="123" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="63">
@@ -3356,12 +3462,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="141"/>
+      <c r="A13" s="136"/>
       <c r="B13" s="66"/>
       <c r="C13" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="131"/>
+      <c r="D13" s="124"/>
       <c r="E13" s="63" t="s">
         <v>230</v>
       </c>
@@ -3369,12 +3475,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="141"/>
+      <c r="A14" s="136"/>
       <c r="B14" s="66"/>
       <c r="C14" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="131"/>
+      <c r="D14" s="124"/>
       <c r="E14" s="63" t="s">
         <v>185</v>
       </c>
@@ -3382,12 +3488,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="141"/>
+      <c r="A15" s="136"/>
       <c r="B15" s="67" t="s">
         <v>248</v>
       </c>
       <c r="C15" s="64"/>
-      <c r="D15" s="131"/>
+      <c r="D15" s="124"/>
       <c r="E15" s="63"/>
       <c r="F15" s="63" t="s">
         <v>194</v>
@@ -3395,50 +3501,50 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="140" t="s">
+      <c r="A16" s="149" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="63"/>
       <c r="C16" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="D16" s="134" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="134" t="s">
+      <c r="D16" s="138" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="138" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="137">
+      <c r="F16" s="150">
         <v>1</v>
       </c>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="141"/>
+      <c r="A17" s="136"/>
       <c r="B17" s="63" t="s">
         <v>224</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>250</v>
       </c>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="138"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="151"/>
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="141"/>
+      <c r="A18" s="136"/>
       <c r="B18" s="64"/>
       <c r="C18" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="139"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="152"/>
       <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="140" t="s">
+      <c r="A19" s="149" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="66" t="s">
@@ -3447,7 +3553,7 @@
       <c r="C19" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="D19" s="135" t="s">
+      <c r="D19" s="139" t="s">
         <v>227</v>
       </c>
       <c r="E19" s="63" t="s">
@@ -3457,14 +3563,14 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="141"/>
+      <c r="A20" s="136"/>
       <c r="B20" s="66" t="s">
         <v>248</v>
       </c>
       <c r="C20" s="66" t="s">
         <v>253</v>
       </c>
-      <c r="D20" s="135"/>
+      <c r="D20" s="139"/>
       <c r="E20" s="63" t="s">
         <v>185</v>
       </c>
@@ -3474,14 +3580,14 @@
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="141"/>
+      <c r="A21" s="136"/>
       <c r="B21" s="66" t="s">
         <v>255</v>
       </c>
       <c r="C21" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="D21" s="135"/>
+      <c r="D21" s="139"/>
       <c r="E21" s="63" t="s">
         <v>252</v>
       </c>
@@ -3489,25 +3595,25 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="141"/>
+      <c r="A22" s="136"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66"/>
-      <c r="D22" s="135"/>
+      <c r="D22" s="139"/>
       <c r="E22" s="63"/>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="142"/>
+      <c r="A23" s="137"/>
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
-      <c r="D23" s="136"/>
+      <c r="D23" s="140"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="141" t="s">
+      <c r="A24" s="136" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="78" t="s">
@@ -3516,7 +3622,7 @@
       <c r="C24" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="D24" s="130" t="s">
+      <c r="D24" s="123" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="62" t="s">
@@ -3528,12 +3634,12 @@
       <c r="G24" s="59"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="141"/>
+      <c r="A25" s="136"/>
       <c r="B25" s="79"/>
       <c r="C25" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D25" s="131"/>
+      <c r="D25" s="124"/>
       <c r="E25" s="63" t="s">
         <v>257</v>
       </c>
@@ -3541,12 +3647,12 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="141"/>
+      <c r="A26" s="136"/>
       <c r="B26" s="80"/>
       <c r="C26" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D26" s="131"/>
+      <c r="D26" s="124"/>
       <c r="E26" s="63" t="s">
         <v>185</v>
       </c>
@@ -3554,21 +3660,21 @@
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="141"/>
+      <c r="A27" s="136"/>
       <c r="B27" s="81"/>
       <c r="C27" s="64"/>
-      <c r="D27" s="132"/>
+      <c r="D27" s="125"/>
       <c r="E27" s="63"/>
       <c r="F27" s="61"/>
       <c r="G27" s="61"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="140" t="s">
+      <c r="A28" s="149" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="66"/>
       <c r="C28" s="66"/>
-      <c r="D28" s="134" t="s">
+      <c r="D28" s="138" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="62"/>
@@ -3576,14 +3682,14 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="141"/>
+      <c r="A29" s="136"/>
       <c r="B29" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C29" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D29" s="135"/>
+      <c r="D29" s="139"/>
       <c r="E29" s="63" t="s">
         <v>106</v>
       </c>
@@ -3591,23 +3697,23 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="141"/>
+      <c r="A30" s="136"/>
       <c r="B30" s="66"/>
       <c r="C30" s="66"/>
-      <c r="D30" s="135"/>
+      <c r="D30" s="139"/>
       <c r="E30" s="64"/>
       <c r="F30" s="60"/>
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="140" t="s">
+      <c r="A31" s="149" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="65"/>
       <c r="C31" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="137"/>
+      <c r="D31" s="150"/>
       <c r="E31" s="60" t="s">
         <v>171</v>
       </c>
@@ -3615,14 +3721,14 @@
       <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="141"/>
+      <c r="A32" s="136"/>
       <c r="B32" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="D32" s="138"/>
+      <c r="D32" s="151"/>
       <c r="E32" s="60" t="s">
         <v>168</v>
       </c>
@@ -3630,12 +3736,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="141"/>
+      <c r="A33" s="136"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66" t="s">
         <v>259</v>
       </c>
-      <c r="D33" s="138"/>
+      <c r="D33" s="151"/>
       <c r="E33" s="60"/>
       <c r="F33" s="60" t="s">
         <v>170</v>
@@ -3643,32 +3749,32 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="141"/>
+      <c r="A34" s="136"/>
       <c r="B34" s="66"/>
       <c r="C34" s="66"/>
-      <c r="D34" s="138"/>
+      <c r="D34" s="151"/>
       <c r="E34" s="60"/>
       <c r="F34" s="60"/>
       <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="142"/>
+      <c r="A35" s="137"/>
       <c r="B35" s="66"/>
       <c r="C35" s="67"/>
-      <c r="D35" s="139"/>
+      <c r="D35" s="152"/>
       <c r="E35" s="60"/>
       <c r="F35" s="60"/>
       <c r="G35" s="61"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="141" t="s">
+      <c r="A36" s="136" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="62"/>
       <c r="C36" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="D36" s="135" t="s">
+      <c r="D36" s="139" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="82" t="s">
@@ -3678,12 +3784,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="141"/>
+      <c r="A37" s="136"/>
       <c r="B37" s="63"/>
       <c r="C37" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="D37" s="135"/>
+      <c r="D37" s="139"/>
       <c r="E37" s="66" t="s">
         <v>170</v>
       </c>
@@ -3691,14 +3797,14 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="141"/>
+      <c r="A38" s="136"/>
       <c r="B38" s="63" t="s">
         <v>248</v>
       </c>
       <c r="C38" s="60" t="s">
         <v>260</v>
       </c>
-      <c r="D38" s="135"/>
+      <c r="D38" s="139"/>
       <c r="E38" s="66" t="s">
         <v>171</v>
       </c>
@@ -3708,11 +3814,11 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="141"/>
+      <c r="A39" s="136"/>
       <c r="B39" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="D39" s="135"/>
+      <c r="D39" s="139"/>
       <c r="E39" s="66"/>
       <c r="F39" s="93" t="s">
         <v>171</v>
@@ -3720,16 +3826,26 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="142"/>
+      <c r="A40" s="137"/>
       <c r="B40" s="64"/>
       <c r="C40" s="58"/>
-      <c r="D40" s="136"/>
+      <c r="D40" s="140"/>
       <c r="E40" s="67"/>
       <c r="F40" s="64"/>
       <c r="G40" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="D28:D30"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -3742,16 +3858,6 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="E16:E18"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="D28:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3800,12 +3906,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="141" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="146" t="s">
+      <c r="D2" s="144" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -3817,36 +3923,36 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="144"/>
+      <c r="A3" s="142"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="147"/>
+      <c r="D3" s="145"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="145"/>
+      <c r="A4" s="143"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
-      <c r="D4" s="148"/>
+      <c r="D4" s="146"/>
       <c r="E4" s="57"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="147" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="139" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="84" t="s">
@@ -3856,14 +3962,14 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="149"/>
+      <c r="A6" s="147"/>
       <c r="B6" s="66" t="s">
         <v>255</v>
       </c>
       <c r="C6" s="66" t="s">
         <v>262</v>
       </c>
-      <c r="D6" s="135"/>
+      <c r="D6" s="139"/>
       <c r="E6" s="63" t="s">
         <v>263</v>
       </c>
@@ -3871,12 +3977,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="149"/>
+      <c r="A7" s="147"/>
       <c r="B7" s="66"/>
       <c r="C7" s="66" t="s">
         <v>264</v>
       </c>
-      <c r="D7" s="135"/>
+      <c r="D7" s="139"/>
       <c r="E7" s="63" t="s">
         <v>263</v>
       </c>
@@ -3884,12 +3990,12 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="149"/>
+      <c r="A8" s="147"/>
       <c r="B8" s="66" t="s">
         <v>265</v>
       </c>
       <c r="C8" s="66"/>
-      <c r="D8" s="135"/>
+      <c r="D8" s="139"/>
       <c r="E8" s="63" t="s">
         <v>241</v>
       </c>
@@ -3897,12 +4003,12 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="150"/>
+      <c r="A9" s="148"/>
       <c r="B9" s="66" t="s">
         <v>266</v>
       </c>
       <c r="C9" s="66"/>
-      <c r="D9" s="135"/>
+      <c r="D9" s="139"/>
       <c r="E9" s="64" t="s">
         <v>241</v>
       </c>
@@ -3910,14 +4016,14 @@
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="149" t="s">
+      <c r="A10" s="147" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="62"/>
       <c r="C10" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D10" s="134" t="s">
+      <c r="D10" s="138" t="s">
         <v>142</v>
       </c>
       <c r="E10" s="85" t="s">
@@ -3927,14 +4033,14 @@
       <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="149"/>
+      <c r="A11" s="147"/>
       <c r="B11" s="63" t="s">
         <v>267</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="D11" s="135"/>
+      <c r="D11" s="139"/>
       <c r="E11" s="63" t="s">
         <v>263</v>
       </c>
@@ -3944,14 +4050,14 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="150"/>
+      <c r="A12" s="148"/>
       <c r="B12" s="63" t="s">
         <v>269</v>
       </c>
       <c r="C12" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="D12" s="136"/>
+      <c r="D12" s="140"/>
       <c r="E12" s="66"/>
       <c r="F12" s="64" t="s">
         <v>180</v>
@@ -3959,7 +4065,7 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="141" t="s">
+      <c r="A13" s="136" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="100" t="s">
@@ -3968,7 +4074,7 @@
       <c r="C13" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="130" t="s">
+      <c r="D13" s="123" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="84" t="s">
@@ -3980,12 +4086,12 @@
       <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="141"/>
+      <c r="A14" s="136"/>
       <c r="B14" s="63"/>
       <c r="C14" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="D14" s="131"/>
+      <c r="D14" s="124"/>
       <c r="E14" s="63" t="s">
         <v>273</v>
       </c>
@@ -3993,12 +4099,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="141"/>
+      <c r="A15" s="136"/>
       <c r="B15" s="64"/>
       <c r="C15" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="D15" s="131"/>
+      <c r="D15" s="124"/>
       <c r="E15" s="64" t="s">
         <v>173</v>
       </c>
@@ -4006,57 +4112,57 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="140" t="s">
+      <c r="A16" s="149" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="63"/>
       <c r="C16" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="D16" s="134" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="135" t="s">
+      <c r="D16" s="138" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="139" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="137">
+      <c r="F16" s="150">
         <v>1</v>
       </c>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="141"/>
+      <c r="A17" s="136"/>
       <c r="B17" s="63" t="s">
         <v>276</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>277</v>
       </c>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="138"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="151"/>
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="141"/>
+      <c r="A18" s="136"/>
       <c r="B18" s="63"/>
       <c r="C18" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="D18" s="136"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="139"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="152"/>
       <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="140" t="s">
+      <c r="A19" s="149" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="62"/>
       <c r="C19" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D19" s="135" t="s">
+      <c r="D19" s="139" t="s">
         <v>227</v>
       </c>
       <c r="E19" s="84" t="s">
@@ -4066,12 +4172,12 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="141"/>
+      <c r="A20" s="136"/>
       <c r="B20" s="63"/>
       <c r="C20" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="135"/>
+      <c r="D20" s="139"/>
       <c r="E20" s="63" t="s">
         <v>185</v>
       </c>
@@ -4079,12 +4185,12 @@
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="141"/>
+      <c r="A21" s="136"/>
       <c r="B21" s="76"/>
       <c r="C21" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="D21" s="135"/>
+      <c r="D21" s="139"/>
       <c r="E21" s="63"/>
       <c r="F21" s="60" t="s">
         <v>185</v>
@@ -4092,12 +4198,12 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="141"/>
+      <c r="A22" s="136"/>
       <c r="B22" s="63" t="s">
         <v>255</v>
       </c>
       <c r="C22" s="57"/>
-      <c r="D22" s="135"/>
+      <c r="D22" s="139"/>
       <c r="E22" s="63"/>
       <c r="F22" s="60" t="s">
         <v>222</v>
@@ -4105,14 +4211,14 @@
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="151" t="s">
+      <c r="A23" s="153" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="86"/>
       <c r="C23" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D23" s="130" t="s">
+      <c r="D23" s="123" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="84" t="s">
@@ -4124,14 +4230,14 @@
       <c r="G23" s="59"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="152"/>
+      <c r="A24" s="154"/>
       <c r="B24" s="87" t="s">
         <v>271</v>
       </c>
       <c r="C24" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="D24" s="131"/>
+      <c r="D24" s="124"/>
       <c r="E24" s="63" t="s">
         <v>273</v>
       </c>
@@ -4139,12 +4245,12 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="152"/>
+      <c r="A25" s="154"/>
       <c r="B25" s="88"/>
       <c r="C25" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="D25" s="131"/>
+      <c r="D25" s="124"/>
       <c r="E25" s="63" t="s">
         <v>173</v>
       </c>
@@ -4152,21 +4258,21 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="153"/>
+      <c r="A26" s="155"/>
       <c r="B26" s="95"/>
       <c r="C26" s="61"/>
-      <c r="D26" s="131"/>
+      <c r="D26" s="124"/>
       <c r="E26" s="64"/>
       <c r="F26" s="61"/>
       <c r="G26" s="61"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="141" t="s">
+      <c r="A27" s="136" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="62"/>
       <c r="C27" s="57"/>
-      <c r="D27" s="137" t="s">
+      <c r="D27" s="150" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="60"/>
@@ -4174,12 +4280,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="141"/>
+      <c r="A28" s="136"/>
       <c r="B28" s="63"/>
       <c r="C28" s="57" t="s">
         <v>280</v>
       </c>
-      <c r="D28" s="138"/>
+      <c r="D28" s="151"/>
       <c r="E28" s="60" t="s">
         <v>180</v>
       </c>
@@ -4187,14 +4293,14 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="141"/>
+      <c r="A29" s="136"/>
       <c r="B29" s="63" t="s">
         <v>269</v>
       </c>
       <c r="C29" s="57" t="s">
         <v>281</v>
       </c>
-      <c r="D29" s="138"/>
+      <c r="D29" s="151"/>
       <c r="E29" s="60" t="s">
         <v>180</v>
       </c>
@@ -4217,14 +4323,14 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="141" t="s">
+      <c r="A31" s="136" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="66"/>
       <c r="C31" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D31" s="135"/>
+      <c r="D31" s="139"/>
       <c r="E31" s="84" t="s">
         <v>173</v>
       </c>
@@ -4232,14 +4338,14 @@
       <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="141"/>
+      <c r="A32" s="136"/>
       <c r="B32" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="D32" s="135"/>
+      <c r="D32" s="139"/>
       <c r="E32" s="63" t="s">
         <v>168</v>
       </c>
@@ -4247,12 +4353,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="141"/>
+      <c r="A33" s="136"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="D33" s="135"/>
+      <c r="D33" s="139"/>
       <c r="E33" s="63"/>
       <c r="F33" s="60" t="s">
         <v>170</v>
@@ -4260,32 +4366,32 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="141"/>
+      <c r="A34" s="136"/>
       <c r="B34" s="66"/>
       <c r="C34" s="66"/>
-      <c r="D34" s="135"/>
+      <c r="D34" s="139"/>
       <c r="E34" s="63"/>
       <c r="F34" s="60"/>
       <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="142"/>
+      <c r="A35" s="137"/>
       <c r="B35" s="66"/>
       <c r="C35" s="66"/>
-      <c r="D35" s="136"/>
+      <c r="D35" s="140"/>
       <c r="E35" s="64"/>
       <c r="F35" s="60"/>
       <c r="G35" s="61"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="141" t="s">
+      <c r="A36" s="136" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="62"/>
       <c r="C36" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D36" s="130" t="s">
+      <c r="D36" s="123" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="85" t="s">
@@ -4295,12 +4401,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="141"/>
+      <c r="A37" s="136"/>
       <c r="B37" s="63"/>
       <c r="C37" s="60" t="s">
         <v>284</v>
       </c>
-      <c r="D37" s="131"/>
+      <c r="D37" s="124"/>
       <c r="E37" s="66" t="s">
         <v>170</v>
       </c>
@@ -4308,14 +4414,14 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="141"/>
+      <c r="A38" s="136"/>
       <c r="B38" s="63" t="s">
         <v>248</v>
       </c>
       <c r="C38" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="D38" s="131"/>
+      <c r="D38" s="124"/>
       <c r="E38" s="66" t="s">
         <v>170</v>
       </c>
@@ -4325,12 +4431,12 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="141"/>
+      <c r="A39" s="136"/>
       <c r="B39" s="98" t="s">
         <v>228</v>
       </c>
       <c r="C39" s="49"/>
-      <c r="D39" s="131"/>
+      <c r="D39" s="124"/>
       <c r="E39" s="66"/>
       <c r="F39" s="93" t="s">
         <v>170</v>
@@ -4338,16 +4444,26 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="142"/>
+      <c r="A40" s="137"/>
       <c r="B40" s="64"/>
       <c r="C40" s="61"/>
-      <c r="D40" s="132"/>
+      <c r="D40" s="125"/>
       <c r="E40" s="67"/>
       <c r="F40" s="64"/>
       <c r="G40" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="D27:D29"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -4360,16 +4476,6 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="E16:E18"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="D27:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4418,12 +4524,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="149" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="158" t="s">
+      <c r="D2" s="156" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -4435,36 +4541,36 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="141"/>
+      <c r="A3" s="136"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="159"/>
+      <c r="D3" s="157"/>
       <c r="E3" s="63"/>
       <c r="F3" s="60"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="142"/>
+      <c r="A4" s="137"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="160"/>
+      <c r="D4" s="158"/>
       <c r="E4" s="64"/>
       <c r="F4" s="61"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="147" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="124" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="98" t="s">
@@ -4474,14 +4580,14 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="149"/>
+      <c r="A6" s="147"/>
       <c r="B6" s="66" t="s">
         <v>228</v>
       </c>
       <c r="C6" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="D6" s="131"/>
+      <c r="D6" s="124"/>
       <c r="E6" s="63" t="s">
         <v>241</v>
       </c>
@@ -4489,12 +4595,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="149"/>
+      <c r="A7" s="147"/>
       <c r="B7" s="66"/>
       <c r="C7" s="87" t="s">
         <v>287</v>
       </c>
-      <c r="D7" s="131"/>
+      <c r="D7" s="124"/>
       <c r="E7" s="63" t="s">
         <v>288</v>
       </c>
@@ -4502,32 +4608,32 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="149"/>
+      <c r="A8" s="147"/>
       <c r="B8" s="66"/>
       <c r="C8" s="63"/>
-      <c r="D8" s="131"/>
+      <c r="D8" s="124"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="150"/>
+      <c r="A9" s="148"/>
       <c r="B9" s="66"/>
       <c r="C9" s="64"/>
-      <c r="D9" s="131"/>
+      <c r="D9" s="124"/>
       <c r="E9" s="64"/>
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="149" t="s">
+      <c r="A10" s="147" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="62"/>
       <c r="C10" s="63" t="s">
         <v>289</v>
       </c>
-      <c r="D10" s="134" t="s">
+      <c r="D10" s="138" t="s">
         <v>142</v>
       </c>
       <c r="E10" s="85" t="s">
@@ -4537,14 +4643,14 @@
       <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="149"/>
+      <c r="A11" s="147"/>
       <c r="B11" s="63" t="s">
         <v>290</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>291</v>
       </c>
-      <c r="D11" s="135"/>
+      <c r="D11" s="139"/>
       <c r="E11" s="63" t="s">
         <v>130</v>
       </c>
@@ -4554,14 +4660,14 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="150"/>
+      <c r="A12" s="148"/>
       <c r="B12" s="64" t="s">
         <v>269</v>
       </c>
       <c r="C12" s="69" t="s">
         <v>292</v>
       </c>
-      <c r="D12" s="135"/>
+      <c r="D12" s="139"/>
       <c r="E12" s="66" t="s">
         <v>288</v>
       </c>
@@ -4571,14 +4677,14 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="141" t="s">
+      <c r="A13" s="136" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="68"/>
       <c r="C13" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="130" t="s">
+      <c r="D13" s="123" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="84" t="s">
@@ -4590,23 +4696,23 @@
       <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="141"/>
+      <c r="A14" s="136"/>
       <c r="B14" s="68"/>
       <c r="C14" s="63" t="s">
         <v>293</v>
       </c>
-      <c r="D14" s="131"/>
+      <c r="D14" s="124"/>
       <c r="E14" s="98"/>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="141"/>
+      <c r="A15" s="136"/>
       <c r="B15" s="66"/>
       <c r="C15" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="D15" s="131"/>
+      <c r="D15" s="124"/>
       <c r="E15" s="63" t="s">
         <v>130</v>
       </c>
@@ -4614,12 +4720,12 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="141"/>
+      <c r="A16" s="136"/>
       <c r="B16" s="66"/>
       <c r="C16" s="63" t="s">
         <v>295</v>
       </c>
-      <c r="D16" s="131"/>
+      <c r="D16" s="124"/>
       <c r="E16" s="63" t="s">
         <v>296</v>
       </c>
@@ -4627,12 +4733,12 @@
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="141"/>
+      <c r="A17" s="136"/>
       <c r="B17" s="67"/>
       <c r="C17" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="D17" s="132"/>
+      <c r="D17" s="125"/>
       <c r="E17" s="64" t="s">
         <v>298</v>
       </c>
@@ -4640,57 +4746,57 @@
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="140" t="s">
+      <c r="A18" s="149" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="63"/>
       <c r="C18" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D18" s="135" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="135" t="s">
+      <c r="D18" s="139" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="139" t="s">
         <v>156</v>
       </c>
-      <c r="F18" s="137">
+      <c r="F18" s="150">
         <v>1</v>
       </c>
       <c r="G18" s="59"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="141"/>
+      <c r="A19" s="136"/>
       <c r="B19" s="63" t="s">
         <v>299</v>
       </c>
       <c r="C19" s="77" t="s">
         <v>300</v>
       </c>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="138"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="151"/>
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="141"/>
+      <c r="A20" s="136"/>
       <c r="B20" s="63"/>
       <c r="C20" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="D20" s="136"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="139"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="152"/>
       <c r="G20" s="61"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="140" t="s">
+      <c r="A21" s="149" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="62"/>
       <c r="C21" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D21" s="135" t="s">
+      <c r="D21" s="139" t="s">
         <v>227</v>
       </c>
       <c r="E21" s="84" t="s">
@@ -4700,12 +4806,12 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="141"/>
+      <c r="A22" s="136"/>
       <c r="B22" s="63"/>
       <c r="C22" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="D22" s="135"/>
+      <c r="D22" s="139"/>
       <c r="E22" s="63" t="s">
         <v>185</v>
       </c>
@@ -4713,12 +4819,12 @@
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="141"/>
+      <c r="A23" s="136"/>
       <c r="B23" s="76"/>
       <c r="C23" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="D23" s="135"/>
+      <c r="D23" s="139"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60" t="s">
         <v>185</v>
@@ -4726,12 +4832,12 @@
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="141"/>
+      <c r="A24" s="136"/>
       <c r="B24" s="63" t="s">
         <v>255</v>
       </c>
       <c r="C24" s="57"/>
-      <c r="D24" s="135"/>
+      <c r="D24" s="139"/>
       <c r="E24" s="63"/>
       <c r="F24" s="60" t="s">
         <v>222</v>
@@ -4739,14 +4845,14 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="151" t="s">
+      <c r="A25" s="153" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="86"/>
       <c r="C25" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D25" s="130" t="s">
+      <c r="D25" s="123" t="s">
         <v>24</v>
       </c>
       <c r="E25" s="84" t="s">
@@ -4758,12 +4864,12 @@
       <c r="G25" s="59"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="157"/>
+      <c r="A26" s="162"/>
       <c r="B26" s="97"/>
       <c r="C26" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="D26" s="131"/>
+      <c r="D26" s="124"/>
       <c r="E26" s="98" t="s">
         <v>130</v>
       </c>
@@ -4771,12 +4877,12 @@
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="152"/>
+      <c r="A27" s="154"/>
       <c r="B27" s="87"/>
       <c r="C27" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="D27" s="131"/>
+      <c r="D27" s="124"/>
       <c r="E27" s="63" t="s">
         <v>130</v>
       </c>
@@ -4784,12 +4890,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="152"/>
+      <c r="A28" s="154"/>
       <c r="B28" s="88"/>
       <c r="C28" s="63" t="s">
         <v>295</v>
       </c>
-      <c r="D28" s="131"/>
+      <c r="D28" s="124"/>
       <c r="E28" s="63" t="s">
         <v>296</v>
       </c>
@@ -4797,12 +4903,12 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="153"/>
+      <c r="A29" s="155"/>
       <c r="B29" s="95"/>
       <c r="C29" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="D29" s="131"/>
+      <c r="D29" s="124"/>
       <c r="E29" s="64" t="s">
         <v>298</v>
       </c>
@@ -4810,14 +4916,14 @@
       <c r="G29" s="61"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="141" t="s">
+      <c r="A30" s="136" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="62"/>
       <c r="C30" s="57" t="s">
         <v>280</v>
       </c>
-      <c r="D30" s="137" t="s">
+      <c r="D30" s="150" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="60" t="s">
@@ -4827,12 +4933,12 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="141"/>
+      <c r="A31" s="136"/>
       <c r="B31" s="63"/>
       <c r="C31" s="57" t="s">
         <v>291</v>
       </c>
-      <c r="D31" s="138"/>
+      <c r="D31" s="151"/>
       <c r="E31" s="60"/>
       <c r="F31" s="60" t="s">
         <v>130</v>
@@ -4840,14 +4946,14 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="141"/>
+      <c r="A32" s="136"/>
       <c r="B32" s="63" t="s">
         <v>255</v>
       </c>
       <c r="C32" s="96" t="s">
         <v>302</v>
       </c>
-      <c r="D32" s="138"/>
+      <c r="D32" s="151"/>
       <c r="E32" s="60" t="s">
         <v>191</v>
       </c>
@@ -4868,14 +4974,14 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="141" t="s">
+      <c r="A34" s="136" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="66"/>
       <c r="C34" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D34" s="135" t="s">
+      <c r="D34" s="139" t="s">
         <v>24</v>
       </c>
       <c r="E34" s="84" t="s">
@@ -4885,14 +4991,14 @@
       <c r="G34" s="59"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="141"/>
+      <c r="A35" s="136"/>
       <c r="B35" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C35" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="D35" s="135"/>
+      <c r="D35" s="139"/>
       <c r="E35" s="63" t="s">
         <v>168</v>
       </c>
@@ -4900,12 +5006,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="141"/>
+      <c r="A36" s="136"/>
       <c r="B36" s="66"/>
       <c r="C36" s="66" t="s">
         <v>303</v>
       </c>
-      <c r="D36" s="135"/>
+      <c r="D36" s="139"/>
       <c r="E36" s="63"/>
       <c r="F36" s="60" t="s">
         <v>170</v>
@@ -4913,12 +5019,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="141"/>
+      <c r="A37" s="136"/>
       <c r="B37" s="66"/>
       <c r="C37" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="D37" s="135"/>
+      <c r="D37" s="139"/>
       <c r="E37" s="63" t="s">
         <v>298</v>
       </c>
@@ -4926,23 +5032,23 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="142"/>
+      <c r="A38" s="137"/>
       <c r="B38" s="67"/>
       <c r="C38" s="66"/>
-      <c r="D38" s="135"/>
+      <c r="D38" s="139"/>
       <c r="E38" s="64"/>
       <c r="F38" s="60"/>
       <c r="G38" s="61"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="141" t="s">
+      <c r="A39" s="136" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="66"/>
       <c r="C39" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D39" s="154" t="s">
+      <c r="D39" s="159" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="77" t="s">
@@ -4952,12 +5058,12 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="141"/>
+      <c r="A40" s="136"/>
       <c r="B40" s="66"/>
       <c r="C40" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="D40" s="155"/>
+      <c r="D40" s="160"/>
       <c r="E40" s="57" t="s">
         <v>170</v>
       </c>
@@ -4965,14 +5071,14 @@
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="141"/>
+      <c r="A41" s="136"/>
       <c r="B41" s="66" t="s">
         <v>248</v>
       </c>
       <c r="C41" s="63" t="s">
         <v>304</v>
       </c>
-      <c r="D41" s="155"/>
+      <c r="D41" s="160"/>
       <c r="E41" s="57" t="s">
         <v>288</v>
       </c>
@@ -4982,28 +5088,38 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="141"/>
+      <c r="A42" s="136"/>
       <c r="B42" s="66" t="s">
         <v>305</v>
       </c>
       <c r="C42" s="76"/>
-      <c r="D42" s="155"/>
+      <c r="D42" s="160"/>
       <c r="F42" s="101" t="s">
         <v>239</v>
       </c>
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="142"/>
+      <c r="A43" s="137"/>
       <c r="B43" s="67"/>
       <c r="C43" s="99"/>
-      <c r="D43" s="156"/>
+      <c r="D43" s="161"/>
       <c r="E43" s="58"/>
       <c r="F43" s="64"/>
       <c r="G43" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="D30:D32"/>
     <mergeCell ref="F18:F20"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -5016,16 +5132,6 @@
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="E18:E20"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="D30:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5035,15 +5141,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29BFE937-B8E4-40EB-B74B-BDF32F686EF8}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="E35" sqref="A1:G43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.5703125" customWidth="1"/>
     <col min="2" max="2" width="42.5703125" customWidth="1"/>
-    <col min="3" max="3" width="74.140625" customWidth="1"/>
+    <col min="3" max="3" width="85.140625" customWidth="1"/>
     <col min="4" max="4" width="29.7109375" customWidth="1"/>
     <col min="5" max="5" width="29.28515625" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
@@ -5074,12 +5180,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="136" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="66"/>
       <c r="C2" s="66"/>
-      <c r="D2" s="161" t="s">
+      <c r="D2" s="166" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="63" t="s">
@@ -5091,36 +5197,36 @@
       <c r="G2" s="60"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="141"/>
+      <c r="A3" s="136"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="159"/>
+      <c r="D3" s="157"/>
       <c r="E3" s="63"/>
       <c r="F3" s="60"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="142"/>
+      <c r="A4" s="137"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="160"/>
+      <c r="D4" s="158"/>
       <c r="E4" s="64"/>
       <c r="F4" s="61"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="147" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="124" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="98" t="s">
@@ -5130,14 +5236,14 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="149"/>
+      <c r="A6" s="147"/>
       <c r="B6" s="66" t="s">
         <v>228</v>
       </c>
       <c r="C6" s="63" t="s">
         <v>306</v>
       </c>
-      <c r="D6" s="131"/>
+      <c r="D6" s="124"/>
       <c r="E6" s="63" t="s">
         <v>307</v>
       </c>
@@ -5145,12 +5251,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="149"/>
+      <c r="A7" s="147"/>
       <c r="B7" s="66"/>
       <c r="C7" s="87" t="s">
         <v>308</v>
       </c>
-      <c r="D7" s="131"/>
+      <c r="D7" s="124"/>
       <c r="E7" s="63" t="s">
         <v>309</v>
       </c>
@@ -5158,12 +5264,12 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="149"/>
+      <c r="A8" s="147"/>
       <c r="B8" s="66"/>
       <c r="C8" s="64" t="s">
         <v>310</v>
       </c>
-      <c r="D8" s="131"/>
+      <c r="D8" s="124"/>
       <c r="E8" s="64" t="s">
         <v>311</v>
       </c>
@@ -5171,23 +5277,23 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="150"/>
+      <c r="A9" s="148"/>
       <c r="B9" s="66"/>
       <c r="C9" s="64"/>
-      <c r="D9" s="131"/>
+      <c r="D9" s="124"/>
       <c r="E9" s="64"/>
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="149" t="s">
+      <c r="A10" s="147" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="62"/>
       <c r="C10" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D10" s="134" t="s">
+      <c r="D10" s="138" t="s">
         <v>142</v>
       </c>
       <c r="E10" s="85" t="s">
@@ -5197,14 +5303,14 @@
       <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="149"/>
+      <c r="A11" s="147"/>
       <c r="B11" s="63" t="s">
         <v>313</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>314</v>
       </c>
-      <c r="D11" s="135"/>
+      <c r="D11" s="139"/>
       <c r="E11" s="63" t="s">
         <v>132</v>
       </c>
@@ -5212,12 +5318,12 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="149"/>
+      <c r="A12" s="147"/>
       <c r="B12" s="63"/>
       <c r="C12" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="D12" s="135"/>
+      <c r="D12" s="139"/>
       <c r="E12" s="66" t="s">
         <v>180</v>
       </c>
@@ -5225,23 +5331,23 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="150"/>
+      <c r="A13" s="148"/>
       <c r="B13" s="64"/>
       <c r="C13" s="58"/>
-      <c r="D13" s="135"/>
+      <c r="D13" s="139"/>
       <c r="E13" s="66"/>
       <c r="F13" s="64"/>
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="141" t="s">
+      <c r="A14" s="136" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="68"/>
       <c r="C14" s="107" t="s">
         <v>261</v>
       </c>
-      <c r="D14" s="130" t="s">
+      <c r="D14" s="123" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="84" t="s">
@@ -5251,12 +5357,12 @@
       <c r="G14" s="59"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="141"/>
+      <c r="A15" s="136"/>
       <c r="B15" s="68"/>
       <c r="C15" s="63" t="s">
         <v>316</v>
       </c>
-      <c r="D15" s="131"/>
+      <c r="D15" s="124"/>
       <c r="E15" s="98" t="s">
         <v>132</v>
       </c>
@@ -5264,12 +5370,12 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="141"/>
+      <c r="A16" s="136"/>
       <c r="B16" s="66"/>
       <c r="C16" s="63" t="s">
         <v>317</v>
       </c>
-      <c r="D16" s="131"/>
+      <c r="D16" s="124"/>
       <c r="E16" s="95" t="s">
         <v>132</v>
       </c>
@@ -5277,12 +5383,12 @@
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="141"/>
+      <c r="A17" s="136"/>
       <c r="B17" s="66" t="s">
         <v>318</v>
       </c>
       <c r="C17" s="63"/>
-      <c r="D17" s="131"/>
+      <c r="D17" s="124"/>
       <c r="E17" s="63"/>
       <c r="F17" s="60" t="s">
         <v>185</v>
@@ -5290,64 +5396,64 @@
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="141"/>
+      <c r="A18" s="136"/>
       <c r="B18" s="67"/>
       <c r="C18" s="64"/>
-      <c r="D18" s="132"/>
+      <c r="D18" s="125"/>
       <c r="E18" s="64"/>
       <c r="F18" s="60"/>
       <c r="G18" s="60"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="140" t="s">
+      <c r="A19" s="149" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="63"/>
       <c r="C19" s="63" t="s">
         <v>319</v>
       </c>
-      <c r="D19" s="135" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="135" t="s">
+      <c r="D19" s="139" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="139" t="s">
         <v>320</v>
       </c>
-      <c r="F19" s="137"/>
+      <c r="F19" s="150"/>
       <c r="G19" s="59"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="141"/>
+      <c r="A20" s="136"/>
       <c r="B20" s="63" t="s">
         <v>321</v>
       </c>
       <c r="C20" s="77" t="s">
         <v>322</v>
       </c>
-      <c r="D20" s="135"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="138"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="151"/>
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="141"/>
+      <c r="A21" s="136"/>
       <c r="B21" s="63"/>
       <c r="C21" s="58" t="s">
         <v>323</v>
       </c>
-      <c r="D21" s="136"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="139"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="152"/>
       <c r="G21" s="61"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="140" t="s">
+      <c r="A22" s="149" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="62"/>
       <c r="C22" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D22" s="135" t="s">
+      <c r="D22" s="139" t="s">
         <v>227</v>
       </c>
       <c r="E22" s="84" t="s">
@@ -5357,12 +5463,12 @@
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="141"/>
+      <c r="A23" s="136"/>
       <c r="B23" s="63"/>
       <c r="C23" s="57" t="s">
         <v>324</v>
       </c>
-      <c r="D23" s="135"/>
+      <c r="D23" s="139"/>
       <c r="E23" s="63" t="s">
         <v>176</v>
       </c>
@@ -5370,14 +5476,14 @@
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="141"/>
+      <c r="A24" s="136"/>
       <c r="B24" s="63" t="s">
         <v>325</v>
       </c>
       <c r="C24" s="57" t="s">
         <v>326</v>
       </c>
-      <c r="D24" s="135"/>
+      <c r="D24" s="139"/>
       <c r="E24" s="63" t="s">
         <v>185</v>
       </c>
@@ -5385,14 +5491,14 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="141"/>
+      <c r="A25" s="136"/>
       <c r="B25" s="63" t="s">
         <v>255</v>
       </c>
       <c r="C25" s="57" t="s">
         <v>327</v>
       </c>
-      <c r="D25" s="135"/>
+      <c r="D25" s="139"/>
       <c r="E25" s="63" t="s">
         <v>309</v>
       </c>
@@ -5402,14 +5508,14 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="151" t="s">
+      <c r="A26" s="153" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="78"/>
       <c r="C26" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D26" s="130" t="s">
+      <c r="D26" s="123" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="84" t="s">
@@ -5419,14 +5525,14 @@
       <c r="G26" s="59"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="157"/>
+      <c r="A27" s="162"/>
       <c r="B27" s="83" t="s">
         <v>328</v>
       </c>
       <c r="C27" s="98" t="s">
         <v>329</v>
       </c>
-      <c r="D27" s="131"/>
+      <c r="D27" s="124"/>
       <c r="E27" s="98" t="s">
         <v>330</v>
       </c>
@@ -5434,12 +5540,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="152"/>
+      <c r="A28" s="154"/>
       <c r="B28" s="68"/>
       <c r="C28" s="63" t="s">
         <v>331</v>
       </c>
-      <c r="D28" s="131"/>
+      <c r="D28" s="124"/>
       <c r="E28" s="63" t="s">
         <v>309</v>
       </c>
@@ -5447,12 +5553,12 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="152"/>
+      <c r="A29" s="154"/>
       <c r="B29" s="80"/>
       <c r="C29" s="63" t="s">
         <v>332</v>
       </c>
-      <c r="D29" s="131"/>
+      <c r="D29" s="124"/>
       <c r="E29" s="63" t="s">
         <v>173</v>
       </c>
@@ -5460,12 +5566,12 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="162"/>
+      <c r="A30" s="163"/>
       <c r="B30" s="108"/>
       <c r="C30" s="63" t="s">
         <v>310</v>
       </c>
-      <c r="D30" s="131"/>
+      <c r="D30" s="124"/>
       <c r="E30" s="63" t="s">
         <v>311</v>
       </c>
@@ -5473,14 +5579,14 @@
       <c r="G30" s="61"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="163" t="s">
+      <c r="A31" s="164" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="109"/>
       <c r="C31" s="110" t="s">
         <v>333</v>
       </c>
-      <c r="D31" s="164" t="s">
+      <c r="D31" s="165" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="109" t="s">
@@ -5490,14 +5596,14 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="128"/>
+      <c r="A32" s="121"/>
       <c r="B32" s="60" t="s">
         <v>334</v>
       </c>
       <c r="C32" s="57" t="s">
         <v>335</v>
       </c>
-      <c r="D32" s="138"/>
+      <c r="D32" s="151"/>
       <c r="E32" s="60" t="s">
         <v>132</v>
       </c>
@@ -5505,12 +5611,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="129"/>
+      <c r="A33" s="122"/>
       <c r="B33" s="61"/>
       <c r="C33" s="111" t="s">
         <v>336</v>
       </c>
-      <c r="D33" s="139"/>
+      <c r="D33" s="152"/>
       <c r="E33" s="61"/>
       <c r="F33" s="61" t="s">
         <v>180</v>
@@ -5518,14 +5624,14 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="141" t="s">
+      <c r="A34" s="136" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="66"/>
       <c r="C34" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D34" s="135" t="s">
+      <c r="D34" s="139" t="s">
         <v>24</v>
       </c>
       <c r="E34" s="98" t="s">
@@ -5535,14 +5641,14 @@
       <c r="G34" s="59"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="141"/>
+      <c r="A35" s="136"/>
       <c r="B35" s="66" t="s">
         <v>337</v>
       </c>
       <c r="C35" s="68" t="s">
         <v>338</v>
       </c>
-      <c r="D35" s="135"/>
+      <c r="D35" s="139"/>
       <c r="E35" s="63" t="s">
         <v>170</v>
       </c>
@@ -5550,12 +5656,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="141"/>
+      <c r="A36" s="136"/>
       <c r="B36" s="66"/>
       <c r="C36" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="D36" s="135"/>
+      <c r="D36" s="139"/>
       <c r="E36" s="63" t="s">
         <v>241</v>
       </c>
@@ -5563,12 +5669,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="141"/>
+      <c r="A37" s="136"/>
       <c r="B37" s="66"/>
       <c r="C37" s="66" t="s">
         <v>340</v>
       </c>
-      <c r="D37" s="135"/>
+      <c r="D37" s="139"/>
       <c r="E37" s="63" t="s">
         <v>170</v>
       </c>
@@ -5576,12 +5682,12 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="142"/>
+      <c r="A38" s="137"/>
       <c r="B38" s="67"/>
       <c r="C38" s="66" t="s">
         <v>341</v>
       </c>
-      <c r="D38" s="135"/>
+      <c r="D38" s="139"/>
       <c r="E38" s="64" t="s">
         <v>342</v>
       </c>
@@ -5589,14 +5695,14 @@
       <c r="G38" s="61"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="141" t="s">
+      <c r="A39" s="136" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="66"/>
       <c r="C39" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D39" s="154" t="s">
+      <c r="D39" s="159" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="46" t="s">
@@ -5606,12 +5712,12 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="141"/>
+      <c r="A40" s="136"/>
       <c r="B40" s="66"/>
       <c r="C40" s="63" t="s">
         <v>343</v>
       </c>
-      <c r="D40" s="155"/>
+      <c r="D40" s="160"/>
       <c r="E40" s="77" t="s">
         <v>344</v>
       </c>
@@ -5619,14 +5725,14 @@
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="141"/>
+      <c r="A41" s="136"/>
       <c r="B41" s="66" t="s">
         <v>345</v>
       </c>
       <c r="C41" s="63" t="s">
         <v>346</v>
       </c>
-      <c r="D41" s="155"/>
+      <c r="D41" s="160"/>
       <c r="E41" s="57" t="s">
         <v>170</v>
       </c>
@@ -5636,35 +5742,25 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="141"/>
+      <c r="A42" s="136"/>
       <c r="B42" s="66"/>
       <c r="C42" s="93"/>
-      <c r="D42" s="155"/>
+      <c r="D42" s="160"/>
       <c r="E42" s="46"/>
       <c r="F42" s="101"/>
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="142"/>
+      <c r="A43" s="137"/>
       <c r="B43" s="67"/>
       <c r="C43" s="99"/>
-      <c r="D43" s="156"/>
+      <c r="D43" s="161"/>
       <c r="E43" s="58"/>
       <c r="F43" s="64"/>
       <c r="G43" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="D31:D33"/>
     <mergeCell ref="F19:F21"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -5677,6 +5773,16 @@
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="E19:E21"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="D31:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5686,8 +5792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA09234C-6E93-41E9-BD5A-8ADA5800AAB1}">
   <dimension ref="A2:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5722,14 +5828,14 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="136" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="66"/>
       <c r="C3" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="D3" s="161" t="s">
+      <c r="D3" s="166" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="63" t="s">
@@ -5741,14 +5847,14 @@
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="141"/>
+      <c r="A4" s="136"/>
       <c r="B4" s="66" t="s">
         <v>347</v>
       </c>
       <c r="C4" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="D4" s="159"/>
+      <c r="D4" s="157"/>
       <c r="E4" s="63" t="s">
         <v>349</v>
       </c>
@@ -5756,12 +5862,12 @@
       <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="142"/>
+      <c r="A5" s="137"/>
       <c r="B5" s="67"/>
       <c r="C5" s="66" t="s">
         <v>350</v>
       </c>
-      <c r="D5" s="160"/>
+      <c r="D5" s="158"/>
       <c r="E5" s="63" t="s">
         <v>351</v>
       </c>
@@ -5769,14 +5875,14 @@
       <c r="G5" s="61"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="149" t="s">
+      <c r="A6" s="147" t="s">
         <v>134</v>
       </c>
       <c r="B6" s="66"/>
       <c r="C6" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D6" s="131" t="s">
+      <c r="D6" s="124" t="s">
         <v>137</v>
       </c>
       <c r="E6" s="84" t="s">
@@ -5786,12 +5892,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="149"/>
+      <c r="A7" s="147"/>
       <c r="B7" s="66"/>
       <c r="C7" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="D7" s="131"/>
+      <c r="D7" s="124"/>
       <c r="E7" s="63" t="s">
         <v>309</v>
       </c>
@@ -5799,14 +5905,14 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="149"/>
+      <c r="A8" s="147"/>
       <c r="B8" s="66" t="s">
         <v>228</v>
       </c>
       <c r="C8" s="87" t="s">
         <v>353</v>
       </c>
-      <c r="D8" s="131"/>
+      <c r="D8" s="124"/>
       <c r="E8" s="63" t="s">
         <v>185</v>
       </c>
@@ -5814,32 +5920,32 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="149"/>
+      <c r="A9" s="147"/>
       <c r="B9" s="66"/>
       <c r="C9" s="63"/>
-      <c r="D9" s="131"/>
+      <c r="D9" s="124"/>
       <c r="E9" s="63"/>
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="150"/>
+      <c r="A10" s="148"/>
       <c r="B10" s="66"/>
       <c r="C10" s="64"/>
-      <c r="D10" s="131"/>
+      <c r="D10" s="124"/>
       <c r="E10" s="64"/>
       <c r="F10" s="60"/>
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="149" t="s">
+      <c r="A11" s="147" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="62"/>
       <c r="C11" s="63" t="s">
         <v>354</v>
       </c>
-      <c r="D11" s="134" t="s">
+      <c r="D11" s="138" t="s">
         <v>142</v>
       </c>
       <c r="E11" s="85" t="s">
@@ -5849,12 +5955,12 @@
       <c r="G11" s="59"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="149"/>
+      <c r="A12" s="147"/>
       <c r="B12" s="63"/>
       <c r="C12" s="77" t="s">
         <v>261</v>
       </c>
-      <c r="D12" s="135"/>
+      <c r="D12" s="139"/>
       <c r="E12" s="63" t="s">
         <v>180</v>
       </c>
@@ -5862,14 +5968,14 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="149"/>
+      <c r="A13" s="147"/>
       <c r="B13" s="63" t="s">
         <v>356</v>
       </c>
       <c r="C13" s="57" t="s">
         <v>357</v>
       </c>
-      <c r="D13" s="135"/>
+      <c r="D13" s="139"/>
       <c r="E13" s="63" t="s">
         <v>130</v>
       </c>
@@ -5879,14 +5985,14 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="149"/>
+      <c r="A14" s="147"/>
       <c r="B14" s="63" t="s">
         <v>359</v>
       </c>
       <c r="C14" s="77" t="s">
         <v>315</v>
       </c>
-      <c r="D14" s="135"/>
+      <c r="D14" s="139"/>
       <c r="E14" s="66" t="s">
         <v>180</v>
       </c>
@@ -5894,12 +6000,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="150"/>
+      <c r="A15" s="148"/>
       <c r="B15" s="63"/>
       <c r="C15" s="57" t="s">
         <v>360</v>
       </c>
-      <c r="D15" s="135"/>
+      <c r="D15" s="139"/>
       <c r="E15" s="66" t="s">
         <v>351</v>
       </c>
@@ -5907,14 +6013,14 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="141" t="s">
+      <c r="A16" s="136" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="100"/>
       <c r="C16" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="D16" s="130" t="s">
+      <c r="D16" s="123" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="84" t="s">
@@ -5924,14 +6030,14 @@
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="141"/>
+      <c r="A17" s="136"/>
       <c r="B17" s="98" t="s">
         <v>362</v>
       </c>
       <c r="C17" s="112" t="s">
         <v>261</v>
       </c>
-      <c r="D17" s="131"/>
+      <c r="D17" s="124"/>
       <c r="E17" s="98" t="s">
         <v>363</v>
       </c>
@@ -5939,14 +6045,14 @@
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="141"/>
+      <c r="A18" s="136"/>
       <c r="B18" s="87" t="s">
         <v>255</v>
       </c>
       <c r="C18" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="D18" s="131"/>
+      <c r="D18" s="124"/>
       <c r="E18" s="63" t="s">
         <v>130</v>
       </c>
@@ -5956,12 +6062,12 @@
       <c r="G18" s="60"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="141"/>
+      <c r="A19" s="136"/>
       <c r="B19" s="64"/>
       <c r="C19" s="61" t="s">
         <v>327</v>
       </c>
-      <c r="D19" s="132"/>
+      <c r="D19" s="125"/>
       <c r="E19" s="64" t="s">
         <v>130</v>
       </c>
@@ -5969,66 +6075,66 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="127" t="s">
+      <c r="A20" s="120" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="57"/>
       <c r="C20" s="63" t="s">
         <v>366</v>
       </c>
-      <c r="D20" s="137" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="137" t="s">
+      <c r="D20" s="150" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="150" t="s">
         <v>367</v>
       </c>
-      <c r="F20" s="134"/>
-      <c r="G20" s="137"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="150"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="128"/>
+      <c r="A21" s="121"/>
       <c r="B21" s="60"/>
       <c r="C21" s="63" t="s">
         <v>368</v>
       </c>
-      <c r="D21" s="138"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="138"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="151"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="128"/>
+      <c r="A22" s="121"/>
       <c r="B22" s="60" t="s">
         <v>321</v>
       </c>
       <c r="C22" s="77" t="s">
         <v>369</v>
       </c>
-      <c r="D22" s="138"/>
-      <c r="E22" s="138"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="138"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="151"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="128"/>
+      <c r="A23" s="121"/>
       <c r="B23" s="60"/>
       <c r="C23" s="57" t="s">
         <v>370</v>
       </c>
-      <c r="D23" s="138"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="135"/>
-      <c r="G23" s="138"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="151"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="127" t="s">
+      <c r="A24" s="120" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="56"/>
       <c r="C24" s="116" t="s">
         <v>371</v>
       </c>
-      <c r="D24" s="130" t="s">
+      <c r="D24" s="123" t="s">
         <v>227</v>
       </c>
       <c r="E24" s="117" t="s">
@@ -6038,12 +6144,12 @@
       <c r="G24" s="62"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="128"/>
+      <c r="A25" s="121"/>
       <c r="B25" s="57"/>
       <c r="C25" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D25" s="131"/>
+      <c r="D25" s="124"/>
       <c r="E25" s="85" t="s">
         <v>173</v>
       </c>
@@ -6051,12 +6157,12 @@
       <c r="G25" s="63"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="128"/>
+      <c r="A26" s="121"/>
       <c r="B26" s="57"/>
       <c r="C26" s="63" t="s">
         <v>373</v>
       </c>
-      <c r="D26" s="131"/>
+      <c r="D26" s="124"/>
       <c r="E26" s="66" t="s">
         <v>374</v>
       </c>
@@ -6064,14 +6170,14 @@
       <c r="G26" s="63"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="128"/>
+      <c r="A27" s="121"/>
       <c r="B27" s="57" t="s">
         <v>325</v>
       </c>
       <c r="C27" s="63" t="s">
         <v>375</v>
       </c>
-      <c r="D27" s="131"/>
+      <c r="D27" s="124"/>
       <c r="E27" s="66" t="s">
         <v>309</v>
       </c>
@@ -6079,12 +6185,12 @@
       <c r="G27" s="63"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="128"/>
+      <c r="A28" s="121"/>
       <c r="B28" s="55" t="s">
         <v>255</v>
       </c>
       <c r="C28" s="64"/>
-      <c r="D28" s="132"/>
+      <c r="D28" s="125"/>
       <c r="E28" s="67" t="s">
         <v>309</v>
       </c>
@@ -6092,14 +6198,14 @@
       <c r="G28" s="64"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="165" t="s">
+      <c r="A29" s="167" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="113"/>
       <c r="C29" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D29" s="131" t="s">
+      <c r="D29" s="124" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="98" t="s">
@@ -6109,14 +6215,14 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A30" s="166"/>
+      <c r="A30" s="168"/>
       <c r="B30" s="60" t="s">
         <v>376</v>
       </c>
       <c r="C30" s="98" t="s">
         <v>377</v>
       </c>
-      <c r="D30" s="131"/>
+      <c r="D30" s="124"/>
       <c r="E30" s="98" t="s">
         <v>378</v>
       </c>
@@ -6124,12 +6230,12 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="167"/>
+      <c r="A31" s="169"/>
       <c r="B31" s="69"/>
       <c r="C31" s="63" t="s">
         <v>379</v>
       </c>
-      <c r="D31" s="131"/>
+      <c r="D31" s="124"/>
       <c r="E31" s="63" t="s">
         <v>309</v>
       </c>
@@ -6137,12 +6243,12 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="167"/>
+      <c r="A32" s="169"/>
       <c r="B32" s="114"/>
       <c r="C32" s="63" t="s">
         <v>380</v>
       </c>
-      <c r="D32" s="131"/>
+      <c r="D32" s="124"/>
       <c r="E32" s="63" t="s">
         <v>381</v>
       </c>
@@ -6150,12 +6256,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="168"/>
+      <c r="A33" s="170"/>
       <c r="B33" s="115"/>
       <c r="C33" s="63" t="s">
         <v>382</v>
       </c>
-      <c r="D33" s="131"/>
+      <c r="D33" s="124"/>
       <c r="E33" s="63" t="s">
         <v>311</v>
       </c>
@@ -6163,14 +6269,14 @@
       <c r="G33" s="61"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="128" t="s">
+      <c r="A34" s="121" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="109"/>
       <c r="C34" s="110" t="s">
         <v>383</v>
       </c>
-      <c r="D34" s="164" t="s">
+      <c r="D34" s="165" t="s">
         <v>24</v>
       </c>
       <c r="E34" s="109" t="s">
@@ -6180,12 +6286,12 @@
       <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="128"/>
+      <c r="A35" s="121"/>
       <c r="B35" s="60"/>
       <c r="C35" s="57" t="s">
         <v>384</v>
       </c>
-      <c r="D35" s="138"/>
+      <c r="D35" s="151"/>
       <c r="E35" s="60" t="s">
         <v>130</v>
       </c>
@@ -6193,14 +6299,14 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="128"/>
+      <c r="A36" s="121"/>
       <c r="B36" s="60" t="s">
         <v>385</v>
       </c>
       <c r="C36" s="57" t="s">
         <v>386</v>
       </c>
-      <c r="D36" s="138"/>
+      <c r="D36" s="151"/>
       <c r="E36" s="60" t="s">
         <v>180</v>
       </c>
@@ -6208,12 +6314,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="128"/>
+      <c r="A37" s="121"/>
       <c r="B37" s="60"/>
       <c r="C37" s="57" t="s">
         <v>387</v>
       </c>
-      <c r="D37" s="138"/>
+      <c r="D37" s="151"/>
       <c r="E37" s="60" t="s">
         <v>191</v>
       </c>
@@ -6221,23 +6327,23 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="129"/>
+      <c r="A38" s="122"/>
       <c r="B38" s="61"/>
       <c r="C38" s="111"/>
-      <c r="D38" s="139"/>
+      <c r="D38" s="152"/>
       <c r="E38" s="61"/>
       <c r="F38" s="61"/>
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="141" t="s">
+      <c r="A39" s="136" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="66"/>
       <c r="C39" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D39" s="135" t="s">
+      <c r="D39" s="139" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="98" t="s">
@@ -6247,14 +6353,14 @@
       <c r="G39" s="59"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="141"/>
+      <c r="A40" s="136"/>
       <c r="B40" s="66" t="s">
         <v>388</v>
       </c>
       <c r="C40" s="68" t="s">
         <v>389</v>
       </c>
-      <c r="D40" s="135"/>
+      <c r="D40" s="139"/>
       <c r="E40" s="63" t="s">
         <v>243</v>
       </c>
@@ -6262,12 +6368,12 @@
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="141"/>
+      <c r="A41" s="136"/>
       <c r="B41" s="66"/>
       <c r="C41" s="66" t="s">
         <v>390</v>
       </c>
-      <c r="D41" s="135"/>
+      <c r="D41" s="139"/>
       <c r="E41" s="63" t="s">
         <v>241</v>
       </c>
@@ -6275,12 +6381,12 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="141"/>
+      <c r="A42" s="136"/>
       <c r="B42" s="66"/>
       <c r="C42" s="66" t="s">
         <v>391</v>
       </c>
-      <c r="D42" s="135"/>
+      <c r="D42" s="139"/>
       <c r="E42" s="63" t="s">
         <v>170</v>
       </c>
@@ -6288,67 +6394,78 @@
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="142"/>
+      <c r="A43" s="137"/>
       <c r="B43" s="67"/>
       <c r="C43" s="66"/>
-      <c r="D43" s="135"/>
+      <c r="D43" s="139"/>
       <c r="E43" s="64"/>
       <c r="F43" s="60"/>
       <c r="G43" s="61"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="141" t="s">
+      <c r="A44" s="136" t="s">
         <v>30</v>
       </c>
       <c r="B44" s="66"/>
       <c r="C44" s="62"/>
-      <c r="D44" s="154"/>
+      <c r="D44" s="159"/>
       <c r="E44" s="46"/>
       <c r="F44" s="62"/>
       <c r="G44" s="60"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="141"/>
+      <c r="A45" s="136"/>
       <c r="B45" s="66"/>
       <c r="C45" s="63"/>
-      <c r="D45" s="155"/>
+      <c r="D45" s="160"/>
       <c r="E45" s="77"/>
       <c r="F45" s="63"/>
       <c r="G45" s="60"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="141"/>
+      <c r="A46" s="136"/>
       <c r="B46" s="66" t="s">
         <v>245</v>
       </c>
       <c r="C46" s="63" t="s">
         <v>245</v>
       </c>
-      <c r="D46" s="155"/>
+      <c r="D46" s="160"/>
       <c r="E46" s="57"/>
       <c r="F46" s="63"/>
       <c r="G46" s="60"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="141"/>
+      <c r="A47" s="136"/>
       <c r="B47" s="66"/>
       <c r="C47" s="93"/>
-      <c r="D47" s="155"/>
+      <c r="D47" s="160"/>
       <c r="E47" s="46"/>
       <c r="F47" s="101"/>
       <c r="G47" s="60"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="142"/>
+      <c r="A48" s="137"/>
       <c r="B48" s="67"/>
       <c r="C48" s="99"/>
-      <c r="D48" s="156"/>
+      <c r="D48" s="161"/>
       <c r="E48" s="58"/>
       <c r="F48" s="64"/>
       <c r="G48" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="D11:D15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="D16:D19"/>
     <mergeCell ref="A24:A28"/>
@@ -6361,17 +6478,634 @@
     <mergeCell ref="D39:D43"/>
     <mergeCell ref="D34:D38"/>
     <mergeCell ref="A34:A38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B6DB65-F97A-4BA7-A76B-DB8B09A04A96}">
+  <dimension ref="A2:G45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" customWidth="1"/>
+    <col min="3" max="3" width="86.140625" customWidth="1"/>
+    <col min="4" max="7" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="102" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="136" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66" t="s">
+        <v>392</v>
+      </c>
+      <c r="D3" s="166" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="60"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="136"/>
+      <c r="B4" s="66" t="s">
+        <v>393</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>386</v>
+      </c>
+      <c r="D4" s="157"/>
+      <c r="E4" s="63" t="s">
+        <v>394</v>
+      </c>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="137"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="66" t="s">
+        <v>395</v>
+      </c>
+      <c r="D5" s="158"/>
+      <c r="E5" s="63" t="s">
+        <v>396</v>
+      </c>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="147" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="66"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="124" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="84"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="147"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="147"/>
+      <c r="B8" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" s="87" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="124"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="147"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="148"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="62"/>
+      <c r="C11" s="63" t="s">
+        <v>354</v>
+      </c>
+      <c r="D11" s="138" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="62"/>
+      <c r="G11" s="59"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="147"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="77" t="s">
+        <v>397</v>
+      </c>
+      <c r="D12" s="139"/>
+      <c r="E12" s="63" t="s">
+        <v>358</v>
+      </c>
+      <c r="F12" s="63"/>
+      <c r="G12" s="60"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="147"/>
+      <c r="B13" s="63" t="s">
+        <v>356</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>386</v>
+      </c>
+      <c r="D13" s="139"/>
+      <c r="E13" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="63"/>
+      <c r="G13" s="60"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="147"/>
+      <c r="B14" s="63" t="s">
+        <v>398</v>
+      </c>
+      <c r="C14" s="77"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="63" t="s">
+        <v>399</v>
+      </c>
+      <c r="G14" s="60"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="118"/>
+      <c r="C15" s="62" t="s">
+        <v>400</v>
+      </c>
+      <c r="D15" s="123" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="121"/>
+      <c r="B16" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="C16" s="98" t="s">
+        <v>261</v>
+      </c>
+      <c r="D16" s="124"/>
+      <c r="E16" s="98" t="s">
+        <v>363</v>
+      </c>
+      <c r="F16" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="G16" s="60"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="122"/>
+      <c r="B17" s="119" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="64"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="G17" s="60"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="121" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="57"/>
+      <c r="C18" s="63" t="s">
+        <v>402</v>
+      </c>
+      <c r="D18" s="150" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="150" t="s">
+        <v>367</v>
+      </c>
+      <c r="F18" s="138"/>
+      <c r="G18" s="150"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="121"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="63" t="s">
+        <v>368</v>
+      </c>
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="151"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="121"/>
+      <c r="B20" s="60" t="s">
+        <v>403</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>404</v>
+      </c>
+      <c r="D20" s="151"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="151"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="121"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="151"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="149" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="65"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="62"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="136"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="63"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="136"/>
+      <c r="B24" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="D24" s="124"/>
+      <c r="E24" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="F24" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" s="63" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="136"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="63"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="136"/>
+      <c r="B26" s="171"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="64"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="167" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="113"/>
+      <c r="C27" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="D27" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="98" t="s">
+        <v>173</v>
+      </c>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="169"/>
+      <c r="B28" s="69" t="s">
+        <v>406</v>
+      </c>
+      <c r="C28" s="63" t="s">
+        <v>407</v>
+      </c>
+      <c r="D28" s="124"/>
+      <c r="E28" s="63" t="s">
+        <v>408</v>
+      </c>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="169"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="63" t="s">
+        <v>380</v>
+      </c>
+      <c r="D29" s="124"/>
+      <c r="E29" s="63" t="s">
+        <v>409</v>
+      </c>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="170"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="63" t="s">
+        <v>410</v>
+      </c>
+      <c r="D30" s="124"/>
+      <c r="E30" s="63" t="s">
+        <v>411</v>
+      </c>
+      <c r="F30" s="60"/>
+      <c r="G30" s="61"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="121" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="109"/>
+      <c r="C31" s="110" t="s">
+        <v>412</v>
+      </c>
+      <c r="D31" s="165" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="109" t="s">
+        <v>355</v>
+      </c>
+      <c r="F31" s="109"/>
+      <c r="G31" s="60"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="121"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="D32" s="151"/>
+      <c r="E32" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="121"/>
+      <c r="B33" s="60" t="s">
+        <v>413</v>
+      </c>
+      <c r="C33" s="57" t="s">
+        <v>414</v>
+      </c>
+      <c r="D33" s="151"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="121"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="122"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="60"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="136" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="66"/>
+      <c r="C36" s="116" t="s">
+        <v>415</v>
+      </c>
+      <c r="D36" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="98" t="s">
+        <v>416</v>
+      </c>
+      <c r="F36" s="60"/>
+      <c r="G36" s="59"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="136"/>
+      <c r="B37" s="66" t="s">
+        <v>417</v>
+      </c>
+      <c r="C37" s="63" t="s">
+        <v>418</v>
+      </c>
+      <c r="D37" s="124"/>
+      <c r="E37" s="63" t="s">
+        <v>243</v>
+      </c>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="136"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="87" t="s">
+        <v>419</v>
+      </c>
+      <c r="D38" s="124"/>
+      <c r="E38" s="63" t="s">
+        <v>243</v>
+      </c>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="136"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="63" t="s">
+        <v>420</v>
+      </c>
+      <c r="D39" s="124"/>
+      <c r="E39" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="137"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="D40" s="124"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="61"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="136" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="66"/>
+      <c r="C41" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="D41" s="159"/>
+      <c r="E41" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="F41" s="62"/>
+      <c r="G41" s="60"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="136"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="63" t="s">
+        <v>422</v>
+      </c>
+      <c r="D42" s="160"/>
+      <c r="E42" s="77" t="s">
+        <v>239</v>
+      </c>
+      <c r="F42" s="63"/>
+      <c r="G42" s="60"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="136"/>
+      <c r="B43" s="66" t="s">
+        <v>423</v>
+      </c>
+      <c r="C43" s="63"/>
+      <c r="D43" s="160"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="60"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="136"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="160"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="101"/>
+      <c r="G44" s="60"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="137"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="161"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="D41:D45"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="D6:D10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="D11:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8123,7 +8857,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="130" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="47" t="s">
@@ -8132,7 +8866,7 @@
       <c r="C2" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="118" t="s">
+      <c r="D2" s="126" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="52" t="s">
@@ -8144,14 +8878,14 @@
       <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="122"/>
+      <c r="A3" s="131"/>
       <c r="B3" t="s">
         <v>128</v>
       </c>
       <c r="C3" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="119"/>
+      <c r="D3" s="127"/>
       <c r="E3" s="46" t="s">
         <v>130</v>
       </c>
@@ -8159,11 +8893,11 @@
       <c r="G3" s="49"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="122"/>
+      <c r="A4" s="131"/>
       <c r="C4" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="119"/>
+      <c r="D4" s="127"/>
       <c r="E4" s="46" t="s">
         <v>132</v>
       </c>
@@ -8171,12 +8905,12 @@
       <c r="G4" s="49"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="123"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="50"/>
       <c r="C5" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="120"/>
+      <c r="D5" s="128"/>
       <c r="E5" s="55" t="s">
         <v>132</v>
       </c>
@@ -8184,7 +8918,7 @@
       <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="124" t="s">
+      <c r="A6" s="133" t="s">
         <v>134</v>
       </c>
       <c r="B6" t="s">
@@ -8193,7 +8927,7 @@
       <c r="C6" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="118" t="s">
+      <c r="D6" s="126" t="s">
         <v>137</v>
       </c>
       <c r="E6" s="46" t="s">
@@ -8203,11 +8937,11 @@
       <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="124"/>
+      <c r="A7" s="133"/>
       <c r="C7" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="119"/>
+      <c r="D7" s="127"/>
       <c r="E7" s="46" t="s">
         <v>118</v>
       </c>
@@ -8215,22 +8949,22 @@
       <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="124"/>
-      <c r="D8" s="119"/>
+      <c r="A8" s="133"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
       <c r="G8" s="49"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="124"/>
-      <c r="D9" s="119"/>
+      <c r="A9" s="133"/>
+      <c r="D9" s="127"/>
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
       <c r="G9" s="49"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="125"/>
-      <c r="D10" s="120"/>
+      <c r="A10" s="134"/>
+      <c r="D10" s="128"/>
       <c r="E10" s="46" t="s">
         <v>140</v>
       </c>
@@ -8238,7 +8972,7 @@
       <c r="G10" s="49"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="126" t="s">
+      <c r="A11" s="135" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -8247,7 +8981,7 @@
       <c r="C11" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="118" t="s">
+      <c r="D11" s="126" t="s">
         <v>142</v>
       </c>
       <c r="E11" s="52" t="s">
@@ -8257,11 +8991,11 @@
       <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="126"/>
+      <c r="A12" s="135"/>
       <c r="C12" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="119"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="46"/>
       <c r="F12" s="46" t="s">
         <v>143</v>
@@ -8269,14 +9003,14 @@
       <c r="G12" s="49"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="126"/>
+      <c r="A13" s="135"/>
       <c r="B13" t="s">
         <v>145</v>
       </c>
       <c r="C13" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="119"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="46" t="s">
         <v>143</v>
       </c>
@@ -8284,24 +9018,24 @@
       <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="126"/>
+      <c r="A14" s="135"/>
       <c r="C14" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="119"/>
+      <c r="D14" s="127"/>
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
       <c r="G14" s="49"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="126"/>
-      <c r="D15" s="120"/>
+      <c r="A15" s="135"/>
+      <c r="D15" s="128"/>
       <c r="E15" s="46"/>
       <c r="F15" s="46"/>
       <c r="G15" s="49"/>
     </row>
     <row r="16" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A16" s="127" t="s">
+      <c r="A16" s="120" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="47" t="s">
@@ -8310,7 +9044,7 @@
       <c r="C16" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="118" t="s">
+      <c r="D16" s="126" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="52" t="s">
@@ -8320,11 +9054,11 @@
       <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A17" s="128"/>
+      <c r="A17" s="121"/>
       <c r="C17" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="119"/>
+      <c r="D17" s="127"/>
       <c r="E17" s="46">
         <v>1.5</v>
       </c>
@@ -8332,11 +9066,11 @@
       <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A18" s="128"/>
+      <c r="A18" s="121"/>
       <c r="C18" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="119"/>
+      <c r="D18" s="127"/>
       <c r="E18" s="46"/>
       <c r="F18" s="46">
         <v>1.5</v>
@@ -8344,11 +9078,11 @@
       <c r="G18" s="49"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A19" s="128"/>
+      <c r="A19" s="121"/>
       <c r="C19" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="120"/>
+      <c r="D19" s="128"/>
       <c r="E19" s="46"/>
       <c r="F19" s="57">
         <v>0.5</v>
@@ -8356,7 +9090,7 @@
       <c r="G19" s="49"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="127" t="s">
+      <c r="A20" s="120" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="47" t="s">
@@ -8371,7 +9105,7 @@
       <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="128"/>
+      <c r="A21" s="121"/>
       <c r="C21" t="s">
         <v>154</v>
       </c>
@@ -8381,7 +9115,7 @@
       <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="129"/>
+      <c r="A22" s="122"/>
       <c r="B22" s="50"/>
       <c r="C22" s="50" t="s">
         <v>155</v>
@@ -8396,7 +9130,7 @@
       <c r="G22" s="51"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="133" t="s">
+      <c r="A23" s="129" t="s">
         <v>28</v>
       </c>
       <c r="B23" t="s">
@@ -8405,7 +9139,7 @@
       <c r="C23" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="118"/>
+      <c r="D23" s="126"/>
       <c r="E23" s="46" t="s">
         <v>158</v>
       </c>
@@ -8413,11 +9147,11 @@
       <c r="G23" s="49"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="133"/>
+      <c r="A24" s="129"/>
       <c r="C24" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="119"/>
+      <c r="D24" s="127"/>
       <c r="E24" s="46">
         <v>2</v>
       </c>
@@ -8425,11 +9159,11 @@
       <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="133"/>
+      <c r="A25" s="129"/>
       <c r="C25" t="s">
         <v>151</v>
       </c>
-      <c r="D25" s="119"/>
+      <c r="D25" s="127"/>
       <c r="E25" s="46">
         <v>1</v>
       </c>
@@ -8437,11 +9171,11 @@
       <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="133"/>
+      <c r="A26" s="129"/>
       <c r="C26" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="120"/>
+      <c r="D26" s="128"/>
       <c r="E26" s="46">
         <v>1</v>
       </c>
@@ -8449,7 +9183,7 @@
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="127" t="s">
+      <c r="A27" s="120" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="47" t="s">
@@ -8458,7 +9192,7 @@
       <c r="C27" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="118" t="s">
+      <c r="D27" s="126" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="52" t="s">
@@ -8468,14 +9202,14 @@
       <c r="G27" s="48"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="128"/>
+      <c r="A28" s="121"/>
       <c r="B28" s="45" t="s">
         <v>128</v>
       </c>
       <c r="C28" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="119"/>
+      <c r="D28" s="127"/>
       <c r="E28" s="46" t="s">
         <v>130</v>
       </c>
@@ -8483,11 +9217,11 @@
       <c r="G28" s="49"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="128"/>
+      <c r="A29" s="121"/>
       <c r="C29" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="119"/>
+      <c r="D29" s="127"/>
       <c r="E29" s="46" t="s">
         <v>132</v>
       </c>
@@ -8495,12 +9229,12 @@
       <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A30" s="128"/>
+      <c r="A30" s="121"/>
       <c r="B30" s="50"/>
       <c r="C30" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="D30" s="120"/>
+      <c r="D30" s="128"/>
       <c r="E30" s="55" t="s">
         <v>132</v>
       </c>
@@ -8508,10 +9242,10 @@
       <c r="G30" s="51"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="127" t="s">
+      <c r="A31" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="130" t="s">
+      <c r="D31" s="123" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="46"/>
@@ -8519,14 +9253,14 @@
       <c r="G31" s="49"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="128"/>
+      <c r="A32" s="121"/>
       <c r="B32" t="s">
         <v>161</v>
       </c>
       <c r="C32" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="131"/>
+      <c r="D32" s="124"/>
       <c r="E32" s="46" t="s">
         <v>138</v>
       </c>
@@ -8534,14 +9268,14 @@
       <c r="G32" s="49"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="128"/>
+      <c r="A33" s="121"/>
       <c r="B33" t="s">
         <v>135</v>
       </c>
       <c r="C33" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="131"/>
+      <c r="D33" s="124"/>
       <c r="E33" s="46" t="s">
         <v>130</v>
       </c>
@@ -8549,28 +9283,28 @@
       <c r="G33" s="49"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="128"/>
-      <c r="D34" s="131"/>
+      <c r="A34" s="121"/>
+      <c r="D34" s="124"/>
       <c r="E34" s="46"/>
       <c r="F34" s="46"/>
       <c r="G34" s="49"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="128"/>
-      <c r="D35" s="132"/>
+      <c r="A35" s="121"/>
+      <c r="D35" s="125"/>
       <c r="E35" s="46"/>
       <c r="F35" s="46"/>
       <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="127" t="s">
+      <c r="A36" s="120" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="47"/>
       <c r="C36" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="D36" s="118"/>
+      <c r="D36" s="126"/>
       <c r="E36" s="52" t="s">
         <v>165</v>
       </c>
@@ -8578,14 +9312,14 @@
       <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="128"/>
+      <c r="A37" s="121"/>
       <c r="B37" t="s">
         <v>166</v>
       </c>
       <c r="C37" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="D37" s="119"/>
+      <c r="D37" s="127"/>
       <c r="E37" s="46" t="s">
         <v>168</v>
       </c>
@@ -8593,11 +9327,11 @@
       <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="128"/>
+      <c r="A38" s="121"/>
       <c r="C38" t="s">
         <v>169</v>
       </c>
-      <c r="D38" s="119"/>
+      <c r="D38" s="127"/>
       <c r="E38" s="46"/>
       <c r="F38" s="46" t="s">
         <v>170</v>
@@ -8605,46 +9339,46 @@
       <c r="G38" s="49"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="128"/>
-      <c r="D39" s="119"/>
+      <c r="A39" s="121"/>
+      <c r="D39" s="127"/>
       <c r="E39" s="46"/>
       <c r="F39" s="46"/>
       <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="129"/>
+      <c r="A40" s="122"/>
       <c r="B40" s="50"/>
       <c r="C40" s="50"/>
-      <c r="D40" s="120"/>
+      <c r="D40" s="128"/>
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
       <c r="G40" s="51"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="128" t="s">
+      <c r="A41" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="118" t="s">
+      <c r="D41" s="126" t="s">
         <v>24</v>
       </c>
       <c r="E41" s="46"/>
       <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="128"/>
-      <c r="D42" s="119"/>
+      <c r="A42" s="121"/>
+      <c r="D42" s="127"/>
       <c r="E42" s="46"/>
       <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="128"/>
+      <c r="A43" s="121"/>
       <c r="B43" t="s">
         <v>24</v>
       </c>
       <c r="C43" t="s">
         <v>162</v>
       </c>
-      <c r="D43" s="119"/>
+      <c r="D43" s="127"/>
       <c r="E43" s="46" t="s">
         <v>171</v>
       </c>
@@ -8654,16 +9388,16 @@
       <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="128"/>
-      <c r="D44" s="119"/>
+      <c r="A44" s="121"/>
+      <c r="D44" s="127"/>
       <c r="E44" s="46"/>
       <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="129"/>
+      <c r="A45" s="122"/>
       <c r="B45" s="50"/>
       <c r="C45" s="50"/>
-      <c r="D45" s="120"/>
+      <c r="D45" s="128"/>
       <c r="E45" s="55"/>
       <c r="F45" s="50"/>
       <c r="G45" s="51"/>
@@ -8673,6 +9407,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="D2:D5"/>
     <mergeCell ref="A36:A40"/>
     <mergeCell ref="A41:A45"/>
     <mergeCell ref="D31:D35"/>
@@ -8686,12 +9426,6 @@
     <mergeCell ref="D27:D30"/>
     <mergeCell ref="A31:A35"/>
     <mergeCell ref="A27:A30"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="D2:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8737,7 +9471,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="141" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65" t="s">
@@ -8746,7 +9480,7 @@
       <c r="C2" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="146" t="s">
+      <c r="D2" s="144" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="56" t="s">
@@ -8758,12 +9492,12 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="144"/>
+      <c r="A3" s="142"/>
       <c r="B3" s="66"/>
       <c r="C3" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="147"/>
+      <c r="D3" s="145"/>
       <c r="E3" s="57" t="s">
         <v>130</v>
       </c>
@@ -8771,12 +9505,12 @@
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="144"/>
+      <c r="A4" s="142"/>
       <c r="B4" s="66"/>
       <c r="C4" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="147"/>
+      <c r="D4" s="145"/>
       <c r="E4" s="57" t="s">
         <v>176</v>
       </c>
@@ -8784,12 +9518,12 @@
       <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="144"/>
+      <c r="A5" s="142"/>
       <c r="B5" s="66"/>
       <c r="C5" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="147"/>
+      <c r="D5" s="145"/>
       <c r="E5" s="57" t="s">
         <v>173</v>
       </c>
@@ -8797,12 +9531,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="144"/>
+      <c r="A6" s="142"/>
       <c r="B6" s="66"/>
       <c r="C6" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="147"/>
+      <c r="D6" s="145"/>
       <c r="E6" s="57" t="s">
         <v>127</v>
       </c>
@@ -8810,12 +9544,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="145"/>
+      <c r="A7" s="143"/>
       <c r="B7" s="67"/>
       <c r="C7" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="148"/>
+      <c r="D7" s="146"/>
       <c r="E7" s="58" t="s">
         <v>179</v>
       </c>
@@ -8823,7 +9557,7 @@
       <c r="G7" s="61"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="149" t="s">
+      <c r="A8" s="147" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="66" t="s">
@@ -8832,7 +9566,7 @@
       <c r="C8" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="135" t="s">
+      <c r="D8" s="139" t="s">
         <v>137</v>
       </c>
       <c r="E8" s="63" t="s">
@@ -8842,12 +9576,12 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="149"/>
+      <c r="A9" s="147"/>
       <c r="B9" s="66"/>
       <c r="C9" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="135"/>
+      <c r="D9" s="139"/>
       <c r="E9" s="63" t="s">
         <v>130</v>
       </c>
@@ -8855,12 +9589,12 @@
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="149"/>
+      <c r="A10" s="147"/>
       <c r="B10" s="66"/>
       <c r="C10" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="D10" s="135"/>
+      <c r="D10" s="139"/>
       <c r="E10" s="63" t="s">
         <v>183</v>
       </c>
@@ -8868,12 +9602,12 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="150"/>
+      <c r="A11" s="148"/>
       <c r="B11" s="66"/>
       <c r="C11" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="135"/>
+      <c r="D11" s="139"/>
       <c r="E11" s="63" t="s">
         <v>185</v>
       </c>
@@ -8881,14 +9615,14 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="149" t="s">
+      <c r="A12" s="147" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="62"/>
       <c r="C12" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="134" t="s">
+      <c r="D12" s="138" t="s">
         <v>142</v>
       </c>
       <c r="E12" s="62" t="s">
@@ -8898,12 +9632,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="149"/>
+      <c r="A13" s="147"/>
       <c r="B13" s="63"/>
       <c r="C13" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="D13" s="135"/>
+      <c r="D13" s="139"/>
       <c r="E13" s="63" t="s">
         <v>187</v>
       </c>
@@ -8911,12 +9645,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="149"/>
+      <c r="A14" s="147"/>
       <c r="B14" s="76"/>
       <c r="C14" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="135"/>
+      <c r="D14" s="139"/>
       <c r="E14" s="63"/>
       <c r="F14" s="60" t="s">
         <v>130</v>
@@ -8924,12 +9658,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="149"/>
+      <c r="A15" s="147"/>
       <c r="B15" s="63" t="s">
         <v>190</v>
       </c>
       <c r="C15" s="57"/>
-      <c r="D15" s="135"/>
+      <c r="D15" s="139"/>
       <c r="E15" s="63" t="s">
         <v>191</v>
       </c>
@@ -8937,23 +9671,23 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="150"/>
+      <c r="A16" s="148"/>
       <c r="B16" s="64"/>
       <c r="C16" s="57"/>
-      <c r="D16" s="136"/>
+      <c r="D16" s="140"/>
       <c r="E16" s="63"/>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A17" s="141" t="s">
+      <c r="A17" s="136" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="134" t="s">
+      <c r="D17" s="138" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="62" t="s">
@@ -8963,14 +9697,14 @@
       <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A18" s="141"/>
+      <c r="A18" s="136"/>
       <c r="B18" s="66" t="s">
         <v>193</v>
       </c>
       <c r="C18" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="135"/>
+      <c r="D18" s="139"/>
       <c r="E18" s="63" t="s">
         <v>176</v>
       </c>
@@ -8978,12 +9712,12 @@
       <c r="G18" s="60"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A19" s="141"/>
+      <c r="A19" s="136"/>
       <c r="B19" s="66"/>
       <c r="C19" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="D19" s="135"/>
+      <c r="D19" s="139"/>
       <c r="E19" s="63" t="s">
         <v>176</v>
       </c>
@@ -8991,12 +9725,12 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A20" s="141"/>
+      <c r="A20" s="136"/>
       <c r="B20" s="66"/>
       <c r="C20" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="D20" s="135"/>
+      <c r="D20" s="139"/>
       <c r="E20" s="63"/>
       <c r="F20" s="63" t="s">
         <v>194</v>
@@ -9004,7 +9738,7 @@
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="140" t="s">
+      <c r="A21" s="149" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="65" t="s">
@@ -9013,41 +9747,41 @@
       <c r="C21" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="D21" s="134" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="134" t="s">
+      <c r="D21" s="138" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="138" t="s">
         <v>197</v>
       </c>
-      <c r="F21" s="137" t="s">
+      <c r="F21" s="150" t="s">
         <v>198</v>
       </c>
       <c r="G21" s="59"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="141"/>
+      <c r="A22" s="136"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="D22" s="135"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="138"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="151"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="141"/>
+      <c r="A23" s="136"/>
       <c r="B23" s="67"/>
       <c r="C23" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="139"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="152"/>
       <c r="G23" s="61"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="140" t="s">
+      <c r="A24" s="149" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="66" t="s">
@@ -9056,7 +9790,7 @@
       <c r="C24" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="135"/>
+      <c r="D24" s="139"/>
       <c r="E24" s="63" t="s">
         <v>173</v>
       </c>
@@ -9064,12 +9798,12 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="141"/>
+      <c r="A25" s="136"/>
       <c r="B25" s="66"/>
       <c r="C25" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="D25" s="135"/>
+      <c r="D25" s="139"/>
       <c r="E25" s="63" t="s">
         <v>191</v>
       </c>
@@ -9077,12 +9811,12 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="141"/>
+      <c r="A26" s="136"/>
       <c r="B26" s="66"/>
       <c r="C26" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="D26" s="135"/>
+      <c r="D26" s="139"/>
       <c r="E26" s="63" t="s">
         <v>130</v>
       </c>
@@ -9090,12 +9824,12 @@
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="141"/>
+      <c r="A27" s="136"/>
       <c r="B27" s="66"/>
       <c r="C27" s="66" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="135"/>
+      <c r="D27" s="139"/>
       <c r="E27" s="63" t="s">
         <v>202</v>
       </c>
@@ -9103,12 +9837,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="142"/>
+      <c r="A28" s="137"/>
       <c r="B28" s="66"/>
       <c r="C28" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="D28" s="136"/>
+      <c r="D28" s="140"/>
       <c r="E28" s="63" t="s">
         <v>130</v>
       </c>
@@ -9116,7 +9850,7 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="141" t="s">
+      <c r="A29" s="136" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="74" t="s">
@@ -9125,7 +9859,7 @@
       <c r="C29" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="134" t="s">
+      <c r="D29" s="138" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="62" t="s">
@@ -9137,12 +9871,12 @@
       <c r="G29" s="59"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="141"/>
+      <c r="A30" s="136"/>
       <c r="B30" s="70"/>
       <c r="C30" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="D30" s="135"/>
+      <c r="D30" s="139"/>
       <c r="E30" s="63" t="s">
         <v>205</v>
       </c>
@@ -9150,12 +9884,12 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="141"/>
+      <c r="A31" s="136"/>
       <c r="B31" s="71"/>
       <c r="C31" s="69" t="s">
         <v>206</v>
       </c>
-      <c r="D31" s="135"/>
+      <c r="D31" s="139"/>
       <c r="E31" s="63" t="s">
         <v>130</v>
       </c>
@@ -9163,12 +9897,12 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="141"/>
+      <c r="A32" s="136"/>
       <c r="B32" s="71"/>
       <c r="C32" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="D32" s="135"/>
+      <c r="D32" s="139"/>
       <c r="E32" s="63" t="s">
         <v>179</v>
       </c>
@@ -9176,12 +9910,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="141"/>
+      <c r="A33" s="136"/>
       <c r="B33" s="72"/>
       <c r="C33" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="D33" s="135"/>
+      <c r="D33" s="139"/>
       <c r="E33" s="63" t="s">
         <v>208</v>
       </c>
@@ -9189,12 +9923,12 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A34" s="141"/>
+      <c r="A34" s="136"/>
       <c r="B34" s="73"/>
       <c r="C34" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="D34" s="136"/>
+      <c r="D34" s="140"/>
       <c r="E34" s="64" t="s">
         <v>132</v>
       </c>
@@ -9202,12 +9936,12 @@
       <c r="G34" s="61"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="140" t="s">
+      <c r="A35" s="149" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="66"/>
       <c r="C35" s="66"/>
-      <c r="D35" s="134" t="s">
+      <c r="D35" s="138" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="63"/>
@@ -9215,12 +9949,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="141"/>
+      <c r="A36" s="136"/>
       <c r="B36" s="66"/>
       <c r="C36" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="D36" s="135"/>
+      <c r="D36" s="139"/>
       <c r="E36" s="63" t="s">
         <v>130</v>
       </c>
@@ -9228,14 +9962,14 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7" ht="21" customHeight="1">
-      <c r="A37" s="141"/>
+      <c r="A37" s="136"/>
       <c r="B37" s="66" t="s">
         <v>211</v>
       </c>
       <c r="C37" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="D37" s="135"/>
+      <c r="D37" s="139"/>
       <c r="E37" s="63" t="s">
         <v>180</v>
       </c>
@@ -9243,12 +9977,12 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="141"/>
+      <c r="A38" s="136"/>
       <c r="B38" s="66"/>
       <c r="C38" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="D38" s="135"/>
+      <c r="D38" s="139"/>
       <c r="E38" s="63"/>
       <c r="F38" s="60" t="s">
         <v>130</v>
@@ -9256,23 +9990,23 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="141"/>
+      <c r="A39" s="136"/>
       <c r="B39" s="66"/>
       <c r="C39" s="66"/>
-      <c r="D39" s="136"/>
+      <c r="D39" s="140"/>
       <c r="E39" s="63"/>
       <c r="F39" s="60"/>
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="140" t="s">
+      <c r="A40" s="149" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="65"/>
       <c r="C40" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="134"/>
+      <c r="D40" s="138"/>
       <c r="E40" s="62" t="s">
         <v>165</v>
       </c>
@@ -9280,14 +10014,14 @@
       <c r="G40" s="59"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="141"/>
+      <c r="A41" s="136"/>
       <c r="B41" s="66" t="s">
         <v>166</v>
       </c>
       <c r="C41" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="D41" s="135"/>
+      <c r="D41" s="139"/>
       <c r="E41" s="63" t="s">
         <v>168</v>
       </c>
@@ -9295,12 +10029,12 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="141"/>
+      <c r="A42" s="136"/>
       <c r="B42" s="66"/>
       <c r="C42" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="D42" s="135"/>
+      <c r="D42" s="139"/>
       <c r="E42" s="63"/>
       <c r="F42" s="60" t="s">
         <v>170</v>
@@ -9308,32 +10042,32 @@
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="141"/>
+      <c r="A43" s="136"/>
       <c r="B43" s="66"/>
       <c r="C43" s="66"/>
-      <c r="D43" s="135"/>
+      <c r="D43" s="139"/>
       <c r="E43" s="63"/>
       <c r="F43" s="60"/>
       <c r="G43" s="60"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="142"/>
+      <c r="A44" s="137"/>
       <c r="B44" s="67"/>
       <c r="C44" s="67"/>
-      <c r="D44" s="136"/>
+      <c r="D44" s="140"/>
       <c r="E44" s="64"/>
       <c r="F44" s="60"/>
       <c r="G44" s="61"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="141" t="s">
+      <c r="A45" s="136" t="s">
         <v>30</v>
       </c>
       <c r="B45" s="66"/>
       <c r="C45" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D45" s="134" t="s">
+      <c r="D45" s="138" t="s">
         <v>24</v>
       </c>
       <c r="E45" s="65" t="s">
@@ -9343,12 +10077,12 @@
       <c r="G45" s="60"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="141"/>
+      <c r="A46" s="136"/>
       <c r="B46" s="66"/>
       <c r="C46" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D46" s="135"/>
+      <c r="D46" s="139"/>
       <c r="E46" s="66" t="s">
         <v>176</v>
       </c>
@@ -9356,14 +10090,14 @@
       <c r="G46" s="60"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="141"/>
+      <c r="A47" s="136"/>
       <c r="B47" s="66" t="s">
         <v>193</v>
       </c>
       <c r="C47" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="D47" s="135"/>
+      <c r="D47" s="139"/>
       <c r="E47" s="66" t="s">
         <v>176</v>
       </c>
@@ -9371,12 +10105,12 @@
       <c r="G47" s="60"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="141"/>
+      <c r="A48" s="136"/>
       <c r="B48" s="66"/>
       <c r="C48" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="D48" s="135"/>
+      <c r="D48" s="139"/>
       <c r="E48" s="66"/>
       <c r="F48" s="63" t="s">
         <v>194</v>
@@ -9384,10 +10118,10 @@
       <c r="G48" s="60"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="142"/>
+      <c r="A49" s="137"/>
       <c r="B49" s="67"/>
       <c r="C49" s="67"/>
-      <c r="D49" s="136"/>
+      <c r="D49" s="140"/>
       <c r="E49" s="67"/>
       <c r="F49" s="64"/>
       <c r="G49" s="61"/>
@@ -9400,6 +10134,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="D40:D44"/>
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="D45:D49"/>
     <mergeCell ref="A29:A34"/>
@@ -9416,12 +10156,6 @@
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="D24:D28"/>
     <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="D40:D44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9470,12 +10204,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="149" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="146" t="s">
+      <c r="D2" s="144" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -9487,34 +10221,34 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="141"/>
+      <c r="A3" s="136"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="147"/>
+      <c r="D3" s="145"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="142"/>
+      <c r="A4" s="137"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="148"/>
+      <c r="D4" s="146"/>
       <c r="E4" s="58"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="147" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62"/>
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="124" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="63"/>
@@ -9522,12 +10256,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="149"/>
+      <c r="A6" s="147"/>
       <c r="B6" s="66"/>
       <c r="C6" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="131"/>
+      <c r="D6" s="124"/>
       <c r="E6" s="63" t="s">
         <v>218</v>
       </c>
@@ -9535,30 +10269,30 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="149"/>
+      <c r="A7" s="147"/>
       <c r="B7" s="66"/>
       <c r="C7" s="63"/>
-      <c r="D7" s="131"/>
+      <c r="D7" s="124"/>
       <c r="E7" s="63"/>
       <c r="F7" s="60"/>
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="150"/>
+      <c r="A8" s="148"/>
       <c r="B8" s="66"/>
       <c r="C8" s="64"/>
-      <c r="D8" s="131"/>
+      <c r="D8" s="124"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="147" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="62"/>
       <c r="C9" s="57"/>
-      <c r="D9" s="134" t="s">
+      <c r="D9" s="138" t="s">
         <v>142</v>
       </c>
       <c r="E9" s="65"/>
@@ -9566,12 +10300,12 @@
       <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="149"/>
+      <c r="A10" s="147"/>
       <c r="B10" s="63"/>
       <c r="C10" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="D10" s="135"/>
+      <c r="D10" s="139"/>
       <c r="E10" s="66" t="s">
         <v>106</v>
       </c>
@@ -9581,12 +10315,12 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="149"/>
+      <c r="A11" s="147"/>
       <c r="B11" s="63" t="s">
         <v>220</v>
       </c>
       <c r="C11" s="57"/>
-      <c r="D11" s="136"/>
+      <c r="D11" s="140"/>
       <c r="E11" s="67"/>
       <c r="F11" s="63" t="s">
         <v>130</v>
@@ -9594,12 +10328,12 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="140" t="s">
+      <c r="A12" s="149" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="65"/>
       <c r="C12" s="62"/>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="123" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="66"/>
@@ -9607,12 +10341,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="141"/>
+      <c r="A13" s="136"/>
       <c r="B13" s="66" t="s">
         <v>221</v>
       </c>
       <c r="C13" s="76"/>
-      <c r="D13" s="131"/>
+      <c r="D13" s="124"/>
       <c r="E13" s="66" t="s">
         <v>222</v>
       </c>
@@ -9620,12 +10354,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="141"/>
+      <c r="A14" s="136"/>
       <c r="B14" s="66"/>
       <c r="C14" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="D14" s="131"/>
+      <c r="D14" s="124"/>
       <c r="E14" s="66"/>
       <c r="F14" s="63" t="s">
         <v>222</v>
@@ -9633,62 +10367,62 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="142"/>
+      <c r="A15" s="137"/>
       <c r="B15" s="67"/>
       <c r="C15" s="64"/>
-      <c r="D15" s="131"/>
+      <c r="D15" s="124"/>
       <c r="E15" s="66"/>
       <c r="F15" s="64"/>
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="141" t="s">
+      <c r="A16" s="136" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="63"/>
       <c r="C16" s="57"/>
-      <c r="D16" s="134" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="134" t="s">
+      <c r="D16" s="138" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="138" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="138">
+      <c r="F16" s="151">
         <v>1</v>
       </c>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="141"/>
+      <c r="A17" s="136"/>
       <c r="B17" s="63" t="s">
         <v>224</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>225</v>
       </c>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="138"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="151"/>
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="141"/>
+      <c r="A18" s="136"/>
       <c r="B18" s="64"/>
       <c r="C18" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="139"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="152"/>
       <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="140" t="s">
+      <c r="A19" s="149" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="66"/>
-      <c r="D19" s="135" t="s">
+      <c r="D19" s="139" t="s">
         <v>227</v>
       </c>
       <c r="E19" s="63"/>
@@ -9696,23 +10430,23 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="141"/>
+      <c r="A20" s="136"/>
       <c r="B20" s="66"/>
       <c r="C20" s="66"/>
-      <c r="D20" s="135"/>
+      <c r="D20" s="139"/>
       <c r="E20" s="63"/>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="141"/>
+      <c r="A21" s="136"/>
       <c r="B21" s="66" t="s">
         <v>228</v>
       </c>
       <c r="C21" s="66" t="s">
         <v>229</v>
       </c>
-      <c r="D21" s="135"/>
+      <c r="D21" s="139"/>
       <c r="E21" s="63" t="s">
         <v>185</v>
       </c>
@@ -9722,34 +10456,34 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="141"/>
+      <c r="A22" s="136"/>
       <c r="B22" s="66" t="s">
         <v>231</v>
       </c>
       <c r="C22" s="66"/>
-      <c r="D22" s="135"/>
+      <c r="D22" s="139"/>
       <c r="E22" s="63"/>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="142"/>
+      <c r="A23" s="137"/>
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
-      <c r="D23" s="136"/>
+      <c r="D23" s="140"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="141" t="s">
+      <c r="A24" s="136" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="78"/>
       <c r="C24" s="62" t="s">
         <v>232</v>
       </c>
-      <c r="D24" s="130" t="s">
+      <c r="D24" s="123" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="65" t="s">
@@ -9759,30 +10493,30 @@
       <c r="G24" s="62"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="141"/>
+      <c r="A25" s="136"/>
       <c r="B25" s="83"/>
       <c r="C25" s="63"/>
-      <c r="D25" s="131"/>
+      <c r="D25" s="124"/>
       <c r="E25" s="66"/>
       <c r="F25" s="66"/>
       <c r="G25" s="63"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="141"/>
+      <c r="A26" s="136"/>
       <c r="B26" s="94"/>
       <c r="C26" s="64"/>
-      <c r="D26" s="131"/>
+      <c r="D26" s="124"/>
       <c r="E26" s="66"/>
       <c r="F26" s="67"/>
       <c r="G26" s="64"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="140" t="s">
+      <c r="A27" s="149" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="66"/>
       <c r="C27" s="66"/>
-      <c r="D27" s="134" t="s">
+      <c r="D27" s="138" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="62"/>
@@ -9790,14 +10524,14 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="141"/>
+      <c r="A28" s="136"/>
       <c r="B28" s="66" t="s">
         <v>220</v>
       </c>
       <c r="C28" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="D28" s="135"/>
+      <c r="D28" s="139"/>
       <c r="E28" s="63" t="s">
         <v>222</v>
       </c>
@@ -9807,12 +10541,12 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="141"/>
+      <c r="A29" s="136"/>
       <c r="B29" s="66" t="s">
         <v>221</v>
       </c>
       <c r="C29" s="66"/>
-      <c r="D29" s="135"/>
+      <c r="D29" s="139"/>
       <c r="E29" s="64"/>
       <c r="F29" s="60" t="s">
         <v>130</v>
@@ -9820,25 +10554,25 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="140" t="s">
+      <c r="A30" s="149" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="65"/>
       <c r="C30" s="65"/>
-      <c r="D30" s="137"/>
+      <c r="D30" s="150"/>
       <c r="E30" s="60"/>
       <c r="F30" s="59"/>
       <c r="G30" s="59"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="141"/>
+      <c r="A31" s="136"/>
       <c r="B31" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C31" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="D31" s="138"/>
+      <c r="D31" s="151"/>
       <c r="E31" s="60" t="s">
         <v>168</v>
       </c>
@@ -9846,12 +10580,12 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="141"/>
+      <c r="A32" s="136"/>
       <c r="B32" s="66"/>
       <c r="C32" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="D32" s="138"/>
+      <c r="D32" s="151"/>
       <c r="E32" s="60"/>
       <c r="F32" s="60" t="s">
         <v>170</v>
@@ -9859,30 +10593,30 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="141"/>
+      <c r="A33" s="136"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66"/>
-      <c r="D33" s="138"/>
+      <c r="D33" s="151"/>
       <c r="E33" s="60"/>
       <c r="F33" s="60"/>
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="142"/>
+      <c r="A34" s="137"/>
       <c r="B34" s="66"/>
       <c r="C34" s="67"/>
-      <c r="D34" s="139"/>
+      <c r="D34" s="152"/>
       <c r="E34" s="60"/>
       <c r="F34" s="60"/>
       <c r="G34" s="61"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="141" t="s">
+      <c r="A35" s="136" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="62"/>
       <c r="C35" s="57"/>
-      <c r="D35" s="138" t="s">
+      <c r="D35" s="151" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="92"/>
@@ -9890,12 +10624,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="141"/>
+      <c r="A36" s="136"/>
       <c r="B36" s="63"/>
       <c r="C36" s="66" t="s">
         <v>237</v>
       </c>
-      <c r="D36" s="138"/>
+      <c r="D36" s="151"/>
       <c r="E36" s="57" t="s">
         <v>238</v>
       </c>
@@ -9905,35 +10639,45 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="141"/>
+      <c r="A37" s="136"/>
       <c r="B37" s="63" t="s">
         <v>221</v>
       </c>
       <c r="C37" s="46"/>
-      <c r="D37" s="138"/>
+      <c r="D37" s="151"/>
       <c r="E37" s="57"/>
       <c r="F37" s="76"/>
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="141"/>
+      <c r="A38" s="136"/>
       <c r="B38" s="63"/>
-      <c r="D38" s="138"/>
+      <c r="D38" s="151"/>
       <c r="E38" s="57"/>
       <c r="F38" s="76"/>
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="142"/>
+      <c r="A39" s="137"/>
       <c r="B39" s="64"/>
       <c r="C39" s="58"/>
-      <c r="D39" s="139"/>
+      <c r="D39" s="152"/>
       <c r="E39" s="58"/>
       <c r="F39" s="64"/>
       <c r="G39" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="D27:D29"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -9946,16 +10690,6 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="E16:E18"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="D27:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E73AF25-8945-4C4A-B148-C9B6FA48E45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4403832-874D-4B58-B35E-30FA0216217C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="424">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1327,9 +1327,6 @@
     <t>Html layout for sidebar</t>
   </si>
   <si>
-    <t>2 hours 30 mins</t>
-  </si>
-  <si>
     <t>MOM entered</t>
   </si>
   <si>
@@ -1346,6 +1343,9 @@
   </si>
   <si>
     <t>Review meeting with Rafi - 1hr 15mins</t>
+  </si>
+  <si>
+    <t>4.45hrs</t>
   </si>
   <si>
     <t>HTML Layouts</t>
@@ -2025,7 +2025,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2508,6 +2508,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6485,10 +6488,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B6DB65-F97A-4BA7-A76B-DB8B09A04A96}">
-  <dimension ref="A2:G45"/>
+  <dimension ref="A2:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6564,7 +6567,7 @@
       </c>
       <c r="D5" s="158"/>
       <c r="E5" s="63" t="s">
-        <v>396</v>
+        <v>238</v>
       </c>
       <c r="F5" s="61"/>
       <c r="G5" s="61"/>
@@ -6643,7 +6646,7 @@
       <c r="A12" s="147"/>
       <c r="B12" s="63"/>
       <c r="C12" s="77" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D12" s="139"/>
       <c r="E12" s="63" t="s">
@@ -6670,13 +6673,13 @@
     <row r="14" spans="1:7">
       <c r="A14" s="147"/>
       <c r="B14" s="63" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C14" s="77"/>
       <c r="D14" s="139"/>
       <c r="E14" s="66"/>
       <c r="F14" s="63" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G14" s="60"/>
     </row>
@@ -6686,7 +6689,7 @@
       </c>
       <c r="B15" s="118"/>
       <c r="C15" s="62" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D15" s="123" t="s">
         <v>24</v>
@@ -6700,7 +6703,7 @@
     <row r="16" spans="1:7">
       <c r="A16" s="121"/>
       <c r="B16" s="77" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C16" s="98" t="s">
         <v>261</v>
@@ -6733,13 +6736,13 @@
       </c>
       <c r="B18" s="57"/>
       <c r="C18" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="D18" s="150" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="150" t="s">
         <v>402</v>
-      </c>
-      <c r="D18" s="150" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="150" t="s">
-        <v>367</v>
       </c>
       <c r="F18" s="138"/>
       <c r="G18" s="150"/>
@@ -6882,7 +6885,7 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="170"/>
+      <c r="A30" s="164"/>
       <c r="B30" s="115"/>
       <c r="C30" s="63" t="s">
         <v>410</v>
@@ -6895,26 +6898,26 @@
       <c r="G30" s="61"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="121" t="s">
+      <c r="A31" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="109"/>
-      <c r="C31" s="110" t="s">
+      <c r="B31" s="59"/>
+      <c r="C31" s="56" t="s">
         <v>412</v>
       </c>
-      <c r="D31" s="165" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="109" t="s">
+      <c r="D31" s="150" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="59" t="s">
         <v>355</v>
       </c>
-      <c r="F31" s="109"/>
+      <c r="F31" s="59"/>
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="121"/>
       <c r="B32" s="60"/>
-      <c r="C32" s="77" t="s">
+      <c r="C32" s="172" t="s">
         <v>386</v>
       </c>
       <c r="D32" s="151"/>
@@ -6925,175 +6928,159 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="121"/>
-      <c r="B33" s="60" t="s">
+      <c r="A33" s="122"/>
+      <c r="B33" s="61" t="s">
         <v>413</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="58" t="s">
         <v>414</v>
       </c>
-      <c r="D33" s="151"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" s="61"/>
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="121"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="60"/>
+      <c r="A34" s="136" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="66"/>
+      <c r="C34" s="93" t="s">
+        <v>415</v>
+      </c>
+      <c r="D34" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="98" t="s">
+        <v>416</v>
+      </c>
       <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
+      <c r="G34" s="59"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="122"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="152"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
+      <c r="A35" s="136"/>
+      <c r="B35" s="66" t="s">
+        <v>417</v>
+      </c>
+      <c r="C35" s="63" t="s">
+        <v>418</v>
+      </c>
+      <c r="D35" s="124"/>
+      <c r="E35" s="63" t="s">
+        <v>243</v>
+      </c>
+      <c r="F35" s="60"/>
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="136" t="s">
-        <v>16</v>
-      </c>
+      <c r="A36" s="136"/>
       <c r="B36" s="66"/>
-      <c r="C36" s="116" t="s">
-        <v>415</v>
-      </c>
-      <c r="D36" s="124" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="98" t="s">
-        <v>416</v>
+      <c r="C36" s="87" t="s">
+        <v>419</v>
+      </c>
+      <c r="D36" s="124"/>
+      <c r="E36" s="63" t="s">
+        <v>243</v>
       </c>
       <c r="F36" s="60"/>
-      <c r="G36" s="59"/>
+      <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="136"/>
-      <c r="B37" s="66" t="s">
-        <v>417</v>
-      </c>
+      <c r="B37" s="66"/>
       <c r="C37" s="63" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D37" s="124"/>
       <c r="E37" s="63" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="F37" s="60"/>
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="136"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="87" t="s">
-        <v>419</v>
+      <c r="A38" s="137"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="64" t="s">
+        <v>421</v>
       </c>
       <c r="D38" s="124"/>
-      <c r="E38" s="63" t="s">
-        <v>243</v>
-      </c>
+      <c r="E38" s="64"/>
       <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
+      <c r="G38" s="61"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="136"/>
+      <c r="A39" s="136" t="s">
+        <v>30</v>
+      </c>
       <c r="B39" s="66"/>
       <c r="C39" s="63" t="s">
-        <v>420</v>
-      </c>
-      <c r="D39" s="124"/>
-      <c r="E39" s="63" t="s">
-        <v>170</v>
-      </c>
-      <c r="F39" s="60"/>
+        <v>261</v>
+      </c>
+      <c r="D39" s="159"/>
+      <c r="E39" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="F39" s="62"/>
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="137"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="64" t="s">
-        <v>421</v>
-      </c>
-      <c r="D40" s="124"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="61"/>
+      <c r="A40" s="136"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="63" t="s">
+        <v>422</v>
+      </c>
+      <c r="D40" s="160"/>
+      <c r="E40" s="77" t="s">
+        <v>239</v>
+      </c>
+      <c r="F40" s="63"/>
+      <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="136" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" s="66"/>
-      <c r="C41" s="63" t="s">
-        <v>261</v>
-      </c>
-      <c r="D41" s="159"/>
-      <c r="E41" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="F41" s="62"/>
+      <c r="A41" s="136"/>
+      <c r="B41" s="66" t="s">
+        <v>423</v>
+      </c>
+      <c r="C41" s="63"/>
+      <c r="D41" s="160"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="63"/>
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="136"/>
       <c r="B42" s="66"/>
-      <c r="C42" s="63" t="s">
-        <v>422</v>
-      </c>
+      <c r="C42" s="93"/>
       <c r="D42" s="160"/>
-      <c r="E42" s="77" t="s">
-        <v>239</v>
-      </c>
-      <c r="F42" s="63"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="101"/>
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="136"/>
-      <c r="B43" s="66" t="s">
-        <v>423</v>
-      </c>
-      <c r="C43" s="63"/>
-      <c r="D43" s="160"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="60"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="136"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="160"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="101"/>
-      <c r="G44" s="60"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="137"/>
-      <c r="B45" s="67"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="161"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="61"/>
+      <c r="A43" s="137"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="161"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="D41:D45"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="D39:D43"/>
     <mergeCell ref="G18:G21"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="D22:D26"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="D27:D30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="D31:D33"/>
     <mergeCell ref="F18:F21"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="D15:D17"/>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4403832-874D-4B58-B35E-30FA0216217C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2349" documentId="8_{CF9D9844-FE05-4AE4-8DCD-83B6A181F316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90D9F315-3EBE-495E-A5F0-291BCCC54C18}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="425">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1316,6 +1316,9 @@
   </si>
   <si>
     <t xml:space="preserve">Review meeting with Rafi </t>
+  </si>
+  <si>
+    <t>Changing of system(ADMIN)</t>
   </si>
   <si>
     <t>HTML Layout for Requester Request Page</t>
@@ -2025,7 +2028,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2354,6 +2357,36 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2372,35 +2405,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2408,15 +2435,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2441,18 +2459,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2462,6 +2468,18 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2471,17 +2489,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2492,9 +2501,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2506,12 +2512,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3318,12 +3318,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="146" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="144" t="s">
+      <c r="D2" s="149" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -3335,36 +3335,36 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="142"/>
+      <c r="A3" s="147"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="145"/>
+      <c r="D3" s="150"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="143"/>
+      <c r="A4" s="148"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="146"/>
+      <c r="D4" s="151"/>
       <c r="E4" s="58"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="152" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="D5" s="124" t="s">
+      <c r="D5" s="134" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="63" t="s">
@@ -3374,12 +3374,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="147"/>
+      <c r="A6" s="152"/>
       <c r="B6" s="66"/>
       <c r="C6" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="D6" s="124"/>
+      <c r="D6" s="134"/>
       <c r="E6" s="63" t="s">
         <v>243</v>
       </c>
@@ -3387,12 +3387,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="147"/>
+      <c r="A7" s="152"/>
       <c r="B7" s="66"/>
       <c r="C7" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="124"/>
+      <c r="D7" s="134"/>
       <c r="E7" s="63" t="s">
         <v>180</v>
       </c>
@@ -3400,21 +3400,21 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="148"/>
+      <c r="A8" s="153"/>
       <c r="B8" s="66"/>
       <c r="C8" s="64"/>
-      <c r="D8" s="124"/>
+      <c r="D8" s="134"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="147" t="s">
+      <c r="A9" s="152" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="62"/>
       <c r="C9" s="57"/>
-      <c r="D9" s="138" t="s">
+      <c r="D9" s="137" t="s">
         <v>142</v>
       </c>
       <c r="E9" s="65"/>
@@ -3422,14 +3422,14 @@
       <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="147"/>
+      <c r="A10" s="152"/>
       <c r="B10" s="63" t="s">
         <v>216</v>
       </c>
       <c r="C10" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="D10" s="139"/>
+      <c r="D10" s="138"/>
       <c r="E10" s="66" t="s">
         <v>106</v>
       </c>
@@ -3439,23 +3439,23 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="148"/>
+      <c r="A11" s="153"/>
       <c r="B11" s="63"/>
       <c r="C11" s="57"/>
-      <c r="D11" s="140"/>
+      <c r="D11" s="139"/>
       <c r="E11" s="67"/>
       <c r="F11" s="64"/>
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="136" t="s">
+      <c r="A12" s="144" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="65"/>
       <c r="C12" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="D12" s="123" t="s">
+      <c r="D12" s="133" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="63">
@@ -3465,12 +3465,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="136"/>
+      <c r="A13" s="144"/>
       <c r="B13" s="66"/>
       <c r="C13" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="124"/>
+      <c r="D13" s="134"/>
       <c r="E13" s="63" t="s">
         <v>230</v>
       </c>
@@ -3478,12 +3478,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="136"/>
+      <c r="A14" s="144"/>
       <c r="B14" s="66"/>
       <c r="C14" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="124"/>
+      <c r="D14" s="134"/>
       <c r="E14" s="63" t="s">
         <v>185</v>
       </c>
@@ -3491,12 +3491,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="136"/>
+      <c r="A15" s="144"/>
       <c r="B15" s="67" t="s">
         <v>248</v>
       </c>
       <c r="C15" s="64"/>
-      <c r="D15" s="124"/>
+      <c r="D15" s="134"/>
       <c r="E15" s="63"/>
       <c r="F15" s="63" t="s">
         <v>194</v>
@@ -3504,50 +3504,50 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="149" t="s">
+      <c r="A16" s="143" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="63"/>
       <c r="C16" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="D16" s="138" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="138" t="s">
+      <c r="D16" s="137" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="137" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="150">
+      <c r="F16" s="140">
         <v>1</v>
       </c>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="136"/>
+      <c r="A17" s="144"/>
       <c r="B17" s="63" t="s">
         <v>224</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>250</v>
       </c>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="151"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="141"/>
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="136"/>
+      <c r="A18" s="144"/>
       <c r="B18" s="64"/>
       <c r="C18" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="D18" s="140"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="152"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="142"/>
       <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="149" t="s">
+      <c r="A19" s="143" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="66" t="s">
@@ -3556,7 +3556,7 @@
       <c r="C19" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="D19" s="139" t="s">
+      <c r="D19" s="138" t="s">
         <v>227</v>
       </c>
       <c r="E19" s="63" t="s">
@@ -3566,14 +3566,14 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="136"/>
+      <c r="A20" s="144"/>
       <c r="B20" s="66" t="s">
         <v>248</v>
       </c>
       <c r="C20" s="66" t="s">
         <v>253</v>
       </c>
-      <c r="D20" s="139"/>
+      <c r="D20" s="138"/>
       <c r="E20" s="63" t="s">
         <v>185</v>
       </c>
@@ -3583,14 +3583,14 @@
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="136"/>
+      <c r="A21" s="144"/>
       <c r="B21" s="66" t="s">
         <v>255</v>
       </c>
       <c r="C21" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="D21" s="139"/>
+      <c r="D21" s="138"/>
       <c r="E21" s="63" t="s">
         <v>252</v>
       </c>
@@ -3598,25 +3598,25 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="136"/>
+      <c r="A22" s="144"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66"/>
-      <c r="D22" s="139"/>
+      <c r="D22" s="138"/>
       <c r="E22" s="63"/>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="137"/>
+      <c r="A23" s="145"/>
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
-      <c r="D23" s="140"/>
+      <c r="D23" s="139"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="136" t="s">
+      <c r="A24" s="144" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="78" t="s">
@@ -3625,7 +3625,7 @@
       <c r="C24" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="D24" s="123" t="s">
+      <c r="D24" s="133" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="62" t="s">
@@ -3637,12 +3637,12 @@
       <c r="G24" s="59"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="136"/>
+      <c r="A25" s="144"/>
       <c r="B25" s="79"/>
       <c r="C25" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D25" s="124"/>
+      <c r="D25" s="134"/>
       <c r="E25" s="63" t="s">
         <v>257</v>
       </c>
@@ -3650,12 +3650,12 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="136"/>
+      <c r="A26" s="144"/>
       <c r="B26" s="80"/>
       <c r="C26" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D26" s="124"/>
+      <c r="D26" s="134"/>
       <c r="E26" s="63" t="s">
         <v>185</v>
       </c>
@@ -3663,21 +3663,21 @@
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="136"/>
+      <c r="A27" s="144"/>
       <c r="B27" s="81"/>
       <c r="C27" s="64"/>
-      <c r="D27" s="125"/>
+      <c r="D27" s="135"/>
       <c r="E27" s="63"/>
       <c r="F27" s="61"/>
       <c r="G27" s="61"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="149" t="s">
+      <c r="A28" s="143" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="66"/>
       <c r="C28" s="66"/>
-      <c r="D28" s="138" t="s">
+      <c r="D28" s="137" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="62"/>
@@ -3685,14 +3685,14 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="136"/>
+      <c r="A29" s="144"/>
       <c r="B29" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C29" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D29" s="139"/>
+      <c r="D29" s="138"/>
       <c r="E29" s="63" t="s">
         <v>106</v>
       </c>
@@ -3700,23 +3700,23 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="136"/>
+      <c r="A30" s="144"/>
       <c r="B30" s="66"/>
       <c r="C30" s="66"/>
-      <c r="D30" s="139"/>
+      <c r="D30" s="138"/>
       <c r="E30" s="64"/>
       <c r="F30" s="60"/>
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="149" t="s">
+      <c r="A31" s="143" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="65"/>
       <c r="C31" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="150"/>
+      <c r="D31" s="140"/>
       <c r="E31" s="60" t="s">
         <v>171</v>
       </c>
@@ -3724,14 +3724,14 @@
       <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="136"/>
+      <c r="A32" s="144"/>
       <c r="B32" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="D32" s="151"/>
+      <c r="D32" s="141"/>
       <c r="E32" s="60" t="s">
         <v>168</v>
       </c>
@@ -3739,12 +3739,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="136"/>
+      <c r="A33" s="144"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66" t="s">
         <v>259</v>
       </c>
-      <c r="D33" s="151"/>
+      <c r="D33" s="141"/>
       <c r="E33" s="60"/>
       <c r="F33" s="60" t="s">
         <v>170</v>
@@ -3752,32 +3752,32 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="136"/>
+      <c r="A34" s="144"/>
       <c r="B34" s="66"/>
       <c r="C34" s="66"/>
-      <c r="D34" s="151"/>
+      <c r="D34" s="141"/>
       <c r="E34" s="60"/>
       <c r="F34" s="60"/>
       <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="137"/>
+      <c r="A35" s="145"/>
       <c r="B35" s="66"/>
       <c r="C35" s="67"/>
-      <c r="D35" s="152"/>
+      <c r="D35" s="142"/>
       <c r="E35" s="60"/>
       <c r="F35" s="60"/>
       <c r="G35" s="61"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="136" t="s">
+      <c r="A36" s="144" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="62"/>
       <c r="C36" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="D36" s="139" t="s">
+      <c r="D36" s="138" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="82" t="s">
@@ -3787,12 +3787,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="136"/>
+      <c r="A37" s="144"/>
       <c r="B37" s="63"/>
       <c r="C37" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="D37" s="139"/>
+      <c r="D37" s="138"/>
       <c r="E37" s="66" t="s">
         <v>170</v>
       </c>
@@ -3800,14 +3800,14 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="136"/>
+      <c r="A38" s="144"/>
       <c r="B38" s="63" t="s">
         <v>248</v>
       </c>
       <c r="C38" s="60" t="s">
         <v>260</v>
       </c>
-      <c r="D38" s="139"/>
+      <c r="D38" s="138"/>
       <c r="E38" s="66" t="s">
         <v>171</v>
       </c>
@@ -3817,11 +3817,11 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="136"/>
+      <c r="A39" s="144"/>
       <c r="B39" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="D39" s="139"/>
+      <c r="D39" s="138"/>
       <c r="E39" s="66"/>
       <c r="F39" s="93" t="s">
         <v>171</v>
@@ -3829,26 +3829,16 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="137"/>
+      <c r="A40" s="145"/>
       <c r="B40" s="64"/>
       <c r="C40" s="58"/>
-      <c r="D40" s="140"/>
+      <c r="D40" s="139"/>
       <c r="E40" s="67"/>
       <c r="F40" s="64"/>
       <c r="G40" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="D28:D30"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -3861,6 +3851,16 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="E16:E18"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="D28:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3909,12 +3909,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="146" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="144" t="s">
+      <c r="D2" s="149" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -3926,36 +3926,36 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="142"/>
+      <c r="A3" s="147"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="145"/>
+      <c r="D3" s="150"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="143"/>
+      <c r="A4" s="148"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
-      <c r="D4" s="146"/>
+      <c r="D4" s="151"/>
       <c r="E4" s="57"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="152" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="139" t="s">
+      <c r="D5" s="138" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="84" t="s">
@@ -3965,14 +3965,14 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="147"/>
+      <c r="A6" s="152"/>
       <c r="B6" s="66" t="s">
         <v>255</v>
       </c>
       <c r="C6" s="66" t="s">
         <v>262</v>
       </c>
-      <c r="D6" s="139"/>
+      <c r="D6" s="138"/>
       <c r="E6" s="63" t="s">
         <v>263</v>
       </c>
@@ -3980,12 +3980,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="147"/>
+      <c r="A7" s="152"/>
       <c r="B7" s="66"/>
       <c r="C7" s="66" t="s">
         <v>264</v>
       </c>
-      <c r="D7" s="139"/>
+      <c r="D7" s="138"/>
       <c r="E7" s="63" t="s">
         <v>263</v>
       </c>
@@ -3993,12 +3993,12 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="147"/>
+      <c r="A8" s="152"/>
       <c r="B8" s="66" t="s">
         <v>265</v>
       </c>
       <c r="C8" s="66"/>
-      <c r="D8" s="139"/>
+      <c r="D8" s="138"/>
       <c r="E8" s="63" t="s">
         <v>241</v>
       </c>
@@ -4006,12 +4006,12 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="148"/>
+      <c r="A9" s="153"/>
       <c r="B9" s="66" t="s">
         <v>266</v>
       </c>
       <c r="C9" s="66"/>
-      <c r="D9" s="139"/>
+      <c r="D9" s="138"/>
       <c r="E9" s="64" t="s">
         <v>241</v>
       </c>
@@ -4019,14 +4019,14 @@
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="147" t="s">
+      <c r="A10" s="152" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="62"/>
       <c r="C10" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D10" s="138" t="s">
+      <c r="D10" s="137" t="s">
         <v>142</v>
       </c>
       <c r="E10" s="85" t="s">
@@ -4036,14 +4036,14 @@
       <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="147"/>
+      <c r="A11" s="152"/>
       <c r="B11" s="63" t="s">
         <v>267</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="D11" s="139"/>
+      <c r="D11" s="138"/>
       <c r="E11" s="63" t="s">
         <v>263</v>
       </c>
@@ -4053,14 +4053,14 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="148"/>
+      <c r="A12" s="153"/>
       <c r="B12" s="63" t="s">
         <v>269</v>
       </c>
       <c r="C12" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="D12" s="140"/>
+      <c r="D12" s="139"/>
       <c r="E12" s="66"/>
       <c r="F12" s="64" t="s">
         <v>180</v>
@@ -4068,7 +4068,7 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="136" t="s">
+      <c r="A13" s="144" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="100" t="s">
@@ -4077,7 +4077,7 @@
       <c r="C13" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="123" t="s">
+      <c r="D13" s="133" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="84" t="s">
@@ -4089,12 +4089,12 @@
       <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="136"/>
+      <c r="A14" s="144"/>
       <c r="B14" s="63"/>
       <c r="C14" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="D14" s="124"/>
+      <c r="D14" s="134"/>
       <c r="E14" s="63" t="s">
         <v>273</v>
       </c>
@@ -4102,12 +4102,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="136"/>
+      <c r="A15" s="144"/>
       <c r="B15" s="64"/>
       <c r="C15" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="D15" s="124"/>
+      <c r="D15" s="134"/>
       <c r="E15" s="64" t="s">
         <v>173</v>
       </c>
@@ -4115,57 +4115,57 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="149" t="s">
+      <c r="A16" s="143" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="63"/>
       <c r="C16" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="D16" s="138" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="139" t="s">
+      <c r="D16" s="137" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="138" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="150">
+      <c r="F16" s="140">
         <v>1</v>
       </c>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="136"/>
+      <c r="A17" s="144"/>
       <c r="B17" s="63" t="s">
         <v>276</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>277</v>
       </c>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="151"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="141"/>
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="136"/>
+      <c r="A18" s="144"/>
       <c r="B18" s="63"/>
       <c r="C18" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="D18" s="140"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="152"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="142"/>
       <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="149" t="s">
+      <c r="A19" s="143" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="62"/>
       <c r="C19" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D19" s="139" t="s">
+      <c r="D19" s="138" t="s">
         <v>227</v>
       </c>
       <c r="E19" s="84" t="s">
@@ -4175,12 +4175,12 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="136"/>
+      <c r="A20" s="144"/>
       <c r="B20" s="63"/>
       <c r="C20" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="139"/>
+      <c r="D20" s="138"/>
       <c r="E20" s="63" t="s">
         <v>185</v>
       </c>
@@ -4188,12 +4188,12 @@
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="136"/>
+      <c r="A21" s="144"/>
       <c r="B21" s="76"/>
       <c r="C21" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="D21" s="139"/>
+      <c r="D21" s="138"/>
       <c r="E21" s="63"/>
       <c r="F21" s="60" t="s">
         <v>185</v>
@@ -4201,12 +4201,12 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="136"/>
+      <c r="A22" s="144"/>
       <c r="B22" s="63" t="s">
         <v>255</v>
       </c>
       <c r="C22" s="57"/>
-      <c r="D22" s="139"/>
+      <c r="D22" s="138"/>
       <c r="E22" s="63"/>
       <c r="F22" s="60" t="s">
         <v>222</v>
@@ -4214,14 +4214,14 @@
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="153" t="s">
+      <c r="A23" s="154" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="86"/>
       <c r="C23" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D23" s="123" t="s">
+      <c r="D23" s="133" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="84" t="s">
@@ -4233,14 +4233,14 @@
       <c r="G23" s="59"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="154"/>
+      <c r="A24" s="155"/>
       <c r="B24" s="87" t="s">
         <v>271</v>
       </c>
       <c r="C24" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="D24" s="124"/>
+      <c r="D24" s="134"/>
       <c r="E24" s="63" t="s">
         <v>273</v>
       </c>
@@ -4248,12 +4248,12 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="154"/>
+      <c r="A25" s="155"/>
       <c r="B25" s="88"/>
       <c r="C25" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="D25" s="124"/>
+      <c r="D25" s="134"/>
       <c r="E25" s="63" t="s">
         <v>173</v>
       </c>
@@ -4261,21 +4261,21 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="155"/>
+      <c r="A26" s="156"/>
       <c r="B26" s="95"/>
       <c r="C26" s="61"/>
-      <c r="D26" s="124"/>
+      <c r="D26" s="134"/>
       <c r="E26" s="64"/>
       <c r="F26" s="61"/>
       <c r="G26" s="61"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="136" t="s">
+      <c r="A27" s="144" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="62"/>
       <c r="C27" s="57"/>
-      <c r="D27" s="150" t="s">
+      <c r="D27" s="140" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="60"/>
@@ -4283,12 +4283,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="136"/>
+      <c r="A28" s="144"/>
       <c r="B28" s="63"/>
       <c r="C28" s="57" t="s">
         <v>280</v>
       </c>
-      <c r="D28" s="151"/>
+      <c r="D28" s="141"/>
       <c r="E28" s="60" t="s">
         <v>180</v>
       </c>
@@ -4296,14 +4296,14 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="136"/>
+      <c r="A29" s="144"/>
       <c r="B29" s="63" t="s">
         <v>269</v>
       </c>
       <c r="C29" s="57" t="s">
         <v>281</v>
       </c>
-      <c r="D29" s="151"/>
+      <c r="D29" s="141"/>
       <c r="E29" s="60" t="s">
         <v>180</v>
       </c>
@@ -4326,14 +4326,14 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="136" t="s">
+      <c r="A31" s="144" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="66"/>
       <c r="C31" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D31" s="139"/>
+      <c r="D31" s="138"/>
       <c r="E31" s="84" t="s">
         <v>173</v>
       </c>
@@ -4341,14 +4341,14 @@
       <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="136"/>
+      <c r="A32" s="144"/>
       <c r="B32" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="D32" s="139"/>
+      <c r="D32" s="138"/>
       <c r="E32" s="63" t="s">
         <v>168</v>
       </c>
@@ -4356,12 +4356,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="136"/>
+      <c r="A33" s="144"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="D33" s="139"/>
+      <c r="D33" s="138"/>
       <c r="E33" s="63"/>
       <c r="F33" s="60" t="s">
         <v>170</v>
@@ -4369,32 +4369,32 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="136"/>
+      <c r="A34" s="144"/>
       <c r="B34" s="66"/>
       <c r="C34" s="66"/>
-      <c r="D34" s="139"/>
+      <c r="D34" s="138"/>
       <c r="E34" s="63"/>
       <c r="F34" s="60"/>
       <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="137"/>
+      <c r="A35" s="145"/>
       <c r="B35" s="66"/>
       <c r="C35" s="66"/>
-      <c r="D35" s="140"/>
+      <c r="D35" s="139"/>
       <c r="E35" s="64"/>
       <c r="F35" s="60"/>
       <c r="G35" s="61"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="136" t="s">
+      <c r="A36" s="144" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="62"/>
       <c r="C36" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D36" s="123" t="s">
+      <c r="D36" s="133" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="85" t="s">
@@ -4404,12 +4404,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="136"/>
+      <c r="A37" s="144"/>
       <c r="B37" s="63"/>
       <c r="C37" s="60" t="s">
         <v>284</v>
       </c>
-      <c r="D37" s="124"/>
+      <c r="D37" s="134"/>
       <c r="E37" s="66" t="s">
         <v>170</v>
       </c>
@@ -4417,14 +4417,14 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="136"/>
+      <c r="A38" s="144"/>
       <c r="B38" s="63" t="s">
         <v>248</v>
       </c>
       <c r="C38" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="D38" s="124"/>
+      <c r="D38" s="134"/>
       <c r="E38" s="66" t="s">
         <v>170</v>
       </c>
@@ -4434,12 +4434,12 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="136"/>
+      <c r="A39" s="144"/>
       <c r="B39" s="98" t="s">
         <v>228</v>
       </c>
       <c r="C39" s="49"/>
-      <c r="D39" s="124"/>
+      <c r="D39" s="134"/>
       <c r="E39" s="66"/>
       <c r="F39" s="93" t="s">
         <v>170</v>
@@ -4447,26 +4447,16 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="137"/>
+      <c r="A40" s="145"/>
       <c r="B40" s="64"/>
       <c r="C40" s="61"/>
-      <c r="D40" s="125"/>
+      <c r="D40" s="135"/>
       <c r="E40" s="67"/>
       <c r="F40" s="64"/>
       <c r="G40" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="D27:D29"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -4479,6 +4469,16 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="E16:E18"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="D27:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4527,12 +4527,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="143" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="156" t="s">
+      <c r="D2" s="161" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -4544,36 +4544,36 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="136"/>
+      <c r="A3" s="144"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="157"/>
+      <c r="D3" s="162"/>
       <c r="E3" s="63"/>
       <c r="F3" s="60"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="137"/>
+      <c r="A4" s="145"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="158"/>
+      <c r="D4" s="163"/>
       <c r="E4" s="64"/>
       <c r="F4" s="61"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="152" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="124" t="s">
+      <c r="D5" s="134" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="98" t="s">
@@ -4583,14 +4583,14 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="147"/>
+      <c r="A6" s="152"/>
       <c r="B6" s="66" t="s">
         <v>228</v>
       </c>
       <c r="C6" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="D6" s="124"/>
+      <c r="D6" s="134"/>
       <c r="E6" s="63" t="s">
         <v>241</v>
       </c>
@@ -4598,12 +4598,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="147"/>
+      <c r="A7" s="152"/>
       <c r="B7" s="66"/>
       <c r="C7" s="87" t="s">
         <v>287</v>
       </c>
-      <c r="D7" s="124"/>
+      <c r="D7" s="134"/>
       <c r="E7" s="63" t="s">
         <v>288</v>
       </c>
@@ -4611,32 +4611,32 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="147"/>
+      <c r="A8" s="152"/>
       <c r="B8" s="66"/>
       <c r="C8" s="63"/>
-      <c r="D8" s="124"/>
+      <c r="D8" s="134"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="148"/>
+      <c r="A9" s="153"/>
       <c r="B9" s="66"/>
       <c r="C9" s="64"/>
-      <c r="D9" s="124"/>
+      <c r="D9" s="134"/>
       <c r="E9" s="64"/>
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="147" t="s">
+      <c r="A10" s="152" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="62"/>
       <c r="C10" s="63" t="s">
         <v>289</v>
       </c>
-      <c r="D10" s="138" t="s">
+      <c r="D10" s="137" t="s">
         <v>142</v>
       </c>
       <c r="E10" s="85" t="s">
@@ -4646,14 +4646,14 @@
       <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="147"/>
+      <c r="A11" s="152"/>
       <c r="B11" s="63" t="s">
         <v>290</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>291</v>
       </c>
-      <c r="D11" s="139"/>
+      <c r="D11" s="138"/>
       <c r="E11" s="63" t="s">
         <v>130</v>
       </c>
@@ -4663,14 +4663,14 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="148"/>
+      <c r="A12" s="153"/>
       <c r="B12" s="64" t="s">
         <v>269</v>
       </c>
       <c r="C12" s="69" t="s">
         <v>292</v>
       </c>
-      <c r="D12" s="139"/>
+      <c r="D12" s="138"/>
       <c r="E12" s="66" t="s">
         <v>288</v>
       </c>
@@ -4680,14 +4680,14 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="136" t="s">
+      <c r="A13" s="144" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="68"/>
       <c r="C13" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="123" t="s">
+      <c r="D13" s="133" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="84" t="s">
@@ -4699,23 +4699,23 @@
       <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="136"/>
+      <c r="A14" s="144"/>
       <c r="B14" s="68"/>
       <c r="C14" s="63" t="s">
         <v>293</v>
       </c>
-      <c r="D14" s="124"/>
+      <c r="D14" s="134"/>
       <c r="E14" s="98"/>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="136"/>
+      <c r="A15" s="144"/>
       <c r="B15" s="66"/>
       <c r="C15" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="D15" s="124"/>
+      <c r="D15" s="134"/>
       <c r="E15" s="63" t="s">
         <v>130</v>
       </c>
@@ -4723,12 +4723,12 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="136"/>
+      <c r="A16" s="144"/>
       <c r="B16" s="66"/>
       <c r="C16" s="63" t="s">
         <v>295</v>
       </c>
-      <c r="D16" s="124"/>
+      <c r="D16" s="134"/>
       <c r="E16" s="63" t="s">
         <v>296</v>
       </c>
@@ -4736,12 +4736,12 @@
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="136"/>
+      <c r="A17" s="144"/>
       <c r="B17" s="67"/>
       <c r="C17" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="D17" s="125"/>
+      <c r="D17" s="135"/>
       <c r="E17" s="64" t="s">
         <v>298</v>
       </c>
@@ -4749,57 +4749,57 @@
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="149" t="s">
+      <c r="A18" s="143" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="63"/>
       <c r="C18" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D18" s="139" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="139" t="s">
+      <c r="D18" s="138" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="138" t="s">
         <v>156</v>
       </c>
-      <c r="F18" s="150">
+      <c r="F18" s="140">
         <v>1</v>
       </c>
       <c r="G18" s="59"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="136"/>
+      <c r="A19" s="144"/>
       <c r="B19" s="63" t="s">
         <v>299</v>
       </c>
       <c r="C19" s="77" t="s">
         <v>300</v>
       </c>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="151"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="141"/>
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="136"/>
+      <c r="A20" s="144"/>
       <c r="B20" s="63"/>
       <c r="C20" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="D20" s="140"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="152"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="142"/>
       <c r="G20" s="61"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="149" t="s">
+      <c r="A21" s="143" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="62"/>
       <c r="C21" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D21" s="139" t="s">
+      <c r="D21" s="138" t="s">
         <v>227</v>
       </c>
       <c r="E21" s="84" t="s">
@@ -4809,12 +4809,12 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="136"/>
+      <c r="A22" s="144"/>
       <c r="B22" s="63"/>
       <c r="C22" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="D22" s="139"/>
+      <c r="D22" s="138"/>
       <c r="E22" s="63" t="s">
         <v>185</v>
       </c>
@@ -4822,12 +4822,12 @@
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="136"/>
+      <c r="A23" s="144"/>
       <c r="B23" s="76"/>
       <c r="C23" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="D23" s="139"/>
+      <c r="D23" s="138"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60" t="s">
         <v>185</v>
@@ -4835,12 +4835,12 @@
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="136"/>
+      <c r="A24" s="144"/>
       <c r="B24" s="63" t="s">
         <v>255</v>
       </c>
       <c r="C24" s="57"/>
-      <c r="D24" s="139"/>
+      <c r="D24" s="138"/>
       <c r="E24" s="63"/>
       <c r="F24" s="60" t="s">
         <v>222</v>
@@ -4848,14 +4848,14 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="153" t="s">
+      <c r="A25" s="154" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="86"/>
       <c r="C25" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D25" s="123" t="s">
+      <c r="D25" s="133" t="s">
         <v>24</v>
       </c>
       <c r="E25" s="84" t="s">
@@ -4867,12 +4867,12 @@
       <c r="G25" s="59"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="162"/>
+      <c r="A26" s="160"/>
       <c r="B26" s="97"/>
       <c r="C26" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="D26" s="124"/>
+      <c r="D26" s="134"/>
       <c r="E26" s="98" t="s">
         <v>130</v>
       </c>
@@ -4880,12 +4880,12 @@
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="154"/>
+      <c r="A27" s="155"/>
       <c r="B27" s="87"/>
       <c r="C27" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="D27" s="124"/>
+      <c r="D27" s="134"/>
       <c r="E27" s="63" t="s">
         <v>130</v>
       </c>
@@ -4893,12 +4893,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="154"/>
+      <c r="A28" s="155"/>
       <c r="B28" s="88"/>
       <c r="C28" s="63" t="s">
         <v>295</v>
       </c>
-      <c r="D28" s="124"/>
+      <c r="D28" s="134"/>
       <c r="E28" s="63" t="s">
         <v>296</v>
       </c>
@@ -4906,12 +4906,12 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="155"/>
+      <c r="A29" s="156"/>
       <c r="B29" s="95"/>
       <c r="C29" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="D29" s="124"/>
+      <c r="D29" s="134"/>
       <c r="E29" s="64" t="s">
         <v>298</v>
       </c>
@@ -4919,14 +4919,14 @@
       <c r="G29" s="61"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="136" t="s">
+      <c r="A30" s="144" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="62"/>
       <c r="C30" s="57" t="s">
         <v>280</v>
       </c>
-      <c r="D30" s="150" t="s">
+      <c r="D30" s="140" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="60" t="s">
@@ -4936,12 +4936,12 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="136"/>
+      <c r="A31" s="144"/>
       <c r="B31" s="63"/>
       <c r="C31" s="57" t="s">
         <v>291</v>
       </c>
-      <c r="D31" s="151"/>
+      <c r="D31" s="141"/>
       <c r="E31" s="60"/>
       <c r="F31" s="60" t="s">
         <v>130</v>
@@ -4949,14 +4949,14 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="136"/>
+      <c r="A32" s="144"/>
       <c r="B32" s="63" t="s">
         <v>255</v>
       </c>
       <c r="C32" s="96" t="s">
         <v>302</v>
       </c>
-      <c r="D32" s="151"/>
+      <c r="D32" s="141"/>
       <c r="E32" s="60" t="s">
         <v>191</v>
       </c>
@@ -4977,14 +4977,14 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="136" t="s">
+      <c r="A34" s="144" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="66"/>
       <c r="C34" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D34" s="139" t="s">
+      <c r="D34" s="138" t="s">
         <v>24</v>
       </c>
       <c r="E34" s="84" t="s">
@@ -4994,14 +4994,14 @@
       <c r="G34" s="59"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="136"/>
+      <c r="A35" s="144"/>
       <c r="B35" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C35" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="D35" s="139"/>
+      <c r="D35" s="138"/>
       <c r="E35" s="63" t="s">
         <v>168</v>
       </c>
@@ -5009,12 +5009,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="136"/>
+      <c r="A36" s="144"/>
       <c r="B36" s="66"/>
       <c r="C36" s="66" t="s">
         <v>303</v>
       </c>
-      <c r="D36" s="139"/>
+      <c r="D36" s="138"/>
       <c r="E36" s="63"/>
       <c r="F36" s="60" t="s">
         <v>170</v>
@@ -5022,12 +5022,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="136"/>
+      <c r="A37" s="144"/>
       <c r="B37" s="66"/>
       <c r="C37" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="D37" s="139"/>
+      <c r="D37" s="138"/>
       <c r="E37" s="63" t="s">
         <v>298</v>
       </c>
@@ -5035,23 +5035,23 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="137"/>
+      <c r="A38" s="145"/>
       <c r="B38" s="67"/>
       <c r="C38" s="66"/>
-      <c r="D38" s="139"/>
+      <c r="D38" s="138"/>
       <c r="E38" s="64"/>
       <c r="F38" s="60"/>
       <c r="G38" s="61"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="136" t="s">
+      <c r="A39" s="144" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="66"/>
       <c r="C39" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D39" s="159" t="s">
+      <c r="D39" s="157" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="77" t="s">
@@ -5061,12 +5061,12 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="136"/>
+      <c r="A40" s="144"/>
       <c r="B40" s="66"/>
       <c r="C40" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="D40" s="160"/>
+      <c r="D40" s="158"/>
       <c r="E40" s="57" t="s">
         <v>170</v>
       </c>
@@ -5074,14 +5074,14 @@
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="136"/>
+      <c r="A41" s="144"/>
       <c r="B41" s="66" t="s">
         <v>248</v>
       </c>
       <c r="C41" s="63" t="s">
         <v>304</v>
       </c>
-      <c r="D41" s="160"/>
+      <c r="D41" s="158"/>
       <c r="E41" s="57" t="s">
         <v>288</v>
       </c>
@@ -5091,38 +5091,28 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="136"/>
+      <c r="A42" s="144"/>
       <c r="B42" s="66" t="s">
         <v>305</v>
       </c>
       <c r="C42" s="76"/>
-      <c r="D42" s="160"/>
+      <c r="D42" s="158"/>
       <c r="F42" s="101" t="s">
         <v>239</v>
       </c>
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="137"/>
+      <c r="A43" s="145"/>
       <c r="B43" s="67"/>
       <c r="C43" s="99"/>
-      <c r="D43" s="161"/>
+      <c r="D43" s="159"/>
       <c r="E43" s="58"/>
       <c r="F43" s="64"/>
       <c r="G43" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="D30:D32"/>
     <mergeCell ref="F18:F20"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -5135,6 +5125,16 @@
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="E18:E20"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="D30:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5183,12 +5183,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="144" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="66"/>
       <c r="C2" s="66"/>
-      <c r="D2" s="166" t="s">
+      <c r="D2" s="164" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="63" t="s">
@@ -5200,36 +5200,36 @@
       <c r="G2" s="60"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="136"/>
+      <c r="A3" s="144"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="157"/>
+      <c r="D3" s="162"/>
       <c r="E3" s="63"/>
       <c r="F3" s="60"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="137"/>
+      <c r="A4" s="145"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="158"/>
+      <c r="D4" s="163"/>
       <c r="E4" s="64"/>
       <c r="F4" s="61"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="152" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="124" t="s">
+      <c r="D5" s="134" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="98" t="s">
@@ -5239,14 +5239,14 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="147"/>
+      <c r="A6" s="152"/>
       <c r="B6" s="66" t="s">
         <v>228</v>
       </c>
       <c r="C6" s="63" t="s">
         <v>306</v>
       </c>
-      <c r="D6" s="124"/>
+      <c r="D6" s="134"/>
       <c r="E6" s="63" t="s">
         <v>307</v>
       </c>
@@ -5254,12 +5254,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="147"/>
+      <c r="A7" s="152"/>
       <c r="B7" s="66"/>
       <c r="C7" s="87" t="s">
         <v>308</v>
       </c>
-      <c r="D7" s="124"/>
+      <c r="D7" s="134"/>
       <c r="E7" s="63" t="s">
         <v>309</v>
       </c>
@@ -5267,12 +5267,12 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="147"/>
+      <c r="A8" s="152"/>
       <c r="B8" s="66"/>
       <c r="C8" s="64" t="s">
         <v>310</v>
       </c>
-      <c r="D8" s="124"/>
+      <c r="D8" s="134"/>
       <c r="E8" s="64" t="s">
         <v>311</v>
       </c>
@@ -5280,23 +5280,23 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="148"/>
+      <c r="A9" s="153"/>
       <c r="B9" s="66"/>
       <c r="C9" s="64"/>
-      <c r="D9" s="124"/>
+      <c r="D9" s="134"/>
       <c r="E9" s="64"/>
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="147" t="s">
+      <c r="A10" s="152" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="62"/>
       <c r="C10" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D10" s="138" t="s">
+      <c r="D10" s="137" t="s">
         <v>142</v>
       </c>
       <c r="E10" s="85" t="s">
@@ -5306,14 +5306,14 @@
       <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="147"/>
+      <c r="A11" s="152"/>
       <c r="B11" s="63" t="s">
         <v>313</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>314</v>
       </c>
-      <c r="D11" s="139"/>
+      <c r="D11" s="138"/>
       <c r="E11" s="63" t="s">
         <v>132</v>
       </c>
@@ -5321,12 +5321,12 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="147"/>
+      <c r="A12" s="152"/>
       <c r="B12" s="63"/>
       <c r="C12" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="D12" s="139"/>
+      <c r="D12" s="138"/>
       <c r="E12" s="66" t="s">
         <v>180</v>
       </c>
@@ -5334,23 +5334,23 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="148"/>
+      <c r="A13" s="153"/>
       <c r="B13" s="64"/>
       <c r="C13" s="58"/>
-      <c r="D13" s="139"/>
+      <c r="D13" s="138"/>
       <c r="E13" s="66"/>
       <c r="F13" s="64"/>
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="136" t="s">
+      <c r="A14" s="144" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="68"/>
       <c r="C14" s="107" t="s">
         <v>261</v>
       </c>
-      <c r="D14" s="123" t="s">
+      <c r="D14" s="133" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="84" t="s">
@@ -5360,12 +5360,12 @@
       <c r="G14" s="59"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="136"/>
+      <c r="A15" s="144"/>
       <c r="B15" s="68"/>
       <c r="C15" s="63" t="s">
         <v>316</v>
       </c>
-      <c r="D15" s="124"/>
+      <c r="D15" s="134"/>
       <c r="E15" s="98" t="s">
         <v>132</v>
       </c>
@@ -5373,12 +5373,12 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="136"/>
+      <c r="A16" s="144"/>
       <c r="B16" s="66"/>
       <c r="C16" s="63" t="s">
         <v>317</v>
       </c>
-      <c r="D16" s="124"/>
+      <c r="D16" s="134"/>
       <c r="E16" s="95" t="s">
         <v>132</v>
       </c>
@@ -5386,12 +5386,12 @@
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="136"/>
+      <c r="A17" s="144"/>
       <c r="B17" s="66" t="s">
         <v>318</v>
       </c>
       <c r="C17" s="63"/>
-      <c r="D17" s="124"/>
+      <c r="D17" s="134"/>
       <c r="E17" s="63"/>
       <c r="F17" s="60" t="s">
         <v>185</v>
@@ -5399,64 +5399,64 @@
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="136"/>
+      <c r="A18" s="144"/>
       <c r="B18" s="67"/>
       <c r="C18" s="64"/>
-      <c r="D18" s="125"/>
+      <c r="D18" s="135"/>
       <c r="E18" s="64"/>
       <c r="F18" s="60"/>
       <c r="G18" s="60"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="149" t="s">
+      <c r="A19" s="143" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="63"/>
       <c r="C19" s="63" t="s">
         <v>319</v>
       </c>
-      <c r="D19" s="139" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="139" t="s">
+      <c r="D19" s="138" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="138" t="s">
         <v>320</v>
       </c>
-      <c r="F19" s="150"/>
+      <c r="F19" s="140"/>
       <c r="G19" s="59"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="136"/>
+      <c r="A20" s="144"/>
       <c r="B20" s="63" t="s">
         <v>321</v>
       </c>
       <c r="C20" s="77" t="s">
         <v>322</v>
       </c>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="151"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="141"/>
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="136"/>
+      <c r="A21" s="144"/>
       <c r="B21" s="63"/>
       <c r="C21" s="58" t="s">
         <v>323</v>
       </c>
-      <c r="D21" s="140"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="152"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="142"/>
       <c r="G21" s="61"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="149" t="s">
+      <c r="A22" s="143" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="62"/>
       <c r="C22" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D22" s="139" t="s">
+      <c r="D22" s="138" t="s">
         <v>227</v>
       </c>
       <c r="E22" s="84" t="s">
@@ -5466,12 +5466,12 @@
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="136"/>
+      <c r="A23" s="144"/>
       <c r="B23" s="63"/>
       <c r="C23" s="57" t="s">
         <v>324</v>
       </c>
-      <c r="D23" s="139"/>
+      <c r="D23" s="138"/>
       <c r="E23" s="63" t="s">
         <v>176</v>
       </c>
@@ -5479,14 +5479,14 @@
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="136"/>
+      <c r="A24" s="144"/>
       <c r="B24" s="63" t="s">
         <v>325</v>
       </c>
       <c r="C24" s="57" t="s">
         <v>326</v>
       </c>
-      <c r="D24" s="139"/>
+      <c r="D24" s="138"/>
       <c r="E24" s="63" t="s">
         <v>185</v>
       </c>
@@ -5494,14 +5494,14 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="136"/>
+      <c r="A25" s="144"/>
       <c r="B25" s="63" t="s">
         <v>255</v>
       </c>
       <c r="C25" s="57" t="s">
         <v>327</v>
       </c>
-      <c r="D25" s="139"/>
+      <c r="D25" s="138"/>
       <c r="E25" s="63" t="s">
         <v>309</v>
       </c>
@@ -5511,14 +5511,14 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="153" t="s">
+      <c r="A26" s="154" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="78"/>
       <c r="C26" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D26" s="123" t="s">
+      <c r="D26" s="133" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="84" t="s">
@@ -5528,14 +5528,14 @@
       <c r="G26" s="59"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="162"/>
+      <c r="A27" s="160"/>
       <c r="B27" s="83" t="s">
         <v>328</v>
       </c>
       <c r="C27" s="98" t="s">
         <v>329</v>
       </c>
-      <c r="D27" s="124"/>
+      <c r="D27" s="134"/>
       <c r="E27" s="98" t="s">
         <v>330</v>
       </c>
@@ -5543,12 +5543,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="154"/>
+      <c r="A28" s="155"/>
       <c r="B28" s="68"/>
       <c r="C28" s="63" t="s">
         <v>331</v>
       </c>
-      <c r="D28" s="124"/>
+      <c r="D28" s="134"/>
       <c r="E28" s="63" t="s">
         <v>309</v>
       </c>
@@ -5556,12 +5556,12 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="154"/>
+      <c r="A29" s="155"/>
       <c r="B29" s="80"/>
       <c r="C29" s="63" t="s">
         <v>332</v>
       </c>
-      <c r="D29" s="124"/>
+      <c r="D29" s="134"/>
       <c r="E29" s="63" t="s">
         <v>173</v>
       </c>
@@ -5569,12 +5569,12 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="163"/>
+      <c r="A30" s="165"/>
       <c r="B30" s="108"/>
       <c r="C30" s="63" t="s">
         <v>310</v>
       </c>
-      <c r="D30" s="124"/>
+      <c r="D30" s="134"/>
       <c r="E30" s="63" t="s">
         <v>311</v>
       </c>
@@ -5582,14 +5582,14 @@
       <c r="G30" s="61"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="164" t="s">
+      <c r="A31" s="166" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="109"/>
       <c r="C31" s="110" t="s">
         <v>333</v>
       </c>
-      <c r="D31" s="165" t="s">
+      <c r="D31" s="167" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="109" t="s">
@@ -5599,14 +5599,14 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="121"/>
+      <c r="A32" s="131"/>
       <c r="B32" s="60" t="s">
         <v>334</v>
       </c>
       <c r="C32" s="57" t="s">
         <v>335</v>
       </c>
-      <c r="D32" s="151"/>
+      <c r="D32" s="141"/>
       <c r="E32" s="60" t="s">
         <v>132</v>
       </c>
@@ -5614,12 +5614,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="122"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="61"/>
       <c r="C33" s="111" t="s">
         <v>336</v>
       </c>
-      <c r="D33" s="152"/>
+      <c r="D33" s="142"/>
       <c r="E33" s="61"/>
       <c r="F33" s="61" t="s">
         <v>180</v>
@@ -5627,14 +5627,14 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="136" t="s">
+      <c r="A34" s="144" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="66"/>
       <c r="C34" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D34" s="139" t="s">
+      <c r="D34" s="138" t="s">
         <v>24</v>
       </c>
       <c r="E34" s="98" t="s">
@@ -5644,14 +5644,14 @@
       <c r="G34" s="59"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="136"/>
+      <c r="A35" s="144"/>
       <c r="B35" s="66" t="s">
         <v>337</v>
       </c>
       <c r="C35" s="68" t="s">
         <v>338</v>
       </c>
-      <c r="D35" s="139"/>
+      <c r="D35" s="138"/>
       <c r="E35" s="63" t="s">
         <v>170</v>
       </c>
@@ -5659,12 +5659,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="136"/>
+      <c r="A36" s="144"/>
       <c r="B36" s="66"/>
       <c r="C36" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="D36" s="139"/>
+      <c r="D36" s="138"/>
       <c r="E36" s="63" t="s">
         <v>241</v>
       </c>
@@ -5672,12 +5672,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="136"/>
+      <c r="A37" s="144"/>
       <c r="B37" s="66"/>
       <c r="C37" s="66" t="s">
         <v>340</v>
       </c>
-      <c r="D37" s="139"/>
+      <c r="D37" s="138"/>
       <c r="E37" s="63" t="s">
         <v>170</v>
       </c>
@@ -5685,12 +5685,12 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="137"/>
+      <c r="A38" s="145"/>
       <c r="B38" s="67"/>
       <c r="C38" s="66" t="s">
         <v>341</v>
       </c>
-      <c r="D38" s="139"/>
+      <c r="D38" s="138"/>
       <c r="E38" s="64" t="s">
         <v>342</v>
       </c>
@@ -5698,14 +5698,14 @@
       <c r="G38" s="61"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="136" t="s">
+      <c r="A39" s="144" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="66"/>
       <c r="C39" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D39" s="159" t="s">
+      <c r="D39" s="157" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="46" t="s">
@@ -5715,12 +5715,12 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="136"/>
+      <c r="A40" s="144"/>
       <c r="B40" s="66"/>
       <c r="C40" s="63" t="s">
         <v>343</v>
       </c>
-      <c r="D40" s="160"/>
+      <c r="D40" s="158"/>
       <c r="E40" s="77" t="s">
         <v>344</v>
       </c>
@@ -5728,14 +5728,14 @@
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="136"/>
+      <c r="A41" s="144"/>
       <c r="B41" s="66" t="s">
         <v>345</v>
       </c>
       <c r="C41" s="63" t="s">
         <v>346</v>
       </c>
-      <c r="D41" s="160"/>
+      <c r="D41" s="158"/>
       <c r="E41" s="57" t="s">
         <v>170</v>
       </c>
@@ -5745,25 +5745,35 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="136"/>
+      <c r="A42" s="144"/>
       <c r="B42" s="66"/>
       <c r="C42" s="93"/>
-      <c r="D42" s="160"/>
+      <c r="D42" s="158"/>
       <c r="E42" s="46"/>
       <c r="F42" s="101"/>
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="137"/>
+      <c r="A43" s="145"/>
       <c r="B43" s="67"/>
       <c r="C43" s="99"/>
-      <c r="D43" s="161"/>
+      <c r="D43" s="159"/>
       <c r="E43" s="58"/>
       <c r="F43" s="64"/>
       <c r="G43" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="D31:D33"/>
     <mergeCell ref="F19:F21"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -5776,16 +5786,6 @@
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="E19:E21"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="D31:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5831,14 +5831,14 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="136" t="s">
+      <c r="A3" s="144" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="66"/>
       <c r="C3" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="D3" s="166" t="s">
+      <c r="D3" s="164" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="63" t="s">
@@ -5850,14 +5850,14 @@
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="136"/>
+      <c r="A4" s="144"/>
       <c r="B4" s="66" t="s">
         <v>347</v>
       </c>
       <c r="C4" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="D4" s="157"/>
+      <c r="D4" s="162"/>
       <c r="E4" s="63" t="s">
         <v>349</v>
       </c>
@@ -5865,12 +5865,12 @@
       <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="137"/>
+      <c r="A5" s="145"/>
       <c r="B5" s="67"/>
       <c r="C5" s="66" t="s">
         <v>350</v>
       </c>
-      <c r="D5" s="158"/>
+      <c r="D5" s="163"/>
       <c r="E5" s="63" t="s">
         <v>351</v>
       </c>
@@ -5878,14 +5878,14 @@
       <c r="G5" s="61"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="147" t="s">
+      <c r="A6" s="152" t="s">
         <v>134</v>
       </c>
       <c r="B6" s="66"/>
       <c r="C6" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D6" s="124" t="s">
+      <c r="D6" s="134" t="s">
         <v>137</v>
       </c>
       <c r="E6" s="84" t="s">
@@ -5895,12 +5895,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="147"/>
+      <c r="A7" s="152"/>
       <c r="B7" s="66"/>
       <c r="C7" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="D7" s="124"/>
+      <c r="D7" s="134"/>
       <c r="E7" s="63" t="s">
         <v>309</v>
       </c>
@@ -5908,14 +5908,14 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="147"/>
+      <c r="A8" s="152"/>
       <c r="B8" s="66" t="s">
         <v>228</v>
       </c>
       <c r="C8" s="87" t="s">
         <v>353</v>
       </c>
-      <c r="D8" s="124"/>
+      <c r="D8" s="134"/>
       <c r="E8" s="63" t="s">
         <v>185</v>
       </c>
@@ -5923,32 +5923,32 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="147"/>
+      <c r="A9" s="152"/>
       <c r="B9" s="66"/>
       <c r="C9" s="63"/>
-      <c r="D9" s="124"/>
+      <c r="D9" s="134"/>
       <c r="E9" s="63"/>
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="148"/>
+      <c r="A10" s="153"/>
       <c r="B10" s="66"/>
       <c r="C10" s="64"/>
-      <c r="D10" s="124"/>
+      <c r="D10" s="134"/>
       <c r="E10" s="64"/>
       <c r="F10" s="60"/>
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="147" t="s">
+      <c r="A11" s="152" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="62"/>
       <c r="C11" s="63" t="s">
         <v>354</v>
       </c>
-      <c r="D11" s="138" t="s">
+      <c r="D11" s="137" t="s">
         <v>142</v>
       </c>
       <c r="E11" s="85" t="s">
@@ -5958,12 +5958,12 @@
       <c r="G11" s="59"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="147"/>
+      <c r="A12" s="152"/>
       <c r="B12" s="63"/>
       <c r="C12" s="77" t="s">
         <v>261</v>
       </c>
-      <c r="D12" s="139"/>
+      <c r="D12" s="138"/>
       <c r="E12" s="63" t="s">
         <v>180</v>
       </c>
@@ -5971,14 +5971,14 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="147"/>
+      <c r="A13" s="152"/>
       <c r="B13" s="63" t="s">
         <v>356</v>
       </c>
       <c r="C13" s="57" t="s">
         <v>357</v>
       </c>
-      <c r="D13" s="139"/>
+      <c r="D13" s="138"/>
       <c r="E13" s="63" t="s">
         <v>130</v>
       </c>
@@ -5988,14 +5988,14 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="147"/>
+      <c r="A14" s="152"/>
       <c r="B14" s="63" t="s">
         <v>359</v>
       </c>
       <c r="C14" s="77" t="s">
         <v>315</v>
       </c>
-      <c r="D14" s="139"/>
+      <c r="D14" s="138"/>
       <c r="E14" s="66" t="s">
         <v>180</v>
       </c>
@@ -6003,12 +6003,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="148"/>
+      <c r="A15" s="153"/>
       <c r="B15" s="63"/>
       <c r="C15" s="57" t="s">
         <v>360</v>
       </c>
-      <c r="D15" s="139"/>
+      <c r="D15" s="138"/>
       <c r="E15" s="66" t="s">
         <v>351</v>
       </c>
@@ -6016,14 +6016,14 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="136" t="s">
+      <c r="A16" s="144" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="100"/>
       <c r="C16" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="D16" s="123" t="s">
+      <c r="D16" s="133" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="84" t="s">
@@ -6033,14 +6033,14 @@
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="136"/>
+      <c r="A17" s="144"/>
       <c r="B17" s="98" t="s">
         <v>362</v>
       </c>
       <c r="C17" s="112" t="s">
         <v>261</v>
       </c>
-      <c r="D17" s="124"/>
+      <c r="D17" s="134"/>
       <c r="E17" s="98" t="s">
         <v>363</v>
       </c>
@@ -6048,14 +6048,14 @@
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="136"/>
+      <c r="A18" s="144"/>
       <c r="B18" s="87" t="s">
         <v>255</v>
       </c>
       <c r="C18" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="D18" s="124"/>
+      <c r="D18" s="134"/>
       <c r="E18" s="63" t="s">
         <v>130</v>
       </c>
@@ -6065,12 +6065,12 @@
       <c r="G18" s="60"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="136"/>
+      <c r="A19" s="144"/>
       <c r="B19" s="64"/>
       <c r="C19" s="61" t="s">
         <v>327</v>
       </c>
-      <c r="D19" s="125"/>
+      <c r="D19" s="135"/>
       <c r="E19" s="64" t="s">
         <v>130</v>
       </c>
@@ -6078,66 +6078,66 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="120" t="s">
+      <c r="A20" s="130" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="57"/>
       <c r="C20" s="63" t="s">
         <v>366</v>
       </c>
-      <c r="D20" s="150" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="150" t="s">
+      <c r="D20" s="140" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="140" t="s">
         <v>367</v>
       </c>
-      <c r="F20" s="138"/>
-      <c r="G20" s="150"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="140"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="121"/>
+      <c r="A21" s="131"/>
       <c r="B21" s="60"/>
       <c r="C21" s="63" t="s">
         <v>368</v>
       </c>
-      <c r="D21" s="151"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="151"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="141"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="121"/>
+      <c r="A22" s="131"/>
       <c r="B22" s="60" t="s">
         <v>321</v>
       </c>
       <c r="C22" s="77" t="s">
         <v>369</v>
       </c>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="151"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="141"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="121"/>
+      <c r="A23" s="131"/>
       <c r="B23" s="60"/>
       <c r="C23" s="57" t="s">
         <v>370</v>
       </c>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="151"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="141"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="120" t="s">
+      <c r="A24" s="130" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="56"/>
       <c r="C24" s="116" t="s">
         <v>371</v>
       </c>
-      <c r="D24" s="123" t="s">
+      <c r="D24" s="133" t="s">
         <v>227</v>
       </c>
       <c r="E24" s="117" t="s">
@@ -6147,12 +6147,12 @@
       <c r="G24" s="62"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="121"/>
+      <c r="A25" s="131"/>
       <c r="B25" s="57"/>
       <c r="C25" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D25" s="124"/>
+      <c r="D25" s="134"/>
       <c r="E25" s="85" t="s">
         <v>173</v>
       </c>
@@ -6160,12 +6160,12 @@
       <c r="G25" s="63"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="121"/>
+      <c r="A26" s="131"/>
       <c r="B26" s="57"/>
       <c r="C26" s="63" t="s">
         <v>373</v>
       </c>
-      <c r="D26" s="124"/>
+      <c r="D26" s="134"/>
       <c r="E26" s="66" t="s">
         <v>374</v>
       </c>
@@ -6173,14 +6173,14 @@
       <c r="G26" s="63"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="121"/>
+      <c r="A27" s="131"/>
       <c r="B27" s="57" t="s">
         <v>325</v>
       </c>
       <c r="C27" s="63" t="s">
         <v>375</v>
       </c>
-      <c r="D27" s="124"/>
+      <c r="D27" s="134"/>
       <c r="E27" s="66" t="s">
         <v>309</v>
       </c>
@@ -6188,12 +6188,12 @@
       <c r="G27" s="63"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="121"/>
+      <c r="A28" s="131"/>
       <c r="B28" s="55" t="s">
         <v>255</v>
       </c>
       <c r="C28" s="64"/>
-      <c r="D28" s="125"/>
+      <c r="D28" s="135"/>
       <c r="E28" s="67" t="s">
         <v>309</v>
       </c>
@@ -6201,14 +6201,14 @@
       <c r="G28" s="64"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="167" t="s">
+      <c r="A29" s="168" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="113"/>
       <c r="C29" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D29" s="124" t="s">
+      <c r="D29" s="134" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="98" t="s">
@@ -6218,14 +6218,14 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A30" s="168"/>
+      <c r="A30" s="169"/>
       <c r="B30" s="60" t="s">
         <v>376</v>
       </c>
       <c r="C30" s="98" t="s">
         <v>377</v>
       </c>
-      <c r="D30" s="124"/>
+      <c r="D30" s="134"/>
       <c r="E30" s="98" t="s">
         <v>378</v>
       </c>
@@ -6233,12 +6233,12 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="169"/>
+      <c r="A31" s="170"/>
       <c r="B31" s="69"/>
       <c r="C31" s="63" t="s">
         <v>379</v>
       </c>
-      <c r="D31" s="124"/>
+      <c r="D31" s="134"/>
       <c r="E31" s="63" t="s">
         <v>309</v>
       </c>
@@ -6246,12 +6246,12 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="169"/>
+      <c r="A32" s="170"/>
       <c r="B32" s="114"/>
       <c r="C32" s="63" t="s">
         <v>380</v>
       </c>
-      <c r="D32" s="124"/>
+      <c r="D32" s="134"/>
       <c r="E32" s="63" t="s">
         <v>381</v>
       </c>
@@ -6259,12 +6259,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="170"/>
+      <c r="A33" s="171"/>
       <c r="B33" s="115"/>
       <c r="C33" s="63" t="s">
         <v>382</v>
       </c>
-      <c r="D33" s="124"/>
+      <c r="D33" s="134"/>
       <c r="E33" s="63" t="s">
         <v>311</v>
       </c>
@@ -6272,14 +6272,14 @@
       <c r="G33" s="61"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="121" t="s">
+      <c r="A34" s="131" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="109"/>
       <c r="C34" s="110" t="s">
         <v>383</v>
       </c>
-      <c r="D34" s="165" t="s">
+      <c r="D34" s="167" t="s">
         <v>24</v>
       </c>
       <c r="E34" s="109" t="s">
@@ -6289,12 +6289,12 @@
       <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="121"/>
+      <c r="A35" s="131"/>
       <c r="B35" s="60"/>
       <c r="C35" s="57" t="s">
         <v>384</v>
       </c>
-      <c r="D35" s="151"/>
+      <c r="D35" s="141"/>
       <c r="E35" s="60" t="s">
         <v>130</v>
       </c>
@@ -6302,14 +6302,14 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="121"/>
+      <c r="A36" s="131"/>
       <c r="B36" s="60" t="s">
         <v>385</v>
       </c>
       <c r="C36" s="57" t="s">
         <v>386</v>
       </c>
-      <c r="D36" s="151"/>
+      <c r="D36" s="141"/>
       <c r="E36" s="60" t="s">
         <v>180</v>
       </c>
@@ -6317,12 +6317,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="121"/>
+      <c r="A37" s="131"/>
       <c r="B37" s="60"/>
       <c r="C37" s="57" t="s">
         <v>387</v>
       </c>
-      <c r="D37" s="151"/>
+      <c r="D37" s="141"/>
       <c r="E37" s="60" t="s">
         <v>191</v>
       </c>
@@ -6330,23 +6330,23 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="122"/>
+      <c r="A38" s="132"/>
       <c r="B38" s="61"/>
       <c r="C38" s="111"/>
-      <c r="D38" s="152"/>
+      <c r="D38" s="142"/>
       <c r="E38" s="61"/>
       <c r="F38" s="61"/>
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="136" t="s">
+      <c r="A39" s="144" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="66"/>
       <c r="C39" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D39" s="139" t="s">
+      <c r="D39" s="138" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="98" t="s">
@@ -6356,14 +6356,14 @@
       <c r="G39" s="59"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="136"/>
+      <c r="A40" s="144"/>
       <c r="B40" s="66" t="s">
         <v>388</v>
       </c>
       <c r="C40" s="68" t="s">
         <v>389</v>
       </c>
-      <c r="D40" s="139"/>
+      <c r="D40" s="138"/>
       <c r="E40" s="63" t="s">
         <v>243</v>
       </c>
@@ -6371,12 +6371,12 @@
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="136"/>
+      <c r="A41" s="144"/>
       <c r="B41" s="66"/>
       <c r="C41" s="66" t="s">
         <v>390</v>
       </c>
-      <c r="D41" s="139"/>
+      <c r="D41" s="138"/>
       <c r="E41" s="63" t="s">
         <v>241</v>
       </c>
@@ -6384,12 +6384,12 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="136"/>
+      <c r="A42" s="144"/>
       <c r="B42" s="66"/>
       <c r="C42" s="66" t="s">
         <v>391</v>
       </c>
-      <c r="D42" s="139"/>
+      <c r="D42" s="138"/>
       <c r="E42" s="63" t="s">
         <v>170</v>
       </c>
@@ -6397,78 +6397,67 @@
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="137"/>
+      <c r="A43" s="145"/>
       <c r="B43" s="67"/>
       <c r="C43" s="66"/>
-      <c r="D43" s="139"/>
+      <c r="D43" s="138"/>
       <c r="E43" s="64"/>
       <c r="F43" s="60"/>
       <c r="G43" s="61"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="136" t="s">
+      <c r="A44" s="144" t="s">
         <v>30</v>
       </c>
       <c r="B44" s="66"/>
       <c r="C44" s="62"/>
-      <c r="D44" s="159"/>
+      <c r="D44" s="157"/>
       <c r="E44" s="46"/>
       <c r="F44" s="62"/>
       <c r="G44" s="60"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="136"/>
+      <c r="A45" s="144"/>
       <c r="B45" s="66"/>
       <c r="C45" s="63"/>
-      <c r="D45" s="160"/>
+      <c r="D45" s="158"/>
       <c r="E45" s="77"/>
       <c r="F45" s="63"/>
       <c r="G45" s="60"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="136"/>
+      <c r="A46" s="144"/>
       <c r="B46" s="66" t="s">
         <v>245</v>
       </c>
       <c r="C46" s="63" t="s">
         <v>245</v>
       </c>
-      <c r="D46" s="160"/>
+      <c r="D46" s="158"/>
       <c r="E46" s="57"/>
       <c r="F46" s="63"/>
       <c r="G46" s="60"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="136"/>
+      <c r="A47" s="144"/>
       <c r="B47" s="66"/>
       <c r="C47" s="93"/>
-      <c r="D47" s="160"/>
+      <c r="D47" s="158"/>
       <c r="E47" s="46"/>
       <c r="F47" s="101"/>
       <c r="G47" s="60"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="137"/>
+      <c r="A48" s="145"/>
       <c r="B48" s="67"/>
       <c r="C48" s="99"/>
-      <c r="D48" s="161"/>
+      <c r="D48" s="159"/>
       <c r="E48" s="58"/>
       <c r="F48" s="64"/>
       <c r="G48" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="D11:D15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="D16:D19"/>
     <mergeCell ref="A24:A28"/>
@@ -6481,6 +6470,17 @@
     <mergeCell ref="D39:D43"/>
     <mergeCell ref="D34:D38"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="F20:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6488,10 +6488,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B6DB65-F97A-4BA7-A76B-DB8B09A04A96}">
-  <dimension ref="A2:G43"/>
+  <dimension ref="A2:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6526,14 +6526,14 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="136" t="s">
+      <c r="A3" s="144" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="66"/>
       <c r="C3" s="66" t="s">
         <v>392</v>
       </c>
-      <c r="D3" s="166" t="s">
+      <c r="D3" s="164" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="63" t="s">
@@ -6545,554 +6545,615 @@
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="136"/>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="144"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66" t="s">
         <v>393</v>
       </c>
-      <c r="C4" s="66" t="s">
-        <v>386</v>
-      </c>
-      <c r="D4" s="157"/>
+      <c r="D4" s="164"/>
       <c r="E4" s="63" t="s">
-        <v>394</v>
+        <v>288</v>
       </c>
       <c r="F4" s="60"/>
       <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="137"/>
-      <c r="B5" s="67"/>
+      <c r="A5" s="144"/>
+      <c r="B5" s="66" t="s">
+        <v>394</v>
+      </c>
       <c r="C5" s="66" t="s">
+        <v>386</v>
+      </c>
+      <c r="D5" s="162"/>
+      <c r="E5" s="63" t="s">
         <v>395</v>
       </c>
-      <c r="D5" s="158"/>
-      <c r="E5" s="63" t="s">
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="145"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="66" t="s">
+        <v>396</v>
+      </c>
+      <c r="D6" s="163"/>
+      <c r="E6" s="63" t="s">
         <v>238</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="147" t="s">
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="152" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="124" t="s">
+      <c r="B7" s="66"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="134" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="147"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="63"/>
+      <c r="E7" s="84"/>
       <c r="F7" s="60"/>
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="147"/>
-      <c r="B8" s="66" t="s">
-        <v>216</v>
-      </c>
-      <c r="C8" s="87" t="s">
-        <v>216</v>
-      </c>
-      <c r="D8" s="124"/>
+      <c r="A8" s="152"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="134"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="147"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="124"/>
+      <c r="A9" s="152"/>
+      <c r="B9" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="87" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="134"/>
       <c r="E9" s="63"/>
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="148"/>
+      <c r="A10" s="152"/>
       <c r="B10" s="66"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="64"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="63"/>
       <c r="F10" s="60"/>
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="147" t="s">
+      <c r="A11" s="153"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="63" t="s">
+      <c r="B12" s="62"/>
+      <c r="C12" s="63" t="s">
         <v>354</v>
       </c>
-      <c r="D11" s="138" t="s">
+      <c r="D12" s="137" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="85" t="s">
+      <c r="E12" s="85" t="s">
         <v>179</v>
       </c>
-      <c r="F11" s="62"/>
-      <c r="G11" s="59"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="147"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="77" t="s">
-        <v>396</v>
-      </c>
-      <c r="D12" s="139"/>
-      <c r="E12" s="63" t="s">
+      <c r="F12" s="62"/>
+      <c r="G12" s="59"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="152"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="77" t="s">
+        <v>397</v>
+      </c>
+      <c r="D13" s="138"/>
+      <c r="E13" s="63" t="s">
         <v>358</v>
-      </c>
-      <c r="F12" s="63"/>
-      <c r="G12" s="60"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="147"/>
-      <c r="B13" s="63" t="s">
-        <v>356</v>
-      </c>
-      <c r="C13" s="57" t="s">
-        <v>386</v>
-      </c>
-      <c r="D13" s="139"/>
-      <c r="E13" s="63" t="s">
-        <v>180</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="147"/>
+      <c r="A14" s="152"/>
       <c r="B14" s="63" t="s">
-        <v>397</v>
-      </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="63" t="s">
+        <v>356</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>386</v>
+      </c>
+      <c r="D14" s="138"/>
+      <c r="E14" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="63"/>
+      <c r="G14" s="60"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="152"/>
+      <c r="B15" s="63" t="s">
         <v>398</v>
       </c>
-      <c r="G14" s="60"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="120" t="s">
+      <c r="C15" s="77"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="63" t="s">
+        <v>399</v>
+      </c>
+      <c r="G15" s="60"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="118"/>
-      <c r="C15" s="62" t="s">
-        <v>399</v>
-      </c>
-      <c r="D15" s="123" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="84" t="s">
+      <c r="B16" s="118"/>
+      <c r="C16" s="62" t="s">
+        <v>400</v>
+      </c>
+      <c r="D16" s="133" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="121"/>
-      <c r="B16" s="77" t="s">
-        <v>400</v>
-      </c>
-      <c r="C16" s="98" t="s">
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="131"/>
+      <c r="B17" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="C17" s="98" t="s">
         <v>261</v>
       </c>
-      <c r="D16" s="124"/>
-      <c r="E16" s="98" t="s">
+      <c r="D17" s="134"/>
+      <c r="E17" s="98" t="s">
         <v>363</v>
       </c>
-      <c r="F16" s="60" t="s">
+      <c r="F17" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="G16" s="60"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="122"/>
-      <c r="B17" s="119" t="s">
+      <c r="G17" s="60"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="132"/>
+      <c r="B18" s="119" t="s">
         <v>255</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="60" t="s">
+      <c r="C18" s="64" t="s">
+        <v>393</v>
+      </c>
+      <c r="D18" s="134"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="G17" s="60"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="121" t="s">
+      <c r="G18" s="60"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="63" t="s">
-        <v>401</v>
-      </c>
-      <c r="D18" s="150" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="150" t="s">
+      <c r="B19" s="57"/>
+      <c r="C19" s="63" t="s">
         <v>402</v>
       </c>
-      <c r="F18" s="138"/>
-      <c r="G18" s="150"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="121"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="63" t="s">
+      <c r="D19" s="140" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="140" t="s">
+        <v>403</v>
+      </c>
+      <c r="F19" s="137"/>
+      <c r="G19" s="140"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="131"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="63" t="s">
         <v>368</v>
       </c>
-      <c r="D19" s="151"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="151"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="121"/>
-      <c r="B20" s="60" t="s">
-        <v>403</v>
-      </c>
-      <c r="C20" s="77" t="s">
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="141"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="131"/>
+      <c r="B21" s="60" t="s">
         <v>404</v>
       </c>
-      <c r="D20" s="151"/>
-      <c r="E20" s="151"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="151"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="121"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="77" t="s">
         <v>405</v>
       </c>
-      <c r="D21" s="151"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="151"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="141"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="149" t="s">
+      <c r="A22" s="131"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="66" t="s">
+        <v>393</v>
+      </c>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="141"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="131"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="57" t="s">
+        <v>406</v>
+      </c>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="141"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="62"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="136"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="63"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="136"/>
-      <c r="B24" s="66" t="s">
-        <v>216</v>
-      </c>
-      <c r="C24" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="D24" s="124"/>
-      <c r="E24" s="66" t="s">
-        <v>216</v>
-      </c>
-      <c r="F24" s="66" t="s">
-        <v>216</v>
-      </c>
-      <c r="G24" s="63" t="s">
-        <v>216</v>
-      </c>
+      <c r="B24" s="65"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="62"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="136"/>
+      <c r="A25" s="144"/>
       <c r="B25" s="66"/>
       <c r="C25" s="63"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="66"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="85"/>
       <c r="F25" s="66"/>
       <c r="G25" s="63"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="136"/>
-      <c r="B26" s="171"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="64"/>
+      <c r="A26" s="144"/>
+      <c r="B26" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="D26" s="134"/>
+      <c r="E26" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="F26" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" s="63" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="167" t="s">
+      <c r="A27" s="144"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="63"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="144"/>
+      <c r="B28" s="120"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="64"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="113"/>
-      <c r="C27" s="63" t="s">
+      <c r="B29" s="113"/>
+      <c r="C29" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D27" s="124" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="98" t="s">
+      <c r="D29" s="134" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="98" t="s">
         <v>173</v>
-      </c>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="169"/>
-      <c r="B28" s="69" t="s">
-        <v>406</v>
-      </c>
-      <c r="C28" s="63" t="s">
-        <v>407</v>
-      </c>
-      <c r="D28" s="124"/>
-      <c r="E28" s="63" t="s">
-        <v>408</v>
-      </c>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="169"/>
-      <c r="B29" s="114"/>
-      <c r="C29" s="63" t="s">
-        <v>380</v>
-      </c>
-      <c r="D29" s="124"/>
-      <c r="E29" s="63" t="s">
-        <v>409</v>
       </c>
       <c r="F29" s="60"/>
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="164"/>
-      <c r="B30" s="115"/>
+      <c r="A30" s="170"/>
+      <c r="B30" s="69" t="s">
+        <v>407</v>
+      </c>
       <c r="C30" s="63" t="s">
+        <v>408</v>
+      </c>
+      <c r="D30" s="134"/>
+      <c r="E30" s="63" t="s">
+        <v>409</v>
+      </c>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="170"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="66" t="s">
+        <v>393</v>
+      </c>
+      <c r="D31" s="134"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="170"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="63" t="s">
+        <v>380</v>
+      </c>
+      <c r="D32" s="134"/>
+      <c r="E32" s="63" t="s">
         <v>410</v>
-      </c>
-      <c r="D30" s="124"/>
-      <c r="E30" s="63" t="s">
-        <v>411</v>
-      </c>
-      <c r="F30" s="60"/>
-      <c r="G30" s="61"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="120" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="59"/>
-      <c r="C31" s="56" t="s">
-        <v>412</v>
-      </c>
-      <c r="D31" s="150" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="59" t="s">
-        <v>355</v>
-      </c>
-      <c r="F31" s="59"/>
-      <c r="G31" s="60"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="121"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="172" t="s">
-        <v>386</v>
-      </c>
-      <c r="D32" s="151"/>
-      <c r="E32" s="60" t="s">
-        <v>180</v>
       </c>
       <c r="F32" s="60"/>
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="122"/>
-      <c r="B33" s="61" t="s">
+      <c r="A33" s="166"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="63" t="s">
+        <v>411</v>
+      </c>
+      <c r="D33" s="134"/>
+      <c r="E33" s="63" t="s">
+        <v>412</v>
+      </c>
+      <c r="F33" s="60"/>
+      <c r="G33" s="61"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="59"/>
+      <c r="C34" s="56" t="s">
         <v>413</v>
       </c>
-      <c r="C33" s="58" t="s">
-        <v>414</v>
-      </c>
-      <c r="D33" s="152"/>
-      <c r="E33" s="61" t="s">
-        <v>130</v>
-      </c>
-      <c r="F33" s="61"/>
-      <c r="G33" s="60"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="136" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="66"/>
-      <c r="C34" s="93" t="s">
-        <v>415</v>
-      </c>
-      <c r="D34" s="124" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="98" t="s">
-        <v>416</v>
-      </c>
-      <c r="F34" s="60"/>
-      <c r="G34" s="59"/>
+      <c r="D34" s="140" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="59" t="s">
+        <v>355</v>
+      </c>
+      <c r="F34" s="59"/>
+      <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="136"/>
-      <c r="B35" s="66" t="s">
-        <v>417</v>
-      </c>
-      <c r="C35" s="63" t="s">
-        <v>418</v>
-      </c>
-      <c r="D35" s="124"/>
-      <c r="E35" s="63" t="s">
-        <v>243</v>
-      </c>
+      <c r="A35" s="131"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="66" t="s">
+        <v>393</v>
+      </c>
+      <c r="D35" s="141"/>
+      <c r="E35" s="60"/>
       <c r="F35" s="60"/>
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="136"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="87" t="s">
-        <v>419</v>
-      </c>
-      <c r="D36" s="124"/>
-      <c r="E36" s="63" t="s">
-        <v>243</v>
+      <c r="A36" s="131"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="D36" s="141"/>
+      <c r="E36" s="60" t="s">
+        <v>180</v>
       </c>
       <c r="F36" s="60"/>
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="136"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="63" t="s">
+      <c r="A37" s="132"/>
+      <c r="B37" s="61" t="s">
+        <v>414</v>
+      </c>
+      <c r="C37" s="58" t="s">
+        <v>415</v>
+      </c>
+      <c r="D37" s="142"/>
+      <c r="E37" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="F37" s="61"/>
+      <c r="G37" s="60"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="66"/>
+      <c r="C38" s="93" t="s">
+        <v>416</v>
+      </c>
+      <c r="D38" s="134" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="98" t="s">
+        <v>417</v>
+      </c>
+      <c r="F38" s="60"/>
+      <c r="G38" s="59"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="144"/>
+      <c r="B39" s="66" t="s">
+        <v>418</v>
+      </c>
+      <c r="C39" s="63" t="s">
+        <v>419</v>
+      </c>
+      <c r="D39" s="134"/>
+      <c r="E39" s="63" t="s">
+        <v>243</v>
+      </c>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="144"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="87" t="s">
         <v>420</v>
       </c>
-      <c r="D37" s="124"/>
-      <c r="E37" s="63" t="s">
+      <c r="D40" s="134"/>
+      <c r="E40" s="63" t="s">
+        <v>243</v>
+      </c>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="144"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66" t="s">
+        <v>393</v>
+      </c>
+      <c r="D41" s="134"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="144"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="D42" s="134"/>
+      <c r="E42" s="63" t="s">
         <v>170</v>
       </c>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="137"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="64" t="s">
-        <v>421</v>
-      </c>
-      <c r="D38" s="124"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="61"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="136" t="s">
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="145"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="64" t="s">
+        <v>422</v>
+      </c>
+      <c r="D43" s="134"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="61"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="66"/>
-      <c r="C39" s="63" t="s">
+      <c r="B44" s="66"/>
+      <c r="C44" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D39" s="159"/>
-      <c r="E39" s="46" t="s">
+      <c r="D44" s="157"/>
+      <c r="E44" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="F39" s="62"/>
-      <c r="G39" s="60"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="136"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="63" t="s">
-        <v>422</v>
-      </c>
-      <c r="D40" s="160"/>
-      <c r="E40" s="77" t="s">
+      <c r="F44" s="62"/>
+      <c r="G44" s="60"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="144"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="63" t="s">
+        <v>423</v>
+      </c>
+      <c r="D45" s="158"/>
+      <c r="E45" s="77" t="s">
         <v>239</v>
       </c>
-      <c r="F40" s="63"/>
-      <c r="G40" s="60"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="136"/>
-      <c r="B41" s="66" t="s">
-        <v>423</v>
-      </c>
-      <c r="C41" s="63"/>
-      <c r="D41" s="160"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="60"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="136"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="160"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="60"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="137"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="161"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="61"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="60"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="144"/>
+      <c r="B46" s="66" t="s">
+        <v>424</v>
+      </c>
+      <c r="C46" s="66" t="s">
+        <v>393</v>
+      </c>
+      <c r="D46" s="158"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="60"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="144"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="158"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="101"/>
+      <c r="G47" s="60"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="145"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="159"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="F19:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8844,7 +8905,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="124" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="47" t="s">
@@ -8853,7 +8914,7 @@
       <c r="C2" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="126" t="s">
+      <c r="D2" s="121" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="52" t="s">
@@ -8865,14 +8926,14 @@
       <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="131"/>
+      <c r="A3" s="125"/>
       <c r="B3" t="s">
         <v>128</v>
       </c>
       <c r="C3" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="127"/>
+      <c r="D3" s="122"/>
       <c r="E3" s="46" t="s">
         <v>130</v>
       </c>
@@ -8880,11 +8941,11 @@
       <c r="G3" s="49"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="131"/>
+      <c r="A4" s="125"/>
       <c r="C4" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="127"/>
+      <c r="D4" s="122"/>
       <c r="E4" s="46" t="s">
         <v>132</v>
       </c>
@@ -8892,12 +8953,12 @@
       <c r="G4" s="49"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="132"/>
+      <c r="A5" s="126"/>
       <c r="B5" s="50"/>
       <c r="C5" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="128"/>
+      <c r="D5" s="123"/>
       <c r="E5" s="55" t="s">
         <v>132</v>
       </c>
@@ -8905,7 +8966,7 @@
       <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="127" t="s">
         <v>134</v>
       </c>
       <c r="B6" t="s">
@@ -8914,7 +8975,7 @@
       <c r="C6" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="126" t="s">
+      <c r="D6" s="121" t="s">
         <v>137</v>
       </c>
       <c r="E6" s="46" t="s">
@@ -8924,11 +8985,11 @@
       <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="133"/>
+      <c r="A7" s="127"/>
       <c r="C7" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="127"/>
+      <c r="D7" s="122"/>
       <c r="E7" s="46" t="s">
         <v>118</v>
       </c>
@@ -8936,22 +8997,22 @@
       <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="133"/>
-      <c r="D8" s="127"/>
+      <c r="A8" s="127"/>
+      <c r="D8" s="122"/>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
       <c r="G8" s="49"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="133"/>
-      <c r="D9" s="127"/>
+      <c r="A9" s="127"/>
+      <c r="D9" s="122"/>
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
       <c r="G9" s="49"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="134"/>
-      <c r="D10" s="128"/>
+      <c r="A10" s="128"/>
+      <c r="D10" s="123"/>
       <c r="E10" s="46" t="s">
         <v>140</v>
       </c>
@@ -8959,7 +9020,7 @@
       <c r="G10" s="49"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="135" t="s">
+      <c r="A11" s="129" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -8968,7 +9029,7 @@
       <c r="C11" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="126" t="s">
+      <c r="D11" s="121" t="s">
         <v>142</v>
       </c>
       <c r="E11" s="52" t="s">
@@ -8978,11 +9039,11 @@
       <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="135"/>
+      <c r="A12" s="129"/>
       <c r="C12" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="127"/>
+      <c r="D12" s="122"/>
       <c r="E12" s="46"/>
       <c r="F12" s="46" t="s">
         <v>143</v>
@@ -8990,14 +9051,14 @@
       <c r="G12" s="49"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="135"/>
+      <c r="A13" s="129"/>
       <c r="B13" t="s">
         <v>145</v>
       </c>
       <c r="C13" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="127"/>
+      <c r="D13" s="122"/>
       <c r="E13" s="46" t="s">
         <v>143</v>
       </c>
@@ -9005,24 +9066,24 @@
       <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="135"/>
+      <c r="A14" s="129"/>
       <c r="C14" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="127"/>
+      <c r="D14" s="122"/>
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
       <c r="G14" s="49"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="135"/>
-      <c r="D15" s="128"/>
+      <c r="A15" s="129"/>
+      <c r="D15" s="123"/>
       <c r="E15" s="46"/>
       <c r="F15" s="46"/>
       <c r="G15" s="49"/>
     </row>
     <row r="16" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A16" s="120" t="s">
+      <c r="A16" s="130" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="47" t="s">
@@ -9031,7 +9092,7 @@
       <c r="C16" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="126" t="s">
+      <c r="D16" s="121" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="52" t="s">
@@ -9041,11 +9102,11 @@
       <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A17" s="121"/>
+      <c r="A17" s="131"/>
       <c r="C17" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="127"/>
+      <c r="D17" s="122"/>
       <c r="E17" s="46">
         <v>1.5</v>
       </c>
@@ -9053,11 +9114,11 @@
       <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A18" s="121"/>
+      <c r="A18" s="131"/>
       <c r="C18" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="127"/>
+      <c r="D18" s="122"/>
       <c r="E18" s="46"/>
       <c r="F18" s="46">
         <v>1.5</v>
@@ -9065,11 +9126,11 @@
       <c r="G18" s="49"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A19" s="121"/>
+      <c r="A19" s="131"/>
       <c r="C19" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="128"/>
+      <c r="D19" s="123"/>
       <c r="E19" s="46"/>
       <c r="F19" s="57">
         <v>0.5</v>
@@ -9077,7 +9138,7 @@
       <c r="G19" s="49"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="120" t="s">
+      <c r="A20" s="130" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="47" t="s">
@@ -9092,7 +9153,7 @@
       <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="121"/>
+      <c r="A21" s="131"/>
       <c r="C21" t="s">
         <v>154</v>
       </c>
@@ -9102,7 +9163,7 @@
       <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="122"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="50"/>
       <c r="C22" s="50" t="s">
         <v>155</v>
@@ -9117,7 +9178,7 @@
       <c r="G22" s="51"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="129" t="s">
+      <c r="A23" s="136" t="s">
         <v>28</v>
       </c>
       <c r="B23" t="s">
@@ -9126,7 +9187,7 @@
       <c r="C23" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="126"/>
+      <c r="D23" s="121"/>
       <c r="E23" s="46" t="s">
         <v>158</v>
       </c>
@@ -9134,11 +9195,11 @@
       <c r="G23" s="49"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="129"/>
+      <c r="A24" s="136"/>
       <c r="C24" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="127"/>
+      <c r="D24" s="122"/>
       <c r="E24" s="46">
         <v>2</v>
       </c>
@@ -9146,11 +9207,11 @@
       <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="129"/>
+      <c r="A25" s="136"/>
       <c r="C25" t="s">
         <v>151</v>
       </c>
-      <c r="D25" s="127"/>
+      <c r="D25" s="122"/>
       <c r="E25" s="46">
         <v>1</v>
       </c>
@@ -9158,11 +9219,11 @@
       <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="129"/>
+      <c r="A26" s="136"/>
       <c r="C26" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="128"/>
+      <c r="D26" s="123"/>
       <c r="E26" s="46">
         <v>1</v>
       </c>
@@ -9170,7 +9231,7 @@
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="120" t="s">
+      <c r="A27" s="130" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="47" t="s">
@@ -9179,7 +9240,7 @@
       <c r="C27" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="126" t="s">
+      <c r="D27" s="121" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="52" t="s">
@@ -9189,14 +9250,14 @@
       <c r="G27" s="48"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="121"/>
+      <c r="A28" s="131"/>
       <c r="B28" s="45" t="s">
         <v>128</v>
       </c>
       <c r="C28" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="127"/>
+      <c r="D28" s="122"/>
       <c r="E28" s="46" t="s">
         <v>130</v>
       </c>
@@ -9204,11 +9265,11 @@
       <c r="G28" s="49"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="121"/>
+      <c r="A29" s="131"/>
       <c r="C29" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="127"/>
+      <c r="D29" s="122"/>
       <c r="E29" s="46" t="s">
         <v>132</v>
       </c>
@@ -9216,12 +9277,12 @@
       <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A30" s="121"/>
+      <c r="A30" s="131"/>
       <c r="B30" s="50"/>
       <c r="C30" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="D30" s="128"/>
+      <c r="D30" s="123"/>
       <c r="E30" s="55" t="s">
         <v>132</v>
       </c>
@@ -9229,10 +9290,10 @@
       <c r="G30" s="51"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="120" t="s">
+      <c r="A31" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="123" t="s">
+      <c r="D31" s="133" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="46"/>
@@ -9240,14 +9301,14 @@
       <c r="G31" s="49"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="121"/>
+      <c r="A32" s="131"/>
       <c r="B32" t="s">
         <v>161</v>
       </c>
       <c r="C32" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="124"/>
+      <c r="D32" s="134"/>
       <c r="E32" s="46" t="s">
         <v>138</v>
       </c>
@@ -9255,14 +9316,14 @@
       <c r="G32" s="49"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="121"/>
+      <c r="A33" s="131"/>
       <c r="B33" t="s">
         <v>135</v>
       </c>
       <c r="C33" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="124"/>
+      <c r="D33" s="134"/>
       <c r="E33" s="46" t="s">
         <v>130</v>
       </c>
@@ -9270,28 +9331,28 @@
       <c r="G33" s="49"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="121"/>
-      <c r="D34" s="124"/>
+      <c r="A34" s="131"/>
+      <c r="D34" s="134"/>
       <c r="E34" s="46"/>
       <c r="F34" s="46"/>
       <c r="G34" s="49"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="121"/>
-      <c r="D35" s="125"/>
+      <c r="A35" s="131"/>
+      <c r="D35" s="135"/>
       <c r="E35" s="46"/>
       <c r="F35" s="46"/>
       <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="120" t="s">
+      <c r="A36" s="130" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="47"/>
       <c r="C36" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="D36" s="126"/>
+      <c r="D36" s="121"/>
       <c r="E36" s="52" t="s">
         <v>165</v>
       </c>
@@ -9299,14 +9360,14 @@
       <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="121"/>
+      <c r="A37" s="131"/>
       <c r="B37" t="s">
         <v>166</v>
       </c>
       <c r="C37" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="D37" s="127"/>
+      <c r="D37" s="122"/>
       <c r="E37" s="46" t="s">
         <v>168</v>
       </c>
@@ -9314,11 +9375,11 @@
       <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="121"/>
+      <c r="A38" s="131"/>
       <c r="C38" t="s">
         <v>169</v>
       </c>
-      <c r="D38" s="127"/>
+      <c r="D38" s="122"/>
       <c r="E38" s="46"/>
       <c r="F38" s="46" t="s">
         <v>170</v>
@@ -9326,46 +9387,46 @@
       <c r="G38" s="49"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="121"/>
-      <c r="D39" s="127"/>
+      <c r="A39" s="131"/>
+      <c r="D39" s="122"/>
       <c r="E39" s="46"/>
       <c r="F39" s="46"/>
       <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="122"/>
+      <c r="A40" s="132"/>
       <c r="B40" s="50"/>
       <c r="C40" s="50"/>
-      <c r="D40" s="128"/>
+      <c r="D40" s="123"/>
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
       <c r="G40" s="51"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="121" t="s">
+      <c r="A41" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="126" t="s">
+      <c r="D41" s="121" t="s">
         <v>24</v>
       </c>
       <c r="E41" s="46"/>
       <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="121"/>
-      <c r="D42" s="127"/>
+      <c r="A42" s="131"/>
+      <c r="D42" s="122"/>
       <c r="E42" s="46"/>
       <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="121"/>
+      <c r="A43" s="131"/>
       <c r="B43" t="s">
         <v>24</v>
       </c>
       <c r="C43" t="s">
         <v>162</v>
       </c>
-      <c r="D43" s="127"/>
+      <c r="D43" s="122"/>
       <c r="E43" s="46" t="s">
         <v>171</v>
       </c>
@@ -9375,16 +9436,16 @@
       <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="121"/>
-      <c r="D44" s="127"/>
+      <c r="A44" s="131"/>
+      <c r="D44" s="122"/>
       <c r="E44" s="46"/>
       <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="122"/>
+      <c r="A45" s="132"/>
       <c r="B45" s="50"/>
       <c r="C45" s="50"/>
-      <c r="D45" s="128"/>
+      <c r="D45" s="123"/>
       <c r="E45" s="55"/>
       <c r="F45" s="50"/>
       <c r="G45" s="51"/>
@@ -9394,12 +9455,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="D2:D5"/>
     <mergeCell ref="A36:A40"/>
     <mergeCell ref="A41:A45"/>
     <mergeCell ref="D31:D35"/>
@@ -9413,6 +9468,12 @@
     <mergeCell ref="D27:D30"/>
     <mergeCell ref="A31:A35"/>
     <mergeCell ref="A27:A30"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="D2:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9458,7 +9519,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="146" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65" t="s">
@@ -9467,7 +9528,7 @@
       <c r="C2" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="144" t="s">
+      <c r="D2" s="149" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="56" t="s">
@@ -9479,12 +9540,12 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="142"/>
+      <c r="A3" s="147"/>
       <c r="B3" s="66"/>
       <c r="C3" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="145"/>
+      <c r="D3" s="150"/>
       <c r="E3" s="57" t="s">
         <v>130</v>
       </c>
@@ -9492,12 +9553,12 @@
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="142"/>
+      <c r="A4" s="147"/>
       <c r="B4" s="66"/>
       <c r="C4" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="145"/>
+      <c r="D4" s="150"/>
       <c r="E4" s="57" t="s">
         <v>176</v>
       </c>
@@ -9505,12 +9566,12 @@
       <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="142"/>
+      <c r="A5" s="147"/>
       <c r="B5" s="66"/>
       <c r="C5" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="145"/>
+      <c r="D5" s="150"/>
       <c r="E5" s="57" t="s">
         <v>173</v>
       </c>
@@ -9518,12 +9579,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="142"/>
+      <c r="A6" s="147"/>
       <c r="B6" s="66"/>
       <c r="C6" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="145"/>
+      <c r="D6" s="150"/>
       <c r="E6" s="57" t="s">
         <v>127</v>
       </c>
@@ -9531,12 +9592,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="143"/>
+      <c r="A7" s="148"/>
       <c r="B7" s="67"/>
       <c r="C7" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="146"/>
+      <c r="D7" s="151"/>
       <c r="E7" s="58" t="s">
         <v>179</v>
       </c>
@@ -9544,7 +9605,7 @@
       <c r="G7" s="61"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="147" t="s">
+      <c r="A8" s="152" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="66" t="s">
@@ -9553,7 +9614,7 @@
       <c r="C8" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="139" t="s">
+      <c r="D8" s="138" t="s">
         <v>137</v>
       </c>
       <c r="E8" s="63" t="s">
@@ -9563,12 +9624,12 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="147"/>
+      <c r="A9" s="152"/>
       <c r="B9" s="66"/>
       <c r="C9" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="139"/>
+      <c r="D9" s="138"/>
       <c r="E9" s="63" t="s">
         <v>130</v>
       </c>
@@ -9576,12 +9637,12 @@
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="147"/>
+      <c r="A10" s="152"/>
       <c r="B10" s="66"/>
       <c r="C10" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="D10" s="139"/>
+      <c r="D10" s="138"/>
       <c r="E10" s="63" t="s">
         <v>183</v>
       </c>
@@ -9589,12 +9650,12 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="148"/>
+      <c r="A11" s="153"/>
       <c r="B11" s="66"/>
       <c r="C11" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="139"/>
+      <c r="D11" s="138"/>
       <c r="E11" s="63" t="s">
         <v>185</v>
       </c>
@@ -9602,14 +9663,14 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="147" t="s">
+      <c r="A12" s="152" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="62"/>
       <c r="C12" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="138" t="s">
+      <c r="D12" s="137" t="s">
         <v>142</v>
       </c>
       <c r="E12" s="62" t="s">
@@ -9619,12 +9680,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="147"/>
+      <c r="A13" s="152"/>
       <c r="B13" s="63"/>
       <c r="C13" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="D13" s="139"/>
+      <c r="D13" s="138"/>
       <c r="E13" s="63" t="s">
         <v>187</v>
       </c>
@@ -9632,12 +9693,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="147"/>
+      <c r="A14" s="152"/>
       <c r="B14" s="76"/>
       <c r="C14" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="139"/>
+      <c r="D14" s="138"/>
       <c r="E14" s="63"/>
       <c r="F14" s="60" t="s">
         <v>130</v>
@@ -9645,12 +9706,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="147"/>
+      <c r="A15" s="152"/>
       <c r="B15" s="63" t="s">
         <v>190</v>
       </c>
       <c r="C15" s="57"/>
-      <c r="D15" s="139"/>
+      <c r="D15" s="138"/>
       <c r="E15" s="63" t="s">
         <v>191</v>
       </c>
@@ -9658,23 +9719,23 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="148"/>
+      <c r="A16" s="153"/>
       <c r="B16" s="64"/>
       <c r="C16" s="57"/>
-      <c r="D16" s="140"/>
+      <c r="D16" s="139"/>
       <c r="E16" s="63"/>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A17" s="136" t="s">
+      <c r="A17" s="144" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="138" t="s">
+      <c r="D17" s="137" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="62" t="s">
@@ -9684,14 +9745,14 @@
       <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A18" s="136"/>
+      <c r="A18" s="144"/>
       <c r="B18" s="66" t="s">
         <v>193</v>
       </c>
       <c r="C18" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="139"/>
+      <c r="D18" s="138"/>
       <c r="E18" s="63" t="s">
         <v>176</v>
       </c>
@@ -9699,12 +9760,12 @@
       <c r="G18" s="60"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A19" s="136"/>
+      <c r="A19" s="144"/>
       <c r="B19" s="66"/>
       <c r="C19" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="D19" s="139"/>
+      <c r="D19" s="138"/>
       <c r="E19" s="63" t="s">
         <v>176</v>
       </c>
@@ -9712,12 +9773,12 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A20" s="136"/>
+      <c r="A20" s="144"/>
       <c r="B20" s="66"/>
       <c r="C20" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="D20" s="139"/>
+      <c r="D20" s="138"/>
       <c r="E20" s="63"/>
       <c r="F20" s="63" t="s">
         <v>194</v>
@@ -9725,7 +9786,7 @@
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="149" t="s">
+      <c r="A21" s="143" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="65" t="s">
@@ -9734,41 +9795,41 @@
       <c r="C21" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="D21" s="138" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="138" t="s">
+      <c r="D21" s="137" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="137" t="s">
         <v>197</v>
       </c>
-      <c r="F21" s="150" t="s">
+      <c r="F21" s="140" t="s">
         <v>198</v>
       </c>
       <c r="G21" s="59"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="136"/>
+      <c r="A22" s="144"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="151"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="141"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="136"/>
+      <c r="A23" s="144"/>
       <c r="B23" s="67"/>
       <c r="C23" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="D23" s="140"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="152"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="142"/>
       <c r="G23" s="61"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="149" t="s">
+      <c r="A24" s="143" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="66" t="s">
@@ -9777,7 +9838,7 @@
       <c r="C24" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="139"/>
+      <c r="D24" s="138"/>
       <c r="E24" s="63" t="s">
         <v>173</v>
       </c>
@@ -9785,12 +9846,12 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="136"/>
+      <c r="A25" s="144"/>
       <c r="B25" s="66"/>
       <c r="C25" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="D25" s="139"/>
+      <c r="D25" s="138"/>
       <c r="E25" s="63" t="s">
         <v>191</v>
       </c>
@@ -9798,12 +9859,12 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="136"/>
+      <c r="A26" s="144"/>
       <c r="B26" s="66"/>
       <c r="C26" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="D26" s="139"/>
+      <c r="D26" s="138"/>
       <c r="E26" s="63" t="s">
         <v>130</v>
       </c>
@@ -9811,12 +9872,12 @@
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="136"/>
+      <c r="A27" s="144"/>
       <c r="B27" s="66"/>
       <c r="C27" s="66" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="139"/>
+      <c r="D27" s="138"/>
       <c r="E27" s="63" t="s">
         <v>202</v>
       </c>
@@ -9824,12 +9885,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="137"/>
+      <c r="A28" s="145"/>
       <c r="B28" s="66"/>
       <c r="C28" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="D28" s="140"/>
+      <c r="D28" s="139"/>
       <c r="E28" s="63" t="s">
         <v>130</v>
       </c>
@@ -9837,7 +9898,7 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="136" t="s">
+      <c r="A29" s="144" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="74" t="s">
@@ -9846,7 +9907,7 @@
       <c r="C29" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="138" t="s">
+      <c r="D29" s="137" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="62" t="s">
@@ -9858,12 +9919,12 @@
       <c r="G29" s="59"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="136"/>
+      <c r="A30" s="144"/>
       <c r="B30" s="70"/>
       <c r="C30" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="D30" s="139"/>
+      <c r="D30" s="138"/>
       <c r="E30" s="63" t="s">
         <v>205</v>
       </c>
@@ -9871,12 +9932,12 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="136"/>
+      <c r="A31" s="144"/>
       <c r="B31" s="71"/>
       <c r="C31" s="69" t="s">
         <v>206</v>
       </c>
-      <c r="D31" s="139"/>
+      <c r="D31" s="138"/>
       <c r="E31" s="63" t="s">
         <v>130</v>
       </c>
@@ -9884,12 +9945,12 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="136"/>
+      <c r="A32" s="144"/>
       <c r="B32" s="71"/>
       <c r="C32" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="D32" s="139"/>
+      <c r="D32" s="138"/>
       <c r="E32" s="63" t="s">
         <v>179</v>
       </c>
@@ -9897,12 +9958,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="136"/>
+      <c r="A33" s="144"/>
       <c r="B33" s="72"/>
       <c r="C33" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="D33" s="139"/>
+      <c r="D33" s="138"/>
       <c r="E33" s="63" t="s">
         <v>208</v>
       </c>
@@ -9910,12 +9971,12 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A34" s="136"/>
+      <c r="A34" s="144"/>
       <c r="B34" s="73"/>
       <c r="C34" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="D34" s="140"/>
+      <c r="D34" s="139"/>
       <c r="E34" s="64" t="s">
         <v>132</v>
       </c>
@@ -9923,12 +9984,12 @@
       <c r="G34" s="61"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="149" t="s">
+      <c r="A35" s="143" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="66"/>
       <c r="C35" s="66"/>
-      <c r="D35" s="138" t="s">
+      <c r="D35" s="137" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="63"/>
@@ -9936,12 +9997,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="136"/>
+      <c r="A36" s="144"/>
       <c r="B36" s="66"/>
       <c r="C36" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="D36" s="139"/>
+      <c r="D36" s="138"/>
       <c r="E36" s="63" t="s">
         <v>130</v>
       </c>
@@ -9949,14 +10010,14 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7" ht="21" customHeight="1">
-      <c r="A37" s="136"/>
+      <c r="A37" s="144"/>
       <c r="B37" s="66" t="s">
         <v>211</v>
       </c>
       <c r="C37" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="D37" s="139"/>
+      <c r="D37" s="138"/>
       <c r="E37" s="63" t="s">
         <v>180</v>
       </c>
@@ -9964,12 +10025,12 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="136"/>
+      <c r="A38" s="144"/>
       <c r="B38" s="66"/>
       <c r="C38" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="D38" s="139"/>
+      <c r="D38" s="138"/>
       <c r="E38" s="63"/>
       <c r="F38" s="60" t="s">
         <v>130</v>
@@ -9977,23 +10038,23 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="136"/>
+      <c r="A39" s="144"/>
       <c r="B39" s="66"/>
       <c r="C39" s="66"/>
-      <c r="D39" s="140"/>
+      <c r="D39" s="139"/>
       <c r="E39" s="63"/>
       <c r="F39" s="60"/>
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="149" t="s">
+      <c r="A40" s="143" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="65"/>
       <c r="C40" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="138"/>
+      <c r="D40" s="137"/>
       <c r="E40" s="62" t="s">
         <v>165</v>
       </c>
@@ -10001,14 +10062,14 @@
       <c r="G40" s="59"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="136"/>
+      <c r="A41" s="144"/>
       <c r="B41" s="66" t="s">
         <v>166</v>
       </c>
       <c r="C41" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="D41" s="139"/>
+      <c r="D41" s="138"/>
       <c r="E41" s="63" t="s">
         <v>168</v>
       </c>
@@ -10016,12 +10077,12 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="136"/>
+      <c r="A42" s="144"/>
       <c r="B42" s="66"/>
       <c r="C42" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="D42" s="139"/>
+      <c r="D42" s="138"/>
       <c r="E42" s="63"/>
       <c r="F42" s="60" t="s">
         <v>170</v>
@@ -10029,32 +10090,32 @@
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="136"/>
+      <c r="A43" s="144"/>
       <c r="B43" s="66"/>
       <c r="C43" s="66"/>
-      <c r="D43" s="139"/>
+      <c r="D43" s="138"/>
       <c r="E43" s="63"/>
       <c r="F43" s="60"/>
       <c r="G43" s="60"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="137"/>
+      <c r="A44" s="145"/>
       <c r="B44" s="67"/>
       <c r="C44" s="67"/>
-      <c r="D44" s="140"/>
+      <c r="D44" s="139"/>
       <c r="E44" s="64"/>
       <c r="F44" s="60"/>
       <c r="G44" s="61"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="136" t="s">
+      <c r="A45" s="144" t="s">
         <v>30</v>
       </c>
       <c r="B45" s="66"/>
       <c r="C45" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D45" s="138" t="s">
+      <c r="D45" s="137" t="s">
         <v>24</v>
       </c>
       <c r="E45" s="65" t="s">
@@ -10064,12 +10125,12 @@
       <c r="G45" s="60"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="136"/>
+      <c r="A46" s="144"/>
       <c r="B46" s="66"/>
       <c r="C46" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D46" s="139"/>
+      <c r="D46" s="138"/>
       <c r="E46" s="66" t="s">
         <v>176</v>
       </c>
@@ -10077,14 +10138,14 @@
       <c r="G46" s="60"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="136"/>
+      <c r="A47" s="144"/>
       <c r="B47" s="66" t="s">
         <v>193</v>
       </c>
       <c r="C47" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="D47" s="139"/>
+      <c r="D47" s="138"/>
       <c r="E47" s="66" t="s">
         <v>176</v>
       </c>
@@ -10092,12 +10153,12 @@
       <c r="G47" s="60"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="136"/>
+      <c r="A48" s="144"/>
       <c r="B48" s="66"/>
       <c r="C48" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="D48" s="139"/>
+      <c r="D48" s="138"/>
       <c r="E48" s="66"/>
       <c r="F48" s="63" t="s">
         <v>194</v>
@@ -10105,10 +10166,10 @@
       <c r="G48" s="60"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="137"/>
+      <c r="A49" s="145"/>
       <c r="B49" s="67"/>
       <c r="C49" s="67"/>
-      <c r="D49" s="140"/>
+      <c r="D49" s="139"/>
       <c r="E49" s="67"/>
       <c r="F49" s="64"/>
       <c r="G49" s="61"/>
@@ -10121,12 +10182,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="D40:D44"/>
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="D45:D49"/>
     <mergeCell ref="A29:A34"/>
@@ -10143,6 +10198,12 @@
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="D24:D28"/>
     <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="D40:D44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10191,12 +10252,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="143" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="144" t="s">
+      <c r="D2" s="149" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -10208,34 +10269,34 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="136"/>
+      <c r="A3" s="144"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="145"/>
+      <c r="D3" s="150"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="137"/>
+      <c r="A4" s="145"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="146"/>
+      <c r="D4" s="151"/>
       <c r="E4" s="58"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="152" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62"/>
-      <c r="D5" s="124" t="s">
+      <c r="D5" s="134" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="63"/>
@@ -10243,12 +10304,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="147"/>
+      <c r="A6" s="152"/>
       <c r="B6" s="66"/>
       <c r="C6" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="124"/>
+      <c r="D6" s="134"/>
       <c r="E6" s="63" t="s">
         <v>218</v>
       </c>
@@ -10256,30 +10317,30 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="147"/>
+      <c r="A7" s="152"/>
       <c r="B7" s="66"/>
       <c r="C7" s="63"/>
-      <c r="D7" s="124"/>
+      <c r="D7" s="134"/>
       <c r="E7" s="63"/>
       <c r="F7" s="60"/>
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="148"/>
+      <c r="A8" s="153"/>
       <c r="B8" s="66"/>
       <c r="C8" s="64"/>
-      <c r="D8" s="124"/>
+      <c r="D8" s="134"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="147" t="s">
+      <c r="A9" s="152" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="62"/>
       <c r="C9" s="57"/>
-      <c r="D9" s="138" t="s">
+      <c r="D9" s="137" t="s">
         <v>142</v>
       </c>
       <c r="E9" s="65"/>
@@ -10287,12 +10348,12 @@
       <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="147"/>
+      <c r="A10" s="152"/>
       <c r="B10" s="63"/>
       <c r="C10" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="D10" s="139"/>
+      <c r="D10" s="138"/>
       <c r="E10" s="66" t="s">
         <v>106</v>
       </c>
@@ -10302,12 +10363,12 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="147"/>
+      <c r="A11" s="152"/>
       <c r="B11" s="63" t="s">
         <v>220</v>
       </c>
       <c r="C11" s="57"/>
-      <c r="D11" s="140"/>
+      <c r="D11" s="139"/>
       <c r="E11" s="67"/>
       <c r="F11" s="63" t="s">
         <v>130</v>
@@ -10315,12 +10376,12 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="149" t="s">
+      <c r="A12" s="143" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="65"/>
       <c r="C12" s="62"/>
-      <c r="D12" s="123" t="s">
+      <c r="D12" s="133" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="66"/>
@@ -10328,12 +10389,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="136"/>
+      <c r="A13" s="144"/>
       <c r="B13" s="66" t="s">
         <v>221</v>
       </c>
       <c r="C13" s="76"/>
-      <c r="D13" s="124"/>
+      <c r="D13" s="134"/>
       <c r="E13" s="66" t="s">
         <v>222</v>
       </c>
@@ -10341,12 +10402,12 @@
       <c r="G13" s="60"/>
 